--- a/Wind_Production_Forecast/Wind_Forecast_Production_15min.xlsx
+++ b/Wind_Production_Forecast/Wind_Forecast_Production_15min.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="11">
   <si>
     <t>Data</t>
   </si>
@@ -25,28 +25,28 @@
     <t>Prediction</t>
   </si>
   <si>
-    <t>2024-12-19</t>
+    <t>2025-03-18</t>
   </si>
   <si>
-    <t>2024-12-20</t>
+    <t>2025-03-19</t>
   </si>
   <si>
-    <t>2024-12-21</t>
+    <t>2025-03-20</t>
   </si>
   <si>
-    <t>2024-12-22</t>
+    <t>2025-03-21</t>
   </si>
   <si>
-    <t>2024-12-23</t>
+    <t>2025-03-22</t>
   </si>
   <si>
-    <t>2024-12-24</t>
+    <t>2025-03-23</t>
   </si>
   <si>
-    <t>2024-12-25</t>
+    <t>2025-03-24</t>
   </si>
   <si>
-    <t>2024-12-26</t>
+    <t>2025-03-25</t>
   </si>
 </sst>
 </file>
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C673"/>
+  <dimension ref="A1:C674"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -406,10 +406,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2">
-        <v>669.5380249023438</v>
+        <v>2264.174072265625</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -417,10 +417,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2">
-        <v>590.2940063476562</v>
+        <v>2351.680908203125</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -428,10 +428,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2">
-        <v>634.9210205078125</v>
+        <v>1722.176025390625</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -439,10 +439,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2">
-        <v>650.7100219726562</v>
+        <v>1508.905029296875</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -450,10 +450,10 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2">
-        <v>626.0009765625</v>
+        <v>1537.302978515625</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -461,10 +461,10 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2">
-        <v>570.4840087890625</v>
+        <v>1552.274047851562</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -472,10 +472,10 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="C8" s="2">
-        <v>543.18798828125</v>
+        <v>1466.926025390625</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="C9" s="2">
-        <v>542.531005859375</v>
+        <v>1874.817016601562</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -494,10 +494,10 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="C10" s="2">
-        <v>529.239990234375</v>
+        <v>1472.326049804688</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -505,10 +505,10 @@
         <v>3</v>
       </c>
       <c r="B11">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="C11" s="2">
-        <v>449.9580078125</v>
+        <v>1195.948974609375</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -516,10 +516,10 @@
         <v>3</v>
       </c>
       <c r="B12">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C12" s="2">
-        <v>406.2730102539062</v>
+        <v>963.1119995117188</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -527,10 +527,10 @@
         <v>3</v>
       </c>
       <c r="B13">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="C13" s="2">
-        <v>302.5270080566406</v>
+        <v>869.083984375</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -538,10 +538,10 @@
         <v>3</v>
       </c>
       <c r="B14">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="C14" s="2">
-        <v>255.3699951171875</v>
+        <v>802.364013671875</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -549,10 +549,10 @@
         <v>3</v>
       </c>
       <c r="B15">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="C15" s="2">
-        <v>131.5870056152344</v>
+        <v>704.5139770507812</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -560,10 +560,10 @@
         <v>3</v>
       </c>
       <c r="B16">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="C16" s="2">
-        <v>163.1289978027344</v>
+        <v>769.8209838867188</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -571,10 +571,10 @@
         <v>3</v>
       </c>
       <c r="B17">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="C17" s="2">
-        <v>188.0180053710938</v>
+        <v>749.7020263671875</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -582,10 +582,10 @@
         <v>3</v>
       </c>
       <c r="B18">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="C18" s="2">
-        <v>199.5429992675781</v>
+        <v>719.5969848632812</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -593,10 +593,10 @@
         <v>3</v>
       </c>
       <c r="B19">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="C19" s="2">
-        <v>179.3480072021484</v>
+        <v>819.4550170898438</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -604,10 +604,10 @@
         <v>3</v>
       </c>
       <c r="B20">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="C20" s="2">
-        <v>161.5200042724609</v>
+        <v>869.0999755859375</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -615,10 +615,10 @@
         <v>3</v>
       </c>
       <c r="B21">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="C21" s="2">
-        <v>291.9450073242188</v>
+        <v>864.8179931640625</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -626,10 +626,10 @@
         <v>3</v>
       </c>
       <c r="B22">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="C22" s="2">
-        <v>423.1669921875</v>
+        <v>726.4400024414062</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -637,10 +637,10 @@
         <v>3</v>
       </c>
       <c r="B23">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C23" s="2">
-        <v>635.4030151367188</v>
+        <v>696.1489868164062</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -648,10 +648,10 @@
         <v>3</v>
       </c>
       <c r="B24">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="C24" s="2">
-        <v>662.9669799804688</v>
+        <v>651.0089721679688</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -659,10 +659,10 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="C25" s="2">
-        <v>960.7020263671875</v>
+        <v>614.2219848632812</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -670,307 +670,307 @@
         <v>3</v>
       </c>
       <c r="B26">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="C26" s="2">
-        <v>1078.666015625</v>
+        <v>513.3350219726562</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B27">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="C27" s="2">
-        <v>1071.218994140625</v>
+        <v>426.4179992675781</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B28">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="C28" s="2">
-        <v>1043.199951171875</v>
+        <v>347.0690002441406</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29">
         <v>3</v>
       </c>
-      <c r="B29">
-        <v>72</v>
-      </c>
       <c r="C29" s="2">
-        <v>1020.539001464844</v>
+        <v>221.6499938964844</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B30">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="C30" s="2">
-        <v>966.198974609375</v>
+        <v>260.1220092773438</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B31">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="C31" s="2">
-        <v>900.2999877929688</v>
+        <v>283.0020141601562</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B32">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="C32" s="2">
-        <v>745.8930053710938</v>
+        <v>402.3840026855469</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B33">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="C33" s="2">
-        <v>673.43798828125</v>
+        <v>445.2439880371094</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B34">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="C34" s="2">
-        <v>692.2830200195312</v>
+        <v>472.8900146484375</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B35">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="C35" s="2">
-        <v>675.7860107421875</v>
+        <v>621.3939819335938</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B36">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="C36" s="2">
-        <v>646.676025390625</v>
+        <v>556.3569946289062</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B37">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="C37" s="2">
-        <v>634.1409912109375</v>
+        <v>618.3619995117188</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B38">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="C38" s="2">
-        <v>653.030029296875</v>
+        <v>625.1829833984375</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B39">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="C39" s="2">
-        <v>652.52099609375</v>
+        <v>613.7230224609375</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B40">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="C40" s="2">
-        <v>599.8599853515625</v>
+        <v>636.697021484375</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B41">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="C41" s="2">
-        <v>707.7429809570312</v>
+        <v>587.18798828125</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B42">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="C42" s="2">
-        <v>800.7009887695312</v>
+        <v>620.302001953125</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B43">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="C43" s="2">
-        <v>831.81201171875</v>
+        <v>549.427001953125</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B44">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="C44" s="2">
-        <v>834.7949829101562</v>
+        <v>559.1610107421875</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B45">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="C45" s="2">
-        <v>802.906005859375</v>
+        <v>557.6129760742188</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B46">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="C46" s="2">
-        <v>694.8079833984375</v>
+        <v>632.2230224609375</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B47">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="C47" s="2">
-        <v>697.8569946289062</v>
+        <v>768.291015625</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B48">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="C48" s="2">
-        <v>686.2540283203125</v>
+        <v>930.9639892578125</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B49">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="C49" s="2">
-        <v>649.8759765625</v>
+        <v>927.8699951171875</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B50">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="C50" s="2">
-        <v>793.3740234375</v>
+        <v>945.614990234375</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B51">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="C51" s="2">
-        <v>840.2059936523438</v>
+        <v>1013.989990234375</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B52">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="C52" s="2">
-        <v>813.1129760742188</v>
+        <v>1140.925048828125</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B53">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="C53" s="2">
-        <v>1010.130981445312</v>
+        <v>1170.724975585938</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -978,10 +978,10 @@
         <v>4</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C54" s="2">
-        <v>1056.902954101562</v>
+        <v>1232.557983398438</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -989,10 +989,10 @@
         <v>4</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C55" s="2">
-        <v>1075.10302734375</v>
+        <v>1232.697998046875</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1000,10 +1000,10 @@
         <v>4</v>
       </c>
       <c r="B56">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C56" s="2">
-        <v>1107.85205078125</v>
+        <v>1004.546997070312</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1011,10 +1011,10 @@
         <v>4</v>
       </c>
       <c r="B57">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C57" s="2">
-        <v>1112.034057617188</v>
+        <v>1000.072021484375</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1022,10 +1022,10 @@
         <v>4</v>
       </c>
       <c r="B58">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C58" s="2">
-        <v>887.0040283203125</v>
+        <v>980.177001953125</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1033,10 +1033,10 @@
         <v>4</v>
       </c>
       <c r="B59">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C59" s="2">
-        <v>917.7069702148438</v>
+        <v>934.8319702148438</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1044,10 +1044,10 @@
         <v>4</v>
       </c>
       <c r="B60">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C60" s="2">
-        <v>920.6589965820312</v>
+        <v>784.427978515625</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1055,10 +1055,10 @@
         <v>4</v>
       </c>
       <c r="B61">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C61" s="2">
-        <v>933.8350219726562</v>
+        <v>923.677001953125</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1066,10 +1066,10 @@
         <v>4</v>
       </c>
       <c r="B62">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C62" s="2">
-        <v>1041.516967773438</v>
+        <v>854.2899780273438</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1077,10 +1077,10 @@
         <v>4</v>
       </c>
       <c r="B63">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C63" s="2">
-        <v>1021.557006835938</v>
+        <v>836.8499755859375</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1088,10 +1088,10 @@
         <v>4</v>
       </c>
       <c r="B64">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C64" s="2">
-        <v>867.3829956054688</v>
+        <v>953.89501953125</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1099,10 +1099,10 @@
         <v>4</v>
       </c>
       <c r="B65">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C65" s="2">
-        <v>835.948974609375</v>
+        <v>1138.110961914062</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1110,10 +1110,10 @@
         <v>4</v>
       </c>
       <c r="B66">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C66" s="2">
-        <v>925.68798828125</v>
+        <v>1218.89697265625</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1121,10 +1121,10 @@
         <v>4</v>
       </c>
       <c r="B67">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C67" s="2">
-        <v>937.3040161132812</v>
+        <v>1064.2099609375</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1132,10 +1132,10 @@
         <v>4</v>
       </c>
       <c r="B68">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C68" s="2">
-        <v>1092.573974609375</v>
+        <v>1070.347045898438</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1143,10 +1143,10 @@
         <v>4</v>
       </c>
       <c r="B69">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C69" s="2">
-        <v>1020.461975097656</v>
+        <v>958.2310180664062</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1154,10 +1154,10 @@
         <v>4</v>
       </c>
       <c r="B70">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C70" s="2">
-        <v>1050.671020507812</v>
+        <v>925.843017578125</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1165,10 +1165,10 @@
         <v>4</v>
       </c>
       <c r="B71">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C71" s="2">
-        <v>1054.871948242188</v>
+        <v>1076.802978515625</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1176,10 +1176,10 @@
         <v>4</v>
       </c>
       <c r="B72">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C72" s="2">
-        <v>1064.35595703125</v>
+        <v>1233.347045898438</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1187,10 +1187,10 @@
         <v>4</v>
       </c>
       <c r="B73">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C73" s="2">
-        <v>1053.5400390625</v>
+        <v>1378.390014648438</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1198,10 +1198,10 @@
         <v>4</v>
       </c>
       <c r="B74">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C74" s="2">
-        <v>1039.588989257812</v>
+        <v>1344.72998046875</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1209,10 +1209,10 @@
         <v>4</v>
       </c>
       <c r="B75">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C75" s="2">
-        <v>1010.642028808594</v>
+        <v>1465.7080078125</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1220,10 +1220,10 @@
         <v>4</v>
       </c>
       <c r="B76">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="C76" s="2">
-        <v>1015.406982421875</v>
+        <v>1409.691040039062</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1231,10 +1231,10 @@
         <v>4</v>
       </c>
       <c r="B77">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="C77" s="2">
-        <v>953.0440063476562</v>
+        <v>1446.692993164062</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1242,10 +1242,10 @@
         <v>4</v>
       </c>
       <c r="B78">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C78" s="2">
-        <v>912.2130126953125</v>
+        <v>1513.266967773438</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1253,10 +1253,10 @@
         <v>4</v>
       </c>
       <c r="B79">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C79" s="2">
-        <v>995.06298828125</v>
+        <v>1460.692993164062</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1264,10 +1264,10 @@
         <v>4</v>
       </c>
       <c r="B80">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="C80" s="2">
-        <v>953.93798828125</v>
+        <v>1651.461059570312</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1275,10 +1275,10 @@
         <v>4</v>
       </c>
       <c r="B81">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="C81" s="2">
-        <v>902.5089721679688</v>
+        <v>1646.56103515625</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1286,10 +1286,10 @@
         <v>4</v>
       </c>
       <c r="B82">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="C82" s="2">
-        <v>958.5009765625</v>
+        <v>1565.516967773438</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1297,10 +1297,10 @@
         <v>4</v>
       </c>
       <c r="B83">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C83" s="2">
-        <v>903.1240234375</v>
+        <v>1764.859985351562</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1308,10 +1308,10 @@
         <v>4</v>
       </c>
       <c r="B84">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="C84" s="2">
-        <v>851.458984375</v>
+        <v>1695.401000976562</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1319,10 +1319,10 @@
         <v>4</v>
       </c>
       <c r="B85">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="C85" s="2">
-        <v>905.677978515625</v>
+        <v>1869.9580078125</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1330,10 +1330,10 @@
         <v>4</v>
       </c>
       <c r="B86">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C86" s="2">
-        <v>810.75</v>
+        <v>1897.989990234375</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1341,10 +1341,10 @@
         <v>4</v>
       </c>
       <c r="B87">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="C87" s="2">
-        <v>681.2869873046875</v>
+        <v>1777.421020507812</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1352,10 +1352,10 @@
         <v>4</v>
       </c>
       <c r="B88">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="C88" s="2">
-        <v>741.5050048828125</v>
+        <v>1824.774047851562</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1363,10 +1363,10 @@
         <v>4</v>
       </c>
       <c r="B89">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="C89" s="2">
-        <v>812.885986328125</v>
+        <v>1732.20703125</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1374,10 +1374,10 @@
         <v>4</v>
       </c>
       <c r="B90">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="C90" s="2">
-        <v>743.5659790039062</v>
+        <v>1896.0810546875</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1385,10 +1385,10 @@
         <v>4</v>
       </c>
       <c r="B91">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="C91" s="2">
-        <v>665.197998046875</v>
+        <v>1948.191040039062</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1396,10 +1396,10 @@
         <v>4</v>
       </c>
       <c r="B92">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="C92" s="2">
-        <v>641.6420288085938</v>
+        <v>1922.431030273438</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1407,10 +1407,10 @@
         <v>4</v>
       </c>
       <c r="B93">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="C93" s="2">
-        <v>626.3289794921875</v>
+        <v>1627.942993164062</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1418,10 +1418,10 @@
         <v>4</v>
       </c>
       <c r="B94">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="C94" s="2">
-        <v>566.4409790039062</v>
+        <v>1334.576049804688</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1429,10 +1429,10 @@
         <v>4</v>
       </c>
       <c r="B95">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="C95" s="2">
-        <v>573.2520141601562</v>
+        <v>1254.069946289062</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1440,10 +1440,10 @@
         <v>4</v>
       </c>
       <c r="B96">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C96" s="2">
-        <v>587.7059936523438</v>
+        <v>1162.488037109375</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1451,10 +1451,10 @@
         <v>4</v>
       </c>
       <c r="B97">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="C97" s="2">
-        <v>612.5180053710938</v>
+        <v>1066.620971679688</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1462,10 +1462,10 @@
         <v>4</v>
       </c>
       <c r="B98">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="C98" s="2">
-        <v>649.4600219726562</v>
+        <v>1032.68603515625</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1473,10 +1473,10 @@
         <v>4</v>
       </c>
       <c r="B99">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="C99" s="2">
-        <v>686.1840209960938</v>
+        <v>842.6270141601562</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1484,10 +1484,10 @@
         <v>4</v>
       </c>
       <c r="B100">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C100" s="2">
-        <v>489.1220092773438</v>
+        <v>904.8499755859375</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1495,10 +1495,10 @@
         <v>4</v>
       </c>
       <c r="B101">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C101" s="2">
-        <v>640.2960205078125</v>
+        <v>916.3150024414062</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1506,10 +1506,10 @@
         <v>4</v>
       </c>
       <c r="B102">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C102" s="2">
-        <v>541.5670166015625</v>
+        <v>790.6160278320312</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1517,10 +1517,10 @@
         <v>4</v>
       </c>
       <c r="B103">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="C103" s="2">
-        <v>514.2680053710938</v>
+        <v>683.7449951171875</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1528,10 +1528,10 @@
         <v>4</v>
       </c>
       <c r="B104">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="C104" s="2">
-        <v>490.1969909667969</v>
+        <v>563.4829711914062</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1539,10 +1539,10 @@
         <v>4</v>
       </c>
       <c r="B105">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="C105" s="2">
-        <v>499.7579956054688</v>
+        <v>562.39697265625</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1550,10 +1550,10 @@
         <v>4</v>
       </c>
       <c r="B106">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="C106" s="2">
-        <v>343.8569946289062</v>
+        <v>530.4959716796875</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1561,10 +1561,10 @@
         <v>4</v>
       </c>
       <c r="B107">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="C107" s="2">
-        <v>325.2760009765625</v>
+        <v>493.8989868164062</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1572,10 +1572,10 @@
         <v>4</v>
       </c>
       <c r="B108">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C108" s="2">
-        <v>295.3299865722656</v>
+        <v>466.4360046386719</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1583,10 +1583,10 @@
         <v>4</v>
       </c>
       <c r="B109">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="C109" s="2">
-        <v>320.8080139160156</v>
+        <v>435.9700012207031</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1594,10 +1594,10 @@
         <v>4</v>
       </c>
       <c r="B110">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="C110" s="2">
-        <v>367.68798828125</v>
+        <v>375.6619873046875</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1605,10 +1605,10 @@
         <v>4</v>
       </c>
       <c r="B111">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="C111" s="2">
-        <v>396.8599853515625</v>
+        <v>875.2880249023438</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1616,10 +1616,10 @@
         <v>4</v>
       </c>
       <c r="B112">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="C112" s="2">
-        <v>455.510009765625</v>
+        <v>483.2059936523438</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1627,10 +1627,10 @@
         <v>4</v>
       </c>
       <c r="B113">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="C113" s="2">
-        <v>514.0139770507812</v>
+        <v>290.9129943847656</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1638,10 +1638,10 @@
         <v>4</v>
       </c>
       <c r="B114">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="C114" s="2">
-        <v>599.4609985351562</v>
+        <v>182.6349945068359</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1649,10 +1649,10 @@
         <v>4</v>
       </c>
       <c r="B115">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="C115" s="2">
-        <v>617.2789916992188</v>
+        <v>599.4539794921875</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1660,10 +1660,10 @@
         <v>4</v>
       </c>
       <c r="B116">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="C116" s="2">
-        <v>616.7360229492188</v>
+        <v>299.468994140625</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1671,10 +1671,10 @@
         <v>4</v>
       </c>
       <c r="B117">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="C117" s="2">
-        <v>658.1950073242188</v>
+        <v>299.9490051269531</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1682,10 +1682,10 @@
         <v>4</v>
       </c>
       <c r="B118">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="C118" s="2">
-        <v>523.343994140625</v>
+        <v>331.6069946289062</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1693,10 +1693,10 @@
         <v>4</v>
       </c>
       <c r="B119">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C119" s="2">
-        <v>569.3889770507812</v>
+        <v>319.406005859375</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1704,10 +1704,10 @@
         <v>4</v>
       </c>
       <c r="B120">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="C120" s="2">
-        <v>573.7410278320312</v>
+        <v>429.1260070800781</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1715,10 +1715,10 @@
         <v>4</v>
       </c>
       <c r="B121">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="C121" s="2">
-        <v>572.1950073242188</v>
+        <v>326.406005859375</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1726,307 +1726,307 @@
         <v>4</v>
       </c>
       <c r="B122">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="C122" s="2">
-        <v>586.1339721679688</v>
+        <v>315.968994140625</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B123">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="C123" s="2">
-        <v>572.708984375</v>
+        <v>343.3309936523438</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B124">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="C124" s="2">
-        <v>581.2860107421875</v>
+        <v>507.0950012207031</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B125">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="C125" s="2">
-        <v>556.35302734375</v>
+        <v>588.0020141601562</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B126">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="C126" s="2">
-        <v>472.10400390625</v>
+        <v>688.3670043945312</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B127">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="C127" s="2">
-        <v>486.0899963378906</v>
+        <v>483.1300048828125</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B128">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="C128" s="2">
-        <v>409.0190124511719</v>
+        <v>534.2780151367188</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B129">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="C129" s="2">
-        <v>340.4039916992188</v>
+        <v>592.9210205078125</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B130">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="C130" s="2">
-        <v>344.4509887695312</v>
+        <v>531.780029296875</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B131">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="C131" s="2">
-        <v>298.9909973144531</v>
+        <v>547.969970703125</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B132">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="C132" s="2">
-        <v>226.8049926757812</v>
+        <v>598.3309936523438</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B133">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="C133" s="2">
-        <v>224.4080047607422</v>
+        <v>589.541015625</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B134">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="C134" s="2">
-        <v>193.9320068359375</v>
+        <v>563.3989868164062</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B135">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="C135" s="2">
-        <v>281.0509948730469</v>
+        <v>555.5759887695312</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B136">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="C136" s="2">
-        <v>341.8389892578125</v>
+        <v>543.0089721679688</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B137">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="C137" s="2">
-        <v>328.2980041503906</v>
+        <v>583.0540161132812</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B138">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="C138" s="2">
-        <v>352.2820129394531</v>
+        <v>571.166015625</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B139">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="C139" s="2">
-        <v>400.2260131835938</v>
+        <v>552.8699951171875</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B140">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="C140" s="2">
-        <v>275.4010009765625</v>
+        <v>610.8209838867188</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B141">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="C141" s="2">
-        <v>296.9339904785156</v>
+        <v>590.8090209960938</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B142">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="C142" s="2">
-        <v>184.1880035400391</v>
+        <v>594.60498046875</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B143">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="C143" s="2">
-        <v>99.69899749755859</v>
+        <v>563.0609741210938</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B144">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="C144" s="2">
-        <v>123.9570007324219</v>
+        <v>580.0330200195312</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B145">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="C145" s="2">
-        <v>-57.21500015258789</v>
+        <v>540.0590209960938</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B146">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="C146" s="2">
-        <v>174.2230072021484</v>
+        <v>555.0969848632812</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B147">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="C147" s="2">
-        <v>346.7319946289062</v>
+        <v>541.2739868164062</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B148">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="C148" s="2">
-        <v>714.7559814453125</v>
+        <v>536.1649780273438</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B149">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="C149" s="2">
-        <v>1008.4580078125</v>
+        <v>482.3349914550781</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2034,10 +2034,10 @@
         <v>5</v>
       </c>
       <c r="B150">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C150" s="2">
-        <v>1038.43994140625</v>
+        <v>481.906005859375</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2045,10 +2045,10 @@
         <v>5</v>
       </c>
       <c r="B151">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C151" s="2">
-        <v>1518.047973632812</v>
+        <v>294.2680053710938</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2056,10 +2056,10 @@
         <v>5</v>
       </c>
       <c r="B152">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C152" s="2">
-        <v>1720.954956054688</v>
+        <v>207.8470001220703</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2067,10 +2067,10 @@
         <v>5</v>
       </c>
       <c r="B153">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C153" s="2">
-        <v>1737.097045898438</v>
+        <v>184.7510070800781</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2078,10 +2078,10 @@
         <v>5</v>
       </c>
       <c r="B154">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C154" s="2">
-        <v>1793.947998046875</v>
+        <v>165.6900024414062</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2089,10 +2089,10 @@
         <v>5</v>
       </c>
       <c r="B155">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C155" s="2">
-        <v>1793.265991210938</v>
+        <v>228.9210052490234</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2100,10 +2100,10 @@
         <v>5</v>
       </c>
       <c r="B156">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C156" s="2">
-        <v>1768.534057617188</v>
+        <v>449.218994140625</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2111,10 +2111,10 @@
         <v>5</v>
       </c>
       <c r="B157">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C157" s="2">
-        <v>1819.662963867188</v>
+        <v>628.68798828125</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2122,10 +2122,10 @@
         <v>5</v>
       </c>
       <c r="B158">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C158" s="2">
-        <v>1876.442993164062</v>
+        <v>559.5349731445312</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2133,10 +2133,10 @@
         <v>5</v>
       </c>
       <c r="B159">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C159" s="2">
-        <v>1924.163940429688</v>
+        <v>165.3300018310547</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2144,10 +2144,10 @@
         <v>5</v>
       </c>
       <c r="B160">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C160" s="2">
-        <v>1962.718017578125</v>
+        <v>77.85600280761719</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2155,10 +2155,10 @@
         <v>5</v>
       </c>
       <c r="B161">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C161" s="2">
-        <v>2063.319091796875</v>
+        <v>95.06999969482422</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2166,10 +2166,10 @@
         <v>5</v>
       </c>
       <c r="B162">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C162" s="2">
-        <v>2070.48193359375</v>
+        <v>140.5319976806641</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2177,10 +2177,10 @@
         <v>5</v>
       </c>
       <c r="B163">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C163" s="2">
-        <v>2046.93896484375</v>
+        <v>159.8059997558594</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2188,10 +2188,10 @@
         <v>5</v>
       </c>
       <c r="B164">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C164" s="2">
-        <v>2070.139892578125</v>
+        <v>485.1919860839844</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2199,10 +2199,10 @@
         <v>5</v>
       </c>
       <c r="B165">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C165" s="2">
-        <v>2082.072021484375</v>
+        <v>526.780029296875</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2210,10 +2210,10 @@
         <v>5</v>
       </c>
       <c r="B166">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C166" s="2">
-        <v>2064.281005859375</v>
+        <v>514.2730102539062</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2221,10 +2221,10 @@
         <v>5</v>
       </c>
       <c r="B167">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C167" s="2">
-        <v>2083.802978515625</v>
+        <v>477.8389892578125</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2232,10 +2232,10 @@
         <v>5</v>
       </c>
       <c r="B168">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C168" s="2">
-        <v>2095.2109375</v>
+        <v>430.635986328125</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2243,10 +2243,10 @@
         <v>5</v>
       </c>
       <c r="B169">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C169" s="2">
-        <v>2120.77392578125</v>
+        <v>422.4339904785156</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2254,10 +2254,10 @@
         <v>5</v>
       </c>
       <c r="B170">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C170" s="2">
-        <v>2125.884033203125</v>
+        <v>280.4089965820312</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2265,10 +2265,10 @@
         <v>5</v>
       </c>
       <c r="B171">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C171" s="2">
-        <v>2143.8740234375</v>
+        <v>206.9519958496094</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2276,10 +2276,10 @@
         <v>5</v>
       </c>
       <c r="B172">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="C172" s="2">
-        <v>2118.06396484375</v>
+        <v>161.6219940185547</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2287,10 +2287,10 @@
         <v>5</v>
       </c>
       <c r="B173">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="C173" s="2">
-        <v>2114.35791015625</v>
+        <v>155.4360046386719</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2298,10 +2298,10 @@
         <v>5</v>
       </c>
       <c r="B174">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C174" s="2">
-        <v>2130.919921875</v>
+        <v>191.1280059814453</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2309,10 +2309,10 @@
         <v>5</v>
       </c>
       <c r="B175">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C175" s="2">
-        <v>2156.861083984375</v>
+        <v>213.2039947509766</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2320,10 +2320,10 @@
         <v>5</v>
       </c>
       <c r="B176">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="C176" s="2">
-        <v>2128.80810546875</v>
+        <v>231.4459991455078</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2331,10 +2331,10 @@
         <v>5</v>
       </c>
       <c r="B177">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="C177" s="2">
-        <v>2143.406982421875</v>
+        <v>227.8520050048828</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2342,10 +2342,10 @@
         <v>5</v>
       </c>
       <c r="B178">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="C178" s="2">
-        <v>2169.69091796875</v>
+        <v>191.4640045166016</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2353,10 +2353,10 @@
         <v>5</v>
       </c>
       <c r="B179">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C179" s="2">
-        <v>2163.2939453125</v>
+        <v>194.3200073242188</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2364,10 +2364,10 @@
         <v>5</v>
       </c>
       <c r="B180">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="C180" s="2">
-        <v>2181.302001953125</v>
+        <v>256.9819946289062</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2375,10 +2375,10 @@
         <v>5</v>
       </c>
       <c r="B181">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="C181" s="2">
-        <v>2185.715087890625</v>
+        <v>274.3179931640625</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2386,10 +2386,10 @@
         <v>5</v>
       </c>
       <c r="B182">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C182" s="2">
-        <v>2162.550048828125</v>
+        <v>270.2479858398438</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2397,10 +2397,10 @@
         <v>5</v>
       </c>
       <c r="B183">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="C183" s="2">
-        <v>2205.47412109375</v>
+        <v>232.2380065917969</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2408,10 +2408,10 @@
         <v>5</v>
       </c>
       <c r="B184">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="C184" s="2">
-        <v>2198.944091796875</v>
+        <v>158.2779998779297</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2419,10 +2419,10 @@
         <v>5</v>
       </c>
       <c r="B185">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="C185" s="2">
-        <v>2215.7900390625</v>
+        <v>143.4179992675781</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2430,10 +2430,10 @@
         <v>5</v>
       </c>
       <c r="B186">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="C186" s="2">
-        <v>2201.98193359375</v>
+        <v>134.9170074462891</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2441,10 +2441,10 @@
         <v>5</v>
       </c>
       <c r="B187">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="C187" s="2">
-        <v>2196.367919921875</v>
+        <v>125.9469985961914</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2452,10 +2452,10 @@
         <v>5</v>
       </c>
       <c r="B188">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="C188" s="2">
-        <v>2158.98095703125</v>
+        <v>39.36800003051758</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2463,10 +2463,10 @@
         <v>5</v>
       </c>
       <c r="B189">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="C189" s="2">
-        <v>2154.930908203125</v>
+        <v>58.75199890136719</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2474,10 +2474,10 @@
         <v>5</v>
       </c>
       <c r="B190">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="C190" s="2">
-        <v>2160.551025390625</v>
+        <v>2.072000026702881</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2485,10 +2485,10 @@
         <v>5</v>
       </c>
       <c r="B191">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="C191" s="2">
-        <v>2351.89892578125</v>
+        <v>83.66300201416016</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2496,10 +2496,10 @@
         <v>5</v>
       </c>
       <c r="B192">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C192" s="2">
-        <v>2371.011962890625</v>
+        <v>72.96499633789062</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2507,10 +2507,10 @@
         <v>5</v>
       </c>
       <c r="B193">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="C193" s="2">
-        <v>2428.840087890625</v>
+        <v>81.56900024414062</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2518,10 +2518,10 @@
         <v>5</v>
       </c>
       <c r="B194">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="C194" s="2">
-        <v>2433.77197265625</v>
+        <v>35.2760009765625</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2529,10 +2529,10 @@
         <v>5</v>
       </c>
       <c r="B195">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="C195" s="2">
-        <v>2479.616943359375</v>
+        <v>110.5199966430664</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2540,10 +2540,10 @@
         <v>5</v>
       </c>
       <c r="B196">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C196" s="2">
-        <v>2491.751953125</v>
+        <v>100.7770004272461</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2551,10 +2551,10 @@
         <v>5</v>
       </c>
       <c r="B197">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C197" s="2">
-        <v>2487.201904296875</v>
+        <v>77.50599670410156</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2562,10 +2562,10 @@
         <v>5</v>
       </c>
       <c r="B198">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C198" s="2">
-        <v>2443.970947265625</v>
+        <v>106.0859985351562</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2573,10 +2573,10 @@
         <v>5</v>
       </c>
       <c r="B199">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="C199" s="2">
-        <v>2427.486083984375</v>
+        <v>154.9709930419922</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2584,10 +2584,10 @@
         <v>5</v>
       </c>
       <c r="B200">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="C200" s="2">
-        <v>2406.299072265625</v>
+        <v>194.7010040283203</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2595,10 +2595,10 @@
         <v>5</v>
       </c>
       <c r="B201">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="C201" s="2">
-        <v>2375.593017578125</v>
+        <v>195.1219940185547</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2606,10 +2606,10 @@
         <v>5</v>
       </c>
       <c r="B202">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="C202" s="2">
-        <v>2358.35302734375</v>
+        <v>206.3760070800781</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2617,10 +2617,10 @@
         <v>5</v>
       </c>
       <c r="B203">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="C203" s="2">
-        <v>2308.305908203125</v>
+        <v>216.2879943847656</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2628,10 +2628,10 @@
         <v>5</v>
       </c>
       <c r="B204">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C204" s="2">
-        <v>2338.156982421875</v>
+        <v>215.7330017089844</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2639,10 +2639,10 @@
         <v>5</v>
       </c>
       <c r="B205">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="C205" s="2">
-        <v>2334.576904296875</v>
+        <v>224.5950012207031</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2650,10 +2650,10 @@
         <v>5</v>
       </c>
       <c r="B206">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="C206" s="2">
-        <v>2187.462890625</v>
+        <v>214.6159973144531</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2661,10 +2661,10 @@
         <v>5</v>
       </c>
       <c r="B207">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="C207" s="2">
-        <v>2187.205078125</v>
+        <v>238.2350006103516</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2672,10 +2672,10 @@
         <v>5</v>
       </c>
       <c r="B208">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="C208" s="2">
-        <v>2363.110107421875</v>
+        <v>222.1029968261719</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2683,10 +2683,10 @@
         <v>5</v>
       </c>
       <c r="B209">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="C209" s="2">
-        <v>2364.9619140625</v>
+        <v>259.6940002441406</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2694,10 +2694,10 @@
         <v>5</v>
       </c>
       <c r="B210">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="C210" s="2">
-        <v>2386.26611328125</v>
+        <v>269.8760070800781</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2705,10 +2705,10 @@
         <v>5</v>
       </c>
       <c r="B211">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="C211" s="2">
-        <v>2392.365966796875</v>
+        <v>242.64599609375</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2716,10 +2716,10 @@
         <v>5</v>
       </c>
       <c r="B212">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="C212" s="2">
-        <v>2429.903076171875</v>
+        <v>240.0079956054688</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2727,10 +2727,10 @@
         <v>5</v>
       </c>
       <c r="B213">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="C213" s="2">
-        <v>2454.00390625</v>
+        <v>212.7440032958984</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2738,10 +2738,10 @@
         <v>5</v>
       </c>
       <c r="B214">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="C214" s="2">
-        <v>2503.759033203125</v>
+        <v>213.2489929199219</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2749,10 +2749,10 @@
         <v>5</v>
       </c>
       <c r="B215">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C215" s="2">
-        <v>2524.18701171875</v>
+        <v>195.1100006103516</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2760,10 +2760,10 @@
         <v>5</v>
       </c>
       <c r="B216">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="C216" s="2">
-        <v>2459.68994140625</v>
+        <v>190.7149963378906</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2771,10 +2771,10 @@
         <v>5</v>
       </c>
       <c r="B217">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="C217" s="2">
-        <v>2405.45703125</v>
+        <v>176.8079986572266</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2782,307 +2782,307 @@
         <v>5</v>
       </c>
       <c r="B218">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="C218" s="2">
-        <v>2396.06591796875</v>
+        <v>223.8880004882812</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B219">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="C219" s="2">
-        <v>2406.449951171875</v>
+        <v>242.9499969482422</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B220">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="C220" s="2">
-        <v>2404.97998046875</v>
+        <v>305.4880065917969</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B221">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="C221" s="2">
-        <v>2329.840087890625</v>
+        <v>278.239013671875</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B222">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="C222" s="2">
-        <v>2303.967041015625</v>
+        <v>250.8260040283203</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B223">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="C223" s="2">
-        <v>2306.638916015625</v>
+        <v>337.9070129394531</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B224">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="C224" s="2">
-        <v>2307.429931640625</v>
+        <v>362.5920104980469</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B225">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="C225" s="2">
-        <v>2405.110107421875</v>
+        <v>341.9089965820312</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B226">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="C226" s="2">
-        <v>2407.073974609375</v>
+        <v>361.2650146484375</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B227">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="C227" s="2">
-        <v>2418.74609375</v>
+        <v>409.1659851074219</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B228">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="C228" s="2">
-        <v>2403.279052734375</v>
+        <v>446.9389953613281</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B229">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="C229" s="2">
-        <v>2406.510009765625</v>
+        <v>292.1470031738281</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B230">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="C230" s="2">
-        <v>2494.35595703125</v>
+        <v>211.4080047607422</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B231">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="C231" s="2">
-        <v>2485.992919921875</v>
+        <v>158.5899963378906</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B232">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="C232" s="2">
-        <v>2507.866943359375</v>
+        <v>177.5399932861328</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B233">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="C233" s="2">
-        <v>2526.091064453125</v>
+        <v>183.6080017089844</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B234">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="C234" s="2">
-        <v>2513.2919921875</v>
+        <v>151.0319976806641</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B235">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="C235" s="2">
-        <v>2509.10302734375</v>
+        <v>219.8090057373047</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B236">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="C236" s="2">
-        <v>2365.40087890625</v>
+        <v>205.5540008544922</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B237">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="C237" s="2">
-        <v>2342.01611328125</v>
+        <v>194.8139953613281</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B238">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="C238" s="2">
-        <v>2329.06591796875</v>
+        <v>182.5039978027344</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B239">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="C239" s="2">
-        <v>1687.781982421875</v>
+        <v>116.75</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B240">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="C240" s="2">
-        <v>1660.349975585938</v>
+        <v>99.57099914550781</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B241">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="C241" s="2">
-        <v>1618.89794921875</v>
+        <v>105.7990036010742</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B242">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="C242" s="2">
-        <v>1689.81103515625</v>
+        <v>109.734001159668</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B243">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="C243" s="2">
-        <v>1702.378051757812</v>
+        <v>84.90499877929688</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B244">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="C244" s="2">
-        <v>1718.245971679688</v>
+        <v>69.57499694824219</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B245">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="C245" s="2">
-        <v>1732.9990234375</v>
+        <v>32.3849983215332</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3090,10 +3090,10 @@
         <v>6</v>
       </c>
       <c r="B246">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C246" s="2">
-        <v>1795.900024414062</v>
+        <v>39.49800109863281</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3101,10 +3101,10 @@
         <v>6</v>
       </c>
       <c r="B247">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C247" s="2">
-        <v>1818.473999023438</v>
+        <v>12.91699981689453</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3112,10 +3112,10 @@
         <v>6</v>
       </c>
       <c r="B248">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C248" s="2">
-        <v>1865.139038085938</v>
+        <v>80.43099975585938</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3123,10 +3123,10 @@
         <v>6</v>
       </c>
       <c r="B249">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C249" s="2">
-        <v>1905.93994140625</v>
+        <v>47.45399856567383</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3134,10 +3134,10 @@
         <v>6</v>
       </c>
       <c r="B250">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C250" s="2">
-        <v>1891.108032226562</v>
+        <v>29.26899909973145</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3145,10 +3145,10 @@
         <v>6</v>
       </c>
       <c r="B251">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C251" s="2">
-        <v>1919.328002929688</v>
+        <v>35.59400177001953</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3156,10 +3156,10 @@
         <v>6</v>
       </c>
       <c r="B252">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C252" s="2">
-        <v>1902.305053710938</v>
+        <v>-26.06900024414062</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3167,10 +3167,10 @@
         <v>6</v>
       </c>
       <c r="B253">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C253" s="2">
-        <v>1869.22802734375</v>
+        <v>-39.24800109863281</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3178,10 +3178,10 @@
         <v>6</v>
       </c>
       <c r="B254">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C254" s="2">
-        <v>1006.215026855469</v>
+        <v>-45.77999877929688</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3189,10 +3189,10 @@
         <v>6</v>
       </c>
       <c r="B255">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C255" s="2">
-        <v>1021.47900390625</v>
+        <v>-27.17200088500977</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3200,10 +3200,10 @@
         <v>6</v>
       </c>
       <c r="B256">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C256" s="2">
-        <v>1026.067993164062</v>
+        <v>17.88199996948242</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3211,10 +3211,10 @@
         <v>6</v>
       </c>
       <c r="B257">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C257" s="2">
-        <v>1027.616943359375</v>
+        <v>29.75</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3222,10 +3222,10 @@
         <v>6</v>
       </c>
       <c r="B258">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C258" s="2">
-        <v>1025.89404296875</v>
+        <v>25.79999923706055</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3233,10 +3233,10 @@
         <v>6</v>
       </c>
       <c r="B259">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C259" s="2">
-        <v>1009.252014160156</v>
+        <v>14.09799957275391</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3244,10 +3244,10 @@
         <v>6</v>
       </c>
       <c r="B260">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C260" s="2">
-        <v>982.4810180664062</v>
+        <v>51.01800155639648</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3255,10 +3255,10 @@
         <v>6</v>
       </c>
       <c r="B261">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C261" s="2">
-        <v>1746.110961914062</v>
+        <v>42.73500061035156</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3266,10 +3266,10 @@
         <v>6</v>
       </c>
       <c r="B262">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C262" s="2">
-        <v>1694.671020507812</v>
+        <v>33.9630012512207</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3277,10 +3277,10 @@
         <v>6</v>
       </c>
       <c r="B263">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C263" s="2">
-        <v>1689.4169921875</v>
+        <v>28.85700035095215</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3288,10 +3288,10 @@
         <v>6</v>
       </c>
       <c r="B264">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C264" s="2">
-        <v>1122.349975585938</v>
+        <v>11.60099983215332</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3299,10 +3299,10 @@
         <v>6</v>
       </c>
       <c r="B265">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C265" s="2">
-        <v>1126.4169921875</v>
+        <v>-14.85700035095215</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3310,10 +3310,10 @@
         <v>6</v>
       </c>
       <c r="B266">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C266" s="2">
-        <v>1100</v>
+        <v>3.069999933242798</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3321,10 +3321,10 @@
         <v>6</v>
       </c>
       <c r="B267">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C267" s="2">
-        <v>1185.214965820312</v>
+        <v>16.81100082397461</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3332,10 +3332,10 @@
         <v>6</v>
       </c>
       <c r="B268">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="C268" s="2">
-        <v>1278.947021484375</v>
+        <v>32.17699813842773</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3343,10 +3343,10 @@
         <v>6</v>
       </c>
       <c r="B269">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="C269" s="2">
-        <v>1300.4990234375</v>
+        <v>81.92299652099609</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3354,10 +3354,10 @@
         <v>6</v>
       </c>
       <c r="B270">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C270" s="2">
-        <v>1312.642944335938</v>
+        <v>142.4889984130859</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3365,10 +3365,10 @@
         <v>6</v>
       </c>
       <c r="B271">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C271" s="2">
-        <v>1413.56494140625</v>
+        <v>98.77999877929688</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3376,10 +3376,10 @@
         <v>6</v>
       </c>
       <c r="B272">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="C272" s="2">
-        <v>1402.900024414062</v>
+        <v>57.7239990234375</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3387,10 +3387,10 @@
         <v>6</v>
       </c>
       <c r="B273">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="C273" s="2">
-        <v>1415.494018554688</v>
+        <v>77.89600372314453</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3398,10 +3398,10 @@
         <v>6</v>
       </c>
       <c r="B274">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="C274" s="2">
-        <v>1352.050048828125</v>
+        <v>104.4670028686523</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3409,10 +3409,10 @@
         <v>6</v>
       </c>
       <c r="B275">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C275" s="2">
-        <v>1373.192993164062</v>
+        <v>121.9629974365234</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3420,10 +3420,10 @@
         <v>6</v>
       </c>
       <c r="B276">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="C276" s="2">
-        <v>1388.630004882812</v>
+        <v>186.2879943847656</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3431,10 +3431,10 @@
         <v>6</v>
       </c>
       <c r="B277">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="C277" s="2">
-        <v>1375.177001953125</v>
+        <v>209.1880035400391</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3442,10 +3442,10 @@
         <v>6</v>
       </c>
       <c r="B278">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C278" s="2">
-        <v>1344.746948242188</v>
+        <v>200.47900390625</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3453,10 +3453,10 @@
         <v>6</v>
       </c>
       <c r="B279">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="C279" s="2">
-        <v>1294.119995117188</v>
+        <v>211.9179992675781</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3464,10 +3464,10 @@
         <v>6</v>
       </c>
       <c r="B280">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="C280" s="2">
-        <v>1194.883056640625</v>
+        <v>201.552001953125</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3475,10 +3475,10 @@
         <v>6</v>
       </c>
       <c r="B281">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="C281" s="2">
-        <v>1106.862060546875</v>
+        <v>307.3380126953125</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3486,10 +3486,10 @@
         <v>6</v>
       </c>
       <c r="B282">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="C282" s="2">
-        <v>1114.532958984375</v>
+        <v>400.6340026855469</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3497,10 +3497,10 @@
         <v>6</v>
       </c>
       <c r="B283">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="C283" s="2">
-        <v>1037.933959960938</v>
+        <v>436.2999877929688</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3508,10 +3508,10 @@
         <v>6</v>
       </c>
       <c r="B284">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="C284" s="2">
-        <v>968.7659912109375</v>
+        <v>857.43798828125</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3519,10 +3519,10 @@
         <v>6</v>
       </c>
       <c r="B285">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="C285" s="2">
-        <v>1036.904052734375</v>
+        <v>1107.2509765625</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3530,10 +3530,10 @@
         <v>6</v>
       </c>
       <c r="B286">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="C286" s="2">
-        <v>1035.4580078125</v>
+        <v>1259.43603515625</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3541,10 +3541,10 @@
         <v>6</v>
       </c>
       <c r="B287">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="C287" s="2">
-        <v>1095.64794921875</v>
+        <v>1227.141967773438</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3552,10 +3552,10 @@
         <v>6</v>
       </c>
       <c r="B288">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C288" s="2">
-        <v>998.4539794921875</v>
+        <v>860.510986328125</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3563,10 +3563,10 @@
         <v>6</v>
       </c>
       <c r="B289">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="C289" s="2">
-        <v>946.89599609375</v>
+        <v>677.8090209960938</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3574,10 +3574,10 @@
         <v>6</v>
       </c>
       <c r="B290">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="C290" s="2">
-        <v>1022.47802734375</v>
+        <v>739.594970703125</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3585,10 +3585,10 @@
         <v>6</v>
       </c>
       <c r="B291">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="C291" s="2">
-        <v>1013.801025390625</v>
+        <v>824.1279907226562</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3596,10 +3596,10 @@
         <v>6</v>
       </c>
       <c r="B292">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C292" s="2">
-        <v>999.5859985351562</v>
+        <v>858.1309814453125</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3607,10 +3607,10 @@
         <v>6</v>
       </c>
       <c r="B293">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C293" s="2">
-        <v>1129.989990234375</v>
+        <v>804.2789916992188</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3618,10 +3618,10 @@
         <v>6</v>
       </c>
       <c r="B294">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C294" s="2">
-        <v>1118.93896484375</v>
+        <v>784.2440185546875</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3629,10 +3629,10 @@
         <v>6</v>
       </c>
       <c r="B295">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="C295" s="2">
-        <v>1110.64697265625</v>
+        <v>781.2570190429688</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3640,10 +3640,10 @@
         <v>6</v>
       </c>
       <c r="B296">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="C296" s="2">
-        <v>1118.243041992188</v>
+        <v>735.2000122070312</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3651,10 +3651,10 @@
         <v>6</v>
       </c>
       <c r="B297">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="C297" s="2">
-        <v>1115.755004882812</v>
+        <v>768.10400390625</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3662,10 +3662,10 @@
         <v>6</v>
       </c>
       <c r="B298">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="C298" s="2">
-        <v>1085.116943359375</v>
+        <v>810.219970703125</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3673,10 +3673,10 @@
         <v>6</v>
       </c>
       <c r="B299">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="C299" s="2">
-        <v>1049.29296875</v>
+        <v>774.3909912109375</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3684,10 +3684,10 @@
         <v>6</v>
       </c>
       <c r="B300">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C300" s="2">
-        <v>1002.372009277344</v>
+        <v>661.7529907226562</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3695,10 +3695,10 @@
         <v>6</v>
       </c>
       <c r="B301">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="C301" s="2">
-        <v>964.5040283203125</v>
+        <v>693.7579956054688</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3706,10 +3706,10 @@
         <v>6</v>
       </c>
       <c r="B302">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="C302" s="2">
-        <v>954.0120239257812</v>
+        <v>647.1619873046875</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3717,10 +3717,10 @@
         <v>6</v>
       </c>
       <c r="B303">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="C303" s="2">
-        <v>1050.526977539062</v>
+        <v>555.176025390625</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3728,10 +3728,10 @@
         <v>6</v>
       </c>
       <c r="B304">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="C304" s="2">
-        <v>1034.446044921875</v>
+        <v>562.2739868164062</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3739,10 +3739,10 @@
         <v>6</v>
       </c>
       <c r="B305">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="C305" s="2">
-        <v>1045.762939453125</v>
+        <v>526.3590087890625</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3750,10 +3750,10 @@
         <v>6</v>
       </c>
       <c r="B306">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="C306" s="2">
-        <v>890.4609985351562</v>
+        <v>517.9409790039062</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3761,10 +3761,10 @@
         <v>6</v>
       </c>
       <c r="B307">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="C307" s="2">
-        <v>713.4769897460938</v>
+        <v>403.8919982910156</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3772,10 +3772,10 @@
         <v>6</v>
       </c>
       <c r="B308">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="C308" s="2">
-        <v>623.8369750976562</v>
+        <v>367.7269897460938</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3783,10 +3783,10 @@
         <v>6</v>
       </c>
       <c r="B309">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="C309" s="2">
-        <v>573.7269897460938</v>
+        <v>370.5369873046875</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3794,10 +3794,10 @@
         <v>6</v>
       </c>
       <c r="B310">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="C310" s="2">
-        <v>620.93701171875</v>
+        <v>360.0419921875</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3805,10 +3805,10 @@
         <v>6</v>
       </c>
       <c r="B311">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C311" s="2">
-        <v>475.2590026855469</v>
+        <v>409.9150085449219</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3816,10 +3816,10 @@
         <v>6</v>
       </c>
       <c r="B312">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="C312" s="2">
-        <v>330.1940002441406</v>
+        <v>429.8909912109375</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3827,10 +3827,10 @@
         <v>6</v>
       </c>
       <c r="B313">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="C313" s="2">
-        <v>331.5450134277344</v>
+        <v>388.8080139160156</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3838,307 +3838,307 @@
         <v>6</v>
       </c>
       <c r="B314">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="C314" s="2">
-        <v>373.8219909667969</v>
+        <v>454.3280029296875</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B315">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="C315" s="2">
-        <v>305.4320068359375</v>
+        <v>665.9769897460938</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B316">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="C316" s="2">
-        <v>462.1319885253906</v>
+        <v>652.85400390625</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B317">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="C317" s="2">
-        <v>469.6069946289062</v>
+        <v>473.5509948730469</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B318">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="C318" s="2">
-        <v>484.5950012207031</v>
+        <v>458.4159851074219</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B319">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="C319" s="2">
-        <v>514.1599731445312</v>
+        <v>431.0809936523438</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B320">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="C320" s="2">
-        <v>490.2139892578125</v>
+        <v>403.7340087890625</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B321">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="C321" s="2">
-        <v>481.2200012207031</v>
+        <v>344.510009765625</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B322">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="C322" s="2">
-        <v>466.6220092773438</v>
+        <v>203.4029998779297</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B323">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="C323" s="2">
-        <v>509.0020141601562</v>
+        <v>216.3059997558594</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B324">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="C324" s="2">
-        <v>593.364013671875</v>
+        <v>308.9360046386719</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B325">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="C325" s="2">
-        <v>566.4039916992188</v>
+        <v>235.8939971923828</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B326">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="C326" s="2">
-        <v>590.9130249023438</v>
+        <v>180.6430053710938</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B327">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="C327" s="2">
-        <v>557.9130249023438</v>
+        <v>125.8259963989258</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B328">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="C328" s="2">
-        <v>496.5889892578125</v>
+        <v>128.1609954833984</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B329">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="C329" s="2">
-        <v>535.3200073242188</v>
+        <v>113.9860000610352</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B330">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="C330" s="2">
-        <v>491.0400085449219</v>
+        <v>109.495002746582</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B331">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="C331" s="2">
-        <v>403.9490051269531</v>
+        <v>150.6510009765625</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B332">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="C332" s="2">
-        <v>403.7109985351562</v>
+        <v>138.8710021972656</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B333">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="C333" s="2">
-        <v>410.6000061035156</v>
+        <v>108.7030029296875</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B334">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="C334" s="2">
-        <v>474.0270080566406</v>
+        <v>119.3529968261719</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B335">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="C335" s="2">
-        <v>463.4660034179688</v>
+        <v>135.6790008544922</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B336">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="C336" s="2">
-        <v>503.7380065917969</v>
+        <v>126.6849975585938</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B337">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="C337" s="2">
-        <v>490.5169982910156</v>
+        <v>144.2559967041016</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B338">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="C338" s="2">
-        <v>618.1409912109375</v>
+        <v>149.0079956054688</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B339">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="C339" s="2">
-        <v>652.3289794921875</v>
+        <v>46.17599868774414</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B340">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="C340" s="2">
-        <v>705.8489990234375</v>
+        <v>37.15800094604492</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B341">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="C341" s="2">
-        <v>692.9569702148438</v>
+        <v>50.48699951171875</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4146,10 +4146,10 @@
         <v>7</v>
       </c>
       <c r="B342">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C342" s="2">
-        <v>814.7789916992188</v>
+        <v>123.9410018920898</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4157,10 +4157,10 @@
         <v>7</v>
       </c>
       <c r="B343">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C343" s="2">
-        <v>863.0540161132812</v>
+        <v>90.68499755859375</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4168,10 +4168,10 @@
         <v>7</v>
       </c>
       <c r="B344">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C344" s="2">
-        <v>832.2589721679688</v>
+        <v>179.6640014648438</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4179,10 +4179,10 @@
         <v>7</v>
       </c>
       <c r="B345">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C345" s="2">
-        <v>726.2520141601562</v>
+        <v>213.8489990234375</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4190,10 +4190,10 @@
         <v>7</v>
       </c>
       <c r="B346">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C346" s="2">
-        <v>661.75</v>
+        <v>219.3059997558594</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -4201,10 +4201,10 @@
         <v>7</v>
       </c>
       <c r="B347">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C347" s="2">
-        <v>654.1890258789062</v>
+        <v>248.8000030517578</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4212,10 +4212,10 @@
         <v>7</v>
       </c>
       <c r="B348">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C348" s="2">
-        <v>598.7780151367188</v>
+        <v>431.1119995117188</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -4223,10 +4223,10 @@
         <v>7</v>
       </c>
       <c r="B349">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C349" s="2">
-        <v>509.7820129394531</v>
+        <v>509.6709899902344</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4234,10 +4234,10 @@
         <v>7</v>
       </c>
       <c r="B350">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C350" s="2">
-        <v>481.47900390625</v>
+        <v>671.5239868164062</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -4245,10 +4245,10 @@
         <v>7</v>
       </c>
       <c r="B351">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C351" s="2">
-        <v>515.3699951171875</v>
+        <v>873.39697265625</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4256,10 +4256,10 @@
         <v>7</v>
       </c>
       <c r="B352">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C352" s="2">
-        <v>389.8989868164062</v>
+        <v>1015.171997070312</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4267,10 +4267,10 @@
         <v>7</v>
       </c>
       <c r="B353">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C353" s="2">
-        <v>386.1579895019531</v>
+        <v>1097.614013671875</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4278,10 +4278,10 @@
         <v>7</v>
       </c>
       <c r="B354">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C354" s="2">
-        <v>348.6409912109375</v>
+        <v>963.9210205078125</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4289,10 +4289,10 @@
         <v>7</v>
       </c>
       <c r="B355">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C355" s="2">
-        <v>374.6109924316406</v>
+        <v>904.177001953125</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4300,10 +4300,10 @@
         <v>7</v>
       </c>
       <c r="B356">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C356" s="2">
-        <v>380.5180053710938</v>
+        <v>977.926025390625</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -4311,10 +4311,10 @@
         <v>7</v>
       </c>
       <c r="B357">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C357" s="2">
-        <v>360.31298828125</v>
+        <v>980.510986328125</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -4322,10 +4322,10 @@
         <v>7</v>
       </c>
       <c r="B358">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C358" s="2">
-        <v>338.3569946289062</v>
+        <v>936.0819702148438</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4333,10 +4333,10 @@
         <v>7</v>
       </c>
       <c r="B359">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C359" s="2">
-        <v>349.8940124511719</v>
+        <v>985.10302734375</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4344,10 +4344,10 @@
         <v>7</v>
       </c>
       <c r="B360">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C360" s="2">
-        <v>278.8869934082031</v>
+        <v>894.5460205078125</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4355,10 +4355,10 @@
         <v>7</v>
       </c>
       <c r="B361">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C361" s="2">
-        <v>338.2999877929688</v>
+        <v>1098.182983398438</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4366,10 +4366,10 @@
         <v>7</v>
       </c>
       <c r="B362">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C362" s="2">
-        <v>304.5419921875</v>
+        <v>1050.281982421875</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4377,10 +4377,10 @@
         <v>7</v>
       </c>
       <c r="B363">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C363" s="2">
-        <v>159.5690002441406</v>
+        <v>1168.76904296875</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4388,10 +4388,10 @@
         <v>7</v>
       </c>
       <c r="B364">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="C364" s="2">
-        <v>136.9340057373047</v>
+        <v>1151.4990234375</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4399,10 +4399,10 @@
         <v>7</v>
       </c>
       <c r="B365">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="C365" s="2">
-        <v>241.2420043945312</v>
+        <v>1193.965942382812</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4410,10 +4410,10 @@
         <v>7</v>
       </c>
       <c r="B366">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C366" s="2">
-        <v>234.8650054931641</v>
+        <v>1246.453002929688</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -4421,10 +4421,10 @@
         <v>7</v>
       </c>
       <c r="B367">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C367" s="2">
-        <v>251.2440032958984</v>
+        <v>1280.534057617188</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -4432,10 +4432,10 @@
         <v>7</v>
       </c>
       <c r="B368">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="C368" s="2">
-        <v>281.260986328125</v>
+        <v>1353.095947265625</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4443,10 +4443,10 @@
         <v>7</v>
       </c>
       <c r="B369">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="C369" s="2">
-        <v>315.5079956054688</v>
+        <v>1363.14501953125</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -4454,10 +4454,10 @@
         <v>7</v>
       </c>
       <c r="B370">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="C370" s="2">
-        <v>338.5710144042969</v>
+        <v>1359.142944335938</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -4465,10 +4465,10 @@
         <v>7</v>
       </c>
       <c r="B371">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C371" s="2">
-        <v>203.2870025634766</v>
+        <v>1364.120971679688</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -4476,10 +4476,10 @@
         <v>7</v>
       </c>
       <c r="B372">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="C372" s="2">
-        <v>158.6970062255859</v>
+        <v>1343.619995117188</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -4487,10 +4487,10 @@
         <v>7</v>
       </c>
       <c r="B373">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="C373" s="2">
-        <v>122.2200012207031</v>
+        <v>1360.56005859375</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4498,10 +4498,10 @@
         <v>7</v>
       </c>
       <c r="B374">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C374" s="2">
-        <v>113.5210037231445</v>
+        <v>1316.47998046875</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4509,10 +4509,10 @@
         <v>7</v>
       </c>
       <c r="B375">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="C375" s="2">
-        <v>96.63099670410156</v>
+        <v>1277.637939453125</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4520,10 +4520,10 @@
         <v>7</v>
       </c>
       <c r="B376">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="C376" s="2">
-        <v>188.4349975585938</v>
+        <v>1415.433959960938</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -4531,10 +4531,10 @@
         <v>7</v>
       </c>
       <c r="B377">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="C377" s="2">
-        <v>130.7100067138672</v>
+        <v>1517.43994140625</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -4542,10 +4542,10 @@
         <v>7</v>
       </c>
       <c r="B378">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="C378" s="2">
-        <v>159.1380004882812</v>
+        <v>1708.525024414062</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -4553,10 +4553,10 @@
         <v>7</v>
       </c>
       <c r="B379">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="C379" s="2">
-        <v>168.5379943847656</v>
+        <v>1769.8740234375</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -4564,10 +4564,10 @@
         <v>7</v>
       </c>
       <c r="B380">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="C380" s="2">
-        <v>199.4499969482422</v>
+        <v>1732.607055664062</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4575,10 +4575,10 @@
         <v>7</v>
       </c>
       <c r="B381">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="C381" s="2">
-        <v>238.4600067138672</v>
+        <v>1791.56201171875</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4586,10 +4586,10 @@
         <v>7</v>
       </c>
       <c r="B382">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="C382" s="2">
-        <v>251.02099609375</v>
+        <v>1856.285034179688</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4597,10 +4597,10 @@
         <v>7</v>
       </c>
       <c r="B383">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="C383" s="2">
-        <v>204.9759979248047</v>
+        <v>1956.114013671875</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4608,10 +4608,10 @@
         <v>7</v>
       </c>
       <c r="B384">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C384" s="2">
-        <v>284.6950073242188</v>
+        <v>1773.171997070312</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -4619,10 +4619,10 @@
         <v>7</v>
       </c>
       <c r="B385">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="C385" s="2">
-        <v>356.6059875488281</v>
+        <v>1724.697021484375</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -4630,10 +4630,10 @@
         <v>7</v>
       </c>
       <c r="B386">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="C386" s="2">
-        <v>414.9039916992188</v>
+        <v>1792.97900390625</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -4641,10 +4641,10 @@
         <v>7</v>
       </c>
       <c r="B387">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="C387" s="2">
-        <v>506.7510070800781</v>
+        <v>1808.916015625</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -4652,10 +4652,10 @@
         <v>7</v>
       </c>
       <c r="B388">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C388" s="2">
-        <v>511.9859924316406</v>
+        <v>1709.711059570312</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4663,10 +4663,10 @@
         <v>7</v>
       </c>
       <c r="B389">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C389" s="2">
-        <v>755.7260131835938</v>
+        <v>1485.909057617188</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -4674,10 +4674,10 @@
         <v>7</v>
       </c>
       <c r="B390">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C390" s="2">
-        <v>642.35302734375</v>
+        <v>1403.369018554688</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -4685,10 +4685,10 @@
         <v>7</v>
       </c>
       <c r="B391">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="C391" s="2">
-        <v>745.719970703125</v>
+        <v>1342.784057617188</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4696,10 +4696,10 @@
         <v>7</v>
       </c>
       <c r="B392">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="C392" s="2">
-        <v>854.5900268554688</v>
+        <v>1278.907958984375</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -4707,10 +4707,10 @@
         <v>7</v>
       </c>
       <c r="B393">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="C393" s="2">
-        <v>948.6389770507812</v>
+        <v>1066.56396484375</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -4718,10 +4718,10 @@
         <v>7</v>
       </c>
       <c r="B394">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="C394" s="2">
-        <v>1057.677978515625</v>
+        <v>1026.2900390625</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -4729,10 +4729,10 @@
         <v>7</v>
       </c>
       <c r="B395">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="C395" s="2">
-        <v>1046.410034179688</v>
+        <v>1001.788024902344</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -4740,10 +4740,10 @@
         <v>7</v>
       </c>
       <c r="B396">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C396" s="2">
-        <v>1134.505004882812</v>
+        <v>996.1220092773438</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -4751,10 +4751,10 @@
         <v>7</v>
       </c>
       <c r="B397">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="C397" s="2">
-        <v>1148.338989257812</v>
+        <v>986.6079711914062</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -4762,10 +4762,10 @@
         <v>7</v>
       </c>
       <c r="B398">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="C398" s="2">
-        <v>1206.248046875</v>
+        <v>1061.006958007812</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -4773,10 +4773,10 @@
         <v>7</v>
       </c>
       <c r="B399">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="C399" s="2">
-        <v>1238.154052734375</v>
+        <v>1042.06005859375</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -4784,10 +4784,10 @@
         <v>7</v>
       </c>
       <c r="B400">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="C400" s="2">
-        <v>1239.696044921875</v>
+        <v>1016.627990722656</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -4795,10 +4795,10 @@
         <v>7</v>
       </c>
       <c r="B401">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="C401" s="2">
-        <v>1228.613037109375</v>
+        <v>1337.433959960938</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -4806,10 +4806,10 @@
         <v>7</v>
       </c>
       <c r="B402">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="C402" s="2">
-        <v>1399.51904296875</v>
+        <v>1391.998046875</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -4817,10 +4817,10 @@
         <v>7</v>
       </c>
       <c r="B403">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="C403" s="2">
-        <v>1367.451049804688</v>
+        <v>1361.467041015625</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -4828,10 +4828,10 @@
         <v>7</v>
       </c>
       <c r="B404">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="C404" s="2">
-        <v>1402.432006835938</v>
+        <v>1361.704956054688</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -4839,10 +4839,10 @@
         <v>7</v>
       </c>
       <c r="B405">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="C405" s="2">
-        <v>1490.656005859375</v>
+        <v>1343.308959960938</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -4850,10 +4850,10 @@
         <v>7</v>
       </c>
       <c r="B406">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="C406" s="2">
-        <v>1617.722045898438</v>
+        <v>1376.60400390625</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -4861,10 +4861,10 @@
         <v>7</v>
       </c>
       <c r="B407">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C407" s="2">
-        <v>1837.428955078125</v>
+        <v>1404.14794921875</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -4872,10 +4872,10 @@
         <v>7</v>
       </c>
       <c r="B408">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="C408" s="2">
-        <v>2131.158935546875</v>
+        <v>1234.848022460938</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -4883,10 +4883,10 @@
         <v>7</v>
       </c>
       <c r="B409">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="C409" s="2">
-        <v>2210.115966796875</v>
+        <v>1222.4189453125</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -4894,307 +4894,307 @@
         <v>7</v>
       </c>
       <c r="B410">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="C410" s="2">
-        <v>1968.751953125</v>
+        <v>1162.781982421875</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B411">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="C411" s="2">
-        <v>2048.31201171875</v>
+        <v>999.77197265625</v>
       </c>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B412">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="C412" s="2">
-        <v>2097.8740234375</v>
+        <v>1079.262939453125</v>
       </c>
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B413">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="C413" s="2">
-        <v>2256.47900390625</v>
+        <v>1095.873046875</v>
       </c>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B414">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="C414" s="2">
-        <v>2282.72412109375</v>
+        <v>1196.7939453125</v>
       </c>
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B415">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="C415" s="2">
-        <v>2210.2939453125</v>
+        <v>1311.366943359375</v>
       </c>
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B416">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="C416" s="2">
-        <v>2143.492919921875</v>
+        <v>1188.452026367188</v>
       </c>
     </row>
     <row r="417" spans="1:3">
       <c r="A417" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B417">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="C417" s="2">
-        <v>2058.200927734375</v>
+        <v>1371.163940429688</v>
       </c>
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B418">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="C418" s="2">
-        <v>2048.14306640625</v>
+        <v>1429.680053710938</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B419">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="C419" s="2">
-        <v>2050.073974609375</v>
+        <v>1553.327026367188</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B420">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="C420" s="2">
-        <v>2061.785888671875</v>
+        <v>1561.7060546875</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B421">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="C421" s="2">
-        <v>1954.510986328125</v>
+        <v>1492.942016601562</v>
       </c>
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B422">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="C422" s="2">
-        <v>1881.183959960938</v>
+        <v>1479.360961914062</v>
       </c>
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B423">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="C423" s="2">
-        <v>1868.159057617188</v>
+        <v>1336.631958007812</v>
       </c>
     </row>
     <row r="424" spans="1:3">
       <c r="A424" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B424">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="C424" s="2">
-        <v>1788.89404296875</v>
+        <v>1395.628051757812</v>
       </c>
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B425">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="C425" s="2">
-        <v>1777.56298828125</v>
+        <v>1386.7939453125</v>
       </c>
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B426">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="C426" s="2">
-        <v>2002.826049804688</v>
+        <v>1304.012939453125</v>
       </c>
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B427">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="C427" s="2">
-        <v>2002.9169921875</v>
+        <v>1332.806030273438</v>
       </c>
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B428">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="C428" s="2">
-        <v>1755.363037109375</v>
+        <v>1345.0439453125</v>
       </c>
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B429">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="C429" s="2">
-        <v>1701.318969726562</v>
+        <v>1297.22802734375</v>
       </c>
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B430">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="C430" s="2">
-        <v>1683.390991210938</v>
+        <v>1274.055053710938</v>
       </c>
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B431">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="C431" s="2">
-        <v>1688.131958007812</v>
+        <v>1249.301025390625</v>
       </c>
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B432">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="C432" s="2">
-        <v>1668.620971679688</v>
+        <v>1247.197998046875</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B433">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="C433" s="2">
-        <v>1671.759033203125</v>
+        <v>1130.18994140625</v>
       </c>
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B434">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="C434" s="2">
-        <v>1736.215942382812</v>
+        <v>1135.090942382812</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B435">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="C435" s="2">
-        <v>1790.89404296875</v>
+        <v>1104.319946289062</v>
       </c>
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B436">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="C436" s="2">
-        <v>1907.857055664062</v>
+        <v>1091.85205078125</v>
       </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B437">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="C437" s="2">
-        <v>1900.141967773438</v>
+        <v>925.4539794921875</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -5202,10 +5202,10 @@
         <v>8</v>
       </c>
       <c r="B438">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C438" s="2">
-        <v>2060.884033203125</v>
+        <v>953.1199951171875</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -5213,10 +5213,10 @@
         <v>8</v>
       </c>
       <c r="B439">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C439" s="2">
-        <v>1894.348999023438</v>
+        <v>908.1069946289062</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -5224,10 +5224,10 @@
         <v>8</v>
       </c>
       <c r="B440">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C440" s="2">
-        <v>1701.614013671875</v>
+        <v>853.4660034179688</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -5235,10 +5235,10 @@
         <v>8</v>
       </c>
       <c r="B441">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C441" s="2">
-        <v>1669.739013671875</v>
+        <v>1000.442016601562</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -5246,10 +5246,10 @@
         <v>8</v>
       </c>
       <c r="B442">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C442" s="2">
-        <v>1752.212036132812</v>
+        <v>949.5260009765625</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -5257,10 +5257,10 @@
         <v>8</v>
       </c>
       <c r="B443">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C443" s="2">
-        <v>1763.045043945312</v>
+        <v>759.4210205078125</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -5268,10 +5268,10 @@
         <v>8</v>
       </c>
       <c r="B444">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C444" s="2">
-        <v>1773.380004882812</v>
+        <v>1106.720947265625</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -5279,10 +5279,10 @@
         <v>8</v>
       </c>
       <c r="B445">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C445" s="2">
-        <v>1749.842041015625</v>
+        <v>1224.363037109375</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -5290,10 +5290,10 @@
         <v>8</v>
       </c>
       <c r="B446">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C446" s="2">
-        <v>1751.615966796875</v>
+        <v>1400.036010742188</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -5301,10 +5301,10 @@
         <v>8</v>
       </c>
       <c r="B447">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C447" s="2">
-        <v>1649.678955078125</v>
+        <v>1604.267944335938</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -5312,10 +5312,10 @@
         <v>8</v>
       </c>
       <c r="B448">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C448" s="2">
-        <v>1656.279052734375</v>
+        <v>1762.052978515625</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -5323,10 +5323,10 @@
         <v>8</v>
       </c>
       <c r="B449">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C449" s="2">
-        <v>1620.420043945312</v>
+        <v>1803.5419921875</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -5334,10 +5334,10 @@
         <v>8</v>
       </c>
       <c r="B450">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C450" s="2">
-        <v>1568.885009765625</v>
+        <v>1852.613037109375</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -5345,10 +5345,10 @@
         <v>8</v>
       </c>
       <c r="B451">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C451" s="2">
-        <v>1547.302978515625</v>
+        <v>1978.260009765625</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -5356,10 +5356,10 @@
         <v>8</v>
       </c>
       <c r="B452">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C452" s="2">
-        <v>1566.088012695312</v>
+        <v>2108.552001953125</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -5367,10 +5367,10 @@
         <v>8</v>
       </c>
       <c r="B453">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C453" s="2">
-        <v>1588.154052734375</v>
+        <v>2135.7099609375</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -5378,10 +5378,10 @@
         <v>8</v>
       </c>
       <c r="B454">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C454" s="2">
-        <v>1605.239013671875</v>
+        <v>2130.822021484375</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -5389,10 +5389,10 @@
         <v>8</v>
       </c>
       <c r="B455">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C455" s="2">
-        <v>1878.589965820312</v>
+        <v>2158.77587890625</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -5400,10 +5400,10 @@
         <v>8</v>
       </c>
       <c r="B456">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C456" s="2">
-        <v>1883.701049804688</v>
+        <v>2231.330078125</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -5411,10 +5411,10 @@
         <v>8</v>
       </c>
       <c r="B457">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C457" s="2">
-        <v>1897.759033203125</v>
+        <v>2234.81201171875</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -5422,10 +5422,10 @@
         <v>8</v>
       </c>
       <c r="B458">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C458" s="2">
-        <v>1997.125</v>
+        <v>2227.1298828125</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -5433,10 +5433,10 @@
         <v>8</v>
       </c>
       <c r="B459">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C459" s="2">
-        <v>2039.156005859375</v>
+        <v>2228.200927734375</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -5444,10 +5444,10 @@
         <v>8</v>
       </c>
       <c r="B460">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="C460" s="2">
-        <v>2054.0029296875</v>
+        <v>2342.507080078125</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -5455,10 +5455,10 @@
         <v>8</v>
       </c>
       <c r="B461">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="C461" s="2">
-        <v>2072.297119140625</v>
+        <v>2335.069091796875</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -5466,10 +5466,10 @@
         <v>8</v>
       </c>
       <c r="B462">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C462" s="2">
-        <v>2065.387939453125</v>
+        <v>2347.541015625</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -5477,10 +5477,10 @@
         <v>8</v>
       </c>
       <c r="B463">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C463" s="2">
-        <v>2048.197998046875</v>
+        <v>2345.98193359375</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -5488,10 +5488,10 @@
         <v>8</v>
       </c>
       <c r="B464">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="C464" s="2">
-        <v>2043.123046875</v>
+        <v>2331.678955078125</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -5499,10 +5499,10 @@
         <v>8</v>
       </c>
       <c r="B465">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="C465" s="2">
-        <v>2076.215087890625</v>
+        <v>2379.077880859375</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -5510,10 +5510,10 @@
         <v>8</v>
       </c>
       <c r="B466">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="C466" s="2">
-        <v>2071.72412109375</v>
+        <v>2389.85791015625</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -5521,10 +5521,10 @@
         <v>8</v>
       </c>
       <c r="B467">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C467" s="2">
-        <v>2075.18408203125</v>
+        <v>2377.261962890625</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -5532,10 +5532,10 @@
         <v>8</v>
       </c>
       <c r="B468">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="C468" s="2">
-        <v>2111.949951171875</v>
+        <v>2302.39990234375</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -5543,10 +5543,10 @@
         <v>8</v>
       </c>
       <c r="B469">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="C469" s="2">
-        <v>2172.044921875</v>
+        <v>2256.883056640625</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -5554,10 +5554,10 @@
         <v>8</v>
       </c>
       <c r="B470">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C470" s="2">
-        <v>2140.66796875</v>
+        <v>2178.537109375</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -5565,10 +5565,10 @@
         <v>8</v>
       </c>
       <c r="B471">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="C471" s="2">
-        <v>2339.027099609375</v>
+        <v>2212.472900390625</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -5576,10 +5576,10 @@
         <v>8</v>
       </c>
       <c r="B472">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="C472" s="2">
-        <v>2351.364013671875</v>
+        <v>2219.587890625</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -5587,10 +5587,10 @@
         <v>8</v>
       </c>
       <c r="B473">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="C473" s="2">
-        <v>2335.3701171875</v>
+        <v>2220.173095703125</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -5598,10 +5598,10 @@
         <v>8</v>
       </c>
       <c r="B474">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="C474" s="2">
-        <v>2291.426025390625</v>
+        <v>2124.205078125</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -5609,10 +5609,10 @@
         <v>8</v>
       </c>
       <c r="B475">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="C475" s="2">
-        <v>2339.676025390625</v>
+        <v>2151.498046875</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -5620,10 +5620,10 @@
         <v>8</v>
       </c>
       <c r="B476">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="C476" s="2">
-        <v>2330.77294921875</v>
+        <v>2162.260986328125</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -5631,10 +5631,10 @@
         <v>8</v>
       </c>
       <c r="B477">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="C477" s="2">
-        <v>2335.73193359375</v>
+        <v>2179.39111328125</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -5642,10 +5642,10 @@
         <v>8</v>
       </c>
       <c r="B478">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="C478" s="2">
-        <v>2329.3310546875</v>
+        <v>2260.968994140625</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -5653,10 +5653,10 @@
         <v>8</v>
       </c>
       <c r="B479">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="C479" s="2">
-        <v>2297.847900390625</v>
+        <v>2188.321044921875</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -5664,10 +5664,10 @@
         <v>8</v>
       </c>
       <c r="B480">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C480" s="2">
-        <v>2197.4150390625</v>
+        <v>2089.510009765625</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -5675,10 +5675,10 @@
         <v>8</v>
       </c>
       <c r="B481">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="C481" s="2">
-        <v>2153.89404296875</v>
+        <v>2043.118041992188</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -5686,10 +5686,10 @@
         <v>8</v>
       </c>
       <c r="B482">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="C482" s="2">
-        <v>1897.086059570312</v>
+        <v>2116.527099609375</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -5697,10 +5697,10 @@
         <v>8</v>
       </c>
       <c r="B483">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="C483" s="2">
-        <v>1778.546997070312</v>
+        <v>1836.52197265625</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -5708,10 +5708,10 @@
         <v>8</v>
       </c>
       <c r="B484">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C484" s="2">
-        <v>1371.753051757812</v>
+        <v>1700.131958007812</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -5719,10 +5719,10 @@
         <v>8</v>
       </c>
       <c r="B485">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C485" s="2">
-        <v>851.7529907226562</v>
+        <v>1668.0009765625</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -5730,10 +5730,10 @@
         <v>8</v>
       </c>
       <c r="B486">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C486" s="2">
-        <v>615.8579711914062</v>
+        <v>1422.321044921875</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -5741,10 +5741,10 @@
         <v>8</v>
       </c>
       <c r="B487">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="C487" s="2">
-        <v>479.0710144042969</v>
+        <v>1363.630004882812</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -5752,10 +5752,10 @@
         <v>8</v>
       </c>
       <c r="B488">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="C488" s="2">
-        <v>322.8139953613281</v>
+        <v>1197.053955078125</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -5763,10 +5763,10 @@
         <v>8</v>
       </c>
       <c r="B489">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="C489" s="2">
-        <v>472.3030090332031</v>
+        <v>1321.634033203125</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -5774,10 +5774,10 @@
         <v>8</v>
       </c>
       <c r="B490">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="C490" s="2">
-        <v>274.0650024414062</v>
+        <v>1439.201049804688</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -5785,10 +5785,10 @@
         <v>8</v>
       </c>
       <c r="B491">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="C491" s="2">
-        <v>261.3479919433594</v>
+        <v>1390.234008789062</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -5796,10 +5796,10 @@
         <v>8</v>
       </c>
       <c r="B492">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C492" s="2">
-        <v>211.3769989013672</v>
+        <v>1499.267944335938</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -5807,10 +5807,10 @@
         <v>8</v>
       </c>
       <c r="B493">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="C493" s="2">
-        <v>121.2149963378906</v>
+        <v>1531.239990234375</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -5818,10 +5818,10 @@
         <v>8</v>
       </c>
       <c r="B494">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="C494" s="2">
-        <v>46.20500183105469</v>
+        <v>1681.2900390625</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -5829,10 +5829,10 @@
         <v>8</v>
       </c>
       <c r="B495">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="C495" s="2">
-        <v>69.75299835205078</v>
+        <v>1743.619995117188</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -5840,10 +5840,10 @@
         <v>8</v>
       </c>
       <c r="B496">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="C496" s="2">
-        <v>91.29100036621094</v>
+        <v>1756.154052734375</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -5851,10 +5851,10 @@
         <v>8</v>
       </c>
       <c r="B497">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="C497" s="2">
-        <v>66.67400360107422</v>
+        <v>1864.557006835938</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -5862,10 +5862,10 @@
         <v>8</v>
       </c>
       <c r="B498">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="C498" s="2">
-        <v>64.79900360107422</v>
+        <v>1788.98095703125</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -5873,10 +5873,10 @@
         <v>8</v>
       </c>
       <c r="B499">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="C499" s="2">
-        <v>99.20500183105469</v>
+        <v>1781.5009765625</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -5884,10 +5884,10 @@
         <v>8</v>
       </c>
       <c r="B500">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="C500" s="2">
-        <v>118.6640014648438</v>
+        <v>1593.129028320312</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -5895,10 +5895,10 @@
         <v>8</v>
       </c>
       <c r="B501">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="C501" s="2">
-        <v>85.38600158691406</v>
+        <v>1559.677001953125</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -5906,10 +5906,10 @@
         <v>8</v>
       </c>
       <c r="B502">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="C502" s="2">
-        <v>97.28700256347656</v>
+        <v>1554.608032226562</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -5917,10 +5917,10 @@
         <v>8</v>
       </c>
       <c r="B503">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C503" s="2">
-        <v>83.56700134277344</v>
+        <v>1500.255981445312</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -5928,10 +5928,10 @@
         <v>8</v>
       </c>
       <c r="B504">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="C504" s="2">
-        <v>49.28400039672852</v>
+        <v>1474.06005859375</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -5939,10 +5939,10 @@
         <v>8</v>
       </c>
       <c r="B505">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="C505" s="2">
-        <v>89.89800262451172</v>
+        <v>1455.671020507812</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -5950,307 +5950,307 @@
         <v>8</v>
       </c>
       <c r="B506">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="C506" s="2">
-        <v>63.49300003051758</v>
+        <v>1437.267944335938</v>
       </c>
     </row>
     <row r="507" spans="1:3">
       <c r="A507" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B507">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="C507" s="2">
-        <v>55.70700073242188</v>
+        <v>1828.85205078125</v>
       </c>
     </row>
     <row r="508" spans="1:3">
       <c r="A508" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B508">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="C508" s="2">
-        <v>57.11000061035156</v>
+        <v>1761.741943359375</v>
       </c>
     </row>
     <row r="509" spans="1:3">
       <c r="A509" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B509">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="C509" s="2">
-        <v>65.43800354003906</v>
+        <v>1750.75</v>
       </c>
     </row>
     <row r="510" spans="1:3">
       <c r="A510" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B510">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="C510" s="2">
-        <v>59.32400131225586</v>
+        <v>1719.743041992188</v>
       </c>
     </row>
     <row r="511" spans="1:3">
       <c r="A511" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B511">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="C511" s="2">
-        <v>59.33200073242188</v>
+        <v>1738.501953125</v>
       </c>
     </row>
     <row r="512" spans="1:3">
       <c r="A512" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B512">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="C512" s="2">
-        <v>73.59500122070312</v>
+        <v>1719.258056640625</v>
       </c>
     </row>
     <row r="513" spans="1:3">
       <c r="A513" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B513">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="C513" s="2">
-        <v>83.66400146484375</v>
+        <v>1733.619995117188</v>
       </c>
     </row>
     <row r="514" spans="1:3">
       <c r="A514" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B514">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="C514" s="2">
-        <v>61.06800079345703</v>
+        <v>1641.608032226562</v>
       </c>
     </row>
     <row r="515" spans="1:3">
       <c r="A515" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B515">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="C515" s="2">
-        <v>83.49700164794922</v>
+        <v>1628.237060546875</v>
       </c>
     </row>
     <row r="516" spans="1:3">
       <c r="A516" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B516">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="C516" s="2">
-        <v>78.91500091552734</v>
+        <v>1558.238037109375</v>
       </c>
     </row>
     <row r="517" spans="1:3">
       <c r="A517" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B517">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="C517" s="2">
-        <v>37.41799926757812</v>
+        <v>1425.464965820312</v>
       </c>
     </row>
     <row r="518" spans="1:3">
       <c r="A518" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B518">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="C518" s="2">
-        <v>118.6399993896484</v>
+        <v>1465.442016601562</v>
       </c>
     </row>
     <row r="519" spans="1:3">
       <c r="A519" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B519">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="C519" s="2">
-        <v>-9.762999534606934</v>
+        <v>1295.474975585938</v>
       </c>
     </row>
     <row r="520" spans="1:3">
       <c r="A520" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B520">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="C520" s="2">
-        <v>-49.93600082397461</v>
+        <v>1477.511962890625</v>
       </c>
     </row>
     <row r="521" spans="1:3">
       <c r="A521" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B521">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="C521" s="2">
-        <v>21.95199966430664</v>
+        <v>1384.724975585938</v>
       </c>
     </row>
     <row r="522" spans="1:3">
       <c r="A522" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B522">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="C522" s="2">
-        <v>79.16100311279297</v>
+        <v>1356.678955078125</v>
       </c>
     </row>
     <row r="523" spans="1:3">
       <c r="A523" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B523">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="C523" s="2">
-        <v>65.94699859619141</v>
+        <v>1392.514038085938</v>
       </c>
     </row>
     <row r="524" spans="1:3">
       <c r="A524" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B524">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="C524" s="2">
-        <v>129.2830047607422</v>
+        <v>1385.385986328125</v>
       </c>
     </row>
     <row r="525" spans="1:3">
       <c r="A525" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B525">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="C525" s="2">
-        <v>201.5440063476562</v>
+        <v>1505.568969726562</v>
       </c>
     </row>
     <row r="526" spans="1:3">
       <c r="A526" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B526">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="C526" s="2">
-        <v>266.4020080566406</v>
+        <v>1673.015991210938</v>
       </c>
     </row>
     <row r="527" spans="1:3">
       <c r="A527" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B527">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="C527" s="2">
-        <v>292.4119873046875</v>
+        <v>1835.234008789062</v>
       </c>
     </row>
     <row r="528" spans="1:3">
       <c r="A528" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B528">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="C528" s="2">
-        <v>373.1600036621094</v>
+        <v>1837.057983398438</v>
       </c>
     </row>
     <row r="529" spans="1:3">
       <c r="A529" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B529">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="C529" s="2">
-        <v>591.6890258789062</v>
+        <v>1838.058959960938</v>
       </c>
     </row>
     <row r="530" spans="1:3">
       <c r="A530" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B530">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="C530" s="2">
-        <v>818.7130126953125</v>
+        <v>1879.673950195312</v>
       </c>
     </row>
     <row r="531" spans="1:3">
       <c r="A531" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B531">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="C531" s="2">
-        <v>1011.992980957031</v>
+        <v>2076.444091796875</v>
       </c>
     </row>
     <row r="532" spans="1:3">
       <c r="A532" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B532">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="C532" s="2">
-        <v>1062.56396484375</v>
+        <v>2259.513916015625</v>
       </c>
     </row>
     <row r="533" spans="1:3">
       <c r="A533" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B533">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="C533" s="2">
-        <v>1232.133056640625</v>
+        <v>2315.155029296875</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -6258,10 +6258,10 @@
         <v>9</v>
       </c>
       <c r="B534">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C534" s="2">
-        <v>1503.819946289062</v>
+        <v>2299.337890625</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -6269,10 +6269,10 @@
         <v>9</v>
       </c>
       <c r="B535">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C535" s="2">
-        <v>1823.85205078125</v>
+        <v>2362.81494140625</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -6280,10 +6280,10 @@
         <v>9</v>
       </c>
       <c r="B536">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C536" s="2">
-        <v>1787.569946289062</v>
+        <v>2328.324951171875</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -6291,10 +6291,10 @@
         <v>9</v>
       </c>
       <c r="B537">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C537" s="2">
-        <v>1852.069946289062</v>
+        <v>2236.823974609375</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -6302,10 +6302,10 @@
         <v>9</v>
       </c>
       <c r="B538">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C538" s="2">
-        <v>1762.369995117188</v>
+        <v>2204.22509765625</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -6313,10 +6313,10 @@
         <v>9</v>
       </c>
       <c r="B539">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C539" s="2">
-        <v>1859.720947265625</v>
+        <v>2166.43798828125</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -6324,10 +6324,10 @@
         <v>9</v>
       </c>
       <c r="B540">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C540" s="2">
-        <v>1978.411010742188</v>
+        <v>2169.632080078125</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -6335,10 +6335,10 @@
         <v>9</v>
       </c>
       <c r="B541">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C541" s="2">
-        <v>1950.892944335938</v>
+        <v>2159.91796875</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -6346,10 +6346,10 @@
         <v>9</v>
       </c>
       <c r="B542">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C542" s="2">
-        <v>1923.990966796875</v>
+        <v>2117.969970703125</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -6357,10 +6357,10 @@
         <v>9</v>
       </c>
       <c r="B543">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C543" s="2">
-        <v>1963.843994140625</v>
+        <v>2096.3369140625</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -6368,10 +6368,10 @@
         <v>9</v>
       </c>
       <c r="B544">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C544" s="2">
-        <v>1972.260986328125</v>
+        <v>2115.258056640625</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -6379,10 +6379,10 @@
         <v>9</v>
       </c>
       <c r="B545">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C545" s="2">
-        <v>2046.182983398438</v>
+        <v>2032.258056640625</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -6390,10 +6390,10 @@
         <v>9</v>
       </c>
       <c r="B546">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C546" s="2">
-        <v>1964.047973632812</v>
+        <v>1994.89404296875</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -6401,10 +6401,10 @@
         <v>9</v>
       </c>
       <c r="B547">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C547" s="2">
-        <v>2000.70703125</v>
+        <v>1987.657958984375</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -6412,10 +6412,10 @@
         <v>9</v>
       </c>
       <c r="B548">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C548" s="2">
-        <v>2040.211059570312</v>
+        <v>1856.4560546875</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -6423,10 +6423,10 @@
         <v>9</v>
       </c>
       <c r="B549">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C549" s="2">
-        <v>2230.657958984375</v>
+        <v>1986.758056640625</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -6434,10 +6434,10 @@
         <v>9</v>
       </c>
       <c r="B550">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C550" s="2">
-        <v>2231.33203125</v>
+        <v>2157.80810546875</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -6445,10 +6445,10 @@
         <v>9</v>
       </c>
       <c r="B551">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C551" s="2">
-        <v>2256.3330078125</v>
+        <v>2187.089111328125</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -6456,10 +6456,10 @@
         <v>9</v>
       </c>
       <c r="B552">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C552" s="2">
-        <v>2096.33203125</v>
+        <v>2169.674072265625</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -6467,10 +6467,10 @@
         <v>9</v>
       </c>
       <c r="B553">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C553" s="2">
-        <v>2105.7080078125</v>
+        <v>2251.742919921875</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -6478,10 +6478,10 @@
         <v>9</v>
       </c>
       <c r="B554">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C554" s="2">
-        <v>2102.837890625</v>
+        <v>2277.14306640625</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -6489,10 +6489,10 @@
         <v>9</v>
       </c>
       <c r="B555">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C555" s="2">
-        <v>2124.10205078125</v>
+        <v>2213.02099609375</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -6500,10 +6500,10 @@
         <v>9</v>
       </c>
       <c r="B556">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="C556" s="2">
-        <v>2050.696044921875</v>
+        <v>2316.39599609375</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -6511,10 +6511,10 @@
         <v>9</v>
       </c>
       <c r="B557">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="C557" s="2">
-        <v>2039.151977539062</v>
+        <v>2409.576904296875</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -6522,10 +6522,10 @@
         <v>9</v>
       </c>
       <c r="B558">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C558" s="2">
-        <v>2022.9169921875</v>
+        <v>2490.282958984375</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -6533,10 +6533,10 @@
         <v>9</v>
       </c>
       <c r="B559">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C559" s="2">
-        <v>1993.822021484375</v>
+        <v>2510.531005859375</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -6544,10 +6544,10 @@
         <v>9</v>
       </c>
       <c r="B560">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="C560" s="2">
-        <v>1975.302001953125</v>
+        <v>2505.823974609375</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -6555,10 +6555,10 @@
         <v>9</v>
       </c>
       <c r="B561">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="C561" s="2">
-        <v>1974.281982421875</v>
+        <v>2490.740966796875</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -6566,10 +6566,10 @@
         <v>9</v>
       </c>
       <c r="B562">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="C562" s="2">
-        <v>1995.715942382812</v>
+        <v>2481.8701171875</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -6577,10 +6577,10 @@
         <v>9</v>
       </c>
       <c r="B563">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C563" s="2">
-        <v>1993.7060546875</v>
+        <v>2435.73095703125</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -6588,10 +6588,10 @@
         <v>9</v>
       </c>
       <c r="B564">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="C564" s="2">
-        <v>1999.858032226562</v>
+        <v>2472.123046875</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -6599,10 +6599,10 @@
         <v>9</v>
       </c>
       <c r="B565">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="C565" s="2">
-        <v>2001.765014648438</v>
+        <v>2474.794921875</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -6610,10 +6610,10 @@
         <v>9</v>
       </c>
       <c r="B566">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C566" s="2">
-        <v>1955.974975585938</v>
+        <v>2488.114990234375</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -6621,10 +6621,10 @@
         <v>9</v>
       </c>
       <c r="B567">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="C567" s="2">
-        <v>1974.6240234375</v>
+        <v>2548.261962890625</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -6632,10 +6632,10 @@
         <v>9</v>
       </c>
       <c r="B568">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="C568" s="2">
-        <v>1961.64501953125</v>
+        <v>2552.340087890625</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -6643,10 +6643,10 @@
         <v>9</v>
       </c>
       <c r="B569">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="C569" s="2">
-        <v>1937.20703125</v>
+        <v>2580.458984375</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -6654,10 +6654,10 @@
         <v>9</v>
       </c>
       <c r="B570">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="C570" s="2">
-        <v>1920.156005859375</v>
+        <v>2580.26611328125</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -6665,10 +6665,10 @@
         <v>9</v>
       </c>
       <c r="B571">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="C571" s="2">
-        <v>1920.259033203125</v>
+        <v>2611.31591796875</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -6676,10 +6676,10 @@
         <v>9</v>
       </c>
       <c r="B572">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="C572" s="2">
-        <v>1895.088012695312</v>
+        <v>2635.909912109375</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -6687,10 +6687,10 @@
         <v>9</v>
       </c>
       <c r="B573">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="C573" s="2">
-        <v>1895.79296875</v>
+        <v>2577.35791015625</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -6698,10 +6698,10 @@
         <v>9</v>
       </c>
       <c r="B574">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="C574" s="2">
-        <v>1899.724975585938</v>
+        <v>2501.486083984375</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -6709,10 +6709,10 @@
         <v>9</v>
       </c>
       <c r="B575">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="C575" s="2">
-        <v>2003.120971679688</v>
+        <v>2470.85595703125</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -6720,10 +6720,10 @@
         <v>9</v>
       </c>
       <c r="B576">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C576" s="2">
-        <v>1946.199951171875</v>
+        <v>2396.806884765625</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -6731,10 +6731,10 @@
         <v>9</v>
       </c>
       <c r="B577">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="C577" s="2">
-        <v>1968.527954101562</v>
+        <v>2332.577880859375</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -6742,10 +6742,10 @@
         <v>9</v>
       </c>
       <c r="B578">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="C578" s="2">
-        <v>2009.725952148438</v>
+        <v>2327.805908203125</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -6753,10 +6753,10 @@
         <v>9</v>
       </c>
       <c r="B579">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="C579" s="2">
-        <v>1947.77099609375</v>
+        <v>2392.889892578125</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -6764,10 +6764,10 @@
         <v>9</v>
       </c>
       <c r="B580">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C580" s="2">
-        <v>2015.052978515625</v>
+        <v>2387.112060546875</v>
       </c>
     </row>
     <row r="581" spans="1:3">
@@ -6775,10 +6775,10 @@
         <v>9</v>
       </c>
       <c r="B581">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C581" s="2">
-        <v>2027.77197265625</v>
+        <v>2215.85009765625</v>
       </c>
     </row>
     <row r="582" spans="1:3">
@@ -6786,10 +6786,10 @@
         <v>9</v>
       </c>
       <c r="B582">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C582" s="2">
-        <v>1994.54296875</v>
+        <v>2224.631103515625</v>
       </c>
     </row>
     <row r="583" spans="1:3">
@@ -6797,10 +6797,10 @@
         <v>9</v>
       </c>
       <c r="B583">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="C583" s="2">
-        <v>2007.597045898438</v>
+        <v>2186.219970703125</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -6808,10 +6808,10 @@
         <v>9</v>
       </c>
       <c r="B584">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="C584" s="2">
-        <v>2006.837036132812</v>
+        <v>2096.14599609375</v>
       </c>
     </row>
     <row r="585" spans="1:3">
@@ -6819,10 +6819,10 @@
         <v>9</v>
       </c>
       <c r="B585">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="C585" s="2">
-        <v>2019.639038085938</v>
+        <v>2175.489990234375</v>
       </c>
     </row>
     <row r="586" spans="1:3">
@@ -6830,10 +6830,10 @@
         <v>9</v>
       </c>
       <c r="B586">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="C586" s="2">
-        <v>2005.987060546875</v>
+        <v>2239.5</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -6841,10 +6841,10 @@
         <v>9</v>
       </c>
       <c r="B587">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="C587" s="2">
-        <v>2022.0400390625</v>
+        <v>2246.60107421875</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -6852,10 +6852,10 @@
         <v>9</v>
       </c>
       <c r="B588">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C588" s="2">
-        <v>2053.631103515625</v>
+        <v>2232.443115234375</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -6863,10 +6863,10 @@
         <v>9</v>
       </c>
       <c r="B589">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="C589" s="2">
-        <v>2095.81005859375</v>
+        <v>2190.75</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -6874,10 +6874,10 @@
         <v>9</v>
       </c>
       <c r="B590">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="C590" s="2">
-        <v>2117.403076171875</v>
+        <v>2064.262939453125</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -6885,10 +6885,10 @@
         <v>9</v>
       </c>
       <c r="B591">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="C591" s="2">
-        <v>2114.827880859375</v>
+        <v>2059.2939453125</v>
       </c>
     </row>
     <row r="592" spans="1:3">
@@ -6896,10 +6896,10 @@
         <v>9</v>
       </c>
       <c r="B592">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="C592" s="2">
-        <v>2113.717041015625</v>
+        <v>2109.23291015625</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -6907,10 +6907,10 @@
         <v>9</v>
       </c>
       <c r="B593">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="C593" s="2">
-        <v>2140.2900390625</v>
+        <v>2133.89208984375</v>
       </c>
     </row>
     <row r="594" spans="1:3">
@@ -6918,10 +6918,10 @@
         <v>9</v>
       </c>
       <c r="B594">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="C594" s="2">
-        <v>2133.6279296875</v>
+        <v>2162.945068359375</v>
       </c>
     </row>
     <row r="595" spans="1:3">
@@ -6929,10 +6929,10 @@
         <v>9</v>
       </c>
       <c r="B595">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="C595" s="2">
-        <v>2136.931884765625</v>
+        <v>2211.06103515625</v>
       </c>
     </row>
     <row r="596" spans="1:3">
@@ -6940,10 +6940,10 @@
         <v>9</v>
       </c>
       <c r="B596">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="C596" s="2">
-        <v>2143.322021484375</v>
+        <v>2220.402099609375</v>
       </c>
     </row>
     <row r="597" spans="1:3">
@@ -6951,10 +6951,10 @@
         <v>9</v>
       </c>
       <c r="B597">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="C597" s="2">
-        <v>2140.3759765625</v>
+        <v>2181.513916015625</v>
       </c>
     </row>
     <row r="598" spans="1:3">
@@ -6962,10 +6962,10 @@
         <v>9</v>
       </c>
       <c r="B598">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="C598" s="2">
-        <v>2145.552001953125</v>
+        <v>2188.819091796875</v>
       </c>
     </row>
     <row r="599" spans="1:3">
@@ -6973,10 +6973,10 @@
         <v>9</v>
       </c>
       <c r="B599">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C599" s="2">
-        <v>2144.955078125</v>
+        <v>2114.279052734375</v>
       </c>
     </row>
     <row r="600" spans="1:3">
@@ -6984,10 +6984,10 @@
         <v>9</v>
       </c>
       <c r="B600">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="C600" s="2">
-        <v>2124.93798828125</v>
+        <v>2096.825927734375</v>
       </c>
     </row>
     <row r="601" spans="1:3">
@@ -6995,10 +6995,10 @@
         <v>9</v>
       </c>
       <c r="B601">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="C601" s="2">
-        <v>2029.056030273438</v>
+        <v>2144.677001953125</v>
       </c>
     </row>
     <row r="602" spans="1:3">
@@ -7006,307 +7006,307 @@
         <v>9</v>
       </c>
       <c r="B602">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="C602" s="2">
-        <v>1996.827026367188</v>
+        <v>2161.087890625</v>
       </c>
     </row>
     <row r="603" spans="1:3">
       <c r="A603" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B603">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="C603" s="2">
-        <v>2009.240966796875</v>
+        <v>2317.322021484375</v>
       </c>
     </row>
     <row r="604" spans="1:3">
       <c r="A604" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B604">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="C604" s="2">
-        <v>1965.213989257812</v>
+        <v>2294.83203125</v>
       </c>
     </row>
     <row r="605" spans="1:3">
       <c r="A605" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B605">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="C605" s="2">
-        <v>1960.413940429688</v>
+        <v>2338.282958984375</v>
       </c>
     </row>
     <row r="606" spans="1:3">
       <c r="A606" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B606">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="C606" s="2">
-        <v>1809.615966796875</v>
+        <v>2302.304931640625</v>
       </c>
     </row>
     <row r="607" spans="1:3">
       <c r="A607" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B607">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="C607" s="2">
-        <v>1798.921997070312</v>
+        <v>2234.777099609375</v>
       </c>
     </row>
     <row r="608" spans="1:3">
       <c r="A608" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B608">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="C608" s="2">
-        <v>1685.265014648438</v>
+        <v>2240.5419921875</v>
       </c>
     </row>
     <row r="609" spans="1:3">
       <c r="A609" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B609">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="C609" s="2">
-        <v>1632.5830078125</v>
+        <v>2293.574951171875</v>
       </c>
     </row>
     <row r="610" spans="1:3">
       <c r="A610" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B610">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="C610" s="2">
-        <v>1638.116943359375</v>
+        <v>2232.448974609375</v>
       </c>
     </row>
     <row r="611" spans="1:3">
       <c r="A611" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B611">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="C611" s="2">
-        <v>1661.734008789062</v>
+        <v>2227.174072265625</v>
       </c>
     </row>
     <row r="612" spans="1:3">
       <c r="A612" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B612">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="C612" s="2">
-        <v>1663.785034179688</v>
+        <v>2308.385986328125</v>
       </c>
     </row>
     <row r="613" spans="1:3">
       <c r="A613" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B613">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="C613" s="2">
-        <v>1663.732055664062</v>
+        <v>2301.902099609375</v>
       </c>
     </row>
     <row r="614" spans="1:3">
       <c r="A614" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B614">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="C614" s="2">
-        <v>1670.745971679688</v>
+        <v>2362.69091796875</v>
       </c>
     </row>
     <row r="615" spans="1:3">
       <c r="A615" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B615">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="C615" s="2">
-        <v>1653.3349609375</v>
+        <v>2372.489013671875</v>
       </c>
     </row>
     <row r="616" spans="1:3">
       <c r="A616" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B616">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="C616" s="2">
-        <v>1691.56201171875</v>
+        <v>2405.81396484375</v>
       </c>
     </row>
     <row r="617" spans="1:3">
       <c r="A617" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B617">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="C617" s="2">
-        <v>1702.337036132812</v>
+        <v>2386.844970703125</v>
       </c>
     </row>
     <row r="618" spans="1:3">
       <c r="A618" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B618">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="C618" s="2">
-        <v>1732.501953125</v>
+        <v>2382.73095703125</v>
       </c>
     </row>
     <row r="619" spans="1:3">
       <c r="A619" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B619">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="C619" s="2">
-        <v>1732.386962890625</v>
+        <v>2316.594970703125</v>
       </c>
     </row>
     <row r="620" spans="1:3">
       <c r="A620" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B620">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="C620" s="2">
-        <v>1721.76904296875</v>
+        <v>2336.7119140625</v>
       </c>
     </row>
     <row r="621" spans="1:3">
       <c r="A621" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B621">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="C621" s="2">
-        <v>1755.401977539062</v>
+        <v>2329.10400390625</v>
       </c>
     </row>
     <row r="622" spans="1:3">
       <c r="A622" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B622">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="C622" s="2">
-        <v>1715.555053710938</v>
+        <v>2367.81591796875</v>
       </c>
     </row>
     <row r="623" spans="1:3">
       <c r="A623" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B623">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="C623" s="2">
-        <v>1724.642944335938</v>
+        <v>2254.236083984375</v>
       </c>
     </row>
     <row r="624" spans="1:3">
       <c r="A624" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B624">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="C624" s="2">
-        <v>1720.43505859375</v>
+        <v>2197.14501953125</v>
       </c>
     </row>
     <row r="625" spans="1:3">
       <c r="A625" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B625">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="C625" s="2">
-        <v>1724.77197265625</v>
+        <v>2187.7919921875</v>
       </c>
     </row>
     <row r="626" spans="1:3">
       <c r="A626" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B626">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="C626" s="2">
-        <v>1734.511962890625</v>
+        <v>2179.409912109375</v>
       </c>
     </row>
     <row r="627" spans="1:3">
       <c r="A627" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B627">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="C627" s="2">
-        <v>1725.47802734375</v>
+        <v>2168.35400390625</v>
       </c>
     </row>
     <row r="628" spans="1:3">
       <c r="A628" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B628">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="C628" s="2">
-        <v>1752.110961914062</v>
+        <v>2118.3310546875</v>
       </c>
     </row>
     <row r="629" spans="1:3">
       <c r="A629" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B629">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="C629" s="2">
-        <v>1738.006958007812</v>
+        <v>2067.31005859375</v>
       </c>
     </row>
     <row r="630" spans="1:3">
@@ -7314,10 +7314,10 @@
         <v>10</v>
       </c>
       <c r="B630">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C630" s="2">
-        <v>2234.047119140625</v>
+        <v>2061.0009765625</v>
       </c>
     </row>
     <row r="631" spans="1:3">
@@ -7325,10 +7325,10 @@
         <v>10</v>
       </c>
       <c r="B631">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C631" s="2">
-        <v>2227.666015625</v>
+        <v>2098.3720703125</v>
       </c>
     </row>
     <row r="632" spans="1:3">
@@ -7336,10 +7336,10 @@
         <v>10</v>
       </c>
       <c r="B632">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C632" s="2">
-        <v>2208.035888671875</v>
+        <v>2072.27587890625</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -7347,10 +7347,10 @@
         <v>10</v>
       </c>
       <c r="B633">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C633" s="2">
-        <v>2194.51904296875</v>
+        <v>2000.135009765625</v>
       </c>
     </row>
     <row r="634" spans="1:3">
@@ -7358,10 +7358,10 @@
         <v>10</v>
       </c>
       <c r="B634">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C634" s="2">
-        <v>2209.531982421875</v>
+        <v>1772.265014648438</v>
       </c>
     </row>
     <row r="635" spans="1:3">
@@ -7369,10 +7369,10 @@
         <v>10</v>
       </c>
       <c r="B635">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C635" s="2">
-        <v>2206.5859375</v>
+        <v>1681.699951171875</v>
       </c>
     </row>
     <row r="636" spans="1:3">
@@ -7380,10 +7380,10 @@
         <v>10</v>
       </c>
       <c r="B636">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C636" s="2">
-        <v>2212.7509765625</v>
+        <v>1738.128051757812</v>
       </c>
     </row>
     <row r="637" spans="1:3">
@@ -7391,10 +7391,10 @@
         <v>10</v>
       </c>
       <c r="B637">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C637" s="2">
-        <v>2215.805908203125</v>
+        <v>1651.266967773438</v>
       </c>
     </row>
     <row r="638" spans="1:3">
@@ -7402,10 +7402,10 @@
         <v>10</v>
       </c>
       <c r="B638">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C638" s="2">
-        <v>2211.092041015625</v>
+        <v>1642.8740234375</v>
       </c>
     </row>
     <row r="639" spans="1:3">
@@ -7413,10 +7413,10 @@
         <v>10</v>
       </c>
       <c r="B639">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C639" s="2">
-        <v>2213.069091796875</v>
+        <v>1568.120971679688</v>
       </c>
     </row>
     <row r="640" spans="1:3">
@@ -7424,10 +7424,10 @@
         <v>10</v>
       </c>
       <c r="B640">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C640" s="2">
-        <v>2145.657958984375</v>
+        <v>1575.531005859375</v>
       </c>
     </row>
     <row r="641" spans="1:3">
@@ -7435,10 +7435,10 @@
         <v>10</v>
       </c>
       <c r="B641">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C641" s="2">
-        <v>2316.407958984375</v>
+        <v>1708.345947265625</v>
       </c>
     </row>
     <row r="642" spans="1:3">
@@ -7446,10 +7446,10 @@
         <v>10</v>
       </c>
       <c r="B642">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C642" s="2">
-        <v>2199.2919921875</v>
+        <v>1638.491943359375</v>
       </c>
     </row>
     <row r="643" spans="1:3">
@@ -7457,10 +7457,10 @@
         <v>10</v>
       </c>
       <c r="B643">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C643" s="2">
-        <v>2147.718994140625</v>
+        <v>1641.864013671875</v>
       </c>
     </row>
     <row r="644" spans="1:3">
@@ -7468,10 +7468,10 @@
         <v>10</v>
       </c>
       <c r="B644">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C644" s="2">
-        <v>2141.547119140625</v>
+        <v>1635.431030273438</v>
       </c>
     </row>
     <row r="645" spans="1:3">
@@ -7479,10 +7479,10 @@
         <v>10</v>
       </c>
       <c r="B645">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C645" s="2">
-        <v>2140.7060546875</v>
+        <v>1686.389038085938</v>
       </c>
     </row>
     <row r="646" spans="1:3">
@@ -7490,10 +7490,10 @@
         <v>10</v>
       </c>
       <c r="B646">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C646" s="2">
-        <v>2132.035888671875</v>
+        <v>1625.4599609375</v>
       </c>
     </row>
     <row r="647" spans="1:3">
@@ -7501,10 +7501,10 @@
         <v>10</v>
       </c>
       <c r="B647">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C647" s="2">
-        <v>2148.60009765625</v>
+        <v>1567.078979492188</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -7512,10 +7512,10 @@
         <v>10</v>
       </c>
       <c r="B648">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C648" s="2">
-        <v>2150.1220703125</v>
+        <v>1412.10595703125</v>
       </c>
     </row>
     <row r="649" spans="1:3">
@@ -7523,10 +7523,10 @@
         <v>10</v>
       </c>
       <c r="B649">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C649" s="2">
-        <v>2111.66796875</v>
+        <v>1475.869995117188</v>
       </c>
     </row>
     <row r="650" spans="1:3">
@@ -7534,10 +7534,10 @@
         <v>10</v>
       </c>
       <c r="B650">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C650" s="2">
-        <v>2114.912109375</v>
+        <v>1315.984008789062</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -7545,10 +7545,10 @@
         <v>10</v>
       </c>
       <c r="B651">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C651" s="2">
-        <v>2115.4140625</v>
+        <v>1200.708984375</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -7556,10 +7556,10 @@
         <v>10</v>
       </c>
       <c r="B652">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="C652" s="2">
-        <v>2105.493896484375</v>
+        <v>1135.365966796875</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -7567,10 +7567,10 @@
         <v>10</v>
       </c>
       <c r="B653">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="C653" s="2">
-        <v>2172.241943359375</v>
+        <v>1092.985961914062</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -7578,10 +7578,10 @@
         <v>10</v>
       </c>
       <c r="B654">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C654" s="2">
-        <v>1998.390991210938</v>
+        <v>1122.629028320312</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -7589,10 +7589,10 @@
         <v>10</v>
       </c>
       <c r="B655">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C655" s="2">
-        <v>1946.969970703125</v>
+        <v>1153.010009765625</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -7600,10 +7600,10 @@
         <v>10</v>
       </c>
       <c r="B656">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="C656" s="2">
-        <v>1942.2099609375</v>
+        <v>1153.599975585938</v>
       </c>
     </row>
     <row r="657" spans="1:3">
@@ -7611,10 +7611,10 @@
         <v>10</v>
       </c>
       <c r="B657">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="C657" s="2">
-        <v>1952.016967773438</v>
+        <v>1184.800048828125</v>
       </c>
     </row>
     <row r="658" spans="1:3">
@@ -7622,10 +7622,10 @@
         <v>10</v>
       </c>
       <c r="B658">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="C658" s="2">
-        <v>1964.680053710938</v>
+        <v>1136.516967773438</v>
       </c>
     </row>
     <row r="659" spans="1:3">
@@ -7633,10 +7633,10 @@
         <v>10</v>
       </c>
       <c r="B659">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C659" s="2">
-        <v>1973.012939453125</v>
+        <v>1024.722045898438</v>
       </c>
     </row>
     <row r="660" spans="1:3">
@@ -7644,10 +7644,10 @@
         <v>10</v>
       </c>
       <c r="B660">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="C660" s="2">
-        <v>1972.087036132812</v>
+        <v>955.9530029296875</v>
       </c>
     </row>
     <row r="661" spans="1:3">
@@ -7655,10 +7655,10 @@
         <v>10</v>
       </c>
       <c r="B661">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="C661" s="2">
-        <v>1976.307983398438</v>
+        <v>923.5040283203125</v>
       </c>
     </row>
     <row r="662" spans="1:3">
@@ -7666,10 +7666,10 @@
         <v>10</v>
       </c>
       <c r="B662">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C662" s="2">
-        <v>2000.069946289062</v>
+        <v>1011.820007324219</v>
       </c>
     </row>
     <row r="663" spans="1:3">
@@ -7677,10 +7677,10 @@
         <v>10</v>
       </c>
       <c r="B663">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="C663" s="2">
-        <v>1962.973022460938</v>
+        <v>1043.844970703125</v>
       </c>
     </row>
     <row r="664" spans="1:3">
@@ -7688,10 +7688,10 @@
         <v>10</v>
       </c>
       <c r="B664">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="C664" s="2">
-        <v>1968.696044921875</v>
+        <v>1042.384033203125</v>
       </c>
     </row>
     <row r="665" spans="1:3">
@@ -7699,10 +7699,10 @@
         <v>10</v>
       </c>
       <c r="B665">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="C665" s="2">
-        <v>1974.015014648438</v>
+        <v>1088.661010742188</v>
       </c>
     </row>
     <row r="666" spans="1:3">
@@ -7710,10 +7710,10 @@
         <v>10</v>
       </c>
       <c r="B666">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="C666" s="2">
-        <v>2006.692993164062</v>
+        <v>1144.614013671875</v>
       </c>
     </row>
     <row r="667" spans="1:3">
@@ -7721,10 +7721,10 @@
         <v>10</v>
       </c>
       <c r="B667">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="C667" s="2">
-        <v>2003.498046875</v>
+        <v>1250.413940429688</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -7732,10 +7732,10 @@
         <v>10</v>
       </c>
       <c r="B668">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="C668" s="2">
-        <v>1972.050048828125</v>
+        <v>1330.222045898438</v>
       </c>
     </row>
     <row r="669" spans="1:3">
@@ -7743,10 +7743,10 @@
         <v>10</v>
       </c>
       <c r="B669">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="C669" s="2">
-        <v>1988.340942382812</v>
+        <v>1444.838012695312</v>
       </c>
     </row>
     <row r="670" spans="1:3">
@@ -7754,10 +7754,10 @@
         <v>10</v>
       </c>
       <c r="B670">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="C670" s="2">
-        <v>2001.08203125</v>
+        <v>1259.983032226562</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -7765,10 +7765,10 @@
         <v>10</v>
       </c>
       <c r="B671">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="C671" s="2">
-        <v>2169.06005859375</v>
+        <v>1212.39697265625</v>
       </c>
     </row>
     <row r="672" spans="1:3">
@@ -7776,10 +7776,10 @@
         <v>10</v>
       </c>
       <c r="B672">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C672" s="2">
-        <v>2185.3740234375</v>
+        <v>1083.171997070312</v>
       </c>
     </row>
     <row r="673" spans="1:3">
@@ -7787,10 +7787,21 @@
         <v>10</v>
       </c>
       <c r="B673">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="C673" s="2">
-        <v>2228.407958984375</v>
+        <v>1002.629028320312</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3">
+      <c r="A674" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B674">
+        <v>72</v>
+      </c>
+      <c r="C674" s="2">
+        <v>717.0709838867188</v>
       </c>
     </row>
   </sheetData>

--- a/Wind_Production_Forecast/Wind_Forecast_Production_15min.xlsx
+++ b/Wind_Production_Forecast/Wind_Forecast_Production_15min.xlsx
@@ -25,9 +25,6 @@
     <t>Prediction</t>
   </si>
   <si>
-    <t>2025-03-18</t>
-  </si>
-  <si>
     <t>2025-03-19</t>
   </si>
   <si>
@@ -47,6 +44,9 @@
   </si>
   <si>
     <t>2025-03-25</t>
+  </si>
+  <si>
+    <t>2025-03-26</t>
   </si>
 </sst>
 </file>
@@ -406,10 +406,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2">
-        <v>2264.174072265625</v>
+        <v>1538.60595703125</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -417,10 +417,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2">
-        <v>2351.680908203125</v>
+        <v>1525.259033203125</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -428,10 +428,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2">
-        <v>1722.176025390625</v>
+        <v>1531.81494140625</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -439,10 +439,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2">
-        <v>1508.905029296875</v>
+        <v>1502.901977539062</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -450,10 +450,10 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2">
-        <v>1537.302978515625</v>
+        <v>1441.43798828125</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -461,10 +461,10 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2">
-        <v>1552.274047851562</v>
+        <v>1448.192993164062</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -472,10 +472,10 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2">
-        <v>1466.926025390625</v>
+        <v>1458.556030273438</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2">
-        <v>1874.817016601562</v>
+        <v>1498.31494140625</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -494,10 +494,10 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2">
-        <v>1472.326049804688</v>
+        <v>1572.267944335938</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -505,10 +505,10 @@
         <v>3</v>
       </c>
       <c r="B11">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2">
-        <v>1195.948974609375</v>
+        <v>1481.078002929688</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -516,10 +516,10 @@
         <v>3</v>
       </c>
       <c r="B12">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C12" s="2">
-        <v>963.1119995117188</v>
+        <v>1465.714965820312</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -527,10 +527,10 @@
         <v>3</v>
       </c>
       <c r="B13">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C13" s="2">
-        <v>869.083984375</v>
+        <v>1481.708984375</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -538,10 +538,10 @@
         <v>3</v>
       </c>
       <c r="B14">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C14" s="2">
-        <v>802.364013671875</v>
+        <v>1422.719970703125</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -549,10 +549,10 @@
         <v>3</v>
       </c>
       <c r="B15">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="C15" s="2">
-        <v>704.5139770507812</v>
+        <v>1571.118041992188</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -560,10 +560,10 @@
         <v>3</v>
       </c>
       <c r="B16">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="C16" s="2">
-        <v>769.8209838867188</v>
+        <v>1511.927978515625</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -571,10 +571,10 @@
         <v>3</v>
       </c>
       <c r="B17">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C17" s="2">
-        <v>749.7020263671875</v>
+        <v>1504.244995117188</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -582,10 +582,10 @@
         <v>3</v>
       </c>
       <c r="B18">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="C18" s="2">
-        <v>719.5969848632812</v>
+        <v>1546.767944335938</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -593,10 +593,10 @@
         <v>3</v>
       </c>
       <c r="B19">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="C19" s="2">
-        <v>819.4550170898438</v>
+        <v>1480.329956054688</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -604,10 +604,10 @@
         <v>3</v>
       </c>
       <c r="B20">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="C20" s="2">
-        <v>869.0999755859375</v>
+        <v>1535.782958984375</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -615,10 +615,10 @@
         <v>3</v>
       </c>
       <c r="B21">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="C21" s="2">
-        <v>864.8179931640625</v>
+        <v>1641.953002929688</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -626,10 +626,10 @@
         <v>3</v>
       </c>
       <c r="B22">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="C22" s="2">
-        <v>726.4400024414062</v>
+        <v>2172.278076171875</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -637,10 +637,10 @@
         <v>3</v>
       </c>
       <c r="B23">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="C23" s="2">
-        <v>696.1489868164062</v>
+        <v>2273.85693359375</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -648,10 +648,10 @@
         <v>3</v>
       </c>
       <c r="B24">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="C24" s="2">
-        <v>651.0089721679688</v>
+        <v>2074.465087890625</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -659,10 +659,10 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="C25" s="2">
-        <v>614.2219848632812</v>
+        <v>1342.512939453125</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -670,318 +670,318 @@
         <v>3</v>
       </c>
       <c r="B26">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="C26" s="2">
-        <v>513.3350219726562</v>
+        <v>1265.982055664062</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="C27" s="2">
-        <v>426.4179992675781</v>
+        <v>1017.367004394531</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="C28" s="2">
-        <v>347.0690002441406</v>
+        <v>1298.6240234375</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="C29" s="2">
-        <v>221.6499938964844</v>
+        <v>1082.56396484375</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="C30" s="2">
-        <v>260.1220092773438</v>
+        <v>913.0180053710938</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2">
-        <v>283.0020141601562</v>
+        <v>800.6079711914062</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="C32" s="2">
-        <v>402.3840026855469</v>
+        <v>690.969970703125</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="C33" s="2">
-        <v>445.2439880371094</v>
+        <v>620.1389770507812</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B34">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="C34" s="2">
-        <v>472.8900146484375</v>
+        <v>669.4940185546875</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="C35" s="2">
-        <v>621.3939819335938</v>
+        <v>599.8829956054688</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="C36" s="2">
-        <v>556.3569946289062</v>
+        <v>407.6409912109375</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B37">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="C37" s="2">
-        <v>618.3619995117188</v>
+        <v>387.0159912109375</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B38">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="C38" s="2">
-        <v>625.1829833984375</v>
+        <v>401.7099914550781</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B39">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="C39" s="2">
-        <v>613.7230224609375</v>
+        <v>336.1659851074219</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B40">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="C40" s="2">
-        <v>636.697021484375</v>
+        <v>327.4760131835938</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2">
-        <v>587.18798828125</v>
+        <v>346.8980102539062</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B42">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="C42" s="2">
-        <v>620.302001953125</v>
+        <v>186.0630035400391</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B43">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="C43" s="2">
-        <v>549.427001953125</v>
+        <v>135.7149963378906</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B44">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="C44" s="2">
-        <v>559.1610107421875</v>
+        <v>146.6880035400391</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B45">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="C45" s="2">
-        <v>557.6129760742188</v>
+        <v>171.0290069580078</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B46">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="C46" s="2">
-        <v>632.2230224609375</v>
+        <v>133.4680023193359</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B47">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="C47" s="2">
-        <v>768.291015625</v>
+        <v>290.0549926757812</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B48">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="C48" s="2">
-        <v>930.9639892578125</v>
+        <v>415.6300048828125</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B49">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="C49" s="2">
-        <v>927.8699951171875</v>
+        <v>225.6329956054688</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B50">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="C50" s="2">
-        <v>945.614990234375</v>
+        <v>184.5749969482422</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B51">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="C51" s="2">
-        <v>1013.989990234375</v>
+        <v>240.6580047607422</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B52">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="C52" s="2">
-        <v>1140.925048828125</v>
+        <v>268.5599975585938</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B53">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="C53" s="2">
-        <v>1170.724975585938</v>
+        <v>284.6300048828125</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B54">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="C54" s="2">
-        <v>1232.557983398438</v>
+        <v>333.8489990234375</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -989,10 +989,10 @@
         <v>4</v>
       </c>
       <c r="B55">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C55" s="2">
-        <v>1232.697998046875</v>
+        <v>144.8240051269531</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1000,10 +1000,10 @@
         <v>4</v>
       </c>
       <c r="B56">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C56" s="2">
-        <v>1004.546997070312</v>
+        <v>180.7429962158203</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1011,10 +1011,10 @@
         <v>4</v>
       </c>
       <c r="B57">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="C57" s="2">
-        <v>1000.072021484375</v>
+        <v>135.7409973144531</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1022,10 +1022,10 @@
         <v>4</v>
       </c>
       <c r="B58">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C58" s="2">
-        <v>980.177001953125</v>
+        <v>193.2570037841797</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1033,10 +1033,10 @@
         <v>4</v>
       </c>
       <c r="B59">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C59" s="2">
-        <v>934.8319702148438</v>
+        <v>146.4889984130859</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1044,10 +1044,10 @@
         <v>4</v>
       </c>
       <c r="B60">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C60" s="2">
-        <v>784.427978515625</v>
+        <v>209.0579986572266</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1055,10 +1055,10 @@
         <v>4</v>
       </c>
       <c r="B61">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C61" s="2">
-        <v>923.677001953125</v>
+        <v>210.5839996337891</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1066,10 +1066,10 @@
         <v>4</v>
       </c>
       <c r="B62">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C62" s="2">
-        <v>854.2899780273438</v>
+        <v>279.9280090332031</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1077,10 +1077,10 @@
         <v>4</v>
       </c>
       <c r="B63">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C63" s="2">
-        <v>836.8499755859375</v>
+        <v>355.1189880371094</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1088,10 +1088,10 @@
         <v>4</v>
       </c>
       <c r="B64">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C64" s="2">
-        <v>953.89501953125</v>
+        <v>379.7659912109375</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1099,10 +1099,10 @@
         <v>4</v>
       </c>
       <c r="B65">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C65" s="2">
-        <v>1138.110961914062</v>
+        <v>406.0289916992188</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1110,10 +1110,10 @@
         <v>4</v>
       </c>
       <c r="B66">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C66" s="2">
-        <v>1218.89697265625</v>
+        <v>447.7630004882812</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1121,10 +1121,10 @@
         <v>4</v>
       </c>
       <c r="B67">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C67" s="2">
-        <v>1064.2099609375</v>
+        <v>498.7160034179688</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1132,10 +1132,10 @@
         <v>4</v>
       </c>
       <c r="B68">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C68" s="2">
-        <v>1070.347045898438</v>
+        <v>516.39599609375</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1143,10 +1143,10 @@
         <v>4</v>
       </c>
       <c r="B69">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C69" s="2">
-        <v>958.2310180664062</v>
+        <v>536.9869995117188</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1154,10 +1154,10 @@
         <v>4</v>
       </c>
       <c r="B70">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C70" s="2">
-        <v>925.843017578125</v>
+        <v>517.9439697265625</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1165,10 +1165,10 @@
         <v>4</v>
       </c>
       <c r="B71">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C71" s="2">
-        <v>1076.802978515625</v>
+        <v>518.8560180664062</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1176,10 +1176,10 @@
         <v>4</v>
       </c>
       <c r="B72">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="C72" s="2">
-        <v>1233.347045898438</v>
+        <v>478.4519958496094</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1187,10 +1187,10 @@
         <v>4</v>
       </c>
       <c r="B73">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C73" s="2">
-        <v>1378.390014648438</v>
+        <v>488.989990234375</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1198,10 +1198,10 @@
         <v>4</v>
       </c>
       <c r="B74">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C74" s="2">
-        <v>1344.72998046875</v>
+        <v>460.2250061035156</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1209,10 +1209,10 @@
         <v>4</v>
       </c>
       <c r="B75">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C75" s="2">
-        <v>1465.7080078125</v>
+        <v>471.2799987792969</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1220,10 +1220,10 @@
         <v>4</v>
       </c>
       <c r="B76">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C76" s="2">
-        <v>1409.691040039062</v>
+        <v>460.5029907226562</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1231,10 +1231,10 @@
         <v>4</v>
       </c>
       <c r="B77">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="C77" s="2">
-        <v>1446.692993164062</v>
+        <v>534.7020263671875</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1242,10 +1242,10 @@
         <v>4</v>
       </c>
       <c r="B78">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="C78" s="2">
-        <v>1513.266967773438</v>
+        <v>577.1320190429688</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1253,10 +1253,10 @@
         <v>4</v>
       </c>
       <c r="B79">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="C79" s="2">
-        <v>1460.692993164062</v>
+        <v>577.322998046875</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1264,10 +1264,10 @@
         <v>4</v>
       </c>
       <c r="B80">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="C80" s="2">
-        <v>1651.461059570312</v>
+        <v>545.073974609375</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1275,10 +1275,10 @@
         <v>4</v>
       </c>
       <c r="B81">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="C81" s="2">
-        <v>1646.56103515625</v>
+        <v>536.3109741210938</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1286,10 +1286,10 @@
         <v>4</v>
       </c>
       <c r="B82">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="C82" s="2">
-        <v>1565.516967773438</v>
+        <v>405.9519958496094</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1297,10 +1297,10 @@
         <v>4</v>
       </c>
       <c r="B83">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="C83" s="2">
-        <v>1764.859985351562</v>
+        <v>233.2510070800781</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1308,10 +1308,10 @@
         <v>4</v>
       </c>
       <c r="B84">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="C84" s="2">
-        <v>1695.401000976562</v>
+        <v>309.9979858398438</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1319,10 +1319,10 @@
         <v>4</v>
       </c>
       <c r="B85">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C85" s="2">
-        <v>1869.9580078125</v>
+        <v>279.4909973144531</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1330,10 +1330,10 @@
         <v>4</v>
       </c>
       <c r="B86">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C86" s="2">
-        <v>1897.989990234375</v>
+        <v>256.6700134277344</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1341,10 +1341,10 @@
         <v>4</v>
       </c>
       <c r="B87">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="C87" s="2">
-        <v>1777.421020507812</v>
+        <v>566.4609985351562</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1352,10 +1352,10 @@
         <v>4</v>
       </c>
       <c r="B88">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="C88" s="2">
-        <v>1824.774047851562</v>
+        <v>730.5430297851562</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1363,10 +1363,10 @@
         <v>4</v>
       </c>
       <c r="B89">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="C89" s="2">
-        <v>1732.20703125</v>
+        <v>605.2559814453125</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1374,10 +1374,10 @@
         <v>4</v>
       </c>
       <c r="B90">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="C90" s="2">
-        <v>1896.0810546875</v>
+        <v>296.5929870605469</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1385,10 +1385,10 @@
         <v>4</v>
       </c>
       <c r="B91">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="C91" s="2">
-        <v>1948.191040039062</v>
+        <v>432.4259948730469</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1396,10 +1396,10 @@
         <v>4</v>
       </c>
       <c r="B92">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="C92" s="2">
-        <v>1922.431030273438</v>
+        <v>437.2680053710938</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1407,10 +1407,10 @@
         <v>4</v>
       </c>
       <c r="B93">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="C93" s="2">
-        <v>1627.942993164062</v>
+        <v>284.3760070800781</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1418,10 +1418,10 @@
         <v>4</v>
       </c>
       <c r="B94">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C94" s="2">
-        <v>1334.576049804688</v>
+        <v>523.760986328125</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1429,10 +1429,10 @@
         <v>4</v>
       </c>
       <c r="B95">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C95" s="2">
-        <v>1254.069946289062</v>
+        <v>585.708984375</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1440,10 +1440,10 @@
         <v>4</v>
       </c>
       <c r="B96">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="C96" s="2">
-        <v>1162.488037109375</v>
+        <v>699.8720092773438</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1451,10 +1451,10 @@
         <v>4</v>
       </c>
       <c r="B97">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="C97" s="2">
-        <v>1066.620971679688</v>
+        <v>466.4819946289062</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1462,10 +1462,10 @@
         <v>4</v>
       </c>
       <c r="B98">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="C98" s="2">
-        <v>1032.68603515625</v>
+        <v>323.2080078125</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1473,10 +1473,10 @@
         <v>4</v>
       </c>
       <c r="B99">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="C99" s="2">
-        <v>842.6270141601562</v>
+        <v>266.6849975585938</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1484,10 +1484,10 @@
         <v>4</v>
       </c>
       <c r="B100">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="C100" s="2">
-        <v>904.8499755859375</v>
+        <v>227.2850036621094</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1495,10 +1495,10 @@
         <v>4</v>
       </c>
       <c r="B101">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="C101" s="2">
-        <v>916.3150024414062</v>
+        <v>171.39599609375</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1506,10 +1506,10 @@
         <v>4</v>
       </c>
       <c r="B102">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="C102" s="2">
-        <v>790.6160278320312</v>
+        <v>174.572998046875</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1517,10 +1517,10 @@
         <v>4</v>
       </c>
       <c r="B103">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="C103" s="2">
-        <v>683.7449951171875</v>
+        <v>157.3489990234375</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1528,10 +1528,10 @@
         <v>4</v>
       </c>
       <c r="B104">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="C104" s="2">
-        <v>563.4829711914062</v>
+        <v>213.822998046875</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1539,10 +1539,10 @@
         <v>4</v>
       </c>
       <c r="B105">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C105" s="2">
-        <v>562.39697265625</v>
+        <v>187.9949951171875</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1550,10 +1550,10 @@
         <v>4</v>
       </c>
       <c r="B106">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="C106" s="2">
-        <v>530.4959716796875</v>
+        <v>182.5050048828125</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1561,10 +1561,10 @@
         <v>4</v>
       </c>
       <c r="B107">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C107" s="2">
-        <v>493.8989868164062</v>
+        <v>201.3930053710938</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1572,10 +1572,10 @@
         <v>4</v>
       </c>
       <c r="B108">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C108" s="2">
-        <v>466.4360046386719</v>
+        <v>247.2359924316406</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1583,10 +1583,10 @@
         <v>4</v>
       </c>
       <c r="B109">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C109" s="2">
-        <v>435.9700012207031</v>
+        <v>191.9340057373047</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1594,10 +1594,10 @@
         <v>4</v>
       </c>
       <c r="B110">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C110" s="2">
-        <v>375.6619873046875</v>
+        <v>157.2380065917969</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1605,10 +1605,10 @@
         <v>4</v>
       </c>
       <c r="B111">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="C111" s="2">
-        <v>875.2880249023438</v>
+        <v>271.5979919433594</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1616,10 +1616,10 @@
         <v>4</v>
       </c>
       <c r="B112">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="C112" s="2">
-        <v>483.2059936523438</v>
+        <v>290.2109985351562</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1627,10 +1627,10 @@
         <v>4</v>
       </c>
       <c r="B113">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C113" s="2">
-        <v>290.9129943847656</v>
+        <v>268.7730102539062</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1638,10 +1638,10 @@
         <v>4</v>
       </c>
       <c r="B114">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="C114" s="2">
-        <v>182.6349945068359</v>
+        <v>266.8349914550781</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1649,10 +1649,10 @@
         <v>4</v>
       </c>
       <c r="B115">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="C115" s="2">
-        <v>599.4539794921875</v>
+        <v>240.6380004882812</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1660,10 +1660,10 @@
         <v>4</v>
       </c>
       <c r="B116">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="C116" s="2">
-        <v>299.468994140625</v>
+        <v>213.9539947509766</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1671,10 +1671,10 @@
         <v>4</v>
       </c>
       <c r="B117">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="C117" s="2">
-        <v>299.9490051269531</v>
+        <v>129.072998046875</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1682,10 +1682,10 @@
         <v>4</v>
       </c>
       <c r="B118">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="C118" s="2">
-        <v>331.6069946289062</v>
+        <v>38.72800064086914</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1693,10 +1693,10 @@
         <v>4</v>
       </c>
       <c r="B119">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="C119" s="2">
-        <v>319.406005859375</v>
+        <v>123.9290008544922</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1704,10 +1704,10 @@
         <v>4</v>
       </c>
       <c r="B120">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="C120" s="2">
-        <v>429.1260070800781</v>
+        <v>20.4689998626709</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1715,10 +1715,10 @@
         <v>4</v>
       </c>
       <c r="B121">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="C121" s="2">
-        <v>326.406005859375</v>
+        <v>86.74800109863281</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1726,318 +1726,318 @@
         <v>4</v>
       </c>
       <c r="B122">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="C122" s="2">
-        <v>315.968994140625</v>
+        <v>28.36300086975098</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="C123" s="2">
-        <v>343.3309936523438</v>
+        <v>26.97599983215332</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B124">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="C124" s="2">
-        <v>507.0950012207031</v>
+        <v>82.72100067138672</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B125">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="C125" s="2">
-        <v>588.0020141601562</v>
+        <v>65.40499877929688</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B126">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="C126" s="2">
-        <v>688.3670043945312</v>
+        <v>118.5130004882812</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B127">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="C127" s="2">
-        <v>483.1300048828125</v>
+        <v>180.4040069580078</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B128">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="C128" s="2">
-        <v>534.2780151367188</v>
+        <v>158.9859924316406</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B129">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="C129" s="2">
-        <v>592.9210205078125</v>
+        <v>192.8379974365234</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B130">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="C130" s="2">
-        <v>531.780029296875</v>
+        <v>221.2460021972656</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B131">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="C131" s="2">
-        <v>547.969970703125</v>
+        <v>195.2960052490234</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B132">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="C132" s="2">
-        <v>598.3309936523438</v>
+        <v>195.6940002441406</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B133">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="C133" s="2">
-        <v>589.541015625</v>
+        <v>187.4129943847656</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B134">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="C134" s="2">
-        <v>563.3989868164062</v>
+        <v>180.1999969482422</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B135">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="C135" s="2">
-        <v>555.5759887695312</v>
+        <v>153.5249938964844</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B136">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="C136" s="2">
-        <v>543.0089721679688</v>
+        <v>162.8549957275391</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B137">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="C137" s="2">
-        <v>583.0540161132812</v>
+        <v>149.5149993896484</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B138">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="C138" s="2">
-        <v>571.166015625</v>
+        <v>149.3919982910156</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B139">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="C139" s="2">
-        <v>552.8699951171875</v>
+        <v>137.4109954833984</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B140">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="C140" s="2">
-        <v>610.8209838867188</v>
+        <v>117.4619979858398</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B141">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="C141" s="2">
-        <v>590.8090209960938</v>
+        <v>137.2599945068359</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B142">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="C142" s="2">
-        <v>594.60498046875</v>
+        <v>134.3509979248047</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B143">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="C143" s="2">
-        <v>563.0609741210938</v>
+        <v>143.3619995117188</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B144">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="C144" s="2">
-        <v>580.0330200195312</v>
+        <v>132.4900054931641</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B145">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="C145" s="2">
-        <v>540.0590209960938</v>
+        <v>164.5319976806641</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B146">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="C146" s="2">
-        <v>555.0969848632812</v>
+        <v>248.7319946289062</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B147">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="C147" s="2">
-        <v>541.2739868164062</v>
+        <v>306.4360046386719</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B148">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="C148" s="2">
-        <v>536.1649780273438</v>
+        <v>238.7539978027344</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B149">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="C149" s="2">
-        <v>482.3349914550781</v>
+        <v>252.7440032958984</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B150">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="C150" s="2">
-        <v>481.906005859375</v>
+        <v>205.8890075683594</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2045,10 +2045,10 @@
         <v>5</v>
       </c>
       <c r="B151">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C151" s="2">
-        <v>294.2680053710938</v>
+        <v>375.4939880371094</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2056,10 +2056,10 @@
         <v>5</v>
       </c>
       <c r="B152">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C152" s="2">
-        <v>207.8470001220703</v>
+        <v>392.9630126953125</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2067,10 +2067,10 @@
         <v>5</v>
       </c>
       <c r="B153">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="C153" s="2">
-        <v>184.7510070800781</v>
+        <v>293.2900085449219</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2078,10 +2078,10 @@
         <v>5</v>
       </c>
       <c r="B154">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C154" s="2">
-        <v>165.6900024414062</v>
+        <v>240.1790008544922</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2089,10 +2089,10 @@
         <v>5</v>
       </c>
       <c r="B155">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C155" s="2">
-        <v>228.9210052490234</v>
+        <v>214.718994140625</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2100,10 +2100,10 @@
         <v>5</v>
       </c>
       <c r="B156">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C156" s="2">
-        <v>449.218994140625</v>
+        <v>210.3739929199219</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2111,10 +2111,10 @@
         <v>5</v>
       </c>
       <c r="B157">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C157" s="2">
-        <v>628.68798828125</v>
+        <v>199.0059967041016</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2122,10 +2122,10 @@
         <v>5</v>
       </c>
       <c r="B158">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C158" s="2">
-        <v>559.5349731445312</v>
+        <v>170.4179992675781</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2133,10 +2133,10 @@
         <v>5</v>
       </c>
       <c r="B159">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C159" s="2">
-        <v>165.3300018310547</v>
+        <v>140.9799957275391</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2144,10 +2144,10 @@
         <v>5</v>
       </c>
       <c r="B160">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C160" s="2">
-        <v>77.85600280761719</v>
+        <v>101.2419967651367</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2155,10 +2155,10 @@
         <v>5</v>
       </c>
       <c r="B161">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C161" s="2">
-        <v>95.06999969482422</v>
+        <v>78.92299652099609</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2166,10 +2166,10 @@
         <v>5</v>
       </c>
       <c r="B162">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C162" s="2">
-        <v>140.5319976806641</v>
+        <v>80.80699920654297</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2177,10 +2177,10 @@
         <v>5</v>
       </c>
       <c r="B163">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C163" s="2">
-        <v>159.8059997558594</v>
+        <v>86.42900085449219</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2188,10 +2188,10 @@
         <v>5</v>
       </c>
       <c r="B164">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C164" s="2">
-        <v>485.1919860839844</v>
+        <v>91.61799621582031</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2199,10 +2199,10 @@
         <v>5</v>
       </c>
       <c r="B165">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C165" s="2">
-        <v>526.780029296875</v>
+        <v>67.89199829101562</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2210,10 +2210,10 @@
         <v>5</v>
       </c>
       <c r="B166">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C166" s="2">
-        <v>514.2730102539062</v>
+        <v>68.97299957275391</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2221,10 +2221,10 @@
         <v>5</v>
       </c>
       <c r="B167">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C167" s="2">
-        <v>477.8389892578125</v>
+        <v>24.06500053405762</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2232,10 +2232,10 @@
         <v>5</v>
       </c>
       <c r="B168">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="C168" s="2">
-        <v>430.635986328125</v>
+        <v>31.58200073242188</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2243,10 +2243,10 @@
         <v>5</v>
       </c>
       <c r="B169">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C169" s="2">
-        <v>422.4339904785156</v>
+        <v>29.26399993896484</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2254,10 +2254,10 @@
         <v>5</v>
       </c>
       <c r="B170">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C170" s="2">
-        <v>280.4089965820312</v>
+        <v>18.47500038146973</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2265,10 +2265,10 @@
         <v>5</v>
       </c>
       <c r="B171">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C171" s="2">
-        <v>206.9519958496094</v>
+        <v>81.08499908447266</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2276,10 +2276,10 @@
         <v>5</v>
       </c>
       <c r="B172">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C172" s="2">
-        <v>161.6219940185547</v>
+        <v>90.49299621582031</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2287,10 +2287,10 @@
         <v>5</v>
       </c>
       <c r="B173">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="C173" s="2">
-        <v>155.4360046386719</v>
+        <v>55.31900024414062</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2298,10 +2298,10 @@
         <v>5</v>
       </c>
       <c r="B174">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="C174" s="2">
-        <v>191.1280059814453</v>
+        <v>47.87300109863281</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2309,10 +2309,10 @@
         <v>5</v>
       </c>
       <c r="B175">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="C175" s="2">
-        <v>213.2039947509766</v>
+        <v>86.6510009765625</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2320,10 +2320,10 @@
         <v>5</v>
       </c>
       <c r="B176">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="C176" s="2">
-        <v>231.4459991455078</v>
+        <v>39.20800018310547</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2331,10 +2331,10 @@
         <v>5</v>
       </c>
       <c r="B177">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="C177" s="2">
-        <v>227.8520050048828</v>
+        <v>35.23300170898438</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2342,10 +2342,10 @@
         <v>5</v>
       </c>
       <c r="B178">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="C178" s="2">
-        <v>191.4640045166016</v>
+        <v>91.55400085449219</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2353,10 +2353,10 @@
         <v>5</v>
       </c>
       <c r="B179">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="C179" s="2">
-        <v>194.3200073242188</v>
+        <v>114.2399978637695</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2364,10 +2364,10 @@
         <v>5</v>
       </c>
       <c r="B180">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="C180" s="2">
-        <v>256.9819946289062</v>
+        <v>78.71099853515625</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2375,10 +2375,10 @@
         <v>5</v>
       </c>
       <c r="B181">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C181" s="2">
-        <v>274.3179931640625</v>
+        <v>43.48899841308594</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2386,10 +2386,10 @@
         <v>5</v>
       </c>
       <c r="B182">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C182" s="2">
-        <v>270.2479858398438</v>
+        <v>10.38700008392334</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2397,10 +2397,10 @@
         <v>5</v>
       </c>
       <c r="B183">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="C183" s="2">
-        <v>232.2380065917969</v>
+        <v>0.5720000267028809</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2408,10 +2408,10 @@
         <v>5</v>
       </c>
       <c r="B184">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="C184" s="2">
-        <v>158.2779998779297</v>
+        <v>-49.48500061035156</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2419,10 +2419,10 @@
         <v>5</v>
       </c>
       <c r="B185">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="C185" s="2">
-        <v>143.4179992675781</v>
+        <v>0.3930000066757202</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2430,10 +2430,10 @@
         <v>5</v>
       </c>
       <c r="B186">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="C186" s="2">
-        <v>134.9170074462891</v>
+        <v>-11.83600044250488</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2441,10 +2441,10 @@
         <v>5</v>
       </c>
       <c r="B187">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="C187" s="2">
-        <v>125.9469985961914</v>
+        <v>4.931000232696533</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2452,10 +2452,10 @@
         <v>5</v>
       </c>
       <c r="B188">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="C188" s="2">
-        <v>39.36800003051758</v>
+        <v>70.37599945068359</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2463,10 +2463,10 @@
         <v>5</v>
       </c>
       <c r="B189">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="C189" s="2">
-        <v>58.75199890136719</v>
+        <v>43.14799880981445</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2474,10 +2474,10 @@
         <v>5</v>
       </c>
       <c r="B190">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C190" s="2">
-        <v>2.072000026702881</v>
+        <v>45.23500061035156</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2485,10 +2485,10 @@
         <v>5</v>
       </c>
       <c r="B191">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C191" s="2">
-        <v>83.66300201416016</v>
+        <v>84.04299926757812</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2496,10 +2496,10 @@
         <v>5</v>
       </c>
       <c r="B192">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="C192" s="2">
-        <v>72.96499633789062</v>
+        <v>86.36199951171875</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2507,10 +2507,10 @@
         <v>5</v>
       </c>
       <c r="B193">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="C193" s="2">
-        <v>81.56900024414062</v>
+        <v>46.31700134277344</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2518,10 +2518,10 @@
         <v>5</v>
       </c>
       <c r="B194">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="C194" s="2">
-        <v>35.2760009765625</v>
+        <v>36.35800170898438</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2529,10 +2529,10 @@
         <v>5</v>
       </c>
       <c r="B195">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="C195" s="2">
-        <v>110.5199966430664</v>
+        <v>54.84700012207031</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2540,10 +2540,10 @@
         <v>5</v>
       </c>
       <c r="B196">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="C196" s="2">
-        <v>100.7770004272461</v>
+        <v>17.10799980163574</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2551,10 +2551,10 @@
         <v>5</v>
       </c>
       <c r="B197">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="C197" s="2">
-        <v>77.50599670410156</v>
+        <v>4.328000068664551</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2562,10 +2562,10 @@
         <v>5</v>
       </c>
       <c r="B198">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="C198" s="2">
-        <v>106.0859985351562</v>
+        <v>94.63300323486328</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2573,10 +2573,10 @@
         <v>5</v>
       </c>
       <c r="B199">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="C199" s="2">
-        <v>154.9709930419922</v>
+        <v>116.8310012817383</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2584,10 +2584,10 @@
         <v>5</v>
       </c>
       <c r="B200">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="C200" s="2">
-        <v>194.7010040283203</v>
+        <v>236.0010070800781</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2595,10 +2595,10 @@
         <v>5</v>
       </c>
       <c r="B201">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C201" s="2">
-        <v>195.1219940185547</v>
+        <v>114.9619979858398</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2606,10 +2606,10 @@
         <v>5</v>
       </c>
       <c r="B202">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="C202" s="2">
-        <v>206.3760070800781</v>
+        <v>62.68199920654297</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2617,10 +2617,10 @@
         <v>5</v>
       </c>
       <c r="B203">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C203" s="2">
-        <v>216.2879943847656</v>
+        <v>-5.026999950408936</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2628,10 +2628,10 @@
         <v>5</v>
       </c>
       <c r="B204">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C204" s="2">
-        <v>215.7330017089844</v>
+        <v>32.04999923706055</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2639,10 +2639,10 @@
         <v>5</v>
       </c>
       <c r="B205">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C205" s="2">
-        <v>224.5950012207031</v>
+        <v>69.2030029296875</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2650,10 +2650,10 @@
         <v>5</v>
       </c>
       <c r="B206">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C206" s="2">
-        <v>214.6159973144531</v>
+        <v>46.67599868774414</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2661,10 +2661,10 @@
         <v>5</v>
       </c>
       <c r="B207">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="C207" s="2">
-        <v>238.2350006103516</v>
+        <v>62.56999969482422</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2672,10 +2672,10 @@
         <v>5</v>
       </c>
       <c r="B208">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="C208" s="2">
-        <v>222.1029968261719</v>
+        <v>97.37699890136719</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2683,10 +2683,10 @@
         <v>5</v>
       </c>
       <c r="B209">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C209" s="2">
-        <v>259.6940002441406</v>
+        <v>149.875</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2694,10 +2694,10 @@
         <v>5</v>
       </c>
       <c r="B210">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="C210" s="2">
-        <v>269.8760070800781</v>
+        <v>187.9640045166016</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2705,10 +2705,10 @@
         <v>5</v>
       </c>
       <c r="B211">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="C211" s="2">
-        <v>242.64599609375</v>
+        <v>194.9190063476562</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2716,10 +2716,10 @@
         <v>5</v>
       </c>
       <c r="B212">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="C212" s="2">
-        <v>240.0079956054688</v>
+        <v>187.3580017089844</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2727,10 +2727,10 @@
         <v>5</v>
       </c>
       <c r="B213">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="C213" s="2">
-        <v>212.7440032958984</v>
+        <v>261.4440002441406</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2738,10 +2738,10 @@
         <v>5</v>
       </c>
       <c r="B214">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="C214" s="2">
-        <v>213.2489929199219</v>
+        <v>397.93701171875</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2749,10 +2749,10 @@
         <v>5</v>
       </c>
       <c r="B215">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="C215" s="2">
-        <v>195.1100006103516</v>
+        <v>497.0740051269531</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2760,10 +2760,10 @@
         <v>5</v>
       </c>
       <c r="B216">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="C216" s="2">
-        <v>190.7149963378906</v>
+        <v>688.2310180664062</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2771,10 +2771,10 @@
         <v>5</v>
       </c>
       <c r="B217">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="C217" s="2">
-        <v>176.8079986572266</v>
+        <v>939.1259765625</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2782,318 +2782,318 @@
         <v>5</v>
       </c>
       <c r="B218">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="C218" s="2">
-        <v>223.8880004882812</v>
+        <v>1123.1669921875</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B219">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="C219" s="2">
-        <v>242.9499969482422</v>
+        <v>1207.449951171875</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B220">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="C220" s="2">
-        <v>305.4880065917969</v>
+        <v>911.885986328125</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B221">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="C221" s="2">
-        <v>278.239013671875</v>
+        <v>783.6690063476562</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B222">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="C222" s="2">
-        <v>250.8260040283203</v>
+        <v>813.0770263671875</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B223">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="C223" s="2">
-        <v>337.9070129394531</v>
+        <v>688.2329711914062</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B224">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="C224" s="2">
-        <v>362.5920104980469</v>
+        <v>664.0050048828125</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B225">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="C225" s="2">
-        <v>341.9089965820312</v>
+        <v>644.989990234375</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B226">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="C226" s="2">
-        <v>361.2650146484375</v>
+        <v>696.7680053710938</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B227">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="C227" s="2">
-        <v>409.1659851074219</v>
+        <v>690.405029296875</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B228">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="C228" s="2">
-        <v>446.9389953613281</v>
+        <v>714.4630126953125</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B229">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="C229" s="2">
-        <v>292.1470031738281</v>
+        <v>653.4140014648438</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B230">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="C230" s="2">
-        <v>211.4080047607422</v>
+        <v>710.6380004882812</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B231">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="C231" s="2">
-        <v>158.5899963378906</v>
+        <v>716.885986328125</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B232">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="C232" s="2">
-        <v>177.5399932861328</v>
+        <v>534.89599609375</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B233">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="C233" s="2">
-        <v>183.6080017089844</v>
+        <v>566.2979736328125</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B234">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="C234" s="2">
-        <v>151.0319976806641</v>
+        <v>528.3660278320312</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B235">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="C235" s="2">
-        <v>219.8090057373047</v>
+        <v>475.3280029296875</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B236">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="C236" s="2">
-        <v>205.5540008544922</v>
+        <v>411.510009765625</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B237">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="C237" s="2">
-        <v>194.8139953613281</v>
+        <v>376.0220031738281</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B238">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="C238" s="2">
-        <v>182.5039978027344</v>
+        <v>333.9609985351562</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B239">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="C239" s="2">
-        <v>116.75</v>
+        <v>283.6300048828125</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B240">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="C240" s="2">
-        <v>99.57099914550781</v>
+        <v>278.6080017089844</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B241">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="C241" s="2">
-        <v>105.7990036010742</v>
+        <v>223.1130065917969</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B242">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="C242" s="2">
-        <v>109.734001159668</v>
+        <v>73.69200134277344</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B243">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="C243" s="2">
-        <v>84.90499877929688</v>
+        <v>80.35800170898438</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B244">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="C244" s="2">
-        <v>69.57499694824219</v>
+        <v>121.2929992675781</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B245">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="C245" s="2">
-        <v>32.3849983215332</v>
+        <v>141.9389953613281</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B246">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="C246" s="2">
-        <v>39.49800109863281</v>
+        <v>209.3500061035156</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3101,10 +3101,10 @@
         <v>6</v>
       </c>
       <c r="B247">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C247" s="2">
-        <v>12.91699981689453</v>
+        <v>257.1640014648438</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3112,10 +3112,10 @@
         <v>6</v>
       </c>
       <c r="B248">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C248" s="2">
-        <v>80.43099975585938</v>
+        <v>234.875</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3123,10 +3123,10 @@
         <v>6</v>
       </c>
       <c r="B249">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="C249" s="2">
-        <v>47.45399856567383</v>
+        <v>279.5140075683594</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3134,10 +3134,10 @@
         <v>6</v>
       </c>
       <c r="B250">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C250" s="2">
-        <v>29.26899909973145</v>
+        <v>251.8710021972656</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3145,10 +3145,10 @@
         <v>6</v>
       </c>
       <c r="B251">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C251" s="2">
-        <v>35.59400177001953</v>
+        <v>225.3359985351562</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3156,10 +3156,10 @@
         <v>6</v>
       </c>
       <c r="B252">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C252" s="2">
-        <v>-26.06900024414062</v>
+        <v>263.135986328125</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3167,10 +3167,10 @@
         <v>6</v>
       </c>
       <c r="B253">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C253" s="2">
-        <v>-39.24800109863281</v>
+        <v>176.5659942626953</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3178,10 +3178,10 @@
         <v>6</v>
       </c>
       <c r="B254">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C254" s="2">
-        <v>-45.77999877929688</v>
+        <v>188.4559936523438</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3189,10 +3189,10 @@
         <v>6</v>
       </c>
       <c r="B255">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C255" s="2">
-        <v>-27.17200088500977</v>
+        <v>151.2120056152344</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3200,10 +3200,10 @@
         <v>6</v>
       </c>
       <c r="B256">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C256" s="2">
-        <v>17.88199996948242</v>
+        <v>163.2619934082031</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3211,10 +3211,10 @@
         <v>6</v>
       </c>
       <c r="B257">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C257" s="2">
-        <v>29.75</v>
+        <v>173.4880065917969</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3222,10 +3222,10 @@
         <v>6</v>
       </c>
       <c r="B258">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C258" s="2">
-        <v>25.79999923706055</v>
+        <v>123.0879974365234</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3233,10 +3233,10 @@
         <v>6</v>
       </c>
       <c r="B259">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C259" s="2">
-        <v>14.09799957275391</v>
+        <v>109.5579986572266</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3244,10 +3244,10 @@
         <v>6</v>
       </c>
       <c r="B260">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C260" s="2">
-        <v>51.01800155639648</v>
+        <v>146.9969940185547</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3255,10 +3255,10 @@
         <v>6</v>
       </c>
       <c r="B261">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C261" s="2">
-        <v>42.73500061035156</v>
+        <v>131.4889984130859</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3266,10 +3266,10 @@
         <v>6</v>
       </c>
       <c r="B262">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C262" s="2">
-        <v>33.9630012512207</v>
+        <v>129.3430023193359</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3277,10 +3277,10 @@
         <v>6</v>
       </c>
       <c r="B263">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C263" s="2">
-        <v>28.85700035095215</v>
+        <v>174.8370056152344</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3288,10 +3288,10 @@
         <v>6</v>
       </c>
       <c r="B264">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="C264" s="2">
-        <v>11.60099983215332</v>
+        <v>219.0859985351562</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3299,10 +3299,10 @@
         <v>6</v>
       </c>
       <c r="B265">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C265" s="2">
-        <v>-14.85700035095215</v>
+        <v>265.1650085449219</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3310,10 +3310,10 @@
         <v>6</v>
       </c>
       <c r="B266">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C266" s="2">
-        <v>3.069999933242798</v>
+        <v>277.0379943847656</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3321,10 +3321,10 @@
         <v>6</v>
       </c>
       <c r="B267">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C267" s="2">
-        <v>16.81100082397461</v>
+        <v>249.3569946289062</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3332,10 +3332,10 @@
         <v>6</v>
       </c>
       <c r="B268">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C268" s="2">
-        <v>32.17699813842773</v>
+        <v>251.875</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3343,10 +3343,10 @@
         <v>6</v>
       </c>
       <c r="B269">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="C269" s="2">
-        <v>81.92299652099609</v>
+        <v>240.1920013427734</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3354,10 +3354,10 @@
         <v>6</v>
       </c>
       <c r="B270">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="C270" s="2">
-        <v>142.4889984130859</v>
+        <v>233.9409942626953</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3365,10 +3365,10 @@
         <v>6</v>
       </c>
       <c r="B271">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="C271" s="2">
-        <v>98.77999877929688</v>
+        <v>185.9720001220703</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3376,10 +3376,10 @@
         <v>6</v>
       </c>
       <c r="B272">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="C272" s="2">
-        <v>57.7239990234375</v>
+        <v>191.3350067138672</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3387,10 +3387,10 @@
         <v>6</v>
       </c>
       <c r="B273">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="C273" s="2">
-        <v>77.89600372314453</v>
+        <v>228.9730072021484</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3398,10 +3398,10 @@
         <v>6</v>
       </c>
       <c r="B274">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="C274" s="2">
-        <v>104.4670028686523</v>
+        <v>317.1780090332031</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3409,10 +3409,10 @@
         <v>6</v>
       </c>
       <c r="B275">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="C275" s="2">
-        <v>121.9629974365234</v>
+        <v>326.1239929199219</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3420,10 +3420,10 @@
         <v>6</v>
       </c>
       <c r="B276">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="C276" s="2">
-        <v>186.2879943847656</v>
+        <v>318.4030151367188</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3431,10 +3431,10 @@
         <v>6</v>
       </c>
       <c r="B277">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C277" s="2">
-        <v>209.1880035400391</v>
+        <v>516.4320068359375</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3442,10 +3442,10 @@
         <v>6</v>
       </c>
       <c r="B278">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C278" s="2">
-        <v>200.47900390625</v>
+        <v>705.0689697265625</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3453,10 +3453,10 @@
         <v>6</v>
       </c>
       <c r="B279">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="C279" s="2">
-        <v>211.9179992675781</v>
+        <v>1054.64599609375</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3464,10 +3464,10 @@
         <v>6</v>
       </c>
       <c r="B280">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="C280" s="2">
-        <v>201.552001953125</v>
+        <v>950.989990234375</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3475,10 +3475,10 @@
         <v>6</v>
       </c>
       <c r="B281">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="C281" s="2">
-        <v>307.3380126953125</v>
+        <v>1080.319946289062</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3486,10 +3486,10 @@
         <v>6</v>
       </c>
       <c r="B282">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="C282" s="2">
-        <v>400.6340026855469</v>
+        <v>991.8800048828125</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3497,10 +3497,10 @@
         <v>6</v>
       </c>
       <c r="B283">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="C283" s="2">
-        <v>436.2999877929688</v>
+        <v>1036.281005859375</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3508,10 +3508,10 @@
         <v>6</v>
       </c>
       <c r="B284">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="C284" s="2">
-        <v>857.43798828125</v>
+        <v>881.1929931640625</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3519,10 +3519,10 @@
         <v>6</v>
       </c>
       <c r="B285">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="C285" s="2">
-        <v>1107.2509765625</v>
+        <v>839.281982421875</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3530,10 +3530,10 @@
         <v>6</v>
       </c>
       <c r="B286">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C286" s="2">
-        <v>1259.43603515625</v>
+        <v>1026.546997070312</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3541,10 +3541,10 @@
         <v>6</v>
       </c>
       <c r="B287">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C287" s="2">
-        <v>1227.141967773438</v>
+        <v>1190.384033203125</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3552,10 +3552,10 @@
         <v>6</v>
       </c>
       <c r="B288">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="C288" s="2">
-        <v>860.510986328125</v>
+        <v>1267.838989257812</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3563,10 +3563,10 @@
         <v>6</v>
       </c>
       <c r="B289">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="C289" s="2">
-        <v>677.8090209960938</v>
+        <v>1307.779052734375</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3574,10 +3574,10 @@
         <v>6</v>
       </c>
       <c r="B290">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="C290" s="2">
-        <v>739.594970703125</v>
+        <v>1204.134033203125</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3585,10 +3585,10 @@
         <v>6</v>
       </c>
       <c r="B291">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="C291" s="2">
-        <v>824.1279907226562</v>
+        <v>1244.159057617188</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3596,10 +3596,10 @@
         <v>6</v>
       </c>
       <c r="B292">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="C292" s="2">
-        <v>858.1309814453125</v>
+        <v>1123.943969726562</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3607,10 +3607,10 @@
         <v>6</v>
       </c>
       <c r="B293">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="C293" s="2">
-        <v>804.2789916992188</v>
+        <v>1240.5830078125</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3618,10 +3618,10 @@
         <v>6</v>
       </c>
       <c r="B294">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="C294" s="2">
-        <v>784.2440185546875</v>
+        <v>1435.800048828125</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3629,10 +3629,10 @@
         <v>6</v>
       </c>
       <c r="B295">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="C295" s="2">
-        <v>781.2570190429688</v>
+        <v>1429.326049804688</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3640,10 +3640,10 @@
         <v>6</v>
       </c>
       <c r="B296">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="C296" s="2">
-        <v>735.2000122070312</v>
+        <v>1566.677001953125</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3651,10 +3651,10 @@
         <v>6</v>
       </c>
       <c r="B297">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C297" s="2">
-        <v>768.10400390625</v>
+        <v>1731.546997070312</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3662,10 +3662,10 @@
         <v>6</v>
       </c>
       <c r="B298">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="C298" s="2">
-        <v>810.219970703125</v>
+        <v>1759.328002929688</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3673,10 +3673,10 @@
         <v>6</v>
       </c>
       <c r="B299">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C299" s="2">
-        <v>774.3909912109375</v>
+        <v>1819.254028320312</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3684,10 +3684,10 @@
         <v>6</v>
       </c>
       <c r="B300">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C300" s="2">
-        <v>661.7529907226562</v>
+        <v>1855.27099609375</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3695,10 +3695,10 @@
         <v>6</v>
       </c>
       <c r="B301">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C301" s="2">
-        <v>693.7579956054688</v>
+        <v>1983.18896484375</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3706,10 +3706,10 @@
         <v>6</v>
       </c>
       <c r="B302">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C302" s="2">
-        <v>647.1619873046875</v>
+        <v>1992.241943359375</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3717,10 +3717,10 @@
         <v>6</v>
       </c>
       <c r="B303">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="C303" s="2">
-        <v>555.176025390625</v>
+        <v>2090.43798828125</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3728,10 +3728,10 @@
         <v>6</v>
       </c>
       <c r="B304">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="C304" s="2">
-        <v>562.2739868164062</v>
+        <v>2098.9580078125</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3739,10 +3739,10 @@
         <v>6</v>
       </c>
       <c r="B305">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C305" s="2">
-        <v>526.3590087890625</v>
+        <v>2139.2939453125</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3750,10 +3750,10 @@
         <v>6</v>
       </c>
       <c r="B306">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="C306" s="2">
-        <v>517.9409790039062</v>
+        <v>2152.2900390625</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3761,10 +3761,10 @@
         <v>6</v>
       </c>
       <c r="B307">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="C307" s="2">
-        <v>403.8919982910156</v>
+        <v>2180.452880859375</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3772,10 +3772,10 @@
         <v>6</v>
       </c>
       <c r="B308">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="C308" s="2">
-        <v>367.7269897460938</v>
+        <v>2093.989013671875</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3783,10 +3783,10 @@
         <v>6</v>
       </c>
       <c r="B309">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="C309" s="2">
-        <v>370.5369873046875</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3794,10 +3794,10 @@
         <v>6</v>
       </c>
       <c r="B310">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="C310" s="2">
-        <v>360.0419921875</v>
+        <v>1868.001953125</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3805,10 +3805,10 @@
         <v>6</v>
       </c>
       <c r="B311">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="C311" s="2">
-        <v>409.9150085449219</v>
+        <v>1925.880981445312</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3816,10 +3816,10 @@
         <v>6</v>
       </c>
       <c r="B312">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="C312" s="2">
-        <v>429.8909912109375</v>
+        <v>1821.9189453125</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3827,10 +3827,10 @@
         <v>6</v>
       </c>
       <c r="B313">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="C313" s="2">
-        <v>388.8080139160156</v>
+        <v>1800.68896484375</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3838,318 +3838,318 @@
         <v>6</v>
       </c>
       <c r="B314">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="C314" s="2">
-        <v>454.3280029296875</v>
+        <v>2203.43994140625</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B315">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="C315" s="2">
-        <v>665.9769897460938</v>
+        <v>2265.241943359375</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B316">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="C316" s="2">
-        <v>652.85400390625</v>
+        <v>2100.72900390625</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B317">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="C317" s="2">
-        <v>473.5509948730469</v>
+        <v>1903.0009765625</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B318">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="C318" s="2">
-        <v>458.4159851074219</v>
+        <v>1825.800048828125</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B319">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="C319" s="2">
-        <v>431.0809936523438</v>
+        <v>1824.5400390625</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B320">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="C320" s="2">
-        <v>403.7340087890625</v>
+        <v>1762.965942382812</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B321">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="C321" s="2">
-        <v>344.510009765625</v>
+        <v>1788.5810546875</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B322">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="C322" s="2">
-        <v>203.4029998779297</v>
+        <v>1737.156005859375</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B323">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="C323" s="2">
-        <v>216.3059997558594</v>
+        <v>1734.9990234375</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B324">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="C324" s="2">
-        <v>308.9360046386719</v>
+        <v>1614.008056640625</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B325">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="C325" s="2">
-        <v>235.8939971923828</v>
+        <v>1654.110961914062</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B326">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="C326" s="2">
-        <v>180.6430053710938</v>
+        <v>1483.260986328125</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B327">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="C327" s="2">
-        <v>125.8259963989258</v>
+        <v>1444.753051757812</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B328">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="C328" s="2">
-        <v>128.1609954833984</v>
+        <v>1356.953002929688</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B329">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="C329" s="2">
-        <v>113.9860000610352</v>
+        <v>1354.990966796875</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B330">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="C330" s="2">
-        <v>109.495002746582</v>
+        <v>1320.1689453125</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B331">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="C331" s="2">
-        <v>150.6510009765625</v>
+        <v>1337.077026367188</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B332">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="C332" s="2">
-        <v>138.8710021972656</v>
+        <v>1365.193969726562</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B333">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="C333" s="2">
-        <v>108.7030029296875</v>
+        <v>1428.536010742188</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B334">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="C334" s="2">
-        <v>119.3529968261719</v>
+        <v>1479.517944335938</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B335">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="C335" s="2">
-        <v>135.6790008544922</v>
+        <v>1493.864990234375</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B336">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="C336" s="2">
-        <v>126.6849975585938</v>
+        <v>1549.235961914062</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B337">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="C337" s="2">
-        <v>144.2559967041016</v>
+        <v>1601.083984375</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B338">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="C338" s="2">
-        <v>149.0079956054688</v>
+        <v>1585.97705078125</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B339">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="C339" s="2">
-        <v>46.17599868774414</v>
+        <v>1594.2900390625</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B340">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="C340" s="2">
-        <v>37.15800094604492</v>
+        <v>1592.4169921875</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B341">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="C341" s="2">
-        <v>50.48699951171875</v>
+        <v>1467.982055664062</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B342">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="C342" s="2">
-        <v>123.9410018920898</v>
+        <v>1375.907958984375</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4157,10 +4157,10 @@
         <v>7</v>
       </c>
       <c r="B343">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C343" s="2">
-        <v>90.68499755859375</v>
+        <v>1445.14697265625</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4168,10 +4168,10 @@
         <v>7</v>
       </c>
       <c r="B344">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C344" s="2">
-        <v>179.6640014648438</v>
+        <v>1410.27001953125</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4179,10 +4179,10 @@
         <v>7</v>
       </c>
       <c r="B345">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="C345" s="2">
-        <v>213.8489990234375</v>
+        <v>1448.744995117188</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4190,10 +4190,10 @@
         <v>7</v>
       </c>
       <c r="B346">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C346" s="2">
-        <v>219.3059997558594</v>
+        <v>1494.608032226562</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -4201,10 +4201,10 @@
         <v>7</v>
       </c>
       <c r="B347">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C347" s="2">
-        <v>248.8000030517578</v>
+        <v>1544.114990234375</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4212,10 +4212,10 @@
         <v>7</v>
       </c>
       <c r="B348">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C348" s="2">
-        <v>431.1119995117188</v>
+        <v>1548.72802734375</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -4223,10 +4223,10 @@
         <v>7</v>
       </c>
       <c r="B349">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C349" s="2">
-        <v>509.6709899902344</v>
+        <v>1550.086059570312</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4234,10 +4234,10 @@
         <v>7</v>
       </c>
       <c r="B350">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C350" s="2">
-        <v>671.5239868164062</v>
+        <v>1592.933959960938</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -4245,10 +4245,10 @@
         <v>7</v>
       </c>
       <c r="B351">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C351" s="2">
-        <v>873.39697265625</v>
+        <v>1574.373046875</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4256,10 +4256,10 @@
         <v>7</v>
       </c>
       <c r="B352">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C352" s="2">
-        <v>1015.171997070312</v>
+        <v>1509.340942382812</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4267,10 +4267,10 @@
         <v>7</v>
       </c>
       <c r="B353">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C353" s="2">
-        <v>1097.614013671875</v>
+        <v>1524.547973632812</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4278,10 +4278,10 @@
         <v>7</v>
       </c>
       <c r="B354">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C354" s="2">
-        <v>963.9210205078125</v>
+        <v>1643.333984375</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4289,10 +4289,10 @@
         <v>7</v>
       </c>
       <c r="B355">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C355" s="2">
-        <v>904.177001953125</v>
+        <v>1632.949951171875</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4300,10 +4300,10 @@
         <v>7</v>
       </c>
       <c r="B356">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C356" s="2">
-        <v>977.926025390625</v>
+        <v>1586.901000976562</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -4311,10 +4311,10 @@
         <v>7</v>
       </c>
       <c r="B357">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C357" s="2">
-        <v>980.510986328125</v>
+        <v>1581.735961914062</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -4322,10 +4322,10 @@
         <v>7</v>
       </c>
       <c r="B358">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C358" s="2">
-        <v>936.0819702148438</v>
+        <v>1561.178955078125</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4333,10 +4333,10 @@
         <v>7</v>
       </c>
       <c r="B359">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C359" s="2">
-        <v>985.10302734375</v>
+        <v>1630.621948242188</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4344,10 +4344,10 @@
         <v>7</v>
       </c>
       <c r="B360">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="C360" s="2">
-        <v>894.5460205078125</v>
+        <v>1602.31298828125</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4355,10 +4355,10 @@
         <v>7</v>
       </c>
       <c r="B361">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C361" s="2">
-        <v>1098.182983398438</v>
+        <v>1584.0400390625</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4366,10 +4366,10 @@
         <v>7</v>
       </c>
       <c r="B362">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C362" s="2">
-        <v>1050.281982421875</v>
+        <v>1537.232055664062</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4377,10 +4377,10 @@
         <v>7</v>
       </c>
       <c r="B363">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C363" s="2">
-        <v>1168.76904296875</v>
+        <v>1518.170043945312</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4388,10 +4388,10 @@
         <v>7</v>
       </c>
       <c r="B364">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C364" s="2">
-        <v>1151.4990234375</v>
+        <v>1632.517944335938</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4399,10 +4399,10 @@
         <v>7</v>
       </c>
       <c r="B365">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="C365" s="2">
-        <v>1193.965942382812</v>
+        <v>1683.545043945312</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4410,10 +4410,10 @@
         <v>7</v>
       </c>
       <c r="B366">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="C366" s="2">
-        <v>1246.453002929688</v>
+        <v>1670.614990234375</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -4421,10 +4421,10 @@
         <v>7</v>
       </c>
       <c r="B367">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="C367" s="2">
-        <v>1280.534057617188</v>
+        <v>1799.70703125</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -4432,10 +4432,10 @@
         <v>7</v>
       </c>
       <c r="B368">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="C368" s="2">
-        <v>1353.095947265625</v>
+        <v>1846.697998046875</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4443,10 +4443,10 @@
         <v>7</v>
       </c>
       <c r="B369">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="C369" s="2">
-        <v>1363.14501953125</v>
+        <v>2037.109985351562</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -4454,10 +4454,10 @@
         <v>7</v>
       </c>
       <c r="B370">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="C370" s="2">
-        <v>1359.142944335938</v>
+        <v>2293.18505859375</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -4465,10 +4465,10 @@
         <v>7</v>
       </c>
       <c r="B371">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="C371" s="2">
-        <v>1364.120971679688</v>
+        <v>2259.762939453125</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -4476,10 +4476,10 @@
         <v>7</v>
       </c>
       <c r="B372">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="C372" s="2">
-        <v>1343.619995117188</v>
+        <v>2205.952880859375</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -4487,10 +4487,10 @@
         <v>7</v>
       </c>
       <c r="B373">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C373" s="2">
-        <v>1360.56005859375</v>
+        <v>2120.30908203125</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4498,10 +4498,10 @@
         <v>7</v>
       </c>
       <c r="B374">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C374" s="2">
-        <v>1316.47998046875</v>
+        <v>2228.50390625</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4509,10 +4509,10 @@
         <v>7</v>
       </c>
       <c r="B375">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="C375" s="2">
-        <v>1277.637939453125</v>
+        <v>2487.662109375</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4520,10 +4520,10 @@
         <v>7</v>
       </c>
       <c r="B376">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="C376" s="2">
-        <v>1415.433959960938</v>
+        <v>2400.054931640625</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -4531,10 +4531,10 @@
         <v>7</v>
       </c>
       <c r="B377">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="C377" s="2">
-        <v>1517.43994140625</v>
+        <v>2379.448974609375</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -4542,10 +4542,10 @@
         <v>7</v>
       </c>
       <c r="B378">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="C378" s="2">
-        <v>1708.525024414062</v>
+        <v>2400.43408203125</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -4553,10 +4553,10 @@
         <v>7</v>
       </c>
       <c r="B379">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="C379" s="2">
-        <v>1769.8740234375</v>
+        <v>2353.238037109375</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -4564,10 +4564,10 @@
         <v>7</v>
       </c>
       <c r="B380">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="C380" s="2">
-        <v>1732.607055664062</v>
+        <v>2450.986083984375</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4575,10 +4575,10 @@
         <v>7</v>
       </c>
       <c r="B381">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="C381" s="2">
-        <v>1791.56201171875</v>
+        <v>2417.139892578125</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4586,10 +4586,10 @@
         <v>7</v>
       </c>
       <c r="B382">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C382" s="2">
-        <v>1856.285034179688</v>
+        <v>2436.199951171875</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4597,10 +4597,10 @@
         <v>7</v>
       </c>
       <c r="B383">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C383" s="2">
-        <v>1956.114013671875</v>
+        <v>2411.68896484375</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4608,10 +4608,10 @@
         <v>7</v>
       </c>
       <c r="B384">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="C384" s="2">
-        <v>1773.171997070312</v>
+        <v>2440.64892578125</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -4619,10 +4619,10 @@
         <v>7</v>
       </c>
       <c r="B385">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="C385" s="2">
-        <v>1724.697021484375</v>
+        <v>2429.06201171875</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -4630,10 +4630,10 @@
         <v>7</v>
       </c>
       <c r="B386">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="C386" s="2">
-        <v>1792.97900390625</v>
+        <v>2451.080078125</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -4641,10 +4641,10 @@
         <v>7</v>
       </c>
       <c r="B387">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="C387" s="2">
-        <v>1808.916015625</v>
+        <v>2453.654052734375</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -4652,10 +4652,10 @@
         <v>7</v>
       </c>
       <c r="B388">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="C388" s="2">
-        <v>1709.711059570312</v>
+        <v>2500.200927734375</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4663,10 +4663,10 @@
         <v>7</v>
       </c>
       <c r="B389">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="C389" s="2">
-        <v>1485.909057617188</v>
+        <v>2509.2490234375</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -4674,10 +4674,10 @@
         <v>7</v>
       </c>
       <c r="B390">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="C390" s="2">
-        <v>1403.369018554688</v>
+        <v>2519.327880859375</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -4685,10 +4685,10 @@
         <v>7</v>
       </c>
       <c r="B391">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="C391" s="2">
-        <v>1342.784057617188</v>
+        <v>2490.47509765625</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4696,10 +4696,10 @@
         <v>7</v>
       </c>
       <c r="B392">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="C392" s="2">
-        <v>1278.907958984375</v>
+        <v>2522.2490234375</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -4707,10 +4707,10 @@
         <v>7</v>
       </c>
       <c r="B393">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C393" s="2">
-        <v>1066.56396484375</v>
+        <v>2538.501953125</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -4718,10 +4718,10 @@
         <v>7</v>
       </c>
       <c r="B394">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="C394" s="2">
-        <v>1026.2900390625</v>
+        <v>2572.510009765625</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -4729,10 +4729,10 @@
         <v>7</v>
       </c>
       <c r="B395">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C395" s="2">
-        <v>1001.788024902344</v>
+        <v>2556.860107421875</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -4740,10 +4740,10 @@
         <v>7</v>
       </c>
       <c r="B396">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C396" s="2">
-        <v>996.1220092773438</v>
+        <v>2577.18408203125</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -4751,10 +4751,10 @@
         <v>7</v>
       </c>
       <c r="B397">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C397" s="2">
-        <v>986.6079711914062</v>
+        <v>2567.56201171875</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -4762,10 +4762,10 @@
         <v>7</v>
       </c>
       <c r="B398">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C398" s="2">
-        <v>1061.006958007812</v>
+        <v>2564.1708984375</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -4773,10 +4773,10 @@
         <v>7</v>
       </c>
       <c r="B399">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="C399" s="2">
-        <v>1042.06005859375</v>
+        <v>2570.993896484375</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -4784,10 +4784,10 @@
         <v>7</v>
       </c>
       <c r="B400">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="C400" s="2">
-        <v>1016.627990722656</v>
+        <v>2581.26708984375</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -4795,10 +4795,10 @@
         <v>7</v>
       </c>
       <c r="B401">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C401" s="2">
-        <v>1337.433959960938</v>
+        <v>2526.947998046875</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -4806,10 +4806,10 @@
         <v>7</v>
       </c>
       <c r="B402">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="C402" s="2">
-        <v>1391.998046875</v>
+        <v>2560.178955078125</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -4817,10 +4817,10 @@
         <v>7</v>
       </c>
       <c r="B403">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="C403" s="2">
-        <v>1361.467041015625</v>
+        <v>2572.35791015625</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -4828,10 +4828,10 @@
         <v>7</v>
       </c>
       <c r="B404">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="C404" s="2">
-        <v>1361.704956054688</v>
+        <v>2588.22900390625</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -4839,10 +4839,10 @@
         <v>7</v>
       </c>
       <c r="B405">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="C405" s="2">
-        <v>1343.308959960938</v>
+        <v>2556.632080078125</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -4850,10 +4850,10 @@
         <v>7</v>
       </c>
       <c r="B406">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="C406" s="2">
-        <v>1376.60400390625</v>
+        <v>2541.030029296875</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -4861,10 +4861,10 @@
         <v>7</v>
       </c>
       <c r="B407">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="C407" s="2">
-        <v>1404.14794921875</v>
+        <v>2595.051025390625</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -4872,10 +4872,10 @@
         <v>7</v>
       </c>
       <c r="B408">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="C408" s="2">
-        <v>1234.848022460938</v>
+        <v>2578.699951171875</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -4883,10 +4883,10 @@
         <v>7</v>
       </c>
       <c r="B409">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="C409" s="2">
-        <v>1222.4189453125</v>
+        <v>2574.81005859375</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -4894,318 +4894,318 @@
         <v>7</v>
       </c>
       <c r="B410">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="C410" s="2">
-        <v>1162.781982421875</v>
+        <v>2464.298095703125</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B411">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="C411" s="2">
-        <v>999.77197265625</v>
+        <v>2353.364990234375</v>
       </c>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B412">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="C412" s="2">
-        <v>1079.262939453125</v>
+        <v>2215.278076171875</v>
       </c>
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B413">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="C413" s="2">
-        <v>1095.873046875</v>
+        <v>2161.113037109375</v>
       </c>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B414">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="C414" s="2">
-        <v>1196.7939453125</v>
+        <v>2175.322021484375</v>
       </c>
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B415">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="C415" s="2">
-        <v>1311.366943359375</v>
+        <v>2147.929931640625</v>
       </c>
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B416">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="C416" s="2">
-        <v>1188.452026367188</v>
+        <v>2157.77490234375</v>
       </c>
     </row>
     <row r="417" spans="1:3">
       <c r="A417" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B417">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="C417" s="2">
-        <v>1371.163940429688</v>
+        <v>2204.597900390625</v>
       </c>
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B418">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="C418" s="2">
-        <v>1429.680053710938</v>
+        <v>2218.429931640625</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B419">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="C419" s="2">
-        <v>1553.327026367188</v>
+        <v>2273.5849609375</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B420">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="C420" s="2">
-        <v>1561.7060546875</v>
+        <v>2278.0380859375</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B421">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="C421" s="2">
-        <v>1492.942016601562</v>
+        <v>2261.1220703125</v>
       </c>
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B422">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="C422" s="2">
-        <v>1479.360961914062</v>
+        <v>2259.19091796875</v>
       </c>
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B423">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="C423" s="2">
-        <v>1336.631958007812</v>
+        <v>2263.06591796875</v>
       </c>
     </row>
     <row r="424" spans="1:3">
       <c r="A424" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B424">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="C424" s="2">
-        <v>1395.628051757812</v>
+        <v>2266.285888671875</v>
       </c>
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B425">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="C425" s="2">
-        <v>1386.7939453125</v>
+        <v>2227.06689453125</v>
       </c>
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B426">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="C426" s="2">
-        <v>1304.012939453125</v>
+        <v>2005.27294921875</v>
       </c>
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B427">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="C427" s="2">
-        <v>1332.806030273438</v>
+        <v>2020.468017578125</v>
       </c>
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B428">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="C428" s="2">
-        <v>1345.0439453125</v>
+        <v>2031.237060546875</v>
       </c>
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B429">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="C429" s="2">
-        <v>1297.22802734375</v>
+        <v>2011.83203125</v>
       </c>
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B430">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="C430" s="2">
-        <v>1274.055053710938</v>
+        <v>2053.947998046875</v>
       </c>
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B431">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="C431" s="2">
-        <v>1249.301025390625</v>
+        <v>2026.4990234375</v>
       </c>
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B432">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="C432" s="2">
-        <v>1247.197998046875</v>
+        <v>2035.295043945312</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B433">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="C433" s="2">
-        <v>1130.18994140625</v>
+        <v>1997.475952148438</v>
       </c>
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B434">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="C434" s="2">
-        <v>1135.090942382812</v>
+        <v>2033.259033203125</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B435">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="C435" s="2">
-        <v>1104.319946289062</v>
+        <v>2027.732055664062</v>
       </c>
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B436">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="C436" s="2">
-        <v>1091.85205078125</v>
+        <v>2035.201049804688</v>
       </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B437">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="C437" s="2">
-        <v>925.4539794921875</v>
+        <v>2054.10400390625</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B438">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="C438" s="2">
-        <v>953.1199951171875</v>
+        <v>2175.367919921875</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -5213,10 +5213,10 @@
         <v>8</v>
       </c>
       <c r="B439">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C439" s="2">
-        <v>908.1069946289062</v>
+        <v>2145.60009765625</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -5224,10 +5224,10 @@
         <v>8</v>
       </c>
       <c r="B440">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C440" s="2">
-        <v>853.4660034179688</v>
+        <v>2093.30908203125</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -5235,10 +5235,10 @@
         <v>8</v>
       </c>
       <c r="B441">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="C441" s="2">
-        <v>1000.442016601562</v>
+        <v>2019.93896484375</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -5246,10 +5246,10 @@
         <v>8</v>
       </c>
       <c r="B442">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C442" s="2">
-        <v>949.5260009765625</v>
+        <v>2048.76806640625</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -5257,10 +5257,10 @@
         <v>8</v>
       </c>
       <c r="B443">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C443" s="2">
-        <v>759.4210205078125</v>
+        <v>2001.774047851562</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -5268,10 +5268,10 @@
         <v>8</v>
       </c>
       <c r="B444">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C444" s="2">
-        <v>1106.720947265625</v>
+        <v>1748.223999023438</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -5279,10 +5279,10 @@
         <v>8</v>
       </c>
       <c r="B445">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C445" s="2">
-        <v>1224.363037109375</v>
+        <v>1694.303955078125</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -5290,10 +5290,10 @@
         <v>8</v>
       </c>
       <c r="B446">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C446" s="2">
-        <v>1400.036010742188</v>
+        <v>1626.108032226562</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -5301,10 +5301,10 @@
         <v>8</v>
       </c>
       <c r="B447">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C447" s="2">
-        <v>1604.267944335938</v>
+        <v>1426.906982421875</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -5312,10 +5312,10 @@
         <v>8</v>
       </c>
       <c r="B448">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C448" s="2">
-        <v>1762.052978515625</v>
+        <v>1395.711059570312</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -5323,10 +5323,10 @@
         <v>8</v>
       </c>
       <c r="B449">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C449" s="2">
-        <v>1803.5419921875</v>
+        <v>1425.822021484375</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -5334,10 +5334,10 @@
         <v>8</v>
       </c>
       <c r="B450">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C450" s="2">
-        <v>1852.613037109375</v>
+        <v>1366.537963867188</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -5345,10 +5345,10 @@
         <v>8</v>
       </c>
       <c r="B451">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C451" s="2">
-        <v>1978.260009765625</v>
+        <v>1469.944946289062</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -5356,10 +5356,10 @@
         <v>8</v>
       </c>
       <c r="B452">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C452" s="2">
-        <v>2108.552001953125</v>
+        <v>1584.586059570312</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -5367,10 +5367,10 @@
         <v>8</v>
       </c>
       <c r="B453">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C453" s="2">
-        <v>2135.7099609375</v>
+        <v>1598.45703125</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -5378,10 +5378,10 @@
         <v>8</v>
       </c>
       <c r="B454">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C454" s="2">
-        <v>2130.822021484375</v>
+        <v>1666.31103515625</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -5389,10 +5389,10 @@
         <v>8</v>
       </c>
       <c r="B455">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C455" s="2">
-        <v>2158.77587890625</v>
+        <v>1712.079956054688</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -5400,10 +5400,10 @@
         <v>8</v>
       </c>
       <c r="B456">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="C456" s="2">
-        <v>2231.330078125</v>
+        <v>1678.433959960938</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -5411,10 +5411,10 @@
         <v>8</v>
       </c>
       <c r="B457">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C457" s="2">
-        <v>2234.81201171875</v>
+        <v>1275.265014648438</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -5422,10 +5422,10 @@
         <v>8</v>
       </c>
       <c r="B458">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C458" s="2">
-        <v>2227.1298828125</v>
+        <v>1292.31103515625</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -5433,10 +5433,10 @@
         <v>8</v>
       </c>
       <c r="B459">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C459" s="2">
-        <v>2228.200927734375</v>
+        <v>1058.526000976562</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -5444,10 +5444,10 @@
         <v>8</v>
       </c>
       <c r="B460">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C460" s="2">
-        <v>2342.507080078125</v>
+        <v>927.06201171875</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -5455,10 +5455,10 @@
         <v>8</v>
       </c>
       <c r="B461">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="C461" s="2">
-        <v>2335.069091796875</v>
+        <v>839.8699951171875</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -5466,10 +5466,10 @@
         <v>8</v>
       </c>
       <c r="B462">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="C462" s="2">
-        <v>2347.541015625</v>
+        <v>833.6079711914062</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -5477,10 +5477,10 @@
         <v>8</v>
       </c>
       <c r="B463">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="C463" s="2">
-        <v>2345.98193359375</v>
+        <v>883.6909790039062</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -5488,10 +5488,10 @@
         <v>8</v>
       </c>
       <c r="B464">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="C464" s="2">
-        <v>2331.678955078125</v>
+        <v>829.469970703125</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -5499,10 +5499,10 @@
         <v>8</v>
       </c>
       <c r="B465">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="C465" s="2">
-        <v>2379.077880859375</v>
+        <v>767.3179931640625</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -5510,10 +5510,10 @@
         <v>8</v>
       </c>
       <c r="B466">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="C466" s="2">
-        <v>2389.85791015625</v>
+        <v>778.7249755859375</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -5521,10 +5521,10 @@
         <v>8</v>
       </c>
       <c r="B467">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="C467" s="2">
-        <v>2377.261962890625</v>
+        <v>617.2009887695312</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -5532,10 +5532,10 @@
         <v>8</v>
       </c>
       <c r="B468">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="C468" s="2">
-        <v>2302.39990234375</v>
+        <v>516.3350219726562</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -5543,10 +5543,10 @@
         <v>8</v>
       </c>
       <c r="B469">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C469" s="2">
-        <v>2256.883056640625</v>
+        <v>372.3659973144531</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -5554,10 +5554,10 @@
         <v>8</v>
       </c>
       <c r="B470">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C470" s="2">
-        <v>2178.537109375</v>
+        <v>263.3200073242188</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -5565,10 +5565,10 @@
         <v>8</v>
       </c>
       <c r="B471">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="C471" s="2">
-        <v>2212.472900390625</v>
+        <v>214.5099945068359</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -5576,10 +5576,10 @@
         <v>8</v>
       </c>
       <c r="B472">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="C472" s="2">
-        <v>2219.587890625</v>
+        <v>186.8260040283203</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -5587,10 +5587,10 @@
         <v>8</v>
       </c>
       <c r="B473">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="C473" s="2">
-        <v>2220.173095703125</v>
+        <v>152.4069976806641</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -5598,10 +5598,10 @@
         <v>8</v>
       </c>
       <c r="B474">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="C474" s="2">
-        <v>2124.205078125</v>
+        <v>196.8240051269531</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -5609,10 +5609,10 @@
         <v>8</v>
       </c>
       <c r="B475">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="C475" s="2">
-        <v>2151.498046875</v>
+        <v>126.7699966430664</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -5620,10 +5620,10 @@
         <v>8</v>
       </c>
       <c r="B476">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="C476" s="2">
-        <v>2162.260986328125</v>
+        <v>166.6300048828125</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -5631,10 +5631,10 @@
         <v>8</v>
       </c>
       <c r="B477">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="C477" s="2">
-        <v>2179.39111328125</v>
+        <v>195.0839996337891</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -5642,10 +5642,10 @@
         <v>8</v>
       </c>
       <c r="B478">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C478" s="2">
-        <v>2260.968994140625</v>
+        <v>261.9649963378906</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -5653,10 +5653,10 @@
         <v>8</v>
       </c>
       <c r="B479">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C479" s="2">
-        <v>2188.321044921875</v>
+        <v>208.0489959716797</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -5664,10 +5664,10 @@
         <v>8</v>
       </c>
       <c r="B480">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="C480" s="2">
-        <v>2089.510009765625</v>
+        <v>232.9660034179688</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -5675,10 +5675,10 @@
         <v>8</v>
       </c>
       <c r="B481">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="C481" s="2">
-        <v>2043.118041992188</v>
+        <v>188.9470062255859</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -5686,10 +5686,10 @@
         <v>8</v>
       </c>
       <c r="B482">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="C482" s="2">
-        <v>2116.527099609375</v>
+        <v>208.5919952392578</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -5697,10 +5697,10 @@
         <v>8</v>
       </c>
       <c r="B483">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="C483" s="2">
-        <v>1836.52197265625</v>
+        <v>297.5950012207031</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -5708,10 +5708,10 @@
         <v>8</v>
       </c>
       <c r="B484">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="C484" s="2">
-        <v>1700.131958007812</v>
+        <v>387.3630065917969</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -5719,10 +5719,10 @@
         <v>8</v>
       </c>
       <c r="B485">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="C485" s="2">
-        <v>1668.0009765625</v>
+        <v>425.7200012207031</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -5730,10 +5730,10 @@
         <v>8</v>
       </c>
       <c r="B486">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="C486" s="2">
-        <v>1422.321044921875</v>
+        <v>505.6329956054688</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -5741,10 +5741,10 @@
         <v>8</v>
       </c>
       <c r="B487">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="C487" s="2">
-        <v>1363.630004882812</v>
+        <v>536.5830078125</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -5752,10 +5752,10 @@
         <v>8</v>
       </c>
       <c r="B488">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="C488" s="2">
-        <v>1197.053955078125</v>
+        <v>600.3270263671875</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -5763,10 +5763,10 @@
         <v>8</v>
       </c>
       <c r="B489">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C489" s="2">
-        <v>1321.634033203125</v>
+        <v>735.1749877929688</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -5774,10 +5774,10 @@
         <v>8</v>
       </c>
       <c r="B490">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="C490" s="2">
-        <v>1439.201049804688</v>
+        <v>755.6090087890625</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -5785,10 +5785,10 @@
         <v>8</v>
       </c>
       <c r="B491">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C491" s="2">
-        <v>1390.234008789062</v>
+        <v>813.8779907226562</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -5796,10 +5796,10 @@
         <v>8</v>
       </c>
       <c r="B492">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C492" s="2">
-        <v>1499.267944335938</v>
+        <v>786.6380004882812</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -5807,10 +5807,10 @@
         <v>8</v>
       </c>
       <c r="B493">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C493" s="2">
-        <v>1531.239990234375</v>
+        <v>719.447998046875</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -5818,10 +5818,10 @@
         <v>8</v>
       </c>
       <c r="B494">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C494" s="2">
-        <v>1681.2900390625</v>
+        <v>572.5059814453125</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -5829,10 +5829,10 @@
         <v>8</v>
       </c>
       <c r="B495">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="C495" s="2">
-        <v>1743.619995117188</v>
+        <v>552.8619995117188</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -5840,10 +5840,10 @@
         <v>8</v>
       </c>
       <c r="B496">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="C496" s="2">
-        <v>1756.154052734375</v>
+        <v>496.1470031738281</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -5851,10 +5851,10 @@
         <v>8</v>
       </c>
       <c r="B497">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C497" s="2">
-        <v>1864.557006835938</v>
+        <v>330.0920104980469</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -5862,10 +5862,10 @@
         <v>8</v>
       </c>
       <c r="B498">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="C498" s="2">
-        <v>1788.98095703125</v>
+        <v>358.0480041503906</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -5873,10 +5873,10 @@
         <v>8</v>
       </c>
       <c r="B499">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="C499" s="2">
-        <v>1781.5009765625</v>
+        <v>304.6839904785156</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -5884,10 +5884,10 @@
         <v>8</v>
       </c>
       <c r="B500">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="C500" s="2">
-        <v>1593.129028320312</v>
+        <v>290.1480102539062</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -5895,10 +5895,10 @@
         <v>8</v>
       </c>
       <c r="B501">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="C501" s="2">
-        <v>1559.677001953125</v>
+        <v>272.1530151367188</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -5906,10 +5906,10 @@
         <v>8</v>
       </c>
       <c r="B502">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="C502" s="2">
-        <v>1554.608032226562</v>
+        <v>357.8380126953125</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -5917,10 +5917,10 @@
         <v>8</v>
       </c>
       <c r="B503">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="C503" s="2">
-        <v>1500.255981445312</v>
+        <v>356.9920043945312</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -5928,10 +5928,10 @@
         <v>8</v>
       </c>
       <c r="B504">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="C504" s="2">
-        <v>1474.06005859375</v>
+        <v>334.7319946289062</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -5939,10 +5939,10 @@
         <v>8</v>
       </c>
       <c r="B505">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="C505" s="2">
-        <v>1455.671020507812</v>
+        <v>328.7770080566406</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -5950,318 +5950,318 @@
         <v>8</v>
       </c>
       <c r="B506">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="C506" s="2">
-        <v>1437.267944335938</v>
+        <v>349.9400024414062</v>
       </c>
     </row>
     <row r="507" spans="1:3">
       <c r="A507" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B507">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="C507" s="2">
-        <v>1828.85205078125</v>
+        <v>279.6050109863281</v>
       </c>
     </row>
     <row r="508" spans="1:3">
       <c r="A508" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B508">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="C508" s="2">
-        <v>1761.741943359375</v>
+        <v>254.1690063476562</v>
       </c>
     </row>
     <row r="509" spans="1:3">
       <c r="A509" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B509">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="C509" s="2">
-        <v>1750.75</v>
+        <v>203.4550018310547</v>
       </c>
     </row>
     <row r="510" spans="1:3">
       <c r="A510" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B510">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="C510" s="2">
-        <v>1719.743041992188</v>
+        <v>169.4179992675781</v>
       </c>
     </row>
     <row r="511" spans="1:3">
       <c r="A511" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B511">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="C511" s="2">
-        <v>1738.501953125</v>
+        <v>234.1869964599609</v>
       </c>
     </row>
     <row r="512" spans="1:3">
       <c r="A512" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B512">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="C512" s="2">
-        <v>1719.258056640625</v>
+        <v>310.7650146484375</v>
       </c>
     </row>
     <row r="513" spans="1:3">
       <c r="A513" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B513">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="C513" s="2">
-        <v>1733.619995117188</v>
+        <v>283.8320007324219</v>
       </c>
     </row>
     <row r="514" spans="1:3">
       <c r="A514" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B514">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="C514" s="2">
-        <v>1641.608032226562</v>
+        <v>245.3520050048828</v>
       </c>
     </row>
     <row r="515" spans="1:3">
       <c r="A515" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B515">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="C515" s="2">
-        <v>1628.237060546875</v>
+        <v>283.93701171875</v>
       </c>
     </row>
     <row r="516" spans="1:3">
       <c r="A516" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B516">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="C516" s="2">
-        <v>1558.238037109375</v>
+        <v>353.1539916992188</v>
       </c>
     </row>
     <row r="517" spans="1:3">
       <c r="A517" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B517">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="C517" s="2">
-        <v>1425.464965820312</v>
+        <v>325.8099975585938</v>
       </c>
     </row>
     <row r="518" spans="1:3">
       <c r="A518" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B518">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="C518" s="2">
-        <v>1465.442016601562</v>
+        <v>302.7890014648438</v>
       </c>
     </row>
     <row r="519" spans="1:3">
       <c r="A519" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B519">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="C519" s="2">
-        <v>1295.474975585938</v>
+        <v>287.4030151367188</v>
       </c>
     </row>
     <row r="520" spans="1:3">
       <c r="A520" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B520">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="C520" s="2">
-        <v>1477.511962890625</v>
+        <v>224.5480041503906</v>
       </c>
     </row>
     <row r="521" spans="1:3">
       <c r="A521" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B521">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="C521" s="2">
-        <v>1384.724975585938</v>
+        <v>237.0749969482422</v>
       </c>
     </row>
     <row r="522" spans="1:3">
       <c r="A522" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B522">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="C522" s="2">
-        <v>1356.678955078125</v>
+        <v>254.0249938964844</v>
       </c>
     </row>
     <row r="523" spans="1:3">
       <c r="A523" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B523">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="C523" s="2">
-        <v>1392.514038085938</v>
+        <v>276.6000061035156</v>
       </c>
     </row>
     <row r="524" spans="1:3">
       <c r="A524" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B524">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="C524" s="2">
-        <v>1385.385986328125</v>
+        <v>260.3559875488281</v>
       </c>
     </row>
     <row r="525" spans="1:3">
       <c r="A525" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B525">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="C525" s="2">
-        <v>1505.568969726562</v>
+        <v>284.2520141601562</v>
       </c>
     </row>
     <row r="526" spans="1:3">
       <c r="A526" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B526">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="C526" s="2">
-        <v>1673.015991210938</v>
+        <v>299.8720092773438</v>
       </c>
     </row>
     <row r="527" spans="1:3">
       <c r="A527" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B527">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="C527" s="2">
-        <v>1835.234008789062</v>
+        <v>245.0670013427734</v>
       </c>
     </row>
     <row r="528" spans="1:3">
       <c r="A528" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B528">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="C528" s="2">
-        <v>1837.057983398438</v>
+        <v>262.1640014648438</v>
       </c>
     </row>
     <row r="529" spans="1:3">
       <c r="A529" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B529">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="C529" s="2">
-        <v>1838.058959960938</v>
+        <v>234</v>
       </c>
     </row>
     <row r="530" spans="1:3">
       <c r="A530" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B530">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="C530" s="2">
-        <v>1879.673950195312</v>
+        <v>232.406005859375</v>
       </c>
     </row>
     <row r="531" spans="1:3">
       <c r="A531" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B531">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="C531" s="2">
-        <v>2076.444091796875</v>
+        <v>224.7359924316406</v>
       </c>
     </row>
     <row r="532" spans="1:3">
       <c r="A532" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B532">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="C532" s="2">
-        <v>2259.513916015625</v>
+        <v>277.5029907226562</v>
       </c>
     </row>
     <row r="533" spans="1:3">
       <c r="A533" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B533">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="C533" s="2">
-        <v>2315.155029296875</v>
+        <v>303.2340087890625</v>
       </c>
     </row>
     <row r="534" spans="1:3">
       <c r="A534" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B534">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="C534" s="2">
-        <v>2299.337890625</v>
+        <v>335.989990234375</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -6269,10 +6269,10 @@
         <v>9</v>
       </c>
       <c r="B535">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C535" s="2">
-        <v>2362.81494140625</v>
+        <v>207.5780029296875</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -6280,10 +6280,10 @@
         <v>9</v>
       </c>
       <c r="B536">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C536" s="2">
-        <v>2328.324951171875</v>
+        <v>244.5350036621094</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -6291,10 +6291,10 @@
         <v>9</v>
       </c>
       <c r="B537">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="C537" s="2">
-        <v>2236.823974609375</v>
+        <v>166.0059967041016</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -6302,10 +6302,10 @@
         <v>9</v>
       </c>
       <c r="B538">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C538" s="2">
-        <v>2204.22509765625</v>
+        <v>142.8269958496094</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -6313,10 +6313,10 @@
         <v>9</v>
       </c>
       <c r="B539">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C539" s="2">
-        <v>2166.43798828125</v>
+        <v>208.9900054931641</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -6324,10 +6324,10 @@
         <v>9</v>
       </c>
       <c r="B540">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C540" s="2">
-        <v>2169.632080078125</v>
+        <v>148.3890075683594</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -6335,10 +6335,10 @@
         <v>9</v>
       </c>
       <c r="B541">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C541" s="2">
-        <v>2159.91796875</v>
+        <v>169.2769927978516</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -6346,10 +6346,10 @@
         <v>9</v>
       </c>
       <c r="B542">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C542" s="2">
-        <v>2117.969970703125</v>
+        <v>132.4029998779297</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -6357,10 +6357,10 @@
         <v>9</v>
       </c>
       <c r="B543">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C543" s="2">
-        <v>2096.3369140625</v>
+        <v>130.7550048828125</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -6368,10 +6368,10 @@
         <v>9</v>
       </c>
       <c r="B544">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C544" s="2">
-        <v>2115.258056640625</v>
+        <v>117.6869964599609</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -6379,10 +6379,10 @@
         <v>9</v>
       </c>
       <c r="B545">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C545" s="2">
-        <v>2032.258056640625</v>
+        <v>98.74400329589844</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -6390,10 +6390,10 @@
         <v>9</v>
       </c>
       <c r="B546">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C546" s="2">
-        <v>1994.89404296875</v>
+        <v>160.5590057373047</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -6401,10 +6401,10 @@
         <v>9</v>
       </c>
       <c r="B547">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C547" s="2">
-        <v>1987.657958984375</v>
+        <v>178.4309997558594</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -6412,10 +6412,10 @@
         <v>9</v>
       </c>
       <c r="B548">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C548" s="2">
-        <v>1856.4560546875</v>
+        <v>193.6380004882812</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -6423,10 +6423,10 @@
         <v>9</v>
       </c>
       <c r="B549">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C549" s="2">
-        <v>1986.758056640625</v>
+        <v>203.4980010986328</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -6434,10 +6434,10 @@
         <v>9</v>
       </c>
       <c r="B550">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C550" s="2">
-        <v>2157.80810546875</v>
+        <v>197.0140075683594</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -6445,10 +6445,10 @@
         <v>9</v>
       </c>
       <c r="B551">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C551" s="2">
-        <v>2187.089111328125</v>
+        <v>192.8800048828125</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -6456,10 +6456,10 @@
         <v>9</v>
       </c>
       <c r="B552">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="C552" s="2">
-        <v>2169.674072265625</v>
+        <v>149.5099945068359</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -6467,10 +6467,10 @@
         <v>9</v>
       </c>
       <c r="B553">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C553" s="2">
-        <v>2251.742919921875</v>
+        <v>149.9980010986328</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -6478,10 +6478,10 @@
         <v>9</v>
       </c>
       <c r="B554">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C554" s="2">
-        <v>2277.14306640625</v>
+        <v>185.1089935302734</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -6489,10 +6489,10 @@
         <v>9</v>
       </c>
       <c r="B555">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C555" s="2">
-        <v>2213.02099609375</v>
+        <v>180.8820037841797</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -6500,10 +6500,10 @@
         <v>9</v>
       </c>
       <c r="B556">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C556" s="2">
-        <v>2316.39599609375</v>
+        <v>289.4559936523438</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -6511,10 +6511,10 @@
         <v>9</v>
       </c>
       <c r="B557">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="C557" s="2">
-        <v>2409.576904296875</v>
+        <v>303.593994140625</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -6522,10 +6522,10 @@
         <v>9</v>
       </c>
       <c r="B558">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="C558" s="2">
-        <v>2490.282958984375</v>
+        <v>346.635986328125</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -6533,10 +6533,10 @@
         <v>9</v>
       </c>
       <c r="B559">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="C559" s="2">
-        <v>2510.531005859375</v>
+        <v>351.8460083007812</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -6544,10 +6544,10 @@
         <v>9</v>
       </c>
       <c r="B560">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="C560" s="2">
-        <v>2505.823974609375</v>
+        <v>352.1679992675781</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -6555,10 +6555,10 @@
         <v>9</v>
       </c>
       <c r="B561">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="C561" s="2">
-        <v>2490.740966796875</v>
+        <v>347.8489990234375</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -6566,10 +6566,10 @@
         <v>9</v>
       </c>
       <c r="B562">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="C562" s="2">
-        <v>2481.8701171875</v>
+        <v>381.2659912109375</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -6577,10 +6577,10 @@
         <v>9</v>
       </c>
       <c r="B563">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="C563" s="2">
-        <v>2435.73095703125</v>
+        <v>399.4169921875</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -6588,10 +6588,10 @@
         <v>9</v>
       </c>
       <c r="B564">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="C564" s="2">
-        <v>2472.123046875</v>
+        <v>366.2839965820312</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -6599,10 +6599,10 @@
         <v>9</v>
       </c>
       <c r="B565">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C565" s="2">
-        <v>2474.794921875</v>
+        <v>421.2950134277344</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -6610,10 +6610,10 @@
         <v>9</v>
       </c>
       <c r="B566">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C566" s="2">
-        <v>2488.114990234375</v>
+        <v>426.1109924316406</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -6621,10 +6621,10 @@
         <v>9</v>
       </c>
       <c r="B567">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="C567" s="2">
-        <v>2548.261962890625</v>
+        <v>440.9469909667969</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -6632,10 +6632,10 @@
         <v>9</v>
       </c>
       <c r="B568">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="C568" s="2">
-        <v>2552.340087890625</v>
+        <v>431.9530029296875</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -6643,10 +6643,10 @@
         <v>9</v>
       </c>
       <c r="B569">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="C569" s="2">
-        <v>2580.458984375</v>
+        <v>411.4540100097656</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -6654,10 +6654,10 @@
         <v>9</v>
       </c>
       <c r="B570">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="C570" s="2">
-        <v>2580.26611328125</v>
+        <v>529.7150268554688</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -6665,10 +6665,10 @@
         <v>9</v>
       </c>
       <c r="B571">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="C571" s="2">
-        <v>2611.31591796875</v>
+        <v>594.77099609375</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -6676,10 +6676,10 @@
         <v>9</v>
       </c>
       <c r="B572">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="C572" s="2">
-        <v>2635.909912109375</v>
+        <v>625.6290283203125</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -6687,10 +6687,10 @@
         <v>9</v>
       </c>
       <c r="B573">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="C573" s="2">
-        <v>2577.35791015625</v>
+        <v>718.5579833984375</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -6698,10 +6698,10 @@
         <v>9</v>
       </c>
       <c r="B574">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C574" s="2">
-        <v>2501.486083984375</v>
+        <v>871.5399780273438</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -6709,10 +6709,10 @@
         <v>9</v>
       </c>
       <c r="B575">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C575" s="2">
-        <v>2470.85595703125</v>
+        <v>959.2069702148438</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -6720,10 +6720,10 @@
         <v>9</v>
       </c>
       <c r="B576">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="C576" s="2">
-        <v>2396.806884765625</v>
+        <v>1022.403015136719</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -6731,10 +6731,10 @@
         <v>9</v>
       </c>
       <c r="B577">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="C577" s="2">
-        <v>2332.577880859375</v>
+        <v>1081.0849609375</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -6742,10 +6742,10 @@
         <v>9</v>
       </c>
       <c r="B578">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="C578" s="2">
-        <v>2327.805908203125</v>
+        <v>1168.365966796875</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -6753,10 +6753,10 @@
         <v>9</v>
       </c>
       <c r="B579">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="C579" s="2">
-        <v>2392.889892578125</v>
+        <v>1270.421020507812</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -6764,10 +6764,10 @@
         <v>9</v>
       </c>
       <c r="B580">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="C580" s="2">
-        <v>2387.112060546875</v>
+        <v>1265.973022460938</v>
       </c>
     </row>
     <row r="581" spans="1:3">
@@ -6775,10 +6775,10 @@
         <v>9</v>
       </c>
       <c r="B581">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="C581" s="2">
-        <v>2215.85009765625</v>
+        <v>1299.527954101562</v>
       </c>
     </row>
     <row r="582" spans="1:3">
@@ -6786,10 +6786,10 @@
         <v>9</v>
       </c>
       <c r="B582">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="C582" s="2">
-        <v>2224.631103515625</v>
+        <v>1209.552001953125</v>
       </c>
     </row>
     <row r="583" spans="1:3">
@@ -6797,10 +6797,10 @@
         <v>9</v>
       </c>
       <c r="B583">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="C583" s="2">
-        <v>2186.219970703125</v>
+        <v>1272.384033203125</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -6808,10 +6808,10 @@
         <v>9</v>
       </c>
       <c r="B584">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="C584" s="2">
-        <v>2096.14599609375</v>
+        <v>1242.91796875</v>
       </c>
     </row>
     <row r="585" spans="1:3">
@@ -6819,10 +6819,10 @@
         <v>9</v>
       </c>
       <c r="B585">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C585" s="2">
-        <v>2175.489990234375</v>
+        <v>1213.260986328125</v>
       </c>
     </row>
     <row r="586" spans="1:3">
@@ -6830,10 +6830,10 @@
         <v>9</v>
       </c>
       <c r="B586">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="C586" s="2">
-        <v>2239.5</v>
+        <v>1266.984008789062</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -6841,10 +6841,10 @@
         <v>9</v>
       </c>
       <c r="B587">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C587" s="2">
-        <v>2246.60107421875</v>
+        <v>1274.076049804688</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -6852,10 +6852,10 @@
         <v>9</v>
       </c>
       <c r="B588">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C588" s="2">
-        <v>2232.443115234375</v>
+        <v>1280.27099609375</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -6863,10 +6863,10 @@
         <v>9</v>
       </c>
       <c r="B589">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C589" s="2">
-        <v>2190.75</v>
+        <v>1261.848022460938</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -6874,10 +6874,10 @@
         <v>9</v>
       </c>
       <c r="B590">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C590" s="2">
-        <v>2064.262939453125</v>
+        <v>1224.650024414062</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -6885,10 +6885,10 @@
         <v>9</v>
       </c>
       <c r="B591">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="C591" s="2">
-        <v>2059.2939453125</v>
+        <v>1135.8349609375</v>
       </c>
     </row>
     <row r="592" spans="1:3">
@@ -6896,10 +6896,10 @@
         <v>9</v>
       </c>
       <c r="B592">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="C592" s="2">
-        <v>2109.23291015625</v>
+        <v>1131.161987304688</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -6907,10 +6907,10 @@
         <v>9</v>
       </c>
       <c r="B593">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C593" s="2">
-        <v>2133.89208984375</v>
+        <v>1066.39794921875</v>
       </c>
     </row>
     <row r="594" spans="1:3">
@@ -6918,10 +6918,10 @@
         <v>9</v>
       </c>
       <c r="B594">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="C594" s="2">
-        <v>2162.945068359375</v>
+        <v>981.56201171875</v>
       </c>
     </row>
     <row r="595" spans="1:3">
@@ -6929,10 +6929,10 @@
         <v>9</v>
       </c>
       <c r="B595">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="C595" s="2">
-        <v>2211.06103515625</v>
+        <v>739.3939819335938</v>
       </c>
     </row>
     <row r="596" spans="1:3">
@@ -6940,10 +6940,10 @@
         <v>9</v>
       </c>
       <c r="B596">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="C596" s="2">
-        <v>2220.402099609375</v>
+        <v>686.6599731445312</v>
       </c>
     </row>
     <row r="597" spans="1:3">
@@ -6951,10 +6951,10 @@
         <v>9</v>
       </c>
       <c r="B597">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="C597" s="2">
-        <v>2181.513916015625</v>
+        <v>652.6829833984375</v>
       </c>
     </row>
     <row r="598" spans="1:3">
@@ -6962,10 +6962,10 @@
         <v>9</v>
       </c>
       <c r="B598">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="C598" s="2">
-        <v>2188.819091796875</v>
+        <v>603.4010009765625</v>
       </c>
     </row>
     <row r="599" spans="1:3">
@@ -6973,10 +6973,10 @@
         <v>9</v>
       </c>
       <c r="B599">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="C599" s="2">
-        <v>2114.279052734375</v>
+        <v>626.9439697265625</v>
       </c>
     </row>
     <row r="600" spans="1:3">
@@ -6984,10 +6984,10 @@
         <v>9</v>
       </c>
       <c r="B600">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="C600" s="2">
-        <v>2096.825927734375</v>
+        <v>525.7999877929688</v>
       </c>
     </row>
     <row r="601" spans="1:3">
@@ -6995,10 +6995,10 @@
         <v>9</v>
       </c>
       <c r="B601">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="C601" s="2">
-        <v>2144.677001953125</v>
+        <v>531.0130004882812</v>
       </c>
     </row>
     <row r="602" spans="1:3">
@@ -7006,318 +7006,318 @@
         <v>9</v>
       </c>
       <c r="B602">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="C602" s="2">
-        <v>2161.087890625</v>
+        <v>424.7909851074219</v>
       </c>
     </row>
     <row r="603" spans="1:3">
       <c r="A603" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B603">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="C603" s="2">
-        <v>2317.322021484375</v>
+        <v>332.0719909667969</v>
       </c>
     </row>
     <row r="604" spans="1:3">
       <c r="A604" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B604">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="C604" s="2">
-        <v>2294.83203125</v>
+        <v>319.8720092773438</v>
       </c>
     </row>
     <row r="605" spans="1:3">
       <c r="A605" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B605">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="C605" s="2">
-        <v>2338.282958984375</v>
+        <v>318.5830078125</v>
       </c>
     </row>
     <row r="606" spans="1:3">
       <c r="A606" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B606">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="C606" s="2">
-        <v>2302.304931640625</v>
+        <v>294.4119873046875</v>
       </c>
     </row>
     <row r="607" spans="1:3">
       <c r="A607" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B607">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="C607" s="2">
-        <v>2234.777099609375</v>
+        <v>313.9079895019531</v>
       </c>
     </row>
     <row r="608" spans="1:3">
       <c r="A608" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B608">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="C608" s="2">
-        <v>2240.5419921875</v>
+        <v>309.5820007324219</v>
       </c>
     </row>
     <row r="609" spans="1:3">
       <c r="A609" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B609">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="C609" s="2">
-        <v>2293.574951171875</v>
+        <v>316.2890014648438</v>
       </c>
     </row>
     <row r="610" spans="1:3">
       <c r="A610" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B610">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="C610" s="2">
-        <v>2232.448974609375</v>
+        <v>239.5959930419922</v>
       </c>
     </row>
     <row r="611" spans="1:3">
       <c r="A611" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B611">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="C611" s="2">
-        <v>2227.174072265625</v>
+        <v>268.6099853515625</v>
       </c>
     </row>
     <row r="612" spans="1:3">
       <c r="A612" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B612">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="C612" s="2">
-        <v>2308.385986328125</v>
+        <v>330.4209899902344</v>
       </c>
     </row>
     <row r="613" spans="1:3">
       <c r="A613" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B613">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="C613" s="2">
-        <v>2301.902099609375</v>
+        <v>325.9830017089844</v>
       </c>
     </row>
     <row r="614" spans="1:3">
       <c r="A614" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B614">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="C614" s="2">
-        <v>2362.69091796875</v>
+        <v>336.0299987792969</v>
       </c>
     </row>
     <row r="615" spans="1:3">
       <c r="A615" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B615">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="C615" s="2">
-        <v>2372.489013671875</v>
+        <v>345.5830078125</v>
       </c>
     </row>
     <row r="616" spans="1:3">
       <c r="A616" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B616">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="C616" s="2">
-        <v>2405.81396484375</v>
+        <v>337.4570007324219</v>
       </c>
     </row>
     <row r="617" spans="1:3">
       <c r="A617" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B617">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="C617" s="2">
-        <v>2386.844970703125</v>
+        <v>399.4729919433594</v>
       </c>
     </row>
     <row r="618" spans="1:3">
       <c r="A618" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B618">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="C618" s="2">
-        <v>2382.73095703125</v>
+        <v>498.9859924316406</v>
       </c>
     </row>
     <row r="619" spans="1:3">
       <c r="A619" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B619">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="C619" s="2">
-        <v>2316.594970703125</v>
+        <v>572.5830078125</v>
       </c>
     </row>
     <row r="620" spans="1:3">
       <c r="A620" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B620">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="C620" s="2">
-        <v>2336.7119140625</v>
+        <v>549.718017578125</v>
       </c>
     </row>
     <row r="621" spans="1:3">
       <c r="A621" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B621">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="C621" s="2">
-        <v>2329.10400390625</v>
+        <v>539.2789916992188</v>
       </c>
     </row>
     <row r="622" spans="1:3">
       <c r="A622" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B622">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="C622" s="2">
-        <v>2367.81591796875</v>
+        <v>741.7009887695312</v>
       </c>
     </row>
     <row r="623" spans="1:3">
       <c r="A623" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B623">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="C623" s="2">
-        <v>2254.236083984375</v>
+        <v>652.6829833984375</v>
       </c>
     </row>
     <row r="624" spans="1:3">
       <c r="A624" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B624">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="C624" s="2">
-        <v>2197.14501953125</v>
+        <v>669.2230224609375</v>
       </c>
     </row>
     <row r="625" spans="1:3">
       <c r="A625" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B625">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="C625" s="2">
-        <v>2187.7919921875</v>
+        <v>593.6309814453125</v>
       </c>
     </row>
     <row r="626" spans="1:3">
       <c r="A626" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B626">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="C626" s="2">
-        <v>2179.409912109375</v>
+        <v>612.0490112304688</v>
       </c>
     </row>
     <row r="627" spans="1:3">
       <c r="A627" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B627">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="C627" s="2">
-        <v>2168.35400390625</v>
+        <v>515.6690063476562</v>
       </c>
     </row>
     <row r="628" spans="1:3">
       <c r="A628" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B628">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="C628" s="2">
-        <v>2118.3310546875</v>
+        <v>475.7099914550781</v>
       </c>
     </row>
     <row r="629" spans="1:3">
       <c r="A629" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B629">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="C629" s="2">
-        <v>2067.31005859375</v>
+        <v>468.0580139160156</v>
       </c>
     </row>
     <row r="630" spans="1:3">
       <c r="A630" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B630">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="C630" s="2">
-        <v>2061.0009765625</v>
+        <v>484.1010131835938</v>
       </c>
     </row>
     <row r="631" spans="1:3">
@@ -7325,10 +7325,10 @@
         <v>10</v>
       </c>
       <c r="B631">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C631" s="2">
-        <v>2098.3720703125</v>
+        <v>305.2109985351562</v>
       </c>
     </row>
     <row r="632" spans="1:3">
@@ -7336,10 +7336,10 @@
         <v>10</v>
       </c>
       <c r="B632">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C632" s="2">
-        <v>2072.27587890625</v>
+        <v>301.9620056152344</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -7347,10 +7347,10 @@
         <v>10</v>
       </c>
       <c r="B633">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="C633" s="2">
-        <v>2000.135009765625</v>
+        <v>230.9889984130859</v>
       </c>
     </row>
     <row r="634" spans="1:3">
@@ -7358,10 +7358,10 @@
         <v>10</v>
       </c>
       <c r="B634">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C634" s="2">
-        <v>1772.265014648438</v>
+        <v>293.2300109863281</v>
       </c>
     </row>
     <row r="635" spans="1:3">
@@ -7369,10 +7369,10 @@
         <v>10</v>
       </c>
       <c r="B635">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C635" s="2">
-        <v>1681.699951171875</v>
+        <v>328.7420043945312</v>
       </c>
     </row>
     <row r="636" spans="1:3">
@@ -7380,10 +7380,10 @@
         <v>10</v>
       </c>
       <c r="B636">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C636" s="2">
-        <v>1738.128051757812</v>
+        <v>278.6319885253906</v>
       </c>
     </row>
     <row r="637" spans="1:3">
@@ -7391,10 +7391,10 @@
         <v>10</v>
       </c>
       <c r="B637">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C637" s="2">
-        <v>1651.266967773438</v>
+        <v>330.3689880371094</v>
       </c>
     </row>
     <row r="638" spans="1:3">
@@ -7402,10 +7402,10 @@
         <v>10</v>
       </c>
       <c r="B638">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C638" s="2">
-        <v>1642.8740234375</v>
+        <v>342.8940124511719</v>
       </c>
     </row>
     <row r="639" spans="1:3">
@@ -7413,10 +7413,10 @@
         <v>10</v>
       </c>
       <c r="B639">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C639" s="2">
-        <v>1568.120971679688</v>
+        <v>327.3139953613281</v>
       </c>
     </row>
     <row r="640" spans="1:3">
@@ -7424,10 +7424,10 @@
         <v>10</v>
       </c>
       <c r="B640">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C640" s="2">
-        <v>1575.531005859375</v>
+        <v>371.6789855957031</v>
       </c>
     </row>
     <row r="641" spans="1:3">
@@ -7435,10 +7435,10 @@
         <v>10</v>
       </c>
       <c r="B641">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C641" s="2">
-        <v>1708.345947265625</v>
+        <v>435.2040100097656</v>
       </c>
     </row>
     <row r="642" spans="1:3">
@@ -7446,10 +7446,10 @@
         <v>10</v>
       </c>
       <c r="B642">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C642" s="2">
-        <v>1638.491943359375</v>
+        <v>349.0169982910156</v>
       </c>
     </row>
     <row r="643" spans="1:3">
@@ -7457,10 +7457,10 @@
         <v>10</v>
       </c>
       <c r="B643">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C643" s="2">
-        <v>1641.864013671875</v>
+        <v>355.7780151367188</v>
       </c>
     </row>
     <row r="644" spans="1:3">
@@ -7468,10 +7468,10 @@
         <v>10</v>
       </c>
       <c r="B644">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C644" s="2">
-        <v>1635.431030273438</v>
+        <v>360.5750122070312</v>
       </c>
     </row>
     <row r="645" spans="1:3">
@@ -7479,10 +7479,10 @@
         <v>10</v>
       </c>
       <c r="B645">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C645" s="2">
-        <v>1686.389038085938</v>
+        <v>376.6010131835938</v>
       </c>
     </row>
     <row r="646" spans="1:3">
@@ -7490,10 +7490,10 @@
         <v>10</v>
       </c>
       <c r="B646">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C646" s="2">
-        <v>1625.4599609375</v>
+        <v>428.8280029296875</v>
       </c>
     </row>
     <row r="647" spans="1:3">
@@ -7501,10 +7501,10 @@
         <v>10</v>
       </c>
       <c r="B647">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C647" s="2">
-        <v>1567.078979492188</v>
+        <v>481.1279907226562</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -7512,10 +7512,10 @@
         <v>10</v>
       </c>
       <c r="B648">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="C648" s="2">
-        <v>1412.10595703125</v>
+        <v>433.3580017089844</v>
       </c>
     </row>
     <row r="649" spans="1:3">
@@ -7523,10 +7523,10 @@
         <v>10</v>
       </c>
       <c r="B649">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C649" s="2">
-        <v>1475.869995117188</v>
+        <v>381.2210083007812</v>
       </c>
     </row>
     <row r="650" spans="1:3">
@@ -7534,10 +7534,10 @@
         <v>10</v>
       </c>
       <c r="B650">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C650" s="2">
-        <v>1315.984008789062</v>
+        <v>288.3829956054688</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -7545,10 +7545,10 @@
         <v>10</v>
       </c>
       <c r="B651">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C651" s="2">
-        <v>1200.708984375</v>
+        <v>204.0769958496094</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -7556,10 +7556,10 @@
         <v>10</v>
       </c>
       <c r="B652">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C652" s="2">
-        <v>1135.365966796875</v>
+        <v>165.2230072021484</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -7567,10 +7567,10 @@
         <v>10</v>
       </c>
       <c r="B653">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="C653" s="2">
-        <v>1092.985961914062</v>
+        <v>142.6289978027344</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -7578,10 +7578,10 @@
         <v>10</v>
       </c>
       <c r="B654">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="C654" s="2">
-        <v>1122.629028320312</v>
+        <v>147.8200073242188</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -7589,10 +7589,10 @@
         <v>10</v>
       </c>
       <c r="B655">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="C655" s="2">
-        <v>1153.010009765625</v>
+        <v>120.3550033569336</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -7600,10 +7600,10 @@
         <v>10</v>
       </c>
       <c r="B656">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="C656" s="2">
-        <v>1153.599975585938</v>
+        <v>69.64700317382812</v>
       </c>
     </row>
     <row r="657" spans="1:3">
@@ -7611,10 +7611,10 @@
         <v>10</v>
       </c>
       <c r="B657">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="C657" s="2">
-        <v>1184.800048828125</v>
+        <v>211.9429931640625</v>
       </c>
     </row>
     <row r="658" spans="1:3">
@@ -7622,10 +7622,10 @@
         <v>10</v>
       </c>
       <c r="B658">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="C658" s="2">
-        <v>1136.516967773438</v>
+        <v>283.2969970703125</v>
       </c>
     </row>
     <row r="659" spans="1:3">
@@ -7633,10 +7633,10 @@
         <v>10</v>
       </c>
       <c r="B659">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="C659" s="2">
-        <v>1024.722045898438</v>
+        <v>174.1230010986328</v>
       </c>
     </row>
     <row r="660" spans="1:3">
@@ -7644,10 +7644,10 @@
         <v>10</v>
       </c>
       <c r="B660">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="C660" s="2">
-        <v>955.9530029296875</v>
+        <v>213.0720062255859</v>
       </c>
     </row>
     <row r="661" spans="1:3">
@@ -7655,10 +7655,10 @@
         <v>10</v>
       </c>
       <c r="B661">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C661" s="2">
-        <v>923.5040283203125</v>
+        <v>259.6690063476562</v>
       </c>
     </row>
     <row r="662" spans="1:3">
@@ -7666,10 +7666,10 @@
         <v>10</v>
       </c>
       <c r="B662">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C662" s="2">
-        <v>1011.820007324219</v>
+        <v>252.2339935302734</v>
       </c>
     </row>
     <row r="663" spans="1:3">
@@ -7677,10 +7677,10 @@
         <v>10</v>
       </c>
       <c r="B663">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="C663" s="2">
-        <v>1043.844970703125</v>
+        <v>433.5039978027344</v>
       </c>
     </row>
     <row r="664" spans="1:3">
@@ -7688,10 +7688,10 @@
         <v>10</v>
       </c>
       <c r="B664">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="C664" s="2">
-        <v>1042.384033203125</v>
+        <v>404.1440124511719</v>
       </c>
     </row>
     <row r="665" spans="1:3">
@@ -7699,10 +7699,10 @@
         <v>10</v>
       </c>
       <c r="B665">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="C665" s="2">
-        <v>1088.661010742188</v>
+        <v>438.8330078125</v>
       </c>
     </row>
     <row r="666" spans="1:3">
@@ -7710,10 +7710,10 @@
         <v>10</v>
       </c>
       <c r="B666">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="C666" s="2">
-        <v>1144.614013671875</v>
+        <v>415.1900024414062</v>
       </c>
     </row>
     <row r="667" spans="1:3">
@@ -7721,10 +7721,10 @@
         <v>10</v>
       </c>
       <c r="B667">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="C667" s="2">
-        <v>1250.413940429688</v>
+        <v>487.1589965820312</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -7732,10 +7732,10 @@
         <v>10</v>
       </c>
       <c r="B668">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="C668" s="2">
-        <v>1330.222045898438</v>
+        <v>597.0789794921875</v>
       </c>
     </row>
     <row r="669" spans="1:3">
@@ -7743,10 +7743,10 @@
         <v>10</v>
       </c>
       <c r="B669">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="C669" s="2">
-        <v>1444.838012695312</v>
+        <v>730.843017578125</v>
       </c>
     </row>
     <row r="670" spans="1:3">
@@ -7754,10 +7754,10 @@
         <v>10</v>
       </c>
       <c r="B670">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C670" s="2">
-        <v>1259.983032226562</v>
+        <v>895.9669799804688</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -7765,10 +7765,10 @@
         <v>10</v>
       </c>
       <c r="B671">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C671" s="2">
-        <v>1212.39697265625</v>
+        <v>1122.885986328125</v>
       </c>
     </row>
     <row r="672" spans="1:3">
@@ -7776,10 +7776,10 @@
         <v>10</v>
       </c>
       <c r="B672">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="C672" s="2">
-        <v>1083.171997070312</v>
+        <v>1228.47705078125</v>
       </c>
     </row>
     <row r="673" spans="1:3">
@@ -7787,10 +7787,10 @@
         <v>10</v>
       </c>
       <c r="B673">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="C673" s="2">
-        <v>1002.629028320312</v>
+        <v>1214.8330078125</v>
       </c>
     </row>
     <row r="674" spans="1:3">
@@ -7798,10 +7798,10 @@
         <v>10</v>
       </c>
       <c r="B674">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="C674" s="2">
-        <v>717.0709838867188</v>
+        <v>1204.878051757812</v>
       </c>
     </row>
   </sheetData>

--- a/Wind_Production_Forecast/Wind_Forecast_Production_15min.xlsx
+++ b/Wind_Production_Forecast/Wind_Forecast_Production_15min.xlsx
@@ -406,10 +406,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2">
-        <v>1538.60595703125</v>
+        <v>1502.901977539062</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -417,10 +417,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2">
-        <v>1525.259033203125</v>
+        <v>1441.43798828125</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -428,10 +428,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2">
-        <v>1531.81494140625</v>
+        <v>1448.192993164062</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -439,10 +439,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2">
-        <v>1502.901977539062</v>
+        <v>1458.556030273438</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -450,10 +450,10 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2">
-        <v>1441.43798828125</v>
+        <v>1498.31494140625</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -461,10 +461,10 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2">
-        <v>1448.192993164062</v>
+        <v>1572.267944335938</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -472,10 +472,10 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2">
-        <v>1458.556030273438</v>
+        <v>1481.078002929688</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C9" s="2">
-        <v>1498.31494140625</v>
+        <v>1465.714965820312</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -494,10 +494,10 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C10" s="2">
-        <v>1572.267944335938</v>
+        <v>1481.708984375</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -505,10 +505,10 @@
         <v>3</v>
       </c>
       <c r="B11">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C11" s="2">
-        <v>1481.078002929688</v>
+        <v>1422.719970703125</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -516,10 +516,10 @@
         <v>3</v>
       </c>
       <c r="B12">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C12" s="2">
-        <v>1465.714965820312</v>
+        <v>1571.118041992188</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -527,10 +527,10 @@
         <v>3</v>
       </c>
       <c r="B13">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C13" s="2">
-        <v>1481.708984375</v>
+        <v>1511.927978515625</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -538,10 +538,10 @@
         <v>3</v>
       </c>
       <c r="B14">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C14" s="2">
-        <v>1422.719970703125</v>
+        <v>1504.244995117188</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -549,10 +549,10 @@
         <v>3</v>
       </c>
       <c r="B15">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C15" s="2">
-        <v>1571.118041992188</v>
+        <v>1546.767944335938</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -560,10 +560,10 @@
         <v>3</v>
       </c>
       <c r="B16">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C16" s="2">
-        <v>1511.927978515625</v>
+        <v>1480.329956054688</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -571,10 +571,10 @@
         <v>3</v>
       </c>
       <c r="B17">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C17" s="2">
-        <v>1504.244995117188</v>
+        <v>1535.782958984375</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -582,10 +582,10 @@
         <v>3</v>
       </c>
       <c r="B18">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C18" s="2">
-        <v>1546.767944335938</v>
+        <v>1641.953002929688</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -593,10 +593,10 @@
         <v>3</v>
       </c>
       <c r="B19">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C19" s="2">
-        <v>1480.329956054688</v>
+        <v>2172.278076171875</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -604,10 +604,10 @@
         <v>3</v>
       </c>
       <c r="B20">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C20" s="2">
-        <v>1535.782958984375</v>
+        <v>2273.85693359375</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -615,10 +615,10 @@
         <v>3</v>
       </c>
       <c r="B21">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C21" s="2">
-        <v>1641.953002929688</v>
+        <v>2074.465087890625</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -626,10 +626,10 @@
         <v>3</v>
       </c>
       <c r="B22">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C22" s="2">
-        <v>2172.278076171875</v>
+        <v>1342.512939453125</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -637,10 +637,10 @@
         <v>3</v>
       </c>
       <c r="B23">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C23" s="2">
-        <v>2273.85693359375</v>
+        <v>1265.982055664062</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -648,10 +648,10 @@
         <v>3</v>
       </c>
       <c r="B24">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C24" s="2">
-        <v>2074.465087890625</v>
+        <v>1017.367004394531</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -659,10 +659,10 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C25" s="2">
-        <v>1342.512939453125</v>
+        <v>1298.6240234375</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -670,10 +670,10 @@
         <v>3</v>
       </c>
       <c r="B26">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C26" s="2">
-        <v>1265.982055664062</v>
+        <v>1082.56396484375</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -681,10 +681,10 @@
         <v>3</v>
       </c>
       <c r="B27">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C27" s="2">
-        <v>1017.367004394531</v>
+        <v>913.0180053710938</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -692,10 +692,10 @@
         <v>3</v>
       </c>
       <c r="B28">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C28" s="2">
-        <v>1298.6240234375</v>
+        <v>800.6079711914062</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -703,10 +703,10 @@
         <v>3</v>
       </c>
       <c r="B29">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C29" s="2">
-        <v>1082.56396484375</v>
+        <v>690.969970703125</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -714,10 +714,10 @@
         <v>3</v>
       </c>
       <c r="B30">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C30" s="2">
-        <v>913.0180053710938</v>
+        <v>620.1389770507812</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -725,10 +725,10 @@
         <v>3</v>
       </c>
       <c r="B31">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C31" s="2">
-        <v>800.6079711914062</v>
+        <v>669.4940185546875</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -736,10 +736,10 @@
         <v>3</v>
       </c>
       <c r="B32">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C32" s="2">
-        <v>690.969970703125</v>
+        <v>599.8829956054688</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -747,10 +747,10 @@
         <v>3</v>
       </c>
       <c r="B33">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C33" s="2">
-        <v>620.1389770507812</v>
+        <v>407.6409912109375</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -758,10 +758,10 @@
         <v>3</v>
       </c>
       <c r="B34">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C34" s="2">
-        <v>669.4940185546875</v>
+        <v>387.0159912109375</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -769,10 +769,10 @@
         <v>3</v>
       </c>
       <c r="B35">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C35" s="2">
-        <v>599.8829956054688</v>
+        <v>401.7099914550781</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -780,10 +780,10 @@
         <v>3</v>
       </c>
       <c r="B36">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C36" s="2">
-        <v>407.6409912109375</v>
+        <v>336.1659851074219</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -791,10 +791,10 @@
         <v>3</v>
       </c>
       <c r="B37">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C37" s="2">
-        <v>387.0159912109375</v>
+        <v>327.4760131835938</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -802,10 +802,10 @@
         <v>3</v>
       </c>
       <c r="B38">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C38" s="2">
-        <v>401.7099914550781</v>
+        <v>346.8980102539062</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -813,10 +813,10 @@
         <v>3</v>
       </c>
       <c r="B39">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C39" s="2">
-        <v>336.1659851074219</v>
+        <v>186.0630035400391</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -824,10 +824,10 @@
         <v>3</v>
       </c>
       <c r="B40">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C40" s="2">
-        <v>327.4760131835938</v>
+        <v>135.7149963378906</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -835,10 +835,10 @@
         <v>3</v>
       </c>
       <c r="B41">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C41" s="2">
-        <v>346.8980102539062</v>
+        <v>146.6880035400391</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -846,10 +846,10 @@
         <v>3</v>
       </c>
       <c r="B42">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C42" s="2">
-        <v>186.0630035400391</v>
+        <v>171.0290069580078</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -857,10 +857,10 @@
         <v>3</v>
       </c>
       <c r="B43">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C43" s="2">
-        <v>135.7149963378906</v>
+        <v>133.4680023193359</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -868,10 +868,10 @@
         <v>3</v>
       </c>
       <c r="B44">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C44" s="2">
-        <v>146.6880035400391</v>
+        <v>290.0549926757812</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -879,10 +879,10 @@
         <v>3</v>
       </c>
       <c r="B45">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C45" s="2">
-        <v>171.0290069580078</v>
+        <v>415.6300048828125</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -890,10 +890,10 @@
         <v>3</v>
       </c>
       <c r="B46">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C46" s="2">
-        <v>133.4680023193359</v>
+        <v>225.6329956054688</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -901,10 +901,10 @@
         <v>3</v>
       </c>
       <c r="B47">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C47" s="2">
-        <v>290.0549926757812</v>
+        <v>184.5749969482422</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -912,10 +912,10 @@
         <v>3</v>
       </c>
       <c r="B48">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C48" s="2">
-        <v>415.6300048828125</v>
+        <v>240.6580047607422</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -923,10 +923,10 @@
         <v>3</v>
       </c>
       <c r="B49">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C49" s="2">
-        <v>225.6329956054688</v>
+        <v>268.5599975585938</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -934,10 +934,10 @@
         <v>3</v>
       </c>
       <c r="B50">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C50" s="2">
-        <v>184.5749969482422</v>
+        <v>284.6300048828125</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -945,43 +945,43 @@
         <v>3</v>
       </c>
       <c r="B51">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C51" s="2">
-        <v>240.6580047607422</v>
+        <v>333.8489990234375</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B52">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="C52" s="2">
-        <v>268.5599975585938</v>
+        <v>144.8240051269531</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B53">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="C53" s="2">
-        <v>284.6300048828125</v>
+        <v>180.7429962158203</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54">
         <v>3</v>
       </c>
-      <c r="B54">
-        <v>96</v>
-      </c>
       <c r="C54" s="2">
-        <v>333.8489990234375</v>
+        <v>135.7409973144531</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -989,10 +989,10 @@
         <v>4</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C55" s="2">
-        <v>144.8240051269531</v>
+        <v>193.2570037841797</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1000,10 +1000,10 @@
         <v>4</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C56" s="2">
-        <v>180.7429962158203</v>
+        <v>146.4889984130859</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1011,10 +1011,10 @@
         <v>4</v>
       </c>
       <c r="B57">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C57" s="2">
-        <v>135.7409973144531</v>
+        <v>209.0579986572266</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1022,10 +1022,10 @@
         <v>4</v>
       </c>
       <c r="B58">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C58" s="2">
-        <v>193.2570037841797</v>
+        <v>210.5839996337891</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1033,10 +1033,10 @@
         <v>4</v>
       </c>
       <c r="B59">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C59" s="2">
-        <v>146.4889984130859</v>
+        <v>279.9280090332031</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1044,10 +1044,10 @@
         <v>4</v>
       </c>
       <c r="B60">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C60" s="2">
-        <v>209.0579986572266</v>
+        <v>355.1189880371094</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1055,10 +1055,10 @@
         <v>4</v>
       </c>
       <c r="B61">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C61" s="2">
-        <v>210.5839996337891</v>
+        <v>379.7659912109375</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1066,10 +1066,10 @@
         <v>4</v>
       </c>
       <c r="B62">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C62" s="2">
-        <v>279.9280090332031</v>
+        <v>406.0289916992188</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1077,10 +1077,10 @@
         <v>4</v>
       </c>
       <c r="B63">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C63" s="2">
-        <v>355.1189880371094</v>
+        <v>447.7630004882812</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1088,10 +1088,10 @@
         <v>4</v>
       </c>
       <c r="B64">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C64" s="2">
-        <v>379.7659912109375</v>
+        <v>498.7160034179688</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1099,10 +1099,10 @@
         <v>4</v>
       </c>
       <c r="B65">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C65" s="2">
-        <v>406.0289916992188</v>
+        <v>516.39599609375</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1110,10 +1110,10 @@
         <v>4</v>
       </c>
       <c r="B66">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C66" s="2">
-        <v>447.7630004882812</v>
+        <v>536.9869995117188</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1121,10 +1121,10 @@
         <v>4</v>
       </c>
       <c r="B67">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C67" s="2">
-        <v>498.7160034179688</v>
+        <v>517.9439697265625</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1132,10 +1132,10 @@
         <v>4</v>
       </c>
       <c r="B68">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C68" s="2">
-        <v>516.39599609375</v>
+        <v>518.8560180664062</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1143,10 +1143,10 @@
         <v>4</v>
       </c>
       <c r="B69">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C69" s="2">
-        <v>536.9869995117188</v>
+        <v>478.4519958496094</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1154,10 +1154,10 @@
         <v>4</v>
       </c>
       <c r="B70">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C70" s="2">
-        <v>517.9439697265625</v>
+        <v>488.989990234375</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1165,10 +1165,10 @@
         <v>4</v>
       </c>
       <c r="B71">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C71" s="2">
-        <v>518.8560180664062</v>
+        <v>460.2250061035156</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1176,10 +1176,10 @@
         <v>4</v>
       </c>
       <c r="B72">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C72" s="2">
-        <v>478.4519958496094</v>
+        <v>471.2799987792969</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1187,10 +1187,10 @@
         <v>4</v>
       </c>
       <c r="B73">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C73" s="2">
-        <v>488.989990234375</v>
+        <v>460.5029907226562</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1198,10 +1198,10 @@
         <v>4</v>
       </c>
       <c r="B74">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C74" s="2">
-        <v>460.2250061035156</v>
+        <v>534.7020263671875</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1209,10 +1209,10 @@
         <v>4</v>
       </c>
       <c r="B75">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C75" s="2">
-        <v>471.2799987792969</v>
+        <v>577.1320190429688</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1220,10 +1220,10 @@
         <v>4</v>
       </c>
       <c r="B76">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C76" s="2">
-        <v>460.5029907226562</v>
+        <v>577.322998046875</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1231,10 +1231,10 @@
         <v>4</v>
       </c>
       <c r="B77">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C77" s="2">
-        <v>534.7020263671875</v>
+        <v>545.073974609375</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1242,10 +1242,10 @@
         <v>4</v>
       </c>
       <c r="B78">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C78" s="2">
-        <v>577.1320190429688</v>
+        <v>536.3109741210938</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1253,10 +1253,10 @@
         <v>4</v>
       </c>
       <c r="B79">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C79" s="2">
-        <v>577.322998046875</v>
+        <v>405.9519958496094</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1264,10 +1264,10 @@
         <v>4</v>
       </c>
       <c r="B80">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C80" s="2">
-        <v>545.073974609375</v>
+        <v>233.2510070800781</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1275,10 +1275,10 @@
         <v>4</v>
       </c>
       <c r="B81">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C81" s="2">
-        <v>536.3109741210938</v>
+        <v>309.9979858398438</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1286,10 +1286,10 @@
         <v>4</v>
       </c>
       <c r="B82">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C82" s="2">
-        <v>405.9519958496094</v>
+        <v>279.4909973144531</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1297,10 +1297,10 @@
         <v>4</v>
       </c>
       <c r="B83">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C83" s="2">
-        <v>233.2510070800781</v>
+        <v>256.6700134277344</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1308,10 +1308,10 @@
         <v>4</v>
       </c>
       <c r="B84">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C84" s="2">
-        <v>309.9979858398438</v>
+        <v>566.4609985351562</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1319,10 +1319,10 @@
         <v>4</v>
       </c>
       <c r="B85">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C85" s="2">
-        <v>279.4909973144531</v>
+        <v>730.5430297851562</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1330,10 +1330,10 @@
         <v>4</v>
       </c>
       <c r="B86">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C86" s="2">
-        <v>256.6700134277344</v>
+        <v>605.2559814453125</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1341,10 +1341,10 @@
         <v>4</v>
       </c>
       <c r="B87">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C87" s="2">
-        <v>566.4609985351562</v>
+        <v>296.5929870605469</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1352,10 +1352,10 @@
         <v>4</v>
       </c>
       <c r="B88">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C88" s="2">
-        <v>730.5430297851562</v>
+        <v>432.4259948730469</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1363,10 +1363,10 @@
         <v>4</v>
       </c>
       <c r="B89">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C89" s="2">
-        <v>605.2559814453125</v>
+        <v>437.2680053710938</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1374,10 +1374,10 @@
         <v>4</v>
       </c>
       <c r="B90">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C90" s="2">
-        <v>296.5929870605469</v>
+        <v>284.3760070800781</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1385,10 +1385,10 @@
         <v>4</v>
       </c>
       <c r="B91">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C91" s="2">
-        <v>432.4259948730469</v>
+        <v>523.760986328125</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1396,10 +1396,10 @@
         <v>4</v>
       </c>
       <c r="B92">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C92" s="2">
-        <v>437.2680053710938</v>
+        <v>585.708984375</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1407,10 +1407,10 @@
         <v>4</v>
       </c>
       <c r="B93">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C93" s="2">
-        <v>284.3760070800781</v>
+        <v>699.8720092773438</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1418,10 +1418,10 @@
         <v>4</v>
       </c>
       <c r="B94">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C94" s="2">
-        <v>523.760986328125</v>
+        <v>466.4819946289062</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1429,10 +1429,10 @@
         <v>4</v>
       </c>
       <c r="B95">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C95" s="2">
-        <v>585.708984375</v>
+        <v>323.2080078125</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1440,10 +1440,10 @@
         <v>4</v>
       </c>
       <c r="B96">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C96" s="2">
-        <v>699.8720092773438</v>
+        <v>266.6849975585938</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1451,10 +1451,10 @@
         <v>4</v>
       </c>
       <c r="B97">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C97" s="2">
-        <v>466.4819946289062</v>
+        <v>227.2850036621094</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1462,10 +1462,10 @@
         <v>4</v>
       </c>
       <c r="B98">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C98" s="2">
-        <v>323.2080078125</v>
+        <v>171.39599609375</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1473,10 +1473,10 @@
         <v>4</v>
       </c>
       <c r="B99">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C99" s="2">
-        <v>266.6849975585938</v>
+        <v>174.572998046875</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1484,10 +1484,10 @@
         <v>4</v>
       </c>
       <c r="B100">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C100" s="2">
-        <v>227.2850036621094</v>
+        <v>157.3489990234375</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1495,10 +1495,10 @@
         <v>4</v>
       </c>
       <c r="B101">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C101" s="2">
-        <v>171.39599609375</v>
+        <v>213.822998046875</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1506,10 +1506,10 @@
         <v>4</v>
       </c>
       <c r="B102">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C102" s="2">
-        <v>174.572998046875</v>
+        <v>187.9949951171875</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1517,10 +1517,10 @@
         <v>4</v>
       </c>
       <c r="B103">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C103" s="2">
-        <v>157.3489990234375</v>
+        <v>182.5050048828125</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1528,10 +1528,10 @@
         <v>4</v>
       </c>
       <c r="B104">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C104" s="2">
-        <v>213.822998046875</v>
+        <v>201.3930053710938</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1539,10 +1539,10 @@
         <v>4</v>
       </c>
       <c r="B105">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C105" s="2">
-        <v>187.9949951171875</v>
+        <v>247.2359924316406</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1550,10 +1550,10 @@
         <v>4</v>
       </c>
       <c r="B106">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C106" s="2">
-        <v>182.5050048828125</v>
+        <v>191.9340057373047</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1561,10 +1561,10 @@
         <v>4</v>
       </c>
       <c r="B107">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C107" s="2">
-        <v>201.3930053710938</v>
+        <v>157.2380065917969</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1572,10 +1572,10 @@
         <v>4</v>
       </c>
       <c r="B108">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C108" s="2">
-        <v>247.2359924316406</v>
+        <v>271.5979919433594</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1583,10 +1583,10 @@
         <v>4</v>
       </c>
       <c r="B109">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C109" s="2">
-        <v>191.9340057373047</v>
+        <v>290.2109985351562</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1594,10 +1594,10 @@
         <v>4</v>
       </c>
       <c r="B110">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C110" s="2">
-        <v>157.2380065917969</v>
+        <v>268.7730102539062</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1605,10 +1605,10 @@
         <v>4</v>
       </c>
       <c r="B111">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C111" s="2">
-        <v>271.5979919433594</v>
+        <v>266.8349914550781</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1616,10 +1616,10 @@
         <v>4</v>
       </c>
       <c r="B112">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C112" s="2">
-        <v>290.2109985351562</v>
+        <v>240.6380004882812</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1627,10 +1627,10 @@
         <v>4</v>
       </c>
       <c r="B113">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C113" s="2">
-        <v>268.7730102539062</v>
+        <v>213.9539947509766</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1638,10 +1638,10 @@
         <v>4</v>
       </c>
       <c r="B114">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C114" s="2">
-        <v>266.8349914550781</v>
+        <v>129.072998046875</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1649,10 +1649,10 @@
         <v>4</v>
       </c>
       <c r="B115">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C115" s="2">
-        <v>240.6380004882812</v>
+        <v>38.72800064086914</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1660,10 +1660,10 @@
         <v>4</v>
       </c>
       <c r="B116">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C116" s="2">
-        <v>213.9539947509766</v>
+        <v>123.9290008544922</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1671,10 +1671,10 @@
         <v>4</v>
       </c>
       <c r="B117">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C117" s="2">
-        <v>129.072998046875</v>
+        <v>20.4689998626709</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1682,10 +1682,10 @@
         <v>4</v>
       </c>
       <c r="B118">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C118" s="2">
-        <v>38.72800064086914</v>
+        <v>86.74800109863281</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1693,10 +1693,10 @@
         <v>4</v>
       </c>
       <c r="B119">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C119" s="2">
-        <v>123.9290008544922</v>
+        <v>28.36300086975098</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1704,10 +1704,10 @@
         <v>4</v>
       </c>
       <c r="B120">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C120" s="2">
-        <v>20.4689998626709</v>
+        <v>26.97599983215332</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1715,10 +1715,10 @@
         <v>4</v>
       </c>
       <c r="B121">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C121" s="2">
-        <v>86.74800109863281</v>
+        <v>82.72100067138672</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1726,10 +1726,10 @@
         <v>4</v>
       </c>
       <c r="B122">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C122" s="2">
-        <v>28.36300086975098</v>
+        <v>65.40499877929688</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1737,10 +1737,10 @@
         <v>4</v>
       </c>
       <c r="B123">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C123" s="2">
-        <v>26.97599983215332</v>
+        <v>118.5130004882812</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1748,10 +1748,10 @@
         <v>4</v>
       </c>
       <c r="B124">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C124" s="2">
-        <v>82.72100067138672</v>
+        <v>180.4040069580078</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1759,10 +1759,10 @@
         <v>4</v>
       </c>
       <c r="B125">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C125" s="2">
-        <v>65.40499877929688</v>
+        <v>158.9859924316406</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1770,10 +1770,10 @@
         <v>4</v>
       </c>
       <c r="B126">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C126" s="2">
-        <v>118.5130004882812</v>
+        <v>192.8379974365234</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1781,10 +1781,10 @@
         <v>4</v>
       </c>
       <c r="B127">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C127" s="2">
-        <v>180.4040069580078</v>
+        <v>221.2460021972656</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1792,10 +1792,10 @@
         <v>4</v>
       </c>
       <c r="B128">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C128" s="2">
-        <v>158.9859924316406</v>
+        <v>195.2960052490234</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1803,10 +1803,10 @@
         <v>4</v>
       </c>
       <c r="B129">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C129" s="2">
-        <v>192.8379974365234</v>
+        <v>195.6940002441406</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1814,10 +1814,10 @@
         <v>4</v>
       </c>
       <c r="B130">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C130" s="2">
-        <v>221.2460021972656</v>
+        <v>187.4129943847656</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1825,10 +1825,10 @@
         <v>4</v>
       </c>
       <c r="B131">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C131" s="2">
-        <v>195.2960052490234</v>
+        <v>180.1999969482422</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1836,10 +1836,10 @@
         <v>4</v>
       </c>
       <c r="B132">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C132" s="2">
-        <v>195.6940002441406</v>
+        <v>153.5249938964844</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1847,10 +1847,10 @@
         <v>4</v>
       </c>
       <c r="B133">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C133" s="2">
-        <v>187.4129943847656</v>
+        <v>162.8549957275391</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1858,10 +1858,10 @@
         <v>4</v>
       </c>
       <c r="B134">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C134" s="2">
-        <v>180.1999969482422</v>
+        <v>149.5149993896484</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1869,10 +1869,10 @@
         <v>4</v>
       </c>
       <c r="B135">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C135" s="2">
-        <v>153.5249938964844</v>
+        <v>149.3919982910156</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1880,10 +1880,10 @@
         <v>4</v>
       </c>
       <c r="B136">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C136" s="2">
-        <v>162.8549957275391</v>
+        <v>137.4109954833984</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1891,10 +1891,10 @@
         <v>4</v>
       </c>
       <c r="B137">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C137" s="2">
-        <v>149.5149993896484</v>
+        <v>117.4619979858398</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1902,10 +1902,10 @@
         <v>4</v>
       </c>
       <c r="B138">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C138" s="2">
-        <v>149.3919982910156</v>
+        <v>137.2599945068359</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1913,10 +1913,10 @@
         <v>4</v>
       </c>
       <c r="B139">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C139" s="2">
-        <v>137.4109954833984</v>
+        <v>134.3509979248047</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1924,10 +1924,10 @@
         <v>4</v>
       </c>
       <c r="B140">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C140" s="2">
-        <v>117.4619979858398</v>
+        <v>143.3619995117188</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1935,10 +1935,10 @@
         <v>4</v>
       </c>
       <c r="B141">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C141" s="2">
-        <v>137.2599945068359</v>
+        <v>132.4900054931641</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1946,10 +1946,10 @@
         <v>4</v>
       </c>
       <c r="B142">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C142" s="2">
-        <v>134.3509979248047</v>
+        <v>164.5319976806641</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1957,10 +1957,10 @@
         <v>4</v>
       </c>
       <c r="B143">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C143" s="2">
-        <v>143.3619995117188</v>
+        <v>248.7319946289062</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1968,10 +1968,10 @@
         <v>4</v>
       </c>
       <c r="B144">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C144" s="2">
-        <v>132.4900054931641</v>
+        <v>306.4360046386719</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1979,10 +1979,10 @@
         <v>4</v>
       </c>
       <c r="B145">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C145" s="2">
-        <v>164.5319976806641</v>
+        <v>238.7539978027344</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1990,10 +1990,10 @@
         <v>4</v>
       </c>
       <c r="B146">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C146" s="2">
-        <v>248.7319946289062</v>
+        <v>252.7440032958984</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2001,43 +2001,43 @@
         <v>4</v>
       </c>
       <c r="B147">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C147" s="2">
-        <v>306.4360046386719</v>
+        <v>205.8890075683594</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B148">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="C148" s="2">
-        <v>238.7539978027344</v>
+        <v>375.4939880371094</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B149">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="C149" s="2">
-        <v>252.7440032958984</v>
+        <v>392.9630126953125</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B150">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="C150" s="2">
-        <v>205.8890075683594</v>
+        <v>293.2900085449219</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2045,10 +2045,10 @@
         <v>5</v>
       </c>
       <c r="B151">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C151" s="2">
-        <v>375.4939880371094</v>
+        <v>240.1790008544922</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2056,10 +2056,10 @@
         <v>5</v>
       </c>
       <c r="B152">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C152" s="2">
-        <v>392.9630126953125</v>
+        <v>214.718994140625</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2067,10 +2067,10 @@
         <v>5</v>
       </c>
       <c r="B153">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C153" s="2">
-        <v>293.2900085449219</v>
+        <v>210.3739929199219</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2078,10 +2078,10 @@
         <v>5</v>
       </c>
       <c r="B154">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C154" s="2">
-        <v>240.1790008544922</v>
+        <v>199.0059967041016</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2089,10 +2089,10 @@
         <v>5</v>
       </c>
       <c r="B155">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C155" s="2">
-        <v>214.718994140625</v>
+        <v>170.4179992675781</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2100,10 +2100,10 @@
         <v>5</v>
       </c>
       <c r="B156">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C156" s="2">
-        <v>210.3739929199219</v>
+        <v>140.9799957275391</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2111,10 +2111,10 @@
         <v>5</v>
       </c>
       <c r="B157">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C157" s="2">
-        <v>199.0059967041016</v>
+        <v>101.2419967651367</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2122,10 +2122,10 @@
         <v>5</v>
       </c>
       <c r="B158">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C158" s="2">
-        <v>170.4179992675781</v>
+        <v>78.92299652099609</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2133,10 +2133,10 @@
         <v>5</v>
       </c>
       <c r="B159">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C159" s="2">
-        <v>140.9799957275391</v>
+        <v>80.80699920654297</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2144,10 +2144,10 @@
         <v>5</v>
       </c>
       <c r="B160">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C160" s="2">
-        <v>101.2419967651367</v>
+        <v>86.42900085449219</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2155,10 +2155,10 @@
         <v>5</v>
       </c>
       <c r="B161">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C161" s="2">
-        <v>78.92299652099609</v>
+        <v>91.61799621582031</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2166,10 +2166,10 @@
         <v>5</v>
       </c>
       <c r="B162">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C162" s="2">
-        <v>80.80699920654297</v>
+        <v>67.89199829101562</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2177,10 +2177,10 @@
         <v>5</v>
       </c>
       <c r="B163">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C163" s="2">
-        <v>86.42900085449219</v>
+        <v>68.97299957275391</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2188,10 +2188,10 @@
         <v>5</v>
       </c>
       <c r="B164">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C164" s="2">
-        <v>91.61799621582031</v>
+        <v>24.06500053405762</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2199,10 +2199,10 @@
         <v>5</v>
       </c>
       <c r="B165">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C165" s="2">
-        <v>67.89199829101562</v>
+        <v>31.58200073242188</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2210,10 +2210,10 @@
         <v>5</v>
       </c>
       <c r="B166">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C166" s="2">
-        <v>68.97299957275391</v>
+        <v>29.26399993896484</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2221,10 +2221,10 @@
         <v>5</v>
       </c>
       <c r="B167">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C167" s="2">
-        <v>24.06500053405762</v>
+        <v>18.47500038146973</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2232,10 +2232,10 @@
         <v>5</v>
       </c>
       <c r="B168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C168" s="2">
-        <v>31.58200073242188</v>
+        <v>81.08499908447266</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2243,10 +2243,10 @@
         <v>5</v>
       </c>
       <c r="B169">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C169" s="2">
-        <v>29.26399993896484</v>
+        <v>90.49299621582031</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2254,10 +2254,10 @@
         <v>5</v>
       </c>
       <c r="B170">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C170" s="2">
-        <v>18.47500038146973</v>
+        <v>55.31900024414062</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2265,10 +2265,10 @@
         <v>5</v>
       </c>
       <c r="B171">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C171" s="2">
-        <v>81.08499908447266</v>
+        <v>47.87300109863281</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2276,10 +2276,10 @@
         <v>5</v>
       </c>
       <c r="B172">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C172" s="2">
-        <v>90.49299621582031</v>
+        <v>86.6510009765625</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2287,10 +2287,10 @@
         <v>5</v>
       </c>
       <c r="B173">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C173" s="2">
-        <v>55.31900024414062</v>
+        <v>39.20800018310547</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2298,10 +2298,10 @@
         <v>5</v>
       </c>
       <c r="B174">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C174" s="2">
-        <v>47.87300109863281</v>
+        <v>35.23300170898438</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2309,10 +2309,10 @@
         <v>5</v>
       </c>
       <c r="B175">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C175" s="2">
-        <v>86.6510009765625</v>
+        <v>91.55400085449219</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2320,10 +2320,10 @@
         <v>5</v>
       </c>
       <c r="B176">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C176" s="2">
-        <v>39.20800018310547</v>
+        <v>114.2399978637695</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2331,10 +2331,10 @@
         <v>5</v>
       </c>
       <c r="B177">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C177" s="2">
-        <v>35.23300170898438</v>
+        <v>78.71099853515625</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2342,10 +2342,10 @@
         <v>5</v>
       </c>
       <c r="B178">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C178" s="2">
-        <v>91.55400085449219</v>
+        <v>43.48899841308594</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2353,10 +2353,10 @@
         <v>5</v>
       </c>
       <c r="B179">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C179" s="2">
-        <v>114.2399978637695</v>
+        <v>10.38700008392334</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2364,10 +2364,10 @@
         <v>5</v>
       </c>
       <c r="B180">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C180" s="2">
-        <v>78.71099853515625</v>
+        <v>0.5720000267028809</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2375,10 +2375,10 @@
         <v>5</v>
       </c>
       <c r="B181">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C181" s="2">
-        <v>43.48899841308594</v>
+        <v>-49.48500061035156</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2386,10 +2386,10 @@
         <v>5</v>
       </c>
       <c r="B182">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C182" s="2">
-        <v>10.38700008392334</v>
+        <v>0.3930000066757202</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2397,10 +2397,10 @@
         <v>5</v>
       </c>
       <c r="B183">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C183" s="2">
-        <v>0.5720000267028809</v>
+        <v>-11.83600044250488</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2408,10 +2408,10 @@
         <v>5</v>
       </c>
       <c r="B184">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C184" s="2">
-        <v>-49.48500061035156</v>
+        <v>4.931000232696533</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2419,10 +2419,10 @@
         <v>5</v>
       </c>
       <c r="B185">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C185" s="2">
-        <v>0.3930000066757202</v>
+        <v>70.37599945068359</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2430,10 +2430,10 @@
         <v>5</v>
       </c>
       <c r="B186">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C186" s="2">
-        <v>-11.83600044250488</v>
+        <v>43.14799880981445</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2441,10 +2441,10 @@
         <v>5</v>
       </c>
       <c r="B187">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C187" s="2">
-        <v>4.931000232696533</v>
+        <v>45.23500061035156</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2452,10 +2452,10 @@
         <v>5</v>
       </c>
       <c r="B188">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C188" s="2">
-        <v>70.37599945068359</v>
+        <v>84.04299926757812</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2463,10 +2463,10 @@
         <v>5</v>
       </c>
       <c r="B189">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C189" s="2">
-        <v>43.14799880981445</v>
+        <v>86.36199951171875</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2474,10 +2474,10 @@
         <v>5</v>
       </c>
       <c r="B190">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C190" s="2">
-        <v>45.23500061035156</v>
+        <v>46.31700134277344</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2485,10 +2485,10 @@
         <v>5</v>
       </c>
       <c r="B191">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C191" s="2">
-        <v>84.04299926757812</v>
+        <v>36.35800170898438</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2496,10 +2496,10 @@
         <v>5</v>
       </c>
       <c r="B192">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C192" s="2">
-        <v>86.36199951171875</v>
+        <v>54.84700012207031</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2507,10 +2507,10 @@
         <v>5</v>
       </c>
       <c r="B193">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C193" s="2">
-        <v>46.31700134277344</v>
+        <v>17.10799980163574</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2518,10 +2518,10 @@
         <v>5</v>
       </c>
       <c r="B194">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C194" s="2">
-        <v>36.35800170898438</v>
+        <v>4.328000068664551</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2529,10 +2529,10 @@
         <v>5</v>
       </c>
       <c r="B195">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C195" s="2">
-        <v>54.84700012207031</v>
+        <v>94.63300323486328</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2540,10 +2540,10 @@
         <v>5</v>
       </c>
       <c r="B196">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C196" s="2">
-        <v>17.10799980163574</v>
+        <v>116.8310012817383</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2551,10 +2551,10 @@
         <v>5</v>
       </c>
       <c r="B197">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C197" s="2">
-        <v>4.328000068664551</v>
+        <v>236.0010070800781</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2562,10 +2562,10 @@
         <v>5</v>
       </c>
       <c r="B198">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C198" s="2">
-        <v>94.63300323486328</v>
+        <v>114.9619979858398</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2573,10 +2573,10 @@
         <v>5</v>
       </c>
       <c r="B199">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C199" s="2">
-        <v>116.8310012817383</v>
+        <v>62.68199920654297</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2584,10 +2584,10 @@
         <v>5</v>
       </c>
       <c r="B200">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C200" s="2">
-        <v>236.0010070800781</v>
+        <v>-5.026999950408936</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2595,10 +2595,10 @@
         <v>5</v>
       </c>
       <c r="B201">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C201" s="2">
-        <v>114.9619979858398</v>
+        <v>32.04999923706055</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2606,10 +2606,10 @@
         <v>5</v>
       </c>
       <c r="B202">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C202" s="2">
-        <v>62.68199920654297</v>
+        <v>69.2030029296875</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2617,10 +2617,10 @@
         <v>5</v>
       </c>
       <c r="B203">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C203" s="2">
-        <v>-5.026999950408936</v>
+        <v>46.67599868774414</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2628,10 +2628,10 @@
         <v>5</v>
       </c>
       <c r="B204">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C204" s="2">
-        <v>32.04999923706055</v>
+        <v>62.56999969482422</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2639,10 +2639,10 @@
         <v>5</v>
       </c>
       <c r="B205">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C205" s="2">
-        <v>69.2030029296875</v>
+        <v>97.37699890136719</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2650,10 +2650,10 @@
         <v>5</v>
       </c>
       <c r="B206">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C206" s="2">
-        <v>46.67599868774414</v>
+        <v>149.875</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2661,10 +2661,10 @@
         <v>5</v>
       </c>
       <c r="B207">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C207" s="2">
-        <v>62.56999969482422</v>
+        <v>187.9640045166016</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2672,10 +2672,10 @@
         <v>5</v>
       </c>
       <c r="B208">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C208" s="2">
-        <v>97.37699890136719</v>
+        <v>194.9190063476562</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2683,10 +2683,10 @@
         <v>5</v>
       </c>
       <c r="B209">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C209" s="2">
-        <v>149.875</v>
+        <v>187.3580017089844</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2694,10 +2694,10 @@
         <v>5</v>
       </c>
       <c r="B210">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C210" s="2">
-        <v>187.9640045166016</v>
+        <v>261.4440002441406</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2705,10 +2705,10 @@
         <v>5</v>
       </c>
       <c r="B211">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C211" s="2">
-        <v>194.9190063476562</v>
+        <v>397.93701171875</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2716,10 +2716,10 @@
         <v>5</v>
       </c>
       <c r="B212">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C212" s="2">
-        <v>187.3580017089844</v>
+        <v>497.0740051269531</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2727,10 +2727,10 @@
         <v>5</v>
       </c>
       <c r="B213">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C213" s="2">
-        <v>261.4440002441406</v>
+        <v>688.2310180664062</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2738,10 +2738,10 @@
         <v>5</v>
       </c>
       <c r="B214">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C214" s="2">
-        <v>397.93701171875</v>
+        <v>939.1259765625</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2749,10 +2749,10 @@
         <v>5</v>
       </c>
       <c r="B215">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C215" s="2">
-        <v>497.0740051269531</v>
+        <v>1123.1669921875</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2760,10 +2760,10 @@
         <v>5</v>
       </c>
       <c r="B216">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C216" s="2">
-        <v>688.2310180664062</v>
+        <v>1207.449951171875</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2771,10 +2771,10 @@
         <v>5</v>
       </c>
       <c r="B217">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C217" s="2">
-        <v>939.1259765625</v>
+        <v>911.885986328125</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2782,10 +2782,10 @@
         <v>5</v>
       </c>
       <c r="B218">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C218" s="2">
-        <v>1123.1669921875</v>
+        <v>783.6690063476562</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2793,10 +2793,10 @@
         <v>5</v>
       </c>
       <c r="B219">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C219" s="2">
-        <v>1207.449951171875</v>
+        <v>813.0770263671875</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2804,10 +2804,10 @@
         <v>5</v>
       </c>
       <c r="B220">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C220" s="2">
-        <v>911.885986328125</v>
+        <v>688.2329711914062</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2815,10 +2815,10 @@
         <v>5</v>
       </c>
       <c r="B221">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C221" s="2">
-        <v>783.6690063476562</v>
+        <v>664.0050048828125</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2826,10 +2826,10 @@
         <v>5</v>
       </c>
       <c r="B222">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C222" s="2">
-        <v>813.0770263671875</v>
+        <v>644.989990234375</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2837,10 +2837,10 @@
         <v>5</v>
       </c>
       <c r="B223">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C223" s="2">
-        <v>688.2329711914062</v>
+        <v>696.7680053710938</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2848,10 +2848,10 @@
         <v>5</v>
       </c>
       <c r="B224">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C224" s="2">
-        <v>664.0050048828125</v>
+        <v>690.405029296875</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2859,10 +2859,10 @@
         <v>5</v>
       </c>
       <c r="B225">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C225" s="2">
-        <v>644.989990234375</v>
+        <v>714.4630126953125</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2870,10 +2870,10 @@
         <v>5</v>
       </c>
       <c r="B226">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C226" s="2">
-        <v>696.7680053710938</v>
+        <v>653.4140014648438</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2881,10 +2881,10 @@
         <v>5</v>
       </c>
       <c r="B227">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C227" s="2">
-        <v>690.405029296875</v>
+        <v>710.6380004882812</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2892,10 +2892,10 @@
         <v>5</v>
       </c>
       <c r="B228">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C228" s="2">
-        <v>714.4630126953125</v>
+        <v>716.885986328125</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2903,10 +2903,10 @@
         <v>5</v>
       </c>
       <c r="B229">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C229" s="2">
-        <v>653.4140014648438</v>
+        <v>534.89599609375</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2914,10 +2914,10 @@
         <v>5</v>
       </c>
       <c r="B230">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C230" s="2">
-        <v>710.6380004882812</v>
+        <v>566.2979736328125</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2925,10 +2925,10 @@
         <v>5</v>
       </c>
       <c r="B231">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C231" s="2">
-        <v>716.885986328125</v>
+        <v>528.3660278320312</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2936,10 +2936,10 @@
         <v>5</v>
       </c>
       <c r="B232">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C232" s="2">
-        <v>534.89599609375</v>
+        <v>475.3280029296875</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2947,10 +2947,10 @@
         <v>5</v>
       </c>
       <c r="B233">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C233" s="2">
-        <v>566.2979736328125</v>
+        <v>411.510009765625</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2958,10 +2958,10 @@
         <v>5</v>
       </c>
       <c r="B234">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C234" s="2">
-        <v>528.3660278320312</v>
+        <v>376.0220031738281</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2969,10 +2969,10 @@
         <v>5</v>
       </c>
       <c r="B235">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C235" s="2">
-        <v>475.3280029296875</v>
+        <v>333.9609985351562</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2980,10 +2980,10 @@
         <v>5</v>
       </c>
       <c r="B236">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C236" s="2">
-        <v>411.510009765625</v>
+        <v>283.6300048828125</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2991,10 +2991,10 @@
         <v>5</v>
       </c>
       <c r="B237">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C237" s="2">
-        <v>376.0220031738281</v>
+        <v>278.6080017089844</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3002,10 +3002,10 @@
         <v>5</v>
       </c>
       <c r="B238">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C238" s="2">
-        <v>333.9609985351562</v>
+        <v>223.1130065917969</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3013,10 +3013,10 @@
         <v>5</v>
       </c>
       <c r="B239">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C239" s="2">
-        <v>283.6300048828125</v>
+        <v>73.69200134277344</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3024,10 +3024,10 @@
         <v>5</v>
       </c>
       <c r="B240">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C240" s="2">
-        <v>278.6080017089844</v>
+        <v>80.35800170898438</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3035,10 +3035,10 @@
         <v>5</v>
       </c>
       <c r="B241">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C241" s="2">
-        <v>223.1130065917969</v>
+        <v>121.2929992675781</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3046,10 +3046,10 @@
         <v>5</v>
       </c>
       <c r="B242">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C242" s="2">
-        <v>73.69200134277344</v>
+        <v>141.9389953613281</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3057,43 +3057,43 @@
         <v>5</v>
       </c>
       <c r="B243">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C243" s="2">
-        <v>80.35800170898438</v>
+        <v>209.3500061035156</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B244">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="C244" s="2">
-        <v>121.2929992675781</v>
+        <v>257.1640014648438</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B245">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="C245" s="2">
-        <v>141.9389953613281</v>
+        <v>234.875</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B246">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="C246" s="2">
-        <v>209.3500061035156</v>
+        <v>279.5140075683594</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3101,10 +3101,10 @@
         <v>6</v>
       </c>
       <c r="B247">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C247" s="2">
-        <v>257.1640014648438</v>
+        <v>251.8710021972656</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3112,10 +3112,10 @@
         <v>6</v>
       </c>
       <c r="B248">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C248" s="2">
-        <v>234.875</v>
+        <v>225.3359985351562</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3123,10 +3123,10 @@
         <v>6</v>
       </c>
       <c r="B249">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C249" s="2">
-        <v>279.5140075683594</v>
+        <v>263.135986328125</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3134,10 +3134,10 @@
         <v>6</v>
       </c>
       <c r="B250">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C250" s="2">
-        <v>251.8710021972656</v>
+        <v>176.5659942626953</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3145,10 +3145,10 @@
         <v>6</v>
       </c>
       <c r="B251">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C251" s="2">
-        <v>225.3359985351562</v>
+        <v>188.4559936523438</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3156,10 +3156,10 @@
         <v>6</v>
       </c>
       <c r="B252">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C252" s="2">
-        <v>263.135986328125</v>
+        <v>151.2120056152344</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3167,10 +3167,10 @@
         <v>6</v>
       </c>
       <c r="B253">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C253" s="2">
-        <v>176.5659942626953</v>
+        <v>163.2619934082031</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3178,10 +3178,10 @@
         <v>6</v>
       </c>
       <c r="B254">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C254" s="2">
-        <v>188.4559936523438</v>
+        <v>173.4880065917969</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3189,10 +3189,10 @@
         <v>6</v>
       </c>
       <c r="B255">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C255" s="2">
-        <v>151.2120056152344</v>
+        <v>123.0879974365234</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3200,10 +3200,10 @@
         <v>6</v>
       </c>
       <c r="B256">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C256" s="2">
-        <v>163.2619934082031</v>
+        <v>109.5579986572266</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3211,10 +3211,10 @@
         <v>6</v>
       </c>
       <c r="B257">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C257" s="2">
-        <v>173.4880065917969</v>
+        <v>146.9969940185547</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3222,10 +3222,10 @@
         <v>6</v>
       </c>
       <c r="B258">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C258" s="2">
-        <v>123.0879974365234</v>
+        <v>131.4889984130859</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3233,10 +3233,10 @@
         <v>6</v>
       </c>
       <c r="B259">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C259" s="2">
-        <v>109.5579986572266</v>
+        <v>129.3430023193359</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3244,10 +3244,10 @@
         <v>6</v>
       </c>
       <c r="B260">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C260" s="2">
-        <v>146.9969940185547</v>
+        <v>174.8370056152344</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3255,10 +3255,10 @@
         <v>6</v>
       </c>
       <c r="B261">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C261" s="2">
-        <v>131.4889984130859</v>
+        <v>219.0859985351562</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3266,10 +3266,10 @@
         <v>6</v>
       </c>
       <c r="B262">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C262" s="2">
-        <v>129.3430023193359</v>
+        <v>265.1650085449219</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3277,10 +3277,10 @@
         <v>6</v>
       </c>
       <c r="B263">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C263" s="2">
-        <v>174.8370056152344</v>
+        <v>277.0379943847656</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3288,10 +3288,10 @@
         <v>6</v>
       </c>
       <c r="B264">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C264" s="2">
-        <v>219.0859985351562</v>
+        <v>249.3569946289062</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3299,10 +3299,10 @@
         <v>6</v>
       </c>
       <c r="B265">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C265" s="2">
-        <v>265.1650085449219</v>
+        <v>251.875</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3310,10 +3310,10 @@
         <v>6</v>
       </c>
       <c r="B266">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C266" s="2">
-        <v>277.0379943847656</v>
+        <v>240.1920013427734</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3321,10 +3321,10 @@
         <v>6</v>
       </c>
       <c r="B267">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C267" s="2">
-        <v>249.3569946289062</v>
+        <v>233.9409942626953</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3332,10 +3332,10 @@
         <v>6</v>
       </c>
       <c r="B268">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C268" s="2">
-        <v>251.875</v>
+        <v>185.9720001220703</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3343,10 +3343,10 @@
         <v>6</v>
       </c>
       <c r="B269">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C269" s="2">
-        <v>240.1920013427734</v>
+        <v>191.3350067138672</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3354,10 +3354,10 @@
         <v>6</v>
       </c>
       <c r="B270">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C270" s="2">
-        <v>233.9409942626953</v>
+        <v>228.9730072021484</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3365,10 +3365,10 @@
         <v>6</v>
       </c>
       <c r="B271">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C271" s="2">
-        <v>185.9720001220703</v>
+        <v>317.1780090332031</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3376,10 +3376,10 @@
         <v>6</v>
       </c>
       <c r="B272">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C272" s="2">
-        <v>191.3350067138672</v>
+        <v>326.1239929199219</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3387,10 +3387,10 @@
         <v>6</v>
       </c>
       <c r="B273">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C273" s="2">
-        <v>228.9730072021484</v>
+        <v>318.4030151367188</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3398,10 +3398,10 @@
         <v>6</v>
       </c>
       <c r="B274">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C274" s="2">
-        <v>317.1780090332031</v>
+        <v>516.4320068359375</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3409,10 +3409,10 @@
         <v>6</v>
       </c>
       <c r="B275">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C275" s="2">
-        <v>326.1239929199219</v>
+        <v>705.0689697265625</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3420,10 +3420,10 @@
         <v>6</v>
       </c>
       <c r="B276">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C276" s="2">
-        <v>318.4030151367188</v>
+        <v>1054.64599609375</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3431,10 +3431,10 @@
         <v>6</v>
       </c>
       <c r="B277">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C277" s="2">
-        <v>516.4320068359375</v>
+        <v>950.989990234375</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3442,10 +3442,10 @@
         <v>6</v>
       </c>
       <c r="B278">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C278" s="2">
-        <v>705.0689697265625</v>
+        <v>1080.319946289062</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3453,10 +3453,10 @@
         <v>6</v>
       </c>
       <c r="B279">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C279" s="2">
-        <v>1054.64599609375</v>
+        <v>991.8800048828125</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3464,10 +3464,10 @@
         <v>6</v>
       </c>
       <c r="B280">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C280" s="2">
-        <v>950.989990234375</v>
+        <v>1036.281005859375</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3475,10 +3475,10 @@
         <v>6</v>
       </c>
       <c r="B281">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C281" s="2">
-        <v>1080.319946289062</v>
+        <v>881.1929931640625</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3486,10 +3486,10 @@
         <v>6</v>
       </c>
       <c r="B282">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C282" s="2">
-        <v>991.8800048828125</v>
+        <v>839.281982421875</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3497,10 +3497,10 @@
         <v>6</v>
       </c>
       <c r="B283">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C283" s="2">
-        <v>1036.281005859375</v>
+        <v>1026.546997070312</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3508,10 +3508,10 @@
         <v>6</v>
       </c>
       <c r="B284">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C284" s="2">
-        <v>881.1929931640625</v>
+        <v>1190.384033203125</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3519,10 +3519,10 @@
         <v>6</v>
       </c>
       <c r="B285">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C285" s="2">
-        <v>839.281982421875</v>
+        <v>1267.838989257812</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3530,10 +3530,10 @@
         <v>6</v>
       </c>
       <c r="B286">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C286" s="2">
-        <v>1026.546997070312</v>
+        <v>1307.779052734375</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3541,10 +3541,10 @@
         <v>6</v>
       </c>
       <c r="B287">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C287" s="2">
-        <v>1190.384033203125</v>
+        <v>1204.134033203125</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3552,10 +3552,10 @@
         <v>6</v>
       </c>
       <c r="B288">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C288" s="2">
-        <v>1267.838989257812</v>
+        <v>1244.159057617188</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3563,10 +3563,10 @@
         <v>6</v>
       </c>
       <c r="B289">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C289" s="2">
-        <v>1307.779052734375</v>
+        <v>1123.943969726562</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3574,10 +3574,10 @@
         <v>6</v>
       </c>
       <c r="B290">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C290" s="2">
-        <v>1204.134033203125</v>
+        <v>1240.5830078125</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3585,10 +3585,10 @@
         <v>6</v>
       </c>
       <c r="B291">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C291" s="2">
-        <v>1244.159057617188</v>
+        <v>1435.800048828125</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3596,10 +3596,10 @@
         <v>6</v>
       </c>
       <c r="B292">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C292" s="2">
-        <v>1123.943969726562</v>
+        <v>1429.326049804688</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3607,10 +3607,10 @@
         <v>6</v>
       </c>
       <c r="B293">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C293" s="2">
-        <v>1240.5830078125</v>
+        <v>1566.677001953125</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3618,10 +3618,10 @@
         <v>6</v>
       </c>
       <c r="B294">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C294" s="2">
-        <v>1435.800048828125</v>
+        <v>1731.546997070312</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3629,10 +3629,10 @@
         <v>6</v>
       </c>
       <c r="B295">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C295" s="2">
-        <v>1429.326049804688</v>
+        <v>1759.328002929688</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3640,10 +3640,10 @@
         <v>6</v>
       </c>
       <c r="B296">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C296" s="2">
-        <v>1566.677001953125</v>
+        <v>1819.254028320312</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3651,10 +3651,10 @@
         <v>6</v>
       </c>
       <c r="B297">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C297" s="2">
-        <v>1731.546997070312</v>
+        <v>1855.27099609375</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3662,10 +3662,10 @@
         <v>6</v>
       </c>
       <c r="B298">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C298" s="2">
-        <v>1759.328002929688</v>
+        <v>1983.18896484375</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3673,10 +3673,10 @@
         <v>6</v>
       </c>
       <c r="B299">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C299" s="2">
-        <v>1819.254028320312</v>
+        <v>1992.241943359375</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3684,10 +3684,10 @@
         <v>6</v>
       </c>
       <c r="B300">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C300" s="2">
-        <v>1855.27099609375</v>
+        <v>2090.43798828125</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3695,10 +3695,10 @@
         <v>6</v>
       </c>
       <c r="B301">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C301" s="2">
-        <v>1983.18896484375</v>
+        <v>2098.9580078125</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3706,10 +3706,10 @@
         <v>6</v>
       </c>
       <c r="B302">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C302" s="2">
-        <v>1992.241943359375</v>
+        <v>2139.2939453125</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3717,10 +3717,10 @@
         <v>6</v>
       </c>
       <c r="B303">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C303" s="2">
-        <v>2090.43798828125</v>
+        <v>2152.2900390625</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3728,10 +3728,10 @@
         <v>6</v>
       </c>
       <c r="B304">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C304" s="2">
-        <v>2098.9580078125</v>
+        <v>2180.452880859375</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3739,10 +3739,10 @@
         <v>6</v>
       </c>
       <c r="B305">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C305" s="2">
-        <v>2139.2939453125</v>
+        <v>2093.989013671875</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3750,10 +3750,10 @@
         <v>6</v>
       </c>
       <c r="B306">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C306" s="2">
-        <v>2152.2900390625</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3761,10 +3761,10 @@
         <v>6</v>
       </c>
       <c r="B307">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C307" s="2">
-        <v>2180.452880859375</v>
+        <v>1868.001953125</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3772,10 +3772,10 @@
         <v>6</v>
       </c>
       <c r="B308">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C308" s="2">
-        <v>2093.989013671875</v>
+        <v>1925.880981445312</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3783,10 +3783,10 @@
         <v>6</v>
       </c>
       <c r="B309">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C309" s="2">
-        <v>2023</v>
+        <v>1821.9189453125</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3794,10 +3794,10 @@
         <v>6</v>
       </c>
       <c r="B310">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C310" s="2">
-        <v>1868.001953125</v>
+        <v>1800.68896484375</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3805,10 +3805,10 @@
         <v>6</v>
       </c>
       <c r="B311">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C311" s="2">
-        <v>1925.880981445312</v>
+        <v>2203.43994140625</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3816,10 +3816,10 @@
         <v>6</v>
       </c>
       <c r="B312">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C312" s="2">
-        <v>1821.9189453125</v>
+        <v>2265.241943359375</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3827,10 +3827,10 @@
         <v>6</v>
       </c>
       <c r="B313">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C313" s="2">
-        <v>1800.68896484375</v>
+        <v>2100.72900390625</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3838,10 +3838,10 @@
         <v>6</v>
       </c>
       <c r="B314">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C314" s="2">
-        <v>2203.43994140625</v>
+        <v>1903.0009765625</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3849,10 +3849,10 @@
         <v>6</v>
       </c>
       <c r="B315">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C315" s="2">
-        <v>2265.241943359375</v>
+        <v>1825.800048828125</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3860,10 +3860,10 @@
         <v>6</v>
       </c>
       <c r="B316">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C316" s="2">
-        <v>2100.72900390625</v>
+        <v>1824.5400390625</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -3871,10 +3871,10 @@
         <v>6</v>
       </c>
       <c r="B317">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C317" s="2">
-        <v>1903.0009765625</v>
+        <v>1762.965942382812</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -3882,10 +3882,10 @@
         <v>6</v>
       </c>
       <c r="B318">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C318" s="2">
-        <v>1825.800048828125</v>
+        <v>1788.5810546875</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -3893,10 +3893,10 @@
         <v>6</v>
       </c>
       <c r="B319">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C319" s="2">
-        <v>1824.5400390625</v>
+        <v>1737.156005859375</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -3904,10 +3904,10 @@
         <v>6</v>
       </c>
       <c r="B320">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C320" s="2">
-        <v>1762.965942382812</v>
+        <v>1734.9990234375</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -3915,10 +3915,10 @@
         <v>6</v>
       </c>
       <c r="B321">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C321" s="2">
-        <v>1788.5810546875</v>
+        <v>1614.008056640625</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -3926,10 +3926,10 @@
         <v>6</v>
       </c>
       <c r="B322">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C322" s="2">
-        <v>1737.156005859375</v>
+        <v>1654.110961914062</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -3937,10 +3937,10 @@
         <v>6</v>
       </c>
       <c r="B323">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C323" s="2">
-        <v>1734.9990234375</v>
+        <v>1483.260986328125</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -3948,10 +3948,10 @@
         <v>6</v>
       </c>
       <c r="B324">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C324" s="2">
-        <v>1614.008056640625</v>
+        <v>1444.753051757812</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -3959,10 +3959,10 @@
         <v>6</v>
       </c>
       <c r="B325">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C325" s="2">
-        <v>1654.110961914062</v>
+        <v>1356.953002929688</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -3970,10 +3970,10 @@
         <v>6</v>
       </c>
       <c r="B326">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C326" s="2">
-        <v>1483.260986328125</v>
+        <v>1354.990966796875</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -3981,10 +3981,10 @@
         <v>6</v>
       </c>
       <c r="B327">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C327" s="2">
-        <v>1444.753051757812</v>
+        <v>1320.1689453125</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -3992,10 +3992,10 @@
         <v>6</v>
       </c>
       <c r="B328">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C328" s="2">
-        <v>1356.953002929688</v>
+        <v>1337.077026367188</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -4003,10 +4003,10 @@
         <v>6</v>
       </c>
       <c r="B329">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C329" s="2">
-        <v>1354.990966796875</v>
+        <v>1365.193969726562</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -4014,10 +4014,10 @@
         <v>6</v>
       </c>
       <c r="B330">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C330" s="2">
-        <v>1320.1689453125</v>
+        <v>1428.536010742188</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4025,10 +4025,10 @@
         <v>6</v>
       </c>
       <c r="B331">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C331" s="2">
-        <v>1337.077026367188</v>
+        <v>1479.517944335938</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4036,10 +4036,10 @@
         <v>6</v>
       </c>
       <c r="B332">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C332" s="2">
-        <v>1365.193969726562</v>
+        <v>1493.864990234375</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4047,10 +4047,10 @@
         <v>6</v>
       </c>
       <c r="B333">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C333" s="2">
-        <v>1428.536010742188</v>
+        <v>1549.235961914062</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4058,10 +4058,10 @@
         <v>6</v>
       </c>
       <c r="B334">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C334" s="2">
-        <v>1479.517944335938</v>
+        <v>1601.083984375</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4069,10 +4069,10 @@
         <v>6</v>
       </c>
       <c r="B335">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C335" s="2">
-        <v>1493.864990234375</v>
+        <v>1585.97705078125</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4080,10 +4080,10 @@
         <v>6</v>
       </c>
       <c r="B336">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C336" s="2">
-        <v>1549.235961914062</v>
+        <v>1594.2900390625</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4091,10 +4091,10 @@
         <v>6</v>
       </c>
       <c r="B337">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C337" s="2">
-        <v>1601.083984375</v>
+        <v>1592.4169921875</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4102,10 +4102,10 @@
         <v>6</v>
       </c>
       <c r="B338">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C338" s="2">
-        <v>1585.97705078125</v>
+        <v>1467.982055664062</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4113,43 +4113,43 @@
         <v>6</v>
       </c>
       <c r="B339">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C339" s="2">
-        <v>1594.2900390625</v>
+        <v>1375.907958984375</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B340">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="C340" s="2">
-        <v>1592.4169921875</v>
+        <v>1445.14697265625</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B341">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="C341" s="2">
-        <v>1467.982055664062</v>
+        <v>1410.27001953125</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B342">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="C342" s="2">
-        <v>1375.907958984375</v>
+        <v>1448.744995117188</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4157,10 +4157,10 @@
         <v>7</v>
       </c>
       <c r="B343">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C343" s="2">
-        <v>1445.14697265625</v>
+        <v>1494.608032226562</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4168,10 +4168,10 @@
         <v>7</v>
       </c>
       <c r="B344">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C344" s="2">
-        <v>1410.27001953125</v>
+        <v>1544.114990234375</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4179,10 +4179,10 @@
         <v>7</v>
       </c>
       <c r="B345">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C345" s="2">
-        <v>1448.744995117188</v>
+        <v>1548.72802734375</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4190,10 +4190,10 @@
         <v>7</v>
       </c>
       <c r="B346">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C346" s="2">
-        <v>1494.608032226562</v>
+        <v>1550.086059570312</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -4201,10 +4201,10 @@
         <v>7</v>
       </c>
       <c r="B347">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C347" s="2">
-        <v>1544.114990234375</v>
+        <v>1592.933959960938</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4212,10 +4212,10 @@
         <v>7</v>
       </c>
       <c r="B348">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C348" s="2">
-        <v>1548.72802734375</v>
+        <v>1574.373046875</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -4223,10 +4223,10 @@
         <v>7</v>
       </c>
       <c r="B349">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C349" s="2">
-        <v>1550.086059570312</v>
+        <v>1509.340942382812</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4234,10 +4234,10 @@
         <v>7</v>
       </c>
       <c r="B350">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C350" s="2">
-        <v>1592.933959960938</v>
+        <v>1524.547973632812</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -4245,10 +4245,10 @@
         <v>7</v>
       </c>
       <c r="B351">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C351" s="2">
-        <v>1574.373046875</v>
+        <v>1643.333984375</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4256,10 +4256,10 @@
         <v>7</v>
       </c>
       <c r="B352">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C352" s="2">
-        <v>1509.340942382812</v>
+        <v>1632.949951171875</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4267,10 +4267,10 @@
         <v>7</v>
       </c>
       <c r="B353">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C353" s="2">
-        <v>1524.547973632812</v>
+        <v>1586.901000976562</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4278,10 +4278,10 @@
         <v>7</v>
       </c>
       <c r="B354">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C354" s="2">
-        <v>1643.333984375</v>
+        <v>1581.735961914062</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4289,10 +4289,10 @@
         <v>7</v>
       </c>
       <c r="B355">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C355" s="2">
-        <v>1632.949951171875</v>
+        <v>1561.178955078125</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4300,10 +4300,10 @@
         <v>7</v>
       </c>
       <c r="B356">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C356" s="2">
-        <v>1586.901000976562</v>
+        <v>1630.621948242188</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -4311,10 +4311,10 @@
         <v>7</v>
       </c>
       <c r="B357">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C357" s="2">
-        <v>1581.735961914062</v>
+        <v>1602.31298828125</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -4322,10 +4322,10 @@
         <v>7</v>
       </c>
       <c r="B358">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C358" s="2">
-        <v>1561.178955078125</v>
+        <v>1584.0400390625</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4333,10 +4333,10 @@
         <v>7</v>
       </c>
       <c r="B359">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C359" s="2">
-        <v>1630.621948242188</v>
+        <v>1537.232055664062</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4344,10 +4344,10 @@
         <v>7</v>
       </c>
       <c r="B360">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C360" s="2">
-        <v>1602.31298828125</v>
+        <v>1518.170043945312</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4355,10 +4355,10 @@
         <v>7</v>
       </c>
       <c r="B361">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C361" s="2">
-        <v>1584.0400390625</v>
+        <v>1632.517944335938</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4366,10 +4366,10 @@
         <v>7</v>
       </c>
       <c r="B362">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C362" s="2">
-        <v>1537.232055664062</v>
+        <v>1683.545043945312</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4377,10 +4377,10 @@
         <v>7</v>
       </c>
       <c r="B363">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C363" s="2">
-        <v>1518.170043945312</v>
+        <v>1670.614990234375</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4388,10 +4388,10 @@
         <v>7</v>
       </c>
       <c r="B364">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C364" s="2">
-        <v>1632.517944335938</v>
+        <v>1799.70703125</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4399,10 +4399,10 @@
         <v>7</v>
       </c>
       <c r="B365">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C365" s="2">
-        <v>1683.545043945312</v>
+        <v>1846.697998046875</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4410,10 +4410,10 @@
         <v>7</v>
       </c>
       <c r="B366">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C366" s="2">
-        <v>1670.614990234375</v>
+        <v>2037.109985351562</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -4421,10 +4421,10 @@
         <v>7</v>
       </c>
       <c r="B367">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C367" s="2">
-        <v>1799.70703125</v>
+        <v>2293.18505859375</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -4432,10 +4432,10 @@
         <v>7</v>
       </c>
       <c r="B368">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C368" s="2">
-        <v>1846.697998046875</v>
+        <v>2259.762939453125</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4443,10 +4443,10 @@
         <v>7</v>
       </c>
       <c r="B369">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C369" s="2">
-        <v>2037.109985351562</v>
+        <v>2205.952880859375</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -4454,10 +4454,10 @@
         <v>7</v>
       </c>
       <c r="B370">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C370" s="2">
-        <v>2293.18505859375</v>
+        <v>2120.30908203125</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -4465,10 +4465,10 @@
         <v>7</v>
       </c>
       <c r="B371">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C371" s="2">
-        <v>2259.762939453125</v>
+        <v>2228.50390625</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -4476,10 +4476,10 @@
         <v>7</v>
       </c>
       <c r="B372">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C372" s="2">
-        <v>2205.952880859375</v>
+        <v>2487.662109375</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -4487,10 +4487,10 @@
         <v>7</v>
       </c>
       <c r="B373">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C373" s="2">
-        <v>2120.30908203125</v>
+        <v>2400.054931640625</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4498,10 +4498,10 @@
         <v>7</v>
       </c>
       <c r="B374">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C374" s="2">
-        <v>2228.50390625</v>
+        <v>2379.448974609375</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4509,10 +4509,10 @@
         <v>7</v>
       </c>
       <c r="B375">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C375" s="2">
-        <v>2487.662109375</v>
+        <v>2400.43408203125</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4520,10 +4520,10 @@
         <v>7</v>
       </c>
       <c r="B376">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C376" s="2">
-        <v>2400.054931640625</v>
+        <v>2353.238037109375</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -4531,10 +4531,10 @@
         <v>7</v>
       </c>
       <c r="B377">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C377" s="2">
-        <v>2379.448974609375</v>
+        <v>2450.986083984375</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -4542,10 +4542,10 @@
         <v>7</v>
       </c>
       <c r="B378">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C378" s="2">
-        <v>2400.43408203125</v>
+        <v>2417.139892578125</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -4553,10 +4553,10 @@
         <v>7</v>
       </c>
       <c r="B379">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C379" s="2">
-        <v>2353.238037109375</v>
+        <v>2436.199951171875</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -4564,10 +4564,10 @@
         <v>7</v>
       </c>
       <c r="B380">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C380" s="2">
-        <v>2450.986083984375</v>
+        <v>2411.68896484375</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4575,10 +4575,10 @@
         <v>7</v>
       </c>
       <c r="B381">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C381" s="2">
-        <v>2417.139892578125</v>
+        <v>2440.64892578125</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4586,10 +4586,10 @@
         <v>7</v>
       </c>
       <c r="B382">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C382" s="2">
-        <v>2436.199951171875</v>
+        <v>2429.06201171875</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4597,10 +4597,10 @@
         <v>7</v>
       </c>
       <c r="B383">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C383" s="2">
-        <v>2411.68896484375</v>
+        <v>2451.080078125</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4608,10 +4608,10 @@
         <v>7</v>
       </c>
       <c r="B384">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C384" s="2">
-        <v>2440.64892578125</v>
+        <v>2453.654052734375</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -4619,10 +4619,10 @@
         <v>7</v>
       </c>
       <c r="B385">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C385" s="2">
-        <v>2429.06201171875</v>
+        <v>2500.200927734375</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -4630,10 +4630,10 @@
         <v>7</v>
       </c>
       <c r="B386">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C386" s="2">
-        <v>2451.080078125</v>
+        <v>2509.2490234375</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -4641,10 +4641,10 @@
         <v>7</v>
       </c>
       <c r="B387">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C387" s="2">
-        <v>2453.654052734375</v>
+        <v>2519.327880859375</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -4652,10 +4652,10 @@
         <v>7</v>
       </c>
       <c r="B388">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C388" s="2">
-        <v>2500.200927734375</v>
+        <v>2490.47509765625</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4663,10 +4663,10 @@
         <v>7</v>
       </c>
       <c r="B389">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C389" s="2">
-        <v>2509.2490234375</v>
+        <v>2522.2490234375</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -4674,10 +4674,10 @@
         <v>7</v>
       </c>
       <c r="B390">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C390" s="2">
-        <v>2519.327880859375</v>
+        <v>2538.501953125</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -4685,10 +4685,10 @@
         <v>7</v>
       </c>
       <c r="B391">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C391" s="2">
-        <v>2490.47509765625</v>
+        <v>2572.510009765625</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4696,10 +4696,10 @@
         <v>7</v>
       </c>
       <c r="B392">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C392" s="2">
-        <v>2522.2490234375</v>
+        <v>2556.860107421875</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -4707,10 +4707,10 @@
         <v>7</v>
       </c>
       <c r="B393">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C393" s="2">
-        <v>2538.501953125</v>
+        <v>2577.18408203125</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -4718,10 +4718,10 @@
         <v>7</v>
       </c>
       <c r="B394">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C394" s="2">
-        <v>2572.510009765625</v>
+        <v>2567.56201171875</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -4729,10 +4729,10 @@
         <v>7</v>
       </c>
       <c r="B395">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C395" s="2">
-        <v>2556.860107421875</v>
+        <v>2564.1708984375</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -4740,10 +4740,10 @@
         <v>7</v>
       </c>
       <c r="B396">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C396" s="2">
-        <v>2577.18408203125</v>
+        <v>2570.993896484375</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -4751,10 +4751,10 @@
         <v>7</v>
       </c>
       <c r="B397">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C397" s="2">
-        <v>2567.56201171875</v>
+        <v>2581.26708984375</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -4762,10 +4762,10 @@
         <v>7</v>
       </c>
       <c r="B398">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C398" s="2">
-        <v>2564.1708984375</v>
+        <v>2526.947998046875</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -4773,10 +4773,10 @@
         <v>7</v>
       </c>
       <c r="B399">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C399" s="2">
-        <v>2570.993896484375</v>
+        <v>2560.178955078125</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -4784,10 +4784,10 @@
         <v>7</v>
       </c>
       <c r="B400">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C400" s="2">
-        <v>2581.26708984375</v>
+        <v>2572.35791015625</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -4795,10 +4795,10 @@
         <v>7</v>
       </c>
       <c r="B401">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C401" s="2">
-        <v>2526.947998046875</v>
+        <v>2588.22900390625</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -4806,10 +4806,10 @@
         <v>7</v>
       </c>
       <c r="B402">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C402" s="2">
-        <v>2560.178955078125</v>
+        <v>2556.632080078125</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -4817,10 +4817,10 @@
         <v>7</v>
       </c>
       <c r="B403">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C403" s="2">
-        <v>2572.35791015625</v>
+        <v>2541.030029296875</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -4828,10 +4828,10 @@
         <v>7</v>
       </c>
       <c r="B404">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C404" s="2">
-        <v>2588.22900390625</v>
+        <v>2595.051025390625</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -4839,10 +4839,10 @@
         <v>7</v>
       </c>
       <c r="B405">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C405" s="2">
-        <v>2556.632080078125</v>
+        <v>2578.699951171875</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -4850,10 +4850,10 @@
         <v>7</v>
       </c>
       <c r="B406">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C406" s="2">
-        <v>2541.030029296875</v>
+        <v>2574.81005859375</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -4861,10 +4861,10 @@
         <v>7</v>
       </c>
       <c r="B407">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C407" s="2">
-        <v>2595.051025390625</v>
+        <v>2464.298095703125</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -4872,10 +4872,10 @@
         <v>7</v>
       </c>
       <c r="B408">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C408" s="2">
-        <v>2578.699951171875</v>
+        <v>2353.364990234375</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -4883,10 +4883,10 @@
         <v>7</v>
       </c>
       <c r="B409">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C409" s="2">
-        <v>2574.81005859375</v>
+        <v>2215.278076171875</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -4894,10 +4894,10 @@
         <v>7</v>
       </c>
       <c r="B410">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C410" s="2">
-        <v>2464.298095703125</v>
+        <v>2161.113037109375</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -4905,10 +4905,10 @@
         <v>7</v>
       </c>
       <c r="B411">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C411" s="2">
-        <v>2353.364990234375</v>
+        <v>2175.322021484375</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -4916,10 +4916,10 @@
         <v>7</v>
       </c>
       <c r="B412">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C412" s="2">
-        <v>2215.278076171875</v>
+        <v>2147.929931640625</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -4927,10 +4927,10 @@
         <v>7</v>
       </c>
       <c r="B413">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C413" s="2">
-        <v>2161.113037109375</v>
+        <v>2157.77490234375</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -4938,10 +4938,10 @@
         <v>7</v>
       </c>
       <c r="B414">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C414" s="2">
-        <v>2175.322021484375</v>
+        <v>2204.597900390625</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -4949,10 +4949,10 @@
         <v>7</v>
       </c>
       <c r="B415">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C415" s="2">
-        <v>2147.929931640625</v>
+        <v>2218.429931640625</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -4960,10 +4960,10 @@
         <v>7</v>
       </c>
       <c r="B416">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C416" s="2">
-        <v>2157.77490234375</v>
+        <v>2273.5849609375</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -4971,10 +4971,10 @@
         <v>7</v>
       </c>
       <c r="B417">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C417" s="2">
-        <v>2204.597900390625</v>
+        <v>2278.0380859375</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -4982,10 +4982,10 @@
         <v>7</v>
       </c>
       <c r="B418">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C418" s="2">
-        <v>2218.429931640625</v>
+        <v>2261.1220703125</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -4993,10 +4993,10 @@
         <v>7</v>
       </c>
       <c r="B419">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C419" s="2">
-        <v>2273.5849609375</v>
+        <v>2259.19091796875</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -5004,10 +5004,10 @@
         <v>7</v>
       </c>
       <c r="B420">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C420" s="2">
-        <v>2278.0380859375</v>
+        <v>2263.06591796875</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -5015,10 +5015,10 @@
         <v>7</v>
       </c>
       <c r="B421">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C421" s="2">
-        <v>2261.1220703125</v>
+        <v>2266.285888671875</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -5026,10 +5026,10 @@
         <v>7</v>
       </c>
       <c r="B422">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C422" s="2">
-        <v>2259.19091796875</v>
+        <v>2227.06689453125</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -5037,10 +5037,10 @@
         <v>7</v>
       </c>
       <c r="B423">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C423" s="2">
-        <v>2263.06591796875</v>
+        <v>2005.27294921875</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -5048,10 +5048,10 @@
         <v>7</v>
       </c>
       <c r="B424">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C424" s="2">
-        <v>2266.285888671875</v>
+        <v>2020.468017578125</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -5059,10 +5059,10 @@
         <v>7</v>
       </c>
       <c r="B425">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C425" s="2">
-        <v>2227.06689453125</v>
+        <v>2031.237060546875</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -5070,10 +5070,10 @@
         <v>7</v>
       </c>
       <c r="B426">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C426" s="2">
-        <v>2005.27294921875</v>
+        <v>2011.83203125</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -5081,10 +5081,10 @@
         <v>7</v>
       </c>
       <c r="B427">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C427" s="2">
-        <v>2020.468017578125</v>
+        <v>2053.947998046875</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -5092,10 +5092,10 @@
         <v>7</v>
       </c>
       <c r="B428">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C428" s="2">
-        <v>2031.237060546875</v>
+        <v>2026.4990234375</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -5103,10 +5103,10 @@
         <v>7</v>
       </c>
       <c r="B429">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C429" s="2">
-        <v>2011.83203125</v>
+        <v>2035.295043945312</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -5114,10 +5114,10 @@
         <v>7</v>
       </c>
       <c r="B430">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C430" s="2">
-        <v>2053.947998046875</v>
+        <v>1997.475952148438</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -5125,10 +5125,10 @@
         <v>7</v>
       </c>
       <c r="B431">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C431" s="2">
-        <v>2026.4990234375</v>
+        <v>2033.259033203125</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -5136,10 +5136,10 @@
         <v>7</v>
       </c>
       <c r="B432">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C432" s="2">
-        <v>2035.295043945312</v>
+        <v>2027.732055664062</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -5147,10 +5147,10 @@
         <v>7</v>
       </c>
       <c r="B433">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C433" s="2">
-        <v>1997.475952148438</v>
+        <v>2035.201049804688</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -5158,10 +5158,10 @@
         <v>7</v>
       </c>
       <c r="B434">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C434" s="2">
-        <v>2033.259033203125</v>
+        <v>2054.10400390625</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -5169,43 +5169,43 @@
         <v>7</v>
       </c>
       <c r="B435">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C435" s="2">
-        <v>2027.732055664062</v>
+        <v>2175.367919921875</v>
       </c>
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B436">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="C436" s="2">
-        <v>2035.201049804688</v>
+        <v>2145.60009765625</v>
       </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B437">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="C437" s="2">
-        <v>2054.10400390625</v>
+        <v>2093.30908203125</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B438">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="C438" s="2">
-        <v>2175.367919921875</v>
+        <v>2019.93896484375</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -5213,10 +5213,10 @@
         <v>8</v>
       </c>
       <c r="B439">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C439" s="2">
-        <v>2145.60009765625</v>
+        <v>2048.76806640625</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -5224,10 +5224,10 @@
         <v>8</v>
       </c>
       <c r="B440">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C440" s="2">
-        <v>2093.30908203125</v>
+        <v>2001.774047851562</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -5235,10 +5235,10 @@
         <v>8</v>
       </c>
       <c r="B441">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C441" s="2">
-        <v>2019.93896484375</v>
+        <v>1748.223999023438</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -5246,10 +5246,10 @@
         <v>8</v>
       </c>
       <c r="B442">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C442" s="2">
-        <v>2048.76806640625</v>
+        <v>1694.303955078125</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -5257,10 +5257,10 @@
         <v>8</v>
       </c>
       <c r="B443">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C443" s="2">
-        <v>2001.774047851562</v>
+        <v>1626.108032226562</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -5268,10 +5268,10 @@
         <v>8</v>
       </c>
       <c r="B444">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C444" s="2">
-        <v>1748.223999023438</v>
+        <v>1426.906982421875</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -5279,10 +5279,10 @@
         <v>8</v>
       </c>
       <c r="B445">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C445" s="2">
-        <v>1694.303955078125</v>
+        <v>1395.711059570312</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -5290,10 +5290,10 @@
         <v>8</v>
       </c>
       <c r="B446">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C446" s="2">
-        <v>1626.108032226562</v>
+        <v>1425.822021484375</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -5301,10 +5301,10 @@
         <v>8</v>
       </c>
       <c r="B447">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C447" s="2">
-        <v>1426.906982421875</v>
+        <v>1366.537963867188</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -5312,10 +5312,10 @@
         <v>8</v>
       </c>
       <c r="B448">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C448" s="2">
-        <v>1395.711059570312</v>
+        <v>1469.944946289062</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -5323,10 +5323,10 @@
         <v>8</v>
       </c>
       <c r="B449">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C449" s="2">
-        <v>1425.822021484375</v>
+        <v>1584.586059570312</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -5334,10 +5334,10 @@
         <v>8</v>
       </c>
       <c r="B450">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C450" s="2">
-        <v>1366.537963867188</v>
+        <v>1598.45703125</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -5345,10 +5345,10 @@
         <v>8</v>
       </c>
       <c r="B451">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C451" s="2">
-        <v>1469.944946289062</v>
+        <v>1666.31103515625</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -5356,10 +5356,10 @@
         <v>8</v>
       </c>
       <c r="B452">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C452" s="2">
-        <v>1584.586059570312</v>
+        <v>1712.079956054688</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -5367,10 +5367,10 @@
         <v>8</v>
       </c>
       <c r="B453">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C453" s="2">
-        <v>1598.45703125</v>
+        <v>1678.433959960938</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -5378,10 +5378,10 @@
         <v>8</v>
       </c>
       <c r="B454">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C454" s="2">
-        <v>1666.31103515625</v>
+        <v>1275.265014648438</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -5389,10 +5389,10 @@
         <v>8</v>
       </c>
       <c r="B455">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C455" s="2">
-        <v>1712.079956054688</v>
+        <v>1292.31103515625</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -5400,10 +5400,10 @@
         <v>8</v>
       </c>
       <c r="B456">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C456" s="2">
-        <v>1678.433959960938</v>
+        <v>1058.526000976562</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -5411,10 +5411,10 @@
         <v>8</v>
       </c>
       <c r="B457">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C457" s="2">
-        <v>1275.265014648438</v>
+        <v>927.06201171875</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -5422,10 +5422,10 @@
         <v>8</v>
       </c>
       <c r="B458">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C458" s="2">
-        <v>1292.31103515625</v>
+        <v>839.8699951171875</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -5433,10 +5433,10 @@
         <v>8</v>
       </c>
       <c r="B459">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C459" s="2">
-        <v>1058.526000976562</v>
+        <v>833.6079711914062</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -5444,10 +5444,10 @@
         <v>8</v>
       </c>
       <c r="B460">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C460" s="2">
-        <v>927.06201171875</v>
+        <v>883.6909790039062</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -5455,10 +5455,10 @@
         <v>8</v>
       </c>
       <c r="B461">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C461" s="2">
-        <v>839.8699951171875</v>
+        <v>829.469970703125</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -5466,10 +5466,10 @@
         <v>8</v>
       </c>
       <c r="B462">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C462" s="2">
-        <v>833.6079711914062</v>
+        <v>767.3179931640625</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -5477,10 +5477,10 @@
         <v>8</v>
       </c>
       <c r="B463">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C463" s="2">
-        <v>883.6909790039062</v>
+        <v>778.7249755859375</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -5488,10 +5488,10 @@
         <v>8</v>
       </c>
       <c r="B464">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C464" s="2">
-        <v>829.469970703125</v>
+        <v>617.2009887695312</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -5499,10 +5499,10 @@
         <v>8</v>
       </c>
       <c r="B465">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C465" s="2">
-        <v>767.3179931640625</v>
+        <v>516.3350219726562</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -5510,10 +5510,10 @@
         <v>8</v>
       </c>
       <c r="B466">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C466" s="2">
-        <v>778.7249755859375</v>
+        <v>372.3659973144531</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -5521,10 +5521,10 @@
         <v>8</v>
       </c>
       <c r="B467">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C467" s="2">
-        <v>617.2009887695312</v>
+        <v>263.3200073242188</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -5532,10 +5532,10 @@
         <v>8</v>
       </c>
       <c r="B468">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C468" s="2">
-        <v>516.3350219726562</v>
+        <v>214.5099945068359</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -5543,10 +5543,10 @@
         <v>8</v>
       </c>
       <c r="B469">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C469" s="2">
-        <v>372.3659973144531</v>
+        <v>186.8260040283203</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -5554,10 +5554,10 @@
         <v>8</v>
       </c>
       <c r="B470">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C470" s="2">
-        <v>263.3200073242188</v>
+        <v>152.4069976806641</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -5565,10 +5565,10 @@
         <v>8</v>
       </c>
       <c r="B471">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C471" s="2">
-        <v>214.5099945068359</v>
+        <v>196.8240051269531</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -5576,10 +5576,10 @@
         <v>8</v>
       </c>
       <c r="B472">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C472" s="2">
-        <v>186.8260040283203</v>
+        <v>126.7699966430664</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -5587,10 +5587,10 @@
         <v>8</v>
       </c>
       <c r="B473">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C473" s="2">
-        <v>152.4069976806641</v>
+        <v>166.6300048828125</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -5598,10 +5598,10 @@
         <v>8</v>
       </c>
       <c r="B474">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C474" s="2">
-        <v>196.8240051269531</v>
+        <v>195.0839996337891</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -5609,10 +5609,10 @@
         <v>8</v>
       </c>
       <c r="B475">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C475" s="2">
-        <v>126.7699966430664</v>
+        <v>261.9649963378906</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -5620,10 +5620,10 @@
         <v>8</v>
       </c>
       <c r="B476">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C476" s="2">
-        <v>166.6300048828125</v>
+        <v>208.0489959716797</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -5631,10 +5631,10 @@
         <v>8</v>
       </c>
       <c r="B477">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C477" s="2">
-        <v>195.0839996337891</v>
+        <v>232.9660034179688</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -5642,10 +5642,10 @@
         <v>8</v>
       </c>
       <c r="B478">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C478" s="2">
-        <v>261.9649963378906</v>
+        <v>188.9470062255859</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -5653,10 +5653,10 @@
         <v>8</v>
       </c>
       <c r="B479">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C479" s="2">
-        <v>208.0489959716797</v>
+        <v>208.5919952392578</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -5664,10 +5664,10 @@
         <v>8</v>
       </c>
       <c r="B480">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C480" s="2">
-        <v>232.9660034179688</v>
+        <v>297.5950012207031</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -5675,10 +5675,10 @@
         <v>8</v>
       </c>
       <c r="B481">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C481" s="2">
-        <v>188.9470062255859</v>
+        <v>387.3630065917969</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -5686,10 +5686,10 @@
         <v>8</v>
       </c>
       <c r="B482">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C482" s="2">
-        <v>208.5919952392578</v>
+        <v>425.7200012207031</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -5697,10 +5697,10 @@
         <v>8</v>
       </c>
       <c r="B483">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C483" s="2">
-        <v>297.5950012207031</v>
+        <v>505.6329956054688</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -5708,10 +5708,10 @@
         <v>8</v>
       </c>
       <c r="B484">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C484" s="2">
-        <v>387.3630065917969</v>
+        <v>536.5830078125</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -5719,10 +5719,10 @@
         <v>8</v>
       </c>
       <c r="B485">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C485" s="2">
-        <v>425.7200012207031</v>
+        <v>600.3270263671875</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -5730,10 +5730,10 @@
         <v>8</v>
       </c>
       <c r="B486">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C486" s="2">
-        <v>505.6329956054688</v>
+        <v>735.1749877929688</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -5741,10 +5741,10 @@
         <v>8</v>
       </c>
       <c r="B487">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C487" s="2">
-        <v>536.5830078125</v>
+        <v>755.6090087890625</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -5752,10 +5752,10 @@
         <v>8</v>
       </c>
       <c r="B488">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C488" s="2">
-        <v>600.3270263671875</v>
+        <v>813.8779907226562</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -5763,10 +5763,10 @@
         <v>8</v>
       </c>
       <c r="B489">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C489" s="2">
-        <v>735.1749877929688</v>
+        <v>786.6380004882812</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -5774,10 +5774,10 @@
         <v>8</v>
       </c>
       <c r="B490">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C490" s="2">
-        <v>755.6090087890625</v>
+        <v>719.447998046875</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -5785,10 +5785,10 @@
         <v>8</v>
       </c>
       <c r="B491">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C491" s="2">
-        <v>813.8779907226562</v>
+        <v>572.5059814453125</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -5796,10 +5796,10 @@
         <v>8</v>
       </c>
       <c r="B492">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C492" s="2">
-        <v>786.6380004882812</v>
+        <v>552.8619995117188</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -5807,10 +5807,10 @@
         <v>8</v>
       </c>
       <c r="B493">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C493" s="2">
-        <v>719.447998046875</v>
+        <v>496.1470031738281</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -5818,10 +5818,10 @@
         <v>8</v>
       </c>
       <c r="B494">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C494" s="2">
-        <v>572.5059814453125</v>
+        <v>330.0920104980469</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -5829,10 +5829,10 @@
         <v>8</v>
       </c>
       <c r="B495">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C495" s="2">
-        <v>552.8619995117188</v>
+        <v>358.0480041503906</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -5840,10 +5840,10 @@
         <v>8</v>
       </c>
       <c r="B496">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C496" s="2">
-        <v>496.1470031738281</v>
+        <v>304.6839904785156</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -5851,10 +5851,10 @@
         <v>8</v>
       </c>
       <c r="B497">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C497" s="2">
-        <v>330.0920104980469</v>
+        <v>290.1480102539062</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -5862,10 +5862,10 @@
         <v>8</v>
       </c>
       <c r="B498">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C498" s="2">
-        <v>358.0480041503906</v>
+        <v>272.1530151367188</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -5873,10 +5873,10 @@
         <v>8</v>
       </c>
       <c r="B499">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C499" s="2">
-        <v>304.6839904785156</v>
+        <v>357.8380126953125</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -5884,10 +5884,10 @@
         <v>8</v>
       </c>
       <c r="B500">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C500" s="2">
-        <v>290.1480102539062</v>
+        <v>356.9920043945312</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -5895,10 +5895,10 @@
         <v>8</v>
       </c>
       <c r="B501">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C501" s="2">
-        <v>272.1530151367188</v>
+        <v>334.7319946289062</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -5906,10 +5906,10 @@
         <v>8</v>
       </c>
       <c r="B502">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C502" s="2">
-        <v>357.8380126953125</v>
+        <v>328.7770080566406</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -5917,10 +5917,10 @@
         <v>8</v>
       </c>
       <c r="B503">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C503" s="2">
-        <v>356.9920043945312</v>
+        <v>349.9400024414062</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -5928,10 +5928,10 @@
         <v>8</v>
       </c>
       <c r="B504">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C504" s="2">
-        <v>334.7319946289062</v>
+        <v>279.6050109863281</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -5939,10 +5939,10 @@
         <v>8</v>
       </c>
       <c r="B505">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C505" s="2">
-        <v>328.7770080566406</v>
+        <v>254.1690063476562</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -5950,10 +5950,10 @@
         <v>8</v>
       </c>
       <c r="B506">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C506" s="2">
-        <v>349.9400024414062</v>
+        <v>203.4550018310547</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -5961,10 +5961,10 @@
         <v>8</v>
       </c>
       <c r="B507">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C507" s="2">
-        <v>279.6050109863281</v>
+        <v>169.4179992675781</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -5972,10 +5972,10 @@
         <v>8</v>
       </c>
       <c r="B508">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C508" s="2">
-        <v>254.1690063476562</v>
+        <v>234.1869964599609</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -5983,10 +5983,10 @@
         <v>8</v>
       </c>
       <c r="B509">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C509" s="2">
-        <v>203.4550018310547</v>
+        <v>310.7650146484375</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -5994,10 +5994,10 @@
         <v>8</v>
       </c>
       <c r="B510">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C510" s="2">
-        <v>169.4179992675781</v>
+        <v>283.8320007324219</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -6005,10 +6005,10 @@
         <v>8</v>
       </c>
       <c r="B511">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C511" s="2">
-        <v>234.1869964599609</v>
+        <v>245.3520050048828</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -6016,10 +6016,10 @@
         <v>8</v>
       </c>
       <c r="B512">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C512" s="2">
-        <v>310.7650146484375</v>
+        <v>283.93701171875</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -6027,10 +6027,10 @@
         <v>8</v>
       </c>
       <c r="B513">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C513" s="2">
-        <v>283.8320007324219</v>
+        <v>353.1539916992188</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -6038,10 +6038,10 @@
         <v>8</v>
       </c>
       <c r="B514">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C514" s="2">
-        <v>245.3520050048828</v>
+        <v>325.8099975585938</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -6049,10 +6049,10 @@
         <v>8</v>
       </c>
       <c r="B515">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C515" s="2">
-        <v>283.93701171875</v>
+        <v>302.7890014648438</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -6060,10 +6060,10 @@
         <v>8</v>
       </c>
       <c r="B516">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C516" s="2">
-        <v>353.1539916992188</v>
+        <v>287.4030151367188</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -6071,10 +6071,10 @@
         <v>8</v>
       </c>
       <c r="B517">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C517" s="2">
-        <v>325.8099975585938</v>
+        <v>224.5480041503906</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -6082,10 +6082,10 @@
         <v>8</v>
       </c>
       <c r="B518">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C518" s="2">
-        <v>302.7890014648438</v>
+        <v>237.0749969482422</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -6093,10 +6093,10 @@
         <v>8</v>
       </c>
       <c r="B519">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C519" s="2">
-        <v>287.4030151367188</v>
+        <v>254.0249938964844</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -6104,10 +6104,10 @@
         <v>8</v>
       </c>
       <c r="B520">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C520" s="2">
-        <v>224.5480041503906</v>
+        <v>276.6000061035156</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -6115,10 +6115,10 @@
         <v>8</v>
       </c>
       <c r="B521">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C521" s="2">
-        <v>237.0749969482422</v>
+        <v>260.3559875488281</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -6126,10 +6126,10 @@
         <v>8</v>
       </c>
       <c r="B522">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C522" s="2">
-        <v>254.0249938964844</v>
+        <v>284.2520141601562</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -6137,10 +6137,10 @@
         <v>8</v>
       </c>
       <c r="B523">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C523" s="2">
-        <v>276.6000061035156</v>
+        <v>299.8720092773438</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -6148,10 +6148,10 @@
         <v>8</v>
       </c>
       <c r="B524">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C524" s="2">
-        <v>260.3559875488281</v>
+        <v>245.0670013427734</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -6159,10 +6159,10 @@
         <v>8</v>
       </c>
       <c r="B525">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C525" s="2">
-        <v>284.2520141601562</v>
+        <v>262.1640014648438</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -6170,10 +6170,10 @@
         <v>8</v>
       </c>
       <c r="B526">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C526" s="2">
-        <v>299.8720092773438</v>
+        <v>234</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -6181,10 +6181,10 @@
         <v>8</v>
       </c>
       <c r="B527">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C527" s="2">
-        <v>245.0670013427734</v>
+        <v>232.406005859375</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -6192,10 +6192,10 @@
         <v>8</v>
       </c>
       <c r="B528">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C528" s="2">
-        <v>262.1640014648438</v>
+        <v>224.7359924316406</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -6203,10 +6203,10 @@
         <v>8</v>
       </c>
       <c r="B529">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C529" s="2">
-        <v>234</v>
+        <v>277.5029907226562</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -6214,10 +6214,10 @@
         <v>8</v>
       </c>
       <c r="B530">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C530" s="2">
-        <v>232.406005859375</v>
+        <v>303.2340087890625</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -6225,43 +6225,43 @@
         <v>8</v>
       </c>
       <c r="B531">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C531" s="2">
-        <v>224.7359924316406</v>
+        <v>335.989990234375</v>
       </c>
     </row>
     <row r="532" spans="1:3">
       <c r="A532" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B532">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="C532" s="2">
-        <v>277.5029907226562</v>
+        <v>207.5780029296875</v>
       </c>
     </row>
     <row r="533" spans="1:3">
       <c r="A533" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B533">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="C533" s="2">
-        <v>303.2340087890625</v>
+        <v>244.5350036621094</v>
       </c>
     </row>
     <row r="534" spans="1:3">
       <c r="A534" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B534">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="C534" s="2">
-        <v>335.989990234375</v>
+        <v>166.0059967041016</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -6269,10 +6269,10 @@
         <v>9</v>
       </c>
       <c r="B535">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C535" s="2">
-        <v>207.5780029296875</v>
+        <v>142.8269958496094</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -6280,10 +6280,10 @@
         <v>9</v>
       </c>
       <c r="B536">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C536" s="2">
-        <v>244.5350036621094</v>
+        <v>208.9900054931641</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -6291,10 +6291,10 @@
         <v>9</v>
       </c>
       <c r="B537">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C537" s="2">
-        <v>166.0059967041016</v>
+        <v>148.3890075683594</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -6302,10 +6302,10 @@
         <v>9</v>
       </c>
       <c r="B538">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C538" s="2">
-        <v>142.8269958496094</v>
+        <v>169.2769927978516</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -6313,10 +6313,10 @@
         <v>9</v>
       </c>
       <c r="B539">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C539" s="2">
-        <v>208.9900054931641</v>
+        <v>132.4029998779297</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -6324,10 +6324,10 @@
         <v>9</v>
       </c>
       <c r="B540">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C540" s="2">
-        <v>148.3890075683594</v>
+        <v>130.7550048828125</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -6335,10 +6335,10 @@
         <v>9</v>
       </c>
       <c r="B541">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C541" s="2">
-        <v>169.2769927978516</v>
+        <v>117.6869964599609</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -6346,10 +6346,10 @@
         <v>9</v>
       </c>
       <c r="B542">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C542" s="2">
-        <v>132.4029998779297</v>
+        <v>98.74400329589844</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -6357,10 +6357,10 @@
         <v>9</v>
       </c>
       <c r="B543">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C543" s="2">
-        <v>130.7550048828125</v>
+        <v>160.5590057373047</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -6368,10 +6368,10 @@
         <v>9</v>
       </c>
       <c r="B544">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C544" s="2">
-        <v>117.6869964599609</v>
+        <v>178.4309997558594</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -6379,10 +6379,10 @@
         <v>9</v>
       </c>
       <c r="B545">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C545" s="2">
-        <v>98.74400329589844</v>
+        <v>193.6380004882812</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -6390,10 +6390,10 @@
         <v>9</v>
       </c>
       <c r="B546">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C546" s="2">
-        <v>160.5590057373047</v>
+        <v>203.4980010986328</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -6401,10 +6401,10 @@
         <v>9</v>
       </c>
       <c r="B547">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C547" s="2">
-        <v>178.4309997558594</v>
+        <v>197.0140075683594</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -6412,10 +6412,10 @@
         <v>9</v>
       </c>
       <c r="B548">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C548" s="2">
-        <v>193.6380004882812</v>
+        <v>192.8800048828125</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -6423,10 +6423,10 @@
         <v>9</v>
       </c>
       <c r="B549">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C549" s="2">
-        <v>203.4980010986328</v>
+        <v>149.5099945068359</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -6434,10 +6434,10 @@
         <v>9</v>
       </c>
       <c r="B550">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C550" s="2">
-        <v>197.0140075683594</v>
+        <v>149.9980010986328</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -6445,10 +6445,10 @@
         <v>9</v>
       </c>
       <c r="B551">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C551" s="2">
-        <v>192.8800048828125</v>
+        <v>185.1089935302734</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -6456,10 +6456,10 @@
         <v>9</v>
       </c>
       <c r="B552">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C552" s="2">
-        <v>149.5099945068359</v>
+        <v>180.8820037841797</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -6467,10 +6467,10 @@
         <v>9</v>
       </c>
       <c r="B553">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C553" s="2">
-        <v>149.9980010986328</v>
+        <v>289.4559936523438</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -6478,10 +6478,10 @@
         <v>9</v>
       </c>
       <c r="B554">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C554" s="2">
-        <v>185.1089935302734</v>
+        <v>303.593994140625</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -6489,10 +6489,10 @@
         <v>9</v>
       </c>
       <c r="B555">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C555" s="2">
-        <v>180.8820037841797</v>
+        <v>346.635986328125</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -6500,10 +6500,10 @@
         <v>9</v>
       </c>
       <c r="B556">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C556" s="2">
-        <v>289.4559936523438</v>
+        <v>351.8460083007812</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -6511,10 +6511,10 @@
         <v>9</v>
       </c>
       <c r="B557">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C557" s="2">
-        <v>303.593994140625</v>
+        <v>352.1679992675781</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -6522,10 +6522,10 @@
         <v>9</v>
       </c>
       <c r="B558">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C558" s="2">
-        <v>346.635986328125</v>
+        <v>347.8489990234375</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -6533,10 +6533,10 @@
         <v>9</v>
       </c>
       <c r="B559">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C559" s="2">
-        <v>351.8460083007812</v>
+        <v>381.2659912109375</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -6544,10 +6544,10 @@
         <v>9</v>
       </c>
       <c r="B560">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C560" s="2">
-        <v>352.1679992675781</v>
+        <v>399.4169921875</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -6555,10 +6555,10 @@
         <v>9</v>
       </c>
       <c r="B561">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C561" s="2">
-        <v>347.8489990234375</v>
+        <v>366.2839965820312</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -6566,10 +6566,10 @@
         <v>9</v>
       </c>
       <c r="B562">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C562" s="2">
-        <v>381.2659912109375</v>
+        <v>421.2950134277344</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -6577,10 +6577,10 @@
         <v>9</v>
       </c>
       <c r="B563">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C563" s="2">
-        <v>399.4169921875</v>
+        <v>426.1109924316406</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -6588,10 +6588,10 @@
         <v>9</v>
       </c>
       <c r="B564">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C564" s="2">
-        <v>366.2839965820312</v>
+        <v>440.9469909667969</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -6599,10 +6599,10 @@
         <v>9</v>
       </c>
       <c r="B565">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C565" s="2">
-        <v>421.2950134277344</v>
+        <v>431.9530029296875</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -6610,10 +6610,10 @@
         <v>9</v>
       </c>
       <c r="B566">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C566" s="2">
-        <v>426.1109924316406</v>
+        <v>411.4540100097656</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -6621,10 +6621,10 @@
         <v>9</v>
       </c>
       <c r="B567">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C567" s="2">
-        <v>440.9469909667969</v>
+        <v>529.7150268554688</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -6632,10 +6632,10 @@
         <v>9</v>
       </c>
       <c r="B568">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C568" s="2">
-        <v>431.9530029296875</v>
+        <v>594.77099609375</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -6643,10 +6643,10 @@
         <v>9</v>
       </c>
       <c r="B569">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C569" s="2">
-        <v>411.4540100097656</v>
+        <v>625.6290283203125</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -6654,10 +6654,10 @@
         <v>9</v>
       </c>
       <c r="B570">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C570" s="2">
-        <v>529.7150268554688</v>
+        <v>718.5579833984375</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -6665,10 +6665,10 @@
         <v>9</v>
       </c>
       <c r="B571">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C571" s="2">
-        <v>594.77099609375</v>
+        <v>871.5399780273438</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -6676,10 +6676,10 @@
         <v>9</v>
       </c>
       <c r="B572">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C572" s="2">
-        <v>625.6290283203125</v>
+        <v>959.2069702148438</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -6687,10 +6687,10 @@
         <v>9</v>
       </c>
       <c r="B573">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C573" s="2">
-        <v>718.5579833984375</v>
+        <v>1022.403015136719</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -6698,10 +6698,10 @@
         <v>9</v>
       </c>
       <c r="B574">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C574" s="2">
-        <v>871.5399780273438</v>
+        <v>1081.0849609375</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -6709,10 +6709,10 @@
         <v>9</v>
       </c>
       <c r="B575">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C575" s="2">
-        <v>959.2069702148438</v>
+        <v>1168.365966796875</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -6720,10 +6720,10 @@
         <v>9</v>
       </c>
       <c r="B576">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C576" s="2">
-        <v>1022.403015136719</v>
+        <v>1270.421020507812</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -6731,10 +6731,10 @@
         <v>9</v>
       </c>
       <c r="B577">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C577" s="2">
-        <v>1081.0849609375</v>
+        <v>1265.973022460938</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -6742,10 +6742,10 @@
         <v>9</v>
       </c>
       <c r="B578">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C578" s="2">
-        <v>1168.365966796875</v>
+        <v>1299.527954101562</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -6753,10 +6753,10 @@
         <v>9</v>
       </c>
       <c r="B579">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C579" s="2">
-        <v>1270.421020507812</v>
+        <v>1209.552001953125</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -6764,10 +6764,10 @@
         <v>9</v>
       </c>
       <c r="B580">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C580" s="2">
-        <v>1265.973022460938</v>
+        <v>1272.384033203125</v>
       </c>
     </row>
     <row r="581" spans="1:3">
@@ -6775,10 +6775,10 @@
         <v>9</v>
       </c>
       <c r="B581">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C581" s="2">
-        <v>1299.527954101562</v>
+        <v>1242.91796875</v>
       </c>
     </row>
     <row r="582" spans="1:3">
@@ -6786,10 +6786,10 @@
         <v>9</v>
       </c>
       <c r="B582">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C582" s="2">
-        <v>1209.552001953125</v>
+        <v>1213.260986328125</v>
       </c>
     </row>
     <row r="583" spans="1:3">
@@ -6797,10 +6797,10 @@
         <v>9</v>
       </c>
       <c r="B583">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C583" s="2">
-        <v>1272.384033203125</v>
+        <v>1266.984008789062</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -6808,10 +6808,10 @@
         <v>9</v>
       </c>
       <c r="B584">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C584" s="2">
-        <v>1242.91796875</v>
+        <v>1274.076049804688</v>
       </c>
     </row>
     <row r="585" spans="1:3">
@@ -6819,10 +6819,10 @@
         <v>9</v>
       </c>
       <c r="B585">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C585" s="2">
-        <v>1213.260986328125</v>
+        <v>1280.27099609375</v>
       </c>
     </row>
     <row r="586" spans="1:3">
@@ -6830,10 +6830,10 @@
         <v>9</v>
       </c>
       <c r="B586">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C586" s="2">
-        <v>1266.984008789062</v>
+        <v>1261.848022460938</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -6841,10 +6841,10 @@
         <v>9</v>
       </c>
       <c r="B587">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C587" s="2">
-        <v>1274.076049804688</v>
+        <v>1224.650024414062</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -6852,10 +6852,10 @@
         <v>9</v>
       </c>
       <c r="B588">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C588" s="2">
-        <v>1280.27099609375</v>
+        <v>1135.8349609375</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -6863,10 +6863,10 @@
         <v>9</v>
       </c>
       <c r="B589">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C589" s="2">
-        <v>1261.848022460938</v>
+        <v>1131.161987304688</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -6874,10 +6874,10 @@
         <v>9</v>
       </c>
       <c r="B590">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C590" s="2">
-        <v>1224.650024414062</v>
+        <v>1066.39794921875</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -6885,10 +6885,10 @@
         <v>9</v>
       </c>
       <c r="B591">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C591" s="2">
-        <v>1135.8349609375</v>
+        <v>981.56201171875</v>
       </c>
     </row>
     <row r="592" spans="1:3">
@@ -6896,10 +6896,10 @@
         <v>9</v>
       </c>
       <c r="B592">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C592" s="2">
-        <v>1131.161987304688</v>
+        <v>739.3939819335938</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -6907,10 +6907,10 @@
         <v>9</v>
       </c>
       <c r="B593">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C593" s="2">
-        <v>1066.39794921875</v>
+        <v>686.6599731445312</v>
       </c>
     </row>
     <row r="594" spans="1:3">
@@ -6918,10 +6918,10 @@
         <v>9</v>
       </c>
       <c r="B594">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C594" s="2">
-        <v>981.56201171875</v>
+        <v>652.6829833984375</v>
       </c>
     </row>
     <row r="595" spans="1:3">
@@ -6929,10 +6929,10 @@
         <v>9</v>
       </c>
       <c r="B595">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C595" s="2">
-        <v>739.3939819335938</v>
+        <v>603.4010009765625</v>
       </c>
     </row>
     <row r="596" spans="1:3">
@@ -6940,10 +6940,10 @@
         <v>9</v>
       </c>
       <c r="B596">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C596" s="2">
-        <v>686.6599731445312</v>
+        <v>626.9439697265625</v>
       </c>
     </row>
     <row r="597" spans="1:3">
@@ -6951,10 +6951,10 @@
         <v>9</v>
       </c>
       <c r="B597">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C597" s="2">
-        <v>652.6829833984375</v>
+        <v>525.7999877929688</v>
       </c>
     </row>
     <row r="598" spans="1:3">
@@ -6962,10 +6962,10 @@
         <v>9</v>
       </c>
       <c r="B598">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C598" s="2">
-        <v>603.4010009765625</v>
+        <v>531.0130004882812</v>
       </c>
     </row>
     <row r="599" spans="1:3">
@@ -6973,10 +6973,10 @@
         <v>9</v>
       </c>
       <c r="B599">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C599" s="2">
-        <v>626.9439697265625</v>
+        <v>424.7909851074219</v>
       </c>
     </row>
     <row r="600" spans="1:3">
@@ -6984,10 +6984,10 @@
         <v>9</v>
       </c>
       <c r="B600">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C600" s="2">
-        <v>525.7999877929688</v>
+        <v>332.0719909667969</v>
       </c>
     </row>
     <row r="601" spans="1:3">
@@ -6995,10 +6995,10 @@
         <v>9</v>
       </c>
       <c r="B601">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C601" s="2">
-        <v>531.0130004882812</v>
+        <v>319.8720092773438</v>
       </c>
     </row>
     <row r="602" spans="1:3">
@@ -7006,10 +7006,10 @@
         <v>9</v>
       </c>
       <c r="B602">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C602" s="2">
-        <v>424.7909851074219</v>
+        <v>318.5830078125</v>
       </c>
     </row>
     <row r="603" spans="1:3">
@@ -7017,10 +7017,10 @@
         <v>9</v>
       </c>
       <c r="B603">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C603" s="2">
-        <v>332.0719909667969</v>
+        <v>294.4119873046875</v>
       </c>
     </row>
     <row r="604" spans="1:3">
@@ -7028,10 +7028,10 @@
         <v>9</v>
       </c>
       <c r="B604">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C604" s="2">
-        <v>319.8720092773438</v>
+        <v>313.9079895019531</v>
       </c>
     </row>
     <row r="605" spans="1:3">
@@ -7039,10 +7039,10 @@
         <v>9</v>
       </c>
       <c r="B605">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C605" s="2">
-        <v>318.5830078125</v>
+        <v>309.5820007324219</v>
       </c>
     </row>
     <row r="606" spans="1:3">
@@ -7050,10 +7050,10 @@
         <v>9</v>
       </c>
       <c r="B606">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C606" s="2">
-        <v>294.4119873046875</v>
+        <v>316.2890014648438</v>
       </c>
     </row>
     <row r="607" spans="1:3">
@@ -7061,10 +7061,10 @@
         <v>9</v>
       </c>
       <c r="B607">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C607" s="2">
-        <v>313.9079895019531</v>
+        <v>239.5959930419922</v>
       </c>
     </row>
     <row r="608" spans="1:3">
@@ -7072,10 +7072,10 @@
         <v>9</v>
       </c>
       <c r="B608">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C608" s="2">
-        <v>309.5820007324219</v>
+        <v>268.6099853515625</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -7083,10 +7083,10 @@
         <v>9</v>
       </c>
       <c r="B609">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C609" s="2">
-        <v>316.2890014648438</v>
+        <v>330.4209899902344</v>
       </c>
     </row>
     <row r="610" spans="1:3">
@@ -7094,10 +7094,10 @@
         <v>9</v>
       </c>
       <c r="B610">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C610" s="2">
-        <v>239.5959930419922</v>
+        <v>325.9830017089844</v>
       </c>
     </row>
     <row r="611" spans="1:3">
@@ -7105,10 +7105,10 @@
         <v>9</v>
       </c>
       <c r="B611">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C611" s="2">
-        <v>268.6099853515625</v>
+        <v>336.0299987792969</v>
       </c>
     </row>
     <row r="612" spans="1:3">
@@ -7116,10 +7116,10 @@
         <v>9</v>
       </c>
       <c r="B612">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C612" s="2">
-        <v>330.4209899902344</v>
+        <v>345.5830078125</v>
       </c>
     </row>
     <row r="613" spans="1:3">
@@ -7127,10 +7127,10 @@
         <v>9</v>
       </c>
       <c r="B613">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C613" s="2">
-        <v>325.9830017089844</v>
+        <v>337.4570007324219</v>
       </c>
     </row>
     <row r="614" spans="1:3">
@@ -7138,10 +7138,10 @@
         <v>9</v>
       </c>
       <c r="B614">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C614" s="2">
-        <v>336.0299987792969</v>
+        <v>399.4729919433594</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -7149,10 +7149,10 @@
         <v>9</v>
       </c>
       <c r="B615">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C615" s="2">
-        <v>345.5830078125</v>
+        <v>498.9859924316406</v>
       </c>
     </row>
     <row r="616" spans="1:3">
@@ -7160,10 +7160,10 @@
         <v>9</v>
       </c>
       <c r="B616">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C616" s="2">
-        <v>337.4570007324219</v>
+        <v>572.5830078125</v>
       </c>
     </row>
     <row r="617" spans="1:3">
@@ -7171,10 +7171,10 @@
         <v>9</v>
       </c>
       <c r="B617">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C617" s="2">
-        <v>399.4729919433594</v>
+        <v>549.718017578125</v>
       </c>
     </row>
     <row r="618" spans="1:3">
@@ -7182,10 +7182,10 @@
         <v>9</v>
       </c>
       <c r="B618">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C618" s="2">
-        <v>498.9859924316406</v>
+        <v>539.2789916992188</v>
       </c>
     </row>
     <row r="619" spans="1:3">
@@ -7193,10 +7193,10 @@
         <v>9</v>
       </c>
       <c r="B619">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C619" s="2">
-        <v>572.5830078125</v>
+        <v>741.7009887695312</v>
       </c>
     </row>
     <row r="620" spans="1:3">
@@ -7204,10 +7204,10 @@
         <v>9</v>
       </c>
       <c r="B620">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C620" s="2">
-        <v>549.718017578125</v>
+        <v>652.6829833984375</v>
       </c>
     </row>
     <row r="621" spans="1:3">
@@ -7215,10 +7215,10 @@
         <v>9</v>
       </c>
       <c r="B621">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C621" s="2">
-        <v>539.2789916992188</v>
+        <v>669.2230224609375</v>
       </c>
     </row>
     <row r="622" spans="1:3">
@@ -7226,10 +7226,10 @@
         <v>9</v>
       </c>
       <c r="B622">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C622" s="2">
-        <v>741.7009887695312</v>
+        <v>593.6309814453125</v>
       </c>
     </row>
     <row r="623" spans="1:3">
@@ -7237,10 +7237,10 @@
         <v>9</v>
       </c>
       <c r="B623">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C623" s="2">
-        <v>652.6829833984375</v>
+        <v>612.0490112304688</v>
       </c>
     </row>
     <row r="624" spans="1:3">
@@ -7248,10 +7248,10 @@
         <v>9</v>
       </c>
       <c r="B624">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C624" s="2">
-        <v>669.2230224609375</v>
+        <v>515.6690063476562</v>
       </c>
     </row>
     <row r="625" spans="1:3">
@@ -7259,10 +7259,10 @@
         <v>9</v>
       </c>
       <c r="B625">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C625" s="2">
-        <v>593.6309814453125</v>
+        <v>475.7099914550781</v>
       </c>
     </row>
     <row r="626" spans="1:3">
@@ -7270,10 +7270,10 @@
         <v>9</v>
       </c>
       <c r="B626">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C626" s="2">
-        <v>612.0490112304688</v>
+        <v>468.0580139160156</v>
       </c>
     </row>
     <row r="627" spans="1:3">
@@ -7281,43 +7281,43 @@
         <v>9</v>
       </c>
       <c r="B627">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C627" s="2">
-        <v>515.6690063476562</v>
+        <v>484.1010131835938</v>
       </c>
     </row>
     <row r="628" spans="1:3">
       <c r="A628" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B628">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="C628" s="2">
-        <v>475.7099914550781</v>
+        <v>305.2109985351562</v>
       </c>
     </row>
     <row r="629" spans="1:3">
       <c r="A629" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B629">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="C629" s="2">
-        <v>468.0580139160156</v>
+        <v>301.9620056152344</v>
       </c>
     </row>
     <row r="630" spans="1:3">
       <c r="A630" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B630">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="C630" s="2">
-        <v>484.1010131835938</v>
+        <v>230.9889984130859</v>
       </c>
     </row>
     <row r="631" spans="1:3">
@@ -7325,10 +7325,10 @@
         <v>10</v>
       </c>
       <c r="B631">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C631" s="2">
-        <v>305.2109985351562</v>
+        <v>293.2300109863281</v>
       </c>
     </row>
     <row r="632" spans="1:3">
@@ -7336,10 +7336,10 @@
         <v>10</v>
       </c>
       <c r="B632">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C632" s="2">
-        <v>301.9620056152344</v>
+        <v>328.7420043945312</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -7347,10 +7347,10 @@
         <v>10</v>
       </c>
       <c r="B633">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C633" s="2">
-        <v>230.9889984130859</v>
+        <v>278.6319885253906</v>
       </c>
     </row>
     <row r="634" spans="1:3">
@@ -7358,10 +7358,10 @@
         <v>10</v>
       </c>
       <c r="B634">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C634" s="2">
-        <v>293.2300109863281</v>
+        <v>330.3689880371094</v>
       </c>
     </row>
     <row r="635" spans="1:3">
@@ -7369,10 +7369,10 @@
         <v>10</v>
       </c>
       <c r="B635">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C635" s="2">
-        <v>328.7420043945312</v>
+        <v>342.8940124511719</v>
       </c>
     </row>
     <row r="636" spans="1:3">
@@ -7380,10 +7380,10 @@
         <v>10</v>
       </c>
       <c r="B636">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C636" s="2">
-        <v>278.6319885253906</v>
+        <v>327.3139953613281</v>
       </c>
     </row>
     <row r="637" spans="1:3">
@@ -7391,10 +7391,10 @@
         <v>10</v>
       </c>
       <c r="B637">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C637" s="2">
-        <v>330.3689880371094</v>
+        <v>371.6789855957031</v>
       </c>
     </row>
     <row r="638" spans="1:3">
@@ -7402,10 +7402,10 @@
         <v>10</v>
       </c>
       <c r="B638">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C638" s="2">
-        <v>342.8940124511719</v>
+        <v>435.2040100097656</v>
       </c>
     </row>
     <row r="639" spans="1:3">
@@ -7413,10 +7413,10 @@
         <v>10</v>
       </c>
       <c r="B639">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C639" s="2">
-        <v>327.3139953613281</v>
+        <v>349.0169982910156</v>
       </c>
     </row>
     <row r="640" spans="1:3">
@@ -7424,10 +7424,10 @@
         <v>10</v>
       </c>
       <c r="B640">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C640" s="2">
-        <v>371.6789855957031</v>
+        <v>355.7780151367188</v>
       </c>
     </row>
     <row r="641" spans="1:3">
@@ -7435,10 +7435,10 @@
         <v>10</v>
       </c>
       <c r="B641">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C641" s="2">
-        <v>435.2040100097656</v>
+        <v>360.5750122070312</v>
       </c>
     </row>
     <row r="642" spans="1:3">
@@ -7446,10 +7446,10 @@
         <v>10</v>
       </c>
       <c r="B642">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C642" s="2">
-        <v>349.0169982910156</v>
+        <v>376.6010131835938</v>
       </c>
     </row>
     <row r="643" spans="1:3">
@@ -7457,10 +7457,10 @@
         <v>10</v>
       </c>
       <c r="B643">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C643" s="2">
-        <v>355.7780151367188</v>
+        <v>428.8280029296875</v>
       </c>
     </row>
     <row r="644" spans="1:3">
@@ -7468,10 +7468,10 @@
         <v>10</v>
       </c>
       <c r="B644">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C644" s="2">
-        <v>360.5750122070312</v>
+        <v>481.1279907226562</v>
       </c>
     </row>
     <row r="645" spans="1:3">
@@ -7479,10 +7479,10 @@
         <v>10</v>
       </c>
       <c r="B645">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C645" s="2">
-        <v>376.6010131835938</v>
+        <v>433.3580017089844</v>
       </c>
     </row>
     <row r="646" spans="1:3">
@@ -7490,10 +7490,10 @@
         <v>10</v>
       </c>
       <c r="B646">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C646" s="2">
-        <v>428.8280029296875</v>
+        <v>381.2210083007812</v>
       </c>
     </row>
     <row r="647" spans="1:3">
@@ -7501,10 +7501,10 @@
         <v>10</v>
       </c>
       <c r="B647">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C647" s="2">
-        <v>481.1279907226562</v>
+        <v>288.3829956054688</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -7512,10 +7512,10 @@
         <v>10</v>
       </c>
       <c r="B648">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C648" s="2">
-        <v>433.3580017089844</v>
+        <v>204.0769958496094</v>
       </c>
     </row>
     <row r="649" spans="1:3">
@@ -7523,10 +7523,10 @@
         <v>10</v>
       </c>
       <c r="B649">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C649" s="2">
-        <v>381.2210083007812</v>
+        <v>165.2230072021484</v>
       </c>
     </row>
     <row r="650" spans="1:3">
@@ -7534,10 +7534,10 @@
         <v>10</v>
       </c>
       <c r="B650">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C650" s="2">
-        <v>288.3829956054688</v>
+        <v>142.6289978027344</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -7545,10 +7545,10 @@
         <v>10</v>
       </c>
       <c r="B651">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C651" s="2">
-        <v>204.0769958496094</v>
+        <v>147.8200073242188</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -7556,10 +7556,10 @@
         <v>10</v>
       </c>
       <c r="B652">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C652" s="2">
-        <v>165.2230072021484</v>
+        <v>120.3550033569336</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -7567,10 +7567,10 @@
         <v>10</v>
       </c>
       <c r="B653">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C653" s="2">
-        <v>142.6289978027344</v>
+        <v>69.64700317382812</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -7578,10 +7578,10 @@
         <v>10</v>
       </c>
       <c r="B654">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C654" s="2">
-        <v>147.8200073242188</v>
+        <v>211.9429931640625</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -7589,10 +7589,10 @@
         <v>10</v>
       </c>
       <c r="B655">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C655" s="2">
-        <v>120.3550033569336</v>
+        <v>283.2969970703125</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -7600,10 +7600,10 @@
         <v>10</v>
       </c>
       <c r="B656">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C656" s="2">
-        <v>69.64700317382812</v>
+        <v>174.1230010986328</v>
       </c>
     </row>
     <row r="657" spans="1:3">
@@ -7611,10 +7611,10 @@
         <v>10</v>
       </c>
       <c r="B657">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C657" s="2">
-        <v>211.9429931640625</v>
+        <v>213.0720062255859</v>
       </c>
     </row>
     <row r="658" spans="1:3">
@@ -7622,10 +7622,10 @@
         <v>10</v>
       </c>
       <c r="B658">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C658" s="2">
-        <v>283.2969970703125</v>
+        <v>259.6690063476562</v>
       </c>
     </row>
     <row r="659" spans="1:3">
@@ -7633,10 +7633,10 @@
         <v>10</v>
       </c>
       <c r="B659">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C659" s="2">
-        <v>174.1230010986328</v>
+        <v>252.2339935302734</v>
       </c>
     </row>
     <row r="660" spans="1:3">
@@ -7644,10 +7644,10 @@
         <v>10</v>
       </c>
       <c r="B660">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C660" s="2">
-        <v>213.0720062255859</v>
+        <v>433.5039978027344</v>
       </c>
     </row>
     <row r="661" spans="1:3">
@@ -7655,10 +7655,10 @@
         <v>10</v>
       </c>
       <c r="B661">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C661" s="2">
-        <v>259.6690063476562</v>
+        <v>404.1440124511719</v>
       </c>
     </row>
     <row r="662" spans="1:3">
@@ -7666,10 +7666,10 @@
         <v>10</v>
       </c>
       <c r="B662">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C662" s="2">
-        <v>252.2339935302734</v>
+        <v>438.8330078125</v>
       </c>
     </row>
     <row r="663" spans="1:3">
@@ -7677,10 +7677,10 @@
         <v>10</v>
       </c>
       <c r="B663">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C663" s="2">
-        <v>433.5039978027344</v>
+        <v>415.1900024414062</v>
       </c>
     </row>
     <row r="664" spans="1:3">
@@ -7688,10 +7688,10 @@
         <v>10</v>
       </c>
       <c r="B664">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C664" s="2">
-        <v>404.1440124511719</v>
+        <v>487.1589965820312</v>
       </c>
     </row>
     <row r="665" spans="1:3">
@@ -7699,10 +7699,10 @@
         <v>10</v>
       </c>
       <c r="B665">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C665" s="2">
-        <v>438.8330078125</v>
+        <v>597.0789794921875</v>
       </c>
     </row>
     <row r="666" spans="1:3">
@@ -7710,10 +7710,10 @@
         <v>10</v>
       </c>
       <c r="B666">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C666" s="2">
-        <v>415.1900024414062</v>
+        <v>730.843017578125</v>
       </c>
     </row>
     <row r="667" spans="1:3">
@@ -7721,10 +7721,10 @@
         <v>10</v>
       </c>
       <c r="B667">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C667" s="2">
-        <v>487.1589965820312</v>
+        <v>895.9669799804688</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -7732,10 +7732,10 @@
         <v>10</v>
       </c>
       <c r="B668">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C668" s="2">
-        <v>597.0789794921875</v>
+        <v>1122.885986328125</v>
       </c>
     </row>
     <row r="669" spans="1:3">
@@ -7743,10 +7743,10 @@
         <v>10</v>
       </c>
       <c r="B669">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C669" s="2">
-        <v>730.843017578125</v>
+        <v>1228.47705078125</v>
       </c>
     </row>
     <row r="670" spans="1:3">
@@ -7754,10 +7754,10 @@
         <v>10</v>
       </c>
       <c r="B670">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C670" s="2">
-        <v>895.9669799804688</v>
+        <v>1214.8330078125</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -7765,10 +7765,10 @@
         <v>10</v>
       </c>
       <c r="B671">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C671" s="2">
-        <v>1122.885986328125</v>
+        <v>1204.878051757812</v>
       </c>
     </row>
     <row r="672" spans="1:3">
@@ -7776,10 +7776,10 @@
         <v>10</v>
       </c>
       <c r="B672">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C672" s="2">
-        <v>1228.47705078125</v>
+        <v>1155.159057617188</v>
       </c>
     </row>
     <row r="673" spans="1:3">
@@ -7787,10 +7787,10 @@
         <v>10</v>
       </c>
       <c r="B673">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C673" s="2">
-        <v>1214.8330078125</v>
+        <v>961.8599853515625</v>
       </c>
     </row>
     <row r="674" spans="1:3">
@@ -7798,10 +7798,10 @@
         <v>10</v>
       </c>
       <c r="B674">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C674" s="2">
-        <v>1204.878051757812</v>
+        <v>845.948974609375</v>
       </c>
     </row>
   </sheetData>

--- a/Wind_Production_Forecast/Wind_Forecast_Production_15min.xlsx
+++ b/Wind_Production_Forecast/Wind_Forecast_Production_15min.xlsx
@@ -406,10 +406,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2">
-        <v>1502.901977539062</v>
+        <v>1448.192993164062</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -417,10 +417,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2">
-        <v>1441.43798828125</v>
+        <v>1458.556030273438</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -428,10 +428,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2">
-        <v>1448.192993164062</v>
+        <v>1498.31494140625</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -439,10 +439,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2">
-        <v>1458.556030273438</v>
+        <v>1572.267944335938</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -450,10 +450,10 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2">
-        <v>1498.31494140625</v>
+        <v>1481.078002929688</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -461,10 +461,10 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2">
-        <v>1572.267944335938</v>
+        <v>1465.714965820312</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -472,10 +472,10 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C8" s="2">
-        <v>1481.078002929688</v>
+        <v>1481.708984375</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2">
-        <v>1465.714965820312</v>
+        <v>1422.719970703125</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -494,10 +494,10 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C10" s="2">
-        <v>1481.708984375</v>
+        <v>1571.118041992188</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -505,10 +505,10 @@
         <v>3</v>
       </c>
       <c r="B11">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C11" s="2">
-        <v>1422.719970703125</v>
+        <v>1511.927978515625</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -516,10 +516,10 @@
         <v>3</v>
       </c>
       <c r="B12">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C12" s="2">
-        <v>1571.118041992188</v>
+        <v>1504.244995117188</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -527,10 +527,10 @@
         <v>3</v>
       </c>
       <c r="B13">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C13" s="2">
-        <v>1511.927978515625</v>
+        <v>1546.767944335938</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -538,10 +538,10 @@
         <v>3</v>
       </c>
       <c r="B14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C14" s="2">
-        <v>1504.244995117188</v>
+        <v>1480.329956054688</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -549,10 +549,10 @@
         <v>3</v>
       </c>
       <c r="B15">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C15" s="2">
-        <v>1546.767944335938</v>
+        <v>1535.782958984375</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -560,10 +560,10 @@
         <v>3</v>
       </c>
       <c r="B16">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C16" s="2">
-        <v>1480.329956054688</v>
+        <v>1641.953002929688</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -571,10 +571,10 @@
         <v>3</v>
       </c>
       <c r="B17">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C17" s="2">
-        <v>1535.782958984375</v>
+        <v>2172.278076171875</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -582,10 +582,10 @@
         <v>3</v>
       </c>
       <c r="B18">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C18" s="2">
-        <v>1641.953002929688</v>
+        <v>2273.85693359375</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -593,10 +593,10 @@
         <v>3</v>
       </c>
       <c r="B19">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C19" s="2">
-        <v>2172.278076171875</v>
+        <v>2074.465087890625</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -604,10 +604,10 @@
         <v>3</v>
       </c>
       <c r="B20">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C20" s="2">
-        <v>2273.85693359375</v>
+        <v>1342.512939453125</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -615,10 +615,10 @@
         <v>3</v>
       </c>
       <c r="B21">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C21" s="2">
-        <v>2074.465087890625</v>
+        <v>1265.982055664062</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -626,10 +626,10 @@
         <v>3</v>
       </c>
       <c r="B22">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C22" s="2">
-        <v>1342.512939453125</v>
+        <v>1017.367004394531</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -637,10 +637,10 @@
         <v>3</v>
       </c>
       <c r="B23">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C23" s="2">
-        <v>1265.982055664062</v>
+        <v>1298.6240234375</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -648,10 +648,10 @@
         <v>3</v>
       </c>
       <c r="B24">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C24" s="2">
-        <v>1017.367004394531</v>
+        <v>1082.56396484375</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -659,10 +659,10 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C25" s="2">
-        <v>1298.6240234375</v>
+        <v>913.0180053710938</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -670,10 +670,10 @@
         <v>3</v>
       </c>
       <c r="B26">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C26" s="2">
-        <v>1082.56396484375</v>
+        <v>800.6079711914062</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -681,10 +681,10 @@
         <v>3</v>
       </c>
       <c r="B27">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C27" s="2">
-        <v>913.0180053710938</v>
+        <v>690.969970703125</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -692,10 +692,10 @@
         <v>3</v>
       </c>
       <c r="B28">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C28" s="2">
-        <v>800.6079711914062</v>
+        <v>620.1389770507812</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -703,10 +703,10 @@
         <v>3</v>
       </c>
       <c r="B29">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C29" s="2">
-        <v>690.969970703125</v>
+        <v>669.4940185546875</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -714,10 +714,10 @@
         <v>3</v>
       </c>
       <c r="B30">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C30" s="2">
-        <v>620.1389770507812</v>
+        <v>599.8829956054688</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -725,10 +725,10 @@
         <v>3</v>
       </c>
       <c r="B31">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C31" s="2">
-        <v>669.4940185546875</v>
+        <v>407.6409912109375</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -736,10 +736,10 @@
         <v>3</v>
       </c>
       <c r="B32">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C32" s="2">
-        <v>599.8829956054688</v>
+        <v>387.0159912109375</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -747,10 +747,10 @@
         <v>3</v>
       </c>
       <c r="B33">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C33" s="2">
-        <v>407.6409912109375</v>
+        <v>401.7099914550781</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -758,10 +758,10 @@
         <v>3</v>
       </c>
       <c r="B34">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C34" s="2">
-        <v>387.0159912109375</v>
+        <v>336.1659851074219</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -769,10 +769,10 @@
         <v>3</v>
       </c>
       <c r="B35">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C35" s="2">
-        <v>401.7099914550781</v>
+        <v>327.4760131835938</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -780,10 +780,10 @@
         <v>3</v>
       </c>
       <c r="B36">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C36" s="2">
-        <v>336.1659851074219</v>
+        <v>346.8980102539062</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -791,10 +791,10 @@
         <v>3</v>
       </c>
       <c r="B37">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C37" s="2">
-        <v>327.4760131835938</v>
+        <v>186.0630035400391</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -802,10 +802,10 @@
         <v>3</v>
       </c>
       <c r="B38">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C38" s="2">
-        <v>346.8980102539062</v>
+        <v>135.7149963378906</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -813,10 +813,10 @@
         <v>3</v>
       </c>
       <c r="B39">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C39" s="2">
-        <v>186.0630035400391</v>
+        <v>146.6880035400391</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -824,10 +824,10 @@
         <v>3</v>
       </c>
       <c r="B40">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C40" s="2">
-        <v>135.7149963378906</v>
+        <v>171.0290069580078</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -835,10 +835,10 @@
         <v>3</v>
       </c>
       <c r="B41">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C41" s="2">
-        <v>146.6880035400391</v>
+        <v>133.4680023193359</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -846,10 +846,10 @@
         <v>3</v>
       </c>
       <c r="B42">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C42" s="2">
-        <v>171.0290069580078</v>
+        <v>290.0549926757812</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -857,10 +857,10 @@
         <v>3</v>
       </c>
       <c r="B43">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C43" s="2">
-        <v>133.4680023193359</v>
+        <v>415.6300048828125</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -868,10 +868,10 @@
         <v>3</v>
       </c>
       <c r="B44">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C44" s="2">
-        <v>290.0549926757812</v>
+        <v>225.6329956054688</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -879,10 +879,10 @@
         <v>3</v>
       </c>
       <c r="B45">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C45" s="2">
-        <v>415.6300048828125</v>
+        <v>184.5749969482422</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -890,10 +890,10 @@
         <v>3</v>
       </c>
       <c r="B46">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C46" s="2">
-        <v>225.6329956054688</v>
+        <v>240.6580047607422</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -901,10 +901,10 @@
         <v>3</v>
       </c>
       <c r="B47">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C47" s="2">
-        <v>184.5749969482422</v>
+        <v>268.5599975585938</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -912,10 +912,10 @@
         <v>3</v>
       </c>
       <c r="B48">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C48" s="2">
-        <v>240.6580047607422</v>
+        <v>284.6300048828125</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -923,32 +923,32 @@
         <v>3</v>
       </c>
       <c r="B49">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C49" s="2">
-        <v>268.5599975585938</v>
+        <v>333.8489990234375</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B50">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="C50" s="2">
-        <v>284.6300048828125</v>
+        <v>144.8240051269531</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B51">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="C51" s="2">
-        <v>333.8489990234375</v>
+        <v>180.7429962158203</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -956,10 +956,10 @@
         <v>4</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C52" s="2">
-        <v>144.8240051269531</v>
+        <v>135.7409973144531</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -967,10 +967,10 @@
         <v>4</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C53" s="2">
-        <v>180.7429962158203</v>
+        <v>193.2570037841797</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -978,10 +978,10 @@
         <v>4</v>
       </c>
       <c r="B54">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C54" s="2">
-        <v>135.7409973144531</v>
+        <v>146.4889984130859</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -989,10 +989,10 @@
         <v>4</v>
       </c>
       <c r="B55">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C55" s="2">
-        <v>193.2570037841797</v>
+        <v>209.0579986572266</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1000,10 +1000,10 @@
         <v>4</v>
       </c>
       <c r="B56">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C56" s="2">
-        <v>146.4889984130859</v>
+        <v>210.5839996337891</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1011,10 +1011,10 @@
         <v>4</v>
       </c>
       <c r="B57">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C57" s="2">
-        <v>209.0579986572266</v>
+        <v>279.9280090332031</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1022,10 +1022,10 @@
         <v>4</v>
       </c>
       <c r="B58">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C58" s="2">
-        <v>210.5839996337891</v>
+        <v>355.1189880371094</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1033,10 +1033,10 @@
         <v>4</v>
       </c>
       <c r="B59">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C59" s="2">
-        <v>279.9280090332031</v>
+        <v>379.7659912109375</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1044,10 +1044,10 @@
         <v>4</v>
       </c>
       <c r="B60">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C60" s="2">
-        <v>355.1189880371094</v>
+        <v>406.0289916992188</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1055,10 +1055,10 @@
         <v>4</v>
       </c>
       <c r="B61">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C61" s="2">
-        <v>379.7659912109375</v>
+        <v>447.7630004882812</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1066,10 +1066,10 @@
         <v>4</v>
       </c>
       <c r="B62">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C62" s="2">
-        <v>406.0289916992188</v>
+        <v>498.7160034179688</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1077,10 +1077,10 @@
         <v>4</v>
       </c>
       <c r="B63">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C63" s="2">
-        <v>447.7630004882812</v>
+        <v>516.39599609375</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1088,10 +1088,10 @@
         <v>4</v>
       </c>
       <c r="B64">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C64" s="2">
-        <v>498.7160034179688</v>
+        <v>536.9869995117188</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1099,10 +1099,10 @@
         <v>4</v>
       </c>
       <c r="B65">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C65" s="2">
-        <v>516.39599609375</v>
+        <v>517.9439697265625</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1110,10 +1110,10 @@
         <v>4</v>
       </c>
       <c r="B66">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C66" s="2">
-        <v>536.9869995117188</v>
+        <v>518.8560180664062</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1121,10 +1121,10 @@
         <v>4</v>
       </c>
       <c r="B67">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C67" s="2">
-        <v>517.9439697265625</v>
+        <v>478.4519958496094</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1132,10 +1132,10 @@
         <v>4</v>
       </c>
       <c r="B68">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C68" s="2">
-        <v>518.8560180664062</v>
+        <v>488.989990234375</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1143,10 +1143,10 @@
         <v>4</v>
       </c>
       <c r="B69">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C69" s="2">
-        <v>478.4519958496094</v>
+        <v>460.2250061035156</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1154,10 +1154,10 @@
         <v>4</v>
       </c>
       <c r="B70">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C70" s="2">
-        <v>488.989990234375</v>
+        <v>471.2799987792969</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1165,10 +1165,10 @@
         <v>4</v>
       </c>
       <c r="B71">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C71" s="2">
-        <v>460.2250061035156</v>
+        <v>460.5029907226562</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1176,10 +1176,10 @@
         <v>4</v>
       </c>
       <c r="B72">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C72" s="2">
-        <v>471.2799987792969</v>
+        <v>534.7020263671875</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1187,10 +1187,10 @@
         <v>4</v>
       </c>
       <c r="B73">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C73" s="2">
-        <v>460.5029907226562</v>
+        <v>577.1320190429688</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1198,10 +1198,10 @@
         <v>4</v>
       </c>
       <c r="B74">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C74" s="2">
-        <v>534.7020263671875</v>
+        <v>577.322998046875</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1209,10 +1209,10 @@
         <v>4</v>
       </c>
       <c r="B75">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C75" s="2">
-        <v>577.1320190429688</v>
+        <v>545.073974609375</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1220,10 +1220,10 @@
         <v>4</v>
       </c>
       <c r="B76">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C76" s="2">
-        <v>577.322998046875</v>
+        <v>536.3109741210938</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1231,10 +1231,10 @@
         <v>4</v>
       </c>
       <c r="B77">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C77" s="2">
-        <v>545.073974609375</v>
+        <v>405.9519958496094</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1242,10 +1242,10 @@
         <v>4</v>
       </c>
       <c r="B78">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C78" s="2">
-        <v>536.3109741210938</v>
+        <v>233.2510070800781</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1253,10 +1253,10 @@
         <v>4</v>
       </c>
       <c r="B79">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C79" s="2">
-        <v>405.9519958496094</v>
+        <v>309.9979858398438</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1264,10 +1264,10 @@
         <v>4</v>
       </c>
       <c r="B80">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C80" s="2">
-        <v>233.2510070800781</v>
+        <v>279.4909973144531</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1275,10 +1275,10 @@
         <v>4</v>
       </c>
       <c r="B81">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C81" s="2">
-        <v>309.9979858398438</v>
+        <v>256.6700134277344</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1286,10 +1286,10 @@
         <v>4</v>
       </c>
       <c r="B82">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C82" s="2">
-        <v>279.4909973144531</v>
+        <v>566.4609985351562</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1297,10 +1297,10 @@
         <v>4</v>
       </c>
       <c r="B83">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C83" s="2">
-        <v>256.6700134277344</v>
+        <v>730.5430297851562</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1308,10 +1308,10 @@
         <v>4</v>
       </c>
       <c r="B84">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C84" s="2">
-        <v>566.4609985351562</v>
+        <v>605.2559814453125</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1319,10 +1319,10 @@
         <v>4</v>
       </c>
       <c r="B85">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C85" s="2">
-        <v>730.5430297851562</v>
+        <v>296.5929870605469</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1330,10 +1330,10 @@
         <v>4</v>
       </c>
       <c r="B86">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C86" s="2">
-        <v>605.2559814453125</v>
+        <v>432.4259948730469</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1341,10 +1341,10 @@
         <v>4</v>
       </c>
       <c r="B87">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C87" s="2">
-        <v>296.5929870605469</v>
+        <v>437.2680053710938</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1352,10 +1352,10 @@
         <v>4</v>
       </c>
       <c r="B88">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C88" s="2">
-        <v>432.4259948730469</v>
+        <v>284.3760070800781</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1363,10 +1363,10 @@
         <v>4</v>
       </c>
       <c r="B89">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C89" s="2">
-        <v>437.2680053710938</v>
+        <v>523.760986328125</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1374,10 +1374,10 @@
         <v>4</v>
       </c>
       <c r="B90">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C90" s="2">
-        <v>284.3760070800781</v>
+        <v>585.708984375</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1385,10 +1385,10 @@
         <v>4</v>
       </c>
       <c r="B91">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C91" s="2">
-        <v>523.760986328125</v>
+        <v>699.8720092773438</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1396,10 +1396,10 @@
         <v>4</v>
       </c>
       <c r="B92">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C92" s="2">
-        <v>585.708984375</v>
+        <v>466.4819946289062</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1407,10 +1407,10 @@
         <v>4</v>
       </c>
       <c r="B93">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C93" s="2">
-        <v>699.8720092773438</v>
+        <v>323.2080078125</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1418,10 +1418,10 @@
         <v>4</v>
       </c>
       <c r="B94">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C94" s="2">
-        <v>466.4819946289062</v>
+        <v>266.6849975585938</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1429,10 +1429,10 @@
         <v>4</v>
       </c>
       <c r="B95">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C95" s="2">
-        <v>323.2080078125</v>
+        <v>227.2850036621094</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1440,10 +1440,10 @@
         <v>4</v>
       </c>
       <c r="B96">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C96" s="2">
-        <v>266.6849975585938</v>
+        <v>171.39599609375</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1451,10 +1451,10 @@
         <v>4</v>
       </c>
       <c r="B97">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C97" s="2">
-        <v>227.2850036621094</v>
+        <v>174.572998046875</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1462,10 +1462,10 @@
         <v>4</v>
       </c>
       <c r="B98">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C98" s="2">
-        <v>171.39599609375</v>
+        <v>157.3489990234375</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1473,10 +1473,10 @@
         <v>4</v>
       </c>
       <c r="B99">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C99" s="2">
-        <v>174.572998046875</v>
+        <v>213.822998046875</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1484,10 +1484,10 @@
         <v>4</v>
       </c>
       <c r="B100">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C100" s="2">
-        <v>157.3489990234375</v>
+        <v>187.9949951171875</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1495,10 +1495,10 @@
         <v>4</v>
       </c>
       <c r="B101">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C101" s="2">
-        <v>213.822998046875</v>
+        <v>182.5050048828125</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1506,10 +1506,10 @@
         <v>4</v>
       </c>
       <c r="B102">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C102" s="2">
-        <v>187.9949951171875</v>
+        <v>201.3930053710938</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1517,10 +1517,10 @@
         <v>4</v>
       </c>
       <c r="B103">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C103" s="2">
-        <v>182.5050048828125</v>
+        <v>247.2359924316406</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1528,10 +1528,10 @@
         <v>4</v>
       </c>
       <c r="B104">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C104" s="2">
-        <v>201.3930053710938</v>
+        <v>191.9340057373047</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1539,10 +1539,10 @@
         <v>4</v>
       </c>
       <c r="B105">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C105" s="2">
-        <v>247.2359924316406</v>
+        <v>157.2380065917969</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1550,10 +1550,10 @@
         <v>4</v>
       </c>
       <c r="B106">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C106" s="2">
-        <v>191.9340057373047</v>
+        <v>271.5979919433594</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1561,10 +1561,10 @@
         <v>4</v>
       </c>
       <c r="B107">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C107" s="2">
-        <v>157.2380065917969</v>
+        <v>290.2109985351562</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1572,10 +1572,10 @@
         <v>4</v>
       </c>
       <c r="B108">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C108" s="2">
-        <v>271.5979919433594</v>
+        <v>268.7730102539062</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1583,10 +1583,10 @@
         <v>4</v>
       </c>
       <c r="B109">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C109" s="2">
-        <v>290.2109985351562</v>
+        <v>266.8349914550781</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1594,10 +1594,10 @@
         <v>4</v>
       </c>
       <c r="B110">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C110" s="2">
-        <v>268.7730102539062</v>
+        <v>240.6380004882812</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1605,10 +1605,10 @@
         <v>4</v>
       </c>
       <c r="B111">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C111" s="2">
-        <v>266.8349914550781</v>
+        <v>213.9539947509766</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1616,10 +1616,10 @@
         <v>4</v>
       </c>
       <c r="B112">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C112" s="2">
-        <v>240.6380004882812</v>
+        <v>129.072998046875</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1627,10 +1627,10 @@
         <v>4</v>
       </c>
       <c r="B113">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C113" s="2">
-        <v>213.9539947509766</v>
+        <v>38.72800064086914</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1638,10 +1638,10 @@
         <v>4</v>
       </c>
       <c r="B114">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C114" s="2">
-        <v>129.072998046875</v>
+        <v>123.9290008544922</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1649,10 +1649,10 @@
         <v>4</v>
       </c>
       <c r="B115">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C115" s="2">
-        <v>38.72800064086914</v>
+        <v>20.4689998626709</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1660,10 +1660,10 @@
         <v>4</v>
       </c>
       <c r="B116">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C116" s="2">
-        <v>123.9290008544922</v>
+        <v>86.74800109863281</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1671,10 +1671,10 @@
         <v>4</v>
       </c>
       <c r="B117">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C117" s="2">
-        <v>20.4689998626709</v>
+        <v>28.36300086975098</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1682,10 +1682,10 @@
         <v>4</v>
       </c>
       <c r="B118">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C118" s="2">
-        <v>86.74800109863281</v>
+        <v>26.97599983215332</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1693,10 +1693,10 @@
         <v>4</v>
       </c>
       <c r="B119">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C119" s="2">
-        <v>28.36300086975098</v>
+        <v>82.72100067138672</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1704,10 +1704,10 @@
         <v>4</v>
       </c>
       <c r="B120">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C120" s="2">
-        <v>26.97599983215332</v>
+        <v>65.40499877929688</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1715,10 +1715,10 @@
         <v>4</v>
       </c>
       <c r="B121">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C121" s="2">
-        <v>82.72100067138672</v>
+        <v>118.5130004882812</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1726,10 +1726,10 @@
         <v>4</v>
       </c>
       <c r="B122">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C122" s="2">
-        <v>65.40499877929688</v>
+        <v>180.4040069580078</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1737,10 +1737,10 @@
         <v>4</v>
       </c>
       <c r="B123">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C123" s="2">
-        <v>118.5130004882812</v>
+        <v>158.9859924316406</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1748,10 +1748,10 @@
         <v>4</v>
       </c>
       <c r="B124">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C124" s="2">
-        <v>180.4040069580078</v>
+        <v>192.8379974365234</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1759,10 +1759,10 @@
         <v>4</v>
       </c>
       <c r="B125">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C125" s="2">
-        <v>158.9859924316406</v>
+        <v>221.2460021972656</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1770,10 +1770,10 @@
         <v>4</v>
       </c>
       <c r="B126">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C126" s="2">
-        <v>192.8379974365234</v>
+        <v>195.2960052490234</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1781,10 +1781,10 @@
         <v>4</v>
       </c>
       <c r="B127">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C127" s="2">
-        <v>221.2460021972656</v>
+        <v>195.6940002441406</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1792,10 +1792,10 @@
         <v>4</v>
       </c>
       <c r="B128">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C128" s="2">
-        <v>195.2960052490234</v>
+        <v>187.4129943847656</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1803,10 +1803,10 @@
         <v>4</v>
       </c>
       <c r="B129">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C129" s="2">
-        <v>195.6940002441406</v>
+        <v>180.1999969482422</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1814,10 +1814,10 @@
         <v>4</v>
       </c>
       <c r="B130">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C130" s="2">
-        <v>187.4129943847656</v>
+        <v>153.5249938964844</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1825,10 +1825,10 @@
         <v>4</v>
       </c>
       <c r="B131">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C131" s="2">
-        <v>180.1999969482422</v>
+        <v>162.8549957275391</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1836,10 +1836,10 @@
         <v>4</v>
       </c>
       <c r="B132">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C132" s="2">
-        <v>153.5249938964844</v>
+        <v>149.5149993896484</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1847,10 +1847,10 @@
         <v>4</v>
       </c>
       <c r="B133">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C133" s="2">
-        <v>162.8549957275391</v>
+        <v>149.3919982910156</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1858,10 +1858,10 @@
         <v>4</v>
       </c>
       <c r="B134">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C134" s="2">
-        <v>149.5149993896484</v>
+        <v>137.4109954833984</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1869,10 +1869,10 @@
         <v>4</v>
       </c>
       <c r="B135">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C135" s="2">
-        <v>149.3919982910156</v>
+        <v>117.4619979858398</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1880,10 +1880,10 @@
         <v>4</v>
       </c>
       <c r="B136">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C136" s="2">
-        <v>137.4109954833984</v>
+        <v>137.2599945068359</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1891,10 +1891,10 @@
         <v>4</v>
       </c>
       <c r="B137">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C137" s="2">
-        <v>117.4619979858398</v>
+        <v>134.3509979248047</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1902,10 +1902,10 @@
         <v>4</v>
       </c>
       <c r="B138">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C138" s="2">
-        <v>137.2599945068359</v>
+        <v>143.3619995117188</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1913,10 +1913,10 @@
         <v>4</v>
       </c>
       <c r="B139">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C139" s="2">
-        <v>134.3509979248047</v>
+        <v>132.4900054931641</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1924,10 +1924,10 @@
         <v>4</v>
       </c>
       <c r="B140">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C140" s="2">
-        <v>143.3619995117188</v>
+        <v>164.5319976806641</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1935,10 +1935,10 @@
         <v>4</v>
       </c>
       <c r="B141">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C141" s="2">
-        <v>132.4900054931641</v>
+        <v>248.7319946289062</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1946,10 +1946,10 @@
         <v>4</v>
       </c>
       <c r="B142">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C142" s="2">
-        <v>164.5319976806641</v>
+        <v>306.4360046386719</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1957,10 +1957,10 @@
         <v>4</v>
       </c>
       <c r="B143">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C143" s="2">
-        <v>248.7319946289062</v>
+        <v>238.7539978027344</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1968,10 +1968,10 @@
         <v>4</v>
       </c>
       <c r="B144">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C144" s="2">
-        <v>306.4360046386719</v>
+        <v>252.7440032958984</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1979,32 +1979,32 @@
         <v>4</v>
       </c>
       <c r="B145">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C145" s="2">
-        <v>238.7539978027344</v>
+        <v>205.8890075683594</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B146">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="C146" s="2">
-        <v>252.7440032958984</v>
+        <v>375.4939880371094</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B147">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="C147" s="2">
-        <v>205.8890075683594</v>
+        <v>392.9630126953125</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2012,10 +2012,10 @@
         <v>5</v>
       </c>
       <c r="B148">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C148" s="2">
-        <v>375.4939880371094</v>
+        <v>293.2900085449219</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2023,10 +2023,10 @@
         <v>5</v>
       </c>
       <c r="B149">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C149" s="2">
-        <v>392.9630126953125</v>
+        <v>240.1790008544922</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2034,10 +2034,10 @@
         <v>5</v>
       </c>
       <c r="B150">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C150" s="2">
-        <v>293.2900085449219</v>
+        <v>214.718994140625</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2045,10 +2045,10 @@
         <v>5</v>
       </c>
       <c r="B151">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C151" s="2">
-        <v>240.1790008544922</v>
+        <v>210.3739929199219</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2056,10 +2056,10 @@
         <v>5</v>
       </c>
       <c r="B152">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C152" s="2">
-        <v>214.718994140625</v>
+        <v>199.0059967041016</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2067,10 +2067,10 @@
         <v>5</v>
       </c>
       <c r="B153">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C153" s="2">
-        <v>210.3739929199219</v>
+        <v>170.4179992675781</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2078,10 +2078,10 @@
         <v>5</v>
       </c>
       <c r="B154">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C154" s="2">
-        <v>199.0059967041016</v>
+        <v>140.9799957275391</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2089,10 +2089,10 @@
         <v>5</v>
       </c>
       <c r="B155">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C155" s="2">
-        <v>170.4179992675781</v>
+        <v>101.2419967651367</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2100,10 +2100,10 @@
         <v>5</v>
       </c>
       <c r="B156">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C156" s="2">
-        <v>140.9799957275391</v>
+        <v>78.92299652099609</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2111,10 +2111,10 @@
         <v>5</v>
       </c>
       <c r="B157">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C157" s="2">
-        <v>101.2419967651367</v>
+        <v>80.80699920654297</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2122,10 +2122,10 @@
         <v>5</v>
       </c>
       <c r="B158">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C158" s="2">
-        <v>78.92299652099609</v>
+        <v>86.42900085449219</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2133,10 +2133,10 @@
         <v>5</v>
       </c>
       <c r="B159">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C159" s="2">
-        <v>80.80699920654297</v>
+        <v>91.61799621582031</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2144,10 +2144,10 @@
         <v>5</v>
       </c>
       <c r="B160">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C160" s="2">
-        <v>86.42900085449219</v>
+        <v>67.89199829101562</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2155,10 +2155,10 @@
         <v>5</v>
       </c>
       <c r="B161">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C161" s="2">
-        <v>91.61799621582031</v>
+        <v>68.97299957275391</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2166,10 +2166,10 @@
         <v>5</v>
       </c>
       <c r="B162">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C162" s="2">
-        <v>67.89199829101562</v>
+        <v>24.06500053405762</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2177,10 +2177,10 @@
         <v>5</v>
       </c>
       <c r="B163">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C163" s="2">
-        <v>68.97299957275391</v>
+        <v>31.58200073242188</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2188,10 +2188,10 @@
         <v>5</v>
       </c>
       <c r="B164">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C164" s="2">
-        <v>24.06500053405762</v>
+        <v>29.26399993896484</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2199,10 +2199,10 @@
         <v>5</v>
       </c>
       <c r="B165">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C165" s="2">
-        <v>31.58200073242188</v>
+        <v>18.47500038146973</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2210,10 +2210,10 @@
         <v>5</v>
       </c>
       <c r="B166">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C166" s="2">
-        <v>29.26399993896484</v>
+        <v>81.08499908447266</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2221,10 +2221,10 @@
         <v>5</v>
       </c>
       <c r="B167">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C167" s="2">
-        <v>18.47500038146973</v>
+        <v>90.49299621582031</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2232,10 +2232,10 @@
         <v>5</v>
       </c>
       <c r="B168">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C168" s="2">
-        <v>81.08499908447266</v>
+        <v>55.31900024414062</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2243,10 +2243,10 @@
         <v>5</v>
       </c>
       <c r="B169">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C169" s="2">
-        <v>90.49299621582031</v>
+        <v>47.87300109863281</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2254,10 +2254,10 @@
         <v>5</v>
       </c>
       <c r="B170">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C170" s="2">
-        <v>55.31900024414062</v>
+        <v>86.6510009765625</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2265,10 +2265,10 @@
         <v>5</v>
       </c>
       <c r="B171">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C171" s="2">
-        <v>47.87300109863281</v>
+        <v>39.20800018310547</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2276,10 +2276,10 @@
         <v>5</v>
       </c>
       <c r="B172">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C172" s="2">
-        <v>86.6510009765625</v>
+        <v>35.23300170898438</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2287,10 +2287,10 @@
         <v>5</v>
       </c>
       <c r="B173">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C173" s="2">
-        <v>39.20800018310547</v>
+        <v>91.55400085449219</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2298,10 +2298,10 @@
         <v>5</v>
       </c>
       <c r="B174">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C174" s="2">
-        <v>35.23300170898438</v>
+        <v>114.2399978637695</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2309,10 +2309,10 @@
         <v>5</v>
       </c>
       <c r="B175">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C175" s="2">
-        <v>91.55400085449219</v>
+        <v>78.71099853515625</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2320,10 +2320,10 @@
         <v>5</v>
       </c>
       <c r="B176">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C176" s="2">
-        <v>114.2399978637695</v>
+        <v>43.48899841308594</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2331,10 +2331,10 @@
         <v>5</v>
       </c>
       <c r="B177">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C177" s="2">
-        <v>78.71099853515625</v>
+        <v>10.38700008392334</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2342,10 +2342,10 @@
         <v>5</v>
       </c>
       <c r="B178">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C178" s="2">
-        <v>43.48899841308594</v>
+        <v>0.5720000267028809</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2353,10 +2353,10 @@
         <v>5</v>
       </c>
       <c r="B179">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C179" s="2">
-        <v>10.38700008392334</v>
+        <v>-49.48500061035156</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2364,10 +2364,10 @@
         <v>5</v>
       </c>
       <c r="B180">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C180" s="2">
-        <v>0.5720000267028809</v>
+        <v>0.3930000066757202</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2375,10 +2375,10 @@
         <v>5</v>
       </c>
       <c r="B181">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C181" s="2">
-        <v>-49.48500061035156</v>
+        <v>-11.83600044250488</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2386,10 +2386,10 @@
         <v>5</v>
       </c>
       <c r="B182">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C182" s="2">
-        <v>0.3930000066757202</v>
+        <v>4.931000232696533</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2397,10 +2397,10 @@
         <v>5</v>
       </c>
       <c r="B183">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C183" s="2">
-        <v>-11.83600044250488</v>
+        <v>70.37599945068359</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2408,10 +2408,10 @@
         <v>5</v>
       </c>
       <c r="B184">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C184" s="2">
-        <v>4.931000232696533</v>
+        <v>43.14799880981445</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2419,10 +2419,10 @@
         <v>5</v>
       </c>
       <c r="B185">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C185" s="2">
-        <v>70.37599945068359</v>
+        <v>45.23500061035156</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2430,10 +2430,10 @@
         <v>5</v>
       </c>
       <c r="B186">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C186" s="2">
-        <v>43.14799880981445</v>
+        <v>84.04299926757812</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2441,10 +2441,10 @@
         <v>5</v>
       </c>
       <c r="B187">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C187" s="2">
-        <v>45.23500061035156</v>
+        <v>86.36199951171875</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2452,10 +2452,10 @@
         <v>5</v>
       </c>
       <c r="B188">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C188" s="2">
-        <v>84.04299926757812</v>
+        <v>46.31700134277344</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2463,10 +2463,10 @@
         <v>5</v>
       </c>
       <c r="B189">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C189" s="2">
-        <v>86.36199951171875</v>
+        <v>36.35800170898438</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2474,10 +2474,10 @@
         <v>5</v>
       </c>
       <c r="B190">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C190" s="2">
-        <v>46.31700134277344</v>
+        <v>54.84700012207031</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2485,10 +2485,10 @@
         <v>5</v>
       </c>
       <c r="B191">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C191" s="2">
-        <v>36.35800170898438</v>
+        <v>17.10799980163574</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2496,10 +2496,10 @@
         <v>5</v>
       </c>
       <c r="B192">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C192" s="2">
-        <v>54.84700012207031</v>
+        <v>4.328000068664551</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2507,10 +2507,10 @@
         <v>5</v>
       </c>
       <c r="B193">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C193" s="2">
-        <v>17.10799980163574</v>
+        <v>94.63300323486328</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2518,10 +2518,10 @@
         <v>5</v>
       </c>
       <c r="B194">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C194" s="2">
-        <v>4.328000068664551</v>
+        <v>116.8310012817383</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2529,10 +2529,10 @@
         <v>5</v>
       </c>
       <c r="B195">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C195" s="2">
-        <v>94.63300323486328</v>
+        <v>236.0010070800781</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2540,10 +2540,10 @@
         <v>5</v>
       </c>
       <c r="B196">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C196" s="2">
-        <v>116.8310012817383</v>
+        <v>114.9619979858398</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2551,10 +2551,10 @@
         <v>5</v>
       </c>
       <c r="B197">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C197" s="2">
-        <v>236.0010070800781</v>
+        <v>62.68199920654297</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2562,10 +2562,10 @@
         <v>5</v>
       </c>
       <c r="B198">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C198" s="2">
-        <v>114.9619979858398</v>
+        <v>-5.026999950408936</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2573,10 +2573,10 @@
         <v>5</v>
       </c>
       <c r="B199">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C199" s="2">
-        <v>62.68199920654297</v>
+        <v>32.04999923706055</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2584,10 +2584,10 @@
         <v>5</v>
       </c>
       <c r="B200">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C200" s="2">
-        <v>-5.026999950408936</v>
+        <v>69.2030029296875</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2595,10 +2595,10 @@
         <v>5</v>
       </c>
       <c r="B201">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C201" s="2">
-        <v>32.04999923706055</v>
+        <v>46.67599868774414</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2606,10 +2606,10 @@
         <v>5</v>
       </c>
       <c r="B202">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C202" s="2">
-        <v>69.2030029296875</v>
+        <v>62.56999969482422</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2617,10 +2617,10 @@
         <v>5</v>
       </c>
       <c r="B203">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C203" s="2">
-        <v>46.67599868774414</v>
+        <v>97.37699890136719</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2628,10 +2628,10 @@
         <v>5</v>
       </c>
       <c r="B204">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C204" s="2">
-        <v>62.56999969482422</v>
+        <v>149.875</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2639,10 +2639,10 @@
         <v>5</v>
       </c>
       <c r="B205">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C205" s="2">
-        <v>97.37699890136719</v>
+        <v>187.9640045166016</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2650,10 +2650,10 @@
         <v>5</v>
       </c>
       <c r="B206">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C206" s="2">
-        <v>149.875</v>
+        <v>194.9190063476562</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2661,10 +2661,10 @@
         <v>5</v>
       </c>
       <c r="B207">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C207" s="2">
-        <v>187.9640045166016</v>
+        <v>187.3580017089844</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2672,10 +2672,10 @@
         <v>5</v>
       </c>
       <c r="B208">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C208" s="2">
-        <v>194.9190063476562</v>
+        <v>261.4440002441406</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2683,10 +2683,10 @@
         <v>5</v>
       </c>
       <c r="B209">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C209" s="2">
-        <v>187.3580017089844</v>
+        <v>397.93701171875</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2694,10 +2694,10 @@
         <v>5</v>
       </c>
       <c r="B210">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C210" s="2">
-        <v>261.4440002441406</v>
+        <v>497.0740051269531</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2705,10 +2705,10 @@
         <v>5</v>
       </c>
       <c r="B211">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C211" s="2">
-        <v>397.93701171875</v>
+        <v>688.2310180664062</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2716,10 +2716,10 @@
         <v>5</v>
       </c>
       <c r="B212">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C212" s="2">
-        <v>497.0740051269531</v>
+        <v>939.1259765625</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2727,10 +2727,10 @@
         <v>5</v>
       </c>
       <c r="B213">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C213" s="2">
-        <v>688.2310180664062</v>
+        <v>1123.1669921875</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2738,10 +2738,10 @@
         <v>5</v>
       </c>
       <c r="B214">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C214" s="2">
-        <v>939.1259765625</v>
+        <v>1207.449951171875</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2749,10 +2749,10 @@
         <v>5</v>
       </c>
       <c r="B215">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C215" s="2">
-        <v>1123.1669921875</v>
+        <v>911.885986328125</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2760,10 +2760,10 @@
         <v>5</v>
       </c>
       <c r="B216">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C216" s="2">
-        <v>1207.449951171875</v>
+        <v>783.6690063476562</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2771,10 +2771,10 @@
         <v>5</v>
       </c>
       <c r="B217">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C217" s="2">
-        <v>911.885986328125</v>
+        <v>813.0770263671875</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2782,10 +2782,10 @@
         <v>5</v>
       </c>
       <c r="B218">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C218" s="2">
-        <v>783.6690063476562</v>
+        <v>688.2329711914062</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2793,10 +2793,10 @@
         <v>5</v>
       </c>
       <c r="B219">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C219" s="2">
-        <v>813.0770263671875</v>
+        <v>664.0050048828125</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2804,10 +2804,10 @@
         <v>5</v>
       </c>
       <c r="B220">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C220" s="2">
-        <v>688.2329711914062</v>
+        <v>644.989990234375</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2815,10 +2815,10 @@
         <v>5</v>
       </c>
       <c r="B221">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C221" s="2">
-        <v>664.0050048828125</v>
+        <v>696.7680053710938</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2826,10 +2826,10 @@
         <v>5</v>
       </c>
       <c r="B222">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C222" s="2">
-        <v>644.989990234375</v>
+        <v>690.405029296875</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2837,10 +2837,10 @@
         <v>5</v>
       </c>
       <c r="B223">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C223" s="2">
-        <v>696.7680053710938</v>
+        <v>714.4630126953125</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2848,10 +2848,10 @@
         <v>5</v>
       </c>
       <c r="B224">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C224" s="2">
-        <v>690.405029296875</v>
+        <v>653.4140014648438</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2859,10 +2859,10 @@
         <v>5</v>
       </c>
       <c r="B225">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C225" s="2">
-        <v>714.4630126953125</v>
+        <v>710.6380004882812</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2870,10 +2870,10 @@
         <v>5</v>
       </c>
       <c r="B226">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C226" s="2">
-        <v>653.4140014648438</v>
+        <v>716.885986328125</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2881,10 +2881,10 @@
         <v>5</v>
       </c>
       <c r="B227">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C227" s="2">
-        <v>710.6380004882812</v>
+        <v>534.89599609375</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2892,10 +2892,10 @@
         <v>5</v>
       </c>
       <c r="B228">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C228" s="2">
-        <v>716.885986328125</v>
+        <v>566.2979736328125</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2903,10 +2903,10 @@
         <v>5</v>
       </c>
       <c r="B229">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C229" s="2">
-        <v>534.89599609375</v>
+        <v>528.3660278320312</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2914,10 +2914,10 @@
         <v>5</v>
       </c>
       <c r="B230">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C230" s="2">
-        <v>566.2979736328125</v>
+        <v>475.3280029296875</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2925,10 +2925,10 @@
         <v>5</v>
       </c>
       <c r="B231">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C231" s="2">
-        <v>528.3660278320312</v>
+        <v>411.510009765625</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2936,10 +2936,10 @@
         <v>5</v>
       </c>
       <c r="B232">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C232" s="2">
-        <v>475.3280029296875</v>
+        <v>376.0220031738281</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2947,10 +2947,10 @@
         <v>5</v>
       </c>
       <c r="B233">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C233" s="2">
-        <v>411.510009765625</v>
+        <v>333.9609985351562</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2958,10 +2958,10 @@
         <v>5</v>
       </c>
       <c r="B234">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C234" s="2">
-        <v>376.0220031738281</v>
+        <v>283.6300048828125</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2969,10 +2969,10 @@
         <v>5</v>
       </c>
       <c r="B235">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C235" s="2">
-        <v>333.9609985351562</v>
+        <v>278.6080017089844</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2980,10 +2980,10 @@
         <v>5</v>
       </c>
       <c r="B236">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C236" s="2">
-        <v>283.6300048828125</v>
+        <v>223.1130065917969</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2991,10 +2991,10 @@
         <v>5</v>
       </c>
       <c r="B237">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C237" s="2">
-        <v>278.6080017089844</v>
+        <v>73.69200134277344</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3002,10 +3002,10 @@
         <v>5</v>
       </c>
       <c r="B238">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C238" s="2">
-        <v>223.1130065917969</v>
+        <v>80.35800170898438</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3013,10 +3013,10 @@
         <v>5</v>
       </c>
       <c r="B239">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C239" s="2">
-        <v>73.69200134277344</v>
+        <v>121.2929992675781</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3024,10 +3024,10 @@
         <v>5</v>
       </c>
       <c r="B240">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C240" s="2">
-        <v>80.35800170898438</v>
+        <v>141.9389953613281</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3035,32 +3035,32 @@
         <v>5</v>
       </c>
       <c r="B241">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C241" s="2">
-        <v>121.2929992675781</v>
+        <v>209.3500061035156</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B242">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="C242" s="2">
-        <v>141.9389953613281</v>
+        <v>257.1640014648438</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B243">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="C243" s="2">
-        <v>209.3500061035156</v>
+        <v>234.875</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3068,10 +3068,10 @@
         <v>6</v>
       </c>
       <c r="B244">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C244" s="2">
-        <v>257.1640014648438</v>
+        <v>279.5140075683594</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3079,10 +3079,10 @@
         <v>6</v>
       </c>
       <c r="B245">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C245" s="2">
-        <v>234.875</v>
+        <v>251.8710021972656</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3090,10 +3090,10 @@
         <v>6</v>
       </c>
       <c r="B246">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C246" s="2">
-        <v>279.5140075683594</v>
+        <v>225.3359985351562</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3101,10 +3101,10 @@
         <v>6</v>
       </c>
       <c r="B247">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C247" s="2">
-        <v>251.8710021972656</v>
+        <v>263.135986328125</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3112,10 +3112,10 @@
         <v>6</v>
       </c>
       <c r="B248">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C248" s="2">
-        <v>225.3359985351562</v>
+        <v>176.5659942626953</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3123,10 +3123,10 @@
         <v>6</v>
       </c>
       <c r="B249">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C249" s="2">
-        <v>263.135986328125</v>
+        <v>188.4559936523438</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3134,10 +3134,10 @@
         <v>6</v>
       </c>
       <c r="B250">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C250" s="2">
-        <v>176.5659942626953</v>
+        <v>151.2120056152344</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3145,10 +3145,10 @@
         <v>6</v>
       </c>
       <c r="B251">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C251" s="2">
-        <v>188.4559936523438</v>
+        <v>163.2619934082031</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3156,10 +3156,10 @@
         <v>6</v>
       </c>
       <c r="B252">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C252" s="2">
-        <v>151.2120056152344</v>
+        <v>173.4880065917969</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3167,10 +3167,10 @@
         <v>6</v>
       </c>
       <c r="B253">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C253" s="2">
-        <v>163.2619934082031</v>
+        <v>123.0879974365234</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3178,10 +3178,10 @@
         <v>6</v>
       </c>
       <c r="B254">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C254" s="2">
-        <v>173.4880065917969</v>
+        <v>109.5579986572266</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3189,10 +3189,10 @@
         <v>6</v>
       </c>
       <c r="B255">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C255" s="2">
-        <v>123.0879974365234</v>
+        <v>146.9969940185547</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3200,10 +3200,10 @@
         <v>6</v>
       </c>
       <c r="B256">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C256" s="2">
-        <v>109.5579986572266</v>
+        <v>131.4889984130859</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3211,10 +3211,10 @@
         <v>6</v>
       </c>
       <c r="B257">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C257" s="2">
-        <v>146.9969940185547</v>
+        <v>129.3430023193359</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3222,10 +3222,10 @@
         <v>6</v>
       </c>
       <c r="B258">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C258" s="2">
-        <v>131.4889984130859</v>
+        <v>174.8370056152344</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3233,10 +3233,10 @@
         <v>6</v>
       </c>
       <c r="B259">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C259" s="2">
-        <v>129.3430023193359</v>
+        <v>219.0859985351562</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3244,10 +3244,10 @@
         <v>6</v>
       </c>
       <c r="B260">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C260" s="2">
-        <v>174.8370056152344</v>
+        <v>265.1650085449219</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3255,10 +3255,10 @@
         <v>6</v>
       </c>
       <c r="B261">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C261" s="2">
-        <v>219.0859985351562</v>
+        <v>277.0379943847656</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3266,10 +3266,10 @@
         <v>6</v>
       </c>
       <c r="B262">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C262" s="2">
-        <v>265.1650085449219</v>
+        <v>249.3569946289062</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3277,10 +3277,10 @@
         <v>6</v>
       </c>
       <c r="B263">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C263" s="2">
-        <v>277.0379943847656</v>
+        <v>251.875</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3288,10 +3288,10 @@
         <v>6</v>
       </c>
       <c r="B264">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C264" s="2">
-        <v>249.3569946289062</v>
+        <v>240.1920013427734</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3299,10 +3299,10 @@
         <v>6</v>
       </c>
       <c r="B265">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C265" s="2">
-        <v>251.875</v>
+        <v>233.9409942626953</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3310,10 +3310,10 @@
         <v>6</v>
       </c>
       <c r="B266">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C266" s="2">
-        <v>240.1920013427734</v>
+        <v>185.9720001220703</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3321,10 +3321,10 @@
         <v>6</v>
       </c>
       <c r="B267">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C267" s="2">
-        <v>233.9409942626953</v>
+        <v>191.3350067138672</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3332,10 +3332,10 @@
         <v>6</v>
       </c>
       <c r="B268">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C268" s="2">
-        <v>185.9720001220703</v>
+        <v>228.9730072021484</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3343,10 +3343,10 @@
         <v>6</v>
       </c>
       <c r="B269">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C269" s="2">
-        <v>191.3350067138672</v>
+        <v>317.1780090332031</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3354,10 +3354,10 @@
         <v>6</v>
       </c>
       <c r="B270">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C270" s="2">
-        <v>228.9730072021484</v>
+        <v>326.1239929199219</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3365,10 +3365,10 @@
         <v>6</v>
       </c>
       <c r="B271">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C271" s="2">
-        <v>317.1780090332031</v>
+        <v>318.4030151367188</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3376,10 +3376,10 @@
         <v>6</v>
       </c>
       <c r="B272">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C272" s="2">
-        <v>326.1239929199219</v>
+        <v>516.4320068359375</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3387,10 +3387,10 @@
         <v>6</v>
       </c>
       <c r="B273">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C273" s="2">
-        <v>318.4030151367188</v>
+        <v>705.0689697265625</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3398,10 +3398,10 @@
         <v>6</v>
       </c>
       <c r="B274">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C274" s="2">
-        <v>516.4320068359375</v>
+        <v>1054.64599609375</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3409,10 +3409,10 @@
         <v>6</v>
       </c>
       <c r="B275">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C275" s="2">
-        <v>705.0689697265625</v>
+        <v>950.989990234375</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3420,10 +3420,10 @@
         <v>6</v>
       </c>
       <c r="B276">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C276" s="2">
-        <v>1054.64599609375</v>
+        <v>1080.319946289062</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3431,10 +3431,10 @@
         <v>6</v>
       </c>
       <c r="B277">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C277" s="2">
-        <v>950.989990234375</v>
+        <v>991.8800048828125</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3442,10 +3442,10 @@
         <v>6</v>
       </c>
       <c r="B278">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C278" s="2">
-        <v>1080.319946289062</v>
+        <v>1036.281005859375</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3453,10 +3453,10 @@
         <v>6</v>
       </c>
       <c r="B279">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C279" s="2">
-        <v>991.8800048828125</v>
+        <v>881.1929931640625</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3464,10 +3464,10 @@
         <v>6</v>
       </c>
       <c r="B280">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C280" s="2">
-        <v>1036.281005859375</v>
+        <v>839.281982421875</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3475,10 +3475,10 @@
         <v>6</v>
       </c>
       <c r="B281">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C281" s="2">
-        <v>881.1929931640625</v>
+        <v>1026.546997070312</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3486,10 +3486,10 @@
         <v>6</v>
       </c>
       <c r="B282">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C282" s="2">
-        <v>839.281982421875</v>
+        <v>1190.384033203125</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3497,10 +3497,10 @@
         <v>6</v>
       </c>
       <c r="B283">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C283" s="2">
-        <v>1026.546997070312</v>
+        <v>1267.838989257812</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3508,10 +3508,10 @@
         <v>6</v>
       </c>
       <c r="B284">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C284" s="2">
-        <v>1190.384033203125</v>
+        <v>1307.779052734375</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3519,10 +3519,10 @@
         <v>6</v>
       </c>
       <c r="B285">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C285" s="2">
-        <v>1267.838989257812</v>
+        <v>1204.134033203125</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3530,10 +3530,10 @@
         <v>6</v>
       </c>
       <c r="B286">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C286" s="2">
-        <v>1307.779052734375</v>
+        <v>1244.159057617188</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3541,10 +3541,10 @@
         <v>6</v>
       </c>
       <c r="B287">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C287" s="2">
-        <v>1204.134033203125</v>
+        <v>1123.943969726562</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3552,10 +3552,10 @@
         <v>6</v>
       </c>
       <c r="B288">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C288" s="2">
-        <v>1244.159057617188</v>
+        <v>1240.5830078125</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3563,10 +3563,10 @@
         <v>6</v>
       </c>
       <c r="B289">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C289" s="2">
-        <v>1123.943969726562</v>
+        <v>1435.800048828125</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3574,10 +3574,10 @@
         <v>6</v>
       </c>
       <c r="B290">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C290" s="2">
-        <v>1240.5830078125</v>
+        <v>1429.326049804688</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3585,10 +3585,10 @@
         <v>6</v>
       </c>
       <c r="B291">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C291" s="2">
-        <v>1435.800048828125</v>
+        <v>1566.677001953125</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3596,10 +3596,10 @@
         <v>6</v>
       </c>
       <c r="B292">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C292" s="2">
-        <v>1429.326049804688</v>
+        <v>1731.546997070312</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3607,10 +3607,10 @@
         <v>6</v>
       </c>
       <c r="B293">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C293" s="2">
-        <v>1566.677001953125</v>
+        <v>1759.328002929688</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3618,10 +3618,10 @@
         <v>6</v>
       </c>
       <c r="B294">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C294" s="2">
-        <v>1731.546997070312</v>
+        <v>1819.254028320312</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3629,10 +3629,10 @@
         <v>6</v>
       </c>
       <c r="B295">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C295" s="2">
-        <v>1759.328002929688</v>
+        <v>1855.27099609375</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3640,10 +3640,10 @@
         <v>6</v>
       </c>
       <c r="B296">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C296" s="2">
-        <v>1819.254028320312</v>
+        <v>1983.18896484375</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3651,10 +3651,10 @@
         <v>6</v>
       </c>
       <c r="B297">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C297" s="2">
-        <v>1855.27099609375</v>
+        <v>1992.241943359375</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3662,10 +3662,10 @@
         <v>6</v>
       </c>
       <c r="B298">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C298" s="2">
-        <v>1983.18896484375</v>
+        <v>2090.43798828125</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3673,10 +3673,10 @@
         <v>6</v>
       </c>
       <c r="B299">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C299" s="2">
-        <v>1992.241943359375</v>
+        <v>2098.9580078125</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3684,10 +3684,10 @@
         <v>6</v>
       </c>
       <c r="B300">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C300" s="2">
-        <v>2090.43798828125</v>
+        <v>2139.2939453125</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3695,10 +3695,10 @@
         <v>6</v>
       </c>
       <c r="B301">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C301" s="2">
-        <v>2098.9580078125</v>
+        <v>2152.2900390625</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3706,10 +3706,10 @@
         <v>6</v>
       </c>
       <c r="B302">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C302" s="2">
-        <v>2139.2939453125</v>
+        <v>2180.452880859375</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3717,10 +3717,10 @@
         <v>6</v>
       </c>
       <c r="B303">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C303" s="2">
-        <v>2152.2900390625</v>
+        <v>2093.989013671875</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3728,10 +3728,10 @@
         <v>6</v>
       </c>
       <c r="B304">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C304" s="2">
-        <v>2180.452880859375</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3739,10 +3739,10 @@
         <v>6</v>
       </c>
       <c r="B305">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C305" s="2">
-        <v>2093.989013671875</v>
+        <v>1868.001953125</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3750,10 +3750,10 @@
         <v>6</v>
       </c>
       <c r="B306">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C306" s="2">
-        <v>2023</v>
+        <v>1925.880981445312</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3761,10 +3761,10 @@
         <v>6</v>
       </c>
       <c r="B307">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C307" s="2">
-        <v>1868.001953125</v>
+        <v>1821.9189453125</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3772,10 +3772,10 @@
         <v>6</v>
       </c>
       <c r="B308">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C308" s="2">
-        <v>1925.880981445312</v>
+        <v>1800.68896484375</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3783,10 +3783,10 @@
         <v>6</v>
       </c>
       <c r="B309">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C309" s="2">
-        <v>1821.9189453125</v>
+        <v>2203.43994140625</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3794,10 +3794,10 @@
         <v>6</v>
       </c>
       <c r="B310">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C310" s="2">
-        <v>1800.68896484375</v>
+        <v>2265.241943359375</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3805,10 +3805,10 @@
         <v>6</v>
       </c>
       <c r="B311">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C311" s="2">
-        <v>2203.43994140625</v>
+        <v>2100.72900390625</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3816,10 +3816,10 @@
         <v>6</v>
       </c>
       <c r="B312">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C312" s="2">
-        <v>2265.241943359375</v>
+        <v>1903.0009765625</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3827,10 +3827,10 @@
         <v>6</v>
       </c>
       <c r="B313">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C313" s="2">
-        <v>2100.72900390625</v>
+        <v>1825.800048828125</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3838,10 +3838,10 @@
         <v>6</v>
       </c>
       <c r="B314">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C314" s="2">
-        <v>1903.0009765625</v>
+        <v>1824.5400390625</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3849,10 +3849,10 @@
         <v>6</v>
       </c>
       <c r="B315">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C315" s="2">
-        <v>1825.800048828125</v>
+        <v>1762.965942382812</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3860,10 +3860,10 @@
         <v>6</v>
       </c>
       <c r="B316">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C316" s="2">
-        <v>1824.5400390625</v>
+        <v>1788.5810546875</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -3871,10 +3871,10 @@
         <v>6</v>
       </c>
       <c r="B317">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C317" s="2">
-        <v>1762.965942382812</v>
+        <v>1737.156005859375</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -3882,10 +3882,10 @@
         <v>6</v>
       </c>
       <c r="B318">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C318" s="2">
-        <v>1788.5810546875</v>
+        <v>1734.9990234375</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -3893,10 +3893,10 @@
         <v>6</v>
       </c>
       <c r="B319">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C319" s="2">
-        <v>1737.156005859375</v>
+        <v>1614.008056640625</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -3904,10 +3904,10 @@
         <v>6</v>
       </c>
       <c r="B320">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C320" s="2">
-        <v>1734.9990234375</v>
+        <v>1654.110961914062</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -3915,10 +3915,10 @@
         <v>6</v>
       </c>
       <c r="B321">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C321" s="2">
-        <v>1614.008056640625</v>
+        <v>1483.260986328125</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -3926,10 +3926,10 @@
         <v>6</v>
       </c>
       <c r="B322">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C322" s="2">
-        <v>1654.110961914062</v>
+        <v>1444.753051757812</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -3937,10 +3937,10 @@
         <v>6</v>
       </c>
       <c r="B323">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C323" s="2">
-        <v>1483.260986328125</v>
+        <v>1356.953002929688</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -3948,10 +3948,10 @@
         <v>6</v>
       </c>
       <c r="B324">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C324" s="2">
-        <v>1444.753051757812</v>
+        <v>1354.990966796875</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -3959,10 +3959,10 @@
         <v>6</v>
       </c>
       <c r="B325">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C325" s="2">
-        <v>1356.953002929688</v>
+        <v>1320.1689453125</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -3970,10 +3970,10 @@
         <v>6</v>
       </c>
       <c r="B326">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C326" s="2">
-        <v>1354.990966796875</v>
+        <v>1337.077026367188</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -3981,10 +3981,10 @@
         <v>6</v>
       </c>
       <c r="B327">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C327" s="2">
-        <v>1320.1689453125</v>
+        <v>1365.193969726562</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -3992,10 +3992,10 @@
         <v>6</v>
       </c>
       <c r="B328">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C328" s="2">
-        <v>1337.077026367188</v>
+        <v>1428.536010742188</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -4003,10 +4003,10 @@
         <v>6</v>
       </c>
       <c r="B329">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C329" s="2">
-        <v>1365.193969726562</v>
+        <v>1479.517944335938</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -4014,10 +4014,10 @@
         <v>6</v>
       </c>
       <c r="B330">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C330" s="2">
-        <v>1428.536010742188</v>
+        <v>1493.864990234375</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4025,10 +4025,10 @@
         <v>6</v>
       </c>
       <c r="B331">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C331" s="2">
-        <v>1479.517944335938</v>
+        <v>1549.235961914062</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4036,10 +4036,10 @@
         <v>6</v>
       </c>
       <c r="B332">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C332" s="2">
-        <v>1493.864990234375</v>
+        <v>1601.083984375</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4047,10 +4047,10 @@
         <v>6</v>
       </c>
       <c r="B333">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C333" s="2">
-        <v>1549.235961914062</v>
+        <v>1585.97705078125</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4058,10 +4058,10 @@
         <v>6</v>
       </c>
       <c r="B334">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C334" s="2">
-        <v>1601.083984375</v>
+        <v>1594.2900390625</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4069,10 +4069,10 @@
         <v>6</v>
       </c>
       <c r="B335">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C335" s="2">
-        <v>1585.97705078125</v>
+        <v>1592.4169921875</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4080,10 +4080,10 @@
         <v>6</v>
       </c>
       <c r="B336">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C336" s="2">
-        <v>1594.2900390625</v>
+        <v>1467.982055664062</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4091,32 +4091,32 @@
         <v>6</v>
       </c>
       <c r="B337">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C337" s="2">
-        <v>1592.4169921875</v>
+        <v>1375.907958984375</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B338">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="C338" s="2">
-        <v>1467.982055664062</v>
+        <v>1445.14697265625</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B339">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="C339" s="2">
-        <v>1375.907958984375</v>
+        <v>1410.27001953125</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4124,10 +4124,10 @@
         <v>7</v>
       </c>
       <c r="B340">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C340" s="2">
-        <v>1445.14697265625</v>
+        <v>1448.744995117188</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4135,10 +4135,10 @@
         <v>7</v>
       </c>
       <c r="B341">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C341" s="2">
-        <v>1410.27001953125</v>
+        <v>1494.608032226562</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4146,10 +4146,10 @@
         <v>7</v>
       </c>
       <c r="B342">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C342" s="2">
-        <v>1448.744995117188</v>
+        <v>1544.114990234375</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4157,10 +4157,10 @@
         <v>7</v>
       </c>
       <c r="B343">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C343" s="2">
-        <v>1494.608032226562</v>
+        <v>1548.72802734375</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4168,10 +4168,10 @@
         <v>7</v>
       </c>
       <c r="B344">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C344" s="2">
-        <v>1544.114990234375</v>
+        <v>1550.086059570312</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4179,10 +4179,10 @@
         <v>7</v>
       </c>
       <c r="B345">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C345" s="2">
-        <v>1548.72802734375</v>
+        <v>1592.933959960938</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4190,10 +4190,10 @@
         <v>7</v>
       </c>
       <c r="B346">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C346" s="2">
-        <v>1550.086059570312</v>
+        <v>1574.373046875</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -4201,10 +4201,10 @@
         <v>7</v>
       </c>
       <c r="B347">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C347" s="2">
-        <v>1592.933959960938</v>
+        <v>1509.340942382812</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4212,10 +4212,10 @@
         <v>7</v>
       </c>
       <c r="B348">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C348" s="2">
-        <v>1574.373046875</v>
+        <v>1524.547973632812</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -4223,10 +4223,10 @@
         <v>7</v>
       </c>
       <c r="B349">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C349" s="2">
-        <v>1509.340942382812</v>
+        <v>1643.333984375</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4234,10 +4234,10 @@
         <v>7</v>
       </c>
       <c r="B350">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C350" s="2">
-        <v>1524.547973632812</v>
+        <v>1632.949951171875</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -4245,10 +4245,10 @@
         <v>7</v>
       </c>
       <c r="B351">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C351" s="2">
-        <v>1643.333984375</v>
+        <v>1586.901000976562</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4256,10 +4256,10 @@
         <v>7</v>
       </c>
       <c r="B352">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C352" s="2">
-        <v>1632.949951171875</v>
+        <v>1581.735961914062</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4267,10 +4267,10 @@
         <v>7</v>
       </c>
       <c r="B353">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C353" s="2">
-        <v>1586.901000976562</v>
+        <v>1561.178955078125</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4278,10 +4278,10 @@
         <v>7</v>
       </c>
       <c r="B354">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C354" s="2">
-        <v>1581.735961914062</v>
+        <v>1630.621948242188</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4289,10 +4289,10 @@
         <v>7</v>
       </c>
       <c r="B355">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C355" s="2">
-        <v>1561.178955078125</v>
+        <v>1602.31298828125</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4300,10 +4300,10 @@
         <v>7</v>
       </c>
       <c r="B356">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C356" s="2">
-        <v>1630.621948242188</v>
+        <v>1584.0400390625</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -4311,10 +4311,10 @@
         <v>7</v>
       </c>
       <c r="B357">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C357" s="2">
-        <v>1602.31298828125</v>
+        <v>1537.232055664062</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -4322,10 +4322,10 @@
         <v>7</v>
       </c>
       <c r="B358">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C358" s="2">
-        <v>1584.0400390625</v>
+        <v>1518.170043945312</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4333,10 +4333,10 @@
         <v>7</v>
       </c>
       <c r="B359">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C359" s="2">
-        <v>1537.232055664062</v>
+        <v>1632.517944335938</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4344,10 +4344,10 @@
         <v>7</v>
       </c>
       <c r="B360">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C360" s="2">
-        <v>1518.170043945312</v>
+        <v>1683.545043945312</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4355,10 +4355,10 @@
         <v>7</v>
       </c>
       <c r="B361">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C361" s="2">
-        <v>1632.517944335938</v>
+        <v>1670.614990234375</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4366,10 +4366,10 @@
         <v>7</v>
       </c>
       <c r="B362">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C362" s="2">
-        <v>1683.545043945312</v>
+        <v>1799.70703125</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4377,10 +4377,10 @@
         <v>7</v>
       </c>
       <c r="B363">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C363" s="2">
-        <v>1670.614990234375</v>
+        <v>1846.697998046875</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4388,10 +4388,10 @@
         <v>7</v>
       </c>
       <c r="B364">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C364" s="2">
-        <v>1799.70703125</v>
+        <v>2037.109985351562</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4399,10 +4399,10 @@
         <v>7</v>
       </c>
       <c r="B365">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C365" s="2">
-        <v>1846.697998046875</v>
+        <v>2293.18505859375</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4410,10 +4410,10 @@
         <v>7</v>
       </c>
       <c r="B366">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C366" s="2">
-        <v>2037.109985351562</v>
+        <v>2259.762939453125</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -4421,10 +4421,10 @@
         <v>7</v>
       </c>
       <c r="B367">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C367" s="2">
-        <v>2293.18505859375</v>
+        <v>2205.952880859375</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -4432,10 +4432,10 @@
         <v>7</v>
       </c>
       <c r="B368">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C368" s="2">
-        <v>2259.762939453125</v>
+        <v>2120.30908203125</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4443,10 +4443,10 @@
         <v>7</v>
       </c>
       <c r="B369">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C369" s="2">
-        <v>2205.952880859375</v>
+        <v>2228.50390625</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -4454,10 +4454,10 @@
         <v>7</v>
       </c>
       <c r="B370">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C370" s="2">
-        <v>2120.30908203125</v>
+        <v>2487.662109375</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -4465,10 +4465,10 @@
         <v>7</v>
       </c>
       <c r="B371">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C371" s="2">
-        <v>2228.50390625</v>
+        <v>2400.054931640625</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -4476,10 +4476,10 @@
         <v>7</v>
       </c>
       <c r="B372">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C372" s="2">
-        <v>2487.662109375</v>
+        <v>2379.448974609375</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -4487,10 +4487,10 @@
         <v>7</v>
       </c>
       <c r="B373">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C373" s="2">
-        <v>2400.054931640625</v>
+        <v>2400.43408203125</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4498,10 +4498,10 @@
         <v>7</v>
       </c>
       <c r="B374">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C374" s="2">
-        <v>2379.448974609375</v>
+        <v>2353.238037109375</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4509,10 +4509,10 @@
         <v>7</v>
       </c>
       <c r="B375">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C375" s="2">
-        <v>2400.43408203125</v>
+        <v>2450.986083984375</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4520,10 +4520,10 @@
         <v>7</v>
       </c>
       <c r="B376">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C376" s="2">
-        <v>2353.238037109375</v>
+        <v>2417.139892578125</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -4531,10 +4531,10 @@
         <v>7</v>
       </c>
       <c r="B377">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C377" s="2">
-        <v>2450.986083984375</v>
+        <v>2436.199951171875</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -4542,10 +4542,10 @@
         <v>7</v>
       </c>
       <c r="B378">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C378" s="2">
-        <v>2417.139892578125</v>
+        <v>2411.68896484375</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -4553,10 +4553,10 @@
         <v>7</v>
       </c>
       <c r="B379">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C379" s="2">
-        <v>2436.199951171875</v>
+        <v>2440.64892578125</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -4564,10 +4564,10 @@
         <v>7</v>
       </c>
       <c r="B380">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C380" s="2">
-        <v>2411.68896484375</v>
+        <v>2429.06201171875</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4575,10 +4575,10 @@
         <v>7</v>
       </c>
       <c r="B381">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C381" s="2">
-        <v>2440.64892578125</v>
+        <v>2451.080078125</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4586,10 +4586,10 @@
         <v>7</v>
       </c>
       <c r="B382">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C382" s="2">
-        <v>2429.06201171875</v>
+        <v>2453.654052734375</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4597,10 +4597,10 @@
         <v>7</v>
       </c>
       <c r="B383">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C383" s="2">
-        <v>2451.080078125</v>
+        <v>2500.200927734375</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4608,10 +4608,10 @@
         <v>7</v>
       </c>
       <c r="B384">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C384" s="2">
-        <v>2453.654052734375</v>
+        <v>2509.2490234375</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -4619,10 +4619,10 @@
         <v>7</v>
       </c>
       <c r="B385">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C385" s="2">
-        <v>2500.200927734375</v>
+        <v>2519.327880859375</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -4630,10 +4630,10 @@
         <v>7</v>
       </c>
       <c r="B386">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C386" s="2">
-        <v>2509.2490234375</v>
+        <v>2490.47509765625</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -4641,10 +4641,10 @@
         <v>7</v>
       </c>
       <c r="B387">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C387" s="2">
-        <v>2519.327880859375</v>
+        <v>2522.2490234375</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -4652,10 +4652,10 @@
         <v>7</v>
       </c>
       <c r="B388">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C388" s="2">
-        <v>2490.47509765625</v>
+        <v>2538.501953125</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4663,10 +4663,10 @@
         <v>7</v>
       </c>
       <c r="B389">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C389" s="2">
-        <v>2522.2490234375</v>
+        <v>2572.510009765625</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -4674,10 +4674,10 @@
         <v>7</v>
       </c>
       <c r="B390">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C390" s="2">
-        <v>2538.501953125</v>
+        <v>2556.860107421875</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -4685,10 +4685,10 @@
         <v>7</v>
       </c>
       <c r="B391">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C391" s="2">
-        <v>2572.510009765625</v>
+        <v>2577.18408203125</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4696,10 +4696,10 @@
         <v>7</v>
       </c>
       <c r="B392">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C392" s="2">
-        <v>2556.860107421875</v>
+        <v>2567.56201171875</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -4707,10 +4707,10 @@
         <v>7</v>
       </c>
       <c r="B393">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C393" s="2">
-        <v>2577.18408203125</v>
+        <v>2564.1708984375</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -4718,10 +4718,10 @@
         <v>7</v>
       </c>
       <c r="B394">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C394" s="2">
-        <v>2567.56201171875</v>
+        <v>2570.993896484375</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -4729,10 +4729,10 @@
         <v>7</v>
       </c>
       <c r="B395">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C395" s="2">
-        <v>2564.1708984375</v>
+        <v>2581.26708984375</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -4740,10 +4740,10 @@
         <v>7</v>
       </c>
       <c r="B396">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C396" s="2">
-        <v>2570.993896484375</v>
+        <v>2526.947998046875</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -4751,10 +4751,10 @@
         <v>7</v>
       </c>
       <c r="B397">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C397" s="2">
-        <v>2581.26708984375</v>
+        <v>2560.178955078125</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -4762,10 +4762,10 @@
         <v>7</v>
       </c>
       <c r="B398">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C398" s="2">
-        <v>2526.947998046875</v>
+        <v>2572.35791015625</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -4773,10 +4773,10 @@
         <v>7</v>
       </c>
       <c r="B399">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C399" s="2">
-        <v>2560.178955078125</v>
+        <v>2588.22900390625</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -4784,10 +4784,10 @@
         <v>7</v>
       </c>
       <c r="B400">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C400" s="2">
-        <v>2572.35791015625</v>
+        <v>2556.632080078125</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -4795,10 +4795,10 @@
         <v>7</v>
       </c>
       <c r="B401">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C401" s="2">
-        <v>2588.22900390625</v>
+        <v>2541.030029296875</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -4806,10 +4806,10 @@
         <v>7</v>
       </c>
       <c r="B402">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C402" s="2">
-        <v>2556.632080078125</v>
+        <v>2595.051025390625</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -4817,10 +4817,10 @@
         <v>7</v>
       </c>
       <c r="B403">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C403" s="2">
-        <v>2541.030029296875</v>
+        <v>2578.699951171875</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -4828,10 +4828,10 @@
         <v>7</v>
       </c>
       <c r="B404">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C404" s="2">
-        <v>2595.051025390625</v>
+        <v>2574.81005859375</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -4839,10 +4839,10 @@
         <v>7</v>
       </c>
       <c r="B405">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C405" s="2">
-        <v>2578.699951171875</v>
+        <v>2464.298095703125</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -4850,10 +4850,10 @@
         <v>7</v>
       </c>
       <c r="B406">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C406" s="2">
-        <v>2574.81005859375</v>
+        <v>2353.364990234375</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -4861,10 +4861,10 @@
         <v>7</v>
       </c>
       <c r="B407">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C407" s="2">
-        <v>2464.298095703125</v>
+        <v>2215.278076171875</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -4872,10 +4872,10 @@
         <v>7</v>
       </c>
       <c r="B408">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C408" s="2">
-        <v>2353.364990234375</v>
+        <v>2161.113037109375</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -4883,10 +4883,10 @@
         <v>7</v>
       </c>
       <c r="B409">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C409" s="2">
-        <v>2215.278076171875</v>
+        <v>2175.322021484375</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -4894,10 +4894,10 @@
         <v>7</v>
       </c>
       <c r="B410">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C410" s="2">
-        <v>2161.113037109375</v>
+        <v>2147.929931640625</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -4905,10 +4905,10 @@
         <v>7</v>
       </c>
       <c r="B411">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C411" s="2">
-        <v>2175.322021484375</v>
+        <v>2157.77490234375</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -4916,10 +4916,10 @@
         <v>7</v>
       </c>
       <c r="B412">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C412" s="2">
-        <v>2147.929931640625</v>
+        <v>2204.597900390625</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -4927,10 +4927,10 @@
         <v>7</v>
       </c>
       <c r="B413">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C413" s="2">
-        <v>2157.77490234375</v>
+        <v>2218.429931640625</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -4938,10 +4938,10 @@
         <v>7</v>
       </c>
       <c r="B414">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C414" s="2">
-        <v>2204.597900390625</v>
+        <v>2273.5849609375</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -4949,10 +4949,10 @@
         <v>7</v>
       </c>
       <c r="B415">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C415" s="2">
-        <v>2218.429931640625</v>
+        <v>2278.0380859375</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -4960,10 +4960,10 @@
         <v>7</v>
       </c>
       <c r="B416">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C416" s="2">
-        <v>2273.5849609375</v>
+        <v>2261.1220703125</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -4971,10 +4971,10 @@
         <v>7</v>
       </c>
       <c r="B417">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C417" s="2">
-        <v>2278.0380859375</v>
+        <v>2259.19091796875</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -4982,10 +4982,10 @@
         <v>7</v>
       </c>
       <c r="B418">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C418" s="2">
-        <v>2261.1220703125</v>
+        <v>2263.06591796875</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -4993,10 +4993,10 @@
         <v>7</v>
       </c>
       <c r="B419">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C419" s="2">
-        <v>2259.19091796875</v>
+        <v>2266.285888671875</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -5004,10 +5004,10 @@
         <v>7</v>
       </c>
       <c r="B420">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C420" s="2">
-        <v>2263.06591796875</v>
+        <v>2227.06689453125</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -5015,10 +5015,10 @@
         <v>7</v>
       </c>
       <c r="B421">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C421" s="2">
-        <v>2266.285888671875</v>
+        <v>2005.27294921875</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -5026,10 +5026,10 @@
         <v>7</v>
       </c>
       <c r="B422">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C422" s="2">
-        <v>2227.06689453125</v>
+        <v>2020.468017578125</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -5037,10 +5037,10 @@
         <v>7</v>
       </c>
       <c r="B423">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C423" s="2">
-        <v>2005.27294921875</v>
+        <v>2031.237060546875</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -5048,10 +5048,10 @@
         <v>7</v>
       </c>
       <c r="B424">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C424" s="2">
-        <v>2020.468017578125</v>
+        <v>2011.83203125</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -5059,10 +5059,10 @@
         <v>7</v>
       </c>
       <c r="B425">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C425" s="2">
-        <v>2031.237060546875</v>
+        <v>2053.947998046875</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -5070,10 +5070,10 @@
         <v>7</v>
       </c>
       <c r="B426">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C426" s="2">
-        <v>2011.83203125</v>
+        <v>2026.4990234375</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -5081,10 +5081,10 @@
         <v>7</v>
       </c>
       <c r="B427">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C427" s="2">
-        <v>2053.947998046875</v>
+        <v>2035.295043945312</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -5092,10 +5092,10 @@
         <v>7</v>
       </c>
       <c r="B428">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C428" s="2">
-        <v>2026.4990234375</v>
+        <v>1997.475952148438</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -5103,10 +5103,10 @@
         <v>7</v>
       </c>
       <c r="B429">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C429" s="2">
-        <v>2035.295043945312</v>
+        <v>2033.259033203125</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -5114,10 +5114,10 @@
         <v>7</v>
       </c>
       <c r="B430">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C430" s="2">
-        <v>1997.475952148438</v>
+        <v>2027.732055664062</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -5125,10 +5125,10 @@
         <v>7</v>
       </c>
       <c r="B431">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C431" s="2">
-        <v>2033.259033203125</v>
+        <v>2035.201049804688</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -5136,10 +5136,10 @@
         <v>7</v>
       </c>
       <c r="B432">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C432" s="2">
-        <v>2027.732055664062</v>
+        <v>2054.10400390625</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -5147,32 +5147,32 @@
         <v>7</v>
       </c>
       <c r="B433">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C433" s="2">
-        <v>2035.201049804688</v>
+        <v>2175.367919921875</v>
       </c>
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B434">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="C434" s="2">
-        <v>2054.10400390625</v>
+        <v>2145.60009765625</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B435">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="C435" s="2">
-        <v>2175.367919921875</v>
+        <v>2093.30908203125</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -5180,10 +5180,10 @@
         <v>8</v>
       </c>
       <c r="B436">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C436" s="2">
-        <v>2145.60009765625</v>
+        <v>2019.93896484375</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -5191,10 +5191,10 @@
         <v>8</v>
       </c>
       <c r="B437">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C437" s="2">
-        <v>2093.30908203125</v>
+        <v>2048.76806640625</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -5202,10 +5202,10 @@
         <v>8</v>
       </c>
       <c r="B438">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C438" s="2">
-        <v>2019.93896484375</v>
+        <v>2001.774047851562</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -5213,10 +5213,10 @@
         <v>8</v>
       </c>
       <c r="B439">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C439" s="2">
-        <v>2048.76806640625</v>
+        <v>1748.223999023438</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -5224,10 +5224,10 @@
         <v>8</v>
       </c>
       <c r="B440">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C440" s="2">
-        <v>2001.774047851562</v>
+        <v>1694.303955078125</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -5235,10 +5235,10 @@
         <v>8</v>
       </c>
       <c r="B441">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C441" s="2">
-        <v>1748.223999023438</v>
+        <v>1626.108032226562</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -5246,10 +5246,10 @@
         <v>8</v>
       </c>
       <c r="B442">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C442" s="2">
-        <v>1694.303955078125</v>
+        <v>1426.906982421875</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -5257,10 +5257,10 @@
         <v>8</v>
       </c>
       <c r="B443">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C443" s="2">
-        <v>1626.108032226562</v>
+        <v>1395.711059570312</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -5268,10 +5268,10 @@
         <v>8</v>
       </c>
       <c r="B444">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C444" s="2">
-        <v>1426.906982421875</v>
+        <v>1425.822021484375</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -5279,10 +5279,10 @@
         <v>8</v>
       </c>
       <c r="B445">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C445" s="2">
-        <v>1395.711059570312</v>
+        <v>1366.537963867188</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -5290,10 +5290,10 @@
         <v>8</v>
       </c>
       <c r="B446">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C446" s="2">
-        <v>1425.822021484375</v>
+        <v>1469.944946289062</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -5301,10 +5301,10 @@
         <v>8</v>
       </c>
       <c r="B447">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C447" s="2">
-        <v>1366.537963867188</v>
+        <v>1584.586059570312</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -5312,10 +5312,10 @@
         <v>8</v>
       </c>
       <c r="B448">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C448" s="2">
-        <v>1469.944946289062</v>
+        <v>1598.45703125</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -5323,10 +5323,10 @@
         <v>8</v>
       </c>
       <c r="B449">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C449" s="2">
-        <v>1584.586059570312</v>
+        <v>1666.31103515625</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -5334,10 +5334,10 @@
         <v>8</v>
       </c>
       <c r="B450">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C450" s="2">
-        <v>1598.45703125</v>
+        <v>1712.079956054688</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -5345,10 +5345,10 @@
         <v>8</v>
       </c>
       <c r="B451">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C451" s="2">
-        <v>1666.31103515625</v>
+        <v>1678.433959960938</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -5356,10 +5356,10 @@
         <v>8</v>
       </c>
       <c r="B452">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C452" s="2">
-        <v>1712.079956054688</v>
+        <v>1275.265014648438</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -5367,10 +5367,10 @@
         <v>8</v>
       </c>
       <c r="B453">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C453" s="2">
-        <v>1678.433959960938</v>
+        <v>1292.31103515625</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -5378,10 +5378,10 @@
         <v>8</v>
       </c>
       <c r="B454">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C454" s="2">
-        <v>1275.265014648438</v>
+        <v>1058.526000976562</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -5389,10 +5389,10 @@
         <v>8</v>
       </c>
       <c r="B455">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C455" s="2">
-        <v>1292.31103515625</v>
+        <v>927.06201171875</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -5400,10 +5400,10 @@
         <v>8</v>
       </c>
       <c r="B456">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C456" s="2">
-        <v>1058.526000976562</v>
+        <v>839.8699951171875</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -5411,10 +5411,10 @@
         <v>8</v>
       </c>
       <c r="B457">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C457" s="2">
-        <v>927.06201171875</v>
+        <v>833.6079711914062</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -5422,10 +5422,10 @@
         <v>8</v>
       </c>
       <c r="B458">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C458" s="2">
-        <v>839.8699951171875</v>
+        <v>883.6909790039062</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -5433,10 +5433,10 @@
         <v>8</v>
       </c>
       <c r="B459">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C459" s="2">
-        <v>833.6079711914062</v>
+        <v>829.469970703125</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -5444,10 +5444,10 @@
         <v>8</v>
       </c>
       <c r="B460">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C460" s="2">
-        <v>883.6909790039062</v>
+        <v>767.3179931640625</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -5455,10 +5455,10 @@
         <v>8</v>
       </c>
       <c r="B461">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C461" s="2">
-        <v>829.469970703125</v>
+        <v>778.7249755859375</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -5466,10 +5466,10 @@
         <v>8</v>
       </c>
       <c r="B462">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C462" s="2">
-        <v>767.3179931640625</v>
+        <v>617.2009887695312</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -5477,10 +5477,10 @@
         <v>8</v>
       </c>
       <c r="B463">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C463" s="2">
-        <v>778.7249755859375</v>
+        <v>516.3350219726562</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -5488,10 +5488,10 @@
         <v>8</v>
       </c>
       <c r="B464">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C464" s="2">
-        <v>617.2009887695312</v>
+        <v>372.3659973144531</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -5499,10 +5499,10 @@
         <v>8</v>
       </c>
       <c r="B465">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C465" s="2">
-        <v>516.3350219726562</v>
+        <v>263.3200073242188</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -5510,10 +5510,10 @@
         <v>8</v>
       </c>
       <c r="B466">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C466" s="2">
-        <v>372.3659973144531</v>
+        <v>214.5099945068359</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -5521,10 +5521,10 @@
         <v>8</v>
       </c>
       <c r="B467">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C467" s="2">
-        <v>263.3200073242188</v>
+        <v>186.8260040283203</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -5532,10 +5532,10 @@
         <v>8</v>
       </c>
       <c r="B468">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C468" s="2">
-        <v>214.5099945068359</v>
+        <v>152.4069976806641</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -5543,10 +5543,10 @@
         <v>8</v>
       </c>
       <c r="B469">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C469" s="2">
-        <v>186.8260040283203</v>
+        <v>196.8240051269531</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -5554,10 +5554,10 @@
         <v>8</v>
       </c>
       <c r="B470">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C470" s="2">
-        <v>152.4069976806641</v>
+        <v>126.7699966430664</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -5565,10 +5565,10 @@
         <v>8</v>
       </c>
       <c r="B471">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C471" s="2">
-        <v>196.8240051269531</v>
+        <v>166.6300048828125</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -5576,10 +5576,10 @@
         <v>8</v>
       </c>
       <c r="B472">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C472" s="2">
-        <v>126.7699966430664</v>
+        <v>195.0839996337891</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -5587,10 +5587,10 @@
         <v>8</v>
       </c>
       <c r="B473">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C473" s="2">
-        <v>166.6300048828125</v>
+        <v>261.9649963378906</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -5598,10 +5598,10 @@
         <v>8</v>
       </c>
       <c r="B474">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C474" s="2">
-        <v>195.0839996337891</v>
+        <v>208.0489959716797</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -5609,10 +5609,10 @@
         <v>8</v>
       </c>
       <c r="B475">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C475" s="2">
-        <v>261.9649963378906</v>
+        <v>232.9660034179688</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -5620,10 +5620,10 @@
         <v>8</v>
       </c>
       <c r="B476">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C476" s="2">
-        <v>208.0489959716797</v>
+        <v>188.9470062255859</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -5631,10 +5631,10 @@
         <v>8</v>
       </c>
       <c r="B477">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C477" s="2">
-        <v>232.9660034179688</v>
+        <v>208.5919952392578</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -5642,10 +5642,10 @@
         <v>8</v>
       </c>
       <c r="B478">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C478" s="2">
-        <v>188.9470062255859</v>
+        <v>297.5950012207031</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -5653,10 +5653,10 @@
         <v>8</v>
       </c>
       <c r="B479">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C479" s="2">
-        <v>208.5919952392578</v>
+        <v>387.3630065917969</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -5664,10 +5664,10 @@
         <v>8</v>
       </c>
       <c r="B480">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C480" s="2">
-        <v>297.5950012207031</v>
+        <v>425.7200012207031</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -5675,10 +5675,10 @@
         <v>8</v>
       </c>
       <c r="B481">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C481" s="2">
-        <v>387.3630065917969</v>
+        <v>505.6329956054688</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -5686,10 +5686,10 @@
         <v>8</v>
       </c>
       <c r="B482">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C482" s="2">
-        <v>425.7200012207031</v>
+        <v>536.5830078125</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -5697,10 +5697,10 @@
         <v>8</v>
       </c>
       <c r="B483">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C483" s="2">
-        <v>505.6329956054688</v>
+        <v>600.3270263671875</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -5708,10 +5708,10 @@
         <v>8</v>
       </c>
       <c r="B484">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C484" s="2">
-        <v>536.5830078125</v>
+        <v>735.1749877929688</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -5719,10 +5719,10 @@
         <v>8</v>
       </c>
       <c r="B485">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C485" s="2">
-        <v>600.3270263671875</v>
+        <v>755.6090087890625</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -5730,10 +5730,10 @@
         <v>8</v>
       </c>
       <c r="B486">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C486" s="2">
-        <v>735.1749877929688</v>
+        <v>813.8779907226562</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -5741,10 +5741,10 @@
         <v>8</v>
       </c>
       <c r="B487">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C487" s="2">
-        <v>755.6090087890625</v>
+        <v>786.6380004882812</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -5752,10 +5752,10 @@
         <v>8</v>
       </c>
       <c r="B488">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C488" s="2">
-        <v>813.8779907226562</v>
+        <v>719.447998046875</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -5763,10 +5763,10 @@
         <v>8</v>
       </c>
       <c r="B489">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C489" s="2">
-        <v>786.6380004882812</v>
+        <v>572.5059814453125</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -5774,10 +5774,10 @@
         <v>8</v>
       </c>
       <c r="B490">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C490" s="2">
-        <v>719.447998046875</v>
+        <v>552.8619995117188</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -5785,10 +5785,10 @@
         <v>8</v>
       </c>
       <c r="B491">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C491" s="2">
-        <v>572.5059814453125</v>
+        <v>496.1470031738281</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -5796,10 +5796,10 @@
         <v>8</v>
       </c>
       <c r="B492">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C492" s="2">
-        <v>552.8619995117188</v>
+        <v>330.0920104980469</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -5807,10 +5807,10 @@
         <v>8</v>
       </c>
       <c r="B493">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C493" s="2">
-        <v>496.1470031738281</v>
+        <v>358.0480041503906</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -5818,10 +5818,10 @@
         <v>8</v>
       </c>
       <c r="B494">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C494" s="2">
-        <v>330.0920104980469</v>
+        <v>304.6839904785156</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -5829,10 +5829,10 @@
         <v>8</v>
       </c>
       <c r="B495">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C495" s="2">
-        <v>358.0480041503906</v>
+        <v>290.1480102539062</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -5840,10 +5840,10 @@
         <v>8</v>
       </c>
       <c r="B496">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C496" s="2">
-        <v>304.6839904785156</v>
+        <v>272.1530151367188</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -5851,10 +5851,10 @@
         <v>8</v>
       </c>
       <c r="B497">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C497" s="2">
-        <v>290.1480102539062</v>
+        <v>357.8380126953125</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -5862,10 +5862,10 @@
         <v>8</v>
       </c>
       <c r="B498">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C498" s="2">
-        <v>272.1530151367188</v>
+        <v>356.9920043945312</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -5873,10 +5873,10 @@
         <v>8</v>
       </c>
       <c r="B499">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C499" s="2">
-        <v>357.8380126953125</v>
+        <v>334.7319946289062</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -5884,10 +5884,10 @@
         <v>8</v>
       </c>
       <c r="B500">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C500" s="2">
-        <v>356.9920043945312</v>
+        <v>328.7770080566406</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -5895,10 +5895,10 @@
         <v>8</v>
       </c>
       <c r="B501">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C501" s="2">
-        <v>334.7319946289062</v>
+        <v>349.9400024414062</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -5906,10 +5906,10 @@
         <v>8</v>
       </c>
       <c r="B502">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C502" s="2">
-        <v>328.7770080566406</v>
+        <v>279.6050109863281</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -5917,10 +5917,10 @@
         <v>8</v>
       </c>
       <c r="B503">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C503" s="2">
-        <v>349.9400024414062</v>
+        <v>254.1690063476562</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -5928,10 +5928,10 @@
         <v>8</v>
       </c>
       <c r="B504">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C504" s="2">
-        <v>279.6050109863281</v>
+        <v>203.4550018310547</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -5939,10 +5939,10 @@
         <v>8</v>
       </c>
       <c r="B505">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C505" s="2">
-        <v>254.1690063476562</v>
+        <v>169.4179992675781</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -5950,10 +5950,10 @@
         <v>8</v>
       </c>
       <c r="B506">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C506" s="2">
-        <v>203.4550018310547</v>
+        <v>234.1869964599609</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -5961,10 +5961,10 @@
         <v>8</v>
       </c>
       <c r="B507">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C507" s="2">
-        <v>169.4179992675781</v>
+        <v>310.7650146484375</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -5972,10 +5972,10 @@
         <v>8</v>
       </c>
       <c r="B508">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C508" s="2">
-        <v>234.1869964599609</v>
+        <v>283.8320007324219</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -5983,10 +5983,10 @@
         <v>8</v>
       </c>
       <c r="B509">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C509" s="2">
-        <v>310.7650146484375</v>
+        <v>245.3520050048828</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -5994,10 +5994,10 @@
         <v>8</v>
       </c>
       <c r="B510">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C510" s="2">
-        <v>283.8320007324219</v>
+        <v>283.93701171875</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -6005,10 +6005,10 @@
         <v>8</v>
       </c>
       <c r="B511">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C511" s="2">
-        <v>245.3520050048828</v>
+        <v>353.1539916992188</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -6016,10 +6016,10 @@
         <v>8</v>
       </c>
       <c r="B512">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C512" s="2">
-        <v>283.93701171875</v>
+        <v>325.8099975585938</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -6027,10 +6027,10 @@
         <v>8</v>
       </c>
       <c r="B513">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C513" s="2">
-        <v>353.1539916992188</v>
+        <v>302.7890014648438</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -6038,10 +6038,10 @@
         <v>8</v>
       </c>
       <c r="B514">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C514" s="2">
-        <v>325.8099975585938</v>
+        <v>287.4030151367188</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -6049,10 +6049,10 @@
         <v>8</v>
       </c>
       <c r="B515">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C515" s="2">
-        <v>302.7890014648438</v>
+        <v>224.5480041503906</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -6060,10 +6060,10 @@
         <v>8</v>
       </c>
       <c r="B516">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C516" s="2">
-        <v>287.4030151367188</v>
+        <v>237.0749969482422</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -6071,10 +6071,10 @@
         <v>8</v>
       </c>
       <c r="B517">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C517" s="2">
-        <v>224.5480041503906</v>
+        <v>254.0249938964844</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -6082,10 +6082,10 @@
         <v>8</v>
       </c>
       <c r="B518">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C518" s="2">
-        <v>237.0749969482422</v>
+        <v>276.6000061035156</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -6093,10 +6093,10 @@
         <v>8</v>
       </c>
       <c r="B519">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C519" s="2">
-        <v>254.0249938964844</v>
+        <v>260.3559875488281</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -6104,10 +6104,10 @@
         <v>8</v>
       </c>
       <c r="B520">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C520" s="2">
-        <v>276.6000061035156</v>
+        <v>284.2520141601562</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -6115,10 +6115,10 @@
         <v>8</v>
       </c>
       <c r="B521">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C521" s="2">
-        <v>260.3559875488281</v>
+        <v>299.8720092773438</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -6126,10 +6126,10 @@
         <v>8</v>
       </c>
       <c r="B522">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C522" s="2">
-        <v>284.2520141601562</v>
+        <v>245.0670013427734</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -6137,10 +6137,10 @@
         <v>8</v>
       </c>
       <c r="B523">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C523" s="2">
-        <v>299.8720092773438</v>
+        <v>262.1640014648438</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -6148,10 +6148,10 @@
         <v>8</v>
       </c>
       <c r="B524">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C524" s="2">
-        <v>245.0670013427734</v>
+        <v>234</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -6159,10 +6159,10 @@
         <v>8</v>
       </c>
       <c r="B525">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C525" s="2">
-        <v>262.1640014648438</v>
+        <v>232.406005859375</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -6170,10 +6170,10 @@
         <v>8</v>
       </c>
       <c r="B526">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C526" s="2">
-        <v>234</v>
+        <v>224.7359924316406</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -6181,10 +6181,10 @@
         <v>8</v>
       </c>
       <c r="B527">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C527" s="2">
-        <v>232.406005859375</v>
+        <v>277.5029907226562</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -6192,10 +6192,10 @@
         <v>8</v>
       </c>
       <c r="B528">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C528" s="2">
-        <v>224.7359924316406</v>
+        <v>303.2340087890625</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -6203,32 +6203,32 @@
         <v>8</v>
       </c>
       <c r="B529">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C529" s="2">
-        <v>277.5029907226562</v>
+        <v>335.989990234375</v>
       </c>
     </row>
     <row r="530" spans="1:3">
       <c r="A530" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B530">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="C530" s="2">
-        <v>303.2340087890625</v>
+        <v>207.5780029296875</v>
       </c>
     </row>
     <row r="531" spans="1:3">
       <c r="A531" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B531">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="C531" s="2">
-        <v>335.989990234375</v>
+        <v>244.5350036621094</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -6236,10 +6236,10 @@
         <v>9</v>
       </c>
       <c r="B532">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C532" s="2">
-        <v>207.5780029296875</v>
+        <v>166.0059967041016</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -6247,10 +6247,10 @@
         <v>9</v>
       </c>
       <c r="B533">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C533" s="2">
-        <v>244.5350036621094</v>
+        <v>142.8269958496094</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -6258,10 +6258,10 @@
         <v>9</v>
       </c>
       <c r="B534">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C534" s="2">
-        <v>166.0059967041016</v>
+        <v>208.9900054931641</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -6269,10 +6269,10 @@
         <v>9</v>
       </c>
       <c r="B535">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C535" s="2">
-        <v>142.8269958496094</v>
+        <v>148.3890075683594</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -6280,10 +6280,10 @@
         <v>9</v>
       </c>
       <c r="B536">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C536" s="2">
-        <v>208.9900054931641</v>
+        <v>169.2769927978516</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -6291,10 +6291,10 @@
         <v>9</v>
       </c>
       <c r="B537">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C537" s="2">
-        <v>148.3890075683594</v>
+        <v>132.4029998779297</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -6302,10 +6302,10 @@
         <v>9</v>
       </c>
       <c r="B538">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C538" s="2">
-        <v>169.2769927978516</v>
+        <v>130.7550048828125</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -6313,10 +6313,10 @@
         <v>9</v>
       </c>
       <c r="B539">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C539" s="2">
-        <v>132.4029998779297</v>
+        <v>117.6869964599609</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -6324,10 +6324,10 @@
         <v>9</v>
       </c>
       <c r="B540">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C540" s="2">
-        <v>130.7550048828125</v>
+        <v>98.74400329589844</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -6335,10 +6335,10 @@
         <v>9</v>
       </c>
       <c r="B541">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C541" s="2">
-        <v>117.6869964599609</v>
+        <v>160.5590057373047</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -6346,10 +6346,10 @@
         <v>9</v>
       </c>
       <c r="B542">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C542" s="2">
-        <v>98.74400329589844</v>
+        <v>178.4309997558594</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -6357,10 +6357,10 @@
         <v>9</v>
       </c>
       <c r="B543">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C543" s="2">
-        <v>160.5590057373047</v>
+        <v>193.6380004882812</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -6368,10 +6368,10 @@
         <v>9</v>
       </c>
       <c r="B544">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C544" s="2">
-        <v>178.4309997558594</v>
+        <v>203.4980010986328</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -6379,10 +6379,10 @@
         <v>9</v>
       </c>
       <c r="B545">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C545" s="2">
-        <v>193.6380004882812</v>
+        <v>197.0140075683594</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -6390,10 +6390,10 @@
         <v>9</v>
       </c>
       <c r="B546">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C546" s="2">
-        <v>203.4980010986328</v>
+        <v>192.8800048828125</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -6401,10 +6401,10 @@
         <v>9</v>
       </c>
       <c r="B547">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C547" s="2">
-        <v>197.0140075683594</v>
+        <v>149.5099945068359</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -6412,10 +6412,10 @@
         <v>9</v>
       </c>
       <c r="B548">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C548" s="2">
-        <v>192.8800048828125</v>
+        <v>149.9980010986328</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -6423,10 +6423,10 @@
         <v>9</v>
       </c>
       <c r="B549">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C549" s="2">
-        <v>149.5099945068359</v>
+        <v>185.1089935302734</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -6434,10 +6434,10 @@
         <v>9</v>
       </c>
       <c r="B550">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C550" s="2">
-        <v>149.9980010986328</v>
+        <v>180.8820037841797</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -6445,10 +6445,10 @@
         <v>9</v>
       </c>
       <c r="B551">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C551" s="2">
-        <v>185.1089935302734</v>
+        <v>289.4559936523438</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -6456,10 +6456,10 @@
         <v>9</v>
       </c>
       <c r="B552">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C552" s="2">
-        <v>180.8820037841797</v>
+        <v>303.593994140625</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -6467,10 +6467,10 @@
         <v>9</v>
       </c>
       <c r="B553">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C553" s="2">
-        <v>289.4559936523438</v>
+        <v>346.635986328125</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -6478,10 +6478,10 @@
         <v>9</v>
       </c>
       <c r="B554">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C554" s="2">
-        <v>303.593994140625</v>
+        <v>351.8460083007812</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -6489,10 +6489,10 @@
         <v>9</v>
       </c>
       <c r="B555">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C555" s="2">
-        <v>346.635986328125</v>
+        <v>352.1679992675781</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -6500,10 +6500,10 @@
         <v>9</v>
       </c>
       <c r="B556">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C556" s="2">
-        <v>351.8460083007812</v>
+        <v>347.8489990234375</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -6511,10 +6511,10 @@
         <v>9</v>
       </c>
       <c r="B557">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C557" s="2">
-        <v>352.1679992675781</v>
+        <v>381.2659912109375</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -6522,10 +6522,10 @@
         <v>9</v>
       </c>
       <c r="B558">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C558" s="2">
-        <v>347.8489990234375</v>
+        <v>399.4169921875</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -6533,10 +6533,10 @@
         <v>9</v>
       </c>
       <c r="B559">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C559" s="2">
-        <v>381.2659912109375</v>
+        <v>366.2839965820312</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -6544,10 +6544,10 @@
         <v>9</v>
       </c>
       <c r="B560">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C560" s="2">
-        <v>399.4169921875</v>
+        <v>421.2950134277344</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -6555,10 +6555,10 @@
         <v>9</v>
       </c>
       <c r="B561">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C561" s="2">
-        <v>366.2839965820312</v>
+        <v>426.1109924316406</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -6566,10 +6566,10 @@
         <v>9</v>
       </c>
       <c r="B562">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C562" s="2">
-        <v>421.2950134277344</v>
+        <v>440.9469909667969</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -6577,10 +6577,10 @@
         <v>9</v>
       </c>
       <c r="B563">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C563" s="2">
-        <v>426.1109924316406</v>
+        <v>431.9530029296875</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -6588,10 +6588,10 @@
         <v>9</v>
       </c>
       <c r="B564">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C564" s="2">
-        <v>440.9469909667969</v>
+        <v>411.4540100097656</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -6599,10 +6599,10 @@
         <v>9</v>
       </c>
       <c r="B565">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C565" s="2">
-        <v>431.9530029296875</v>
+        <v>529.7150268554688</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -6610,10 +6610,10 @@
         <v>9</v>
       </c>
       <c r="B566">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C566" s="2">
-        <v>411.4540100097656</v>
+        <v>594.77099609375</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -6621,10 +6621,10 @@
         <v>9</v>
       </c>
       <c r="B567">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C567" s="2">
-        <v>529.7150268554688</v>
+        <v>625.6290283203125</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -6632,10 +6632,10 @@
         <v>9</v>
       </c>
       <c r="B568">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C568" s="2">
-        <v>594.77099609375</v>
+        <v>718.5579833984375</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -6643,10 +6643,10 @@
         <v>9</v>
       </c>
       <c r="B569">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C569" s="2">
-        <v>625.6290283203125</v>
+        <v>871.5399780273438</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -6654,10 +6654,10 @@
         <v>9</v>
       </c>
       <c r="B570">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C570" s="2">
-        <v>718.5579833984375</v>
+        <v>959.2069702148438</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -6665,10 +6665,10 @@
         <v>9</v>
       </c>
       <c r="B571">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C571" s="2">
-        <v>871.5399780273438</v>
+        <v>1022.403015136719</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -6676,10 +6676,10 @@
         <v>9</v>
       </c>
       <c r="B572">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C572" s="2">
-        <v>959.2069702148438</v>
+        <v>1081.0849609375</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -6687,10 +6687,10 @@
         <v>9</v>
       </c>
       <c r="B573">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C573" s="2">
-        <v>1022.403015136719</v>
+        <v>1168.365966796875</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -6698,10 +6698,10 @@
         <v>9</v>
       </c>
       <c r="B574">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C574" s="2">
-        <v>1081.0849609375</v>
+        <v>1270.421020507812</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -6709,10 +6709,10 @@
         <v>9</v>
       </c>
       <c r="B575">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C575" s="2">
-        <v>1168.365966796875</v>
+        <v>1265.973022460938</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -6720,10 +6720,10 @@
         <v>9</v>
       </c>
       <c r="B576">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C576" s="2">
-        <v>1270.421020507812</v>
+        <v>1299.527954101562</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -6731,10 +6731,10 @@
         <v>9</v>
       </c>
       <c r="B577">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C577" s="2">
-        <v>1265.973022460938</v>
+        <v>1209.552001953125</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -6742,10 +6742,10 @@
         <v>9</v>
       </c>
       <c r="B578">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C578" s="2">
-        <v>1299.527954101562</v>
+        <v>1272.384033203125</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -6753,10 +6753,10 @@
         <v>9</v>
       </c>
       <c r="B579">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C579" s="2">
-        <v>1209.552001953125</v>
+        <v>1242.91796875</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -6764,10 +6764,10 @@
         <v>9</v>
       </c>
       <c r="B580">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C580" s="2">
-        <v>1272.384033203125</v>
+        <v>1213.260986328125</v>
       </c>
     </row>
     <row r="581" spans="1:3">
@@ -6775,10 +6775,10 @@
         <v>9</v>
       </c>
       <c r="B581">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C581" s="2">
-        <v>1242.91796875</v>
+        <v>1266.984008789062</v>
       </c>
     </row>
     <row r="582" spans="1:3">
@@ -6786,10 +6786,10 @@
         <v>9</v>
       </c>
       <c r="B582">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C582" s="2">
-        <v>1213.260986328125</v>
+        <v>1274.076049804688</v>
       </c>
     </row>
     <row r="583" spans="1:3">
@@ -6797,10 +6797,10 @@
         <v>9</v>
       </c>
       <c r="B583">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C583" s="2">
-        <v>1266.984008789062</v>
+        <v>1280.27099609375</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -6808,10 +6808,10 @@
         <v>9</v>
       </c>
       <c r="B584">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C584" s="2">
-        <v>1274.076049804688</v>
+        <v>1261.848022460938</v>
       </c>
     </row>
     <row r="585" spans="1:3">
@@ -6819,10 +6819,10 @@
         <v>9</v>
       </c>
       <c r="B585">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C585" s="2">
-        <v>1280.27099609375</v>
+        <v>1224.650024414062</v>
       </c>
     </row>
     <row r="586" spans="1:3">
@@ -6830,10 +6830,10 @@
         <v>9</v>
       </c>
       <c r="B586">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C586" s="2">
-        <v>1261.848022460938</v>
+        <v>1135.8349609375</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -6841,10 +6841,10 @@
         <v>9</v>
       </c>
       <c r="B587">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C587" s="2">
-        <v>1224.650024414062</v>
+        <v>1131.161987304688</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -6852,10 +6852,10 @@
         <v>9</v>
       </c>
       <c r="B588">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C588" s="2">
-        <v>1135.8349609375</v>
+        <v>1066.39794921875</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -6863,10 +6863,10 @@
         <v>9</v>
       </c>
       <c r="B589">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C589" s="2">
-        <v>1131.161987304688</v>
+        <v>981.56201171875</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -6874,10 +6874,10 @@
         <v>9</v>
       </c>
       <c r="B590">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C590" s="2">
-        <v>1066.39794921875</v>
+        <v>739.3939819335938</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -6885,10 +6885,10 @@
         <v>9</v>
       </c>
       <c r="B591">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C591" s="2">
-        <v>981.56201171875</v>
+        <v>686.6599731445312</v>
       </c>
     </row>
     <row r="592" spans="1:3">
@@ -6896,10 +6896,10 @@
         <v>9</v>
       </c>
       <c r="B592">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C592" s="2">
-        <v>739.3939819335938</v>
+        <v>652.6829833984375</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -6907,10 +6907,10 @@
         <v>9</v>
       </c>
       <c r="B593">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C593" s="2">
-        <v>686.6599731445312</v>
+        <v>603.4010009765625</v>
       </c>
     </row>
     <row r="594" spans="1:3">
@@ -6918,10 +6918,10 @@
         <v>9</v>
       </c>
       <c r="B594">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C594" s="2">
-        <v>652.6829833984375</v>
+        <v>626.9439697265625</v>
       </c>
     </row>
     <row r="595" spans="1:3">
@@ -6929,10 +6929,10 @@
         <v>9</v>
       </c>
       <c r="B595">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C595" s="2">
-        <v>603.4010009765625</v>
+        <v>525.7999877929688</v>
       </c>
     </row>
     <row r="596" spans="1:3">
@@ -6940,10 +6940,10 @@
         <v>9</v>
       </c>
       <c r="B596">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C596" s="2">
-        <v>626.9439697265625</v>
+        <v>531.0130004882812</v>
       </c>
     </row>
     <row r="597" spans="1:3">
@@ -6951,10 +6951,10 @@
         <v>9</v>
       </c>
       <c r="B597">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C597" s="2">
-        <v>525.7999877929688</v>
+        <v>424.7909851074219</v>
       </c>
     </row>
     <row r="598" spans="1:3">
@@ -6962,10 +6962,10 @@
         <v>9</v>
       </c>
       <c r="B598">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C598" s="2">
-        <v>531.0130004882812</v>
+        <v>332.0719909667969</v>
       </c>
     </row>
     <row r="599" spans="1:3">
@@ -6973,10 +6973,10 @@
         <v>9</v>
       </c>
       <c r="B599">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C599" s="2">
-        <v>424.7909851074219</v>
+        <v>319.8720092773438</v>
       </c>
     </row>
     <row r="600" spans="1:3">
@@ -6984,10 +6984,10 @@
         <v>9</v>
       </c>
       <c r="B600">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C600" s="2">
-        <v>332.0719909667969</v>
+        <v>318.5830078125</v>
       </c>
     </row>
     <row r="601" spans="1:3">
@@ -6995,10 +6995,10 @@
         <v>9</v>
       </c>
       <c r="B601">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C601" s="2">
-        <v>319.8720092773438</v>
+        <v>294.4119873046875</v>
       </c>
     </row>
     <row r="602" spans="1:3">
@@ -7006,10 +7006,10 @@
         <v>9</v>
       </c>
       <c r="B602">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C602" s="2">
-        <v>318.5830078125</v>
+        <v>313.9079895019531</v>
       </c>
     </row>
     <row r="603" spans="1:3">
@@ -7017,10 +7017,10 @@
         <v>9</v>
       </c>
       <c r="B603">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C603" s="2">
-        <v>294.4119873046875</v>
+        <v>309.5820007324219</v>
       </c>
     </row>
     <row r="604" spans="1:3">
@@ -7028,10 +7028,10 @@
         <v>9</v>
       </c>
       <c r="B604">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C604" s="2">
-        <v>313.9079895019531</v>
+        <v>316.2890014648438</v>
       </c>
     </row>
     <row r="605" spans="1:3">
@@ -7039,10 +7039,10 @@
         <v>9</v>
       </c>
       <c r="B605">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C605" s="2">
-        <v>309.5820007324219</v>
+        <v>239.5959930419922</v>
       </c>
     </row>
     <row r="606" spans="1:3">
@@ -7050,10 +7050,10 @@
         <v>9</v>
       </c>
       <c r="B606">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C606" s="2">
-        <v>316.2890014648438</v>
+        <v>268.6099853515625</v>
       </c>
     </row>
     <row r="607" spans="1:3">
@@ -7061,10 +7061,10 @@
         <v>9</v>
       </c>
       <c r="B607">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C607" s="2">
-        <v>239.5959930419922</v>
+        <v>330.4209899902344</v>
       </c>
     </row>
     <row r="608" spans="1:3">
@@ -7072,10 +7072,10 @@
         <v>9</v>
       </c>
       <c r="B608">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C608" s="2">
-        <v>268.6099853515625</v>
+        <v>325.9830017089844</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -7083,10 +7083,10 @@
         <v>9</v>
       </c>
       <c r="B609">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C609" s="2">
-        <v>330.4209899902344</v>
+        <v>336.0299987792969</v>
       </c>
     </row>
     <row r="610" spans="1:3">
@@ -7094,10 +7094,10 @@
         <v>9</v>
       </c>
       <c r="B610">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C610" s="2">
-        <v>325.9830017089844</v>
+        <v>345.5830078125</v>
       </c>
     </row>
     <row r="611" spans="1:3">
@@ -7105,10 +7105,10 @@
         <v>9</v>
       </c>
       <c r="B611">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C611" s="2">
-        <v>336.0299987792969</v>
+        <v>337.4570007324219</v>
       </c>
     </row>
     <row r="612" spans="1:3">
@@ -7116,10 +7116,10 @@
         <v>9</v>
       </c>
       <c r="B612">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C612" s="2">
-        <v>345.5830078125</v>
+        <v>399.4729919433594</v>
       </c>
     </row>
     <row r="613" spans="1:3">
@@ -7127,10 +7127,10 @@
         <v>9</v>
       </c>
       <c r="B613">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C613" s="2">
-        <v>337.4570007324219</v>
+        <v>498.9859924316406</v>
       </c>
     </row>
     <row r="614" spans="1:3">
@@ -7138,10 +7138,10 @@
         <v>9</v>
       </c>
       <c r="B614">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C614" s="2">
-        <v>399.4729919433594</v>
+        <v>572.5830078125</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -7149,10 +7149,10 @@
         <v>9</v>
       </c>
       <c r="B615">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C615" s="2">
-        <v>498.9859924316406</v>
+        <v>549.718017578125</v>
       </c>
     </row>
     <row r="616" spans="1:3">
@@ -7160,10 +7160,10 @@
         <v>9</v>
       </c>
       <c r="B616">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C616" s="2">
-        <v>572.5830078125</v>
+        <v>539.2789916992188</v>
       </c>
     </row>
     <row r="617" spans="1:3">
@@ -7171,10 +7171,10 @@
         <v>9</v>
       </c>
       <c r="B617">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C617" s="2">
-        <v>549.718017578125</v>
+        <v>741.7009887695312</v>
       </c>
     </row>
     <row r="618" spans="1:3">
@@ -7182,10 +7182,10 @@
         <v>9</v>
       </c>
       <c r="B618">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C618" s="2">
-        <v>539.2789916992188</v>
+        <v>652.6829833984375</v>
       </c>
     </row>
     <row r="619" spans="1:3">
@@ -7193,10 +7193,10 @@
         <v>9</v>
       </c>
       <c r="B619">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C619" s="2">
-        <v>741.7009887695312</v>
+        <v>669.2230224609375</v>
       </c>
     </row>
     <row r="620" spans="1:3">
@@ -7204,10 +7204,10 @@
         <v>9</v>
       </c>
       <c r="B620">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C620" s="2">
-        <v>652.6829833984375</v>
+        <v>593.6309814453125</v>
       </c>
     </row>
     <row r="621" spans="1:3">
@@ -7215,10 +7215,10 @@
         <v>9</v>
       </c>
       <c r="B621">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C621" s="2">
-        <v>669.2230224609375</v>
+        <v>612.0490112304688</v>
       </c>
     </row>
     <row r="622" spans="1:3">
@@ -7226,10 +7226,10 @@
         <v>9</v>
       </c>
       <c r="B622">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C622" s="2">
-        <v>593.6309814453125</v>
+        <v>515.6690063476562</v>
       </c>
     </row>
     <row r="623" spans="1:3">
@@ -7237,10 +7237,10 @@
         <v>9</v>
       </c>
       <c r="B623">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C623" s="2">
-        <v>612.0490112304688</v>
+        <v>475.7099914550781</v>
       </c>
     </row>
     <row r="624" spans="1:3">
@@ -7248,10 +7248,10 @@
         <v>9</v>
       </c>
       <c r="B624">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C624" s="2">
-        <v>515.6690063476562</v>
+        <v>468.0580139160156</v>
       </c>
     </row>
     <row r="625" spans="1:3">
@@ -7259,32 +7259,32 @@
         <v>9</v>
       </c>
       <c r="B625">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C625" s="2">
-        <v>475.7099914550781</v>
+        <v>484.1010131835938</v>
       </c>
     </row>
     <row r="626" spans="1:3">
       <c r="A626" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B626">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="C626" s="2">
-        <v>468.0580139160156</v>
+        <v>305.2109985351562</v>
       </c>
     </row>
     <row r="627" spans="1:3">
       <c r="A627" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B627">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="C627" s="2">
-        <v>484.1010131835938</v>
+        <v>301.9620056152344</v>
       </c>
     </row>
     <row r="628" spans="1:3">
@@ -7292,10 +7292,10 @@
         <v>10</v>
       </c>
       <c r="B628">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C628" s="2">
-        <v>305.2109985351562</v>
+        <v>230.9889984130859</v>
       </c>
     </row>
     <row r="629" spans="1:3">
@@ -7303,10 +7303,10 @@
         <v>10</v>
       </c>
       <c r="B629">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C629" s="2">
-        <v>301.9620056152344</v>
+        <v>293.2300109863281</v>
       </c>
     </row>
     <row r="630" spans="1:3">
@@ -7314,10 +7314,10 @@
         <v>10</v>
       </c>
       <c r="B630">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C630" s="2">
-        <v>230.9889984130859</v>
+        <v>328.7420043945312</v>
       </c>
     </row>
     <row r="631" spans="1:3">
@@ -7325,10 +7325,10 @@
         <v>10</v>
       </c>
       <c r="B631">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C631" s="2">
-        <v>293.2300109863281</v>
+        <v>278.6319885253906</v>
       </c>
     </row>
     <row r="632" spans="1:3">
@@ -7336,10 +7336,10 @@
         <v>10</v>
       </c>
       <c r="B632">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C632" s="2">
-        <v>328.7420043945312</v>
+        <v>330.3689880371094</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -7347,10 +7347,10 @@
         <v>10</v>
       </c>
       <c r="B633">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C633" s="2">
-        <v>278.6319885253906</v>
+        <v>342.8940124511719</v>
       </c>
     </row>
     <row r="634" spans="1:3">
@@ -7358,10 +7358,10 @@
         <v>10</v>
       </c>
       <c r="B634">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C634" s="2">
-        <v>330.3689880371094</v>
+        <v>327.3139953613281</v>
       </c>
     </row>
     <row r="635" spans="1:3">
@@ -7369,10 +7369,10 @@
         <v>10</v>
       </c>
       <c r="B635">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C635" s="2">
-        <v>342.8940124511719</v>
+        <v>371.6789855957031</v>
       </c>
     </row>
     <row r="636" spans="1:3">
@@ -7380,10 +7380,10 @@
         <v>10</v>
       </c>
       <c r="B636">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C636" s="2">
-        <v>327.3139953613281</v>
+        <v>435.2040100097656</v>
       </c>
     </row>
     <row r="637" spans="1:3">
@@ -7391,10 +7391,10 @@
         <v>10</v>
       </c>
       <c r="B637">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C637" s="2">
-        <v>371.6789855957031</v>
+        <v>349.0169982910156</v>
       </c>
     </row>
     <row r="638" spans="1:3">
@@ -7402,10 +7402,10 @@
         <v>10</v>
       </c>
       <c r="B638">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C638" s="2">
-        <v>435.2040100097656</v>
+        <v>355.7780151367188</v>
       </c>
     </row>
     <row r="639" spans="1:3">
@@ -7413,10 +7413,10 @@
         <v>10</v>
       </c>
       <c r="B639">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C639" s="2">
-        <v>349.0169982910156</v>
+        <v>360.5750122070312</v>
       </c>
     </row>
     <row r="640" spans="1:3">
@@ -7424,10 +7424,10 @@
         <v>10</v>
       </c>
       <c r="B640">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C640" s="2">
-        <v>355.7780151367188</v>
+        <v>376.6010131835938</v>
       </c>
     </row>
     <row r="641" spans="1:3">
@@ -7435,10 +7435,10 @@
         <v>10</v>
       </c>
       <c r="B641">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C641" s="2">
-        <v>360.5750122070312</v>
+        <v>428.8280029296875</v>
       </c>
     </row>
     <row r="642" spans="1:3">
@@ -7446,10 +7446,10 @@
         <v>10</v>
       </c>
       <c r="B642">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C642" s="2">
-        <v>376.6010131835938</v>
+        <v>481.1279907226562</v>
       </c>
     </row>
     <row r="643" spans="1:3">
@@ -7457,10 +7457,10 @@
         <v>10</v>
       </c>
       <c r="B643">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C643" s="2">
-        <v>428.8280029296875</v>
+        <v>433.3580017089844</v>
       </c>
     </row>
     <row r="644" spans="1:3">
@@ -7468,10 +7468,10 @@
         <v>10</v>
       </c>
       <c r="B644">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C644" s="2">
-        <v>481.1279907226562</v>
+        <v>381.2210083007812</v>
       </c>
     </row>
     <row r="645" spans="1:3">
@@ -7479,10 +7479,10 @@
         <v>10</v>
       </c>
       <c r="B645">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C645" s="2">
-        <v>433.3580017089844</v>
+        <v>288.3829956054688</v>
       </c>
     </row>
     <row r="646" spans="1:3">
@@ -7490,10 +7490,10 @@
         <v>10</v>
       </c>
       <c r="B646">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C646" s="2">
-        <v>381.2210083007812</v>
+        <v>204.0769958496094</v>
       </c>
     </row>
     <row r="647" spans="1:3">
@@ -7501,10 +7501,10 @@
         <v>10</v>
       </c>
       <c r="B647">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C647" s="2">
-        <v>288.3829956054688</v>
+        <v>165.2230072021484</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -7512,10 +7512,10 @@
         <v>10</v>
       </c>
       <c r="B648">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C648" s="2">
-        <v>204.0769958496094</v>
+        <v>142.6289978027344</v>
       </c>
     </row>
     <row r="649" spans="1:3">
@@ -7523,10 +7523,10 @@
         <v>10</v>
       </c>
       <c r="B649">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C649" s="2">
-        <v>165.2230072021484</v>
+        <v>147.8200073242188</v>
       </c>
     </row>
     <row r="650" spans="1:3">
@@ -7534,10 +7534,10 @@
         <v>10</v>
       </c>
       <c r="B650">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C650" s="2">
-        <v>142.6289978027344</v>
+        <v>120.3550033569336</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -7545,10 +7545,10 @@
         <v>10</v>
       </c>
       <c r="B651">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C651" s="2">
-        <v>147.8200073242188</v>
+        <v>69.64700317382812</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -7556,10 +7556,10 @@
         <v>10</v>
       </c>
       <c r="B652">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C652" s="2">
-        <v>120.3550033569336</v>
+        <v>211.9429931640625</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -7567,10 +7567,10 @@
         <v>10</v>
       </c>
       <c r="B653">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C653" s="2">
-        <v>69.64700317382812</v>
+        <v>283.2969970703125</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -7578,10 +7578,10 @@
         <v>10</v>
       </c>
       <c r="B654">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C654" s="2">
-        <v>211.9429931640625</v>
+        <v>174.1230010986328</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -7589,10 +7589,10 @@
         <v>10</v>
       </c>
       <c r="B655">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C655" s="2">
-        <v>283.2969970703125</v>
+        <v>213.0720062255859</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -7600,10 +7600,10 @@
         <v>10</v>
       </c>
       <c r="B656">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C656" s="2">
-        <v>174.1230010986328</v>
+        <v>259.6690063476562</v>
       </c>
     </row>
     <row r="657" spans="1:3">
@@ -7611,10 +7611,10 @@
         <v>10</v>
       </c>
       <c r="B657">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C657" s="2">
-        <v>213.0720062255859</v>
+        <v>252.2339935302734</v>
       </c>
     </row>
     <row r="658" spans="1:3">
@@ -7622,10 +7622,10 @@
         <v>10</v>
       </c>
       <c r="B658">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C658" s="2">
-        <v>259.6690063476562</v>
+        <v>433.5039978027344</v>
       </c>
     </row>
     <row r="659" spans="1:3">
@@ -7633,10 +7633,10 @@
         <v>10</v>
       </c>
       <c r="B659">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C659" s="2">
-        <v>252.2339935302734</v>
+        <v>404.1440124511719</v>
       </c>
     </row>
     <row r="660" spans="1:3">
@@ -7644,10 +7644,10 @@
         <v>10</v>
       </c>
       <c r="B660">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C660" s="2">
-        <v>433.5039978027344</v>
+        <v>438.8330078125</v>
       </c>
     </row>
     <row r="661" spans="1:3">
@@ -7655,10 +7655,10 @@
         <v>10</v>
       </c>
       <c r="B661">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C661" s="2">
-        <v>404.1440124511719</v>
+        <v>415.1900024414062</v>
       </c>
     </row>
     <row r="662" spans="1:3">
@@ -7666,10 +7666,10 @@
         <v>10</v>
       </c>
       <c r="B662">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C662" s="2">
-        <v>438.8330078125</v>
+        <v>487.1589965820312</v>
       </c>
     </row>
     <row r="663" spans="1:3">
@@ -7677,10 +7677,10 @@
         <v>10</v>
       </c>
       <c r="B663">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C663" s="2">
-        <v>415.1900024414062</v>
+        <v>597.0789794921875</v>
       </c>
     </row>
     <row r="664" spans="1:3">
@@ -7688,10 +7688,10 @@
         <v>10</v>
       </c>
       <c r="B664">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C664" s="2">
-        <v>487.1589965820312</v>
+        <v>730.843017578125</v>
       </c>
     </row>
     <row r="665" spans="1:3">
@@ -7699,10 +7699,10 @@
         <v>10</v>
       </c>
       <c r="B665">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C665" s="2">
-        <v>597.0789794921875</v>
+        <v>895.9669799804688</v>
       </c>
     </row>
     <row r="666" spans="1:3">
@@ -7710,10 +7710,10 @@
         <v>10</v>
       </c>
       <c r="B666">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C666" s="2">
-        <v>730.843017578125</v>
+        <v>1122.885986328125</v>
       </c>
     </row>
     <row r="667" spans="1:3">
@@ -7721,10 +7721,10 @@
         <v>10</v>
       </c>
       <c r="B667">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C667" s="2">
-        <v>895.9669799804688</v>
+        <v>1228.47705078125</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -7732,10 +7732,10 @@
         <v>10</v>
       </c>
       <c r="B668">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C668" s="2">
-        <v>1122.885986328125</v>
+        <v>1214.8330078125</v>
       </c>
     </row>
     <row r="669" spans="1:3">
@@ -7743,10 +7743,10 @@
         <v>10</v>
       </c>
       <c r="B669">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C669" s="2">
-        <v>1228.47705078125</v>
+        <v>1204.878051757812</v>
       </c>
     </row>
     <row r="670" spans="1:3">
@@ -7754,10 +7754,10 @@
         <v>10</v>
       </c>
       <c r="B670">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C670" s="2">
-        <v>1214.8330078125</v>
+        <v>1155.159057617188</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -7765,10 +7765,10 @@
         <v>10</v>
       </c>
       <c r="B671">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C671" s="2">
-        <v>1204.878051757812</v>
+        <v>961.8599853515625</v>
       </c>
     </row>
     <row r="672" spans="1:3">
@@ -7776,10 +7776,10 @@
         <v>10</v>
       </c>
       <c r="B672">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C672" s="2">
-        <v>1155.159057617188</v>
+        <v>845.948974609375</v>
       </c>
     </row>
     <row r="673" spans="1:3">
@@ -7787,10 +7787,10 @@
         <v>10</v>
       </c>
       <c r="B673">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C673" s="2">
-        <v>961.8599853515625</v>
+        <v>758.510986328125</v>
       </c>
     </row>
     <row r="674" spans="1:3">
@@ -7798,10 +7798,10 @@
         <v>10</v>
       </c>
       <c r="B674">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C674" s="2">
-        <v>845.948974609375</v>
+        <v>633.8150024414062</v>
       </c>
     </row>
   </sheetData>

--- a/Wind_Production_Forecast/Wind_Forecast_Production_15min.xlsx
+++ b/Wind_Production_Forecast/Wind_Forecast_Production_15min.xlsx
@@ -25,9 +25,6 @@
     <t>Prediction</t>
   </si>
   <si>
-    <t>2025-03-19</t>
-  </si>
-  <si>
     <t>2025-03-20</t>
   </si>
   <si>
@@ -47,6 +44,9 @@
   </si>
   <si>
     <t>2025-03-26</t>
+  </si>
+  <si>
+    <t>2025-03-27</t>
   </si>
 </sst>
 </file>
@@ -406,10 +406,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2">
-        <v>1448.192993164062</v>
+        <v>499.7099914550781</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -417,10 +417,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2">
-        <v>1458.556030273438</v>
+        <v>536.1170043945312</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -428,10 +428,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2">
-        <v>1498.31494140625</v>
+        <v>483.0350036621094</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -439,10 +439,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2">
-        <v>1572.267944335938</v>
+        <v>487.9440002441406</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -450,10 +450,10 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2">
-        <v>1481.078002929688</v>
+        <v>431.2950134277344</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -461,10 +461,10 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2">
-        <v>1465.714965820312</v>
+        <v>452.1270141601562</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -472,10 +472,10 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2">
-        <v>1481.708984375</v>
+        <v>437.2420043945312</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C9" s="2">
-        <v>1422.719970703125</v>
+        <v>454.9419860839844</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -494,10 +494,10 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C10" s="2">
-        <v>1571.118041992188</v>
+        <v>372.3340148925781</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -505,10 +505,10 @@
         <v>3</v>
       </c>
       <c r="B11">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" s="2">
-        <v>1511.927978515625</v>
+        <v>288.4540100097656</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -516,10 +516,10 @@
         <v>3</v>
       </c>
       <c r="B12">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C12" s="2">
-        <v>1504.244995117188</v>
+        <v>265.7109985351562</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -527,10 +527,10 @@
         <v>3</v>
       </c>
       <c r="B13">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C13" s="2">
-        <v>1546.767944335938</v>
+        <v>304.1069946289062</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -538,10 +538,10 @@
         <v>3</v>
       </c>
       <c r="B14">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C14" s="2">
-        <v>1480.329956054688</v>
+        <v>276.3450012207031</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -549,10 +549,10 @@
         <v>3</v>
       </c>
       <c r="B15">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C15" s="2">
-        <v>1535.782958984375</v>
+        <v>211.5919952392578</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -560,10 +560,10 @@
         <v>3</v>
       </c>
       <c r="B16">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C16" s="2">
-        <v>1641.953002929688</v>
+        <v>332.1539916992188</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -571,10 +571,10 @@
         <v>3</v>
       </c>
       <c r="B17">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C17" s="2">
-        <v>2172.278076171875</v>
+        <v>313.6340026855469</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -582,10 +582,10 @@
         <v>3</v>
       </c>
       <c r="B18">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C18" s="2">
-        <v>2273.85693359375</v>
+        <v>268.9410095214844</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -593,10 +593,10 @@
         <v>3</v>
       </c>
       <c r="B19">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C19" s="2">
-        <v>2074.465087890625</v>
+        <v>247.8200073242188</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -604,10 +604,10 @@
         <v>3</v>
       </c>
       <c r="B20">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C20" s="2">
-        <v>1342.512939453125</v>
+        <v>212.0260009765625</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -615,10 +615,10 @@
         <v>3</v>
       </c>
       <c r="B21">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C21" s="2">
-        <v>1265.982055664062</v>
+        <v>82.11100006103516</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -626,10 +626,10 @@
         <v>3</v>
       </c>
       <c r="B22">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C22" s="2">
-        <v>1017.367004394531</v>
+        <v>206.9250030517578</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -637,10 +637,10 @@
         <v>3</v>
       </c>
       <c r="B23">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C23" s="2">
-        <v>1298.6240234375</v>
+        <v>333.9939880371094</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -648,10 +648,10 @@
         <v>3</v>
       </c>
       <c r="B24">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C24" s="2">
-        <v>1082.56396484375</v>
+        <v>312.1000061035156</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -659,10 +659,10 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C25" s="2">
-        <v>913.0180053710938</v>
+        <v>477.5369873046875</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -670,10 +670,10 @@
         <v>3</v>
       </c>
       <c r="B26">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C26" s="2">
-        <v>800.6079711914062</v>
+        <v>380.5060119628906</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -681,10 +681,10 @@
         <v>3</v>
       </c>
       <c r="B27">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C27" s="2">
-        <v>690.969970703125</v>
+        <v>648.4719848632812</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -692,10 +692,10 @@
         <v>3</v>
       </c>
       <c r="B28">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C28" s="2">
-        <v>620.1389770507812</v>
+        <v>645.0239868164062</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -703,10 +703,10 @@
         <v>3</v>
       </c>
       <c r="B29">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C29" s="2">
-        <v>669.4940185546875</v>
+        <v>525.239990234375</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -714,10 +714,10 @@
         <v>3</v>
       </c>
       <c r="B30">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C30" s="2">
-        <v>599.8829956054688</v>
+        <v>552.7919921875</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -725,10 +725,10 @@
         <v>3</v>
       </c>
       <c r="B31">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C31" s="2">
-        <v>407.6409912109375</v>
+        <v>393.9400024414062</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -736,10 +736,10 @@
         <v>3</v>
       </c>
       <c r="B32">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C32" s="2">
-        <v>387.0159912109375</v>
+        <v>360.760986328125</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -747,10 +747,10 @@
         <v>3</v>
       </c>
       <c r="B33">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C33" s="2">
-        <v>401.7099914550781</v>
+        <v>271.5459899902344</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -758,10 +758,10 @@
         <v>3</v>
       </c>
       <c r="B34">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C34" s="2">
-        <v>336.1659851074219</v>
+        <v>218.9929962158203</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -769,10 +769,10 @@
         <v>3</v>
       </c>
       <c r="B35">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C35" s="2">
-        <v>327.4760131835938</v>
+        <v>189.4530029296875</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -780,10 +780,10 @@
         <v>3</v>
       </c>
       <c r="B36">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C36" s="2">
-        <v>346.8980102539062</v>
+        <v>189.3110046386719</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -791,10 +791,10 @@
         <v>3</v>
       </c>
       <c r="B37">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C37" s="2">
-        <v>186.0630035400391</v>
+        <v>163.8359985351562</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -802,10 +802,10 @@
         <v>3</v>
       </c>
       <c r="B38">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C38" s="2">
-        <v>135.7149963378906</v>
+        <v>181.1889953613281</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -813,10 +813,10 @@
         <v>3</v>
       </c>
       <c r="B39">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C39" s="2">
-        <v>146.6880035400391</v>
+        <v>194.6130065917969</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -824,10 +824,10 @@
         <v>3</v>
       </c>
       <c r="B40">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C40" s="2">
-        <v>171.0290069580078</v>
+        <v>204.5679931640625</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -835,10 +835,10 @@
         <v>3</v>
       </c>
       <c r="B41">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C41" s="2">
-        <v>133.4680023193359</v>
+        <v>205.5670013427734</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -846,10 +846,10 @@
         <v>3</v>
       </c>
       <c r="B42">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C42" s="2">
-        <v>290.0549926757812</v>
+        <v>195.4839935302734</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -857,10 +857,10 @@
         <v>3</v>
       </c>
       <c r="B43">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C43" s="2">
-        <v>415.6300048828125</v>
+        <v>214.0279998779297</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -868,10 +868,10 @@
         <v>3</v>
       </c>
       <c r="B44">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C44" s="2">
-        <v>225.6329956054688</v>
+        <v>191.5440063476562</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -879,10 +879,10 @@
         <v>3</v>
       </c>
       <c r="B45">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C45" s="2">
-        <v>184.5749969482422</v>
+        <v>221.8569946289062</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -890,10 +890,10 @@
         <v>3</v>
       </c>
       <c r="B46">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C46" s="2">
-        <v>240.6580047607422</v>
+        <v>232.4770050048828</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -901,10 +901,10 @@
         <v>3</v>
       </c>
       <c r="B47">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C47" s="2">
-        <v>268.5599975585938</v>
+        <v>187.322998046875</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -912,10 +912,10 @@
         <v>3</v>
       </c>
       <c r="B48">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C48" s="2">
-        <v>284.6300048828125</v>
+        <v>175.5709991455078</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -923,32 +923,32 @@
         <v>3</v>
       </c>
       <c r="B49">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C49" s="2">
-        <v>333.8489990234375</v>
+        <v>183.2669982910156</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="C50" s="2">
-        <v>144.8240051269531</v>
+        <v>165.8609924316406</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="C51" s="2">
-        <v>180.7429962158203</v>
+        <v>219.3159942626953</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -956,10 +956,10 @@
         <v>4</v>
       </c>
       <c r="B52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C52" s="2">
-        <v>135.7409973144531</v>
+        <v>265.010009765625</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -967,10 +967,10 @@
         <v>4</v>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C53" s="2">
-        <v>193.2570037841797</v>
+        <v>287.9509887695312</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -978,10 +978,10 @@
         <v>4</v>
       </c>
       <c r="B54">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C54" s="2">
-        <v>146.4889984130859</v>
+        <v>249.0260009765625</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -989,10 +989,10 @@
         <v>4</v>
       </c>
       <c r="B55">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C55" s="2">
-        <v>209.0579986572266</v>
+        <v>255.7279968261719</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1000,10 +1000,10 @@
         <v>4</v>
       </c>
       <c r="B56">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C56" s="2">
-        <v>210.5839996337891</v>
+        <v>262.1059875488281</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1011,10 +1011,10 @@
         <v>4</v>
       </c>
       <c r="B57">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C57" s="2">
-        <v>279.9280090332031</v>
+        <v>312.1059875488281</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1022,10 +1022,10 @@
         <v>4</v>
       </c>
       <c r="B58">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C58" s="2">
-        <v>355.1189880371094</v>
+        <v>290.8410034179688</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1033,10 +1033,10 @@
         <v>4</v>
       </c>
       <c r="B59">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C59" s="2">
-        <v>379.7659912109375</v>
+        <v>290.1950073242188</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1044,10 +1044,10 @@
         <v>4</v>
       </c>
       <c r="B60">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C60" s="2">
-        <v>406.0289916992188</v>
+        <v>285.8080139160156</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1055,10 +1055,10 @@
         <v>4</v>
       </c>
       <c r="B61">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C61" s="2">
-        <v>447.7630004882812</v>
+        <v>271.4440002441406</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1066,10 +1066,10 @@
         <v>4</v>
       </c>
       <c r="B62">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C62" s="2">
-        <v>498.7160034179688</v>
+        <v>400.3919982910156</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1077,10 +1077,10 @@
         <v>4</v>
       </c>
       <c r="B63">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C63" s="2">
-        <v>516.39599609375</v>
+        <v>310.1510009765625</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1088,10 +1088,10 @@
         <v>4</v>
       </c>
       <c r="B64">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C64" s="2">
-        <v>536.9869995117188</v>
+        <v>296.5969848632812</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1099,10 +1099,10 @@
         <v>4</v>
       </c>
       <c r="B65">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C65" s="2">
-        <v>517.9439697265625</v>
+        <v>241.8520050048828</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1110,10 +1110,10 @@
         <v>4</v>
       </c>
       <c r="B66">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C66" s="2">
-        <v>518.8560180664062</v>
+        <v>223.5780029296875</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1121,10 +1121,10 @@
         <v>4</v>
       </c>
       <c r="B67">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C67" s="2">
-        <v>478.4519958496094</v>
+        <v>216.3150024414062</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1132,10 +1132,10 @@
         <v>4</v>
       </c>
       <c r="B68">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C68" s="2">
-        <v>488.989990234375</v>
+        <v>132.9709930419922</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1143,10 +1143,10 @@
         <v>4</v>
       </c>
       <c r="B69">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C69" s="2">
-        <v>460.2250061035156</v>
+        <v>128.7749938964844</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1154,10 +1154,10 @@
         <v>4</v>
       </c>
       <c r="B70">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C70" s="2">
-        <v>471.2799987792969</v>
+        <v>128.8699951171875</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1165,10 +1165,10 @@
         <v>4</v>
       </c>
       <c r="B71">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C71" s="2">
-        <v>460.5029907226562</v>
+        <v>139.1609954833984</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1176,10 +1176,10 @@
         <v>4</v>
       </c>
       <c r="B72">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C72" s="2">
-        <v>534.7020263671875</v>
+        <v>103.6520004272461</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1187,10 +1187,10 @@
         <v>4</v>
       </c>
       <c r="B73">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C73" s="2">
-        <v>577.1320190429688</v>
+        <v>152.8260040283203</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1198,10 +1198,10 @@
         <v>4</v>
       </c>
       <c r="B74">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C74" s="2">
-        <v>577.322998046875</v>
+        <v>146.9550018310547</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1209,10 +1209,10 @@
         <v>4</v>
       </c>
       <c r="B75">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C75" s="2">
-        <v>545.073974609375</v>
+        <v>105.8789978027344</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1220,10 +1220,10 @@
         <v>4</v>
       </c>
       <c r="B76">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C76" s="2">
-        <v>536.3109741210938</v>
+        <v>58.89199829101562</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1231,10 +1231,10 @@
         <v>4</v>
       </c>
       <c r="B77">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C77" s="2">
-        <v>405.9519958496094</v>
+        <v>55.33700180053711</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1242,10 +1242,10 @@
         <v>4</v>
       </c>
       <c r="B78">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C78" s="2">
-        <v>233.2510070800781</v>
+        <v>-3.900000095367432</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1253,10 +1253,10 @@
         <v>4</v>
       </c>
       <c r="B79">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C79" s="2">
-        <v>309.9979858398438</v>
+        <v>6.276999950408936</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1264,10 +1264,10 @@
         <v>4</v>
       </c>
       <c r="B80">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C80" s="2">
-        <v>279.4909973144531</v>
+        <v>-15.24499988555908</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1275,10 +1275,10 @@
         <v>4</v>
       </c>
       <c r="B81">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C81" s="2">
-        <v>256.6700134277344</v>
+        <v>-25.69099998474121</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1286,10 +1286,10 @@
         <v>4</v>
       </c>
       <c r="B82">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C82" s="2">
-        <v>566.4609985351562</v>
+        <v>53.36000061035156</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1297,10 +1297,10 @@
         <v>4</v>
       </c>
       <c r="B83">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C83" s="2">
-        <v>730.5430297851562</v>
+        <v>22.98299980163574</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1308,10 +1308,10 @@
         <v>4</v>
       </c>
       <c r="B84">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C84" s="2">
-        <v>605.2559814453125</v>
+        <v>14.78299999237061</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1319,10 +1319,10 @@
         <v>4</v>
       </c>
       <c r="B85">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C85" s="2">
-        <v>296.5929870605469</v>
+        <v>-11.68099975585938</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1330,10 +1330,10 @@
         <v>4</v>
       </c>
       <c r="B86">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C86" s="2">
-        <v>432.4259948730469</v>
+        <v>-79.04199981689453</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1341,10 +1341,10 @@
         <v>4</v>
       </c>
       <c r="B87">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C87" s="2">
-        <v>437.2680053710938</v>
+        <v>32.36700057983398</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1352,10 +1352,10 @@
         <v>4</v>
       </c>
       <c r="B88">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C88" s="2">
-        <v>284.3760070800781</v>
+        <v>76.02700042724609</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1363,10 +1363,10 @@
         <v>4</v>
       </c>
       <c r="B89">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C89" s="2">
-        <v>523.760986328125</v>
+        <v>100.3769989013672</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1374,10 +1374,10 @@
         <v>4</v>
       </c>
       <c r="B90">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C90" s="2">
-        <v>585.708984375</v>
+        <v>74.96199798583984</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1385,10 +1385,10 @@
         <v>4</v>
       </c>
       <c r="B91">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C91" s="2">
-        <v>699.8720092773438</v>
+        <v>14.06900024414062</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1396,10 +1396,10 @@
         <v>4</v>
       </c>
       <c r="B92">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C92" s="2">
-        <v>466.4819946289062</v>
+        <v>18.77000045776367</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1407,10 +1407,10 @@
         <v>4</v>
       </c>
       <c r="B93">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C93" s="2">
-        <v>323.2080078125</v>
+        <v>42.74100112915039</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1418,10 +1418,10 @@
         <v>4</v>
       </c>
       <c r="B94">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C94" s="2">
-        <v>266.6849975585938</v>
+        <v>12.08699989318848</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1429,10 +1429,10 @@
         <v>4</v>
       </c>
       <c r="B95">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C95" s="2">
-        <v>227.2850036621094</v>
+        <v>24.11199951171875</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1440,10 +1440,10 @@
         <v>4</v>
       </c>
       <c r="B96">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C96" s="2">
-        <v>171.39599609375</v>
+        <v>43.86800003051758</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1451,10 +1451,10 @@
         <v>4</v>
       </c>
       <c r="B97">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C97" s="2">
-        <v>174.572998046875</v>
+        <v>5.392000198364258</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1462,10 +1462,10 @@
         <v>4</v>
       </c>
       <c r="B98">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C98" s="2">
-        <v>157.3489990234375</v>
+        <v>-13.78499984741211</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1473,10 +1473,10 @@
         <v>4</v>
       </c>
       <c r="B99">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C99" s="2">
-        <v>213.822998046875</v>
+        <v>50.34500122070312</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1484,10 +1484,10 @@
         <v>4</v>
       </c>
       <c r="B100">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C100" s="2">
-        <v>187.9949951171875</v>
+        <v>72.15899658203125</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1495,10 +1495,10 @@
         <v>4</v>
       </c>
       <c r="B101">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C101" s="2">
-        <v>182.5050048828125</v>
+        <v>84.41100311279297</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1506,10 +1506,10 @@
         <v>4</v>
       </c>
       <c r="B102">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C102" s="2">
-        <v>201.3930053710938</v>
+        <v>117.3730010986328</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1517,10 +1517,10 @@
         <v>4</v>
       </c>
       <c r="B103">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C103" s="2">
-        <v>247.2359924316406</v>
+        <v>164.302001953125</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1528,10 +1528,10 @@
         <v>4</v>
       </c>
       <c r="B104">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C104" s="2">
-        <v>191.9340057373047</v>
+        <v>183.3170013427734</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1539,10 +1539,10 @@
         <v>4</v>
       </c>
       <c r="B105">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C105" s="2">
-        <v>157.2380065917969</v>
+        <v>200.0989990234375</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1550,10 +1550,10 @@
         <v>4</v>
       </c>
       <c r="B106">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C106" s="2">
-        <v>271.5979919433594</v>
+        <v>165.5839996337891</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1561,10 +1561,10 @@
         <v>4</v>
       </c>
       <c r="B107">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C107" s="2">
-        <v>290.2109985351562</v>
+        <v>150.4179992675781</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1572,10 +1572,10 @@
         <v>4</v>
       </c>
       <c r="B108">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C108" s="2">
-        <v>268.7730102539062</v>
+        <v>130.9129943847656</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1583,10 +1583,10 @@
         <v>4</v>
       </c>
       <c r="B109">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C109" s="2">
-        <v>266.8349914550781</v>
+        <v>229.22900390625</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1594,10 +1594,10 @@
         <v>4</v>
       </c>
       <c r="B110">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C110" s="2">
-        <v>240.6380004882812</v>
+        <v>273.3399963378906</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1605,10 +1605,10 @@
         <v>4</v>
       </c>
       <c r="B111">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C111" s="2">
-        <v>213.9539947509766</v>
+        <v>318.1719970703125</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1616,10 +1616,10 @@
         <v>4</v>
       </c>
       <c r="B112">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C112" s="2">
-        <v>129.072998046875</v>
+        <v>429.3789978027344</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1627,10 +1627,10 @@
         <v>4</v>
       </c>
       <c r="B113">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C113" s="2">
-        <v>38.72800064086914</v>
+        <v>656.2739868164062</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1638,10 +1638,10 @@
         <v>4</v>
       </c>
       <c r="B114">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C114" s="2">
-        <v>123.9290008544922</v>
+        <v>1174.078979492188</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1649,10 +1649,10 @@
         <v>4</v>
       </c>
       <c r="B115">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C115" s="2">
-        <v>20.4689998626709</v>
+        <v>1246.864990234375</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1660,10 +1660,10 @@
         <v>4</v>
       </c>
       <c r="B116">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C116" s="2">
-        <v>86.74800109863281</v>
+        <v>1316.297973632812</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1671,10 +1671,10 @@
         <v>4</v>
       </c>
       <c r="B117">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C117" s="2">
-        <v>28.36300086975098</v>
+        <v>1211.777954101562</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1682,10 +1682,10 @@
         <v>4</v>
       </c>
       <c r="B118">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C118" s="2">
-        <v>26.97599983215332</v>
+        <v>1345.509033203125</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1693,10 +1693,10 @@
         <v>4</v>
       </c>
       <c r="B119">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C119" s="2">
-        <v>82.72100067138672</v>
+        <v>1198.651000976562</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1704,10 +1704,10 @@
         <v>4</v>
       </c>
       <c r="B120">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C120" s="2">
-        <v>65.40499877929688</v>
+        <v>1279.192016601562</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1715,10 +1715,10 @@
         <v>4</v>
       </c>
       <c r="B121">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C121" s="2">
-        <v>118.5130004882812</v>
+        <v>1139.498046875</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1726,10 +1726,10 @@
         <v>4</v>
       </c>
       <c r="B122">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C122" s="2">
-        <v>180.4040069580078</v>
+        <v>888.4719848632812</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1737,10 +1737,10 @@
         <v>4</v>
       </c>
       <c r="B123">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C123" s="2">
-        <v>158.9859924316406</v>
+        <v>842.9409790039062</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1748,10 +1748,10 @@
         <v>4</v>
       </c>
       <c r="B124">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C124" s="2">
-        <v>192.8379974365234</v>
+        <v>880.7789916992188</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1759,10 +1759,10 @@
         <v>4</v>
       </c>
       <c r="B125">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C125" s="2">
-        <v>221.2460021972656</v>
+        <v>882.927001953125</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1770,10 +1770,10 @@
         <v>4</v>
       </c>
       <c r="B126">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C126" s="2">
-        <v>195.2960052490234</v>
+        <v>972.7479858398438</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1781,10 +1781,10 @@
         <v>4</v>
       </c>
       <c r="B127">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C127" s="2">
-        <v>195.6940002441406</v>
+        <v>985.7540283203125</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1792,10 +1792,10 @@
         <v>4</v>
       </c>
       <c r="B128">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C128" s="2">
-        <v>187.4129943847656</v>
+        <v>998.416015625</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1803,10 +1803,10 @@
         <v>4</v>
       </c>
       <c r="B129">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C129" s="2">
-        <v>180.1999969482422</v>
+        <v>998.1799926757812</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1814,10 +1814,10 @@
         <v>4</v>
       </c>
       <c r="B130">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C130" s="2">
-        <v>153.5249938964844</v>
+        <v>931.8820190429688</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1825,10 +1825,10 @@
         <v>4</v>
       </c>
       <c r="B131">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C131" s="2">
-        <v>162.8549957275391</v>
+        <v>964.3989868164062</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1836,10 +1836,10 @@
         <v>4</v>
       </c>
       <c r="B132">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C132" s="2">
-        <v>149.5149993896484</v>
+        <v>989.510986328125</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1847,10 +1847,10 @@
         <v>4</v>
       </c>
       <c r="B133">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C133" s="2">
-        <v>149.3919982910156</v>
+        <v>1026.43701171875</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1858,10 +1858,10 @@
         <v>4</v>
       </c>
       <c r="B134">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C134" s="2">
-        <v>137.4109954833984</v>
+        <v>1048.659057617188</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1869,10 +1869,10 @@
         <v>4</v>
       </c>
       <c r="B135">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C135" s="2">
-        <v>117.4619979858398</v>
+        <v>909.572021484375</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1880,10 +1880,10 @@
         <v>4</v>
       </c>
       <c r="B136">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C136" s="2">
-        <v>137.2599945068359</v>
+        <v>915.2789916992188</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1891,10 +1891,10 @@
         <v>4</v>
       </c>
       <c r="B137">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C137" s="2">
-        <v>134.3509979248047</v>
+        <v>829.7780151367188</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1902,10 +1902,10 @@
         <v>4</v>
       </c>
       <c r="B138">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C138" s="2">
-        <v>143.3619995117188</v>
+        <v>808.2680053710938</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1913,10 +1913,10 @@
         <v>4</v>
       </c>
       <c r="B139">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C139" s="2">
-        <v>132.4900054931641</v>
+        <v>828.3629760742188</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1924,10 +1924,10 @@
         <v>4</v>
       </c>
       <c r="B140">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C140" s="2">
-        <v>164.5319976806641</v>
+        <v>779.7979736328125</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1935,10 +1935,10 @@
         <v>4</v>
       </c>
       <c r="B141">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C141" s="2">
-        <v>248.7319946289062</v>
+        <v>742.9940185546875</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1946,10 +1946,10 @@
         <v>4</v>
       </c>
       <c r="B142">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C142" s="2">
-        <v>306.4360046386719</v>
+        <v>721.0449829101562</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1957,10 +1957,10 @@
         <v>4</v>
       </c>
       <c r="B143">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C143" s="2">
-        <v>238.7539978027344</v>
+        <v>681.8419799804688</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1968,10 +1968,10 @@
         <v>4</v>
       </c>
       <c r="B144">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C144" s="2">
-        <v>252.7440032958984</v>
+        <v>660.4949951171875</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1979,32 +1979,32 @@
         <v>4</v>
       </c>
       <c r="B145">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C145" s="2">
-        <v>205.8890075683594</v>
+        <v>656.5780029296875</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="C146" s="2">
-        <v>375.4939880371094</v>
+        <v>660.218994140625</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B147">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="C147" s="2">
-        <v>392.9630126953125</v>
+        <v>736.7849731445312</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2012,10 +2012,10 @@
         <v>5</v>
       </c>
       <c r="B148">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C148" s="2">
-        <v>293.2900085449219</v>
+        <v>942.655029296875</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2023,10 +2023,10 @@
         <v>5</v>
       </c>
       <c r="B149">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C149" s="2">
-        <v>240.1790008544922</v>
+        <v>917.2470092773438</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2034,10 +2034,10 @@
         <v>5</v>
       </c>
       <c r="B150">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C150" s="2">
-        <v>214.718994140625</v>
+        <v>901.0369873046875</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2045,10 +2045,10 @@
         <v>5</v>
       </c>
       <c r="B151">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C151" s="2">
-        <v>210.3739929199219</v>
+        <v>906.7009887695312</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2056,10 +2056,10 @@
         <v>5</v>
       </c>
       <c r="B152">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C152" s="2">
-        <v>199.0059967041016</v>
+        <v>971.2139892578125</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2067,10 +2067,10 @@
         <v>5</v>
       </c>
       <c r="B153">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C153" s="2">
-        <v>170.4179992675781</v>
+        <v>920.9660034179688</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2078,10 +2078,10 @@
         <v>5</v>
       </c>
       <c r="B154">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C154" s="2">
-        <v>140.9799957275391</v>
+        <v>887.9340209960938</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2089,10 +2089,10 @@
         <v>5</v>
       </c>
       <c r="B155">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C155" s="2">
-        <v>101.2419967651367</v>
+        <v>855.5469970703125</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2100,10 +2100,10 @@
         <v>5</v>
       </c>
       <c r="B156">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C156" s="2">
-        <v>78.92299652099609</v>
+        <v>801.39599609375</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2111,10 +2111,10 @@
         <v>5</v>
       </c>
       <c r="B157">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C157" s="2">
-        <v>80.80699920654297</v>
+        <v>799.0139770507812</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2122,10 +2122,10 @@
         <v>5</v>
       </c>
       <c r="B158">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C158" s="2">
-        <v>86.42900085449219</v>
+        <v>783.427001953125</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2133,10 +2133,10 @@
         <v>5</v>
       </c>
       <c r="B159">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C159" s="2">
-        <v>91.61799621582031</v>
+        <v>852.5980224609375</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2144,10 +2144,10 @@
         <v>5</v>
       </c>
       <c r="B160">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C160" s="2">
-        <v>67.89199829101562</v>
+        <v>840.2589721679688</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2155,10 +2155,10 @@
         <v>5</v>
       </c>
       <c r="B161">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C161" s="2">
-        <v>68.97299957275391</v>
+        <v>836.1119995117188</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2166,10 +2166,10 @@
         <v>5</v>
       </c>
       <c r="B162">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C162" s="2">
-        <v>24.06500053405762</v>
+        <v>827.9290161132812</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2177,10 +2177,10 @@
         <v>5</v>
       </c>
       <c r="B163">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C163" s="2">
-        <v>31.58200073242188</v>
+        <v>770.6890258789062</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2188,10 +2188,10 @@
         <v>5</v>
       </c>
       <c r="B164">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C164" s="2">
-        <v>29.26399993896484</v>
+        <v>753.0819702148438</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2199,10 +2199,10 @@
         <v>5</v>
       </c>
       <c r="B165">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C165" s="2">
-        <v>18.47500038146973</v>
+        <v>783.833984375</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2210,10 +2210,10 @@
         <v>5</v>
       </c>
       <c r="B166">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C166" s="2">
-        <v>81.08499908447266</v>
+        <v>765.39599609375</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2221,10 +2221,10 @@
         <v>5</v>
       </c>
       <c r="B167">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C167" s="2">
-        <v>90.49299621582031</v>
+        <v>746.635009765625</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2232,10 +2232,10 @@
         <v>5</v>
       </c>
       <c r="B168">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C168" s="2">
-        <v>55.31900024414062</v>
+        <v>815.7410278320312</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2243,10 +2243,10 @@
         <v>5</v>
       </c>
       <c r="B169">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C169" s="2">
-        <v>47.87300109863281</v>
+        <v>830.5570068359375</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2254,10 +2254,10 @@
         <v>5</v>
       </c>
       <c r="B170">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C170" s="2">
-        <v>86.6510009765625</v>
+        <v>764.4000244140625</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2265,10 +2265,10 @@
         <v>5</v>
       </c>
       <c r="B171">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C171" s="2">
-        <v>39.20800018310547</v>
+        <v>809.291015625</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2276,10 +2276,10 @@
         <v>5</v>
       </c>
       <c r="B172">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C172" s="2">
-        <v>35.23300170898438</v>
+        <v>809.6389770507812</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2287,10 +2287,10 @@
         <v>5</v>
       </c>
       <c r="B173">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C173" s="2">
-        <v>91.55400085449219</v>
+        <v>725.2260131835938</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2298,10 +2298,10 @@
         <v>5</v>
       </c>
       <c r="B174">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C174" s="2">
-        <v>114.2399978637695</v>
+        <v>815.9849853515625</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2309,10 +2309,10 @@
         <v>5</v>
       </c>
       <c r="B175">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C175" s="2">
-        <v>78.71099853515625</v>
+        <v>883.2139892578125</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2320,10 +2320,10 @@
         <v>5</v>
       </c>
       <c r="B176">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C176" s="2">
-        <v>43.48899841308594</v>
+        <v>897.1099853515625</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2331,10 +2331,10 @@
         <v>5</v>
       </c>
       <c r="B177">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C177" s="2">
-        <v>10.38700008392334</v>
+        <v>881.3900146484375</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2342,10 +2342,10 @@
         <v>5</v>
       </c>
       <c r="B178">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C178" s="2">
-        <v>0.5720000267028809</v>
+        <v>890.8159790039062</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2353,10 +2353,10 @@
         <v>5</v>
       </c>
       <c r="B179">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C179" s="2">
-        <v>-49.48500061035156</v>
+        <v>712.4199829101562</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2364,10 +2364,10 @@
         <v>5</v>
       </c>
       <c r="B180">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C180" s="2">
-        <v>0.3930000066757202</v>
+        <v>741.052001953125</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2375,10 +2375,10 @@
         <v>5</v>
       </c>
       <c r="B181">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C181" s="2">
-        <v>-11.83600044250488</v>
+        <v>828.3090209960938</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2386,10 +2386,10 @@
         <v>5</v>
       </c>
       <c r="B182">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C182" s="2">
-        <v>4.931000232696533</v>
+        <v>937.2379760742188</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2397,10 +2397,10 @@
         <v>5</v>
       </c>
       <c r="B183">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C183" s="2">
-        <v>70.37599945068359</v>
+        <v>992.2550048828125</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2408,10 +2408,10 @@
         <v>5</v>
       </c>
       <c r="B184">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C184" s="2">
-        <v>43.14799880981445</v>
+        <v>1026.175048828125</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2419,10 +2419,10 @@
         <v>5</v>
       </c>
       <c r="B185">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C185" s="2">
-        <v>45.23500061035156</v>
+        <v>939.8579711914062</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2430,10 +2430,10 @@
         <v>5</v>
       </c>
       <c r="B186">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C186" s="2">
-        <v>84.04299926757812</v>
+        <v>1100.739990234375</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2441,10 +2441,10 @@
         <v>5</v>
       </c>
       <c r="B187">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C187" s="2">
-        <v>86.36199951171875</v>
+        <v>1247.649047851562</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2452,10 +2452,10 @@
         <v>5</v>
       </c>
       <c r="B188">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C188" s="2">
-        <v>46.31700134277344</v>
+        <v>1209.362060546875</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2463,10 +2463,10 @@
         <v>5</v>
       </c>
       <c r="B189">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C189" s="2">
-        <v>36.35800170898438</v>
+        <v>1311.052978515625</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2474,10 +2474,10 @@
         <v>5</v>
       </c>
       <c r="B190">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C190" s="2">
-        <v>54.84700012207031</v>
+        <v>1499.384033203125</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2485,10 +2485,10 @@
         <v>5</v>
       </c>
       <c r="B191">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C191" s="2">
-        <v>17.10799980163574</v>
+        <v>1566.594970703125</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2496,10 +2496,10 @@
         <v>5</v>
       </c>
       <c r="B192">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C192" s="2">
-        <v>4.328000068664551</v>
+        <v>1744.430053710938</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2507,10 +2507,10 @@
         <v>5</v>
       </c>
       <c r="B193">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C193" s="2">
-        <v>94.63300323486328</v>
+        <v>1829.467041015625</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2518,10 +2518,10 @@
         <v>5</v>
       </c>
       <c r="B194">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C194" s="2">
-        <v>116.8310012817383</v>
+        <v>1879.765014648438</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2529,10 +2529,10 @@
         <v>5</v>
       </c>
       <c r="B195">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C195" s="2">
-        <v>236.0010070800781</v>
+        <v>1911.024047851562</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2540,10 +2540,10 @@
         <v>5</v>
       </c>
       <c r="B196">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C196" s="2">
-        <v>114.9619979858398</v>
+        <v>1783.160034179688</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2551,10 +2551,10 @@
         <v>5</v>
       </c>
       <c r="B197">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C197" s="2">
-        <v>62.68199920654297</v>
+        <v>1830.787963867188</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2562,10 +2562,10 @@
         <v>5</v>
       </c>
       <c r="B198">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C198" s="2">
-        <v>-5.026999950408936</v>
+        <v>1925.41796875</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2573,10 +2573,10 @@
         <v>5</v>
       </c>
       <c r="B199">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C199" s="2">
-        <v>32.04999923706055</v>
+        <v>2105.491943359375</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2584,10 +2584,10 @@
         <v>5</v>
       </c>
       <c r="B200">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C200" s="2">
-        <v>69.2030029296875</v>
+        <v>2106.285888671875</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2595,10 +2595,10 @@
         <v>5</v>
       </c>
       <c r="B201">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C201" s="2">
-        <v>46.67599868774414</v>
+        <v>2077.087890625</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2606,10 +2606,10 @@
         <v>5</v>
       </c>
       <c r="B202">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C202" s="2">
-        <v>62.56999969482422</v>
+        <v>2062.1279296875</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2617,10 +2617,10 @@
         <v>5</v>
       </c>
       <c r="B203">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C203" s="2">
-        <v>97.37699890136719</v>
+        <v>2050.876953125</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2628,10 +2628,10 @@
         <v>5</v>
       </c>
       <c r="B204">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C204" s="2">
-        <v>149.875</v>
+        <v>1783.183959960938</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2639,10 +2639,10 @@
         <v>5</v>
       </c>
       <c r="B205">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C205" s="2">
-        <v>187.9640045166016</v>
+        <v>1782.130004882812</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2650,10 +2650,10 @@
         <v>5</v>
       </c>
       <c r="B206">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C206" s="2">
-        <v>194.9190063476562</v>
+        <v>1764.900024414062</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2661,10 +2661,10 @@
         <v>5</v>
       </c>
       <c r="B207">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C207" s="2">
-        <v>187.3580017089844</v>
+        <v>1968.223999023438</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2672,10 +2672,10 @@
         <v>5</v>
       </c>
       <c r="B208">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C208" s="2">
-        <v>261.4440002441406</v>
+        <v>1997.052001953125</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2683,10 +2683,10 @@
         <v>5</v>
       </c>
       <c r="B209">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C209" s="2">
-        <v>397.93701171875</v>
+        <v>1917.64794921875</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2694,10 +2694,10 @@
         <v>5</v>
       </c>
       <c r="B210">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C210" s="2">
-        <v>497.0740051269531</v>
+        <v>1915.253051757812</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2705,10 +2705,10 @@
         <v>5</v>
       </c>
       <c r="B211">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C211" s="2">
-        <v>688.2310180664062</v>
+        <v>2047.31103515625</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2716,10 +2716,10 @@
         <v>5</v>
       </c>
       <c r="B212">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C212" s="2">
-        <v>939.1259765625</v>
+        <v>2136.910888671875</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2727,10 +2727,10 @@
         <v>5</v>
       </c>
       <c r="B213">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C213" s="2">
-        <v>1123.1669921875</v>
+        <v>2233.011962890625</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2738,10 +2738,10 @@
         <v>5</v>
       </c>
       <c r="B214">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C214" s="2">
-        <v>1207.449951171875</v>
+        <v>2129.823974609375</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2749,10 +2749,10 @@
         <v>5</v>
       </c>
       <c r="B215">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C215" s="2">
-        <v>911.885986328125</v>
+        <v>1965.39599609375</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2760,10 +2760,10 @@
         <v>5</v>
       </c>
       <c r="B216">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C216" s="2">
-        <v>783.6690063476562</v>
+        <v>1929.119018554688</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2771,10 +2771,10 @@
         <v>5</v>
       </c>
       <c r="B217">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C217" s="2">
-        <v>813.0770263671875</v>
+        <v>1915.385986328125</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2782,10 +2782,10 @@
         <v>5</v>
       </c>
       <c r="B218">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C218" s="2">
-        <v>688.2329711914062</v>
+        <v>1762.387939453125</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2793,10 +2793,10 @@
         <v>5</v>
       </c>
       <c r="B219">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C219" s="2">
-        <v>664.0050048828125</v>
+        <v>1684.531005859375</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2804,10 +2804,10 @@
         <v>5</v>
       </c>
       <c r="B220">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C220" s="2">
-        <v>644.989990234375</v>
+        <v>1600.592041015625</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2815,10 +2815,10 @@
         <v>5</v>
       </c>
       <c r="B221">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C221" s="2">
-        <v>696.7680053710938</v>
+        <v>1494.641967773438</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2826,10 +2826,10 @@
         <v>5</v>
       </c>
       <c r="B222">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C222" s="2">
-        <v>690.405029296875</v>
+        <v>1456.913940429688</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2837,10 +2837,10 @@
         <v>5</v>
       </c>
       <c r="B223">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C223" s="2">
-        <v>714.4630126953125</v>
+        <v>1429.166015625</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2848,10 +2848,10 @@
         <v>5</v>
       </c>
       <c r="B224">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C224" s="2">
-        <v>653.4140014648438</v>
+        <v>1457.152954101562</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2859,10 +2859,10 @@
         <v>5</v>
       </c>
       <c r="B225">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C225" s="2">
-        <v>710.6380004882812</v>
+        <v>1361.6669921875</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2870,10 +2870,10 @@
         <v>5</v>
       </c>
       <c r="B226">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C226" s="2">
-        <v>716.885986328125</v>
+        <v>1419.329956054688</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2881,10 +2881,10 @@
         <v>5</v>
       </c>
       <c r="B227">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C227" s="2">
-        <v>534.89599609375</v>
+        <v>1441.590942382812</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2892,10 +2892,10 @@
         <v>5</v>
       </c>
       <c r="B228">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C228" s="2">
-        <v>566.2979736328125</v>
+        <v>1479.836059570312</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2903,10 +2903,10 @@
         <v>5</v>
       </c>
       <c r="B229">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C229" s="2">
-        <v>528.3660278320312</v>
+        <v>1419.154052734375</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2914,10 +2914,10 @@
         <v>5</v>
       </c>
       <c r="B230">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C230" s="2">
-        <v>475.3280029296875</v>
+        <v>1493.698974609375</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2925,10 +2925,10 @@
         <v>5</v>
       </c>
       <c r="B231">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C231" s="2">
-        <v>411.510009765625</v>
+        <v>1429.151000976562</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2936,10 +2936,10 @@
         <v>5</v>
       </c>
       <c r="B232">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C232" s="2">
-        <v>376.0220031738281</v>
+        <v>1487.818969726562</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2947,10 +2947,10 @@
         <v>5</v>
       </c>
       <c r="B233">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C233" s="2">
-        <v>333.9609985351562</v>
+        <v>1598.135986328125</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2958,10 +2958,10 @@
         <v>5</v>
       </c>
       <c r="B234">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C234" s="2">
-        <v>283.6300048828125</v>
+        <v>1489.9169921875</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2969,10 +2969,10 @@
         <v>5</v>
       </c>
       <c r="B235">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C235" s="2">
-        <v>278.6080017089844</v>
+        <v>1438.845947265625</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2980,10 +2980,10 @@
         <v>5</v>
       </c>
       <c r="B236">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C236" s="2">
-        <v>223.1130065917969</v>
+        <v>1430.990966796875</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2991,10 +2991,10 @@
         <v>5</v>
       </c>
       <c r="B237">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C237" s="2">
-        <v>73.69200134277344</v>
+        <v>1494.253051757812</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3002,10 +3002,10 @@
         <v>5</v>
       </c>
       <c r="B238">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C238" s="2">
-        <v>80.35800170898438</v>
+        <v>1550.56494140625</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3013,10 +3013,10 @@
         <v>5</v>
       </c>
       <c r="B239">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C239" s="2">
-        <v>121.2929992675781</v>
+        <v>1529.640991210938</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3024,10 +3024,10 @@
         <v>5</v>
       </c>
       <c r="B240">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C240" s="2">
-        <v>141.9389953613281</v>
+        <v>1465.125</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3035,32 +3035,32 @@
         <v>5</v>
       </c>
       <c r="B241">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C241" s="2">
-        <v>209.3500061035156</v>
+        <v>1380.485961914062</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B242">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="C242" s="2">
-        <v>257.1640014648438</v>
+        <v>1381.782958984375</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B243">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="C243" s="2">
-        <v>234.875</v>
+        <v>1399.713989257812</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3068,10 +3068,10 @@
         <v>6</v>
       </c>
       <c r="B244">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C244" s="2">
-        <v>279.5140075683594</v>
+        <v>1456.5810546875</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3079,10 +3079,10 @@
         <v>6</v>
       </c>
       <c r="B245">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C245" s="2">
-        <v>251.8710021972656</v>
+        <v>1424.552001953125</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3090,10 +3090,10 @@
         <v>6</v>
       </c>
       <c r="B246">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C246" s="2">
-        <v>225.3359985351562</v>
+        <v>1430.029052734375</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3101,10 +3101,10 @@
         <v>6</v>
       </c>
       <c r="B247">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C247" s="2">
-        <v>263.135986328125</v>
+        <v>1363.682983398438</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3112,10 +3112,10 @@
         <v>6</v>
       </c>
       <c r="B248">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C248" s="2">
-        <v>176.5659942626953</v>
+        <v>1163.7080078125</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3123,10 +3123,10 @@
         <v>6</v>
       </c>
       <c r="B249">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C249" s="2">
-        <v>188.4559936523438</v>
+        <v>1096.490966796875</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3134,10 +3134,10 @@
         <v>6</v>
       </c>
       <c r="B250">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C250" s="2">
-        <v>151.2120056152344</v>
+        <v>1397.527954101562</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3145,10 +3145,10 @@
         <v>6</v>
       </c>
       <c r="B251">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C251" s="2">
-        <v>163.2619934082031</v>
+        <v>1607.890991210938</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3156,10 +3156,10 @@
         <v>6</v>
       </c>
       <c r="B252">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C252" s="2">
-        <v>173.4880065917969</v>
+        <v>1579.723022460938</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3167,10 +3167,10 @@
         <v>6</v>
       </c>
       <c r="B253">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C253" s="2">
-        <v>123.0879974365234</v>
+        <v>1526.010009765625</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3178,10 +3178,10 @@
         <v>6</v>
       </c>
       <c r="B254">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C254" s="2">
-        <v>109.5579986572266</v>
+        <v>1586.77294921875</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3189,10 +3189,10 @@
         <v>6</v>
       </c>
       <c r="B255">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C255" s="2">
-        <v>146.9969940185547</v>
+        <v>1638.359985351562</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3200,10 +3200,10 @@
         <v>6</v>
       </c>
       <c r="B256">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C256" s="2">
-        <v>131.4889984130859</v>
+        <v>1614.838012695312</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3211,10 +3211,10 @@
         <v>6</v>
       </c>
       <c r="B257">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C257" s="2">
-        <v>129.3430023193359</v>
+        <v>1656.796997070312</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3222,10 +3222,10 @@
         <v>6</v>
       </c>
       <c r="B258">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C258" s="2">
-        <v>174.8370056152344</v>
+        <v>1668.170043945312</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3233,10 +3233,10 @@
         <v>6</v>
       </c>
       <c r="B259">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C259" s="2">
-        <v>219.0859985351562</v>
+        <v>1625.652954101562</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3244,10 +3244,10 @@
         <v>6</v>
       </c>
       <c r="B260">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C260" s="2">
-        <v>265.1650085449219</v>
+        <v>1582.719970703125</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3255,10 +3255,10 @@
         <v>6</v>
       </c>
       <c r="B261">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C261" s="2">
-        <v>277.0379943847656</v>
+        <v>1560.172973632812</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3266,10 +3266,10 @@
         <v>6</v>
       </c>
       <c r="B262">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C262" s="2">
-        <v>249.3569946289062</v>
+        <v>1610.673950195312</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3277,10 +3277,10 @@
         <v>6</v>
       </c>
       <c r="B263">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C263" s="2">
-        <v>251.875</v>
+        <v>1659.015991210938</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3288,10 +3288,10 @@
         <v>6</v>
       </c>
       <c r="B264">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C264" s="2">
-        <v>240.1920013427734</v>
+        <v>1686.713012695312</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3299,10 +3299,10 @@
         <v>6</v>
       </c>
       <c r="B265">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C265" s="2">
-        <v>233.9409942626953</v>
+        <v>1692.824951171875</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3310,10 +3310,10 @@
         <v>6</v>
       </c>
       <c r="B266">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C266" s="2">
-        <v>185.9720001220703</v>
+        <v>1724.31396484375</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3321,10 +3321,10 @@
         <v>6</v>
       </c>
       <c r="B267">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C267" s="2">
-        <v>191.3350067138672</v>
+        <v>1833.97998046875</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3332,10 +3332,10 @@
         <v>6</v>
       </c>
       <c r="B268">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C268" s="2">
-        <v>228.9730072021484</v>
+        <v>1936.734008789062</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3343,10 +3343,10 @@
         <v>6</v>
       </c>
       <c r="B269">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C269" s="2">
-        <v>317.1780090332031</v>
+        <v>1930.225952148438</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3354,10 +3354,10 @@
         <v>6</v>
       </c>
       <c r="B270">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C270" s="2">
-        <v>326.1239929199219</v>
+        <v>2258.48291015625</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3365,10 +3365,10 @@
         <v>6</v>
       </c>
       <c r="B271">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C271" s="2">
-        <v>318.4030151367188</v>
+        <v>2290.304931640625</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3376,10 +3376,10 @@
         <v>6</v>
       </c>
       <c r="B272">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C272" s="2">
-        <v>516.4320068359375</v>
+        <v>2338.5009765625</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3387,10 +3387,10 @@
         <v>6</v>
       </c>
       <c r="B273">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C273" s="2">
-        <v>705.0689697265625</v>
+        <v>2277.535888671875</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3398,10 +3398,10 @@
         <v>6</v>
       </c>
       <c r="B274">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C274" s="2">
-        <v>1054.64599609375</v>
+        <v>2113.3798828125</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3409,10 +3409,10 @@
         <v>6</v>
       </c>
       <c r="B275">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C275" s="2">
-        <v>950.989990234375</v>
+        <v>2272.610107421875</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3420,10 +3420,10 @@
         <v>6</v>
       </c>
       <c r="B276">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C276" s="2">
-        <v>1080.319946289062</v>
+        <v>2410.698974609375</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3431,10 +3431,10 @@
         <v>6</v>
       </c>
       <c r="B277">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C277" s="2">
-        <v>991.8800048828125</v>
+        <v>2411.681884765625</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3442,10 +3442,10 @@
         <v>6</v>
       </c>
       <c r="B278">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C278" s="2">
-        <v>1036.281005859375</v>
+        <v>2371.802978515625</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3453,10 +3453,10 @@
         <v>6</v>
       </c>
       <c r="B279">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C279" s="2">
-        <v>881.1929931640625</v>
+        <v>2364.291015625</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3464,10 +3464,10 @@
         <v>6</v>
       </c>
       <c r="B280">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C280" s="2">
-        <v>839.281982421875</v>
+        <v>2333.55908203125</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3475,10 +3475,10 @@
         <v>6</v>
       </c>
       <c r="B281">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C281" s="2">
-        <v>1026.546997070312</v>
+        <v>2185.66796875</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3486,10 +3486,10 @@
         <v>6</v>
       </c>
       <c r="B282">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C282" s="2">
-        <v>1190.384033203125</v>
+        <v>2178.552001953125</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3497,10 +3497,10 @@
         <v>6</v>
       </c>
       <c r="B283">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C283" s="2">
-        <v>1267.838989257812</v>
+        <v>2011.100952148438</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3508,10 +3508,10 @@
         <v>6</v>
       </c>
       <c r="B284">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C284" s="2">
-        <v>1307.779052734375</v>
+        <v>2026.284057617188</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3519,10 +3519,10 @@
         <v>6</v>
       </c>
       <c r="B285">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C285" s="2">
-        <v>1204.134033203125</v>
+        <v>2023.150024414062</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3530,10 +3530,10 @@
         <v>6</v>
       </c>
       <c r="B286">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C286" s="2">
-        <v>1244.159057617188</v>
+        <v>1997.427001953125</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3541,10 +3541,10 @@
         <v>6</v>
       </c>
       <c r="B287">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C287" s="2">
-        <v>1123.943969726562</v>
+        <v>2216.8720703125</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3552,10 +3552,10 @@
         <v>6</v>
       </c>
       <c r="B288">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C288" s="2">
-        <v>1240.5830078125</v>
+        <v>2260.77099609375</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3563,10 +3563,10 @@
         <v>6</v>
       </c>
       <c r="B289">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C289" s="2">
-        <v>1435.800048828125</v>
+        <v>2360.89599609375</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3574,10 +3574,10 @@
         <v>6</v>
       </c>
       <c r="B290">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C290" s="2">
-        <v>1429.326049804688</v>
+        <v>2286.971923828125</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3585,10 +3585,10 @@
         <v>6</v>
       </c>
       <c r="B291">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C291" s="2">
-        <v>1566.677001953125</v>
+        <v>2297.278076171875</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3596,10 +3596,10 @@
         <v>6</v>
       </c>
       <c r="B292">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C292" s="2">
-        <v>1731.546997070312</v>
+        <v>2327.845947265625</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3607,10 +3607,10 @@
         <v>6</v>
       </c>
       <c r="B293">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C293" s="2">
-        <v>1759.328002929688</v>
+        <v>2397.37109375</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3618,10 +3618,10 @@
         <v>6</v>
       </c>
       <c r="B294">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C294" s="2">
-        <v>1819.254028320312</v>
+        <v>2416.343017578125</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3629,10 +3629,10 @@
         <v>6</v>
       </c>
       <c r="B295">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C295" s="2">
-        <v>1855.27099609375</v>
+        <v>2444.47607421875</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3640,10 +3640,10 @@
         <v>6</v>
       </c>
       <c r="B296">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C296" s="2">
-        <v>1983.18896484375</v>
+        <v>2350.760009765625</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3651,10 +3651,10 @@
         <v>6</v>
       </c>
       <c r="B297">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C297" s="2">
-        <v>1992.241943359375</v>
+        <v>2398.967041015625</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3662,10 +3662,10 @@
         <v>6</v>
       </c>
       <c r="B298">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C298" s="2">
-        <v>2090.43798828125</v>
+        <v>2483.25</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3673,10 +3673,10 @@
         <v>6</v>
       </c>
       <c r="B299">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C299" s="2">
-        <v>2098.9580078125</v>
+        <v>2216.090087890625</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3684,10 +3684,10 @@
         <v>6</v>
       </c>
       <c r="B300">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C300" s="2">
-        <v>2139.2939453125</v>
+        <v>2163.26904296875</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3695,10 +3695,10 @@
         <v>6</v>
       </c>
       <c r="B301">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C301" s="2">
-        <v>2152.2900390625</v>
+        <v>2161.2919921875</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3706,10 +3706,10 @@
         <v>6</v>
       </c>
       <c r="B302">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C302" s="2">
-        <v>2180.452880859375</v>
+        <v>1700.6259765625</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3717,10 +3717,10 @@
         <v>6</v>
       </c>
       <c r="B303">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C303" s="2">
-        <v>2093.989013671875</v>
+        <v>1767.131958007812</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3728,10 +3728,10 @@
         <v>6</v>
       </c>
       <c r="B304">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C304" s="2">
-        <v>2023</v>
+        <v>2087.492919921875</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3739,10 +3739,10 @@
         <v>6</v>
       </c>
       <c r="B305">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C305" s="2">
-        <v>1868.001953125</v>
+        <v>2087.547119140625</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3750,10 +3750,10 @@
         <v>6</v>
       </c>
       <c r="B306">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C306" s="2">
-        <v>1925.880981445312</v>
+        <v>2008.35595703125</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3761,10 +3761,10 @@
         <v>6</v>
       </c>
       <c r="B307">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C307" s="2">
-        <v>1821.9189453125</v>
+        <v>2026.14404296875</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3772,10 +3772,10 @@
         <v>6</v>
       </c>
       <c r="B308">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C308" s="2">
-        <v>1800.68896484375</v>
+        <v>2157.89208984375</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3783,10 +3783,10 @@
         <v>6</v>
       </c>
       <c r="B309">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C309" s="2">
-        <v>2203.43994140625</v>
+        <v>2109.492919921875</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3794,10 +3794,10 @@
         <v>6</v>
       </c>
       <c r="B310">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C310" s="2">
-        <v>2265.241943359375</v>
+        <v>2023.43603515625</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3805,10 +3805,10 @@
         <v>6</v>
       </c>
       <c r="B311">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C311" s="2">
-        <v>2100.72900390625</v>
+        <v>1990.307983398438</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3816,10 +3816,10 @@
         <v>6</v>
       </c>
       <c r="B312">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C312" s="2">
-        <v>1903.0009765625</v>
+        <v>1909.22900390625</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3827,10 +3827,10 @@
         <v>6</v>
       </c>
       <c r="B313">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C313" s="2">
-        <v>1825.800048828125</v>
+        <v>1893.328002929688</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3838,10 +3838,10 @@
         <v>6</v>
       </c>
       <c r="B314">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C314" s="2">
-        <v>1824.5400390625</v>
+        <v>2036.432983398438</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3849,10 +3849,10 @@
         <v>6</v>
       </c>
       <c r="B315">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C315" s="2">
-        <v>1762.965942382812</v>
+        <v>2209.74609375</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3860,10 +3860,10 @@
         <v>6</v>
       </c>
       <c r="B316">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C316" s="2">
-        <v>1788.5810546875</v>
+        <v>2126.618896484375</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -3871,10 +3871,10 @@
         <v>6</v>
       </c>
       <c r="B317">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C317" s="2">
-        <v>1737.156005859375</v>
+        <v>2145.889892578125</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -3882,10 +3882,10 @@
         <v>6</v>
       </c>
       <c r="B318">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C318" s="2">
-        <v>1734.9990234375</v>
+        <v>2197.697021484375</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -3893,10 +3893,10 @@
         <v>6</v>
       </c>
       <c r="B319">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C319" s="2">
-        <v>1614.008056640625</v>
+        <v>2134.35009765625</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -3904,10 +3904,10 @@
         <v>6</v>
       </c>
       <c r="B320">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C320" s="2">
-        <v>1654.110961914062</v>
+        <v>2049.31396484375</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -3915,10 +3915,10 @@
         <v>6</v>
       </c>
       <c r="B321">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C321" s="2">
-        <v>1483.260986328125</v>
+        <v>2087.22607421875</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -3926,10 +3926,10 @@
         <v>6</v>
       </c>
       <c r="B322">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C322" s="2">
-        <v>1444.753051757812</v>
+        <v>2098.806884765625</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -3937,10 +3937,10 @@
         <v>6</v>
       </c>
       <c r="B323">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C323" s="2">
-        <v>1356.953002929688</v>
+        <v>2014.086059570312</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -3948,10 +3948,10 @@
         <v>6</v>
       </c>
       <c r="B324">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C324" s="2">
-        <v>1354.990966796875</v>
+        <v>1795.639038085938</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -3959,10 +3959,10 @@
         <v>6</v>
       </c>
       <c r="B325">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C325" s="2">
-        <v>1320.1689453125</v>
+        <v>1810.785034179688</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -3970,10 +3970,10 @@
         <v>6</v>
       </c>
       <c r="B326">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C326" s="2">
-        <v>1337.077026367188</v>
+        <v>1765.984008789062</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -3981,10 +3981,10 @@
         <v>6</v>
       </c>
       <c r="B327">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C327" s="2">
-        <v>1365.193969726562</v>
+        <v>1723.223022460938</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -3992,10 +3992,10 @@
         <v>6</v>
       </c>
       <c r="B328">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C328" s="2">
-        <v>1428.536010742188</v>
+        <v>1705.109985351562</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -4003,10 +4003,10 @@
         <v>6</v>
       </c>
       <c r="B329">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C329" s="2">
-        <v>1479.517944335938</v>
+        <v>1678.31298828125</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -4014,10 +4014,10 @@
         <v>6</v>
       </c>
       <c r="B330">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C330" s="2">
-        <v>1493.864990234375</v>
+        <v>1576.4580078125</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4025,10 +4025,10 @@
         <v>6</v>
       </c>
       <c r="B331">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C331" s="2">
-        <v>1549.235961914062</v>
+        <v>1486.5849609375</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4036,10 +4036,10 @@
         <v>6</v>
       </c>
       <c r="B332">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C332" s="2">
-        <v>1601.083984375</v>
+        <v>1484.161987304688</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4047,10 +4047,10 @@
         <v>6</v>
       </c>
       <c r="B333">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C333" s="2">
-        <v>1585.97705078125</v>
+        <v>1325.98095703125</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4058,10 +4058,10 @@
         <v>6</v>
       </c>
       <c r="B334">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C334" s="2">
-        <v>1594.2900390625</v>
+        <v>1355.202026367188</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4069,10 +4069,10 @@
         <v>6</v>
       </c>
       <c r="B335">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C335" s="2">
-        <v>1592.4169921875</v>
+        <v>1261.681030273438</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4080,10 +4080,10 @@
         <v>6</v>
       </c>
       <c r="B336">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C336" s="2">
-        <v>1467.982055664062</v>
+        <v>1269.261962890625</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4091,32 +4091,32 @@
         <v>6</v>
       </c>
       <c r="B337">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C337" s="2">
-        <v>1375.907958984375</v>
+        <v>1145.3759765625</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B338">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="C338" s="2">
-        <v>1445.14697265625</v>
+        <v>1174.093994140625</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B339">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="C339" s="2">
-        <v>1410.27001953125</v>
+        <v>1247.201049804688</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4124,10 +4124,10 @@
         <v>7</v>
       </c>
       <c r="B340">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C340" s="2">
-        <v>1448.744995117188</v>
+        <v>1404.431030273438</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4135,10 +4135,10 @@
         <v>7</v>
       </c>
       <c r="B341">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C341" s="2">
-        <v>1494.608032226562</v>
+        <v>1436.505004882812</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4146,10 +4146,10 @@
         <v>7</v>
       </c>
       <c r="B342">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C342" s="2">
-        <v>1544.114990234375</v>
+        <v>1422.952026367188</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4157,10 +4157,10 @@
         <v>7</v>
       </c>
       <c r="B343">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C343" s="2">
-        <v>1548.72802734375</v>
+        <v>1403.154052734375</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4168,10 +4168,10 @@
         <v>7</v>
       </c>
       <c r="B344">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C344" s="2">
-        <v>1550.086059570312</v>
+        <v>1436.302001953125</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4179,10 +4179,10 @@
         <v>7</v>
       </c>
       <c r="B345">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C345" s="2">
-        <v>1592.933959960938</v>
+        <v>1410.213989257812</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4190,10 +4190,10 @@
         <v>7</v>
       </c>
       <c r="B346">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C346" s="2">
-        <v>1574.373046875</v>
+        <v>1493.366943359375</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -4201,10 +4201,10 @@
         <v>7</v>
       </c>
       <c r="B347">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C347" s="2">
-        <v>1509.340942382812</v>
+        <v>1487.748046875</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4212,10 +4212,10 @@
         <v>7</v>
       </c>
       <c r="B348">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C348" s="2">
-        <v>1524.547973632812</v>
+        <v>1080.364013671875</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -4223,10 +4223,10 @@
         <v>7</v>
       </c>
       <c r="B349">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C349" s="2">
-        <v>1643.333984375</v>
+        <v>1015.9990234375</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4234,10 +4234,10 @@
         <v>7</v>
       </c>
       <c r="B350">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C350" s="2">
-        <v>1632.949951171875</v>
+        <v>870.7969970703125</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -4245,10 +4245,10 @@
         <v>7</v>
       </c>
       <c r="B351">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C351" s="2">
-        <v>1586.901000976562</v>
+        <v>850.3720092773438</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4256,10 +4256,10 @@
         <v>7</v>
       </c>
       <c r="B352">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C352" s="2">
-        <v>1581.735961914062</v>
+        <v>838.1309814453125</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4267,10 +4267,10 @@
         <v>7</v>
       </c>
       <c r="B353">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C353" s="2">
-        <v>1561.178955078125</v>
+        <v>743.1420288085938</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4278,10 +4278,10 @@
         <v>7</v>
       </c>
       <c r="B354">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C354" s="2">
-        <v>1630.621948242188</v>
+        <v>770.4310302734375</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4289,10 +4289,10 @@
         <v>7</v>
       </c>
       <c r="B355">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C355" s="2">
-        <v>1602.31298828125</v>
+        <v>757.6900024414062</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4300,10 +4300,10 @@
         <v>7</v>
       </c>
       <c r="B356">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C356" s="2">
-        <v>1584.0400390625</v>
+        <v>782.552001953125</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -4311,10 +4311,10 @@
         <v>7</v>
       </c>
       <c r="B357">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C357" s="2">
-        <v>1537.232055664062</v>
+        <v>797.364990234375</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -4322,10 +4322,10 @@
         <v>7</v>
       </c>
       <c r="B358">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C358" s="2">
-        <v>1518.170043945312</v>
+        <v>788.2119750976562</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4333,10 +4333,10 @@
         <v>7</v>
       </c>
       <c r="B359">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C359" s="2">
-        <v>1632.517944335938</v>
+        <v>782.0339965820312</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4344,10 +4344,10 @@
         <v>7</v>
       </c>
       <c r="B360">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C360" s="2">
-        <v>1683.545043945312</v>
+        <v>836.4539794921875</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4355,10 +4355,10 @@
         <v>7</v>
       </c>
       <c r="B361">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C361" s="2">
-        <v>1670.614990234375</v>
+        <v>873.5960083007812</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4366,10 +4366,10 @@
         <v>7</v>
       </c>
       <c r="B362">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C362" s="2">
-        <v>1799.70703125</v>
+        <v>818.5239868164062</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4377,10 +4377,10 @@
         <v>7</v>
       </c>
       <c r="B363">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C363" s="2">
-        <v>1846.697998046875</v>
+        <v>808.0050048828125</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4388,10 +4388,10 @@
         <v>7</v>
       </c>
       <c r="B364">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C364" s="2">
-        <v>2037.109985351562</v>
+        <v>879.7890014648438</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4399,10 +4399,10 @@
         <v>7</v>
       </c>
       <c r="B365">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C365" s="2">
-        <v>2293.18505859375</v>
+        <v>833.7830200195312</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4410,10 +4410,10 @@
         <v>7</v>
       </c>
       <c r="B366">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C366" s="2">
-        <v>2259.762939453125</v>
+        <v>831.5040283203125</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -4421,10 +4421,10 @@
         <v>7</v>
       </c>
       <c r="B367">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C367" s="2">
-        <v>2205.952880859375</v>
+        <v>855.0700073242188</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -4432,10 +4432,10 @@
         <v>7</v>
       </c>
       <c r="B368">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C368" s="2">
-        <v>2120.30908203125</v>
+        <v>701.5780029296875</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4443,10 +4443,10 @@
         <v>7</v>
       </c>
       <c r="B369">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C369" s="2">
-        <v>2228.50390625</v>
+        <v>676.2999877929688</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -4454,10 +4454,10 @@
         <v>7</v>
       </c>
       <c r="B370">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C370" s="2">
-        <v>2487.662109375</v>
+        <v>698.4509887695312</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -4465,10 +4465,10 @@
         <v>7</v>
       </c>
       <c r="B371">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C371" s="2">
-        <v>2400.054931640625</v>
+        <v>728.6859741210938</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -4476,10 +4476,10 @@
         <v>7</v>
       </c>
       <c r="B372">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C372" s="2">
-        <v>2379.448974609375</v>
+        <v>676.7219848632812</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -4487,10 +4487,10 @@
         <v>7</v>
       </c>
       <c r="B373">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C373" s="2">
-        <v>2400.43408203125</v>
+        <v>737.5020141601562</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4498,10 +4498,10 @@
         <v>7</v>
       </c>
       <c r="B374">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C374" s="2">
-        <v>2353.238037109375</v>
+        <v>777.718017578125</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4509,10 +4509,10 @@
         <v>7</v>
       </c>
       <c r="B375">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C375" s="2">
-        <v>2450.986083984375</v>
+        <v>825.3099975585938</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4520,10 +4520,10 @@
         <v>7</v>
       </c>
       <c r="B376">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C376" s="2">
-        <v>2417.139892578125</v>
+        <v>851.1619873046875</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -4531,10 +4531,10 @@
         <v>7</v>
       </c>
       <c r="B377">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C377" s="2">
-        <v>2436.199951171875</v>
+        <v>931.6580200195312</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -4542,10 +4542,10 @@
         <v>7</v>
       </c>
       <c r="B378">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C378" s="2">
-        <v>2411.68896484375</v>
+        <v>970.2020263671875</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -4553,10 +4553,10 @@
         <v>7</v>
       </c>
       <c r="B379">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C379" s="2">
-        <v>2440.64892578125</v>
+        <v>984.9669799804688</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -4564,10 +4564,10 @@
         <v>7</v>
       </c>
       <c r="B380">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C380" s="2">
-        <v>2429.06201171875</v>
+        <v>985.302978515625</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4575,10 +4575,10 @@
         <v>7</v>
       </c>
       <c r="B381">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C381" s="2">
-        <v>2451.080078125</v>
+        <v>952.7940063476562</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4586,10 +4586,10 @@
         <v>7</v>
       </c>
       <c r="B382">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C382" s="2">
-        <v>2453.654052734375</v>
+        <v>1072.927001953125</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4597,10 +4597,10 @@
         <v>7</v>
       </c>
       <c r="B383">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C383" s="2">
-        <v>2500.200927734375</v>
+        <v>1012.927001953125</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4608,10 +4608,10 @@
         <v>7</v>
       </c>
       <c r="B384">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C384" s="2">
-        <v>2509.2490234375</v>
+        <v>1284.279052734375</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -4619,10 +4619,10 @@
         <v>7</v>
       </c>
       <c r="B385">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C385" s="2">
-        <v>2519.327880859375</v>
+        <v>1288.614013671875</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -4630,10 +4630,10 @@
         <v>7</v>
       </c>
       <c r="B386">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C386" s="2">
-        <v>2490.47509765625</v>
+        <v>1423.609985351562</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -4641,10 +4641,10 @@
         <v>7</v>
       </c>
       <c r="B387">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C387" s="2">
-        <v>2522.2490234375</v>
+        <v>1438.81201171875</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -4652,10 +4652,10 @@
         <v>7</v>
       </c>
       <c r="B388">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C388" s="2">
-        <v>2538.501953125</v>
+        <v>1486.474975585938</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4663,10 +4663,10 @@
         <v>7</v>
       </c>
       <c r="B389">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C389" s="2">
-        <v>2572.510009765625</v>
+        <v>1510.717041015625</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -4674,10 +4674,10 @@
         <v>7</v>
       </c>
       <c r="B390">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C390" s="2">
-        <v>2556.860107421875</v>
+        <v>1489.785034179688</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -4685,10 +4685,10 @@
         <v>7</v>
       </c>
       <c r="B391">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C391" s="2">
-        <v>2577.18408203125</v>
+        <v>1440.535034179688</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4696,10 +4696,10 @@
         <v>7</v>
       </c>
       <c r="B392">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C392" s="2">
-        <v>2567.56201171875</v>
+        <v>1447.349975585938</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -4707,10 +4707,10 @@
         <v>7</v>
       </c>
       <c r="B393">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C393" s="2">
-        <v>2564.1708984375</v>
+        <v>1384.517944335938</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -4718,10 +4718,10 @@
         <v>7</v>
       </c>
       <c r="B394">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C394" s="2">
-        <v>2570.993896484375</v>
+        <v>1551.261962890625</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -4729,10 +4729,10 @@
         <v>7</v>
       </c>
       <c r="B395">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C395" s="2">
-        <v>2581.26708984375</v>
+        <v>1437.829956054688</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -4740,10 +4740,10 @@
         <v>7</v>
       </c>
       <c r="B396">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C396" s="2">
-        <v>2526.947998046875</v>
+        <v>1526.68603515625</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -4751,10 +4751,10 @@
         <v>7</v>
       </c>
       <c r="B397">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C397" s="2">
-        <v>2560.178955078125</v>
+        <v>1665.56494140625</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -4762,10 +4762,10 @@
         <v>7</v>
       </c>
       <c r="B398">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C398" s="2">
-        <v>2572.35791015625</v>
+        <v>1710.10302734375</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -4773,10 +4773,10 @@
         <v>7</v>
       </c>
       <c r="B399">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C399" s="2">
-        <v>2588.22900390625</v>
+        <v>1755.797973632812</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -4784,10 +4784,10 @@
         <v>7</v>
       </c>
       <c r="B400">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C400" s="2">
-        <v>2556.632080078125</v>
+        <v>1640.615966796875</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -4795,10 +4795,10 @@
         <v>7</v>
       </c>
       <c r="B401">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C401" s="2">
-        <v>2541.030029296875</v>
+        <v>1680.890014648438</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -4806,10 +4806,10 @@
         <v>7</v>
       </c>
       <c r="B402">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C402" s="2">
-        <v>2595.051025390625</v>
+        <v>1830.5</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -4817,10 +4817,10 @@
         <v>7</v>
       </c>
       <c r="B403">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C403" s="2">
-        <v>2578.699951171875</v>
+        <v>1917.5439453125</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -4828,10 +4828,10 @@
         <v>7</v>
       </c>
       <c r="B404">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C404" s="2">
-        <v>2574.81005859375</v>
+        <v>1922.550048828125</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -4839,10 +4839,10 @@
         <v>7</v>
       </c>
       <c r="B405">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C405" s="2">
-        <v>2464.298095703125</v>
+        <v>1903.10205078125</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -4850,10 +4850,10 @@
         <v>7</v>
       </c>
       <c r="B406">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C406" s="2">
-        <v>2353.364990234375</v>
+        <v>1985.843994140625</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -4861,10 +4861,10 @@
         <v>7</v>
       </c>
       <c r="B407">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C407" s="2">
-        <v>2215.278076171875</v>
+        <v>1976.666015625</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -4872,10 +4872,10 @@
         <v>7</v>
       </c>
       <c r="B408">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C408" s="2">
-        <v>2161.113037109375</v>
+        <v>1979.328979492188</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -4883,10 +4883,10 @@
         <v>7</v>
       </c>
       <c r="B409">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C409" s="2">
-        <v>2175.322021484375</v>
+        <v>1918.323974609375</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -4894,10 +4894,10 @@
         <v>7</v>
       </c>
       <c r="B410">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C410" s="2">
-        <v>2147.929931640625</v>
+        <v>1735.93603515625</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -4905,10 +4905,10 @@
         <v>7</v>
       </c>
       <c r="B411">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C411" s="2">
-        <v>2157.77490234375</v>
+        <v>1385.858032226562</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -4916,10 +4916,10 @@
         <v>7</v>
       </c>
       <c r="B412">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C412" s="2">
-        <v>2204.597900390625</v>
+        <v>1221.077026367188</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -4927,10 +4927,10 @@
         <v>7</v>
       </c>
       <c r="B413">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C413" s="2">
-        <v>2218.429931640625</v>
+        <v>1144.211059570312</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -4938,10 +4938,10 @@
         <v>7</v>
       </c>
       <c r="B414">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C414" s="2">
-        <v>2273.5849609375</v>
+        <v>1107.057983398438</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -4949,10 +4949,10 @@
         <v>7</v>
       </c>
       <c r="B415">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C415" s="2">
-        <v>2278.0380859375</v>
+        <v>1115.192016601562</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -4960,10 +4960,10 @@
         <v>7</v>
       </c>
       <c r="B416">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C416" s="2">
-        <v>2261.1220703125</v>
+        <v>1079.848022460938</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -4971,10 +4971,10 @@
         <v>7</v>
       </c>
       <c r="B417">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C417" s="2">
-        <v>2259.19091796875</v>
+        <v>1084.130981445312</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -4982,10 +4982,10 @@
         <v>7</v>
       </c>
       <c r="B418">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C418" s="2">
-        <v>2263.06591796875</v>
+        <v>1139.197998046875</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -4993,10 +4993,10 @@
         <v>7</v>
       </c>
       <c r="B419">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C419" s="2">
-        <v>2266.285888671875</v>
+        <v>1231.391967773438</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -5004,10 +5004,10 @@
         <v>7</v>
       </c>
       <c r="B420">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C420" s="2">
-        <v>2227.06689453125</v>
+        <v>1311.282958984375</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -5015,10 +5015,10 @@
         <v>7</v>
       </c>
       <c r="B421">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C421" s="2">
-        <v>2005.27294921875</v>
+        <v>1178.071044921875</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -5026,10 +5026,10 @@
         <v>7</v>
       </c>
       <c r="B422">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C422" s="2">
-        <v>2020.468017578125</v>
+        <v>1047.01904296875</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -5037,10 +5037,10 @@
         <v>7</v>
       </c>
       <c r="B423">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C423" s="2">
-        <v>2031.237060546875</v>
+        <v>976.1740112304688</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -5048,10 +5048,10 @@
         <v>7</v>
       </c>
       <c r="B424">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C424" s="2">
-        <v>2011.83203125</v>
+        <v>954.56201171875</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -5059,10 +5059,10 @@
         <v>7</v>
       </c>
       <c r="B425">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C425" s="2">
-        <v>2053.947998046875</v>
+        <v>1063.524047851562</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -5070,10 +5070,10 @@
         <v>7</v>
       </c>
       <c r="B426">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C426" s="2">
-        <v>2026.4990234375</v>
+        <v>1055.4580078125</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -5081,10 +5081,10 @@
         <v>7</v>
       </c>
       <c r="B427">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C427" s="2">
-        <v>2035.295043945312</v>
+        <v>1180.996948242188</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -5092,10 +5092,10 @@
         <v>7</v>
       </c>
       <c r="B428">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C428" s="2">
-        <v>1997.475952148438</v>
+        <v>1091.003051757812</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -5103,10 +5103,10 @@
         <v>7</v>
       </c>
       <c r="B429">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C429" s="2">
-        <v>2033.259033203125</v>
+        <v>1017.9990234375</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -5114,10 +5114,10 @@
         <v>7</v>
       </c>
       <c r="B430">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C430" s="2">
-        <v>2027.732055664062</v>
+        <v>783.6530151367188</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -5125,10 +5125,10 @@
         <v>7</v>
       </c>
       <c r="B431">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C431" s="2">
-        <v>2035.201049804688</v>
+        <v>820.0479736328125</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -5136,10 +5136,10 @@
         <v>7</v>
       </c>
       <c r="B432">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C432" s="2">
-        <v>2054.10400390625</v>
+        <v>1023.536987304688</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -5147,32 +5147,32 @@
         <v>7</v>
       </c>
       <c r="B433">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C433" s="2">
-        <v>2175.367919921875</v>
+        <v>933.802978515625</v>
       </c>
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B434">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="C434" s="2">
-        <v>2145.60009765625</v>
+        <v>1153.7509765625</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B435">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="C435" s="2">
-        <v>2093.30908203125</v>
+        <v>1191.491943359375</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -5180,10 +5180,10 @@
         <v>8</v>
       </c>
       <c r="B436">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C436" s="2">
-        <v>2019.93896484375</v>
+        <v>1327.920043945312</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -5191,10 +5191,10 @@
         <v>8</v>
       </c>
       <c r="B437">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C437" s="2">
-        <v>2048.76806640625</v>
+        <v>1296.712036132812</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -5202,10 +5202,10 @@
         <v>8</v>
       </c>
       <c r="B438">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C438" s="2">
-        <v>2001.774047851562</v>
+        <v>1235.550048828125</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -5213,10 +5213,10 @@
         <v>8</v>
       </c>
       <c r="B439">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C439" s="2">
-        <v>1748.223999023438</v>
+        <v>1127.583984375</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -5224,10 +5224,10 @@
         <v>8</v>
       </c>
       <c r="B440">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C440" s="2">
-        <v>1694.303955078125</v>
+        <v>1017.427978515625</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -5235,10 +5235,10 @@
         <v>8</v>
       </c>
       <c r="B441">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C441" s="2">
-        <v>1626.108032226562</v>
+        <v>995.166015625</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -5246,10 +5246,10 @@
         <v>8</v>
       </c>
       <c r="B442">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C442" s="2">
-        <v>1426.906982421875</v>
+        <v>1010.763977050781</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -5257,10 +5257,10 @@
         <v>8</v>
       </c>
       <c r="B443">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C443" s="2">
-        <v>1395.711059570312</v>
+        <v>909.1740112304688</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -5268,10 +5268,10 @@
         <v>8</v>
       </c>
       <c r="B444">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C444" s="2">
-        <v>1425.822021484375</v>
+        <v>1085.072021484375</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -5279,10 +5279,10 @@
         <v>8</v>
       </c>
       <c r="B445">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C445" s="2">
-        <v>1366.537963867188</v>
+        <v>1100.5400390625</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -5290,10 +5290,10 @@
         <v>8</v>
       </c>
       <c r="B446">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C446" s="2">
-        <v>1469.944946289062</v>
+        <v>1152.654052734375</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -5301,10 +5301,10 @@
         <v>8</v>
       </c>
       <c r="B447">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C447" s="2">
-        <v>1584.586059570312</v>
+        <v>1193.267944335938</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -5312,10 +5312,10 @@
         <v>8</v>
       </c>
       <c r="B448">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C448" s="2">
-        <v>1598.45703125</v>
+        <v>1220.364013671875</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -5323,10 +5323,10 @@
         <v>8</v>
       </c>
       <c r="B449">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C449" s="2">
-        <v>1666.31103515625</v>
+        <v>1241.487060546875</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -5334,10 +5334,10 @@
         <v>8</v>
       </c>
       <c r="B450">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C450" s="2">
-        <v>1712.079956054688</v>
+        <v>1298.14697265625</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -5345,10 +5345,10 @@
         <v>8</v>
       </c>
       <c r="B451">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C451" s="2">
-        <v>1678.433959960938</v>
+        <v>1332.302978515625</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -5356,10 +5356,10 @@
         <v>8</v>
       </c>
       <c r="B452">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C452" s="2">
-        <v>1275.265014648438</v>
+        <v>1417.5849609375</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -5367,10 +5367,10 @@
         <v>8</v>
       </c>
       <c r="B453">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C453" s="2">
-        <v>1292.31103515625</v>
+        <v>1312.573974609375</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -5378,10 +5378,10 @@
         <v>8</v>
       </c>
       <c r="B454">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C454" s="2">
-        <v>1058.526000976562</v>
+        <v>1172.18603515625</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -5389,10 +5389,10 @@
         <v>8</v>
       </c>
       <c r="B455">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C455" s="2">
-        <v>927.06201171875</v>
+        <v>1100.011962890625</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -5400,10 +5400,10 @@
         <v>8</v>
       </c>
       <c r="B456">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C456" s="2">
-        <v>839.8699951171875</v>
+        <v>1015.385986328125</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -5411,10 +5411,10 @@
         <v>8</v>
       </c>
       <c r="B457">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C457" s="2">
-        <v>833.6079711914062</v>
+        <v>1105.83203125</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -5422,10 +5422,10 @@
         <v>8</v>
       </c>
       <c r="B458">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C458" s="2">
-        <v>883.6909790039062</v>
+        <v>1081.538940429688</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -5433,10 +5433,10 @@
         <v>8</v>
       </c>
       <c r="B459">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C459" s="2">
-        <v>829.469970703125</v>
+        <v>1018.455017089844</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -5444,10 +5444,10 @@
         <v>8</v>
       </c>
       <c r="B460">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C460" s="2">
-        <v>767.3179931640625</v>
+        <v>1044.010986328125</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -5455,10 +5455,10 @@
         <v>8</v>
       </c>
       <c r="B461">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C461" s="2">
-        <v>778.7249755859375</v>
+        <v>977.281005859375</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -5466,10 +5466,10 @@
         <v>8</v>
       </c>
       <c r="B462">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C462" s="2">
-        <v>617.2009887695312</v>
+        <v>861.4329833984375</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -5477,10 +5477,10 @@
         <v>8</v>
       </c>
       <c r="B463">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C463" s="2">
-        <v>516.3350219726562</v>
+        <v>941.968017578125</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -5488,10 +5488,10 @@
         <v>8</v>
       </c>
       <c r="B464">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C464" s="2">
-        <v>372.3659973144531</v>
+        <v>945.8759765625</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -5499,10 +5499,10 @@
         <v>8</v>
       </c>
       <c r="B465">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C465" s="2">
-        <v>263.3200073242188</v>
+        <v>894.635009765625</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -5510,10 +5510,10 @@
         <v>8</v>
       </c>
       <c r="B466">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C466" s="2">
-        <v>214.5099945068359</v>
+        <v>903.5560302734375</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -5521,10 +5521,10 @@
         <v>8</v>
       </c>
       <c r="B467">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C467" s="2">
-        <v>186.8260040283203</v>
+        <v>661.64501953125</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -5532,10 +5532,10 @@
         <v>8</v>
       </c>
       <c r="B468">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C468" s="2">
-        <v>152.4069976806641</v>
+        <v>663.6220092773438</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -5543,10 +5543,10 @@
         <v>8</v>
       </c>
       <c r="B469">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C469" s="2">
-        <v>196.8240051269531</v>
+        <v>730.9030151367188</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -5554,10 +5554,10 @@
         <v>8</v>
       </c>
       <c r="B470">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C470" s="2">
-        <v>126.7699966430664</v>
+        <v>765.3759765625</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -5565,10 +5565,10 @@
         <v>8</v>
       </c>
       <c r="B471">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C471" s="2">
-        <v>166.6300048828125</v>
+        <v>798.6740112304688</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -5576,10 +5576,10 @@
         <v>8</v>
       </c>
       <c r="B472">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C472" s="2">
-        <v>195.0839996337891</v>
+        <v>790.2210083007812</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -5587,10 +5587,10 @@
         <v>8</v>
       </c>
       <c r="B473">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C473" s="2">
-        <v>261.9649963378906</v>
+        <v>634.27197265625</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -5598,10 +5598,10 @@
         <v>8</v>
       </c>
       <c r="B474">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C474" s="2">
-        <v>208.0489959716797</v>
+        <v>387.5880126953125</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -5609,10 +5609,10 @@
         <v>8</v>
       </c>
       <c r="B475">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C475" s="2">
-        <v>232.9660034179688</v>
+        <v>554.8060302734375</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -5620,10 +5620,10 @@
         <v>8</v>
       </c>
       <c r="B476">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C476" s="2">
-        <v>188.9470062255859</v>
+        <v>484.9389953613281</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -5631,10 +5631,10 @@
         <v>8</v>
       </c>
       <c r="B477">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C477" s="2">
-        <v>208.5919952392578</v>
+        <v>475.4330139160156</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -5642,10 +5642,10 @@
         <v>8</v>
       </c>
       <c r="B478">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C478" s="2">
-        <v>297.5950012207031</v>
+        <v>532.8170166015625</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -5653,10 +5653,10 @@
         <v>8</v>
       </c>
       <c r="B479">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C479" s="2">
-        <v>387.3630065917969</v>
+        <v>611.1010131835938</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -5664,10 +5664,10 @@
         <v>8</v>
       </c>
       <c r="B480">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C480" s="2">
-        <v>425.7200012207031</v>
+        <v>525.8709716796875</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -5675,10 +5675,10 @@
         <v>8</v>
       </c>
       <c r="B481">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C481" s="2">
-        <v>505.6329956054688</v>
+        <v>732.0770263671875</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -5686,10 +5686,10 @@
         <v>8</v>
       </c>
       <c r="B482">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C482" s="2">
-        <v>536.5830078125</v>
+        <v>791.7839965820312</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -5697,10 +5697,10 @@
         <v>8</v>
       </c>
       <c r="B483">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C483" s="2">
-        <v>600.3270263671875</v>
+        <v>810.3820190429688</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -5708,10 +5708,10 @@
         <v>8</v>
       </c>
       <c r="B484">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C484" s="2">
-        <v>735.1749877929688</v>
+        <v>950.0239868164062</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -5719,10 +5719,10 @@
         <v>8</v>
       </c>
       <c r="B485">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C485" s="2">
-        <v>755.6090087890625</v>
+        <v>908.64501953125</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -5730,10 +5730,10 @@
         <v>8</v>
       </c>
       <c r="B486">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C486" s="2">
-        <v>813.8779907226562</v>
+        <v>940.6279907226562</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -5741,10 +5741,10 @@
         <v>8</v>
       </c>
       <c r="B487">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C487" s="2">
-        <v>786.6380004882812</v>
+        <v>1009.450988769531</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -5752,10 +5752,10 @@
         <v>8</v>
       </c>
       <c r="B488">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C488" s="2">
-        <v>719.447998046875</v>
+        <v>1125.678955078125</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -5763,10 +5763,10 @@
         <v>8</v>
       </c>
       <c r="B489">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C489" s="2">
-        <v>572.5059814453125</v>
+        <v>1402.22998046875</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -5774,10 +5774,10 @@
         <v>8</v>
       </c>
       <c r="B490">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C490" s="2">
-        <v>552.8619995117188</v>
+        <v>1196.484008789062</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -5785,10 +5785,10 @@
         <v>8</v>
       </c>
       <c r="B491">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C491" s="2">
-        <v>496.1470031738281</v>
+        <v>974.1599731445312</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -5796,10 +5796,10 @@
         <v>8</v>
       </c>
       <c r="B492">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C492" s="2">
-        <v>330.0920104980469</v>
+        <v>959.8599853515625</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -5807,10 +5807,10 @@
         <v>8</v>
       </c>
       <c r="B493">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C493" s="2">
-        <v>358.0480041503906</v>
+        <v>926.4420166015625</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -5818,10 +5818,10 @@
         <v>8</v>
       </c>
       <c r="B494">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C494" s="2">
-        <v>304.6839904785156</v>
+        <v>876.1170043945312</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -5829,10 +5829,10 @@
         <v>8</v>
       </c>
       <c r="B495">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C495" s="2">
-        <v>290.1480102539062</v>
+        <v>766.7050170898438</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -5840,10 +5840,10 @@
         <v>8</v>
       </c>
       <c r="B496">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C496" s="2">
-        <v>272.1530151367188</v>
+        <v>796.0399780273438</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -5851,10 +5851,10 @@
         <v>8</v>
       </c>
       <c r="B497">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C497" s="2">
-        <v>357.8380126953125</v>
+        <v>770.3920288085938</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -5862,10 +5862,10 @@
         <v>8</v>
       </c>
       <c r="B498">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C498" s="2">
-        <v>356.9920043945312</v>
+        <v>802.1480102539062</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -5873,10 +5873,10 @@
         <v>8</v>
       </c>
       <c r="B499">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C499" s="2">
-        <v>334.7319946289062</v>
+        <v>848.7030029296875</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -5884,10 +5884,10 @@
         <v>8</v>
       </c>
       <c r="B500">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C500" s="2">
-        <v>328.7770080566406</v>
+        <v>852.9860229492188</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -5895,10 +5895,10 @@
         <v>8</v>
       </c>
       <c r="B501">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C501" s="2">
-        <v>349.9400024414062</v>
+        <v>787.3770141601562</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -5906,10 +5906,10 @@
         <v>8</v>
       </c>
       <c r="B502">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C502" s="2">
-        <v>279.6050109863281</v>
+        <v>890.5540161132812</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -5917,10 +5917,10 @@
         <v>8</v>
       </c>
       <c r="B503">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C503" s="2">
-        <v>254.1690063476562</v>
+        <v>1085.578979492188</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -5928,10 +5928,10 @@
         <v>8</v>
       </c>
       <c r="B504">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C504" s="2">
-        <v>203.4550018310547</v>
+        <v>1069.324951171875</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -5939,10 +5939,10 @@
         <v>8</v>
       </c>
       <c r="B505">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C505" s="2">
-        <v>169.4179992675781</v>
+        <v>1039.041015625</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -5950,10 +5950,10 @@
         <v>8</v>
       </c>
       <c r="B506">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C506" s="2">
-        <v>234.1869964599609</v>
+        <v>1078.262939453125</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -5961,10 +5961,10 @@
         <v>8</v>
       </c>
       <c r="B507">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C507" s="2">
-        <v>310.7650146484375</v>
+        <v>1137.508056640625</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -5972,10 +5972,10 @@
         <v>8</v>
       </c>
       <c r="B508">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C508" s="2">
-        <v>283.8320007324219</v>
+        <v>1278.246948242188</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -5983,10 +5983,10 @@
         <v>8</v>
       </c>
       <c r="B509">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C509" s="2">
-        <v>245.3520050048828</v>
+        <v>1326.067993164062</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -5994,10 +5994,10 @@
         <v>8</v>
       </c>
       <c r="B510">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C510" s="2">
-        <v>283.93701171875</v>
+        <v>1160.969970703125</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -6005,10 +6005,10 @@
         <v>8</v>
       </c>
       <c r="B511">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C511" s="2">
-        <v>353.1539916992188</v>
+        <v>1244.399047851562</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -6016,10 +6016,10 @@
         <v>8</v>
       </c>
       <c r="B512">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C512" s="2">
-        <v>325.8099975585938</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -6027,10 +6027,10 @@
         <v>8</v>
       </c>
       <c r="B513">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C513" s="2">
-        <v>302.7890014648438</v>
+        <v>1363.81005859375</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -6038,10 +6038,10 @@
         <v>8</v>
       </c>
       <c r="B514">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C514" s="2">
-        <v>287.4030151367188</v>
+        <v>1341.326049804688</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -6049,10 +6049,10 @@
         <v>8</v>
       </c>
       <c r="B515">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C515" s="2">
-        <v>224.5480041503906</v>
+        <v>1323.400024414062</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -6060,10 +6060,10 @@
         <v>8</v>
       </c>
       <c r="B516">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C516" s="2">
-        <v>237.0749969482422</v>
+        <v>1292.4169921875</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -6071,10 +6071,10 @@
         <v>8</v>
       </c>
       <c r="B517">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C517" s="2">
-        <v>254.0249938964844</v>
+        <v>1208.2099609375</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -6082,10 +6082,10 @@
         <v>8</v>
       </c>
       <c r="B518">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C518" s="2">
-        <v>276.6000061035156</v>
+        <v>1192.405029296875</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -6093,10 +6093,10 @@
         <v>8</v>
       </c>
       <c r="B519">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C519" s="2">
-        <v>260.3559875488281</v>
+        <v>1189.546997070312</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -6104,10 +6104,10 @@
         <v>8</v>
       </c>
       <c r="B520">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C520" s="2">
-        <v>284.2520141601562</v>
+        <v>1229.027954101562</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -6115,10 +6115,10 @@
         <v>8</v>
       </c>
       <c r="B521">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C521" s="2">
-        <v>299.8720092773438</v>
+        <v>1224.880004882812</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -6126,10 +6126,10 @@
         <v>8</v>
       </c>
       <c r="B522">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C522" s="2">
-        <v>245.0670013427734</v>
+        <v>1189.85498046875</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -6137,10 +6137,10 @@
         <v>8</v>
       </c>
       <c r="B523">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C523" s="2">
-        <v>262.1640014648438</v>
+        <v>1169.676025390625</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -6148,10 +6148,10 @@
         <v>8</v>
       </c>
       <c r="B524">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C524" s="2">
-        <v>234</v>
+        <v>1170.807006835938</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -6159,10 +6159,10 @@
         <v>8</v>
       </c>
       <c r="B525">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C525" s="2">
-        <v>232.406005859375</v>
+        <v>1045.844970703125</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -6170,10 +6170,10 @@
         <v>8</v>
       </c>
       <c r="B526">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C526" s="2">
-        <v>224.7359924316406</v>
+        <v>1136.713989257812</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -6181,10 +6181,10 @@
         <v>8</v>
       </c>
       <c r="B527">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C527" s="2">
-        <v>277.5029907226562</v>
+        <v>1134.282958984375</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -6192,10 +6192,10 @@
         <v>8</v>
       </c>
       <c r="B528">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C528" s="2">
-        <v>303.2340087890625</v>
+        <v>1162.557983398438</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -6203,32 +6203,32 @@
         <v>8</v>
       </c>
       <c r="B529">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C529" s="2">
-        <v>335.989990234375</v>
+        <v>1197.10498046875</v>
       </c>
     </row>
     <row r="530" spans="1:3">
       <c r="A530" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B530">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="C530" s="2">
-        <v>207.5780029296875</v>
+        <v>1164.421020507812</v>
       </c>
     </row>
     <row r="531" spans="1:3">
       <c r="A531" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B531">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="C531" s="2">
-        <v>244.5350036621094</v>
+        <v>1089.723022460938</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -6236,10 +6236,10 @@
         <v>9</v>
       </c>
       <c r="B532">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C532" s="2">
-        <v>166.0059967041016</v>
+        <v>1113.02197265625</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -6247,10 +6247,10 @@
         <v>9</v>
       </c>
       <c r="B533">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C533" s="2">
-        <v>142.8269958496094</v>
+        <v>1043.925048828125</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -6258,10 +6258,10 @@
         <v>9</v>
       </c>
       <c r="B534">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C534" s="2">
-        <v>208.9900054931641</v>
+        <v>1094.203002929688</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -6269,10 +6269,10 @@
         <v>9</v>
       </c>
       <c r="B535">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C535" s="2">
-        <v>148.3890075683594</v>
+        <v>1034.649047851562</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -6280,10 +6280,10 @@
         <v>9</v>
       </c>
       <c r="B536">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C536" s="2">
-        <v>169.2769927978516</v>
+        <v>1032.85595703125</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -6291,10 +6291,10 @@
         <v>9</v>
       </c>
       <c r="B537">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C537" s="2">
-        <v>132.4029998779297</v>
+        <v>1060.864990234375</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -6302,10 +6302,10 @@
         <v>9</v>
       </c>
       <c r="B538">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C538" s="2">
-        <v>130.7550048828125</v>
+        <v>1073.0439453125</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -6313,10 +6313,10 @@
         <v>9</v>
       </c>
       <c r="B539">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C539" s="2">
-        <v>117.6869964599609</v>
+        <v>1099.212036132812</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -6324,10 +6324,10 @@
         <v>9</v>
       </c>
       <c r="B540">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C540" s="2">
-        <v>98.74400329589844</v>
+        <v>1021.994995117188</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -6335,10 +6335,10 @@
         <v>9</v>
       </c>
       <c r="B541">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C541" s="2">
-        <v>160.5590057373047</v>
+        <v>1076.448974609375</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -6346,10 +6346,10 @@
         <v>9</v>
       </c>
       <c r="B542">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C542" s="2">
-        <v>178.4309997558594</v>
+        <v>938.594970703125</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -6357,10 +6357,10 @@
         <v>9</v>
       </c>
       <c r="B543">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C543" s="2">
-        <v>193.6380004882812</v>
+        <v>943.375</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -6368,10 +6368,10 @@
         <v>9</v>
       </c>
       <c r="B544">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C544" s="2">
-        <v>203.4980010986328</v>
+        <v>989.906982421875</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -6379,10 +6379,10 @@
         <v>9</v>
       </c>
       <c r="B545">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C545" s="2">
-        <v>197.0140075683594</v>
+        <v>1157.066040039062</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -6390,10 +6390,10 @@
         <v>9</v>
       </c>
       <c r="B546">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C546" s="2">
-        <v>192.8800048828125</v>
+        <v>1175.887939453125</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -6401,10 +6401,10 @@
         <v>9</v>
       </c>
       <c r="B547">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C547" s="2">
-        <v>149.5099945068359</v>
+        <v>1222.927001953125</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -6412,10 +6412,10 @@
         <v>9</v>
       </c>
       <c r="B548">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C548" s="2">
-        <v>149.9980010986328</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -6423,10 +6423,10 @@
         <v>9</v>
       </c>
       <c r="B549">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C549" s="2">
-        <v>185.1089935302734</v>
+        <v>1229.45703125</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -6434,10 +6434,10 @@
         <v>9</v>
       </c>
       <c r="B550">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C550" s="2">
-        <v>180.8820037841797</v>
+        <v>1101.3349609375</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -6445,10 +6445,10 @@
         <v>9</v>
       </c>
       <c r="B551">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C551" s="2">
-        <v>289.4559936523438</v>
+        <v>1118.655029296875</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -6456,10 +6456,10 @@
         <v>9</v>
       </c>
       <c r="B552">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C552" s="2">
-        <v>303.593994140625</v>
+        <v>1154.81201171875</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -6467,10 +6467,10 @@
         <v>9</v>
       </c>
       <c r="B553">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C553" s="2">
-        <v>346.635986328125</v>
+        <v>1245.83203125</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -6478,10 +6478,10 @@
         <v>9</v>
       </c>
       <c r="B554">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C554" s="2">
-        <v>351.8460083007812</v>
+        <v>1379.016967773438</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -6489,10 +6489,10 @@
         <v>9</v>
       </c>
       <c r="B555">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C555" s="2">
-        <v>352.1679992675781</v>
+        <v>1474.097045898438</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -6500,10 +6500,10 @@
         <v>9</v>
       </c>
       <c r="B556">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C556" s="2">
-        <v>347.8489990234375</v>
+        <v>1668.839965820312</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -6511,10 +6511,10 @@
         <v>9</v>
       </c>
       <c r="B557">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C557" s="2">
-        <v>381.2659912109375</v>
+        <v>1633.958984375</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -6522,10 +6522,10 @@
         <v>9</v>
       </c>
       <c r="B558">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C558" s="2">
-        <v>399.4169921875</v>
+        <v>1627.588989257812</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -6533,10 +6533,10 @@
         <v>9</v>
       </c>
       <c r="B559">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C559" s="2">
-        <v>366.2839965820312</v>
+        <v>1514.723999023438</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -6544,10 +6544,10 @@
         <v>9</v>
       </c>
       <c r="B560">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C560" s="2">
-        <v>421.2950134277344</v>
+        <v>1645.462036132812</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -6555,10 +6555,10 @@
         <v>9</v>
       </c>
       <c r="B561">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C561" s="2">
-        <v>426.1109924316406</v>
+        <v>1751.583984375</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -6566,10 +6566,10 @@
         <v>9</v>
       </c>
       <c r="B562">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C562" s="2">
-        <v>440.9469909667969</v>
+        <v>1529.342041015625</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -6577,10 +6577,10 @@
         <v>9</v>
       </c>
       <c r="B563">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C563" s="2">
-        <v>431.9530029296875</v>
+        <v>1509.171020507812</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -6588,10 +6588,10 @@
         <v>9</v>
       </c>
       <c r="B564">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C564" s="2">
-        <v>411.4540100097656</v>
+        <v>1590.60205078125</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -6599,10 +6599,10 @@
         <v>9</v>
       </c>
       <c r="B565">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C565" s="2">
-        <v>529.7150268554688</v>
+        <v>1646.607055664062</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -6610,10 +6610,10 @@
         <v>9</v>
       </c>
       <c r="B566">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C566" s="2">
-        <v>594.77099609375</v>
+        <v>1616.7099609375</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -6621,10 +6621,10 @@
         <v>9</v>
       </c>
       <c r="B567">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C567" s="2">
-        <v>625.6290283203125</v>
+        <v>1570.974975585938</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -6632,10 +6632,10 @@
         <v>9</v>
       </c>
       <c r="B568">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C568" s="2">
-        <v>718.5579833984375</v>
+        <v>1592.494018554688</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -6643,10 +6643,10 @@
         <v>9</v>
       </c>
       <c r="B569">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C569" s="2">
-        <v>871.5399780273438</v>
+        <v>1667.183959960938</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -6654,10 +6654,10 @@
         <v>9</v>
       </c>
       <c r="B570">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C570" s="2">
-        <v>959.2069702148438</v>
+        <v>1618.303955078125</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -6665,10 +6665,10 @@
         <v>9</v>
       </c>
       <c r="B571">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C571" s="2">
-        <v>1022.403015136719</v>
+        <v>1682.875</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -6676,10 +6676,10 @@
         <v>9</v>
       </c>
       <c r="B572">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C572" s="2">
-        <v>1081.0849609375</v>
+        <v>1673.416015625</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -6687,10 +6687,10 @@
         <v>9</v>
       </c>
       <c r="B573">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C573" s="2">
-        <v>1168.365966796875</v>
+        <v>1712.77294921875</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -6698,10 +6698,10 @@
         <v>9</v>
       </c>
       <c r="B574">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C574" s="2">
-        <v>1270.421020507812</v>
+        <v>1740.149047851562</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -6709,10 +6709,10 @@
         <v>9</v>
       </c>
       <c r="B575">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C575" s="2">
-        <v>1265.973022460938</v>
+        <v>1703.182006835938</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -6720,10 +6720,10 @@
         <v>9</v>
       </c>
       <c r="B576">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C576" s="2">
-        <v>1299.527954101562</v>
+        <v>1609.14794921875</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -6731,10 +6731,10 @@
         <v>9</v>
       </c>
       <c r="B577">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C577" s="2">
-        <v>1209.552001953125</v>
+        <v>1525.262939453125</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -6742,10 +6742,10 @@
         <v>9</v>
       </c>
       <c r="B578">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C578" s="2">
-        <v>1272.384033203125</v>
+        <v>1566.764038085938</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -6753,10 +6753,10 @@
         <v>9</v>
       </c>
       <c r="B579">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C579" s="2">
-        <v>1242.91796875</v>
+        <v>1319.409057617188</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -6764,10 +6764,10 @@
         <v>9</v>
       </c>
       <c r="B580">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C580" s="2">
-        <v>1213.260986328125</v>
+        <v>1327.923950195312</v>
       </c>
     </row>
     <row r="581" spans="1:3">
@@ -6775,10 +6775,10 @@
         <v>9</v>
       </c>
       <c r="B581">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C581" s="2">
-        <v>1266.984008789062</v>
+        <v>1321.953002929688</v>
       </c>
     </row>
     <row r="582" spans="1:3">
@@ -6786,10 +6786,10 @@
         <v>9</v>
       </c>
       <c r="B582">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C582" s="2">
-        <v>1274.076049804688</v>
+        <v>1263.077026367188</v>
       </c>
     </row>
     <row r="583" spans="1:3">
@@ -6797,10 +6797,10 @@
         <v>9</v>
       </c>
       <c r="B583">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C583" s="2">
-        <v>1280.27099609375</v>
+        <v>1214.10400390625</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -6808,10 +6808,10 @@
         <v>9</v>
       </c>
       <c r="B584">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C584" s="2">
-        <v>1261.848022460938</v>
+        <v>1168.22998046875</v>
       </c>
     </row>
     <row r="585" spans="1:3">
@@ -6819,10 +6819,10 @@
         <v>9</v>
       </c>
       <c r="B585">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C585" s="2">
-        <v>1224.650024414062</v>
+        <v>1152.891967773438</v>
       </c>
     </row>
     <row r="586" spans="1:3">
@@ -6830,10 +6830,10 @@
         <v>9</v>
       </c>
       <c r="B586">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C586" s="2">
-        <v>1135.8349609375</v>
+        <v>1329.932983398438</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -6841,10 +6841,10 @@
         <v>9</v>
       </c>
       <c r="B587">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C587" s="2">
-        <v>1131.161987304688</v>
+        <v>1268.245971679688</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -6852,10 +6852,10 @@
         <v>9</v>
       </c>
       <c r="B588">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C588" s="2">
-        <v>1066.39794921875</v>
+        <v>1179.60595703125</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -6863,10 +6863,10 @@
         <v>9</v>
       </c>
       <c r="B589">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C589" s="2">
-        <v>981.56201171875</v>
+        <v>1232.345947265625</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -6874,10 +6874,10 @@
         <v>9</v>
       </c>
       <c r="B590">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C590" s="2">
-        <v>739.3939819335938</v>
+        <v>1343.045043945312</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -6885,10 +6885,10 @@
         <v>9</v>
       </c>
       <c r="B591">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C591" s="2">
-        <v>686.6599731445312</v>
+        <v>1374.31103515625</v>
       </c>
     </row>
     <row r="592" spans="1:3">
@@ -6896,10 +6896,10 @@
         <v>9</v>
       </c>
       <c r="B592">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C592" s="2">
-        <v>652.6829833984375</v>
+        <v>1523.6689453125</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -6907,10 +6907,10 @@
         <v>9</v>
       </c>
       <c r="B593">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C593" s="2">
-        <v>603.4010009765625</v>
+        <v>1636.421020507812</v>
       </c>
     </row>
     <row r="594" spans="1:3">
@@ -6918,10 +6918,10 @@
         <v>9</v>
       </c>
       <c r="B594">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C594" s="2">
-        <v>626.9439697265625</v>
+        <v>1660.037963867188</v>
       </c>
     </row>
     <row r="595" spans="1:3">
@@ -6929,10 +6929,10 @@
         <v>9</v>
       </c>
       <c r="B595">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C595" s="2">
-        <v>525.7999877929688</v>
+        <v>1590.048950195312</v>
       </c>
     </row>
     <row r="596" spans="1:3">
@@ -6940,10 +6940,10 @@
         <v>9</v>
       </c>
       <c r="B596">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C596" s="2">
-        <v>531.0130004882812</v>
+        <v>1586.526000976562</v>
       </c>
     </row>
     <row r="597" spans="1:3">
@@ -6951,10 +6951,10 @@
         <v>9</v>
       </c>
       <c r="B597">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C597" s="2">
-        <v>424.7909851074219</v>
+        <v>1357.66796875</v>
       </c>
     </row>
     <row r="598" spans="1:3">
@@ -6962,10 +6962,10 @@
         <v>9</v>
       </c>
       <c r="B598">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C598" s="2">
-        <v>332.0719909667969</v>
+        <v>1470.963989257812</v>
       </c>
     </row>
     <row r="599" spans="1:3">
@@ -6973,10 +6973,10 @@
         <v>9</v>
       </c>
       <c r="B599">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C599" s="2">
-        <v>319.8720092773438</v>
+        <v>1410.045043945312</v>
       </c>
     </row>
     <row r="600" spans="1:3">
@@ -6984,10 +6984,10 @@
         <v>9</v>
       </c>
       <c r="B600">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C600" s="2">
-        <v>318.5830078125</v>
+        <v>1361.202026367188</v>
       </c>
     </row>
     <row r="601" spans="1:3">
@@ -6995,10 +6995,10 @@
         <v>9</v>
       </c>
       <c r="B601">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C601" s="2">
-        <v>294.4119873046875</v>
+        <v>1317.762939453125</v>
       </c>
     </row>
     <row r="602" spans="1:3">
@@ -7006,10 +7006,10 @@
         <v>9</v>
       </c>
       <c r="B602">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C602" s="2">
-        <v>313.9079895019531</v>
+        <v>1268.343017578125</v>
       </c>
     </row>
     <row r="603" spans="1:3">
@@ -7017,10 +7017,10 @@
         <v>9</v>
       </c>
       <c r="B603">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C603" s="2">
-        <v>309.5820007324219</v>
+        <v>1144.6259765625</v>
       </c>
     </row>
     <row r="604" spans="1:3">
@@ -7028,10 +7028,10 @@
         <v>9</v>
       </c>
       <c r="B604">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C604" s="2">
-        <v>316.2890014648438</v>
+        <v>1152.843994140625</v>
       </c>
     </row>
     <row r="605" spans="1:3">
@@ -7039,10 +7039,10 @@
         <v>9</v>
       </c>
       <c r="B605">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C605" s="2">
-        <v>239.5959930419922</v>
+        <v>1126.527954101562</v>
       </c>
     </row>
     <row r="606" spans="1:3">
@@ -7050,10 +7050,10 @@
         <v>9</v>
       </c>
       <c r="B606">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C606" s="2">
-        <v>268.6099853515625</v>
+        <v>1142.06298828125</v>
       </c>
     </row>
     <row r="607" spans="1:3">
@@ -7061,10 +7061,10 @@
         <v>9</v>
       </c>
       <c r="B607">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C607" s="2">
-        <v>330.4209899902344</v>
+        <v>1021.408996582031</v>
       </c>
     </row>
     <row r="608" spans="1:3">
@@ -7072,10 +7072,10 @@
         <v>9</v>
       </c>
       <c r="B608">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C608" s="2">
-        <v>325.9830017089844</v>
+        <v>957.47998046875</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -7083,10 +7083,10 @@
         <v>9</v>
       </c>
       <c r="B609">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C609" s="2">
-        <v>336.0299987792969</v>
+        <v>795.1420288085938</v>
       </c>
     </row>
     <row r="610" spans="1:3">
@@ -7094,10 +7094,10 @@
         <v>9</v>
       </c>
       <c r="B610">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C610" s="2">
-        <v>345.5830078125</v>
+        <v>599.2349853515625</v>
       </c>
     </row>
     <row r="611" spans="1:3">
@@ -7105,10 +7105,10 @@
         <v>9</v>
       </c>
       <c r="B611">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C611" s="2">
-        <v>337.4570007324219</v>
+        <v>484.0450134277344</v>
       </c>
     </row>
     <row r="612" spans="1:3">
@@ -7116,10 +7116,10 @@
         <v>9</v>
       </c>
       <c r="B612">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C612" s="2">
-        <v>399.4729919433594</v>
+        <v>382.4089965820312</v>
       </c>
     </row>
     <row r="613" spans="1:3">
@@ -7127,10 +7127,10 @@
         <v>9</v>
       </c>
       <c r="B613">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C613" s="2">
-        <v>498.9859924316406</v>
+        <v>255.5079956054688</v>
       </c>
     </row>
     <row r="614" spans="1:3">
@@ -7138,10 +7138,10 @@
         <v>9</v>
       </c>
       <c r="B614">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C614" s="2">
-        <v>572.5830078125</v>
+        <v>137.3309936523438</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -7149,10 +7149,10 @@
         <v>9</v>
       </c>
       <c r="B615">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C615" s="2">
-        <v>549.718017578125</v>
+        <v>102.8779983520508</v>
       </c>
     </row>
     <row r="616" spans="1:3">
@@ -7160,10 +7160,10 @@
         <v>9</v>
       </c>
       <c r="B616">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C616" s="2">
-        <v>539.2789916992188</v>
+        <v>205.39599609375</v>
       </c>
     </row>
     <row r="617" spans="1:3">
@@ -7171,10 +7171,10 @@
         <v>9</v>
       </c>
       <c r="B617">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C617" s="2">
-        <v>741.7009887695312</v>
+        <v>215.7180023193359</v>
       </c>
     </row>
     <row r="618" spans="1:3">
@@ -7182,10 +7182,10 @@
         <v>9</v>
       </c>
       <c r="B618">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C618" s="2">
-        <v>652.6829833984375</v>
+        <v>231.7510070800781</v>
       </c>
     </row>
     <row r="619" spans="1:3">
@@ -7193,10 +7193,10 @@
         <v>9</v>
       </c>
       <c r="B619">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C619" s="2">
-        <v>669.2230224609375</v>
+        <v>286.3080139160156</v>
       </c>
     </row>
     <row r="620" spans="1:3">
@@ -7204,10 +7204,10 @@
         <v>9</v>
       </c>
       <c r="B620">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C620" s="2">
-        <v>593.6309814453125</v>
+        <v>281.5440063476562</v>
       </c>
     </row>
     <row r="621" spans="1:3">
@@ -7215,10 +7215,10 @@
         <v>9</v>
       </c>
       <c r="B621">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C621" s="2">
-        <v>612.0490112304688</v>
+        <v>272.9490051269531</v>
       </c>
     </row>
     <row r="622" spans="1:3">
@@ -7226,10 +7226,10 @@
         <v>9</v>
       </c>
       <c r="B622">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C622" s="2">
-        <v>515.6690063476562</v>
+        <v>287.97900390625</v>
       </c>
     </row>
     <row r="623" spans="1:3">
@@ -7237,10 +7237,10 @@
         <v>9</v>
       </c>
       <c r="B623">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C623" s="2">
-        <v>475.7099914550781</v>
+        <v>237.27099609375</v>
       </c>
     </row>
     <row r="624" spans="1:3">
@@ -7248,10 +7248,10 @@
         <v>9</v>
       </c>
       <c r="B624">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C624" s="2">
-        <v>468.0580139160156</v>
+        <v>325.9970092773438</v>
       </c>
     </row>
     <row r="625" spans="1:3">
@@ -7259,32 +7259,32 @@
         <v>9</v>
       </c>
       <c r="B625">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C625" s="2">
-        <v>484.1010131835938</v>
+        <v>828.239990234375</v>
       </c>
     </row>
     <row r="626" spans="1:3">
       <c r="A626" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B626">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="C626" s="2">
-        <v>305.2109985351562</v>
+        <v>805.5579833984375</v>
       </c>
     </row>
     <row r="627" spans="1:3">
       <c r="A627" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B627">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="C627" s="2">
-        <v>301.9620056152344</v>
+        <v>497.6860046386719</v>
       </c>
     </row>
     <row r="628" spans="1:3">
@@ -7292,10 +7292,10 @@
         <v>10</v>
       </c>
       <c r="B628">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C628" s="2">
-        <v>230.9889984130859</v>
+        <v>438.6390075683594</v>
       </c>
     </row>
     <row r="629" spans="1:3">
@@ -7303,10 +7303,10 @@
         <v>10</v>
       </c>
       <c r="B629">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C629" s="2">
-        <v>293.2300109863281</v>
+        <v>199.7010040283203</v>
       </c>
     </row>
     <row r="630" spans="1:3">
@@ -7314,10 +7314,10 @@
         <v>10</v>
       </c>
       <c r="B630">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C630" s="2">
-        <v>328.7420043945312</v>
+        <v>283.9880065917969</v>
       </c>
     </row>
     <row r="631" spans="1:3">
@@ -7325,10 +7325,10 @@
         <v>10</v>
       </c>
       <c r="B631">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C631" s="2">
-        <v>278.6319885253906</v>
+        <v>517.5549926757812</v>
       </c>
     </row>
     <row r="632" spans="1:3">
@@ -7336,10 +7336,10 @@
         <v>10</v>
       </c>
       <c r="B632">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C632" s="2">
-        <v>330.3689880371094</v>
+        <v>653.4619750976562</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -7347,10 +7347,10 @@
         <v>10</v>
       </c>
       <c r="B633">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C633" s="2">
-        <v>342.8940124511719</v>
+        <v>680.14501953125</v>
       </c>
     </row>
     <row r="634" spans="1:3">
@@ -7358,10 +7358,10 @@
         <v>10</v>
       </c>
       <c r="B634">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C634" s="2">
-        <v>327.3139953613281</v>
+        <v>860.0139770507812</v>
       </c>
     </row>
     <row r="635" spans="1:3">
@@ -7369,10 +7369,10 @@
         <v>10</v>
       </c>
       <c r="B635">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C635" s="2">
-        <v>371.6789855957031</v>
+        <v>892.1840209960938</v>
       </c>
     </row>
     <row r="636" spans="1:3">
@@ -7380,10 +7380,10 @@
         <v>10</v>
       </c>
       <c r="B636">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C636" s="2">
-        <v>435.2040100097656</v>
+        <v>1078.734985351562</v>
       </c>
     </row>
     <row r="637" spans="1:3">
@@ -7391,10 +7391,10 @@
         <v>10</v>
       </c>
       <c r="B637">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C637" s="2">
-        <v>349.0169982910156</v>
+        <v>1104.243041992188</v>
       </c>
     </row>
     <row r="638" spans="1:3">
@@ -7402,10 +7402,10 @@
         <v>10</v>
       </c>
       <c r="B638">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C638" s="2">
-        <v>355.7780151367188</v>
+        <v>1350.443969726562</v>
       </c>
     </row>
     <row r="639" spans="1:3">
@@ -7413,10 +7413,10 @@
         <v>10</v>
       </c>
       <c r="B639">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C639" s="2">
-        <v>360.5750122070312</v>
+        <v>1547.8759765625</v>
       </c>
     </row>
     <row r="640" spans="1:3">
@@ -7424,10 +7424,10 @@
         <v>10</v>
       </c>
       <c r="B640">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C640" s="2">
-        <v>376.6010131835938</v>
+        <v>1691.446044921875</v>
       </c>
     </row>
     <row r="641" spans="1:3">
@@ -7435,10 +7435,10 @@
         <v>10</v>
       </c>
       <c r="B641">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C641" s="2">
-        <v>428.8280029296875</v>
+        <v>1867.865966796875</v>
       </c>
     </row>
     <row r="642" spans="1:3">
@@ -7446,10 +7446,10 @@
         <v>10</v>
       </c>
       <c r="B642">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C642" s="2">
-        <v>481.1279907226562</v>
+        <v>1934.180053710938</v>
       </c>
     </row>
     <row r="643" spans="1:3">
@@ -7457,10 +7457,10 @@
         <v>10</v>
       </c>
       <c r="B643">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C643" s="2">
-        <v>433.3580017089844</v>
+        <v>2161.569091796875</v>
       </c>
     </row>
     <row r="644" spans="1:3">
@@ -7468,10 +7468,10 @@
         <v>10</v>
       </c>
       <c r="B644">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C644" s="2">
-        <v>381.2210083007812</v>
+        <v>2279.64990234375</v>
       </c>
     </row>
     <row r="645" spans="1:3">
@@ -7479,10 +7479,10 @@
         <v>10</v>
       </c>
       <c r="B645">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C645" s="2">
-        <v>288.3829956054688</v>
+        <v>2337.196044921875</v>
       </c>
     </row>
     <row r="646" spans="1:3">
@@ -7490,10 +7490,10 @@
         <v>10</v>
       </c>
       <c r="B646">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C646" s="2">
-        <v>204.0769958496094</v>
+        <v>2371.074951171875</v>
       </c>
     </row>
     <row r="647" spans="1:3">
@@ -7501,10 +7501,10 @@
         <v>10</v>
       </c>
       <c r="B647">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C647" s="2">
-        <v>165.2230072021484</v>
+        <v>2370.39208984375</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -7512,10 +7512,10 @@
         <v>10</v>
       </c>
       <c r="B648">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C648" s="2">
-        <v>142.6289978027344</v>
+        <v>2356.5458984375</v>
       </c>
     </row>
     <row r="649" spans="1:3">
@@ -7523,10 +7523,10 @@
         <v>10</v>
       </c>
       <c r="B649">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C649" s="2">
-        <v>147.8200073242188</v>
+        <v>2394.261962890625</v>
       </c>
     </row>
     <row r="650" spans="1:3">
@@ -7534,10 +7534,10 @@
         <v>10</v>
       </c>
       <c r="B650">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C650" s="2">
-        <v>120.3550033569336</v>
+        <v>2405.9169921875</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -7545,10 +7545,10 @@
         <v>10</v>
       </c>
       <c r="B651">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C651" s="2">
-        <v>69.64700317382812</v>
+        <v>2407.423095703125</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -7556,10 +7556,10 @@
         <v>10</v>
       </c>
       <c r="B652">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C652" s="2">
-        <v>211.9429931640625</v>
+        <v>2444.111083984375</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -7567,10 +7567,10 @@
         <v>10</v>
       </c>
       <c r="B653">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C653" s="2">
-        <v>283.2969970703125</v>
+        <v>2474.47802734375</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -7578,10 +7578,10 @@
         <v>10</v>
       </c>
       <c r="B654">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C654" s="2">
-        <v>174.1230010986328</v>
+        <v>2483.071044921875</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -7589,10 +7589,10 @@
         <v>10</v>
       </c>
       <c r="B655">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C655" s="2">
-        <v>213.0720062255859</v>
+        <v>2536.14208984375</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -7600,10 +7600,10 @@
         <v>10</v>
       </c>
       <c r="B656">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C656" s="2">
-        <v>259.6690063476562</v>
+        <v>2566.93310546875</v>
       </c>
     </row>
     <row r="657" spans="1:3">
@@ -7611,10 +7611,10 @@
         <v>10</v>
       </c>
       <c r="B657">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C657" s="2">
-        <v>252.2339935302734</v>
+        <v>2531.43408203125</v>
       </c>
     </row>
     <row r="658" spans="1:3">
@@ -7622,10 +7622,10 @@
         <v>10</v>
       </c>
       <c r="B658">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C658" s="2">
-        <v>433.5039978027344</v>
+        <v>2536.904052734375</v>
       </c>
     </row>
     <row r="659" spans="1:3">
@@ -7633,10 +7633,10 @@
         <v>10</v>
       </c>
       <c r="B659">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C659" s="2">
-        <v>404.1440124511719</v>
+        <v>2567.112060546875</v>
       </c>
     </row>
     <row r="660" spans="1:3">
@@ -7644,10 +7644,10 @@
         <v>10</v>
       </c>
       <c r="B660">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C660" s="2">
-        <v>438.8330078125</v>
+        <v>2554.48095703125</v>
       </c>
     </row>
     <row r="661" spans="1:3">
@@ -7655,10 +7655,10 @@
         <v>10</v>
       </c>
       <c r="B661">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C661" s="2">
-        <v>415.1900024414062</v>
+        <v>2553.0830078125</v>
       </c>
     </row>
     <row r="662" spans="1:3">
@@ -7666,10 +7666,10 @@
         <v>10</v>
       </c>
       <c r="B662">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C662" s="2">
-        <v>487.1589965820312</v>
+        <v>2503.551025390625</v>
       </c>
     </row>
     <row r="663" spans="1:3">
@@ -7677,10 +7677,10 @@
         <v>10</v>
       </c>
       <c r="B663">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C663" s="2">
-        <v>597.0789794921875</v>
+        <v>2494.98095703125</v>
       </c>
     </row>
     <row r="664" spans="1:3">
@@ -7688,10 +7688,10 @@
         <v>10</v>
       </c>
       <c r="B664">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C664" s="2">
-        <v>730.843017578125</v>
+        <v>2442.760009765625</v>
       </c>
     </row>
     <row r="665" spans="1:3">
@@ -7699,10 +7699,10 @@
         <v>10</v>
       </c>
       <c r="B665">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C665" s="2">
-        <v>895.9669799804688</v>
+        <v>2366.097900390625</v>
       </c>
     </row>
     <row r="666" spans="1:3">
@@ -7710,10 +7710,10 @@
         <v>10</v>
       </c>
       <c r="B666">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C666" s="2">
-        <v>1122.885986328125</v>
+        <v>2317.4560546875</v>
       </c>
     </row>
     <row r="667" spans="1:3">
@@ -7721,10 +7721,10 @@
         <v>10</v>
       </c>
       <c r="B667">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C667" s="2">
-        <v>1228.47705078125</v>
+        <v>2305.013916015625</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -7732,10 +7732,10 @@
         <v>10</v>
       </c>
       <c r="B668">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C668" s="2">
-        <v>1214.8330078125</v>
+        <v>2235.9541015625</v>
       </c>
     </row>
     <row r="669" spans="1:3">
@@ -7743,10 +7743,10 @@
         <v>10</v>
       </c>
       <c r="B669">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C669" s="2">
-        <v>1204.878051757812</v>
+        <v>2220.014892578125</v>
       </c>
     </row>
     <row r="670" spans="1:3">
@@ -7754,10 +7754,10 @@
         <v>10</v>
       </c>
       <c r="B670">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C670" s="2">
-        <v>1155.159057617188</v>
+        <v>2199.784912109375</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -7765,10 +7765,10 @@
         <v>10</v>
       </c>
       <c r="B671">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C671" s="2">
-        <v>961.8599853515625</v>
+        <v>2202.972900390625</v>
       </c>
     </row>
     <row r="672" spans="1:3">
@@ -7776,10 +7776,10 @@
         <v>10</v>
       </c>
       <c r="B672">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C672" s="2">
-        <v>845.948974609375</v>
+        <v>2211.712890625</v>
       </c>
     </row>
     <row r="673" spans="1:3">
@@ -7787,10 +7787,10 @@
         <v>10</v>
       </c>
       <c r="B673">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C673" s="2">
-        <v>758.510986328125</v>
+        <v>2127.535888671875</v>
       </c>
     </row>
     <row r="674" spans="1:3">
@@ -7798,10 +7798,10 @@
         <v>10</v>
       </c>
       <c r="B674">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C674" s="2">
-        <v>633.8150024414062</v>
+        <v>2042.046020507812</v>
       </c>
     </row>
   </sheetData>

--- a/Wind_Production_Forecast/Wind_Forecast_Production_15min.xlsx
+++ b/Wind_Production_Forecast/Wind_Forecast_Production_15min.xlsx
@@ -25,18 +25,6 @@
     <t>Prediction</t>
   </si>
   <si>
-    <t>2025-03-20</t>
-  </si>
-  <si>
-    <t>2025-03-21</t>
-  </si>
-  <si>
-    <t>2025-03-22</t>
-  </si>
-  <si>
-    <t>2025-03-23</t>
-  </si>
-  <si>
     <t>2025-03-24</t>
   </si>
   <si>
@@ -47,6 +35,18 @@
   </si>
   <si>
     <t>2025-03-27</t>
+  </si>
+  <si>
+    <t>2025-03-28</t>
+  </si>
+  <si>
+    <t>2025-03-29</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-03-31</t>
   </si>
 </sst>
 </file>
@@ -406,10 +406,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2">
-        <v>499.7099914550781</v>
+        <v>817.9639892578125</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -417,10 +417,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2">
-        <v>536.1170043945312</v>
+        <v>827.52099609375</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -428,10 +428,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2">
-        <v>483.0350036621094</v>
+        <v>907.9099731445312</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -439,10 +439,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2">
-        <v>487.9440002441406</v>
+        <v>841.8839721679688</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -450,10 +450,10 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C6" s="2">
-        <v>431.2950134277344</v>
+        <v>915.6649780273438</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -461,10 +461,10 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2">
-        <v>452.1270141601562</v>
+        <v>977.1929931640625</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -472,10 +472,10 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2">
-        <v>437.2420043945312</v>
+        <v>1050.656005859375</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C9" s="2">
-        <v>454.9419860839844</v>
+        <v>1061.14404296875</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -494,10 +494,10 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2">
-        <v>372.3340148925781</v>
+        <v>1010.572998046875</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -505,10 +505,10 @@
         <v>3</v>
       </c>
       <c r="B11">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2">
-        <v>288.4540100097656</v>
+        <v>1074.364990234375</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -516,10 +516,10 @@
         <v>3</v>
       </c>
       <c r="B12">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2">
-        <v>265.7109985351562</v>
+        <v>905.18798828125</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -527,10 +527,10 @@
         <v>3</v>
       </c>
       <c r="B13">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2">
-        <v>304.1069946289062</v>
+        <v>917.2109985351562</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -538,10 +538,10 @@
         <v>3</v>
       </c>
       <c r="B14">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2">
-        <v>276.3450012207031</v>
+        <v>836.0859985351562</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -549,10 +549,10 @@
         <v>3</v>
       </c>
       <c r="B15">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2">
-        <v>211.5919952392578</v>
+        <v>771.6640014648438</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -560,10 +560,10 @@
         <v>3</v>
       </c>
       <c r="B16">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2">
-        <v>332.1539916992188</v>
+        <v>832.7239990234375</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -571,10 +571,10 @@
         <v>3</v>
       </c>
       <c r="B17">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2">
-        <v>313.6340026855469</v>
+        <v>751.1309814453125</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -582,10 +582,10 @@
         <v>3</v>
       </c>
       <c r="B18">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2">
-        <v>268.9410095214844</v>
+        <v>540.93798828125</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -593,10 +593,10 @@
         <v>3</v>
       </c>
       <c r="B19">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2">
-        <v>247.8200073242188</v>
+        <v>371.5050048828125</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -604,10 +604,10 @@
         <v>3</v>
       </c>
       <c r="B20">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C20" s="2">
-        <v>212.0260009765625</v>
+        <v>294.4339904785156</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -615,10 +615,10 @@
         <v>3</v>
       </c>
       <c r="B21">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C21" s="2">
-        <v>82.11100006103516</v>
+        <v>389.6229858398438</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -626,10 +626,10 @@
         <v>3</v>
       </c>
       <c r="B22">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C22" s="2">
-        <v>206.9250030517578</v>
+        <v>317.9620056152344</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -637,10 +637,10 @@
         <v>3</v>
       </c>
       <c r="B23">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2">
-        <v>333.9939880371094</v>
+        <v>337.5920104980469</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -648,10 +648,10 @@
         <v>3</v>
       </c>
       <c r="B24">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2">
-        <v>312.1000061035156</v>
+        <v>323.5260009765625</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -659,10 +659,10 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2">
-        <v>477.5369873046875</v>
+        <v>360.6809997558594</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -670,10 +670,10 @@
         <v>3</v>
       </c>
       <c r="B26">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2">
-        <v>380.5060119628906</v>
+        <v>246.3410034179688</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -681,10 +681,10 @@
         <v>3</v>
       </c>
       <c r="B27">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C27" s="2">
-        <v>648.4719848632812</v>
+        <v>271.0079956054688</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -692,10 +692,10 @@
         <v>3</v>
       </c>
       <c r="B28">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C28" s="2">
-        <v>645.0239868164062</v>
+        <v>383.2730102539062</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -703,10 +703,10 @@
         <v>3</v>
       </c>
       <c r="B29">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C29" s="2">
-        <v>525.239990234375</v>
+        <v>416.2650146484375</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -714,10 +714,10 @@
         <v>3</v>
       </c>
       <c r="B30">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C30" s="2">
-        <v>552.7919921875</v>
+        <v>614.343994140625</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -725,10 +725,10 @@
         <v>3</v>
       </c>
       <c r="B31">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C31" s="2">
-        <v>393.9400024414062</v>
+        <v>707.9990234375</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -736,10 +736,10 @@
         <v>3</v>
       </c>
       <c r="B32">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C32" s="2">
-        <v>360.760986328125</v>
+        <v>821.322998046875</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -747,10 +747,10 @@
         <v>3</v>
       </c>
       <c r="B33">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C33" s="2">
-        <v>271.5459899902344</v>
+        <v>720.2930297851562</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -758,10 +758,10 @@
         <v>3</v>
       </c>
       <c r="B34">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C34" s="2">
-        <v>218.9929962158203</v>
+        <v>679.0770263671875</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -769,10 +769,10 @@
         <v>3</v>
       </c>
       <c r="B35">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C35" s="2">
-        <v>189.4530029296875</v>
+        <v>615.6079711914062</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -780,10 +780,10 @@
         <v>3</v>
       </c>
       <c r="B36">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C36" s="2">
-        <v>189.3110046386719</v>
+        <v>599.0050048828125</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -791,10 +791,10 @@
         <v>3</v>
       </c>
       <c r="B37">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C37" s="2">
-        <v>163.8359985351562</v>
+        <v>531.8660278320312</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -802,10 +802,10 @@
         <v>3</v>
       </c>
       <c r="B38">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C38" s="2">
-        <v>181.1889953613281</v>
+        <v>429.1900024414062</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -813,10 +813,10 @@
         <v>3</v>
       </c>
       <c r="B39">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C39" s="2">
-        <v>194.6130065917969</v>
+        <v>423.8739929199219</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -824,10 +824,10 @@
         <v>3</v>
       </c>
       <c r="B40">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C40" s="2">
-        <v>204.5679931640625</v>
+        <v>462.9729919433594</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -835,10 +835,10 @@
         <v>3</v>
       </c>
       <c r="B41">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C41" s="2">
-        <v>205.5670013427734</v>
+        <v>465.2170104980469</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -846,10 +846,10 @@
         <v>3</v>
       </c>
       <c r="B42">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C42" s="2">
-        <v>195.4839935302734</v>
+        <v>557.9420166015625</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -857,10 +857,10 @@
         <v>3</v>
       </c>
       <c r="B43">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C43" s="2">
-        <v>214.0279998779297</v>
+        <v>570.3699951171875</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -868,10 +868,10 @@
         <v>3</v>
       </c>
       <c r="B44">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C44" s="2">
-        <v>191.5440063476562</v>
+        <v>607.52099609375</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -879,10 +879,10 @@
         <v>3</v>
       </c>
       <c r="B45">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C45" s="2">
-        <v>221.8569946289062</v>
+        <v>573.3200073242188</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -890,10 +890,10 @@
         <v>3</v>
       </c>
       <c r="B46">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C46" s="2">
-        <v>232.4770050048828</v>
+        <v>503.7730102539062</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -901,10 +901,10 @@
         <v>3</v>
       </c>
       <c r="B47">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C47" s="2">
-        <v>187.322998046875</v>
+        <v>511.9800109863281</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -912,10 +912,10 @@
         <v>3</v>
       </c>
       <c r="B48">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C48" s="2">
-        <v>175.5709991455078</v>
+        <v>483.5130004882812</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -923,10 +923,10 @@
         <v>3</v>
       </c>
       <c r="B49">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="C49" s="2">
-        <v>183.2669982910156</v>
+        <v>370.3689880371094</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -934,10 +934,10 @@
         <v>3</v>
       </c>
       <c r="B50">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C50" s="2">
-        <v>165.8609924316406</v>
+        <v>444.5409851074219</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -945,208 +945,208 @@
         <v>3</v>
       </c>
       <c r="B51">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C51" s="2">
-        <v>219.3159942626953</v>
+        <v>456.6239929199219</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="C52" s="2">
-        <v>265.010009765625</v>
+        <v>392.6400146484375</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="C53" s="2">
-        <v>287.9509887695312</v>
+        <v>363.5490112304688</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B54">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="C54" s="2">
-        <v>249.0260009765625</v>
+        <v>393.2860107421875</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B55">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="C55" s="2">
-        <v>255.7279968261719</v>
+        <v>366.5190124511719</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B56">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="C56" s="2">
-        <v>262.1059875488281</v>
+        <v>343.8460083007812</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B57">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="C57" s="2">
-        <v>312.1059875488281</v>
+        <v>356.4469909667969</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B58">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="C58" s="2">
-        <v>290.8410034179688</v>
+        <v>430.2789916992188</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B59">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="C59" s="2">
-        <v>290.1950073242188</v>
+        <v>437.4630126953125</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B60">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="C60" s="2">
-        <v>285.8080139160156</v>
+        <v>431.2420043945312</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B61">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="C61" s="2">
-        <v>271.4440002441406</v>
+        <v>415.3970031738281</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B62">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="C62" s="2">
-        <v>400.3919982910156</v>
+        <v>436.2489929199219</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B63">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="C63" s="2">
-        <v>310.1510009765625</v>
+        <v>507.2449951171875</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B64">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="C64" s="2">
-        <v>296.5969848632812</v>
+        <v>546.385009765625</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B65">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="C65" s="2">
-        <v>241.8520050048828</v>
+        <v>978.5250244140625</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B66">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="C66" s="2">
-        <v>223.5780029296875</v>
+        <v>930.3519897460938</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B67">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="C67" s="2">
-        <v>216.3150024414062</v>
+        <v>806.7559814453125</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B68">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="C68" s="2">
-        <v>132.9709930419922</v>
+        <v>726.3070068359375</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B69">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="C69" s="2">
-        <v>128.7749938964844</v>
+        <v>673.4730224609375</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1154,10 +1154,10 @@
         <v>4</v>
       </c>
       <c r="B70">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C70" s="2">
-        <v>128.8699951171875</v>
+        <v>684.3400268554688</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1165,10 +1165,10 @@
         <v>4</v>
       </c>
       <c r="B71">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C71" s="2">
-        <v>139.1609954833984</v>
+        <v>808.5709838867188</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1176,10 +1176,10 @@
         <v>4</v>
       </c>
       <c r="B72">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C72" s="2">
-        <v>103.6520004272461</v>
+        <v>797.4949951171875</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1187,10 +1187,10 @@
         <v>4</v>
       </c>
       <c r="B73">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C73" s="2">
-        <v>152.8260040283203</v>
+        <v>672.3829956054688</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1198,10 +1198,10 @@
         <v>4</v>
       </c>
       <c r="B74">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C74" s="2">
-        <v>146.9550018310547</v>
+        <v>854.4500122070312</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1209,10 +1209,10 @@
         <v>4</v>
       </c>
       <c r="B75">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C75" s="2">
-        <v>105.8789978027344</v>
+        <v>879.468017578125</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1220,10 +1220,10 @@
         <v>4</v>
       </c>
       <c r="B76">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C76" s="2">
-        <v>58.89199829101562</v>
+        <v>1115.048950195312</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1231,10 +1231,10 @@
         <v>4</v>
       </c>
       <c r="B77">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C77" s="2">
-        <v>55.33700180053711</v>
+        <v>1138.739013671875</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1242,10 +1242,10 @@
         <v>4</v>
       </c>
       <c r="B78">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C78" s="2">
-        <v>-3.900000095367432</v>
+        <v>1130.056030273438</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1253,10 +1253,10 @@
         <v>4</v>
       </c>
       <c r="B79">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C79" s="2">
-        <v>6.276999950408936</v>
+        <v>1289.155029296875</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1264,10 +1264,10 @@
         <v>4</v>
       </c>
       <c r="B80">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C80" s="2">
-        <v>-15.24499988555908</v>
+        <v>1224.245971679688</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1275,10 +1275,10 @@
         <v>4</v>
       </c>
       <c r="B81">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C81" s="2">
-        <v>-25.69099998474121</v>
+        <v>1115.681030273438</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1286,10 +1286,10 @@
         <v>4</v>
       </c>
       <c r="B82">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C82" s="2">
-        <v>53.36000061035156</v>
+        <v>1051.370971679688</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1297,10 +1297,10 @@
         <v>4</v>
       </c>
       <c r="B83">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C83" s="2">
-        <v>22.98299980163574</v>
+        <v>1123.20703125</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1308,10 +1308,10 @@
         <v>4</v>
       </c>
       <c r="B84">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C84" s="2">
-        <v>14.78299999237061</v>
+        <v>1280.073974609375</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1319,10 +1319,10 @@
         <v>4</v>
       </c>
       <c r="B85">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C85" s="2">
-        <v>-11.68099975585938</v>
+        <v>1350.901000976562</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1330,10 +1330,10 @@
         <v>4</v>
       </c>
       <c r="B86">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C86" s="2">
-        <v>-79.04199981689453</v>
+        <v>1601.9599609375</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1341,10 +1341,10 @@
         <v>4</v>
       </c>
       <c r="B87">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C87" s="2">
-        <v>32.36700057983398</v>
+        <v>1526.18701171875</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1352,10 +1352,10 @@
         <v>4</v>
       </c>
       <c r="B88">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C88" s="2">
-        <v>76.02700042724609</v>
+        <v>1666.926025390625</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1363,10 +1363,10 @@
         <v>4</v>
       </c>
       <c r="B89">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C89" s="2">
-        <v>100.3769989013672</v>
+        <v>1737.760009765625</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1374,10 +1374,10 @@
         <v>4</v>
       </c>
       <c r="B90">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C90" s="2">
-        <v>74.96199798583984</v>
+        <v>1816.885009765625</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1385,10 +1385,10 @@
         <v>4</v>
       </c>
       <c r="B91">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C91" s="2">
-        <v>14.06900024414062</v>
+        <v>1767.384033203125</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1396,10 +1396,10 @@
         <v>4</v>
       </c>
       <c r="B92">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C92" s="2">
-        <v>18.77000045776367</v>
+        <v>1676.06396484375</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1407,10 +1407,10 @@
         <v>4</v>
       </c>
       <c r="B93">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C93" s="2">
-        <v>42.74100112915039</v>
+        <v>1655.661987304688</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1418,10 +1418,10 @@
         <v>4</v>
       </c>
       <c r="B94">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C94" s="2">
-        <v>12.08699989318848</v>
+        <v>1711.317993164062</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1429,10 +1429,10 @@
         <v>4</v>
       </c>
       <c r="B95">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C95" s="2">
-        <v>24.11199951171875</v>
+        <v>1702.279052734375</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1440,10 +1440,10 @@
         <v>4</v>
       </c>
       <c r="B96">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C96" s="2">
-        <v>43.86800003051758</v>
+        <v>1601.52099609375</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1451,10 +1451,10 @@
         <v>4</v>
       </c>
       <c r="B97">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C97" s="2">
-        <v>5.392000198364258</v>
+        <v>1406.629028320312</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1462,10 +1462,10 @@
         <v>4</v>
       </c>
       <c r="B98">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C98" s="2">
-        <v>-13.78499984741211</v>
+        <v>1422.54296875</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1473,10 +1473,10 @@
         <v>4</v>
       </c>
       <c r="B99">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C99" s="2">
-        <v>50.34500122070312</v>
+        <v>1200.203979492188</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1484,10 +1484,10 @@
         <v>4</v>
       </c>
       <c r="B100">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C100" s="2">
-        <v>72.15899658203125</v>
+        <v>1184.27099609375</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1495,10 +1495,10 @@
         <v>4</v>
       </c>
       <c r="B101">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C101" s="2">
-        <v>84.41100311279297</v>
+        <v>1219.880004882812</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1506,10 +1506,10 @@
         <v>4</v>
       </c>
       <c r="B102">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C102" s="2">
-        <v>117.3730010986328</v>
+        <v>1366.839965820312</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1517,10 +1517,10 @@
         <v>4</v>
       </c>
       <c r="B103">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C103" s="2">
-        <v>164.302001953125</v>
+        <v>1338.2099609375</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1528,10 +1528,10 @@
         <v>4</v>
       </c>
       <c r="B104">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C104" s="2">
-        <v>183.3170013427734</v>
+        <v>1089.329956054688</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1539,10 +1539,10 @@
         <v>4</v>
       </c>
       <c r="B105">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C105" s="2">
-        <v>200.0989990234375</v>
+        <v>1126.697021484375</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1550,10 +1550,10 @@
         <v>4</v>
       </c>
       <c r="B106">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C106" s="2">
-        <v>165.5839996337891</v>
+        <v>1142.734985351562</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1561,10 +1561,10 @@
         <v>4</v>
       </c>
       <c r="B107">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C107" s="2">
-        <v>150.4179992675781</v>
+        <v>1136.6669921875</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1572,10 +1572,10 @@
         <v>4</v>
       </c>
       <c r="B108">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C108" s="2">
-        <v>130.9129943847656</v>
+        <v>974.7139892578125</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1583,10 +1583,10 @@
         <v>4</v>
       </c>
       <c r="B109">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C109" s="2">
-        <v>229.22900390625</v>
+        <v>990.7919921875</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1594,10 +1594,10 @@
         <v>4</v>
       </c>
       <c r="B110">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C110" s="2">
-        <v>273.3399963378906</v>
+        <v>936.5239868164062</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1605,10 +1605,10 @@
         <v>4</v>
       </c>
       <c r="B111">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C111" s="2">
-        <v>318.1719970703125</v>
+        <v>980.0880126953125</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1616,10 +1616,10 @@
         <v>4</v>
       </c>
       <c r="B112">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C112" s="2">
-        <v>429.3789978027344</v>
+        <v>1126.31396484375</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1627,10 +1627,10 @@
         <v>4</v>
       </c>
       <c r="B113">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C113" s="2">
-        <v>656.2739868164062</v>
+        <v>1329.245971679688</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1638,10 +1638,10 @@
         <v>4</v>
       </c>
       <c r="B114">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C114" s="2">
-        <v>1174.078979492188</v>
+        <v>1244.161987304688</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1649,10 +1649,10 @@
         <v>4</v>
       </c>
       <c r="B115">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C115" s="2">
-        <v>1246.864990234375</v>
+        <v>1282.359008789062</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1660,10 +1660,10 @@
         <v>4</v>
       </c>
       <c r="B116">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C116" s="2">
-        <v>1316.297973632812</v>
+        <v>1189.949951171875</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1671,10 +1671,10 @@
         <v>4</v>
       </c>
       <c r="B117">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C117" s="2">
-        <v>1211.777954101562</v>
+        <v>1102.088012695312</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1682,10 +1682,10 @@
         <v>4</v>
       </c>
       <c r="B118">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C118" s="2">
-        <v>1345.509033203125</v>
+        <v>1060.053955078125</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1693,10 +1693,10 @@
         <v>4</v>
       </c>
       <c r="B119">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C119" s="2">
-        <v>1198.651000976562</v>
+        <v>983.5419921875</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1704,10 +1704,10 @@
         <v>4</v>
       </c>
       <c r="B120">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C120" s="2">
-        <v>1279.192016601562</v>
+        <v>1074.1689453125</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1715,10 +1715,10 @@
         <v>4</v>
       </c>
       <c r="B121">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C121" s="2">
-        <v>1139.498046875</v>
+        <v>914.2100219726562</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1726,10 +1726,10 @@
         <v>4</v>
       </c>
       <c r="B122">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C122" s="2">
-        <v>888.4719848632812</v>
+        <v>911.177978515625</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1737,10 +1737,10 @@
         <v>4</v>
       </c>
       <c r="B123">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C123" s="2">
-        <v>842.9409790039062</v>
+        <v>1015.989013671875</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1748,10 +1748,10 @@
         <v>4</v>
       </c>
       <c r="B124">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C124" s="2">
-        <v>880.7789916992188</v>
+        <v>1067.258056640625</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1759,10 +1759,10 @@
         <v>4</v>
       </c>
       <c r="B125">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C125" s="2">
-        <v>882.927001953125</v>
+        <v>1016.276977539062</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1770,10 +1770,10 @@
         <v>4</v>
       </c>
       <c r="B126">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C126" s="2">
-        <v>972.7479858398438</v>
+        <v>1048.534057617188</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1781,10 +1781,10 @@
         <v>4</v>
       </c>
       <c r="B127">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C127" s="2">
-        <v>985.7540283203125</v>
+        <v>1044.47705078125</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1792,10 +1792,10 @@
         <v>4</v>
       </c>
       <c r="B128">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C128" s="2">
-        <v>998.416015625</v>
+        <v>995.3300170898438</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1803,10 +1803,10 @@
         <v>4</v>
       </c>
       <c r="B129">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C129" s="2">
-        <v>998.1799926757812</v>
+        <v>1009.302978515625</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1814,10 +1814,10 @@
         <v>4</v>
       </c>
       <c r="B130">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C130" s="2">
-        <v>931.8820190429688</v>
+        <v>923.7769775390625</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1825,10 +1825,10 @@
         <v>4</v>
       </c>
       <c r="B131">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C131" s="2">
-        <v>964.3989868164062</v>
+        <v>906.6900024414062</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1836,10 +1836,10 @@
         <v>4</v>
       </c>
       <c r="B132">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C132" s="2">
-        <v>989.510986328125</v>
+        <v>821.4329833984375</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1847,10 +1847,10 @@
         <v>4</v>
       </c>
       <c r="B133">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C133" s="2">
-        <v>1026.43701171875</v>
+        <v>957.947021484375</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1858,10 +1858,10 @@
         <v>4</v>
       </c>
       <c r="B134">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C134" s="2">
-        <v>1048.659057617188</v>
+        <v>887.406982421875</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1869,10 +1869,10 @@
         <v>4</v>
       </c>
       <c r="B135">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C135" s="2">
-        <v>909.572021484375</v>
+        <v>863.6680297851562</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1880,10 +1880,10 @@
         <v>4</v>
       </c>
       <c r="B136">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C136" s="2">
-        <v>915.2789916992188</v>
+        <v>683.625</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1891,10 +1891,10 @@
         <v>4</v>
       </c>
       <c r="B137">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C137" s="2">
-        <v>829.7780151367188</v>
+        <v>582.6690063476562</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1902,10 +1902,10 @@
         <v>4</v>
       </c>
       <c r="B138">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C138" s="2">
-        <v>808.2680053710938</v>
+        <v>508.2489929199219</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1913,10 +1913,10 @@
         <v>4</v>
       </c>
       <c r="B139">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C139" s="2">
-        <v>828.3629760742188</v>
+        <v>405.0899963378906</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1924,10 +1924,10 @@
         <v>4</v>
       </c>
       <c r="B140">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C140" s="2">
-        <v>779.7979736328125</v>
+        <v>425.7829895019531</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1935,10 +1935,10 @@
         <v>4</v>
       </c>
       <c r="B141">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C141" s="2">
-        <v>742.9940185546875</v>
+        <v>440.8569946289062</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1946,10 +1946,10 @@
         <v>4</v>
       </c>
       <c r="B142">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C142" s="2">
-        <v>721.0449829101562</v>
+        <v>417.2179870605469</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1957,10 +1957,10 @@
         <v>4</v>
       </c>
       <c r="B143">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C143" s="2">
-        <v>681.8419799804688</v>
+        <v>288.7550048828125</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1968,10 +1968,10 @@
         <v>4</v>
       </c>
       <c r="B144">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C144" s="2">
-        <v>660.4949951171875</v>
+        <v>262.5069885253906</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1979,10 +1979,10 @@
         <v>4</v>
       </c>
       <c r="B145">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="C145" s="2">
-        <v>656.5780029296875</v>
+        <v>280.5329895019531</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1990,10 +1990,10 @@
         <v>4</v>
       </c>
       <c r="B146">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C146" s="2">
-        <v>660.218994140625</v>
+        <v>313.3160095214844</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2001,208 +2001,208 @@
         <v>4</v>
       </c>
       <c r="B147">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C147" s="2">
-        <v>736.7849731445312</v>
+        <v>198.9100036621094</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B148">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="C148" s="2">
-        <v>942.655029296875</v>
+        <v>216.4730072021484</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B149">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="C149" s="2">
-        <v>917.2470092773438</v>
+        <v>208.8679962158203</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B150">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="C150" s="2">
-        <v>901.0369873046875</v>
+        <v>175.2420043945312</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B151">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="C151" s="2">
-        <v>906.7009887695312</v>
+        <v>170.5480041503906</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B152">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="C152" s="2">
-        <v>971.2139892578125</v>
+        <v>180.593994140625</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B153">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="C153" s="2">
-        <v>920.9660034179688</v>
+        <v>155.1510009765625</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B154">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="C154" s="2">
-        <v>887.9340209960938</v>
+        <v>212.1020050048828</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B155">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="C155" s="2">
-        <v>855.5469970703125</v>
+        <v>200.2599945068359</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B156">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="C156" s="2">
-        <v>801.39599609375</v>
+        <v>202.3099975585938</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B157">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="C157" s="2">
-        <v>799.0139770507812</v>
+        <v>204.322998046875</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B158">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="C158" s="2">
-        <v>783.427001953125</v>
+        <v>201.6100006103516</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B159">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="C159" s="2">
-        <v>852.5980224609375</v>
+        <v>226.5339965820312</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B160">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="C160" s="2">
-        <v>840.2589721679688</v>
+        <v>308.4039916992188</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B161">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="C161" s="2">
-        <v>836.1119995117188</v>
+        <v>298.47900390625</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B162">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="C162" s="2">
-        <v>827.9290161132812</v>
+        <v>348.1159973144531</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B163">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="C163" s="2">
-        <v>770.6890258789062</v>
+        <v>313.0029907226562</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B164">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="C164" s="2">
-        <v>753.0819702148438</v>
+        <v>346.4849853515625</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B165">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="C165" s="2">
-        <v>783.833984375</v>
+        <v>320.6570129394531</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2210,10 +2210,10 @@
         <v>5</v>
       </c>
       <c r="B166">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C166" s="2">
-        <v>765.39599609375</v>
+        <v>421.8519897460938</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2221,10 +2221,10 @@
         <v>5</v>
       </c>
       <c r="B167">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C167" s="2">
-        <v>746.635009765625</v>
+        <v>408.343994140625</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2232,10 +2232,10 @@
         <v>5</v>
       </c>
       <c r="B168">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C168" s="2">
-        <v>815.7410278320312</v>
+        <v>398.8150024414062</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2243,10 +2243,10 @@
         <v>5</v>
       </c>
       <c r="B169">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C169" s="2">
-        <v>830.5570068359375</v>
+        <v>308.6279907226562</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2254,10 +2254,10 @@
         <v>5</v>
       </c>
       <c r="B170">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C170" s="2">
-        <v>764.4000244140625</v>
+        <v>196.0720062255859</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2265,10 +2265,10 @@
         <v>5</v>
       </c>
       <c r="B171">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C171" s="2">
-        <v>809.291015625</v>
+        <v>252.10400390625</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2276,10 +2276,10 @@
         <v>5</v>
       </c>
       <c r="B172">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C172" s="2">
-        <v>809.6389770507812</v>
+        <v>424.0559997558594</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2287,10 +2287,10 @@
         <v>5</v>
       </c>
       <c r="B173">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C173" s="2">
-        <v>725.2260131835938</v>
+        <v>515.177978515625</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2298,10 +2298,10 @@
         <v>5</v>
       </c>
       <c r="B174">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C174" s="2">
-        <v>815.9849853515625</v>
+        <v>279.2319946289062</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2309,10 +2309,10 @@
         <v>5</v>
       </c>
       <c r="B175">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C175" s="2">
-        <v>883.2139892578125</v>
+        <v>297.8609924316406</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2320,10 +2320,10 @@
         <v>5</v>
       </c>
       <c r="B176">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C176" s="2">
-        <v>897.1099853515625</v>
+        <v>291.6279907226562</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2331,10 +2331,10 @@
         <v>5</v>
       </c>
       <c r="B177">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C177" s="2">
-        <v>881.3900146484375</v>
+        <v>271.7139892578125</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2342,10 +2342,10 @@
         <v>5</v>
       </c>
       <c r="B178">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C178" s="2">
-        <v>890.8159790039062</v>
+        <v>300.0029907226562</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2353,10 +2353,10 @@
         <v>5</v>
       </c>
       <c r="B179">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C179" s="2">
-        <v>712.4199829101562</v>
+        <v>314.56298828125</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2364,10 +2364,10 @@
         <v>5</v>
       </c>
       <c r="B180">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C180" s="2">
-        <v>741.052001953125</v>
+        <v>277.1480102539062</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2375,10 +2375,10 @@
         <v>5</v>
       </c>
       <c r="B181">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C181" s="2">
-        <v>828.3090209960938</v>
+        <v>247.1190032958984</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2386,10 +2386,10 @@
         <v>5</v>
       </c>
       <c r="B182">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C182" s="2">
-        <v>937.2379760742188</v>
+        <v>164.3809967041016</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2397,10 +2397,10 @@
         <v>5</v>
       </c>
       <c r="B183">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C183" s="2">
-        <v>992.2550048828125</v>
+        <v>148.7350006103516</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2408,10 +2408,10 @@
         <v>5</v>
       </c>
       <c r="B184">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C184" s="2">
-        <v>1026.175048828125</v>
+        <v>136.6419982910156</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2419,10 +2419,10 @@
         <v>5</v>
       </c>
       <c r="B185">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C185" s="2">
-        <v>939.8579711914062</v>
+        <v>156.9230041503906</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2430,10 +2430,10 @@
         <v>5</v>
       </c>
       <c r="B186">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C186" s="2">
-        <v>1100.739990234375</v>
+        <v>164.7989959716797</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2441,10 +2441,10 @@
         <v>5</v>
       </c>
       <c r="B187">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C187" s="2">
-        <v>1247.649047851562</v>
+        <v>146.6849975585938</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2452,10 +2452,10 @@
         <v>5</v>
       </c>
       <c r="B188">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C188" s="2">
-        <v>1209.362060546875</v>
+        <v>79.99199676513672</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2463,10 +2463,10 @@
         <v>5</v>
       </c>
       <c r="B189">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C189" s="2">
-        <v>1311.052978515625</v>
+        <v>38.25799942016602</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2474,10 +2474,10 @@
         <v>5</v>
       </c>
       <c r="B190">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C190" s="2">
-        <v>1499.384033203125</v>
+        <v>74.76699829101562</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2485,10 +2485,10 @@
         <v>5</v>
       </c>
       <c r="B191">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C191" s="2">
-        <v>1566.594970703125</v>
+        <v>46.90800094604492</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2496,10 +2496,10 @@
         <v>5</v>
       </c>
       <c r="B192">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C192" s="2">
-        <v>1744.430053710938</v>
+        <v>39.37599945068359</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2507,10 +2507,10 @@
         <v>5</v>
       </c>
       <c r="B193">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C193" s="2">
-        <v>1829.467041015625</v>
+        <v>-34.90900039672852</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2518,10 +2518,10 @@
         <v>5</v>
       </c>
       <c r="B194">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C194" s="2">
-        <v>1879.765014648438</v>
+        <v>14.1230001449585</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2529,10 +2529,10 @@
         <v>5</v>
       </c>
       <c r="B195">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C195" s="2">
-        <v>1911.024047851562</v>
+        <v>-78.69300079345703</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2540,10 +2540,10 @@
         <v>5</v>
       </c>
       <c r="B196">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C196" s="2">
-        <v>1783.160034179688</v>
+        <v>-99.86100006103516</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2551,10 +2551,10 @@
         <v>5</v>
       </c>
       <c r="B197">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C197" s="2">
-        <v>1830.787963867188</v>
+        <v>-146.1380004882812</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2562,10 +2562,10 @@
         <v>5</v>
       </c>
       <c r="B198">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C198" s="2">
-        <v>1925.41796875</v>
+        <v>242.3840026855469</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2573,10 +2573,10 @@
         <v>5</v>
       </c>
       <c r="B199">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C199" s="2">
-        <v>2105.491943359375</v>
+        <v>160.4299926757812</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2584,10 +2584,10 @@
         <v>5</v>
       </c>
       <c r="B200">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C200" s="2">
-        <v>2106.285888671875</v>
+        <v>143.2209930419922</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2595,10 +2595,10 @@
         <v>5</v>
       </c>
       <c r="B201">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C201" s="2">
-        <v>2077.087890625</v>
+        <v>159.4420013427734</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2606,10 +2606,10 @@
         <v>5</v>
       </c>
       <c r="B202">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C202" s="2">
-        <v>2062.1279296875</v>
+        <v>80.26799774169922</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2617,10 +2617,10 @@
         <v>5</v>
       </c>
       <c r="B203">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C203" s="2">
-        <v>2050.876953125</v>
+        <v>132.1360015869141</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2628,10 +2628,10 @@
         <v>5</v>
       </c>
       <c r="B204">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C204" s="2">
-        <v>1783.183959960938</v>
+        <v>175.7550048828125</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2639,10 +2639,10 @@
         <v>5</v>
       </c>
       <c r="B205">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C205" s="2">
-        <v>1782.130004882812</v>
+        <v>337.85400390625</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2650,10 +2650,10 @@
         <v>5</v>
       </c>
       <c r="B206">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C206" s="2">
-        <v>1764.900024414062</v>
+        <v>357.0029907226562</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2661,10 +2661,10 @@
         <v>5</v>
       </c>
       <c r="B207">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C207" s="2">
-        <v>1968.223999023438</v>
+        <v>307.8089904785156</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2672,10 +2672,10 @@
         <v>5</v>
       </c>
       <c r="B208">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C208" s="2">
-        <v>1997.052001953125</v>
+        <v>377.0820007324219</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2683,10 +2683,10 @@
         <v>5</v>
       </c>
       <c r="B209">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C209" s="2">
-        <v>1917.64794921875</v>
+        <v>427.1319885253906</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2694,10 +2694,10 @@
         <v>5</v>
       </c>
       <c r="B210">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C210" s="2">
-        <v>1915.253051757812</v>
+        <v>410.0029907226562</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2705,10 +2705,10 @@
         <v>5</v>
       </c>
       <c r="B211">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C211" s="2">
-        <v>2047.31103515625</v>
+        <v>377.7739868164062</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2716,10 +2716,10 @@
         <v>5</v>
       </c>
       <c r="B212">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C212" s="2">
-        <v>2136.910888671875</v>
+        <v>269.4230041503906</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2727,10 +2727,10 @@
         <v>5</v>
       </c>
       <c r="B213">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C213" s="2">
-        <v>2233.011962890625</v>
+        <v>271.739013671875</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2738,10 +2738,10 @@
         <v>5</v>
       </c>
       <c r="B214">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C214" s="2">
-        <v>2129.823974609375</v>
+        <v>320.052001953125</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2749,10 +2749,10 @@
         <v>5</v>
       </c>
       <c r="B215">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C215" s="2">
-        <v>1965.39599609375</v>
+        <v>358.8169860839844</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2760,10 +2760,10 @@
         <v>5</v>
       </c>
       <c r="B216">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C216" s="2">
-        <v>1929.119018554688</v>
+        <v>330.8080139160156</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2771,10 +2771,10 @@
         <v>5</v>
       </c>
       <c r="B217">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C217" s="2">
-        <v>1915.385986328125</v>
+        <v>358.7080078125</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2782,10 +2782,10 @@
         <v>5</v>
       </c>
       <c r="B218">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C218" s="2">
-        <v>1762.387939453125</v>
+        <v>192.6860046386719</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2793,10 +2793,10 @@
         <v>5</v>
       </c>
       <c r="B219">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C219" s="2">
-        <v>1684.531005859375</v>
+        <v>182.322998046875</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2804,10 +2804,10 @@
         <v>5</v>
       </c>
       <c r="B220">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C220" s="2">
-        <v>1600.592041015625</v>
+        <v>168</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2815,10 +2815,10 @@
         <v>5</v>
       </c>
       <c r="B221">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C221" s="2">
-        <v>1494.641967773438</v>
+        <v>187.2510070800781</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2826,10 +2826,10 @@
         <v>5</v>
       </c>
       <c r="B222">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C222" s="2">
-        <v>1456.913940429688</v>
+        <v>151.0330047607422</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2837,10 +2837,10 @@
         <v>5</v>
       </c>
       <c r="B223">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C223" s="2">
-        <v>1429.166015625</v>
+        <v>143.8670043945312</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2848,10 +2848,10 @@
         <v>5</v>
       </c>
       <c r="B224">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C224" s="2">
-        <v>1457.152954101562</v>
+        <v>172.0390014648438</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2859,10 +2859,10 @@
         <v>5</v>
       </c>
       <c r="B225">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C225" s="2">
-        <v>1361.6669921875</v>
+        <v>181.7270050048828</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2870,10 +2870,10 @@
         <v>5</v>
       </c>
       <c r="B226">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C226" s="2">
-        <v>1419.329956054688</v>
+        <v>205.947998046875</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2881,10 +2881,10 @@
         <v>5</v>
       </c>
       <c r="B227">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C227" s="2">
-        <v>1441.590942382812</v>
+        <v>238.85400390625</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2892,10 +2892,10 @@
         <v>5</v>
       </c>
       <c r="B228">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C228" s="2">
-        <v>1479.836059570312</v>
+        <v>265.7959899902344</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2903,10 +2903,10 @@
         <v>5</v>
       </c>
       <c r="B229">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C229" s="2">
-        <v>1419.154052734375</v>
+        <v>302.5079956054688</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2914,10 +2914,10 @@
         <v>5</v>
       </c>
       <c r="B230">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C230" s="2">
-        <v>1493.698974609375</v>
+        <v>325.1919860839844</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2925,10 +2925,10 @@
         <v>5</v>
       </c>
       <c r="B231">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C231" s="2">
-        <v>1429.151000976562</v>
+        <v>361.5870056152344</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2936,10 +2936,10 @@
         <v>5</v>
       </c>
       <c r="B232">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C232" s="2">
-        <v>1487.818969726562</v>
+        <v>401.5429992675781</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2947,10 +2947,10 @@
         <v>5</v>
       </c>
       <c r="B233">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C233" s="2">
-        <v>1598.135986328125</v>
+        <v>465.9609985351562</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2958,10 +2958,10 @@
         <v>5</v>
       </c>
       <c r="B234">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C234" s="2">
-        <v>1489.9169921875</v>
+        <v>445.4309997558594</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2969,10 +2969,10 @@
         <v>5</v>
       </c>
       <c r="B235">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C235" s="2">
-        <v>1438.845947265625</v>
+        <v>507.885986328125</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2980,10 +2980,10 @@
         <v>5</v>
       </c>
       <c r="B236">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C236" s="2">
-        <v>1430.990966796875</v>
+        <v>538.4000244140625</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2991,10 +2991,10 @@
         <v>5</v>
       </c>
       <c r="B237">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C237" s="2">
-        <v>1494.253051757812</v>
+        <v>607.5819702148438</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3002,10 +3002,10 @@
         <v>5</v>
       </c>
       <c r="B238">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C238" s="2">
-        <v>1550.56494140625</v>
+        <v>628.2999877929688</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3013,10 +3013,10 @@
         <v>5</v>
       </c>
       <c r="B239">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C239" s="2">
-        <v>1529.640991210938</v>
+        <v>555.4879760742188</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3024,10 +3024,10 @@
         <v>5</v>
       </c>
       <c r="B240">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C240" s="2">
-        <v>1465.125</v>
+        <v>590.1370239257812</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3035,10 +3035,10 @@
         <v>5</v>
       </c>
       <c r="B241">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="C241" s="2">
-        <v>1380.485961914062</v>
+        <v>798.5900268554688</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3046,10 +3046,10 @@
         <v>5</v>
       </c>
       <c r="B242">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C242" s="2">
-        <v>1381.782958984375</v>
+        <v>724.5390014648438</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3057,208 +3057,208 @@
         <v>5</v>
       </c>
       <c r="B243">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C243" s="2">
-        <v>1399.713989257812</v>
+        <v>731.530029296875</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B244">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="C244" s="2">
-        <v>1456.5810546875</v>
+        <v>796.18701171875</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B245">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="C245" s="2">
-        <v>1424.552001953125</v>
+        <v>790.3480224609375</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B246">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="C246" s="2">
-        <v>1430.029052734375</v>
+        <v>724.2589721679688</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B247">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="C247" s="2">
-        <v>1363.682983398438</v>
+        <v>684.0079956054688</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B248">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="C248" s="2">
-        <v>1163.7080078125</v>
+        <v>597.7899780273438</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B249">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="C249" s="2">
-        <v>1096.490966796875</v>
+        <v>375.3580017089844</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B250">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="C250" s="2">
-        <v>1397.527954101562</v>
+        <v>318.5700073242188</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B251">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="C251" s="2">
-        <v>1607.890991210938</v>
+        <v>301.93701171875</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B252">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="C252" s="2">
-        <v>1579.723022460938</v>
+        <v>314.1270141601562</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B253">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="C253" s="2">
-        <v>1526.010009765625</v>
+        <v>401.3320007324219</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B254">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="C254" s="2">
-        <v>1586.77294921875</v>
+        <v>347.3399963378906</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B255">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="C255" s="2">
-        <v>1638.359985351562</v>
+        <v>257.7820129394531</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B256">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="C256" s="2">
-        <v>1614.838012695312</v>
+        <v>426.2250061035156</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B257">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="C257" s="2">
-        <v>1656.796997070312</v>
+        <v>443.9509887695312</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B258">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="C258" s="2">
-        <v>1668.170043945312</v>
+        <v>491.9809875488281</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B259">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="C259" s="2">
-        <v>1625.652954101562</v>
+        <v>576.7479858398438</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B260">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="C260" s="2">
-        <v>1582.719970703125</v>
+        <v>615.3599853515625</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B261">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="C261" s="2">
-        <v>1560.172973632812</v>
+        <v>578.9119873046875</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3266,10 +3266,10 @@
         <v>6</v>
       </c>
       <c r="B262">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C262" s="2">
-        <v>1610.673950195312</v>
+        <v>474.4049987792969</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3277,10 +3277,10 @@
         <v>6</v>
       </c>
       <c r="B263">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C263" s="2">
-        <v>1659.015991210938</v>
+        <v>513.4149780273438</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3288,10 +3288,10 @@
         <v>6</v>
       </c>
       <c r="B264">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C264" s="2">
-        <v>1686.713012695312</v>
+        <v>495.5499877929688</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3299,10 +3299,10 @@
         <v>6</v>
       </c>
       <c r="B265">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C265" s="2">
-        <v>1692.824951171875</v>
+        <v>564.7020263671875</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3310,10 +3310,10 @@
         <v>6</v>
       </c>
       <c r="B266">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C266" s="2">
-        <v>1724.31396484375</v>
+        <v>609.6939697265625</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3321,10 +3321,10 @@
         <v>6</v>
       </c>
       <c r="B267">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C267" s="2">
-        <v>1833.97998046875</v>
+        <v>583.4359741210938</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3332,10 +3332,10 @@
         <v>6</v>
       </c>
       <c r="B268">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C268" s="2">
-        <v>1936.734008789062</v>
+        <v>597.14501953125</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3343,10 +3343,10 @@
         <v>6</v>
       </c>
       <c r="B269">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C269" s="2">
-        <v>1930.225952148438</v>
+        <v>620.1599731445312</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3354,10 +3354,10 @@
         <v>6</v>
       </c>
       <c r="B270">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C270" s="2">
-        <v>2258.48291015625</v>
+        <v>565.989013671875</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3365,10 +3365,10 @@
         <v>6</v>
       </c>
       <c r="B271">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C271" s="2">
-        <v>2290.304931640625</v>
+        <v>617.468017578125</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3376,10 +3376,10 @@
         <v>6</v>
       </c>
       <c r="B272">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C272" s="2">
-        <v>2338.5009765625</v>
+        <v>662.0050048828125</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3387,10 +3387,10 @@
         <v>6</v>
       </c>
       <c r="B273">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C273" s="2">
-        <v>2277.535888671875</v>
+        <v>682.1859741210938</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3398,10 +3398,10 @@
         <v>6</v>
       </c>
       <c r="B274">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C274" s="2">
-        <v>2113.3798828125</v>
+        <v>663.2890014648438</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3409,10 +3409,10 @@
         <v>6</v>
       </c>
       <c r="B275">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C275" s="2">
-        <v>2272.610107421875</v>
+        <v>669.8610229492188</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3420,10 +3420,10 @@
         <v>6</v>
       </c>
       <c r="B276">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C276" s="2">
-        <v>2410.698974609375</v>
+        <v>595.9229736328125</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3431,10 +3431,10 @@
         <v>6</v>
       </c>
       <c r="B277">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C277" s="2">
-        <v>2411.681884765625</v>
+        <v>615.8809814453125</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3442,10 +3442,10 @@
         <v>6</v>
       </c>
       <c r="B278">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C278" s="2">
-        <v>2371.802978515625</v>
+        <v>612.4849853515625</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3453,10 +3453,10 @@
         <v>6</v>
       </c>
       <c r="B279">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C279" s="2">
-        <v>2364.291015625</v>
+        <v>543.2919921875</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3464,10 +3464,10 @@
         <v>6</v>
       </c>
       <c r="B280">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C280" s="2">
-        <v>2333.55908203125</v>
+        <v>590.323974609375</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3475,10 +3475,10 @@
         <v>6</v>
       </c>
       <c r="B281">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C281" s="2">
-        <v>2185.66796875</v>
+        <v>693.1589965820312</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3486,10 +3486,10 @@
         <v>6</v>
       </c>
       <c r="B282">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C282" s="2">
-        <v>2178.552001953125</v>
+        <v>669.0540161132812</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3497,10 +3497,10 @@
         <v>6</v>
       </c>
       <c r="B283">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C283" s="2">
-        <v>2011.100952148438</v>
+        <v>662.5560302734375</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3508,10 +3508,10 @@
         <v>6</v>
       </c>
       <c r="B284">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C284" s="2">
-        <v>2026.284057617188</v>
+        <v>669.7030029296875</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3519,10 +3519,10 @@
         <v>6</v>
       </c>
       <c r="B285">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C285" s="2">
-        <v>2023.150024414062</v>
+        <v>568.489013671875</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3530,10 +3530,10 @@
         <v>6</v>
       </c>
       <c r="B286">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C286" s="2">
-        <v>1997.427001953125</v>
+        <v>555.4639892578125</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3541,10 +3541,10 @@
         <v>6</v>
       </c>
       <c r="B287">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C287" s="2">
-        <v>2216.8720703125</v>
+        <v>526.1740112304688</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3552,10 +3552,10 @@
         <v>6</v>
       </c>
       <c r="B288">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C288" s="2">
-        <v>2260.77099609375</v>
+        <v>497.81298828125</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3563,10 +3563,10 @@
         <v>6</v>
       </c>
       <c r="B289">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C289" s="2">
-        <v>2360.89599609375</v>
+        <v>532.7769775390625</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3574,10 +3574,10 @@
         <v>6</v>
       </c>
       <c r="B290">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C290" s="2">
-        <v>2286.971923828125</v>
+        <v>517.2769775390625</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3585,10 +3585,10 @@
         <v>6</v>
       </c>
       <c r="B291">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C291" s="2">
-        <v>2297.278076171875</v>
+        <v>498.5329895019531</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3596,10 +3596,10 @@
         <v>6</v>
       </c>
       <c r="B292">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C292" s="2">
-        <v>2327.845947265625</v>
+        <v>419.3619995117188</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3607,10 +3607,10 @@
         <v>6</v>
       </c>
       <c r="B293">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C293" s="2">
-        <v>2397.37109375</v>
+        <v>415.0369873046875</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3618,10 +3618,10 @@
         <v>6</v>
       </c>
       <c r="B294">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C294" s="2">
-        <v>2416.343017578125</v>
+        <v>350.8280029296875</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3629,10 +3629,10 @@
         <v>6</v>
       </c>
       <c r="B295">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C295" s="2">
-        <v>2444.47607421875</v>
+        <v>349.0010070800781</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3640,10 +3640,10 @@
         <v>6</v>
       </c>
       <c r="B296">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C296" s="2">
-        <v>2350.760009765625</v>
+        <v>427.1260070800781</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3651,10 +3651,10 @@
         <v>6</v>
       </c>
       <c r="B297">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C297" s="2">
-        <v>2398.967041015625</v>
+        <v>450.4179992675781</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3662,10 +3662,10 @@
         <v>6</v>
       </c>
       <c r="B298">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C298" s="2">
-        <v>2483.25</v>
+        <v>435.5920104980469</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3673,10 +3673,10 @@
         <v>6</v>
       </c>
       <c r="B299">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C299" s="2">
-        <v>2216.090087890625</v>
+        <v>514.9219970703125</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3684,10 +3684,10 @@
         <v>6</v>
       </c>
       <c r="B300">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C300" s="2">
-        <v>2163.26904296875</v>
+        <v>464.4540100097656</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3695,10 +3695,10 @@
         <v>6</v>
       </c>
       <c r="B301">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C301" s="2">
-        <v>2161.2919921875</v>
+        <v>406.0119934082031</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3706,10 +3706,10 @@
         <v>6</v>
       </c>
       <c r="B302">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C302" s="2">
-        <v>1700.6259765625</v>
+        <v>402.6180114746094</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3717,10 +3717,10 @@
         <v>6</v>
       </c>
       <c r="B303">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C303" s="2">
-        <v>1767.131958007812</v>
+        <v>399.6789855957031</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3728,10 +3728,10 @@
         <v>6</v>
       </c>
       <c r="B304">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C304" s="2">
-        <v>2087.492919921875</v>
+        <v>357.6690063476562</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3739,10 +3739,10 @@
         <v>6</v>
       </c>
       <c r="B305">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C305" s="2">
-        <v>2087.547119140625</v>
+        <v>243.7530059814453</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3750,10 +3750,10 @@
         <v>6</v>
       </c>
       <c r="B306">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C306" s="2">
-        <v>2008.35595703125</v>
+        <v>284.6619873046875</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3761,10 +3761,10 @@
         <v>6</v>
       </c>
       <c r="B307">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C307" s="2">
-        <v>2026.14404296875</v>
+        <v>383.6499938964844</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3772,10 +3772,10 @@
         <v>6</v>
       </c>
       <c r="B308">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C308" s="2">
-        <v>2157.89208984375</v>
+        <v>434.0509948730469</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3783,10 +3783,10 @@
         <v>6</v>
       </c>
       <c r="B309">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C309" s="2">
-        <v>2109.492919921875</v>
+        <v>463.0580139160156</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3794,10 +3794,10 @@
         <v>6</v>
       </c>
       <c r="B310">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C310" s="2">
-        <v>2023.43603515625</v>
+        <v>454.18701171875</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3805,10 +3805,10 @@
         <v>6</v>
       </c>
       <c r="B311">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C311" s="2">
-        <v>1990.307983398438</v>
+        <v>408.8789978027344</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3816,10 +3816,10 @@
         <v>6</v>
       </c>
       <c r="B312">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C312" s="2">
-        <v>1909.22900390625</v>
+        <v>480.39599609375</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3827,10 +3827,10 @@
         <v>6</v>
       </c>
       <c r="B313">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C313" s="2">
-        <v>1893.328002929688</v>
+        <v>599.156005859375</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3838,10 +3838,10 @@
         <v>6</v>
       </c>
       <c r="B314">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C314" s="2">
-        <v>2036.432983398438</v>
+        <v>565.322998046875</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3849,10 +3849,10 @@
         <v>6</v>
       </c>
       <c r="B315">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C315" s="2">
-        <v>2209.74609375</v>
+        <v>639.9130249023438</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3860,10 +3860,10 @@
         <v>6</v>
       </c>
       <c r="B316">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C316" s="2">
-        <v>2126.618896484375</v>
+        <v>910.2009887695312</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -3871,10 +3871,10 @@
         <v>6</v>
       </c>
       <c r="B317">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C317" s="2">
-        <v>2145.889892578125</v>
+        <v>949.427978515625</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -3882,10 +3882,10 @@
         <v>6</v>
       </c>
       <c r="B318">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C318" s="2">
-        <v>2197.697021484375</v>
+        <v>871.260986328125</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -3893,10 +3893,10 @@
         <v>6</v>
       </c>
       <c r="B319">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C319" s="2">
-        <v>2134.35009765625</v>
+        <v>971.5430297851562</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -3904,10 +3904,10 @@
         <v>6</v>
       </c>
       <c r="B320">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C320" s="2">
-        <v>2049.31396484375</v>
+        <v>1228.741943359375</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -3915,10 +3915,10 @@
         <v>6</v>
       </c>
       <c r="B321">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C321" s="2">
-        <v>2087.22607421875</v>
+        <v>1212.767944335938</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -3926,10 +3926,10 @@
         <v>6</v>
       </c>
       <c r="B322">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C322" s="2">
-        <v>2098.806884765625</v>
+        <v>1360.682006835938</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -3937,10 +3937,10 @@
         <v>6</v>
       </c>
       <c r="B323">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C323" s="2">
-        <v>2014.086059570312</v>
+        <v>1399.89599609375</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -3948,10 +3948,10 @@
         <v>6</v>
       </c>
       <c r="B324">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C324" s="2">
-        <v>1795.639038085938</v>
+        <v>1482.991943359375</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -3959,10 +3959,10 @@
         <v>6</v>
       </c>
       <c r="B325">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C325" s="2">
-        <v>1810.785034179688</v>
+        <v>1420.220947265625</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -3970,10 +3970,10 @@
         <v>6</v>
       </c>
       <c r="B326">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C326" s="2">
-        <v>1765.984008789062</v>
+        <v>1355.342041015625</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -3981,10 +3981,10 @@
         <v>6</v>
       </c>
       <c r="B327">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C327" s="2">
-        <v>1723.223022460938</v>
+        <v>1349.89599609375</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -3992,10 +3992,10 @@
         <v>6</v>
       </c>
       <c r="B328">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C328" s="2">
-        <v>1705.109985351562</v>
+        <v>1218.381958007812</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -4003,10 +4003,10 @@
         <v>6</v>
       </c>
       <c r="B329">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C329" s="2">
-        <v>1678.31298828125</v>
+        <v>1206.262939453125</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -4014,10 +4014,10 @@
         <v>6</v>
       </c>
       <c r="B330">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C330" s="2">
-        <v>1576.4580078125</v>
+        <v>1029.586059570312</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4025,10 +4025,10 @@
         <v>6</v>
       </c>
       <c r="B331">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C331" s="2">
-        <v>1486.5849609375</v>
+        <v>1050.60498046875</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4036,10 +4036,10 @@
         <v>6</v>
       </c>
       <c r="B332">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C332" s="2">
-        <v>1484.161987304688</v>
+        <v>1095.858032226562</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4047,10 +4047,10 @@
         <v>6</v>
       </c>
       <c r="B333">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C333" s="2">
-        <v>1325.98095703125</v>
+        <v>1015.820007324219</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4058,10 +4058,10 @@
         <v>6</v>
       </c>
       <c r="B334">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C334" s="2">
-        <v>1355.202026367188</v>
+        <v>1008.817016601562</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4069,10 +4069,10 @@
         <v>6</v>
       </c>
       <c r="B335">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C335" s="2">
-        <v>1261.681030273438</v>
+        <v>939.9869995117188</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4080,10 +4080,10 @@
         <v>6</v>
       </c>
       <c r="B336">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C336" s="2">
-        <v>1269.261962890625</v>
+        <v>977.14501953125</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4091,10 +4091,10 @@
         <v>6</v>
       </c>
       <c r="B337">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="C337" s="2">
-        <v>1145.3759765625</v>
+        <v>899.7219848632812</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4102,10 +4102,10 @@
         <v>6</v>
       </c>
       <c r="B338">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C338" s="2">
-        <v>1174.093994140625</v>
+        <v>904.3510131835938</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4113,208 +4113,208 @@
         <v>6</v>
       </c>
       <c r="B339">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C339" s="2">
-        <v>1247.201049804688</v>
+        <v>968.7620239257812</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B340">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="C340" s="2">
-        <v>1404.431030273438</v>
+        <v>1163.251953125</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B341">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="C341" s="2">
-        <v>1436.505004882812</v>
+        <v>1102.193969726562</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B342">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="C342" s="2">
-        <v>1422.952026367188</v>
+        <v>1321.928955078125</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B343">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="C343" s="2">
-        <v>1403.154052734375</v>
+        <v>1347.649047851562</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B344">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="C344" s="2">
-        <v>1436.302001953125</v>
+        <v>1014.799987792969</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B345">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="C345" s="2">
-        <v>1410.213989257812</v>
+        <v>813.4249877929688</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B346">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="C346" s="2">
-        <v>1493.366943359375</v>
+        <v>686.4879760742188</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B347">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="C347" s="2">
-        <v>1487.748046875</v>
+        <v>703.8460083007812</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B348">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="C348" s="2">
-        <v>1080.364013671875</v>
+        <v>593.5079956054688</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B349">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="C349" s="2">
-        <v>1015.9990234375</v>
+        <v>546.3469848632812</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B350">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="C350" s="2">
-        <v>870.7969970703125</v>
+        <v>550.0430297851562</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B351">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="C351" s="2">
-        <v>850.3720092773438</v>
+        <v>516.968017578125</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B352">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="C352" s="2">
-        <v>838.1309814453125</v>
+        <v>577.2680053710938</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B353">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="C353" s="2">
-        <v>743.1420288085938</v>
+        <v>678.8729858398438</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B354">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="C354" s="2">
-        <v>770.4310302734375</v>
+        <v>674.1890258789062</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B355">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="C355" s="2">
-        <v>757.6900024414062</v>
+        <v>817.885009765625</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B356">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="C356" s="2">
-        <v>782.552001953125</v>
+        <v>626.2630004882812</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B357">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="C357" s="2">
-        <v>797.364990234375</v>
+        <v>543.8289794921875</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -4322,10 +4322,10 @@
         <v>7</v>
       </c>
       <c r="B358">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C358" s="2">
-        <v>788.2119750976562</v>
+        <v>416.9389953613281</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4333,10 +4333,10 @@
         <v>7</v>
       </c>
       <c r="B359">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C359" s="2">
-        <v>782.0339965820312</v>
+        <v>556.906982421875</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4344,10 +4344,10 @@
         <v>7</v>
       </c>
       <c r="B360">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C360" s="2">
-        <v>836.4539794921875</v>
+        <v>613.7789916992188</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4355,10 +4355,10 @@
         <v>7</v>
       </c>
       <c r="B361">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C361" s="2">
-        <v>873.5960083007812</v>
+        <v>630.3660278320312</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4366,10 +4366,10 @@
         <v>7</v>
       </c>
       <c r="B362">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C362" s="2">
-        <v>818.5239868164062</v>
+        <v>625.8889770507812</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4377,10 +4377,10 @@
         <v>7</v>
       </c>
       <c r="B363">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C363" s="2">
-        <v>808.0050048828125</v>
+        <v>626.9149780273438</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4388,10 +4388,10 @@
         <v>7</v>
       </c>
       <c r="B364">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C364" s="2">
-        <v>879.7890014648438</v>
+        <v>781.2269897460938</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4399,10 +4399,10 @@
         <v>7</v>
       </c>
       <c r="B365">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C365" s="2">
-        <v>833.7830200195312</v>
+        <v>862.1909790039062</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4410,10 +4410,10 @@
         <v>7</v>
       </c>
       <c r="B366">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C366" s="2">
-        <v>831.5040283203125</v>
+        <v>795.6829833984375</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -4421,10 +4421,10 @@
         <v>7</v>
       </c>
       <c r="B367">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C367" s="2">
-        <v>855.0700073242188</v>
+        <v>800.8170166015625</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -4432,10 +4432,10 @@
         <v>7</v>
       </c>
       <c r="B368">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C368" s="2">
-        <v>701.5780029296875</v>
+        <v>722.4730224609375</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4443,10 +4443,10 @@
         <v>7</v>
       </c>
       <c r="B369">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C369" s="2">
-        <v>676.2999877929688</v>
+        <v>778.0230102539062</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -4454,10 +4454,10 @@
         <v>7</v>
       </c>
       <c r="B370">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C370" s="2">
-        <v>698.4509887695312</v>
+        <v>847.1400146484375</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -4465,10 +4465,10 @@
         <v>7</v>
       </c>
       <c r="B371">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C371" s="2">
-        <v>728.6859741210938</v>
+        <v>939.947998046875</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -4476,10 +4476,10 @@
         <v>7</v>
       </c>
       <c r="B372">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C372" s="2">
-        <v>676.7219848632812</v>
+        <v>733.8179931640625</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -4487,10 +4487,10 @@
         <v>7</v>
       </c>
       <c r="B373">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C373" s="2">
-        <v>737.5020141601562</v>
+        <v>689.9340209960938</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4498,10 +4498,10 @@
         <v>7</v>
       </c>
       <c r="B374">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C374" s="2">
-        <v>777.718017578125</v>
+        <v>378.8670043945312</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4509,10 +4509,10 @@
         <v>7</v>
       </c>
       <c r="B375">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C375" s="2">
-        <v>825.3099975585938</v>
+        <v>420.1759948730469</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4520,10 +4520,10 @@
         <v>7</v>
       </c>
       <c r="B376">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C376" s="2">
-        <v>851.1619873046875</v>
+        <v>359.1669921875</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -4531,10 +4531,10 @@
         <v>7</v>
       </c>
       <c r="B377">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C377" s="2">
-        <v>931.6580200195312</v>
+        <v>450.5239868164062</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -4542,10 +4542,10 @@
         <v>7</v>
       </c>
       <c r="B378">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C378" s="2">
-        <v>970.2020263671875</v>
+        <v>268.1520080566406</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -4553,10 +4553,10 @@
         <v>7</v>
       </c>
       <c r="B379">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C379" s="2">
-        <v>984.9669799804688</v>
+        <v>168.0010070800781</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -4564,10 +4564,10 @@
         <v>7</v>
       </c>
       <c r="B380">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C380" s="2">
-        <v>985.302978515625</v>
+        <v>120.4629974365234</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4575,10 +4575,10 @@
         <v>7</v>
       </c>
       <c r="B381">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C381" s="2">
-        <v>952.7940063476562</v>
+        <v>168.4239959716797</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4586,10 +4586,10 @@
         <v>7</v>
       </c>
       <c r="B382">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C382" s="2">
-        <v>1072.927001953125</v>
+        <v>157.1490020751953</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4597,10 +4597,10 @@
         <v>7</v>
       </c>
       <c r="B383">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C383" s="2">
-        <v>1012.927001953125</v>
+        <v>258.9660034179688</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4608,10 +4608,10 @@
         <v>7</v>
       </c>
       <c r="B384">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C384" s="2">
-        <v>1284.279052734375</v>
+        <v>306.6910095214844</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -4619,10 +4619,10 @@
         <v>7</v>
       </c>
       <c r="B385">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C385" s="2">
-        <v>1288.614013671875</v>
+        <v>347.635009765625</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -4630,10 +4630,10 @@
         <v>7</v>
       </c>
       <c r="B386">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C386" s="2">
-        <v>1423.609985351562</v>
+        <v>304.9289855957031</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -4641,10 +4641,10 @@
         <v>7</v>
       </c>
       <c r="B387">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C387" s="2">
-        <v>1438.81201171875</v>
+        <v>465.3779907226562</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -4652,10 +4652,10 @@
         <v>7</v>
       </c>
       <c r="B388">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C388" s="2">
-        <v>1486.474975585938</v>
+        <v>590.4140014648438</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4663,10 +4663,10 @@
         <v>7</v>
       </c>
       <c r="B389">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C389" s="2">
-        <v>1510.717041015625</v>
+        <v>869.10498046875</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -4674,10 +4674,10 @@
         <v>7</v>
       </c>
       <c r="B390">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C390" s="2">
-        <v>1489.785034179688</v>
+        <v>726.3499755859375</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -4685,10 +4685,10 @@
         <v>7</v>
       </c>
       <c r="B391">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C391" s="2">
-        <v>1440.535034179688</v>
+        <v>738.7949829101562</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4696,10 +4696,10 @@
         <v>7</v>
       </c>
       <c r="B392">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C392" s="2">
-        <v>1447.349975585938</v>
+        <v>658.0989990234375</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -4707,10 +4707,10 @@
         <v>7</v>
       </c>
       <c r="B393">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C393" s="2">
-        <v>1384.517944335938</v>
+        <v>834.5490112304688</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -4718,10 +4718,10 @@
         <v>7</v>
       </c>
       <c r="B394">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C394" s="2">
-        <v>1551.261962890625</v>
+        <v>888.947998046875</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -4729,10 +4729,10 @@
         <v>7</v>
       </c>
       <c r="B395">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C395" s="2">
-        <v>1437.829956054688</v>
+        <v>1186.364013671875</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -4740,10 +4740,10 @@
         <v>7</v>
       </c>
       <c r="B396">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C396" s="2">
-        <v>1526.68603515625</v>
+        <v>1614.692993164062</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -4751,10 +4751,10 @@
         <v>7</v>
       </c>
       <c r="B397">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C397" s="2">
-        <v>1665.56494140625</v>
+        <v>1637.557983398438</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -4762,10 +4762,10 @@
         <v>7</v>
       </c>
       <c r="B398">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C398" s="2">
-        <v>1710.10302734375</v>
+        <v>1725.822998046875</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -4773,10 +4773,10 @@
         <v>7</v>
       </c>
       <c r="B399">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C399" s="2">
-        <v>1755.797973632812</v>
+        <v>1939.526977539062</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -4784,10 +4784,10 @@
         <v>7</v>
       </c>
       <c r="B400">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C400" s="2">
-        <v>1640.615966796875</v>
+        <v>2079.44189453125</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -4795,10 +4795,10 @@
         <v>7</v>
       </c>
       <c r="B401">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C401" s="2">
-        <v>1680.890014648438</v>
+        <v>2107.93701171875</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -4806,10 +4806,10 @@
         <v>7</v>
       </c>
       <c r="B402">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C402" s="2">
-        <v>1830.5</v>
+        <v>2167.490966796875</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -4817,10 +4817,10 @@
         <v>7</v>
       </c>
       <c r="B403">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C403" s="2">
-        <v>1917.5439453125</v>
+        <v>2224.9140625</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -4828,10 +4828,10 @@
         <v>7</v>
       </c>
       <c r="B404">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C404" s="2">
-        <v>1922.550048828125</v>
+        <v>2169.9140625</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -4839,10 +4839,10 @@
         <v>7</v>
       </c>
       <c r="B405">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C405" s="2">
-        <v>1903.10205078125</v>
+        <v>2042.885986328125</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -4850,10 +4850,10 @@
         <v>7</v>
       </c>
       <c r="B406">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C406" s="2">
-        <v>1985.843994140625</v>
+        <v>2068.827880859375</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -4861,10 +4861,10 @@
         <v>7</v>
       </c>
       <c r="B407">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C407" s="2">
-        <v>1976.666015625</v>
+        <v>2010.241943359375</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -4872,10 +4872,10 @@
         <v>7</v>
       </c>
       <c r="B408">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C408" s="2">
-        <v>1979.328979492188</v>
+        <v>2115.51611328125</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -4883,10 +4883,10 @@
         <v>7</v>
       </c>
       <c r="B409">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C409" s="2">
-        <v>1918.323974609375</v>
+        <v>2253.883056640625</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -4894,10 +4894,10 @@
         <v>7</v>
       </c>
       <c r="B410">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C410" s="2">
-        <v>1735.93603515625</v>
+        <v>2275.572021484375</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -4905,10 +4905,10 @@
         <v>7</v>
       </c>
       <c r="B411">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C411" s="2">
-        <v>1385.858032226562</v>
+        <v>2163.64404296875</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -4916,10 +4916,10 @@
         <v>7</v>
       </c>
       <c r="B412">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C412" s="2">
-        <v>1221.077026367188</v>
+        <v>2128.56103515625</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -4927,10 +4927,10 @@
         <v>7</v>
       </c>
       <c r="B413">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C413" s="2">
-        <v>1144.211059570312</v>
+        <v>2106.337890625</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -4938,10 +4938,10 @@
         <v>7</v>
       </c>
       <c r="B414">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C414" s="2">
-        <v>1107.057983398438</v>
+        <v>2136.174072265625</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -4949,10 +4949,10 @@
         <v>7</v>
       </c>
       <c r="B415">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C415" s="2">
-        <v>1115.192016601562</v>
+        <v>2096.118896484375</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -4960,10 +4960,10 @@
         <v>7</v>
       </c>
       <c r="B416">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C416" s="2">
-        <v>1079.848022460938</v>
+        <v>2213.208984375</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -4971,10 +4971,10 @@
         <v>7</v>
       </c>
       <c r="B417">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C417" s="2">
-        <v>1084.130981445312</v>
+        <v>2191.073974609375</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -4982,10 +4982,10 @@
         <v>7</v>
       </c>
       <c r="B418">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C418" s="2">
-        <v>1139.197998046875</v>
+        <v>2197.277099609375</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -4993,10 +4993,10 @@
         <v>7</v>
       </c>
       <c r="B419">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C419" s="2">
-        <v>1231.391967773438</v>
+        <v>2185.8369140625</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -5004,10 +5004,10 @@
         <v>7</v>
       </c>
       <c r="B420">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C420" s="2">
-        <v>1311.282958984375</v>
+        <v>2167.51708984375</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -5015,10 +5015,10 @@
         <v>7</v>
       </c>
       <c r="B421">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C421" s="2">
-        <v>1178.071044921875</v>
+        <v>2417.93505859375</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -5026,10 +5026,10 @@
         <v>7</v>
       </c>
       <c r="B422">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C422" s="2">
-        <v>1047.01904296875</v>
+        <v>2394.947021484375</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -5037,10 +5037,10 @@
         <v>7</v>
       </c>
       <c r="B423">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C423" s="2">
-        <v>976.1740112304688</v>
+        <v>2386.97705078125</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -5048,10 +5048,10 @@
         <v>7</v>
       </c>
       <c r="B424">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C424" s="2">
-        <v>954.56201171875</v>
+        <v>2427.952880859375</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -5059,10 +5059,10 @@
         <v>7</v>
       </c>
       <c r="B425">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C425" s="2">
-        <v>1063.524047851562</v>
+        <v>2493.323974609375</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -5070,10 +5070,10 @@
         <v>7</v>
       </c>
       <c r="B426">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C426" s="2">
-        <v>1055.4580078125</v>
+        <v>2505.85009765625</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -5081,10 +5081,10 @@
         <v>7</v>
       </c>
       <c r="B427">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C427" s="2">
-        <v>1180.996948242188</v>
+        <v>2550.998046875</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -5092,10 +5092,10 @@
         <v>7</v>
       </c>
       <c r="B428">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C428" s="2">
-        <v>1091.003051757812</v>
+        <v>2554.554931640625</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -5103,10 +5103,10 @@
         <v>7</v>
       </c>
       <c r="B429">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C429" s="2">
-        <v>1017.9990234375</v>
+        <v>2425.447998046875</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -5114,10 +5114,10 @@
         <v>7</v>
       </c>
       <c r="B430">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C430" s="2">
-        <v>783.6530151367188</v>
+        <v>2388.697998046875</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -5125,10 +5125,10 @@
         <v>7</v>
       </c>
       <c r="B431">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C431" s="2">
-        <v>820.0479736328125</v>
+        <v>2405.094970703125</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -5136,10 +5136,10 @@
         <v>7</v>
       </c>
       <c r="B432">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C432" s="2">
-        <v>1023.536987304688</v>
+        <v>2430.47412109375</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -5147,10 +5147,10 @@
         <v>7</v>
       </c>
       <c r="B433">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="C433" s="2">
-        <v>933.802978515625</v>
+        <v>2465.635986328125</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -5158,10 +5158,10 @@
         <v>7</v>
       </c>
       <c r="B434">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C434" s="2">
-        <v>1153.7509765625</v>
+        <v>2465.035888671875</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -5169,208 +5169,208 @@
         <v>7</v>
       </c>
       <c r="B435">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C435" s="2">
-        <v>1191.491943359375</v>
+        <v>2449.591064453125</v>
       </c>
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B436">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="C436" s="2">
-        <v>1327.920043945312</v>
+        <v>2451.93994140625</v>
       </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B437">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="C437" s="2">
-        <v>1296.712036132812</v>
+        <v>2467.35400390625</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B438">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="C438" s="2">
-        <v>1235.550048828125</v>
+        <v>2415.986083984375</v>
       </c>
     </row>
     <row r="439" spans="1:3">
       <c r="A439" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B439">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="C439" s="2">
-        <v>1127.583984375</v>
+        <v>2424.99609375</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B440">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="C440" s="2">
-        <v>1017.427978515625</v>
+        <v>2425.916015625</v>
       </c>
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B441">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="C441" s="2">
-        <v>995.166015625</v>
+        <v>2408.693115234375</v>
       </c>
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B442">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="C442" s="2">
-        <v>1010.763977050781</v>
+        <v>2413.657958984375</v>
       </c>
     </row>
     <row r="443" spans="1:3">
       <c r="A443" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B443">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="C443" s="2">
-        <v>909.1740112304688</v>
+        <v>2405.031982421875</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B444">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="C444" s="2">
-        <v>1085.072021484375</v>
+        <v>2424.801025390625</v>
       </c>
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B445">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="C445" s="2">
-        <v>1100.5400390625</v>
+        <v>2430.5419921875</v>
       </c>
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B446">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="C446" s="2">
-        <v>1152.654052734375</v>
+        <v>2425.715087890625</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B447">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="C447" s="2">
-        <v>1193.267944335938</v>
+        <v>2451.152099609375</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B448">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="C448" s="2">
-        <v>1220.364013671875</v>
+        <v>2435.969970703125</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B449">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="C449" s="2">
-        <v>1241.487060546875</v>
+        <v>2433.2119140625</v>
       </c>
     </row>
     <row r="450" spans="1:3">
       <c r="A450" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B450">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="C450" s="2">
-        <v>1298.14697265625</v>
+        <v>2397.714111328125</v>
       </c>
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B451">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="C451" s="2">
-        <v>1332.302978515625</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="452" spans="1:3">
       <c r="A452" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B452">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="C452" s="2">
-        <v>1417.5849609375</v>
+        <v>2470.486083984375</v>
       </c>
     </row>
     <row r="453" spans="1:3">
       <c r="A453" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B453">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="C453" s="2">
-        <v>1312.573974609375</v>
+        <v>2472.27392578125</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -5378,10 +5378,10 @@
         <v>8</v>
       </c>
       <c r="B454">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C454" s="2">
-        <v>1172.18603515625</v>
+        <v>2680.073974609375</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -5389,10 +5389,10 @@
         <v>8</v>
       </c>
       <c r="B455">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C455" s="2">
-        <v>1100.011962890625</v>
+        <v>2669.068115234375</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -5400,10 +5400,10 @@
         <v>8</v>
       </c>
       <c r="B456">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C456" s="2">
-        <v>1015.385986328125</v>
+        <v>2663.715087890625</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -5411,10 +5411,10 @@
         <v>8</v>
       </c>
       <c r="B457">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C457" s="2">
-        <v>1105.83203125</v>
+        <v>2648.75390625</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -5422,10 +5422,10 @@
         <v>8</v>
       </c>
       <c r="B458">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C458" s="2">
-        <v>1081.538940429688</v>
+        <v>2656.97607421875</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -5433,10 +5433,10 @@
         <v>8</v>
       </c>
       <c r="B459">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C459" s="2">
-        <v>1018.455017089844</v>
+        <v>2643.416015625</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -5444,10 +5444,10 @@
         <v>8</v>
       </c>
       <c r="B460">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C460" s="2">
-        <v>1044.010986328125</v>
+        <v>2669.39990234375</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -5455,10 +5455,10 @@
         <v>8</v>
       </c>
       <c r="B461">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C461" s="2">
-        <v>977.281005859375</v>
+        <v>2668.055908203125</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -5466,10 +5466,10 @@
         <v>8</v>
       </c>
       <c r="B462">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C462" s="2">
-        <v>861.4329833984375</v>
+        <v>2621.701904296875</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -5477,10 +5477,10 @@
         <v>8</v>
       </c>
       <c r="B463">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C463" s="2">
-        <v>941.968017578125</v>
+        <v>2619.070068359375</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -5488,10 +5488,10 @@
         <v>8</v>
       </c>
       <c r="B464">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C464" s="2">
-        <v>945.8759765625</v>
+        <v>2570.2041015625</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -5499,10 +5499,10 @@
         <v>8</v>
       </c>
       <c r="B465">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C465" s="2">
-        <v>894.635009765625</v>
+        <v>2548.51611328125</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -5510,10 +5510,10 @@
         <v>8</v>
       </c>
       <c r="B466">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C466" s="2">
-        <v>903.5560302734375</v>
+        <v>2556.35400390625</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -5521,10 +5521,10 @@
         <v>8</v>
       </c>
       <c r="B467">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C467" s="2">
-        <v>661.64501953125</v>
+        <v>2568.77099609375</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -5532,10 +5532,10 @@
         <v>8</v>
       </c>
       <c r="B468">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C468" s="2">
-        <v>663.6220092773438</v>
+        <v>2567.39111328125</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -5543,10 +5543,10 @@
         <v>8</v>
       </c>
       <c r="B469">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C469" s="2">
-        <v>730.9030151367188</v>
+        <v>2541.4951171875</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -5554,10 +5554,10 @@
         <v>8</v>
       </c>
       <c r="B470">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C470" s="2">
-        <v>765.3759765625</v>
+        <v>2552.60400390625</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -5565,10 +5565,10 @@
         <v>8</v>
       </c>
       <c r="B471">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C471" s="2">
-        <v>798.6740112304688</v>
+        <v>2522.616943359375</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -5576,10 +5576,10 @@
         <v>8</v>
       </c>
       <c r="B472">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C472" s="2">
-        <v>790.2210083007812</v>
+        <v>2524.736083984375</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -5587,10 +5587,10 @@
         <v>8</v>
       </c>
       <c r="B473">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C473" s="2">
-        <v>634.27197265625</v>
+        <v>2508.912109375</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -5598,10 +5598,10 @@
         <v>8</v>
       </c>
       <c r="B474">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C474" s="2">
-        <v>387.5880126953125</v>
+        <v>2460.8310546875</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -5609,10 +5609,10 @@
         <v>8</v>
       </c>
       <c r="B475">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C475" s="2">
-        <v>554.8060302734375</v>
+        <v>2488.116943359375</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -5620,10 +5620,10 @@
         <v>8</v>
       </c>
       <c r="B476">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C476" s="2">
-        <v>484.9389953613281</v>
+        <v>2363.0380859375</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -5631,10 +5631,10 @@
         <v>8</v>
       </c>
       <c r="B477">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C477" s="2">
-        <v>475.4330139160156</v>
+        <v>2380.6630859375</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -5642,10 +5642,10 @@
         <v>8</v>
       </c>
       <c r="B478">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C478" s="2">
-        <v>532.8170166015625</v>
+        <v>2179.778076171875</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -5653,10 +5653,10 @@
         <v>8</v>
       </c>
       <c r="B479">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C479" s="2">
-        <v>611.1010131835938</v>
+        <v>2146.132080078125</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -5664,10 +5664,10 @@
         <v>8</v>
       </c>
       <c r="B480">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C480" s="2">
-        <v>525.8709716796875</v>
+        <v>2003.741943359375</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -5675,10 +5675,10 @@
         <v>8</v>
       </c>
       <c r="B481">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C481" s="2">
-        <v>732.0770263671875</v>
+        <v>1857.26904296875</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -5686,10 +5686,10 @@
         <v>8</v>
       </c>
       <c r="B482">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C482" s="2">
-        <v>791.7839965820312</v>
+        <v>1752.7099609375</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -5697,10 +5697,10 @@
         <v>8</v>
       </c>
       <c r="B483">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C483" s="2">
-        <v>810.3820190429688</v>
+        <v>1747.651977539062</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -5708,10 +5708,10 @@
         <v>8</v>
       </c>
       <c r="B484">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C484" s="2">
-        <v>950.0239868164062</v>
+        <v>1686.899047851562</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -5719,10 +5719,10 @@
         <v>8</v>
       </c>
       <c r="B485">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C485" s="2">
-        <v>908.64501953125</v>
+        <v>1243.52197265625</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -5730,10 +5730,10 @@
         <v>8</v>
       </c>
       <c r="B486">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C486" s="2">
-        <v>940.6279907226562</v>
+        <v>1070.66796875</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -5741,10 +5741,10 @@
         <v>8</v>
       </c>
       <c r="B487">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C487" s="2">
-        <v>1009.450988769531</v>
+        <v>779.6900024414062</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -5752,10 +5752,10 @@
         <v>8</v>
       </c>
       <c r="B488">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C488" s="2">
-        <v>1125.678955078125</v>
+        <v>770.0150146484375</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -5763,10 +5763,10 @@
         <v>8</v>
       </c>
       <c r="B489">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C489" s="2">
-        <v>1402.22998046875</v>
+        <v>689.0280151367188</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -5774,10 +5774,10 @@
         <v>8</v>
       </c>
       <c r="B490">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C490" s="2">
-        <v>1196.484008789062</v>
+        <v>707.5609741210938</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -5785,10 +5785,10 @@
         <v>8</v>
       </c>
       <c r="B491">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C491" s="2">
-        <v>974.1599731445312</v>
+        <v>449.4129943847656</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -5796,10 +5796,10 @@
         <v>8</v>
       </c>
       <c r="B492">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C492" s="2">
-        <v>959.8599853515625</v>
+        <v>284.927001953125</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -5807,10 +5807,10 @@
         <v>8</v>
       </c>
       <c r="B493">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C493" s="2">
-        <v>926.4420166015625</v>
+        <v>199.3990020751953</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -5818,10 +5818,10 @@
         <v>8</v>
       </c>
       <c r="B494">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C494" s="2">
-        <v>876.1170043945312</v>
+        <v>167.6390075683594</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -5829,10 +5829,10 @@
         <v>8</v>
       </c>
       <c r="B495">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C495" s="2">
-        <v>766.7050170898438</v>
+        <v>108.838996887207</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -5840,10 +5840,10 @@
         <v>8</v>
       </c>
       <c r="B496">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C496" s="2">
-        <v>796.0399780273438</v>
+        <v>130.6799926757812</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -5851,10 +5851,10 @@
         <v>8</v>
       </c>
       <c r="B497">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C497" s="2">
-        <v>770.3920288085938</v>
+        <v>157.5989990234375</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -5862,10 +5862,10 @@
         <v>8</v>
       </c>
       <c r="B498">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C498" s="2">
-        <v>802.1480102539062</v>
+        <v>230.9739990234375</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -5873,10 +5873,10 @@
         <v>8</v>
       </c>
       <c r="B499">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C499" s="2">
-        <v>848.7030029296875</v>
+        <v>90.04299926757812</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -5884,10 +5884,10 @@
         <v>8</v>
       </c>
       <c r="B500">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C500" s="2">
-        <v>852.9860229492188</v>
+        <v>110.2990036010742</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -5895,10 +5895,10 @@
         <v>8</v>
       </c>
       <c r="B501">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C501" s="2">
-        <v>787.3770141601562</v>
+        <v>166.3139953613281</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -5906,10 +5906,10 @@
         <v>8</v>
       </c>
       <c r="B502">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C502" s="2">
-        <v>890.5540161132812</v>
+        <v>141.572998046875</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -5917,10 +5917,10 @@
         <v>8</v>
       </c>
       <c r="B503">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C503" s="2">
-        <v>1085.578979492188</v>
+        <v>308.6570129394531</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -5928,10 +5928,10 @@
         <v>8</v>
       </c>
       <c r="B504">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C504" s="2">
-        <v>1069.324951171875</v>
+        <v>451.0780029296875</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -5939,10 +5939,10 @@
         <v>8</v>
       </c>
       <c r="B505">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C505" s="2">
-        <v>1039.041015625</v>
+        <v>451.7229919433594</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -5950,10 +5950,10 @@
         <v>8</v>
       </c>
       <c r="B506">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C506" s="2">
-        <v>1078.262939453125</v>
+        <v>528.5419921875</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -5961,10 +5961,10 @@
         <v>8</v>
       </c>
       <c r="B507">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C507" s="2">
-        <v>1137.508056640625</v>
+        <v>480.489990234375</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -5972,10 +5972,10 @@
         <v>8</v>
       </c>
       <c r="B508">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C508" s="2">
-        <v>1278.246948242188</v>
+        <v>452.1940002441406</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -5983,10 +5983,10 @@
         <v>8</v>
       </c>
       <c r="B509">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C509" s="2">
-        <v>1326.067993164062</v>
+        <v>392.9540100097656</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -5994,10 +5994,10 @@
         <v>8</v>
       </c>
       <c r="B510">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C510" s="2">
-        <v>1160.969970703125</v>
+        <v>297.9949951171875</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -6005,10 +6005,10 @@
         <v>8</v>
       </c>
       <c r="B511">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C511" s="2">
-        <v>1244.399047851562</v>
+        <v>418.0769958496094</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -6016,10 +6016,10 @@
         <v>8</v>
       </c>
       <c r="B512">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C512" s="2">
-        <v>1342</v>
+        <v>513.8809814453125</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -6027,10 +6027,10 @@
         <v>8</v>
       </c>
       <c r="B513">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C513" s="2">
-        <v>1363.81005859375</v>
+        <v>582.530029296875</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -6038,10 +6038,10 @@
         <v>8</v>
       </c>
       <c r="B514">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C514" s="2">
-        <v>1341.326049804688</v>
+        <v>659.3289794921875</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -6049,10 +6049,10 @@
         <v>8</v>
       </c>
       <c r="B515">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C515" s="2">
-        <v>1323.400024414062</v>
+        <v>751.7239990234375</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -6060,10 +6060,10 @@
         <v>8</v>
       </c>
       <c r="B516">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C516" s="2">
-        <v>1292.4169921875</v>
+        <v>914.6259765625</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -6071,10 +6071,10 @@
         <v>8</v>
       </c>
       <c r="B517">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C517" s="2">
-        <v>1208.2099609375</v>
+        <v>918.6920166015625</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -6082,10 +6082,10 @@
         <v>8</v>
       </c>
       <c r="B518">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C518" s="2">
-        <v>1192.405029296875</v>
+        <v>726.3560180664062</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -6093,10 +6093,10 @@
         <v>8</v>
       </c>
       <c r="B519">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C519" s="2">
-        <v>1189.546997070312</v>
+        <v>957.5919799804688</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -6104,10 +6104,10 @@
         <v>8</v>
       </c>
       <c r="B520">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C520" s="2">
-        <v>1229.027954101562</v>
+        <v>940.0650024414062</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -6115,10 +6115,10 @@
         <v>8</v>
       </c>
       <c r="B521">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C521" s="2">
-        <v>1224.880004882812</v>
+        <v>923.6170043945312</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -6126,10 +6126,10 @@
         <v>8</v>
       </c>
       <c r="B522">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C522" s="2">
-        <v>1189.85498046875</v>
+        <v>1033.586059570312</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -6137,10 +6137,10 @@
         <v>8</v>
       </c>
       <c r="B523">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C523" s="2">
-        <v>1169.676025390625</v>
+        <v>1064.369995117188</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -6148,10 +6148,10 @@
         <v>8</v>
       </c>
       <c r="B524">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C524" s="2">
-        <v>1170.807006835938</v>
+        <v>1097.472045898438</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -6159,10 +6159,10 @@
         <v>8</v>
       </c>
       <c r="B525">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C525" s="2">
-        <v>1045.844970703125</v>
+        <v>1117.123046875</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -6170,10 +6170,10 @@
         <v>8</v>
       </c>
       <c r="B526">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C526" s="2">
-        <v>1136.713989257812</v>
+        <v>1050.620971679688</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -6181,10 +6181,10 @@
         <v>8</v>
       </c>
       <c r="B527">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C527" s="2">
-        <v>1134.282958984375</v>
+        <v>1103.546020507812</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -6192,10 +6192,10 @@
         <v>8</v>
       </c>
       <c r="B528">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C528" s="2">
-        <v>1162.557983398438</v>
+        <v>1115.011962890625</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -6203,10 +6203,10 @@
         <v>8</v>
       </c>
       <c r="B529">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="C529" s="2">
-        <v>1197.10498046875</v>
+        <v>1100.487060546875</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -6214,10 +6214,10 @@
         <v>8</v>
       </c>
       <c r="B530">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C530" s="2">
-        <v>1164.421020507812</v>
+        <v>1177.35595703125</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -6225,208 +6225,208 @@
         <v>8</v>
       </c>
       <c r="B531">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C531" s="2">
-        <v>1089.723022460938</v>
+        <v>1224.128051757812</v>
       </c>
     </row>
     <row r="532" spans="1:3">
       <c r="A532" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B532">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="C532" s="2">
-        <v>1113.02197265625</v>
+        <v>1158.267944335938</v>
       </c>
     </row>
     <row r="533" spans="1:3">
       <c r="A533" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B533">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="C533" s="2">
-        <v>1043.925048828125</v>
+        <v>1154.322021484375</v>
       </c>
     </row>
     <row r="534" spans="1:3">
       <c r="A534" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B534">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="C534" s="2">
-        <v>1094.203002929688</v>
+        <v>1125.989013671875</v>
       </c>
     </row>
     <row r="535" spans="1:3">
       <c r="A535" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B535">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="C535" s="2">
-        <v>1034.649047851562</v>
+        <v>1123.052001953125</v>
       </c>
     </row>
     <row r="536" spans="1:3">
       <c r="A536" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B536">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="C536" s="2">
-        <v>1032.85595703125</v>
+        <v>1103.089965820312</v>
       </c>
     </row>
     <row r="537" spans="1:3">
       <c r="A537" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B537">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="C537" s="2">
-        <v>1060.864990234375</v>
+        <v>1116.5400390625</v>
       </c>
     </row>
     <row r="538" spans="1:3">
       <c r="A538" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B538">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="C538" s="2">
-        <v>1073.0439453125</v>
+        <v>1060.410034179688</v>
       </c>
     </row>
     <row r="539" spans="1:3">
       <c r="A539" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B539">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="C539" s="2">
-        <v>1099.212036132812</v>
+        <v>1048.10498046875</v>
       </c>
     </row>
     <row r="540" spans="1:3">
       <c r="A540" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B540">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="C540" s="2">
-        <v>1021.994995117188</v>
+        <v>989.5670166015625</v>
       </c>
     </row>
     <row r="541" spans="1:3">
       <c r="A541" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B541">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="C541" s="2">
-        <v>1076.448974609375</v>
+        <v>991.5260009765625</v>
       </c>
     </row>
     <row r="542" spans="1:3">
       <c r="A542" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B542">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="C542" s="2">
-        <v>938.594970703125</v>
+        <v>992.9030151367188</v>
       </c>
     </row>
     <row r="543" spans="1:3">
       <c r="A543" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B543">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="C543" s="2">
-        <v>943.375</v>
+        <v>965.8510131835938</v>
       </c>
     </row>
     <row r="544" spans="1:3">
       <c r="A544" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B544">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="C544" s="2">
-        <v>989.906982421875</v>
+        <v>915.530029296875</v>
       </c>
     </row>
     <row r="545" spans="1:3">
       <c r="A545" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B545">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="C545" s="2">
-        <v>1157.066040039062</v>
+        <v>924.051025390625</v>
       </c>
     </row>
     <row r="546" spans="1:3">
       <c r="A546" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B546">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="C546" s="2">
-        <v>1175.887939453125</v>
+        <v>969.1160278320312</v>
       </c>
     </row>
     <row r="547" spans="1:3">
       <c r="A547" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B547">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="C547" s="2">
-        <v>1222.927001953125</v>
+        <v>922.31201171875</v>
       </c>
     </row>
     <row r="548" spans="1:3">
       <c r="A548" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B548">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="C548" s="2">
-        <v>1301</v>
+        <v>974.8930053710938</v>
       </c>
     </row>
     <row r="549" spans="1:3">
       <c r="A549" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B549">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="C549" s="2">
-        <v>1229.45703125</v>
+        <v>1018.60400390625</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -6434,10 +6434,10 @@
         <v>9</v>
       </c>
       <c r="B550">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C550" s="2">
-        <v>1101.3349609375</v>
+        <v>940.3410034179688</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -6445,10 +6445,10 @@
         <v>9</v>
       </c>
       <c r="B551">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C551" s="2">
-        <v>1118.655029296875</v>
+        <v>1012.242004394531</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -6456,10 +6456,10 @@
         <v>9</v>
       </c>
       <c r="B552">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C552" s="2">
-        <v>1154.81201171875</v>
+        <v>973.1439819335938</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -6467,10 +6467,10 @@
         <v>9</v>
       </c>
       <c r="B553">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C553" s="2">
-        <v>1245.83203125</v>
+        <v>1058.840942382812</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -6478,10 +6478,10 @@
         <v>9</v>
       </c>
       <c r="B554">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C554" s="2">
-        <v>1379.016967773438</v>
+        <v>1080.753051757812</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -6489,10 +6489,10 @@
         <v>9</v>
       </c>
       <c r="B555">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C555" s="2">
-        <v>1474.097045898438</v>
+        <v>949.927001953125</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -6500,10 +6500,10 @@
         <v>9</v>
       </c>
       <c r="B556">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C556" s="2">
-        <v>1668.839965820312</v>
+        <v>899.7459716796875</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -6511,10 +6511,10 @@
         <v>9</v>
       </c>
       <c r="B557">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C557" s="2">
-        <v>1633.958984375</v>
+        <v>822.10400390625</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -6522,10 +6522,10 @@
         <v>9</v>
       </c>
       <c r="B558">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C558" s="2">
-        <v>1627.588989257812</v>
+        <v>813.64697265625</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -6533,10 +6533,10 @@
         <v>9</v>
       </c>
       <c r="B559">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C559" s="2">
-        <v>1514.723999023438</v>
+        <v>813.5570068359375</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -6544,10 +6544,10 @@
         <v>9</v>
       </c>
       <c r="B560">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C560" s="2">
-        <v>1645.462036132812</v>
+        <v>775.9439697265625</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -6555,10 +6555,10 @@
         <v>9</v>
       </c>
       <c r="B561">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C561" s="2">
-        <v>1751.583984375</v>
+        <v>769.0059814453125</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -6566,10 +6566,10 @@
         <v>9</v>
       </c>
       <c r="B562">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C562" s="2">
-        <v>1529.342041015625</v>
+        <v>692.156982421875</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -6577,10 +6577,10 @@
         <v>9</v>
       </c>
       <c r="B563">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C563" s="2">
-        <v>1509.171020507812</v>
+        <v>648.1270141601562</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -6588,10 +6588,10 @@
         <v>9</v>
       </c>
       <c r="B564">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C564" s="2">
-        <v>1590.60205078125</v>
+        <v>609.7940063476562</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -6599,10 +6599,10 @@
         <v>9</v>
       </c>
       <c r="B565">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C565" s="2">
-        <v>1646.607055664062</v>
+        <v>606.823974609375</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -6610,10 +6610,10 @@
         <v>9</v>
       </c>
       <c r="B566">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C566" s="2">
-        <v>1616.7099609375</v>
+        <v>647.2160034179688</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -6621,10 +6621,10 @@
         <v>9</v>
       </c>
       <c r="B567">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C567" s="2">
-        <v>1570.974975585938</v>
+        <v>664.3090209960938</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -6632,10 +6632,10 @@
         <v>9</v>
       </c>
       <c r="B568">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C568" s="2">
-        <v>1592.494018554688</v>
+        <v>675.5780029296875</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -6643,10 +6643,10 @@
         <v>9</v>
       </c>
       <c r="B569">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C569" s="2">
-        <v>1667.183959960938</v>
+        <v>688.656982421875</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -6654,10 +6654,10 @@
         <v>9</v>
       </c>
       <c r="B570">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C570" s="2">
-        <v>1618.303955078125</v>
+        <v>660.697998046875</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -6665,10 +6665,10 @@
         <v>9</v>
       </c>
       <c r="B571">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C571" s="2">
-        <v>1682.875</v>
+        <v>726.0280151367188</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -6676,10 +6676,10 @@
         <v>9</v>
       </c>
       <c r="B572">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C572" s="2">
-        <v>1673.416015625</v>
+        <v>745.1079711914062</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -6687,10 +6687,10 @@
         <v>9</v>
       </c>
       <c r="B573">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C573" s="2">
-        <v>1712.77294921875</v>
+        <v>744.927001953125</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -6698,10 +6698,10 @@
         <v>9</v>
       </c>
       <c r="B574">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C574" s="2">
-        <v>1740.149047851562</v>
+        <v>722.8660278320312</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -6709,10 +6709,10 @@
         <v>9</v>
       </c>
       <c r="B575">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C575" s="2">
-        <v>1703.182006835938</v>
+        <v>700.5859985351562</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -6720,10 +6720,10 @@
         <v>9</v>
       </c>
       <c r="B576">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C576" s="2">
-        <v>1609.14794921875</v>
+        <v>685.2680053710938</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -6731,10 +6731,10 @@
         <v>9</v>
       </c>
       <c r="B577">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C577" s="2">
-        <v>1525.262939453125</v>
+        <v>730.530029296875</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -6742,10 +6742,10 @@
         <v>9</v>
       </c>
       <c r="B578">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C578" s="2">
-        <v>1566.764038085938</v>
+        <v>720.6339721679688</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -6753,10 +6753,10 @@
         <v>9</v>
       </c>
       <c r="B579">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C579" s="2">
-        <v>1319.409057617188</v>
+        <v>800.8159790039062</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -6764,10 +6764,10 @@
         <v>9</v>
       </c>
       <c r="B580">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C580" s="2">
-        <v>1327.923950195312</v>
+        <v>815.927001953125</v>
       </c>
     </row>
     <row r="581" spans="1:3">
@@ -6775,10 +6775,10 @@
         <v>9</v>
       </c>
       <c r="B581">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C581" s="2">
-        <v>1321.953002929688</v>
+        <v>878.218017578125</v>
       </c>
     </row>
     <row r="582" spans="1:3">
@@ -6786,10 +6786,10 @@
         <v>9</v>
       </c>
       <c r="B582">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C582" s="2">
-        <v>1263.077026367188</v>
+        <v>919.2830200195312</v>
       </c>
     </row>
     <row r="583" spans="1:3">
@@ -6797,10 +6797,10 @@
         <v>9</v>
       </c>
       <c r="B583">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C583" s="2">
-        <v>1214.10400390625</v>
+        <v>949.60302734375</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -6808,10 +6808,10 @@
         <v>9</v>
       </c>
       <c r="B584">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C584" s="2">
-        <v>1168.22998046875</v>
+        <v>824.0819702148438</v>
       </c>
     </row>
     <row r="585" spans="1:3">
@@ -6819,10 +6819,10 @@
         <v>9</v>
       </c>
       <c r="B585">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C585" s="2">
-        <v>1152.891967773438</v>
+        <v>847.7849731445312</v>
       </c>
     </row>
     <row r="586" spans="1:3">
@@ -6830,10 +6830,10 @@
         <v>9</v>
       </c>
       <c r="B586">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C586" s="2">
-        <v>1329.932983398438</v>
+        <v>861.9910278320312</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -6841,10 +6841,10 @@
         <v>9</v>
       </c>
       <c r="B587">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C587" s="2">
-        <v>1268.245971679688</v>
+        <v>899.5789794921875</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -6852,10 +6852,10 @@
         <v>9</v>
       </c>
       <c r="B588">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C588" s="2">
-        <v>1179.60595703125</v>
+        <v>924.3369750976562</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -6863,10 +6863,10 @@
         <v>9</v>
       </c>
       <c r="B589">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C589" s="2">
-        <v>1232.345947265625</v>
+        <v>943.5120239257812</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -6874,10 +6874,10 @@
         <v>9</v>
       </c>
       <c r="B590">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C590" s="2">
-        <v>1343.045043945312</v>
+        <v>893.8309936523438</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -6885,10 +6885,10 @@
         <v>9</v>
       </c>
       <c r="B591">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C591" s="2">
-        <v>1374.31103515625</v>
+        <v>828.7449951171875</v>
       </c>
     </row>
     <row r="592" spans="1:3">
@@ -6896,10 +6896,10 @@
         <v>9</v>
       </c>
       <c r="B592">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C592" s="2">
-        <v>1523.6689453125</v>
+        <v>823.322021484375</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -6907,10 +6907,10 @@
         <v>9</v>
       </c>
       <c r="B593">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C593" s="2">
-        <v>1636.421020507812</v>
+        <v>783.39697265625</v>
       </c>
     </row>
     <row r="594" spans="1:3">
@@ -6918,10 +6918,10 @@
         <v>9</v>
       </c>
       <c r="B594">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C594" s="2">
-        <v>1660.037963867188</v>
+        <v>884.7410278320312</v>
       </c>
     </row>
     <row r="595" spans="1:3">
@@ -6929,10 +6929,10 @@
         <v>9</v>
       </c>
       <c r="B595">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C595" s="2">
-        <v>1590.048950195312</v>
+        <v>842.0800170898438</v>
       </c>
     </row>
     <row r="596" spans="1:3">
@@ -6940,10 +6940,10 @@
         <v>9</v>
       </c>
       <c r="B596">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C596" s="2">
-        <v>1586.526000976562</v>
+        <v>909.1929931640625</v>
       </c>
     </row>
     <row r="597" spans="1:3">
@@ -6951,10 +6951,10 @@
         <v>9</v>
       </c>
       <c r="B597">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C597" s="2">
-        <v>1357.66796875</v>
+        <v>567.9860229492188</v>
       </c>
     </row>
     <row r="598" spans="1:3">
@@ -6962,10 +6962,10 @@
         <v>9</v>
       </c>
       <c r="B598">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C598" s="2">
-        <v>1470.963989257812</v>
+        <v>629.9979858398438</v>
       </c>
     </row>
     <row r="599" spans="1:3">
@@ -6973,10 +6973,10 @@
         <v>9</v>
       </c>
       <c r="B599">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C599" s="2">
-        <v>1410.045043945312</v>
+        <v>563.4959716796875</v>
       </c>
     </row>
     <row r="600" spans="1:3">
@@ -6984,10 +6984,10 @@
         <v>9</v>
       </c>
       <c r="B600">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C600" s="2">
-        <v>1361.202026367188</v>
+        <v>509.8039855957031</v>
       </c>
     </row>
     <row r="601" spans="1:3">
@@ -6995,10 +6995,10 @@
         <v>9</v>
       </c>
       <c r="B601">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C601" s="2">
-        <v>1317.762939453125</v>
+        <v>473.4230041503906</v>
       </c>
     </row>
     <row r="602" spans="1:3">
@@ -7006,10 +7006,10 @@
         <v>9</v>
       </c>
       <c r="B602">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C602" s="2">
-        <v>1268.343017578125</v>
+        <v>440.7520141601562</v>
       </c>
     </row>
     <row r="603" spans="1:3">
@@ -7017,10 +7017,10 @@
         <v>9</v>
       </c>
       <c r="B603">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C603" s="2">
-        <v>1144.6259765625</v>
+        <v>597.10400390625</v>
       </c>
     </row>
     <row r="604" spans="1:3">
@@ -7028,10 +7028,10 @@
         <v>9</v>
       </c>
       <c r="B604">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C604" s="2">
-        <v>1152.843994140625</v>
+        <v>653.093017578125</v>
       </c>
     </row>
     <row r="605" spans="1:3">
@@ -7039,10 +7039,10 @@
         <v>9</v>
       </c>
       <c r="B605">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C605" s="2">
-        <v>1126.527954101562</v>
+        <v>499.406005859375</v>
       </c>
     </row>
     <row r="606" spans="1:3">
@@ -7050,10 +7050,10 @@
         <v>9</v>
       </c>
       <c r="B606">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C606" s="2">
-        <v>1142.06298828125</v>
+        <v>598.0349731445312</v>
       </c>
     </row>
     <row r="607" spans="1:3">
@@ -7061,10 +7061,10 @@
         <v>9</v>
       </c>
       <c r="B607">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C607" s="2">
-        <v>1021.408996582031</v>
+        <v>601.6890258789062</v>
       </c>
     </row>
     <row r="608" spans="1:3">
@@ -7072,10 +7072,10 @@
         <v>9</v>
       </c>
       <c r="B608">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C608" s="2">
-        <v>957.47998046875</v>
+        <v>771.10302734375</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -7083,10 +7083,10 @@
         <v>9</v>
       </c>
       <c r="B609">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C609" s="2">
-        <v>795.1420288085938</v>
+        <v>978.3930053710938</v>
       </c>
     </row>
     <row r="610" spans="1:3">
@@ -7094,10 +7094,10 @@
         <v>9</v>
       </c>
       <c r="B610">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C610" s="2">
-        <v>599.2349853515625</v>
+        <v>1031.327026367188</v>
       </c>
     </row>
     <row r="611" spans="1:3">
@@ -7105,10 +7105,10 @@
         <v>9</v>
       </c>
       <c r="B611">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C611" s="2">
-        <v>484.0450134277344</v>
+        <v>1093.878051757812</v>
       </c>
     </row>
     <row r="612" spans="1:3">
@@ -7116,10 +7116,10 @@
         <v>9</v>
       </c>
       <c r="B612">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C612" s="2">
-        <v>382.4089965820312</v>
+        <v>1269.526000976562</v>
       </c>
     </row>
     <row r="613" spans="1:3">
@@ -7127,10 +7127,10 @@
         <v>9</v>
       </c>
       <c r="B613">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C613" s="2">
-        <v>255.5079956054688</v>
+        <v>1457.336059570312</v>
       </c>
     </row>
     <row r="614" spans="1:3">
@@ -7138,10 +7138,10 @@
         <v>9</v>
       </c>
       <c r="B614">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C614" s="2">
-        <v>137.3309936523438</v>
+        <v>1799.9560546875</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -7149,10 +7149,10 @@
         <v>9</v>
       </c>
       <c r="B615">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C615" s="2">
-        <v>102.8779983520508</v>
+        <v>1820.239990234375</v>
       </c>
     </row>
     <row r="616" spans="1:3">
@@ -7160,10 +7160,10 @@
         <v>9</v>
       </c>
       <c r="B616">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C616" s="2">
-        <v>205.39599609375</v>
+        <v>1474.1689453125</v>
       </c>
     </row>
     <row r="617" spans="1:3">
@@ -7171,10 +7171,10 @@
         <v>9</v>
       </c>
       <c r="B617">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C617" s="2">
-        <v>215.7180023193359</v>
+        <v>1307.306030273438</v>
       </c>
     </row>
     <row r="618" spans="1:3">
@@ -7182,10 +7182,10 @@
         <v>9</v>
       </c>
       <c r="B618">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C618" s="2">
-        <v>231.7510070800781</v>
+        <v>1220.365966796875</v>
       </c>
     </row>
     <row r="619" spans="1:3">
@@ -7193,10 +7193,10 @@
         <v>9</v>
       </c>
       <c r="B619">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C619" s="2">
-        <v>286.3080139160156</v>
+        <v>1080.004028320312</v>
       </c>
     </row>
     <row r="620" spans="1:3">
@@ -7204,10 +7204,10 @@
         <v>9</v>
       </c>
       <c r="B620">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C620" s="2">
-        <v>281.5440063476562</v>
+        <v>1178.35205078125</v>
       </c>
     </row>
     <row r="621" spans="1:3">
@@ -7215,10 +7215,10 @@
         <v>9</v>
       </c>
       <c r="B621">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C621" s="2">
-        <v>272.9490051269531</v>
+        <v>1068.255981445312</v>
       </c>
     </row>
     <row r="622" spans="1:3">
@@ -7226,10 +7226,10 @@
         <v>9</v>
       </c>
       <c r="B622">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C622" s="2">
-        <v>287.97900390625</v>
+        <v>1074.401000976562</v>
       </c>
     </row>
     <row r="623" spans="1:3">
@@ -7237,10 +7237,10 @@
         <v>9</v>
       </c>
       <c r="B623">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C623" s="2">
-        <v>237.27099609375</v>
+        <v>734.85498046875</v>
       </c>
     </row>
     <row r="624" spans="1:3">
@@ -7248,10 +7248,10 @@
         <v>9</v>
       </c>
       <c r="B624">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C624" s="2">
-        <v>325.9970092773438</v>
+        <v>791.39501953125</v>
       </c>
     </row>
     <row r="625" spans="1:3">
@@ -7259,10 +7259,10 @@
         <v>9</v>
       </c>
       <c r="B625">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="C625" s="2">
-        <v>828.239990234375</v>
+        <v>665.5560302734375</v>
       </c>
     </row>
     <row r="626" spans="1:3">
@@ -7270,10 +7270,10 @@
         <v>9</v>
       </c>
       <c r="B626">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C626" s="2">
-        <v>805.5579833984375</v>
+        <v>426.8469848632812</v>
       </c>
     </row>
     <row r="627" spans="1:3">
@@ -7281,208 +7281,208 @@
         <v>9</v>
       </c>
       <c r="B627">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C627" s="2">
-        <v>497.6860046386719</v>
+        <v>440.593994140625</v>
       </c>
     </row>
     <row r="628" spans="1:3">
       <c r="A628" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B628">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="C628" s="2">
-        <v>438.6390075683594</v>
+        <v>478.8030090332031</v>
       </c>
     </row>
     <row r="629" spans="1:3">
       <c r="A629" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B629">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="C629" s="2">
-        <v>199.7010040283203</v>
+        <v>485.1990051269531</v>
       </c>
     </row>
     <row r="630" spans="1:3">
       <c r="A630" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B630">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="C630" s="2">
-        <v>283.9880065917969</v>
+        <v>465.9729919433594</v>
       </c>
     </row>
     <row r="631" spans="1:3">
       <c r="A631" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B631">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="C631" s="2">
-        <v>517.5549926757812</v>
+        <v>401.5889892578125</v>
       </c>
     </row>
     <row r="632" spans="1:3">
       <c r="A632" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B632">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="C632" s="2">
-        <v>653.4619750976562</v>
+        <v>417.8529968261719</v>
       </c>
     </row>
     <row r="633" spans="1:3">
       <c r="A633" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B633">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="C633" s="2">
-        <v>680.14501953125</v>
+        <v>407.2919921875</v>
       </c>
     </row>
     <row r="634" spans="1:3">
       <c r="A634" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B634">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="C634" s="2">
-        <v>860.0139770507812</v>
+        <v>397.9880065917969</v>
       </c>
     </row>
     <row r="635" spans="1:3">
       <c r="A635" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B635">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="C635" s="2">
-        <v>892.1840209960938</v>
+        <v>361.0700073242188</v>
       </c>
     </row>
     <row r="636" spans="1:3">
       <c r="A636" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B636">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="C636" s="2">
-        <v>1078.734985351562</v>
+        <v>334.6440124511719</v>
       </c>
     </row>
     <row r="637" spans="1:3">
       <c r="A637" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B637">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="C637" s="2">
-        <v>1104.243041992188</v>
+        <v>319.9169921875</v>
       </c>
     </row>
     <row r="638" spans="1:3">
       <c r="A638" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B638">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="C638" s="2">
-        <v>1350.443969726562</v>
+        <v>289.2229919433594</v>
       </c>
     </row>
     <row r="639" spans="1:3">
       <c r="A639" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B639">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="C639" s="2">
-        <v>1547.8759765625</v>
+        <v>249.2449951171875</v>
       </c>
     </row>
     <row r="640" spans="1:3">
       <c r="A640" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B640">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="C640" s="2">
-        <v>1691.446044921875</v>
+        <v>282.6000061035156</v>
       </c>
     </row>
     <row r="641" spans="1:3">
       <c r="A641" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B641">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="C641" s="2">
-        <v>1867.865966796875</v>
+        <v>365.7279968261719</v>
       </c>
     </row>
     <row r="642" spans="1:3">
       <c r="A642" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B642">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="C642" s="2">
-        <v>1934.180053710938</v>
+        <v>285.510986328125</v>
       </c>
     </row>
     <row r="643" spans="1:3">
       <c r="A643" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B643">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="C643" s="2">
-        <v>2161.569091796875</v>
+        <v>337.7550048828125</v>
       </c>
     </row>
     <row r="644" spans="1:3">
       <c r="A644" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B644">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="C644" s="2">
-        <v>2279.64990234375</v>
+        <v>358.4819946289062</v>
       </c>
     </row>
     <row r="645" spans="1:3">
       <c r="A645" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B645">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="C645" s="2">
-        <v>2337.196044921875</v>
+        <v>235.7209930419922</v>
       </c>
     </row>
     <row r="646" spans="1:3">
@@ -7490,10 +7490,10 @@
         <v>10</v>
       </c>
       <c r="B646">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C646" s="2">
-        <v>2371.074951171875</v>
+        <v>379.2330017089844</v>
       </c>
     </row>
     <row r="647" spans="1:3">
@@ -7501,10 +7501,10 @@
         <v>10</v>
       </c>
       <c r="B647">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C647" s="2">
-        <v>2370.39208984375</v>
+        <v>295.2470092773438</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -7512,10 +7512,10 @@
         <v>10</v>
       </c>
       <c r="B648">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C648" s="2">
-        <v>2356.5458984375</v>
+        <v>127.8239974975586</v>
       </c>
     </row>
     <row r="649" spans="1:3">
@@ -7523,10 +7523,10 @@
         <v>10</v>
       </c>
       <c r="B649">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C649" s="2">
-        <v>2394.261962890625</v>
+        <v>135.1970062255859</v>
       </c>
     </row>
     <row r="650" spans="1:3">
@@ -7534,10 +7534,10 @@
         <v>10</v>
       </c>
       <c r="B650">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C650" s="2">
-        <v>2405.9169921875</v>
+        <v>51.07300186157227</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -7545,10 +7545,10 @@
         <v>10</v>
       </c>
       <c r="B651">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C651" s="2">
-        <v>2407.423095703125</v>
+        <v>73.06900024414062</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -7556,10 +7556,10 @@
         <v>10</v>
       </c>
       <c r="B652">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C652" s="2">
-        <v>2444.111083984375</v>
+        <v>136.8249969482422</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -7567,10 +7567,10 @@
         <v>10</v>
       </c>
       <c r="B653">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C653" s="2">
-        <v>2474.47802734375</v>
+        <v>62.59999847412109</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -7578,10 +7578,10 @@
         <v>10</v>
       </c>
       <c r="B654">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C654" s="2">
-        <v>2483.071044921875</v>
+        <v>103.5500030517578</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -7589,10 +7589,10 @@
         <v>10</v>
       </c>
       <c r="B655">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C655" s="2">
-        <v>2536.14208984375</v>
+        <v>134.1880035400391</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -7600,10 +7600,10 @@
         <v>10</v>
       </c>
       <c r="B656">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C656" s="2">
-        <v>2566.93310546875</v>
+        <v>99.0989990234375</v>
       </c>
     </row>
     <row r="657" spans="1:3">
@@ -7611,10 +7611,10 @@
         <v>10</v>
       </c>
       <c r="B657">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C657" s="2">
-        <v>2531.43408203125</v>
+        <v>99.11499786376953</v>
       </c>
     </row>
     <row r="658" spans="1:3">
@@ -7622,10 +7622,10 @@
         <v>10</v>
       </c>
       <c r="B658">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C658" s="2">
-        <v>2536.904052734375</v>
+        <v>217.9539947509766</v>
       </c>
     </row>
     <row r="659" spans="1:3">
@@ -7633,10 +7633,10 @@
         <v>10</v>
       </c>
       <c r="B659">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C659" s="2">
-        <v>2567.112060546875</v>
+        <v>240.1089935302734</v>
       </c>
     </row>
     <row r="660" spans="1:3">
@@ -7644,10 +7644,10 @@
         <v>10</v>
       </c>
       <c r="B660">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C660" s="2">
-        <v>2554.48095703125</v>
+        <v>200.4709930419922</v>
       </c>
     </row>
     <row r="661" spans="1:3">
@@ -7655,10 +7655,10 @@
         <v>10</v>
       </c>
       <c r="B661">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C661" s="2">
-        <v>2553.0830078125</v>
+        <v>223.1940002441406</v>
       </c>
     </row>
     <row r="662" spans="1:3">
@@ -7666,10 +7666,10 @@
         <v>10</v>
       </c>
       <c r="B662">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C662" s="2">
-        <v>2503.551025390625</v>
+        <v>185.0189971923828</v>
       </c>
     </row>
     <row r="663" spans="1:3">
@@ -7677,10 +7677,10 @@
         <v>10</v>
       </c>
       <c r="B663">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C663" s="2">
-        <v>2494.98095703125</v>
+        <v>142.1719970703125</v>
       </c>
     </row>
     <row r="664" spans="1:3">
@@ -7688,10 +7688,10 @@
         <v>10</v>
       </c>
       <c r="B664">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C664" s="2">
-        <v>2442.760009765625</v>
+        <v>173.0169982910156</v>
       </c>
     </row>
     <row r="665" spans="1:3">
@@ -7699,10 +7699,10 @@
         <v>10</v>
       </c>
       <c r="B665">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C665" s="2">
-        <v>2366.097900390625</v>
+        <v>124.0289993286133</v>
       </c>
     </row>
     <row r="666" spans="1:3">
@@ -7710,10 +7710,10 @@
         <v>10</v>
       </c>
       <c r="B666">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C666" s="2">
-        <v>2317.4560546875</v>
+        <v>118.6900024414062</v>
       </c>
     </row>
     <row r="667" spans="1:3">
@@ -7721,10 +7721,10 @@
         <v>10</v>
       </c>
       <c r="B667">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C667" s="2">
-        <v>2305.013916015625</v>
+        <v>150.2120056152344</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -7732,10 +7732,10 @@
         <v>10</v>
       </c>
       <c r="B668">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C668" s="2">
-        <v>2235.9541015625</v>
+        <v>154.6060028076172</v>
       </c>
     </row>
     <row r="669" spans="1:3">
@@ -7743,10 +7743,10 @@
         <v>10</v>
       </c>
       <c r="B669">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C669" s="2">
-        <v>2220.014892578125</v>
+        <v>176.8110046386719</v>
       </c>
     </row>
     <row r="670" spans="1:3">
@@ -7754,10 +7754,10 @@
         <v>10</v>
       </c>
       <c r="B670">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C670" s="2">
-        <v>2199.784912109375</v>
+        <v>195.1450042724609</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -7765,10 +7765,10 @@
         <v>10</v>
       </c>
       <c r="B671">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C671" s="2">
-        <v>2202.972900390625</v>
+        <v>138.2799987792969</v>
       </c>
     </row>
     <row r="672" spans="1:3">
@@ -7776,10 +7776,10 @@
         <v>10</v>
       </c>
       <c r="B672">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C672" s="2">
-        <v>2211.712890625</v>
+        <v>153.0619964599609</v>
       </c>
     </row>
     <row r="673" spans="1:3">
@@ -7787,10 +7787,10 @@
         <v>10</v>
       </c>
       <c r="B673">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C673" s="2">
-        <v>2127.535888671875</v>
+        <v>193.552001953125</v>
       </c>
     </row>
     <row r="674" spans="1:3">
@@ -7798,10 +7798,10 @@
         <v>10</v>
       </c>
       <c r="B674">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C674" s="2">
-        <v>2042.046020507812</v>
+        <v>217.3470001220703</v>
       </c>
     </row>
   </sheetData>

--- a/Wind_Production_Forecast/Wind_Forecast_Production_15min.xlsx
+++ b/Wind_Production_Forecast/Wind_Forecast_Production_15min.xlsx
@@ -406,10 +406,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2">
-        <v>817.9639892578125</v>
+        <v>907.9099731445312</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -417,10 +417,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2">
-        <v>827.52099609375</v>
+        <v>841.8839721679688</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -428,10 +428,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2">
-        <v>907.9099731445312</v>
+        <v>915.6649780273438</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -439,10 +439,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2">
-        <v>841.8839721679688</v>
+        <v>977.1929931640625</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -450,10 +450,10 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C6" s="2">
-        <v>915.6649780273438</v>
+        <v>1050.656005859375</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -461,10 +461,10 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2">
-        <v>977.1929931640625</v>
+        <v>1061.14404296875</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -472,10 +472,10 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C8" s="2">
-        <v>1050.656005859375</v>
+        <v>1010.572998046875</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2">
-        <v>1061.14404296875</v>
+        <v>1074.364990234375</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -494,10 +494,10 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C10" s="2">
-        <v>1010.572998046875</v>
+        <v>905.18798828125</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -505,10 +505,10 @@
         <v>3</v>
       </c>
       <c r="B11">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C11" s="2">
-        <v>1074.364990234375</v>
+        <v>917.2109985351562</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -516,10 +516,10 @@
         <v>3</v>
       </c>
       <c r="B12">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2">
-        <v>905.18798828125</v>
+        <v>836.0859985351562</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -527,10 +527,10 @@
         <v>3</v>
       </c>
       <c r="B13">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2">
-        <v>917.2109985351562</v>
+        <v>771.6640014648438</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -538,10 +538,10 @@
         <v>3</v>
       </c>
       <c r="B14">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C14" s="2">
-        <v>836.0859985351562</v>
+        <v>832.7239990234375</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -549,10 +549,10 @@
         <v>3</v>
       </c>
       <c r="B15">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C15" s="2">
-        <v>771.6640014648438</v>
+        <v>751.1309814453125</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -560,10 +560,10 @@
         <v>3</v>
       </c>
       <c r="B16">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2">
-        <v>832.7239990234375</v>
+        <v>540.93798828125</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -571,10 +571,10 @@
         <v>3</v>
       </c>
       <c r="B17">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2">
-        <v>751.1309814453125</v>
+        <v>371.5050048828125</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -582,10 +582,10 @@
         <v>3</v>
       </c>
       <c r="B18">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2">
-        <v>540.93798828125</v>
+        <v>294.4339904785156</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -593,10 +593,10 @@
         <v>3</v>
       </c>
       <c r="B19">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2">
-        <v>371.5050048828125</v>
+        <v>389.6229858398438</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -604,10 +604,10 @@
         <v>3</v>
       </c>
       <c r="B20">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2">
-        <v>294.4339904785156</v>
+        <v>317.9620056152344</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -615,10 +615,10 @@
         <v>3</v>
       </c>
       <c r="B21">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2">
-        <v>389.6229858398438</v>
+        <v>337.5920104980469</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -626,10 +626,10 @@
         <v>3</v>
       </c>
       <c r="B22">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C22" s="2">
-        <v>317.9620056152344</v>
+        <v>323.5260009765625</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -637,10 +637,10 @@
         <v>3</v>
       </c>
       <c r="B23">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C23" s="2">
-        <v>337.5920104980469</v>
+        <v>360.6809997558594</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -648,10 +648,10 @@
         <v>3</v>
       </c>
       <c r="B24">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C24" s="2">
-        <v>323.5260009765625</v>
+        <v>246.3410034179688</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -659,10 +659,10 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2">
-        <v>360.6809997558594</v>
+        <v>271.0079956054688</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -670,10 +670,10 @@
         <v>3</v>
       </c>
       <c r="B26">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C26" s="2">
-        <v>246.3410034179688</v>
+        <v>383.2730102539062</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -681,10 +681,10 @@
         <v>3</v>
       </c>
       <c r="B27">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2">
-        <v>271.0079956054688</v>
+        <v>416.2650146484375</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -692,10 +692,10 @@
         <v>3</v>
       </c>
       <c r="B28">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2">
-        <v>383.2730102539062</v>
+        <v>614.343994140625</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -703,10 +703,10 @@
         <v>3</v>
       </c>
       <c r="B29">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C29" s="2">
-        <v>416.2650146484375</v>
+        <v>707.9990234375</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -714,10 +714,10 @@
         <v>3</v>
       </c>
       <c r="B30">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C30" s="2">
-        <v>614.343994140625</v>
+        <v>821.322998046875</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -725,10 +725,10 @@
         <v>3</v>
       </c>
       <c r="B31">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C31" s="2">
-        <v>707.9990234375</v>
+        <v>720.2930297851562</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -736,10 +736,10 @@
         <v>3</v>
       </c>
       <c r="B32">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C32" s="2">
-        <v>821.322998046875</v>
+        <v>679.0770263671875</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -747,10 +747,10 @@
         <v>3</v>
       </c>
       <c r="B33">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C33" s="2">
-        <v>720.2930297851562</v>
+        <v>615.6079711914062</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -758,10 +758,10 @@
         <v>3</v>
       </c>
       <c r="B34">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C34" s="2">
-        <v>679.0770263671875</v>
+        <v>599.0050048828125</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -769,10 +769,10 @@
         <v>3</v>
       </c>
       <c r="B35">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C35" s="2">
-        <v>615.6079711914062</v>
+        <v>531.8660278320312</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -780,10 +780,10 @@
         <v>3</v>
       </c>
       <c r="B36">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C36" s="2">
-        <v>599.0050048828125</v>
+        <v>429.1900024414062</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -791,10 +791,10 @@
         <v>3</v>
       </c>
       <c r="B37">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C37" s="2">
-        <v>531.8660278320312</v>
+        <v>423.8739929199219</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -802,10 +802,10 @@
         <v>3</v>
       </c>
       <c r="B38">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C38" s="2">
-        <v>429.1900024414062</v>
+        <v>462.9729919433594</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -813,10 +813,10 @@
         <v>3</v>
       </c>
       <c r="B39">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C39" s="2">
-        <v>423.8739929199219</v>
+        <v>465.2170104980469</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -824,10 +824,10 @@
         <v>3</v>
       </c>
       <c r="B40">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C40" s="2">
-        <v>462.9729919433594</v>
+        <v>557.9420166015625</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -835,10 +835,10 @@
         <v>3</v>
       </c>
       <c r="B41">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C41" s="2">
-        <v>465.2170104980469</v>
+        <v>570.3699951171875</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -846,10 +846,10 @@
         <v>3</v>
       </c>
       <c r="B42">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C42" s="2">
-        <v>557.9420166015625</v>
+        <v>607.52099609375</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -857,10 +857,10 @@
         <v>3</v>
       </c>
       <c r="B43">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C43" s="2">
-        <v>570.3699951171875</v>
+        <v>573.3200073242188</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -868,10 +868,10 @@
         <v>3</v>
       </c>
       <c r="B44">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C44" s="2">
-        <v>607.52099609375</v>
+        <v>503.7730102539062</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -879,10 +879,10 @@
         <v>3</v>
       </c>
       <c r="B45">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C45" s="2">
-        <v>573.3200073242188</v>
+        <v>511.9800109863281</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -890,10 +890,10 @@
         <v>3</v>
       </c>
       <c r="B46">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C46" s="2">
-        <v>503.7730102539062</v>
+        <v>483.5130004882812</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -901,10 +901,10 @@
         <v>3</v>
       </c>
       <c r="B47">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C47" s="2">
-        <v>511.9800109863281</v>
+        <v>370.3689880371094</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -912,10 +912,10 @@
         <v>3</v>
       </c>
       <c r="B48">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C48" s="2">
-        <v>483.5130004882812</v>
+        <v>444.5409851074219</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -923,10 +923,10 @@
         <v>3</v>
       </c>
       <c r="B49">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C49" s="2">
-        <v>370.3689880371094</v>
+        <v>456.6239929199219</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -934,10 +934,10 @@
         <v>3</v>
       </c>
       <c r="B50">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C50" s="2">
-        <v>444.5409851074219</v>
+        <v>392.6400146484375</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -945,10 +945,10 @@
         <v>3</v>
       </c>
       <c r="B51">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C51" s="2">
-        <v>456.6239929199219</v>
+        <v>363.5490112304688</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -956,10 +956,10 @@
         <v>3</v>
       </c>
       <c r="B52">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C52" s="2">
-        <v>392.6400146484375</v>
+        <v>393.2860107421875</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -967,10 +967,10 @@
         <v>3</v>
       </c>
       <c r="B53">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C53" s="2">
-        <v>363.5490112304688</v>
+        <v>366.5190124511719</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -978,10 +978,10 @@
         <v>3</v>
       </c>
       <c r="B54">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C54" s="2">
-        <v>393.2860107421875</v>
+        <v>343.8460083007812</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -989,10 +989,10 @@
         <v>3</v>
       </c>
       <c r="B55">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C55" s="2">
-        <v>366.5190124511719</v>
+        <v>356.4469909667969</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1000,10 +1000,10 @@
         <v>3</v>
       </c>
       <c r="B56">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C56" s="2">
-        <v>343.8460083007812</v>
+        <v>430.2789916992188</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1011,10 +1011,10 @@
         <v>3</v>
       </c>
       <c r="B57">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C57" s="2">
-        <v>356.4469909667969</v>
+        <v>437.4630126953125</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1022,10 +1022,10 @@
         <v>3</v>
       </c>
       <c r="B58">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C58" s="2">
-        <v>430.2789916992188</v>
+        <v>431.2420043945312</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1033,10 +1033,10 @@
         <v>3</v>
       </c>
       <c r="B59">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C59" s="2">
-        <v>437.4630126953125</v>
+        <v>415.3970031738281</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1044,10 +1044,10 @@
         <v>3</v>
       </c>
       <c r="B60">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C60" s="2">
-        <v>431.2420043945312</v>
+        <v>436.2489929199219</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1055,10 +1055,10 @@
         <v>3</v>
       </c>
       <c r="B61">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C61" s="2">
-        <v>415.3970031738281</v>
+        <v>507.2449951171875</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1066,10 +1066,10 @@
         <v>3</v>
       </c>
       <c r="B62">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C62" s="2">
-        <v>436.2489929199219</v>
+        <v>546.385009765625</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1077,10 +1077,10 @@
         <v>3</v>
       </c>
       <c r="B63">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C63" s="2">
-        <v>507.2449951171875</v>
+        <v>978.5250244140625</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1088,10 +1088,10 @@
         <v>3</v>
       </c>
       <c r="B64">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C64" s="2">
-        <v>546.385009765625</v>
+        <v>930.3519897460938</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1099,10 +1099,10 @@
         <v>3</v>
       </c>
       <c r="B65">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C65" s="2">
-        <v>978.5250244140625</v>
+        <v>806.7559814453125</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1110,10 +1110,10 @@
         <v>3</v>
       </c>
       <c r="B66">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C66" s="2">
-        <v>930.3519897460938</v>
+        <v>726.3070068359375</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1121,32 +1121,32 @@
         <v>3</v>
       </c>
       <c r="B67">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C67" s="2">
-        <v>806.7559814453125</v>
+        <v>673.4730224609375</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B68">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="C68" s="2">
-        <v>726.3070068359375</v>
+        <v>684.3400268554688</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B69">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="C69" s="2">
-        <v>673.4730224609375</v>
+        <v>808.5709838867188</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1154,10 +1154,10 @@
         <v>4</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C70" s="2">
-        <v>684.3400268554688</v>
+        <v>797.4949951171875</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1165,10 +1165,10 @@
         <v>4</v>
       </c>
       <c r="B71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C71" s="2">
-        <v>808.5709838867188</v>
+        <v>672.3829956054688</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1176,10 +1176,10 @@
         <v>4</v>
       </c>
       <c r="B72">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C72" s="2">
-        <v>797.4949951171875</v>
+        <v>854.4500122070312</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1187,10 +1187,10 @@
         <v>4</v>
       </c>
       <c r="B73">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C73" s="2">
-        <v>672.3829956054688</v>
+        <v>879.468017578125</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1198,10 +1198,10 @@
         <v>4</v>
       </c>
       <c r="B74">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C74" s="2">
-        <v>854.4500122070312</v>
+        <v>1115.048950195312</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1209,10 +1209,10 @@
         <v>4</v>
       </c>
       <c r="B75">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C75" s="2">
-        <v>879.468017578125</v>
+        <v>1138.739013671875</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1220,10 +1220,10 @@
         <v>4</v>
       </c>
       <c r="B76">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C76" s="2">
-        <v>1115.048950195312</v>
+        <v>1130.056030273438</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1231,10 +1231,10 @@
         <v>4</v>
       </c>
       <c r="B77">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C77" s="2">
-        <v>1138.739013671875</v>
+        <v>1289.155029296875</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1242,10 +1242,10 @@
         <v>4</v>
       </c>
       <c r="B78">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C78" s="2">
-        <v>1130.056030273438</v>
+        <v>1224.245971679688</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1253,10 +1253,10 @@
         <v>4</v>
       </c>
       <c r="B79">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C79" s="2">
-        <v>1289.155029296875</v>
+        <v>1115.681030273438</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1264,10 +1264,10 @@
         <v>4</v>
       </c>
       <c r="B80">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C80" s="2">
-        <v>1224.245971679688</v>
+        <v>1051.370971679688</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1275,10 +1275,10 @@
         <v>4</v>
       </c>
       <c r="B81">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C81" s="2">
-        <v>1115.681030273438</v>
+        <v>1123.20703125</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1286,10 +1286,10 @@
         <v>4</v>
       </c>
       <c r="B82">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C82" s="2">
-        <v>1051.370971679688</v>
+        <v>1280.073974609375</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1297,10 +1297,10 @@
         <v>4</v>
       </c>
       <c r="B83">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C83" s="2">
-        <v>1123.20703125</v>
+        <v>1350.901000976562</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1308,10 +1308,10 @@
         <v>4</v>
       </c>
       <c r="B84">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C84" s="2">
-        <v>1280.073974609375</v>
+        <v>1601.9599609375</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1319,10 +1319,10 @@
         <v>4</v>
       </c>
       <c r="B85">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C85" s="2">
-        <v>1350.901000976562</v>
+        <v>1526.18701171875</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1330,10 +1330,10 @@
         <v>4</v>
       </c>
       <c r="B86">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C86" s="2">
-        <v>1601.9599609375</v>
+        <v>1666.926025390625</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1341,10 +1341,10 @@
         <v>4</v>
       </c>
       <c r="B87">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C87" s="2">
-        <v>1526.18701171875</v>
+        <v>1737.760009765625</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1352,10 +1352,10 @@
         <v>4</v>
       </c>
       <c r="B88">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C88" s="2">
-        <v>1666.926025390625</v>
+        <v>1816.885009765625</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1363,10 +1363,10 @@
         <v>4</v>
       </c>
       <c r="B89">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C89" s="2">
-        <v>1737.760009765625</v>
+        <v>1767.384033203125</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1374,10 +1374,10 @@
         <v>4</v>
       </c>
       <c r="B90">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C90" s="2">
-        <v>1816.885009765625</v>
+        <v>1676.06396484375</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1385,10 +1385,10 @@
         <v>4</v>
       </c>
       <c r="B91">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C91" s="2">
-        <v>1767.384033203125</v>
+        <v>1655.661987304688</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1396,10 +1396,10 @@
         <v>4</v>
       </c>
       <c r="B92">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C92" s="2">
-        <v>1676.06396484375</v>
+        <v>1711.317993164062</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1407,10 +1407,10 @@
         <v>4</v>
       </c>
       <c r="B93">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C93" s="2">
-        <v>1655.661987304688</v>
+        <v>1702.279052734375</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1418,10 +1418,10 @@
         <v>4</v>
       </c>
       <c r="B94">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C94" s="2">
-        <v>1711.317993164062</v>
+        <v>1601.52099609375</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1429,10 +1429,10 @@
         <v>4</v>
       </c>
       <c r="B95">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C95" s="2">
-        <v>1702.279052734375</v>
+        <v>1406.629028320312</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1440,10 +1440,10 @@
         <v>4</v>
       </c>
       <c r="B96">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C96" s="2">
-        <v>1601.52099609375</v>
+        <v>1422.54296875</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1451,10 +1451,10 @@
         <v>4</v>
       </c>
       <c r="B97">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C97" s="2">
-        <v>1406.629028320312</v>
+        <v>1200.203979492188</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1462,10 +1462,10 @@
         <v>4</v>
       </c>
       <c r="B98">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C98" s="2">
-        <v>1422.54296875</v>
+        <v>1184.27099609375</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1473,10 +1473,10 @@
         <v>4</v>
       </c>
       <c r="B99">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C99" s="2">
-        <v>1200.203979492188</v>
+        <v>1219.880004882812</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1484,10 +1484,10 @@
         <v>4</v>
       </c>
       <c r="B100">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C100" s="2">
-        <v>1184.27099609375</v>
+        <v>1366.839965820312</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1495,10 +1495,10 @@
         <v>4</v>
       </c>
       <c r="B101">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C101" s="2">
-        <v>1219.880004882812</v>
+        <v>1338.2099609375</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1506,10 +1506,10 @@
         <v>4</v>
       </c>
       <c r="B102">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C102" s="2">
-        <v>1366.839965820312</v>
+        <v>1089.329956054688</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1517,10 +1517,10 @@
         <v>4</v>
       </c>
       <c r="B103">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C103" s="2">
-        <v>1338.2099609375</v>
+        <v>1126.697021484375</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1528,10 +1528,10 @@
         <v>4</v>
       </c>
       <c r="B104">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C104" s="2">
-        <v>1089.329956054688</v>
+        <v>1142.734985351562</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1539,10 +1539,10 @@
         <v>4</v>
       </c>
       <c r="B105">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C105" s="2">
-        <v>1126.697021484375</v>
+        <v>1136.6669921875</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1550,10 +1550,10 @@
         <v>4</v>
       </c>
       <c r="B106">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C106" s="2">
-        <v>1142.734985351562</v>
+        <v>974.7139892578125</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1561,10 +1561,10 @@
         <v>4</v>
       </c>
       <c r="B107">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C107" s="2">
-        <v>1136.6669921875</v>
+        <v>990.7919921875</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1572,10 +1572,10 @@
         <v>4</v>
       </c>
       <c r="B108">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C108" s="2">
-        <v>974.7139892578125</v>
+        <v>936.5239868164062</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1583,10 +1583,10 @@
         <v>4</v>
       </c>
       <c r="B109">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C109" s="2">
-        <v>990.7919921875</v>
+        <v>980.0880126953125</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1594,10 +1594,10 @@
         <v>4</v>
       </c>
       <c r="B110">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C110" s="2">
-        <v>936.5239868164062</v>
+        <v>1126.31396484375</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1605,10 +1605,10 @@
         <v>4</v>
       </c>
       <c r="B111">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C111" s="2">
-        <v>980.0880126953125</v>
+        <v>1329.245971679688</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1616,10 +1616,10 @@
         <v>4</v>
       </c>
       <c r="B112">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C112" s="2">
-        <v>1126.31396484375</v>
+        <v>1244.161987304688</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1627,10 +1627,10 @@
         <v>4</v>
       </c>
       <c r="B113">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C113" s="2">
-        <v>1329.245971679688</v>
+        <v>1282.359008789062</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1638,10 +1638,10 @@
         <v>4</v>
       </c>
       <c r="B114">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C114" s="2">
-        <v>1244.161987304688</v>
+        <v>1189.949951171875</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1649,10 +1649,10 @@
         <v>4</v>
       </c>
       <c r="B115">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C115" s="2">
-        <v>1282.359008789062</v>
+        <v>1102.088012695312</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1660,10 +1660,10 @@
         <v>4</v>
       </c>
       <c r="B116">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C116" s="2">
-        <v>1189.949951171875</v>
+        <v>1060.053955078125</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1671,10 +1671,10 @@
         <v>4</v>
       </c>
       <c r="B117">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C117" s="2">
-        <v>1102.088012695312</v>
+        <v>983.5419921875</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1682,10 +1682,10 @@
         <v>4</v>
       </c>
       <c r="B118">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C118" s="2">
-        <v>1060.053955078125</v>
+        <v>1074.1689453125</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1693,10 +1693,10 @@
         <v>4</v>
       </c>
       <c r="B119">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C119" s="2">
-        <v>983.5419921875</v>
+        <v>914.2100219726562</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1704,10 +1704,10 @@
         <v>4</v>
       </c>
       <c r="B120">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C120" s="2">
-        <v>1074.1689453125</v>
+        <v>911.177978515625</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1715,10 +1715,10 @@
         <v>4</v>
       </c>
       <c r="B121">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C121" s="2">
-        <v>914.2100219726562</v>
+        <v>1015.989013671875</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1726,10 +1726,10 @@
         <v>4</v>
       </c>
       <c r="B122">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C122" s="2">
-        <v>911.177978515625</v>
+        <v>1067.258056640625</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1737,10 +1737,10 @@
         <v>4</v>
       </c>
       <c r="B123">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C123" s="2">
-        <v>1015.989013671875</v>
+        <v>1016.276977539062</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1748,10 +1748,10 @@
         <v>4</v>
       </c>
       <c r="B124">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C124" s="2">
-        <v>1067.258056640625</v>
+        <v>1048.534057617188</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1759,10 +1759,10 @@
         <v>4</v>
       </c>
       <c r="B125">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C125" s="2">
-        <v>1016.276977539062</v>
+        <v>1044.47705078125</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1770,10 +1770,10 @@
         <v>4</v>
       </c>
       <c r="B126">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C126" s="2">
-        <v>1048.534057617188</v>
+        <v>995.3300170898438</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1781,10 +1781,10 @@
         <v>4</v>
       </c>
       <c r="B127">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C127" s="2">
-        <v>1044.47705078125</v>
+        <v>1009.302978515625</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1792,10 +1792,10 @@
         <v>4</v>
       </c>
       <c r="B128">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C128" s="2">
-        <v>995.3300170898438</v>
+        <v>923.7769775390625</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1803,10 +1803,10 @@
         <v>4</v>
       </c>
       <c r="B129">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C129" s="2">
-        <v>1009.302978515625</v>
+        <v>906.6900024414062</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1814,10 +1814,10 @@
         <v>4</v>
       </c>
       <c r="B130">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C130" s="2">
-        <v>923.7769775390625</v>
+        <v>821.4329833984375</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1825,10 +1825,10 @@
         <v>4</v>
       </c>
       <c r="B131">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C131" s="2">
-        <v>906.6900024414062</v>
+        <v>957.947021484375</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1836,10 +1836,10 @@
         <v>4</v>
       </c>
       <c r="B132">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C132" s="2">
-        <v>821.4329833984375</v>
+        <v>887.406982421875</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1847,10 +1847,10 @@
         <v>4</v>
       </c>
       <c r="B133">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C133" s="2">
-        <v>957.947021484375</v>
+        <v>863.6680297851562</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1858,10 +1858,10 @@
         <v>4</v>
       </c>
       <c r="B134">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C134" s="2">
-        <v>887.406982421875</v>
+        <v>683.625</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1869,10 +1869,10 @@
         <v>4</v>
       </c>
       <c r="B135">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C135" s="2">
-        <v>863.6680297851562</v>
+        <v>582.6690063476562</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1880,10 +1880,10 @@
         <v>4</v>
       </c>
       <c r="B136">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C136" s="2">
-        <v>683.625</v>
+        <v>508.2489929199219</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1891,10 +1891,10 @@
         <v>4</v>
       </c>
       <c r="B137">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C137" s="2">
-        <v>582.6690063476562</v>
+        <v>405.0899963378906</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1902,10 +1902,10 @@
         <v>4</v>
       </c>
       <c r="B138">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C138" s="2">
-        <v>508.2489929199219</v>
+        <v>425.7829895019531</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1913,10 +1913,10 @@
         <v>4</v>
       </c>
       <c r="B139">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C139" s="2">
-        <v>405.0899963378906</v>
+        <v>440.8569946289062</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1924,10 +1924,10 @@
         <v>4</v>
       </c>
       <c r="B140">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C140" s="2">
-        <v>425.7829895019531</v>
+        <v>417.2179870605469</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1935,10 +1935,10 @@
         <v>4</v>
       </c>
       <c r="B141">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C141" s="2">
-        <v>440.8569946289062</v>
+        <v>288.7550048828125</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1946,10 +1946,10 @@
         <v>4</v>
       </c>
       <c r="B142">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C142" s="2">
-        <v>417.2179870605469</v>
+        <v>262.5069885253906</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1957,10 +1957,10 @@
         <v>4</v>
       </c>
       <c r="B143">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C143" s="2">
-        <v>288.7550048828125</v>
+        <v>280.5329895019531</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1968,10 +1968,10 @@
         <v>4</v>
       </c>
       <c r="B144">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C144" s="2">
-        <v>262.5069885253906</v>
+        <v>313.3160095214844</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1979,10 +1979,10 @@
         <v>4</v>
       </c>
       <c r="B145">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C145" s="2">
-        <v>280.5329895019531</v>
+        <v>198.9100036621094</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1990,10 +1990,10 @@
         <v>4</v>
       </c>
       <c r="B146">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C146" s="2">
-        <v>313.3160095214844</v>
+        <v>216.4730072021484</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2001,10 +2001,10 @@
         <v>4</v>
       </c>
       <c r="B147">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C147" s="2">
-        <v>198.9100036621094</v>
+        <v>208.8679962158203</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2012,10 +2012,10 @@
         <v>4</v>
       </c>
       <c r="B148">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C148" s="2">
-        <v>216.4730072021484</v>
+        <v>175.2420043945312</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2023,10 +2023,10 @@
         <v>4</v>
       </c>
       <c r="B149">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C149" s="2">
-        <v>208.8679962158203</v>
+        <v>170.5480041503906</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2034,10 +2034,10 @@
         <v>4</v>
       </c>
       <c r="B150">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C150" s="2">
-        <v>175.2420043945312</v>
+        <v>180.593994140625</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2045,10 +2045,10 @@
         <v>4</v>
       </c>
       <c r="B151">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C151" s="2">
-        <v>170.5480041503906</v>
+        <v>155.1510009765625</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2056,10 +2056,10 @@
         <v>4</v>
       </c>
       <c r="B152">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C152" s="2">
-        <v>180.593994140625</v>
+        <v>212.1020050048828</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2067,10 +2067,10 @@
         <v>4</v>
       </c>
       <c r="B153">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C153" s="2">
-        <v>155.1510009765625</v>
+        <v>200.2599945068359</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2078,10 +2078,10 @@
         <v>4</v>
       </c>
       <c r="B154">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C154" s="2">
-        <v>212.1020050048828</v>
+        <v>202.3099975585938</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2089,10 +2089,10 @@
         <v>4</v>
       </c>
       <c r="B155">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C155" s="2">
-        <v>200.2599945068359</v>
+        <v>204.322998046875</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2100,10 +2100,10 @@
         <v>4</v>
       </c>
       <c r="B156">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C156" s="2">
-        <v>202.3099975585938</v>
+        <v>201.6100006103516</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2111,10 +2111,10 @@
         <v>4</v>
       </c>
       <c r="B157">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C157" s="2">
-        <v>204.322998046875</v>
+        <v>226.5339965820312</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2122,10 +2122,10 @@
         <v>4</v>
       </c>
       <c r="B158">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C158" s="2">
-        <v>201.6100006103516</v>
+        <v>308.4039916992188</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2133,10 +2133,10 @@
         <v>4</v>
       </c>
       <c r="B159">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C159" s="2">
-        <v>226.5339965820312</v>
+        <v>298.47900390625</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2144,10 +2144,10 @@
         <v>4</v>
       </c>
       <c r="B160">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C160" s="2">
-        <v>308.4039916992188</v>
+        <v>348.1159973144531</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2155,10 +2155,10 @@
         <v>4</v>
       </c>
       <c r="B161">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C161" s="2">
-        <v>298.47900390625</v>
+        <v>313.0029907226562</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2166,10 +2166,10 @@
         <v>4</v>
       </c>
       <c r="B162">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C162" s="2">
-        <v>348.1159973144531</v>
+        <v>346.4849853515625</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2177,32 +2177,32 @@
         <v>4</v>
       </c>
       <c r="B163">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C163" s="2">
-        <v>313.0029907226562</v>
+        <v>320.6570129394531</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B164">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="C164" s="2">
-        <v>346.4849853515625</v>
+        <v>421.8519897460938</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B165">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="C165" s="2">
-        <v>320.6570129394531</v>
+        <v>408.343994140625</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2210,10 +2210,10 @@
         <v>5</v>
       </c>
       <c r="B166">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C166" s="2">
-        <v>421.8519897460938</v>
+        <v>398.8150024414062</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2221,10 +2221,10 @@
         <v>5</v>
       </c>
       <c r="B167">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C167" s="2">
-        <v>408.343994140625</v>
+        <v>308.6279907226562</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2232,10 +2232,10 @@
         <v>5</v>
       </c>
       <c r="B168">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C168" s="2">
-        <v>398.8150024414062</v>
+        <v>196.0720062255859</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2243,10 +2243,10 @@
         <v>5</v>
       </c>
       <c r="B169">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C169" s="2">
-        <v>308.6279907226562</v>
+        <v>252.10400390625</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2254,10 +2254,10 @@
         <v>5</v>
       </c>
       <c r="B170">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C170" s="2">
-        <v>196.0720062255859</v>
+        <v>424.0559997558594</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2265,10 +2265,10 @@
         <v>5</v>
       </c>
       <c r="B171">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C171" s="2">
-        <v>252.10400390625</v>
+        <v>515.177978515625</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2276,10 +2276,10 @@
         <v>5</v>
       </c>
       <c r="B172">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C172" s="2">
-        <v>424.0559997558594</v>
+        <v>279.2319946289062</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2287,10 +2287,10 @@
         <v>5</v>
       </c>
       <c r="B173">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C173" s="2">
-        <v>515.177978515625</v>
+        <v>297.8609924316406</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2298,10 +2298,10 @@
         <v>5</v>
       </c>
       <c r="B174">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C174" s="2">
-        <v>279.2319946289062</v>
+        <v>291.6279907226562</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2309,10 +2309,10 @@
         <v>5</v>
       </c>
       <c r="B175">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C175" s="2">
-        <v>297.8609924316406</v>
+        <v>271.7139892578125</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2320,10 +2320,10 @@
         <v>5</v>
       </c>
       <c r="B176">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C176" s="2">
-        <v>291.6279907226562</v>
+        <v>300.0029907226562</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2331,10 +2331,10 @@
         <v>5</v>
       </c>
       <c r="B177">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C177" s="2">
-        <v>271.7139892578125</v>
+        <v>314.56298828125</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2342,10 +2342,10 @@
         <v>5</v>
       </c>
       <c r="B178">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C178" s="2">
-        <v>300.0029907226562</v>
+        <v>277.1480102539062</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2353,10 +2353,10 @@
         <v>5</v>
       </c>
       <c r="B179">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C179" s="2">
-        <v>314.56298828125</v>
+        <v>247.1190032958984</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2364,10 +2364,10 @@
         <v>5</v>
       </c>
       <c r="B180">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C180" s="2">
-        <v>277.1480102539062</v>
+        <v>164.3809967041016</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2375,10 +2375,10 @@
         <v>5</v>
       </c>
       <c r="B181">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C181" s="2">
-        <v>247.1190032958984</v>
+        <v>148.7350006103516</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2386,10 +2386,10 @@
         <v>5</v>
       </c>
       <c r="B182">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C182" s="2">
-        <v>164.3809967041016</v>
+        <v>136.6419982910156</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2397,10 +2397,10 @@
         <v>5</v>
       </c>
       <c r="B183">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C183" s="2">
-        <v>148.7350006103516</v>
+        <v>156.9230041503906</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2408,10 +2408,10 @@
         <v>5</v>
       </c>
       <c r="B184">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C184" s="2">
-        <v>136.6419982910156</v>
+        <v>164.7989959716797</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2419,10 +2419,10 @@
         <v>5</v>
       </c>
       <c r="B185">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C185" s="2">
-        <v>156.9230041503906</v>
+        <v>146.6849975585938</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2430,10 +2430,10 @@
         <v>5</v>
       </c>
       <c r="B186">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C186" s="2">
-        <v>164.7989959716797</v>
+        <v>79.99199676513672</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2441,10 +2441,10 @@
         <v>5</v>
       </c>
       <c r="B187">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C187" s="2">
-        <v>146.6849975585938</v>
+        <v>38.25799942016602</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2452,10 +2452,10 @@
         <v>5</v>
       </c>
       <c r="B188">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C188" s="2">
-        <v>79.99199676513672</v>
+        <v>74.76699829101562</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2463,10 +2463,10 @@
         <v>5</v>
       </c>
       <c r="B189">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C189" s="2">
-        <v>38.25799942016602</v>
+        <v>46.90800094604492</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2474,10 +2474,10 @@
         <v>5</v>
       </c>
       <c r="B190">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C190" s="2">
-        <v>74.76699829101562</v>
+        <v>39.37599945068359</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2485,10 +2485,10 @@
         <v>5</v>
       </c>
       <c r="B191">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C191" s="2">
-        <v>46.90800094604492</v>
+        <v>-34.90900039672852</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2496,10 +2496,10 @@
         <v>5</v>
       </c>
       <c r="B192">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C192" s="2">
-        <v>39.37599945068359</v>
+        <v>14.1230001449585</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2507,10 +2507,10 @@
         <v>5</v>
       </c>
       <c r="B193">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C193" s="2">
-        <v>-34.90900039672852</v>
+        <v>-78.69300079345703</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2518,10 +2518,10 @@
         <v>5</v>
       </c>
       <c r="B194">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C194" s="2">
-        <v>14.1230001449585</v>
+        <v>-99.86100006103516</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2529,10 +2529,10 @@
         <v>5</v>
       </c>
       <c r="B195">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C195" s="2">
-        <v>-78.69300079345703</v>
+        <v>-146.1380004882812</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2540,10 +2540,10 @@
         <v>5</v>
       </c>
       <c r="B196">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C196" s="2">
-        <v>-99.86100006103516</v>
+        <v>242.3840026855469</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2551,10 +2551,10 @@
         <v>5</v>
       </c>
       <c r="B197">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C197" s="2">
-        <v>-146.1380004882812</v>
+        <v>160.4299926757812</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2562,10 +2562,10 @@
         <v>5</v>
       </c>
       <c r="B198">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C198" s="2">
-        <v>242.3840026855469</v>
+        <v>143.2209930419922</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2573,10 +2573,10 @@
         <v>5</v>
       </c>
       <c r="B199">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C199" s="2">
-        <v>160.4299926757812</v>
+        <v>159.4420013427734</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2584,10 +2584,10 @@
         <v>5</v>
       </c>
       <c r="B200">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C200" s="2">
-        <v>143.2209930419922</v>
+        <v>80.26799774169922</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2595,10 +2595,10 @@
         <v>5</v>
       </c>
       <c r="B201">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C201" s="2">
-        <v>159.4420013427734</v>
+        <v>132.1360015869141</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2606,10 +2606,10 @@
         <v>5</v>
       </c>
       <c r="B202">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C202" s="2">
-        <v>80.26799774169922</v>
+        <v>175.7550048828125</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2617,10 +2617,10 @@
         <v>5</v>
       </c>
       <c r="B203">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C203" s="2">
-        <v>132.1360015869141</v>
+        <v>337.85400390625</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2628,10 +2628,10 @@
         <v>5</v>
       </c>
       <c r="B204">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C204" s="2">
-        <v>175.7550048828125</v>
+        <v>357.0029907226562</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2639,10 +2639,10 @@
         <v>5</v>
       </c>
       <c r="B205">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C205" s="2">
-        <v>337.85400390625</v>
+        <v>307.8089904785156</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2650,10 +2650,10 @@
         <v>5</v>
       </c>
       <c r="B206">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C206" s="2">
-        <v>357.0029907226562</v>
+        <v>377.0820007324219</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2661,10 +2661,10 @@
         <v>5</v>
       </c>
       <c r="B207">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C207" s="2">
-        <v>307.8089904785156</v>
+        <v>427.1319885253906</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2672,10 +2672,10 @@
         <v>5</v>
       </c>
       <c r="B208">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C208" s="2">
-        <v>377.0820007324219</v>
+        <v>410.0029907226562</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2683,10 +2683,10 @@
         <v>5</v>
       </c>
       <c r="B209">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C209" s="2">
-        <v>427.1319885253906</v>
+        <v>377.7739868164062</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2694,10 +2694,10 @@
         <v>5</v>
       </c>
       <c r="B210">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C210" s="2">
-        <v>410.0029907226562</v>
+        <v>269.4230041503906</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2705,10 +2705,10 @@
         <v>5</v>
       </c>
       <c r="B211">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C211" s="2">
-        <v>377.7739868164062</v>
+        <v>271.739013671875</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2716,10 +2716,10 @@
         <v>5</v>
       </c>
       <c r="B212">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C212" s="2">
-        <v>269.4230041503906</v>
+        <v>320.052001953125</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2727,10 +2727,10 @@
         <v>5</v>
       </c>
       <c r="B213">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C213" s="2">
-        <v>271.739013671875</v>
+        <v>358.8169860839844</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2738,10 +2738,10 @@
         <v>5</v>
       </c>
       <c r="B214">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C214" s="2">
-        <v>320.052001953125</v>
+        <v>330.8080139160156</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2749,10 +2749,10 @@
         <v>5</v>
       </c>
       <c r="B215">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C215" s="2">
-        <v>358.8169860839844</v>
+        <v>358.7080078125</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2760,10 +2760,10 @@
         <v>5</v>
       </c>
       <c r="B216">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C216" s="2">
-        <v>330.8080139160156</v>
+        <v>192.6860046386719</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2771,10 +2771,10 @@
         <v>5</v>
       </c>
       <c r="B217">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C217" s="2">
-        <v>358.7080078125</v>
+        <v>182.322998046875</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2782,10 +2782,10 @@
         <v>5</v>
       </c>
       <c r="B218">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C218" s="2">
-        <v>192.6860046386719</v>
+        <v>168</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2793,10 +2793,10 @@
         <v>5</v>
       </c>
       <c r="B219">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C219" s="2">
-        <v>182.322998046875</v>
+        <v>187.2510070800781</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2804,10 +2804,10 @@
         <v>5</v>
       </c>
       <c r="B220">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C220" s="2">
-        <v>168</v>
+        <v>151.0330047607422</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2815,10 +2815,10 @@
         <v>5</v>
       </c>
       <c r="B221">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C221" s="2">
-        <v>187.2510070800781</v>
+        <v>143.8670043945312</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2826,10 +2826,10 @@
         <v>5</v>
       </c>
       <c r="B222">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C222" s="2">
-        <v>151.0330047607422</v>
+        <v>172.0390014648438</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2837,10 +2837,10 @@
         <v>5</v>
       </c>
       <c r="B223">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C223" s="2">
-        <v>143.8670043945312</v>
+        <v>181.7270050048828</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2848,10 +2848,10 @@
         <v>5</v>
       </c>
       <c r="B224">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C224" s="2">
-        <v>172.0390014648438</v>
+        <v>205.947998046875</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2859,10 +2859,10 @@
         <v>5</v>
       </c>
       <c r="B225">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C225" s="2">
-        <v>181.7270050048828</v>
+        <v>238.85400390625</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2870,10 +2870,10 @@
         <v>5</v>
       </c>
       <c r="B226">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C226" s="2">
-        <v>205.947998046875</v>
+        <v>265.7959899902344</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2881,10 +2881,10 @@
         <v>5</v>
       </c>
       <c r="B227">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C227" s="2">
-        <v>238.85400390625</v>
+        <v>302.5079956054688</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2892,10 +2892,10 @@
         <v>5</v>
       </c>
       <c r="B228">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C228" s="2">
-        <v>265.7959899902344</v>
+        <v>325.1919860839844</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2903,10 +2903,10 @@
         <v>5</v>
       </c>
       <c r="B229">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C229" s="2">
-        <v>302.5079956054688</v>
+        <v>361.5870056152344</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2914,10 +2914,10 @@
         <v>5</v>
       </c>
       <c r="B230">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C230" s="2">
-        <v>325.1919860839844</v>
+        <v>401.5429992675781</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2925,10 +2925,10 @@
         <v>5</v>
       </c>
       <c r="B231">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C231" s="2">
-        <v>361.5870056152344</v>
+        <v>465.9609985351562</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2936,10 +2936,10 @@
         <v>5</v>
       </c>
       <c r="B232">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C232" s="2">
-        <v>401.5429992675781</v>
+        <v>445.4309997558594</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2947,10 +2947,10 @@
         <v>5</v>
       </c>
       <c r="B233">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C233" s="2">
-        <v>465.9609985351562</v>
+        <v>507.885986328125</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2958,10 +2958,10 @@
         <v>5</v>
       </c>
       <c r="B234">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C234" s="2">
-        <v>445.4309997558594</v>
+        <v>538.4000244140625</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2969,10 +2969,10 @@
         <v>5</v>
       </c>
       <c r="B235">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C235" s="2">
-        <v>507.885986328125</v>
+        <v>607.5819702148438</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2980,10 +2980,10 @@
         <v>5</v>
       </c>
       <c r="B236">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C236" s="2">
-        <v>538.4000244140625</v>
+        <v>628.2999877929688</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2991,10 +2991,10 @@
         <v>5</v>
       </c>
       <c r="B237">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C237" s="2">
-        <v>607.5819702148438</v>
+        <v>555.4879760742188</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3002,10 +3002,10 @@
         <v>5</v>
       </c>
       <c r="B238">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C238" s="2">
-        <v>628.2999877929688</v>
+        <v>590.1370239257812</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3013,10 +3013,10 @@
         <v>5</v>
       </c>
       <c r="B239">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C239" s="2">
-        <v>555.4879760742188</v>
+        <v>798.5900268554688</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3024,10 +3024,10 @@
         <v>5</v>
       </c>
       <c r="B240">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C240" s="2">
-        <v>590.1370239257812</v>
+        <v>724.5390014648438</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3035,10 +3035,10 @@
         <v>5</v>
       </c>
       <c r="B241">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C241" s="2">
-        <v>798.5900268554688</v>
+        <v>731.530029296875</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3046,10 +3046,10 @@
         <v>5</v>
       </c>
       <c r="B242">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C242" s="2">
-        <v>724.5390014648438</v>
+        <v>796.18701171875</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3057,10 +3057,10 @@
         <v>5</v>
       </c>
       <c r="B243">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C243" s="2">
-        <v>731.530029296875</v>
+        <v>790.3480224609375</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3068,10 +3068,10 @@
         <v>5</v>
       </c>
       <c r="B244">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C244" s="2">
-        <v>796.18701171875</v>
+        <v>724.2589721679688</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3079,10 +3079,10 @@
         <v>5</v>
       </c>
       <c r="B245">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C245" s="2">
-        <v>790.3480224609375</v>
+        <v>684.0079956054688</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3090,10 +3090,10 @@
         <v>5</v>
       </c>
       <c r="B246">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C246" s="2">
-        <v>724.2589721679688</v>
+        <v>597.7899780273438</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3101,10 +3101,10 @@
         <v>5</v>
       </c>
       <c r="B247">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C247" s="2">
-        <v>684.0079956054688</v>
+        <v>375.3580017089844</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3112,10 +3112,10 @@
         <v>5</v>
       </c>
       <c r="B248">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C248" s="2">
-        <v>597.7899780273438</v>
+        <v>318.5700073242188</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3123,10 +3123,10 @@
         <v>5</v>
       </c>
       <c r="B249">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C249" s="2">
-        <v>375.3580017089844</v>
+        <v>301.93701171875</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3134,10 +3134,10 @@
         <v>5</v>
       </c>
       <c r="B250">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C250" s="2">
-        <v>318.5700073242188</v>
+        <v>314.1270141601562</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3145,10 +3145,10 @@
         <v>5</v>
       </c>
       <c r="B251">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C251" s="2">
-        <v>301.93701171875</v>
+        <v>401.3320007324219</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3156,10 +3156,10 @@
         <v>5</v>
       </c>
       <c r="B252">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C252" s="2">
-        <v>314.1270141601562</v>
+        <v>347.3399963378906</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3167,10 +3167,10 @@
         <v>5</v>
       </c>
       <c r="B253">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C253" s="2">
-        <v>401.3320007324219</v>
+        <v>257.7820129394531</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3178,10 +3178,10 @@
         <v>5</v>
       </c>
       <c r="B254">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C254" s="2">
-        <v>347.3399963378906</v>
+        <v>426.2250061035156</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3189,10 +3189,10 @@
         <v>5</v>
       </c>
       <c r="B255">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C255" s="2">
-        <v>257.7820129394531</v>
+        <v>443.9509887695312</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3200,10 +3200,10 @@
         <v>5</v>
       </c>
       <c r="B256">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C256" s="2">
-        <v>426.2250061035156</v>
+        <v>491.9809875488281</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3211,10 +3211,10 @@
         <v>5</v>
       </c>
       <c r="B257">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C257" s="2">
-        <v>443.9509887695312</v>
+        <v>576.7479858398438</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3222,10 +3222,10 @@
         <v>5</v>
       </c>
       <c r="B258">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C258" s="2">
-        <v>491.9809875488281</v>
+        <v>615.3599853515625</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3233,32 +3233,32 @@
         <v>5</v>
       </c>
       <c r="B259">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C259" s="2">
-        <v>576.7479858398438</v>
+        <v>578.9119873046875</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B260">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="C260" s="2">
-        <v>615.3599853515625</v>
+        <v>474.4049987792969</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B261">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="C261" s="2">
-        <v>578.9119873046875</v>
+        <v>513.4149780273438</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3266,10 +3266,10 @@
         <v>6</v>
       </c>
       <c r="B262">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C262" s="2">
-        <v>474.4049987792969</v>
+        <v>495.5499877929688</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3277,10 +3277,10 @@
         <v>6</v>
       </c>
       <c r="B263">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C263" s="2">
-        <v>513.4149780273438</v>
+        <v>564.7020263671875</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3288,10 +3288,10 @@
         <v>6</v>
       </c>
       <c r="B264">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C264" s="2">
-        <v>495.5499877929688</v>
+        <v>609.6939697265625</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3299,10 +3299,10 @@
         <v>6</v>
       </c>
       <c r="B265">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C265" s="2">
-        <v>564.7020263671875</v>
+        <v>583.4359741210938</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3310,10 +3310,10 @@
         <v>6</v>
       </c>
       <c r="B266">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C266" s="2">
-        <v>609.6939697265625</v>
+        <v>597.14501953125</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3321,10 +3321,10 @@
         <v>6</v>
       </c>
       <c r="B267">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C267" s="2">
-        <v>583.4359741210938</v>
+        <v>620.1599731445312</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3332,10 +3332,10 @@
         <v>6</v>
       </c>
       <c r="B268">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C268" s="2">
-        <v>597.14501953125</v>
+        <v>565.989013671875</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3343,10 +3343,10 @@
         <v>6</v>
       </c>
       <c r="B269">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C269" s="2">
-        <v>620.1599731445312</v>
+        <v>617.468017578125</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3354,10 +3354,10 @@
         <v>6</v>
       </c>
       <c r="B270">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C270" s="2">
-        <v>565.989013671875</v>
+        <v>662.0050048828125</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3365,10 +3365,10 @@
         <v>6</v>
       </c>
       <c r="B271">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C271" s="2">
-        <v>617.468017578125</v>
+        <v>682.1859741210938</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3376,10 +3376,10 @@
         <v>6</v>
       </c>
       <c r="B272">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C272" s="2">
-        <v>662.0050048828125</v>
+        <v>663.2890014648438</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3387,10 +3387,10 @@
         <v>6</v>
       </c>
       <c r="B273">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C273" s="2">
-        <v>682.1859741210938</v>
+        <v>669.8610229492188</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3398,10 +3398,10 @@
         <v>6</v>
       </c>
       <c r="B274">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C274" s="2">
-        <v>663.2890014648438</v>
+        <v>595.9229736328125</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3409,10 +3409,10 @@
         <v>6</v>
       </c>
       <c r="B275">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C275" s="2">
-        <v>669.8610229492188</v>
+        <v>615.8809814453125</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3420,10 +3420,10 @@
         <v>6</v>
       </c>
       <c r="B276">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C276" s="2">
-        <v>595.9229736328125</v>
+        <v>612.4849853515625</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3431,10 +3431,10 @@
         <v>6</v>
       </c>
       <c r="B277">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C277" s="2">
-        <v>615.8809814453125</v>
+        <v>543.2919921875</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3442,10 +3442,10 @@
         <v>6</v>
       </c>
       <c r="B278">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C278" s="2">
-        <v>612.4849853515625</v>
+        <v>590.323974609375</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3453,10 +3453,10 @@
         <v>6</v>
       </c>
       <c r="B279">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C279" s="2">
-        <v>543.2919921875</v>
+        <v>693.1589965820312</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3464,10 +3464,10 @@
         <v>6</v>
       </c>
       <c r="B280">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C280" s="2">
-        <v>590.323974609375</v>
+        <v>669.0540161132812</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3475,10 +3475,10 @@
         <v>6</v>
       </c>
       <c r="B281">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C281" s="2">
-        <v>693.1589965820312</v>
+        <v>662.5560302734375</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3486,10 +3486,10 @@
         <v>6</v>
       </c>
       <c r="B282">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C282" s="2">
-        <v>669.0540161132812</v>
+        <v>669.7030029296875</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3497,10 +3497,10 @@
         <v>6</v>
       </c>
       <c r="B283">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C283" s="2">
-        <v>662.5560302734375</v>
+        <v>568.489013671875</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3508,10 +3508,10 @@
         <v>6</v>
       </c>
       <c r="B284">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C284" s="2">
-        <v>669.7030029296875</v>
+        <v>555.4639892578125</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3519,10 +3519,10 @@
         <v>6</v>
       </c>
       <c r="B285">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C285" s="2">
-        <v>568.489013671875</v>
+        <v>526.1740112304688</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3530,10 +3530,10 @@
         <v>6</v>
       </c>
       <c r="B286">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C286" s="2">
-        <v>555.4639892578125</v>
+        <v>497.81298828125</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3541,10 +3541,10 @@
         <v>6</v>
       </c>
       <c r="B287">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C287" s="2">
-        <v>526.1740112304688</v>
+        <v>532.7769775390625</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3552,10 +3552,10 @@
         <v>6</v>
       </c>
       <c r="B288">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C288" s="2">
-        <v>497.81298828125</v>
+        <v>517.2769775390625</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3563,10 +3563,10 @@
         <v>6</v>
       </c>
       <c r="B289">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C289" s="2">
-        <v>532.7769775390625</v>
+        <v>498.5329895019531</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3574,10 +3574,10 @@
         <v>6</v>
       </c>
       <c r="B290">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C290" s="2">
-        <v>517.2769775390625</v>
+        <v>419.3619995117188</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3585,10 +3585,10 @@
         <v>6</v>
       </c>
       <c r="B291">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C291" s="2">
-        <v>498.5329895019531</v>
+        <v>415.0369873046875</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3596,10 +3596,10 @@
         <v>6</v>
       </c>
       <c r="B292">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C292" s="2">
-        <v>419.3619995117188</v>
+        <v>350.8280029296875</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3607,10 +3607,10 @@
         <v>6</v>
       </c>
       <c r="B293">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C293" s="2">
-        <v>415.0369873046875</v>
+        <v>349.0010070800781</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3618,10 +3618,10 @@
         <v>6</v>
       </c>
       <c r="B294">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C294" s="2">
-        <v>350.8280029296875</v>
+        <v>427.1260070800781</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3629,10 +3629,10 @@
         <v>6</v>
       </c>
       <c r="B295">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C295" s="2">
-        <v>349.0010070800781</v>
+        <v>450.4179992675781</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3640,10 +3640,10 @@
         <v>6</v>
       </c>
       <c r="B296">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C296" s="2">
-        <v>427.1260070800781</v>
+        <v>435.5920104980469</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3651,10 +3651,10 @@
         <v>6</v>
       </c>
       <c r="B297">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C297" s="2">
-        <v>450.4179992675781</v>
+        <v>514.9219970703125</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3662,10 +3662,10 @@
         <v>6</v>
       </c>
       <c r="B298">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C298" s="2">
-        <v>435.5920104980469</v>
+        <v>464.4540100097656</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3673,10 +3673,10 @@
         <v>6</v>
       </c>
       <c r="B299">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C299" s="2">
-        <v>514.9219970703125</v>
+        <v>406.0119934082031</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3684,10 +3684,10 @@
         <v>6</v>
       </c>
       <c r="B300">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C300" s="2">
-        <v>464.4540100097656</v>
+        <v>402.6180114746094</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3695,10 +3695,10 @@
         <v>6</v>
       </c>
       <c r="B301">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C301" s="2">
-        <v>406.0119934082031</v>
+        <v>399.6789855957031</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3706,10 +3706,10 @@
         <v>6</v>
       </c>
       <c r="B302">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C302" s="2">
-        <v>402.6180114746094</v>
+        <v>357.6690063476562</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3717,10 +3717,10 @@
         <v>6</v>
       </c>
       <c r="B303">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C303" s="2">
-        <v>399.6789855957031</v>
+        <v>243.7530059814453</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3728,10 +3728,10 @@
         <v>6</v>
       </c>
       <c r="B304">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C304" s="2">
-        <v>357.6690063476562</v>
+        <v>284.6619873046875</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3739,10 +3739,10 @@
         <v>6</v>
       </c>
       <c r="B305">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C305" s="2">
-        <v>243.7530059814453</v>
+        <v>383.6499938964844</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3750,10 +3750,10 @@
         <v>6</v>
       </c>
       <c r="B306">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C306" s="2">
-        <v>284.6619873046875</v>
+        <v>434.0509948730469</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3761,10 +3761,10 @@
         <v>6</v>
       </c>
       <c r="B307">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C307" s="2">
-        <v>383.6499938964844</v>
+        <v>463.0580139160156</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3772,10 +3772,10 @@
         <v>6</v>
       </c>
       <c r="B308">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C308" s="2">
-        <v>434.0509948730469</v>
+        <v>454.18701171875</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3783,10 +3783,10 @@
         <v>6</v>
       </c>
       <c r="B309">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C309" s="2">
-        <v>463.0580139160156</v>
+        <v>408.8789978027344</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3794,10 +3794,10 @@
         <v>6</v>
       </c>
       <c r="B310">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C310" s="2">
-        <v>454.18701171875</v>
+        <v>480.39599609375</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3805,10 +3805,10 @@
         <v>6</v>
       </c>
       <c r="B311">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C311" s="2">
-        <v>408.8789978027344</v>
+        <v>599.156005859375</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3816,10 +3816,10 @@
         <v>6</v>
       </c>
       <c r="B312">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C312" s="2">
-        <v>480.39599609375</v>
+        <v>565.322998046875</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3827,10 +3827,10 @@
         <v>6</v>
       </c>
       <c r="B313">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C313" s="2">
-        <v>599.156005859375</v>
+        <v>639.9130249023438</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3838,10 +3838,10 @@
         <v>6</v>
       </c>
       <c r="B314">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C314" s="2">
-        <v>565.322998046875</v>
+        <v>910.2009887695312</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3849,10 +3849,10 @@
         <v>6</v>
       </c>
       <c r="B315">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C315" s="2">
-        <v>639.9130249023438</v>
+        <v>949.427978515625</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3860,10 +3860,10 @@
         <v>6</v>
       </c>
       <c r="B316">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C316" s="2">
-        <v>910.2009887695312</v>
+        <v>871.260986328125</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -3871,10 +3871,10 @@
         <v>6</v>
       </c>
       <c r="B317">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C317" s="2">
-        <v>949.427978515625</v>
+        <v>971.5430297851562</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -3882,10 +3882,10 @@
         <v>6</v>
       </c>
       <c r="B318">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C318" s="2">
-        <v>871.260986328125</v>
+        <v>1228.741943359375</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -3893,10 +3893,10 @@
         <v>6</v>
       </c>
       <c r="B319">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C319" s="2">
-        <v>971.5430297851562</v>
+        <v>1212.767944335938</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -3904,10 +3904,10 @@
         <v>6</v>
       </c>
       <c r="B320">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C320" s="2">
-        <v>1228.741943359375</v>
+        <v>1360.682006835938</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -3915,10 +3915,10 @@
         <v>6</v>
       </c>
       <c r="B321">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C321" s="2">
-        <v>1212.767944335938</v>
+        <v>1399.89599609375</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -3926,10 +3926,10 @@
         <v>6</v>
       </c>
       <c r="B322">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C322" s="2">
-        <v>1360.682006835938</v>
+        <v>1482.991943359375</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -3937,10 +3937,10 @@
         <v>6</v>
       </c>
       <c r="B323">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C323" s="2">
-        <v>1399.89599609375</v>
+        <v>1420.220947265625</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -3948,10 +3948,10 @@
         <v>6</v>
       </c>
       <c r="B324">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C324" s="2">
-        <v>1482.991943359375</v>
+        <v>1355.342041015625</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -3959,10 +3959,10 @@
         <v>6</v>
       </c>
       <c r="B325">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C325" s="2">
-        <v>1420.220947265625</v>
+        <v>1349.89599609375</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -3970,10 +3970,10 @@
         <v>6</v>
       </c>
       <c r="B326">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C326" s="2">
-        <v>1355.342041015625</v>
+        <v>1218.381958007812</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -3981,10 +3981,10 @@
         <v>6</v>
       </c>
       <c r="B327">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C327" s="2">
-        <v>1349.89599609375</v>
+        <v>1206.262939453125</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -3992,10 +3992,10 @@
         <v>6</v>
       </c>
       <c r="B328">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C328" s="2">
-        <v>1218.381958007812</v>
+        <v>1029.586059570312</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -4003,10 +4003,10 @@
         <v>6</v>
       </c>
       <c r="B329">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C329" s="2">
-        <v>1206.262939453125</v>
+        <v>1050.60498046875</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -4014,10 +4014,10 @@
         <v>6</v>
       </c>
       <c r="B330">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C330" s="2">
-        <v>1029.586059570312</v>
+        <v>1095.858032226562</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4025,10 +4025,10 @@
         <v>6</v>
       </c>
       <c r="B331">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C331" s="2">
-        <v>1050.60498046875</v>
+        <v>1015.820007324219</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4036,10 +4036,10 @@
         <v>6</v>
       </c>
       <c r="B332">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C332" s="2">
-        <v>1095.858032226562</v>
+        <v>1008.817016601562</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4047,10 +4047,10 @@
         <v>6</v>
       </c>
       <c r="B333">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C333" s="2">
-        <v>1015.820007324219</v>
+        <v>939.9869995117188</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4058,10 +4058,10 @@
         <v>6</v>
       </c>
       <c r="B334">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C334" s="2">
-        <v>1008.817016601562</v>
+        <v>977.14501953125</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4069,10 +4069,10 @@
         <v>6</v>
       </c>
       <c r="B335">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C335" s="2">
-        <v>939.9869995117188</v>
+        <v>899.7219848632812</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4080,10 +4080,10 @@
         <v>6</v>
       </c>
       <c r="B336">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C336" s="2">
-        <v>977.14501953125</v>
+        <v>904.3510131835938</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4091,10 +4091,10 @@
         <v>6</v>
       </c>
       <c r="B337">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C337" s="2">
-        <v>899.7219848632812</v>
+        <v>968.7620239257812</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4102,10 +4102,10 @@
         <v>6</v>
       </c>
       <c r="B338">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C338" s="2">
-        <v>904.3510131835938</v>
+        <v>1163.251953125</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4113,10 +4113,10 @@
         <v>6</v>
       </c>
       <c r="B339">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C339" s="2">
-        <v>968.7620239257812</v>
+        <v>1102.193969726562</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4124,10 +4124,10 @@
         <v>6</v>
       </c>
       <c r="B340">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C340" s="2">
-        <v>1163.251953125</v>
+        <v>1321.928955078125</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4135,10 +4135,10 @@
         <v>6</v>
       </c>
       <c r="B341">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C341" s="2">
-        <v>1102.193969726562</v>
+        <v>1347.649047851562</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4146,10 +4146,10 @@
         <v>6</v>
       </c>
       <c r="B342">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C342" s="2">
-        <v>1321.928955078125</v>
+        <v>1014.799987792969</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4157,10 +4157,10 @@
         <v>6</v>
       </c>
       <c r="B343">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C343" s="2">
-        <v>1347.649047851562</v>
+        <v>813.4249877929688</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4168,10 +4168,10 @@
         <v>6</v>
       </c>
       <c r="B344">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C344" s="2">
-        <v>1014.799987792969</v>
+        <v>686.4879760742188</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4179,10 +4179,10 @@
         <v>6</v>
       </c>
       <c r="B345">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C345" s="2">
-        <v>813.4249877929688</v>
+        <v>703.8460083007812</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4190,10 +4190,10 @@
         <v>6</v>
       </c>
       <c r="B346">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C346" s="2">
-        <v>686.4879760742188</v>
+        <v>593.5079956054688</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -4201,10 +4201,10 @@
         <v>6</v>
       </c>
       <c r="B347">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C347" s="2">
-        <v>703.8460083007812</v>
+        <v>546.3469848632812</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4212,10 +4212,10 @@
         <v>6</v>
       </c>
       <c r="B348">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C348" s="2">
-        <v>593.5079956054688</v>
+        <v>550.0430297851562</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -4223,10 +4223,10 @@
         <v>6</v>
       </c>
       <c r="B349">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C349" s="2">
-        <v>546.3469848632812</v>
+        <v>516.968017578125</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4234,10 +4234,10 @@
         <v>6</v>
       </c>
       <c r="B350">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C350" s="2">
-        <v>550.0430297851562</v>
+        <v>577.2680053710938</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -4245,10 +4245,10 @@
         <v>6</v>
       </c>
       <c r="B351">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C351" s="2">
-        <v>516.968017578125</v>
+        <v>678.8729858398438</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4256,10 +4256,10 @@
         <v>6</v>
       </c>
       <c r="B352">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C352" s="2">
-        <v>577.2680053710938</v>
+        <v>674.1890258789062</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4267,10 +4267,10 @@
         <v>6</v>
       </c>
       <c r="B353">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C353" s="2">
-        <v>678.8729858398438</v>
+        <v>817.885009765625</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4278,10 +4278,10 @@
         <v>6</v>
       </c>
       <c r="B354">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C354" s="2">
-        <v>674.1890258789062</v>
+        <v>626.2630004882812</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4289,32 +4289,32 @@
         <v>6</v>
       </c>
       <c r="B355">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C355" s="2">
-        <v>817.885009765625</v>
+        <v>543.8289794921875</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B356">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="C356" s="2">
-        <v>626.2630004882812</v>
+        <v>416.9389953613281</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B357">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="C357" s="2">
-        <v>543.8289794921875</v>
+        <v>556.906982421875</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -4322,10 +4322,10 @@
         <v>7</v>
       </c>
       <c r="B358">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C358" s="2">
-        <v>416.9389953613281</v>
+        <v>613.7789916992188</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4333,10 +4333,10 @@
         <v>7</v>
       </c>
       <c r="B359">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C359" s="2">
-        <v>556.906982421875</v>
+        <v>630.3660278320312</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4344,10 +4344,10 @@
         <v>7</v>
       </c>
       <c r="B360">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C360" s="2">
-        <v>613.7789916992188</v>
+        <v>625.8889770507812</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4355,10 +4355,10 @@
         <v>7</v>
       </c>
       <c r="B361">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C361" s="2">
-        <v>630.3660278320312</v>
+        <v>626.9149780273438</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4366,10 +4366,10 @@
         <v>7</v>
       </c>
       <c r="B362">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C362" s="2">
-        <v>625.8889770507812</v>
+        <v>781.2269897460938</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4377,10 +4377,10 @@
         <v>7</v>
       </c>
       <c r="B363">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C363" s="2">
-        <v>626.9149780273438</v>
+        <v>862.1909790039062</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4388,10 +4388,10 @@
         <v>7</v>
       </c>
       <c r="B364">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C364" s="2">
-        <v>781.2269897460938</v>
+        <v>795.6829833984375</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4399,10 +4399,10 @@
         <v>7</v>
       </c>
       <c r="B365">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C365" s="2">
-        <v>862.1909790039062</v>
+        <v>800.8170166015625</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4410,10 +4410,10 @@
         <v>7</v>
       </c>
       <c r="B366">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C366" s="2">
-        <v>795.6829833984375</v>
+        <v>722.4730224609375</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -4421,10 +4421,10 @@
         <v>7</v>
       </c>
       <c r="B367">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C367" s="2">
-        <v>800.8170166015625</v>
+        <v>778.0230102539062</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -4432,10 +4432,10 @@
         <v>7</v>
       </c>
       <c r="B368">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C368" s="2">
-        <v>722.4730224609375</v>
+        <v>847.1400146484375</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4443,10 +4443,10 @@
         <v>7</v>
       </c>
       <c r="B369">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C369" s="2">
-        <v>778.0230102539062</v>
+        <v>939.947998046875</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -4454,10 +4454,10 @@
         <v>7</v>
       </c>
       <c r="B370">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C370" s="2">
-        <v>847.1400146484375</v>
+        <v>733.8179931640625</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -4465,10 +4465,10 @@
         <v>7</v>
       </c>
       <c r="B371">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C371" s="2">
-        <v>939.947998046875</v>
+        <v>689.9340209960938</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -4476,10 +4476,10 @@
         <v>7</v>
       </c>
       <c r="B372">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C372" s="2">
-        <v>733.8179931640625</v>
+        <v>378.8670043945312</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -4487,10 +4487,10 @@
         <v>7</v>
       </c>
       <c r="B373">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C373" s="2">
-        <v>689.9340209960938</v>
+        <v>420.1759948730469</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4498,10 +4498,10 @@
         <v>7</v>
       </c>
       <c r="B374">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C374" s="2">
-        <v>378.8670043945312</v>
+        <v>359.1669921875</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4509,10 +4509,10 @@
         <v>7</v>
       </c>
       <c r="B375">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C375" s="2">
-        <v>420.1759948730469</v>
+        <v>450.5239868164062</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4520,10 +4520,10 @@
         <v>7</v>
       </c>
       <c r="B376">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C376" s="2">
-        <v>359.1669921875</v>
+        <v>268.1520080566406</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -4531,10 +4531,10 @@
         <v>7</v>
       </c>
       <c r="B377">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C377" s="2">
-        <v>450.5239868164062</v>
+        <v>168.0010070800781</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -4542,10 +4542,10 @@
         <v>7</v>
       </c>
       <c r="B378">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C378" s="2">
-        <v>268.1520080566406</v>
+        <v>120.4629974365234</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -4553,10 +4553,10 @@
         <v>7</v>
       </c>
       <c r="B379">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C379" s="2">
-        <v>168.0010070800781</v>
+        <v>168.4239959716797</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -4564,10 +4564,10 @@
         <v>7</v>
       </c>
       <c r="B380">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C380" s="2">
-        <v>120.4629974365234</v>
+        <v>157.1490020751953</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4575,10 +4575,10 @@
         <v>7</v>
       </c>
       <c r="B381">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C381" s="2">
-        <v>168.4239959716797</v>
+        <v>258.9660034179688</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4586,10 +4586,10 @@
         <v>7</v>
       </c>
       <c r="B382">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C382" s="2">
-        <v>157.1490020751953</v>
+        <v>306.6910095214844</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4597,10 +4597,10 @@
         <v>7</v>
       </c>
       <c r="B383">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C383" s="2">
-        <v>258.9660034179688</v>
+        <v>347.635009765625</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4608,10 +4608,10 @@
         <v>7</v>
       </c>
       <c r="B384">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C384" s="2">
-        <v>306.6910095214844</v>
+        <v>304.9289855957031</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -4619,10 +4619,10 @@
         <v>7</v>
       </c>
       <c r="B385">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C385" s="2">
-        <v>347.635009765625</v>
+        <v>465.3779907226562</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -4630,10 +4630,10 @@
         <v>7</v>
       </c>
       <c r="B386">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C386" s="2">
-        <v>304.9289855957031</v>
+        <v>590.4140014648438</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -4641,10 +4641,10 @@
         <v>7</v>
       </c>
       <c r="B387">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C387" s="2">
-        <v>465.3779907226562</v>
+        <v>869.10498046875</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -4652,10 +4652,10 @@
         <v>7</v>
       </c>
       <c r="B388">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C388" s="2">
-        <v>590.4140014648438</v>
+        <v>726.3499755859375</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4663,10 +4663,10 @@
         <v>7</v>
       </c>
       <c r="B389">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C389" s="2">
-        <v>869.10498046875</v>
+        <v>738.7949829101562</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -4674,10 +4674,10 @@
         <v>7</v>
       </c>
       <c r="B390">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C390" s="2">
-        <v>726.3499755859375</v>
+        <v>658.0989990234375</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -4685,10 +4685,10 @@
         <v>7</v>
       </c>
       <c r="B391">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C391" s="2">
-        <v>738.7949829101562</v>
+        <v>834.5490112304688</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4696,10 +4696,10 @@
         <v>7</v>
       </c>
       <c r="B392">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C392" s="2">
-        <v>658.0989990234375</v>
+        <v>888.947998046875</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -4707,10 +4707,10 @@
         <v>7</v>
       </c>
       <c r="B393">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C393" s="2">
-        <v>834.5490112304688</v>
+        <v>1186.364013671875</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -4718,10 +4718,10 @@
         <v>7</v>
       </c>
       <c r="B394">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C394" s="2">
-        <v>888.947998046875</v>
+        <v>1614.692993164062</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -4729,10 +4729,10 @@
         <v>7</v>
       </c>
       <c r="B395">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C395" s="2">
-        <v>1186.364013671875</v>
+        <v>1637.557983398438</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -4740,10 +4740,10 @@
         <v>7</v>
       </c>
       <c r="B396">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C396" s="2">
-        <v>1614.692993164062</v>
+        <v>1725.822998046875</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -4751,10 +4751,10 @@
         <v>7</v>
       </c>
       <c r="B397">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C397" s="2">
-        <v>1637.557983398438</v>
+        <v>1939.526977539062</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -4762,10 +4762,10 @@
         <v>7</v>
       </c>
       <c r="B398">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C398" s="2">
-        <v>1725.822998046875</v>
+        <v>2079.44189453125</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -4773,10 +4773,10 @@
         <v>7</v>
       </c>
       <c r="B399">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C399" s="2">
-        <v>1939.526977539062</v>
+        <v>2107.93701171875</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -4784,10 +4784,10 @@
         <v>7</v>
       </c>
       <c r="B400">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C400" s="2">
-        <v>2079.44189453125</v>
+        <v>2167.490966796875</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -4795,10 +4795,10 @@
         <v>7</v>
       </c>
       <c r="B401">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C401" s="2">
-        <v>2107.93701171875</v>
+        <v>2224.9140625</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -4806,10 +4806,10 @@
         <v>7</v>
       </c>
       <c r="B402">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C402" s="2">
-        <v>2167.490966796875</v>
+        <v>2169.9140625</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -4817,10 +4817,10 @@
         <v>7</v>
       </c>
       <c r="B403">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C403" s="2">
-        <v>2224.9140625</v>
+        <v>2042.885986328125</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -4828,10 +4828,10 @@
         <v>7</v>
       </c>
       <c r="B404">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C404" s="2">
-        <v>2169.9140625</v>
+        <v>2068.827880859375</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -4839,10 +4839,10 @@
         <v>7</v>
       </c>
       <c r="B405">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C405" s="2">
-        <v>2042.885986328125</v>
+        <v>2010.241943359375</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -4850,10 +4850,10 @@
         <v>7</v>
       </c>
       <c r="B406">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C406" s="2">
-        <v>2068.827880859375</v>
+        <v>2115.51611328125</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -4861,10 +4861,10 @@
         <v>7</v>
       </c>
       <c r="B407">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C407" s="2">
-        <v>2010.241943359375</v>
+        <v>2253.883056640625</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -4872,10 +4872,10 @@
         <v>7</v>
       </c>
       <c r="B408">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C408" s="2">
-        <v>2115.51611328125</v>
+        <v>2275.572021484375</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -4883,10 +4883,10 @@
         <v>7</v>
       </c>
       <c r="B409">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C409" s="2">
-        <v>2253.883056640625</v>
+        <v>2163.64404296875</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -4894,10 +4894,10 @@
         <v>7</v>
       </c>
       <c r="B410">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C410" s="2">
-        <v>2275.572021484375</v>
+        <v>2128.56103515625</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -4905,10 +4905,10 @@
         <v>7</v>
       </c>
       <c r="B411">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C411" s="2">
-        <v>2163.64404296875</v>
+        <v>2106.337890625</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -4916,10 +4916,10 @@
         <v>7</v>
       </c>
       <c r="B412">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C412" s="2">
-        <v>2128.56103515625</v>
+        <v>2136.174072265625</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -4927,10 +4927,10 @@
         <v>7</v>
       </c>
       <c r="B413">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C413" s="2">
-        <v>2106.337890625</v>
+        <v>2096.118896484375</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -4938,10 +4938,10 @@
         <v>7</v>
       </c>
       <c r="B414">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C414" s="2">
-        <v>2136.174072265625</v>
+        <v>2213.208984375</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -4949,10 +4949,10 @@
         <v>7</v>
       </c>
       <c r="B415">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C415" s="2">
-        <v>2096.118896484375</v>
+        <v>2191.073974609375</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -4960,10 +4960,10 @@
         <v>7</v>
       </c>
       <c r="B416">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C416" s="2">
-        <v>2213.208984375</v>
+        <v>2197.277099609375</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -4971,10 +4971,10 @@
         <v>7</v>
       </c>
       <c r="B417">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C417" s="2">
-        <v>2191.073974609375</v>
+        <v>2185.8369140625</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -4982,10 +4982,10 @@
         <v>7</v>
       </c>
       <c r="B418">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C418" s="2">
-        <v>2197.277099609375</v>
+        <v>2167.51708984375</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -4993,10 +4993,10 @@
         <v>7</v>
       </c>
       <c r="B419">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C419" s="2">
-        <v>2185.8369140625</v>
+        <v>2417.93505859375</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -5004,10 +5004,10 @@
         <v>7</v>
       </c>
       <c r="B420">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C420" s="2">
-        <v>2167.51708984375</v>
+        <v>2394.947021484375</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -5015,10 +5015,10 @@
         <v>7</v>
       </c>
       <c r="B421">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C421" s="2">
-        <v>2417.93505859375</v>
+        <v>2386.97705078125</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -5026,10 +5026,10 @@
         <v>7</v>
       </c>
       <c r="B422">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C422" s="2">
-        <v>2394.947021484375</v>
+        <v>2427.952880859375</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -5037,10 +5037,10 @@
         <v>7</v>
       </c>
       <c r="B423">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C423" s="2">
-        <v>2386.97705078125</v>
+        <v>2493.323974609375</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -5048,10 +5048,10 @@
         <v>7</v>
       </c>
       <c r="B424">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C424" s="2">
-        <v>2427.952880859375</v>
+        <v>2505.85009765625</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -5059,10 +5059,10 @@
         <v>7</v>
       </c>
       <c r="B425">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C425" s="2">
-        <v>2493.323974609375</v>
+        <v>2550.998046875</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -5070,10 +5070,10 @@
         <v>7</v>
       </c>
       <c r="B426">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C426" s="2">
-        <v>2505.85009765625</v>
+        <v>2554.554931640625</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -5081,10 +5081,10 @@
         <v>7</v>
       </c>
       <c r="B427">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C427" s="2">
-        <v>2550.998046875</v>
+        <v>2425.447998046875</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -5092,10 +5092,10 @@
         <v>7</v>
       </c>
       <c r="B428">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C428" s="2">
-        <v>2554.554931640625</v>
+        <v>2388.697998046875</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -5103,10 +5103,10 @@
         <v>7</v>
       </c>
       <c r="B429">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C429" s="2">
-        <v>2425.447998046875</v>
+        <v>2405.094970703125</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -5114,10 +5114,10 @@
         <v>7</v>
       </c>
       <c r="B430">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C430" s="2">
-        <v>2388.697998046875</v>
+        <v>2430.47412109375</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -5125,10 +5125,10 @@
         <v>7</v>
       </c>
       <c r="B431">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C431" s="2">
-        <v>2405.094970703125</v>
+        <v>2465.635986328125</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -5136,10 +5136,10 @@
         <v>7</v>
       </c>
       <c r="B432">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C432" s="2">
-        <v>2430.47412109375</v>
+        <v>2465.035888671875</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -5147,10 +5147,10 @@
         <v>7</v>
       </c>
       <c r="B433">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C433" s="2">
-        <v>2465.635986328125</v>
+        <v>2449.591064453125</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -5158,10 +5158,10 @@
         <v>7</v>
       </c>
       <c r="B434">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C434" s="2">
-        <v>2465.035888671875</v>
+        <v>2451.93994140625</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -5169,10 +5169,10 @@
         <v>7</v>
       </c>
       <c r="B435">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C435" s="2">
-        <v>2449.591064453125</v>
+        <v>2467.35400390625</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -5180,10 +5180,10 @@
         <v>7</v>
       </c>
       <c r="B436">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C436" s="2">
-        <v>2451.93994140625</v>
+        <v>2415.986083984375</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -5191,10 +5191,10 @@
         <v>7</v>
       </c>
       <c r="B437">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C437" s="2">
-        <v>2467.35400390625</v>
+        <v>2424.99609375</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -5202,10 +5202,10 @@
         <v>7</v>
       </c>
       <c r="B438">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C438" s="2">
-        <v>2415.986083984375</v>
+        <v>2425.916015625</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -5213,10 +5213,10 @@
         <v>7</v>
       </c>
       <c r="B439">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C439" s="2">
-        <v>2424.99609375</v>
+        <v>2408.693115234375</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -5224,10 +5224,10 @@
         <v>7</v>
       </c>
       <c r="B440">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C440" s="2">
-        <v>2425.916015625</v>
+        <v>2413.657958984375</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -5235,10 +5235,10 @@
         <v>7</v>
       </c>
       <c r="B441">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C441" s="2">
-        <v>2408.693115234375</v>
+        <v>2405.031982421875</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -5246,10 +5246,10 @@
         <v>7</v>
       </c>
       <c r="B442">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C442" s="2">
-        <v>2413.657958984375</v>
+        <v>2424.801025390625</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -5257,10 +5257,10 @@
         <v>7</v>
       </c>
       <c r="B443">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C443" s="2">
-        <v>2405.031982421875</v>
+        <v>2430.5419921875</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -5268,10 +5268,10 @@
         <v>7</v>
       </c>
       <c r="B444">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C444" s="2">
-        <v>2424.801025390625</v>
+        <v>2425.715087890625</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -5279,10 +5279,10 @@
         <v>7</v>
       </c>
       <c r="B445">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C445" s="2">
-        <v>2430.5419921875</v>
+        <v>2451.152099609375</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -5290,10 +5290,10 @@
         <v>7</v>
       </c>
       <c r="B446">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C446" s="2">
-        <v>2425.715087890625</v>
+        <v>2435.969970703125</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -5301,10 +5301,10 @@
         <v>7</v>
       </c>
       <c r="B447">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C447" s="2">
-        <v>2451.152099609375</v>
+        <v>2433.2119140625</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -5312,10 +5312,10 @@
         <v>7</v>
       </c>
       <c r="B448">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C448" s="2">
-        <v>2435.969970703125</v>
+        <v>2397.714111328125</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -5323,10 +5323,10 @@
         <v>7</v>
       </c>
       <c r="B449">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C449" s="2">
-        <v>2433.2119140625</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -5334,10 +5334,10 @@
         <v>7</v>
       </c>
       <c r="B450">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C450" s="2">
-        <v>2397.714111328125</v>
+        <v>2470.486083984375</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -5345,32 +5345,32 @@
         <v>7</v>
       </c>
       <c r="B451">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C451" s="2">
-        <v>2425</v>
+        <v>2472.27392578125</v>
       </c>
     </row>
     <row r="452" spans="1:3">
       <c r="A452" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B452">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="C452" s="2">
-        <v>2470.486083984375</v>
+        <v>2680.073974609375</v>
       </c>
     </row>
     <row r="453" spans="1:3">
       <c r="A453" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B453">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="C453" s="2">
-        <v>2472.27392578125</v>
+        <v>2669.068115234375</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -5378,10 +5378,10 @@
         <v>8</v>
       </c>
       <c r="B454">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C454" s="2">
-        <v>2680.073974609375</v>
+        <v>2663.715087890625</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -5389,10 +5389,10 @@
         <v>8</v>
       </c>
       <c r="B455">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C455" s="2">
-        <v>2669.068115234375</v>
+        <v>2648.75390625</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -5400,10 +5400,10 @@
         <v>8</v>
       </c>
       <c r="B456">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C456" s="2">
-        <v>2663.715087890625</v>
+        <v>2656.97607421875</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -5411,10 +5411,10 @@
         <v>8</v>
       </c>
       <c r="B457">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C457" s="2">
-        <v>2648.75390625</v>
+        <v>2643.416015625</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -5422,10 +5422,10 @@
         <v>8</v>
       </c>
       <c r="B458">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C458" s="2">
-        <v>2656.97607421875</v>
+        <v>2669.39990234375</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -5433,10 +5433,10 @@
         <v>8</v>
       </c>
       <c r="B459">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C459" s="2">
-        <v>2643.416015625</v>
+        <v>2668.055908203125</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -5444,10 +5444,10 @@
         <v>8</v>
       </c>
       <c r="B460">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C460" s="2">
-        <v>2669.39990234375</v>
+        <v>2621.701904296875</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -5455,10 +5455,10 @@
         <v>8</v>
       </c>
       <c r="B461">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C461" s="2">
-        <v>2668.055908203125</v>
+        <v>2619.070068359375</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -5466,10 +5466,10 @@
         <v>8</v>
       </c>
       <c r="B462">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C462" s="2">
-        <v>2621.701904296875</v>
+        <v>2570.2041015625</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -5477,10 +5477,10 @@
         <v>8</v>
       </c>
       <c r="B463">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C463" s="2">
-        <v>2619.070068359375</v>
+        <v>2548.51611328125</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -5488,10 +5488,10 @@
         <v>8</v>
       </c>
       <c r="B464">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C464" s="2">
-        <v>2570.2041015625</v>
+        <v>2556.35400390625</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -5499,10 +5499,10 @@
         <v>8</v>
       </c>
       <c r="B465">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C465" s="2">
-        <v>2548.51611328125</v>
+        <v>2568.77099609375</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -5510,10 +5510,10 @@
         <v>8</v>
       </c>
       <c r="B466">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C466" s="2">
-        <v>2556.35400390625</v>
+        <v>2567.39111328125</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -5521,10 +5521,10 @@
         <v>8</v>
       </c>
       <c r="B467">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C467" s="2">
-        <v>2568.77099609375</v>
+        <v>2541.4951171875</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -5532,10 +5532,10 @@
         <v>8</v>
       </c>
       <c r="B468">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C468" s="2">
-        <v>2567.39111328125</v>
+        <v>2552.60400390625</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -5543,10 +5543,10 @@
         <v>8</v>
       </c>
       <c r="B469">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C469" s="2">
-        <v>2541.4951171875</v>
+        <v>2522.616943359375</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -5554,10 +5554,10 @@
         <v>8</v>
       </c>
       <c r="B470">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C470" s="2">
-        <v>2552.60400390625</v>
+        <v>2524.736083984375</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -5565,10 +5565,10 @@
         <v>8</v>
       </c>
       <c r="B471">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C471" s="2">
-        <v>2522.616943359375</v>
+        <v>2508.912109375</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -5576,10 +5576,10 @@
         <v>8</v>
       </c>
       <c r="B472">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C472" s="2">
-        <v>2524.736083984375</v>
+        <v>2460.8310546875</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -5587,10 +5587,10 @@
         <v>8</v>
       </c>
       <c r="B473">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C473" s="2">
-        <v>2508.912109375</v>
+        <v>2488.116943359375</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -5598,10 +5598,10 @@
         <v>8</v>
       </c>
       <c r="B474">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C474" s="2">
-        <v>2460.8310546875</v>
+        <v>2363.0380859375</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -5609,10 +5609,10 @@
         <v>8</v>
       </c>
       <c r="B475">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C475" s="2">
-        <v>2488.116943359375</v>
+        <v>2380.6630859375</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -5620,10 +5620,10 @@
         <v>8</v>
       </c>
       <c r="B476">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C476" s="2">
-        <v>2363.0380859375</v>
+        <v>2179.778076171875</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -5631,10 +5631,10 @@
         <v>8</v>
       </c>
       <c r="B477">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C477" s="2">
-        <v>2380.6630859375</v>
+        <v>2146.132080078125</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -5642,10 +5642,10 @@
         <v>8</v>
       </c>
       <c r="B478">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C478" s="2">
-        <v>2179.778076171875</v>
+        <v>2003.741943359375</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -5653,10 +5653,10 @@
         <v>8</v>
       </c>
       <c r="B479">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C479" s="2">
-        <v>2146.132080078125</v>
+        <v>1857.26904296875</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -5664,10 +5664,10 @@
         <v>8</v>
       </c>
       <c r="B480">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C480" s="2">
-        <v>2003.741943359375</v>
+        <v>1752.7099609375</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -5675,10 +5675,10 @@
         <v>8</v>
       </c>
       <c r="B481">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C481" s="2">
-        <v>1857.26904296875</v>
+        <v>1747.651977539062</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -5686,10 +5686,10 @@
         <v>8</v>
       </c>
       <c r="B482">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C482" s="2">
-        <v>1752.7099609375</v>
+        <v>1686.899047851562</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -5697,10 +5697,10 @@
         <v>8</v>
       </c>
       <c r="B483">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C483" s="2">
-        <v>1747.651977539062</v>
+        <v>1243.52197265625</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -5708,10 +5708,10 @@
         <v>8</v>
       </c>
       <c r="B484">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C484" s="2">
-        <v>1686.899047851562</v>
+        <v>1070.66796875</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -5719,10 +5719,10 @@
         <v>8</v>
       </c>
       <c r="B485">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C485" s="2">
-        <v>1243.52197265625</v>
+        <v>779.6900024414062</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -5730,10 +5730,10 @@
         <v>8</v>
       </c>
       <c r="B486">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C486" s="2">
-        <v>1070.66796875</v>
+        <v>770.0150146484375</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -5741,10 +5741,10 @@
         <v>8</v>
       </c>
       <c r="B487">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C487" s="2">
-        <v>779.6900024414062</v>
+        <v>689.0280151367188</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -5752,10 +5752,10 @@
         <v>8</v>
       </c>
       <c r="B488">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C488" s="2">
-        <v>770.0150146484375</v>
+        <v>707.5609741210938</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -5763,10 +5763,10 @@
         <v>8</v>
       </c>
       <c r="B489">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C489" s="2">
-        <v>689.0280151367188</v>
+        <v>449.4129943847656</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -5774,10 +5774,10 @@
         <v>8</v>
       </c>
       <c r="B490">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C490" s="2">
-        <v>707.5609741210938</v>
+        <v>284.927001953125</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -5785,10 +5785,10 @@
         <v>8</v>
       </c>
       <c r="B491">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C491" s="2">
-        <v>449.4129943847656</v>
+        <v>199.3990020751953</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -5796,10 +5796,10 @@
         <v>8</v>
       </c>
       <c r="B492">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C492" s="2">
-        <v>284.927001953125</v>
+        <v>167.6390075683594</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -5807,10 +5807,10 @@
         <v>8</v>
       </c>
       <c r="B493">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C493" s="2">
-        <v>199.3990020751953</v>
+        <v>108.838996887207</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -5818,10 +5818,10 @@
         <v>8</v>
       </c>
       <c r="B494">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C494" s="2">
-        <v>167.6390075683594</v>
+        <v>130.6799926757812</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -5829,10 +5829,10 @@
         <v>8</v>
       </c>
       <c r="B495">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C495" s="2">
-        <v>108.838996887207</v>
+        <v>157.5989990234375</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -5840,10 +5840,10 @@
         <v>8</v>
       </c>
       <c r="B496">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C496" s="2">
-        <v>130.6799926757812</v>
+        <v>230.9739990234375</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -5851,10 +5851,10 @@
         <v>8</v>
       </c>
       <c r="B497">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C497" s="2">
-        <v>157.5989990234375</v>
+        <v>90.04299926757812</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -5862,10 +5862,10 @@
         <v>8</v>
       </c>
       <c r="B498">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C498" s="2">
-        <v>230.9739990234375</v>
+        <v>110.2990036010742</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -5873,10 +5873,10 @@
         <v>8</v>
       </c>
       <c r="B499">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C499" s="2">
-        <v>90.04299926757812</v>
+        <v>166.3139953613281</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -5884,10 +5884,10 @@
         <v>8</v>
       </c>
       <c r="B500">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C500" s="2">
-        <v>110.2990036010742</v>
+        <v>141.572998046875</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -5895,10 +5895,10 @@
         <v>8</v>
       </c>
       <c r="B501">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C501" s="2">
-        <v>166.3139953613281</v>
+        <v>308.6570129394531</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -5906,10 +5906,10 @@
         <v>8</v>
       </c>
       <c r="B502">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C502" s="2">
-        <v>141.572998046875</v>
+        <v>451.0780029296875</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -5917,10 +5917,10 @@
         <v>8</v>
       </c>
       <c r="B503">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C503" s="2">
-        <v>308.6570129394531</v>
+        <v>451.7229919433594</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -5928,10 +5928,10 @@
         <v>8</v>
       </c>
       <c r="B504">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C504" s="2">
-        <v>451.0780029296875</v>
+        <v>528.5419921875</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -5939,10 +5939,10 @@
         <v>8</v>
       </c>
       <c r="B505">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C505" s="2">
-        <v>451.7229919433594</v>
+        <v>480.489990234375</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -5950,10 +5950,10 @@
         <v>8</v>
       </c>
       <c r="B506">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C506" s="2">
-        <v>528.5419921875</v>
+        <v>452.1940002441406</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -5961,10 +5961,10 @@
         <v>8</v>
       </c>
       <c r="B507">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C507" s="2">
-        <v>480.489990234375</v>
+        <v>392.9540100097656</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -5972,10 +5972,10 @@
         <v>8</v>
       </c>
       <c r="B508">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C508" s="2">
-        <v>452.1940002441406</v>
+        <v>297.9949951171875</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -5983,10 +5983,10 @@
         <v>8</v>
       </c>
       <c r="B509">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C509" s="2">
-        <v>392.9540100097656</v>
+        <v>418.0769958496094</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -5994,10 +5994,10 @@
         <v>8</v>
       </c>
       <c r="B510">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C510" s="2">
-        <v>297.9949951171875</v>
+        <v>513.8809814453125</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -6005,10 +6005,10 @@
         <v>8</v>
       </c>
       <c r="B511">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C511" s="2">
-        <v>418.0769958496094</v>
+        <v>582.530029296875</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -6016,10 +6016,10 @@
         <v>8</v>
       </c>
       <c r="B512">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C512" s="2">
-        <v>513.8809814453125</v>
+        <v>659.3289794921875</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -6027,10 +6027,10 @@
         <v>8</v>
       </c>
       <c r="B513">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C513" s="2">
-        <v>582.530029296875</v>
+        <v>751.7239990234375</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -6038,10 +6038,10 @@
         <v>8</v>
       </c>
       <c r="B514">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C514" s="2">
-        <v>659.3289794921875</v>
+        <v>914.6259765625</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -6049,10 +6049,10 @@
         <v>8</v>
       </c>
       <c r="B515">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C515" s="2">
-        <v>751.7239990234375</v>
+        <v>918.6920166015625</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -6060,10 +6060,10 @@
         <v>8</v>
       </c>
       <c r="B516">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C516" s="2">
-        <v>914.6259765625</v>
+        <v>726.3560180664062</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -6071,10 +6071,10 @@
         <v>8</v>
       </c>
       <c r="B517">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C517" s="2">
-        <v>918.6920166015625</v>
+        <v>957.5919799804688</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -6082,10 +6082,10 @@
         <v>8</v>
       </c>
       <c r="B518">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C518" s="2">
-        <v>726.3560180664062</v>
+        <v>940.0650024414062</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -6093,10 +6093,10 @@
         <v>8</v>
       </c>
       <c r="B519">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C519" s="2">
-        <v>957.5919799804688</v>
+        <v>923.6170043945312</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -6104,10 +6104,10 @@
         <v>8</v>
       </c>
       <c r="B520">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C520" s="2">
-        <v>940.0650024414062</v>
+        <v>1033.586059570312</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -6115,10 +6115,10 @@
         <v>8</v>
       </c>
       <c r="B521">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C521" s="2">
-        <v>923.6170043945312</v>
+        <v>1064.369995117188</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -6126,10 +6126,10 @@
         <v>8</v>
       </c>
       <c r="B522">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C522" s="2">
-        <v>1033.586059570312</v>
+        <v>1097.472045898438</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -6137,10 +6137,10 @@
         <v>8</v>
       </c>
       <c r="B523">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C523" s="2">
-        <v>1064.369995117188</v>
+        <v>1117.123046875</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -6148,10 +6148,10 @@
         <v>8</v>
       </c>
       <c r="B524">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C524" s="2">
-        <v>1097.472045898438</v>
+        <v>1050.620971679688</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -6159,10 +6159,10 @@
         <v>8</v>
       </c>
       <c r="B525">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C525" s="2">
-        <v>1117.123046875</v>
+        <v>1103.546020507812</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -6170,10 +6170,10 @@
         <v>8</v>
       </c>
       <c r="B526">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C526" s="2">
-        <v>1050.620971679688</v>
+        <v>1115.011962890625</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -6181,10 +6181,10 @@
         <v>8</v>
       </c>
       <c r="B527">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C527" s="2">
-        <v>1103.546020507812</v>
+        <v>1100.487060546875</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -6192,10 +6192,10 @@
         <v>8</v>
       </c>
       <c r="B528">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C528" s="2">
-        <v>1115.011962890625</v>
+        <v>1177.35595703125</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -6203,10 +6203,10 @@
         <v>8</v>
       </c>
       <c r="B529">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C529" s="2">
-        <v>1100.487060546875</v>
+        <v>1224.128051757812</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -6214,10 +6214,10 @@
         <v>8</v>
       </c>
       <c r="B530">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C530" s="2">
-        <v>1177.35595703125</v>
+        <v>1158.267944335938</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -6225,10 +6225,10 @@
         <v>8</v>
       </c>
       <c r="B531">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C531" s="2">
-        <v>1224.128051757812</v>
+        <v>1154.322021484375</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -6236,10 +6236,10 @@
         <v>8</v>
       </c>
       <c r="B532">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C532" s="2">
-        <v>1158.267944335938</v>
+        <v>1125.989013671875</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -6247,10 +6247,10 @@
         <v>8</v>
       </c>
       <c r="B533">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C533" s="2">
-        <v>1154.322021484375</v>
+        <v>1123.052001953125</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -6258,10 +6258,10 @@
         <v>8</v>
       </c>
       <c r="B534">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C534" s="2">
-        <v>1125.989013671875</v>
+        <v>1103.089965820312</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -6269,10 +6269,10 @@
         <v>8</v>
       </c>
       <c r="B535">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C535" s="2">
-        <v>1123.052001953125</v>
+        <v>1116.5400390625</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -6280,10 +6280,10 @@
         <v>8</v>
       </c>
       <c r="B536">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C536" s="2">
-        <v>1103.089965820312</v>
+        <v>1060.410034179688</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -6291,10 +6291,10 @@
         <v>8</v>
       </c>
       <c r="B537">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C537" s="2">
-        <v>1116.5400390625</v>
+        <v>1048.10498046875</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -6302,10 +6302,10 @@
         <v>8</v>
       </c>
       <c r="B538">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C538" s="2">
-        <v>1060.410034179688</v>
+        <v>989.5670166015625</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -6313,10 +6313,10 @@
         <v>8</v>
       </c>
       <c r="B539">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C539" s="2">
-        <v>1048.10498046875</v>
+        <v>991.5260009765625</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -6324,10 +6324,10 @@
         <v>8</v>
       </c>
       <c r="B540">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C540" s="2">
-        <v>989.5670166015625</v>
+        <v>992.9030151367188</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -6335,10 +6335,10 @@
         <v>8</v>
       </c>
       <c r="B541">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C541" s="2">
-        <v>991.5260009765625</v>
+        <v>965.8510131835938</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -6346,10 +6346,10 @@
         <v>8</v>
       </c>
       <c r="B542">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C542" s="2">
-        <v>992.9030151367188</v>
+        <v>915.530029296875</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -6357,10 +6357,10 @@
         <v>8</v>
       </c>
       <c r="B543">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C543" s="2">
-        <v>965.8510131835938</v>
+        <v>924.051025390625</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -6368,10 +6368,10 @@
         <v>8</v>
       </c>
       <c r="B544">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C544" s="2">
-        <v>915.530029296875</v>
+        <v>969.1160278320312</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -6379,10 +6379,10 @@
         <v>8</v>
       </c>
       <c r="B545">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C545" s="2">
-        <v>924.051025390625</v>
+        <v>922.31201171875</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -6390,10 +6390,10 @@
         <v>8</v>
       </c>
       <c r="B546">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C546" s="2">
-        <v>969.1160278320312</v>
+        <v>974.8930053710938</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -6401,32 +6401,32 @@
         <v>8</v>
       </c>
       <c r="B547">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C547" s="2">
-        <v>922.31201171875</v>
+        <v>1018.60400390625</v>
       </c>
     </row>
     <row r="548" spans="1:3">
       <c r="A548" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B548">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="C548" s="2">
-        <v>974.8930053710938</v>
+        <v>940.3410034179688</v>
       </c>
     </row>
     <row r="549" spans="1:3">
       <c r="A549" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B549">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="C549" s="2">
-        <v>1018.60400390625</v>
+        <v>1012.242004394531</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -6434,10 +6434,10 @@
         <v>9</v>
       </c>
       <c r="B550">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C550" s="2">
-        <v>940.3410034179688</v>
+        <v>973.1439819335938</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -6445,10 +6445,10 @@
         <v>9</v>
       </c>
       <c r="B551">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C551" s="2">
-        <v>1012.242004394531</v>
+        <v>1058.840942382812</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -6456,10 +6456,10 @@
         <v>9</v>
       </c>
       <c r="B552">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C552" s="2">
-        <v>973.1439819335938</v>
+        <v>1080.753051757812</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -6467,10 +6467,10 @@
         <v>9</v>
       </c>
       <c r="B553">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C553" s="2">
-        <v>1058.840942382812</v>
+        <v>949.927001953125</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -6478,10 +6478,10 @@
         <v>9</v>
       </c>
       <c r="B554">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C554" s="2">
-        <v>1080.753051757812</v>
+        <v>899.7459716796875</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -6489,10 +6489,10 @@
         <v>9</v>
       </c>
       <c r="B555">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C555" s="2">
-        <v>949.927001953125</v>
+        <v>822.10400390625</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -6500,10 +6500,10 @@
         <v>9</v>
       </c>
       <c r="B556">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C556" s="2">
-        <v>899.7459716796875</v>
+        <v>813.64697265625</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -6511,10 +6511,10 @@
         <v>9</v>
       </c>
       <c r="B557">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C557" s="2">
-        <v>822.10400390625</v>
+        <v>813.5570068359375</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -6522,10 +6522,10 @@
         <v>9</v>
       </c>
       <c r="B558">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C558" s="2">
-        <v>813.64697265625</v>
+        <v>775.9439697265625</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -6533,10 +6533,10 @@
         <v>9</v>
       </c>
       <c r="B559">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C559" s="2">
-        <v>813.5570068359375</v>
+        <v>769.0059814453125</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -6544,10 +6544,10 @@
         <v>9</v>
       </c>
       <c r="B560">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C560" s="2">
-        <v>775.9439697265625</v>
+        <v>692.156982421875</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -6555,10 +6555,10 @@
         <v>9</v>
       </c>
       <c r="B561">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C561" s="2">
-        <v>769.0059814453125</v>
+        <v>648.1270141601562</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -6566,10 +6566,10 @@
         <v>9</v>
       </c>
       <c r="B562">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C562" s="2">
-        <v>692.156982421875</v>
+        <v>609.7940063476562</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -6577,10 +6577,10 @@
         <v>9</v>
       </c>
       <c r="B563">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C563" s="2">
-        <v>648.1270141601562</v>
+        <v>606.823974609375</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -6588,10 +6588,10 @@
         <v>9</v>
       </c>
       <c r="B564">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C564" s="2">
-        <v>609.7940063476562</v>
+        <v>647.2160034179688</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -6599,10 +6599,10 @@
         <v>9</v>
       </c>
       <c r="B565">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C565" s="2">
-        <v>606.823974609375</v>
+        <v>664.3090209960938</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -6610,10 +6610,10 @@
         <v>9</v>
       </c>
       <c r="B566">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C566" s="2">
-        <v>647.2160034179688</v>
+        <v>675.5780029296875</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -6621,10 +6621,10 @@
         <v>9</v>
       </c>
       <c r="B567">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C567" s="2">
-        <v>664.3090209960938</v>
+        <v>688.656982421875</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -6632,10 +6632,10 @@
         <v>9</v>
       </c>
       <c r="B568">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C568" s="2">
-        <v>675.5780029296875</v>
+        <v>660.697998046875</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -6643,10 +6643,10 @@
         <v>9</v>
       </c>
       <c r="B569">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C569" s="2">
-        <v>688.656982421875</v>
+        <v>726.0280151367188</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -6654,10 +6654,10 @@
         <v>9</v>
       </c>
       <c r="B570">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C570" s="2">
-        <v>660.697998046875</v>
+        <v>745.1079711914062</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -6665,10 +6665,10 @@
         <v>9</v>
       </c>
       <c r="B571">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C571" s="2">
-        <v>726.0280151367188</v>
+        <v>744.927001953125</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -6676,10 +6676,10 @@
         <v>9</v>
       </c>
       <c r="B572">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C572" s="2">
-        <v>745.1079711914062</v>
+        <v>722.8660278320312</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -6687,10 +6687,10 @@
         <v>9</v>
       </c>
       <c r="B573">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C573" s="2">
-        <v>744.927001953125</v>
+        <v>700.5859985351562</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -6698,10 +6698,10 @@
         <v>9</v>
       </c>
       <c r="B574">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C574" s="2">
-        <v>722.8660278320312</v>
+        <v>685.2680053710938</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -6709,10 +6709,10 @@
         <v>9</v>
       </c>
       <c r="B575">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C575" s="2">
-        <v>700.5859985351562</v>
+        <v>730.530029296875</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -6720,10 +6720,10 @@
         <v>9</v>
       </c>
       <c r="B576">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C576" s="2">
-        <v>685.2680053710938</v>
+        <v>720.6339721679688</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -6731,10 +6731,10 @@
         <v>9</v>
       </c>
       <c r="B577">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C577" s="2">
-        <v>730.530029296875</v>
+        <v>800.8159790039062</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -6742,10 +6742,10 @@
         <v>9</v>
       </c>
       <c r="B578">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C578" s="2">
-        <v>720.6339721679688</v>
+        <v>815.927001953125</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -6753,10 +6753,10 @@
         <v>9</v>
       </c>
       <c r="B579">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C579" s="2">
-        <v>800.8159790039062</v>
+        <v>878.218017578125</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -6764,10 +6764,10 @@
         <v>9</v>
       </c>
       <c r="B580">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C580" s="2">
-        <v>815.927001953125</v>
+        <v>919.2830200195312</v>
       </c>
     </row>
     <row r="581" spans="1:3">
@@ -6775,10 +6775,10 @@
         <v>9</v>
       </c>
       <c r="B581">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C581" s="2">
-        <v>878.218017578125</v>
+        <v>949.60302734375</v>
       </c>
     </row>
     <row r="582" spans="1:3">
@@ -6786,10 +6786,10 @@
         <v>9</v>
       </c>
       <c r="B582">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C582" s="2">
-        <v>919.2830200195312</v>
+        <v>824.0819702148438</v>
       </c>
     </row>
     <row r="583" spans="1:3">
@@ -6797,10 +6797,10 @@
         <v>9</v>
       </c>
       <c r="B583">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C583" s="2">
-        <v>949.60302734375</v>
+        <v>847.7849731445312</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -6808,10 +6808,10 @@
         <v>9</v>
       </c>
       <c r="B584">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C584" s="2">
-        <v>824.0819702148438</v>
+        <v>861.9910278320312</v>
       </c>
     </row>
     <row r="585" spans="1:3">
@@ -6819,10 +6819,10 @@
         <v>9</v>
       </c>
       <c r="B585">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C585" s="2">
-        <v>847.7849731445312</v>
+        <v>899.5789794921875</v>
       </c>
     </row>
     <row r="586" spans="1:3">
@@ -6830,10 +6830,10 @@
         <v>9</v>
       </c>
       <c r="B586">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C586" s="2">
-        <v>861.9910278320312</v>
+        <v>924.3369750976562</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -6841,10 +6841,10 @@
         <v>9</v>
       </c>
       <c r="B587">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C587" s="2">
-        <v>899.5789794921875</v>
+        <v>943.5120239257812</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -6852,10 +6852,10 @@
         <v>9</v>
       </c>
       <c r="B588">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C588" s="2">
-        <v>924.3369750976562</v>
+        <v>893.8309936523438</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -6863,10 +6863,10 @@
         <v>9</v>
       </c>
       <c r="B589">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C589" s="2">
-        <v>943.5120239257812</v>
+        <v>828.7449951171875</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -6874,10 +6874,10 @@
         <v>9</v>
       </c>
       <c r="B590">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C590" s="2">
-        <v>893.8309936523438</v>
+        <v>823.322021484375</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -6885,10 +6885,10 @@
         <v>9</v>
       </c>
       <c r="B591">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C591" s="2">
-        <v>828.7449951171875</v>
+        <v>783.39697265625</v>
       </c>
     </row>
     <row r="592" spans="1:3">
@@ -6896,10 +6896,10 @@
         <v>9</v>
       </c>
       <c r="B592">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C592" s="2">
-        <v>823.322021484375</v>
+        <v>884.7410278320312</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -6907,10 +6907,10 @@
         <v>9</v>
       </c>
       <c r="B593">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C593" s="2">
-        <v>783.39697265625</v>
+        <v>842.0800170898438</v>
       </c>
     </row>
     <row r="594" spans="1:3">
@@ -6918,10 +6918,10 @@
         <v>9</v>
       </c>
       <c r="B594">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C594" s="2">
-        <v>884.7410278320312</v>
+        <v>909.1929931640625</v>
       </c>
     </row>
     <row r="595" spans="1:3">
@@ -6929,10 +6929,10 @@
         <v>9</v>
       </c>
       <c r="B595">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C595" s="2">
-        <v>842.0800170898438</v>
+        <v>567.9860229492188</v>
       </c>
     </row>
     <row r="596" spans="1:3">
@@ -6940,10 +6940,10 @@
         <v>9</v>
       </c>
       <c r="B596">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C596" s="2">
-        <v>909.1929931640625</v>
+        <v>629.9979858398438</v>
       </c>
     </row>
     <row r="597" spans="1:3">
@@ -6951,10 +6951,10 @@
         <v>9</v>
       </c>
       <c r="B597">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C597" s="2">
-        <v>567.9860229492188</v>
+        <v>563.4959716796875</v>
       </c>
     </row>
     <row r="598" spans="1:3">
@@ -6962,10 +6962,10 @@
         <v>9</v>
       </c>
       <c r="B598">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C598" s="2">
-        <v>629.9979858398438</v>
+        <v>509.8039855957031</v>
       </c>
     </row>
     <row r="599" spans="1:3">
@@ -6973,10 +6973,10 @@
         <v>9</v>
       </c>
       <c r="B599">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C599" s="2">
-        <v>563.4959716796875</v>
+        <v>473.4230041503906</v>
       </c>
     </row>
     <row r="600" spans="1:3">
@@ -6984,10 +6984,10 @@
         <v>9</v>
       </c>
       <c r="B600">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C600" s="2">
-        <v>509.8039855957031</v>
+        <v>440.7520141601562</v>
       </c>
     </row>
     <row r="601" spans="1:3">
@@ -6995,10 +6995,10 @@
         <v>9</v>
       </c>
       <c r="B601">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C601" s="2">
-        <v>473.4230041503906</v>
+        <v>597.10400390625</v>
       </c>
     </row>
     <row r="602" spans="1:3">
@@ -7006,10 +7006,10 @@
         <v>9</v>
       </c>
       <c r="B602">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C602" s="2">
-        <v>440.7520141601562</v>
+        <v>653.093017578125</v>
       </c>
     </row>
     <row r="603" spans="1:3">
@@ -7017,10 +7017,10 @@
         <v>9</v>
       </c>
       <c r="B603">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C603" s="2">
-        <v>597.10400390625</v>
+        <v>499.406005859375</v>
       </c>
     </row>
     <row r="604" spans="1:3">
@@ -7028,10 +7028,10 @@
         <v>9</v>
       </c>
       <c r="B604">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C604" s="2">
-        <v>653.093017578125</v>
+        <v>598.0349731445312</v>
       </c>
     </row>
     <row r="605" spans="1:3">
@@ -7039,10 +7039,10 @@
         <v>9</v>
       </c>
       <c r="B605">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C605" s="2">
-        <v>499.406005859375</v>
+        <v>601.6890258789062</v>
       </c>
     </row>
     <row r="606" spans="1:3">
@@ -7050,10 +7050,10 @@
         <v>9</v>
       </c>
       <c r="B606">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C606" s="2">
-        <v>598.0349731445312</v>
+        <v>771.10302734375</v>
       </c>
     </row>
     <row r="607" spans="1:3">
@@ -7061,10 +7061,10 @@
         <v>9</v>
       </c>
       <c r="B607">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C607" s="2">
-        <v>601.6890258789062</v>
+        <v>978.3930053710938</v>
       </c>
     </row>
     <row r="608" spans="1:3">
@@ -7072,10 +7072,10 @@
         <v>9</v>
       </c>
       <c r="B608">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C608" s="2">
-        <v>771.10302734375</v>
+        <v>1031.327026367188</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -7083,10 +7083,10 @@
         <v>9</v>
       </c>
       <c r="B609">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C609" s="2">
-        <v>978.3930053710938</v>
+        <v>1093.878051757812</v>
       </c>
     </row>
     <row r="610" spans="1:3">
@@ -7094,10 +7094,10 @@
         <v>9</v>
       </c>
       <c r="B610">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C610" s="2">
-        <v>1031.327026367188</v>
+        <v>1269.526000976562</v>
       </c>
     </row>
     <row r="611" spans="1:3">
@@ -7105,10 +7105,10 @@
         <v>9</v>
       </c>
       <c r="B611">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C611" s="2">
-        <v>1093.878051757812</v>
+        <v>1457.336059570312</v>
       </c>
     </row>
     <row r="612" spans="1:3">
@@ -7116,10 +7116,10 @@
         <v>9</v>
       </c>
       <c r="B612">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C612" s="2">
-        <v>1269.526000976562</v>
+        <v>1799.9560546875</v>
       </c>
     </row>
     <row r="613" spans="1:3">
@@ -7127,10 +7127,10 @@
         <v>9</v>
       </c>
       <c r="B613">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C613" s="2">
-        <v>1457.336059570312</v>
+        <v>1820.239990234375</v>
       </c>
     </row>
     <row r="614" spans="1:3">
@@ -7138,10 +7138,10 @@
         <v>9</v>
       </c>
       <c r="B614">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C614" s="2">
-        <v>1799.9560546875</v>
+        <v>1474.1689453125</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -7149,10 +7149,10 @@
         <v>9</v>
       </c>
       <c r="B615">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C615" s="2">
-        <v>1820.239990234375</v>
+        <v>1307.306030273438</v>
       </c>
     </row>
     <row r="616" spans="1:3">
@@ -7160,10 +7160,10 @@
         <v>9</v>
       </c>
       <c r="B616">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C616" s="2">
-        <v>1474.1689453125</v>
+        <v>1220.365966796875</v>
       </c>
     </row>
     <row r="617" spans="1:3">
@@ -7171,10 +7171,10 @@
         <v>9</v>
       </c>
       <c r="B617">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C617" s="2">
-        <v>1307.306030273438</v>
+        <v>1080.004028320312</v>
       </c>
     </row>
     <row r="618" spans="1:3">
@@ -7182,10 +7182,10 @@
         <v>9</v>
       </c>
       <c r="B618">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C618" s="2">
-        <v>1220.365966796875</v>
+        <v>1178.35205078125</v>
       </c>
     </row>
     <row r="619" spans="1:3">
@@ -7193,10 +7193,10 @@
         <v>9</v>
       </c>
       <c r="B619">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C619" s="2">
-        <v>1080.004028320312</v>
+        <v>1068.255981445312</v>
       </c>
     </row>
     <row r="620" spans="1:3">
@@ -7204,10 +7204,10 @@
         <v>9</v>
       </c>
       <c r="B620">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C620" s="2">
-        <v>1178.35205078125</v>
+        <v>1074.401000976562</v>
       </c>
     </row>
     <row r="621" spans="1:3">
@@ -7215,10 +7215,10 @@
         <v>9</v>
       </c>
       <c r="B621">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C621" s="2">
-        <v>1068.255981445312</v>
+        <v>734.85498046875</v>
       </c>
     </row>
     <row r="622" spans="1:3">
@@ -7226,10 +7226,10 @@
         <v>9</v>
       </c>
       <c r="B622">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C622" s="2">
-        <v>1074.401000976562</v>
+        <v>791.39501953125</v>
       </c>
     </row>
     <row r="623" spans="1:3">
@@ -7237,10 +7237,10 @@
         <v>9</v>
       </c>
       <c r="B623">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C623" s="2">
-        <v>734.85498046875</v>
+        <v>665.5560302734375</v>
       </c>
     </row>
     <row r="624" spans="1:3">
@@ -7248,10 +7248,10 @@
         <v>9</v>
       </c>
       <c r="B624">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C624" s="2">
-        <v>791.39501953125</v>
+        <v>426.8469848632812</v>
       </c>
     </row>
     <row r="625" spans="1:3">
@@ -7259,10 +7259,10 @@
         <v>9</v>
       </c>
       <c r="B625">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C625" s="2">
-        <v>665.5560302734375</v>
+        <v>440.593994140625</v>
       </c>
     </row>
     <row r="626" spans="1:3">
@@ -7270,10 +7270,10 @@
         <v>9</v>
       </c>
       <c r="B626">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C626" s="2">
-        <v>426.8469848632812</v>
+        <v>478.8030090332031</v>
       </c>
     </row>
     <row r="627" spans="1:3">
@@ -7281,10 +7281,10 @@
         <v>9</v>
       </c>
       <c r="B627">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C627" s="2">
-        <v>440.593994140625</v>
+        <v>485.1990051269531</v>
       </c>
     </row>
     <row r="628" spans="1:3">
@@ -7292,10 +7292,10 @@
         <v>9</v>
       </c>
       <c r="B628">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C628" s="2">
-        <v>478.8030090332031</v>
+        <v>465.9729919433594</v>
       </c>
     </row>
     <row r="629" spans="1:3">
@@ -7303,10 +7303,10 @@
         <v>9</v>
       </c>
       <c r="B629">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C629" s="2">
-        <v>485.1990051269531</v>
+        <v>401.5889892578125</v>
       </c>
     </row>
     <row r="630" spans="1:3">
@@ -7314,10 +7314,10 @@
         <v>9</v>
       </c>
       <c r="B630">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C630" s="2">
-        <v>465.9729919433594</v>
+        <v>417.8529968261719</v>
       </c>
     </row>
     <row r="631" spans="1:3">
@@ -7325,10 +7325,10 @@
         <v>9</v>
       </c>
       <c r="B631">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C631" s="2">
-        <v>401.5889892578125</v>
+        <v>407.2919921875</v>
       </c>
     </row>
     <row r="632" spans="1:3">
@@ -7336,10 +7336,10 @@
         <v>9</v>
       </c>
       <c r="B632">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C632" s="2">
-        <v>417.8529968261719</v>
+        <v>397.9880065917969</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -7347,10 +7347,10 @@
         <v>9</v>
       </c>
       <c r="B633">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C633" s="2">
-        <v>407.2919921875</v>
+        <v>361.0700073242188</v>
       </c>
     </row>
     <row r="634" spans="1:3">
@@ -7358,10 +7358,10 @@
         <v>9</v>
       </c>
       <c r="B634">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C634" s="2">
-        <v>397.9880065917969</v>
+        <v>334.6440124511719</v>
       </c>
     </row>
     <row r="635" spans="1:3">
@@ -7369,10 +7369,10 @@
         <v>9</v>
       </c>
       <c r="B635">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C635" s="2">
-        <v>361.0700073242188</v>
+        <v>319.9169921875</v>
       </c>
     </row>
     <row r="636" spans="1:3">
@@ -7380,10 +7380,10 @@
         <v>9</v>
       </c>
       <c r="B636">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C636" s="2">
-        <v>334.6440124511719</v>
+        <v>289.2229919433594</v>
       </c>
     </row>
     <row r="637" spans="1:3">
@@ -7391,10 +7391,10 @@
         <v>9</v>
       </c>
       <c r="B637">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C637" s="2">
-        <v>319.9169921875</v>
+        <v>249.2449951171875</v>
       </c>
     </row>
     <row r="638" spans="1:3">
@@ -7402,10 +7402,10 @@
         <v>9</v>
       </c>
       <c r="B638">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C638" s="2">
-        <v>289.2229919433594</v>
+        <v>282.6000061035156</v>
       </c>
     </row>
     <row r="639" spans="1:3">
@@ -7413,10 +7413,10 @@
         <v>9</v>
       </c>
       <c r="B639">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C639" s="2">
-        <v>249.2449951171875</v>
+        <v>365.7279968261719</v>
       </c>
     </row>
     <row r="640" spans="1:3">
@@ -7424,10 +7424,10 @@
         <v>9</v>
       </c>
       <c r="B640">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C640" s="2">
-        <v>282.6000061035156</v>
+        <v>285.510986328125</v>
       </c>
     </row>
     <row r="641" spans="1:3">
@@ -7435,10 +7435,10 @@
         <v>9</v>
       </c>
       <c r="B641">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C641" s="2">
-        <v>365.7279968261719</v>
+        <v>337.7550048828125</v>
       </c>
     </row>
     <row r="642" spans="1:3">
@@ -7446,10 +7446,10 @@
         <v>9</v>
       </c>
       <c r="B642">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C642" s="2">
-        <v>285.510986328125</v>
+        <v>358.4819946289062</v>
       </c>
     </row>
     <row r="643" spans="1:3">
@@ -7457,32 +7457,32 @@
         <v>9</v>
       </c>
       <c r="B643">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C643" s="2">
-        <v>337.7550048828125</v>
+        <v>235.7209930419922</v>
       </c>
     </row>
     <row r="644" spans="1:3">
       <c r="A644" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B644">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="C644" s="2">
-        <v>358.4819946289062</v>
+        <v>379.2330017089844</v>
       </c>
     </row>
     <row r="645" spans="1:3">
       <c r="A645" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B645">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="C645" s="2">
-        <v>235.7209930419922</v>
+        <v>295.2470092773438</v>
       </c>
     </row>
     <row r="646" spans="1:3">
@@ -7490,10 +7490,10 @@
         <v>10</v>
       </c>
       <c r="B646">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C646" s="2">
-        <v>379.2330017089844</v>
+        <v>127.8239974975586</v>
       </c>
     </row>
     <row r="647" spans="1:3">
@@ -7501,10 +7501,10 @@
         <v>10</v>
       </c>
       <c r="B647">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C647" s="2">
-        <v>295.2470092773438</v>
+        <v>135.1970062255859</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -7512,10 +7512,10 @@
         <v>10</v>
       </c>
       <c r="B648">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C648" s="2">
-        <v>127.8239974975586</v>
+        <v>51.07300186157227</v>
       </c>
     </row>
     <row r="649" spans="1:3">
@@ -7523,10 +7523,10 @@
         <v>10</v>
       </c>
       <c r="B649">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C649" s="2">
-        <v>135.1970062255859</v>
+        <v>73.06900024414062</v>
       </c>
     </row>
     <row r="650" spans="1:3">
@@ -7534,10 +7534,10 @@
         <v>10</v>
       </c>
       <c r="B650">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C650" s="2">
-        <v>51.07300186157227</v>
+        <v>136.8249969482422</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -7545,10 +7545,10 @@
         <v>10</v>
       </c>
       <c r="B651">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C651" s="2">
-        <v>73.06900024414062</v>
+        <v>62.59999847412109</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -7556,10 +7556,10 @@
         <v>10</v>
       </c>
       <c r="B652">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C652" s="2">
-        <v>136.8249969482422</v>
+        <v>103.5500030517578</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -7567,10 +7567,10 @@
         <v>10</v>
       </c>
       <c r="B653">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C653" s="2">
-        <v>62.59999847412109</v>
+        <v>134.1880035400391</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -7578,10 +7578,10 @@
         <v>10</v>
       </c>
       <c r="B654">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C654" s="2">
-        <v>103.5500030517578</v>
+        <v>99.0989990234375</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -7589,10 +7589,10 @@
         <v>10</v>
       </c>
       <c r="B655">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C655" s="2">
-        <v>134.1880035400391</v>
+        <v>99.11499786376953</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -7600,10 +7600,10 @@
         <v>10</v>
       </c>
       <c r="B656">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C656" s="2">
-        <v>99.0989990234375</v>
+        <v>217.9539947509766</v>
       </c>
     </row>
     <row r="657" spans="1:3">
@@ -7611,10 +7611,10 @@
         <v>10</v>
       </c>
       <c r="B657">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C657" s="2">
-        <v>99.11499786376953</v>
+        <v>240.1089935302734</v>
       </c>
     </row>
     <row r="658" spans="1:3">
@@ -7622,10 +7622,10 @@
         <v>10</v>
       </c>
       <c r="B658">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C658" s="2">
-        <v>217.9539947509766</v>
+        <v>200.4709930419922</v>
       </c>
     </row>
     <row r="659" spans="1:3">
@@ -7633,10 +7633,10 @@
         <v>10</v>
       </c>
       <c r="B659">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C659" s="2">
-        <v>240.1089935302734</v>
+        <v>223.1940002441406</v>
       </c>
     </row>
     <row r="660" spans="1:3">
@@ -7644,10 +7644,10 @@
         <v>10</v>
       </c>
       <c r="B660">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C660" s="2">
-        <v>200.4709930419922</v>
+        <v>185.0189971923828</v>
       </c>
     </row>
     <row r="661" spans="1:3">
@@ -7655,10 +7655,10 @@
         <v>10</v>
       </c>
       <c r="B661">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C661" s="2">
-        <v>223.1940002441406</v>
+        <v>142.1719970703125</v>
       </c>
     </row>
     <row r="662" spans="1:3">
@@ -7666,10 +7666,10 @@
         <v>10</v>
       </c>
       <c r="B662">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C662" s="2">
-        <v>185.0189971923828</v>
+        <v>173.0169982910156</v>
       </c>
     </row>
     <row r="663" spans="1:3">
@@ -7677,10 +7677,10 @@
         <v>10</v>
       </c>
       <c r="B663">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C663" s="2">
-        <v>142.1719970703125</v>
+        <v>124.0289993286133</v>
       </c>
     </row>
     <row r="664" spans="1:3">
@@ -7688,10 +7688,10 @@
         <v>10</v>
       </c>
       <c r="B664">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C664" s="2">
-        <v>173.0169982910156</v>
+        <v>118.6900024414062</v>
       </c>
     </row>
     <row r="665" spans="1:3">
@@ -7699,10 +7699,10 @@
         <v>10</v>
       </c>
       <c r="B665">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C665" s="2">
-        <v>124.0289993286133</v>
+        <v>150.2120056152344</v>
       </c>
     </row>
     <row r="666" spans="1:3">
@@ -7710,10 +7710,10 @@
         <v>10</v>
       </c>
       <c r="B666">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C666" s="2">
-        <v>118.6900024414062</v>
+        <v>154.6060028076172</v>
       </c>
     </row>
     <row r="667" spans="1:3">
@@ -7721,10 +7721,10 @@
         <v>10</v>
       </c>
       <c r="B667">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C667" s="2">
-        <v>150.2120056152344</v>
+        <v>176.8110046386719</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -7732,10 +7732,10 @@
         <v>10</v>
       </c>
       <c r="B668">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C668" s="2">
-        <v>154.6060028076172</v>
+        <v>195.1450042724609</v>
       </c>
     </row>
     <row r="669" spans="1:3">
@@ -7743,10 +7743,10 @@
         <v>10</v>
       </c>
       <c r="B669">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C669" s="2">
-        <v>176.8110046386719</v>
+        <v>138.2799987792969</v>
       </c>
     </row>
     <row r="670" spans="1:3">
@@ -7754,10 +7754,10 @@
         <v>10</v>
       </c>
       <c r="B670">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C670" s="2">
-        <v>195.1450042724609</v>
+        <v>153.0619964599609</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -7765,10 +7765,10 @@
         <v>10</v>
       </c>
       <c r="B671">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C671" s="2">
-        <v>138.2799987792969</v>
+        <v>193.552001953125</v>
       </c>
     </row>
     <row r="672" spans="1:3">
@@ -7776,10 +7776,10 @@
         <v>10</v>
       </c>
       <c r="B672">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C672" s="2">
-        <v>153.0619964599609</v>
+        <v>217.3470001220703</v>
       </c>
     </row>
     <row r="673" spans="1:3">
@@ -7787,10 +7787,10 @@
         <v>10</v>
       </c>
       <c r="B673">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C673" s="2">
-        <v>193.552001953125</v>
+        <v>252.1130065917969</v>
       </c>
     </row>
     <row r="674" spans="1:3">
@@ -7798,10 +7798,10 @@
         <v>10</v>
       </c>
       <c r="B674">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C674" s="2">
-        <v>217.3470001220703</v>
+        <v>315.781005859375</v>
       </c>
     </row>
   </sheetData>

--- a/Wind_Production_Forecast/Wind_Forecast_Production_15min.xlsx
+++ b/Wind_Production_Forecast/Wind_Forecast_Production_15min.xlsx
@@ -406,10 +406,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2">
-        <v>907.9099731445312</v>
+        <v>587.2119750976562</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -417,10 +417,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2">
-        <v>841.8839721679688</v>
+        <v>465.5499877929688</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -428,10 +428,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2">
-        <v>915.6649780273438</v>
+        <v>486.2739868164062</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -439,10 +439,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2">
-        <v>977.1929931640625</v>
+        <v>508.02099609375</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -450,10 +450,10 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2">
-        <v>1050.656005859375</v>
+        <v>562.2410278320312</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -461,10 +461,10 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2">
-        <v>1061.14404296875</v>
+        <v>725.0269775390625</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -472,10 +472,10 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="C8" s="2">
-        <v>1010.572998046875</v>
+        <v>738.7780151367188</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2">
-        <v>1074.364990234375</v>
+        <v>769.9249877929688</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -494,10 +494,10 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2">
-        <v>905.18798828125</v>
+        <v>746.7520141601562</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -505,10 +505,10 @@
         <v>3</v>
       </c>
       <c r="B11">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="C11" s="2">
-        <v>917.2109985351562</v>
+        <v>633.8280029296875</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -516,10 +516,10 @@
         <v>3</v>
       </c>
       <c r="B12">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="C12" s="2">
-        <v>836.0859985351562</v>
+        <v>607.3870239257812</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -527,10 +527,10 @@
         <v>3</v>
       </c>
       <c r="B13">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="C13" s="2">
-        <v>771.6640014648438</v>
+        <v>555.0670166015625</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -538,10 +538,10 @@
         <v>3</v>
       </c>
       <c r="B14">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="C14" s="2">
-        <v>832.7239990234375</v>
+        <v>565.958984375</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -549,10 +549,10 @@
         <v>3</v>
       </c>
       <c r="B15">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="C15" s="2">
-        <v>751.1309814453125</v>
+        <v>508.5390014648438</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -560,10 +560,10 @@
         <v>3</v>
       </c>
       <c r="B16">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C16" s="2">
-        <v>540.93798828125</v>
+        <v>492.2430114746094</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -571,10 +571,10 @@
         <v>3</v>
       </c>
       <c r="B17">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="C17" s="2">
-        <v>371.5050048828125</v>
+        <v>552.2639770507812</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -582,10 +582,10 @@
         <v>3</v>
       </c>
       <c r="B18">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="C18" s="2">
-        <v>294.4339904785156</v>
+        <v>514.81201171875</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -593,10 +593,10 @@
         <v>3</v>
       </c>
       <c r="B19">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="C19" s="2">
-        <v>389.6229858398438</v>
+        <v>529.1119995117188</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -604,10 +604,10 @@
         <v>3</v>
       </c>
       <c r="B20">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="C20" s="2">
-        <v>317.9620056152344</v>
+        <v>494.3590087890625</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -615,10 +615,10 @@
         <v>3</v>
       </c>
       <c r="B21">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C21" s="2">
-        <v>337.5920104980469</v>
+        <v>508.4779968261719</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -626,10 +626,10 @@
         <v>3</v>
       </c>
       <c r="B22">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="C22" s="2">
-        <v>323.5260009765625</v>
+        <v>430.6059875488281</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -637,10 +637,10 @@
         <v>3</v>
       </c>
       <c r="B23">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="C23" s="2">
-        <v>360.6809997558594</v>
+        <v>491.6740112304688</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -648,10 +648,10 @@
         <v>3</v>
       </c>
       <c r="B24">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C24" s="2">
-        <v>246.3410034179688</v>
+        <v>475.8349914550781</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -659,10 +659,10 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="C25" s="2">
-        <v>271.0079956054688</v>
+        <v>492.85400390625</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -670,10 +670,10 @@
         <v>3</v>
       </c>
       <c r="B26">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="C26" s="2">
-        <v>383.2730102539062</v>
+        <v>404.14599609375</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -681,10 +681,10 @@
         <v>3</v>
       </c>
       <c r="B27">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="C27" s="2">
-        <v>416.2650146484375</v>
+        <v>388.1640014648438</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -692,10 +692,10 @@
         <v>3</v>
       </c>
       <c r="B28">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C28" s="2">
-        <v>614.343994140625</v>
+        <v>404.9450073242188</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -703,10 +703,10 @@
         <v>3</v>
       </c>
       <c r="B29">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="C29" s="2">
-        <v>707.9990234375</v>
+        <v>583.2479858398438</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -714,10 +714,10 @@
         <v>3</v>
       </c>
       <c r="B30">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="C30" s="2">
-        <v>821.322998046875</v>
+        <v>502.7460021972656</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -725,10 +725,10 @@
         <v>3</v>
       </c>
       <c r="B31">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="C31" s="2">
-        <v>720.2930297851562</v>
+        <v>424.2650146484375</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -736,10 +736,10 @@
         <v>3</v>
       </c>
       <c r="B32">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C32" s="2">
-        <v>679.0770263671875</v>
+        <v>412.4100036621094</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -747,10 +747,10 @@
         <v>3</v>
       </c>
       <c r="B33">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="C33" s="2">
-        <v>615.6079711914062</v>
+        <v>402.6789855957031</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -758,373 +758,373 @@
         <v>3</v>
       </c>
       <c r="B34">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="C34" s="2">
-        <v>599.0050048828125</v>
+        <v>489.1189880371094</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B35">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="C35" s="2">
-        <v>531.8660278320312</v>
+        <v>614.6710205078125</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B36">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="C36" s="2">
-        <v>429.1900024414062</v>
+        <v>649.906982421875</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37">
         <v>3</v>
       </c>
-      <c r="B37">
-        <v>66</v>
-      </c>
       <c r="C37" s="2">
-        <v>423.8739929199219</v>
+        <v>847.9329833984375</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B38">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C38" s="2">
-        <v>462.9729919433594</v>
+        <v>949.1380004882812</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B39">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="C39" s="2">
-        <v>465.2170104980469</v>
+        <v>1076.067993164062</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B40">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="C40" s="2">
-        <v>557.9420166015625</v>
+        <v>1248.537963867188</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B41">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C41" s="2">
-        <v>570.3699951171875</v>
+        <v>1322.2919921875</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B42">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C42" s="2">
-        <v>607.52099609375</v>
+        <v>1305.045043945312</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B43">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C43" s="2">
-        <v>573.3200073242188</v>
+        <v>1525.677978515625</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B44">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C44" s="2">
-        <v>503.7730102539062</v>
+        <v>1580.107055664062</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B45">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C45" s="2">
-        <v>511.9800109863281</v>
+        <v>1492.68603515625</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B46">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C46" s="2">
-        <v>483.5130004882812</v>
+        <v>1252.958984375</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B47">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C47" s="2">
-        <v>370.3689880371094</v>
+        <v>1317.786987304688</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B48">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="C48" s="2">
-        <v>444.5409851074219</v>
+        <v>1254.427978515625</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B49">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="C49" s="2">
-        <v>456.6239929199219</v>
+        <v>1441.161987304688</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B50">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="C50" s="2">
-        <v>392.6400146484375</v>
+        <v>1737.85205078125</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B51">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="C51" s="2">
-        <v>363.5490112304688</v>
+        <v>1820.031005859375</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B52">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="C52" s="2">
-        <v>393.2860107421875</v>
+        <v>1896.598999023438</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B53">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="C53" s="2">
-        <v>366.5190124511719</v>
+        <v>1895.504028320312</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B54">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="C54" s="2">
-        <v>343.8460083007812</v>
+        <v>1802.108032226562</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B55">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="C55" s="2">
-        <v>356.4469909667969</v>
+        <v>1809.141967773438</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B56">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="C56" s="2">
-        <v>430.2789916992188</v>
+        <v>1661.217041015625</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B57">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="C57" s="2">
-        <v>437.4630126953125</v>
+        <v>1645.548950195312</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B58">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="C58" s="2">
-        <v>431.2420043945312</v>
+        <v>1628.4580078125</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B59">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="C59" s="2">
-        <v>415.3970031738281</v>
+        <v>1627.211059570312</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B60">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="C60" s="2">
-        <v>436.2489929199219</v>
+        <v>1628.296020507812</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B61">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="C61" s="2">
-        <v>507.2449951171875</v>
+        <v>1643.932983398438</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B62">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="C62" s="2">
-        <v>546.385009765625</v>
+        <v>1636.224975585938</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B63">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="C63" s="2">
-        <v>978.5250244140625</v>
+        <v>1498.9990234375</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B64">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="C64" s="2">
-        <v>930.3519897460938</v>
+        <v>1336.536010742188</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B65">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="C65" s="2">
-        <v>806.7559814453125</v>
+        <v>1283.824951171875</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B66">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="C66" s="2">
-        <v>726.3070068359375</v>
+        <v>1228.422973632812</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B67">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="C67" s="2">
-        <v>673.4730224609375</v>
+        <v>976.0560302734375</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1132,10 +1132,10 @@
         <v>4</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C68" s="2">
-        <v>684.3400268554688</v>
+        <v>1127.135986328125</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1143,10 +1143,10 @@
         <v>4</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="C69" s="2">
-        <v>808.5709838867188</v>
+        <v>1038.239013671875</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1154,10 +1154,10 @@
         <v>4</v>
       </c>
       <c r="B70">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="C70" s="2">
-        <v>797.4949951171875</v>
+        <v>997.0040283203125</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1165,10 +1165,10 @@
         <v>4</v>
       </c>
       <c r="B71">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C71" s="2">
-        <v>672.3829956054688</v>
+        <v>1019.97900390625</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1176,10 +1176,10 @@
         <v>4</v>
       </c>
       <c r="B72">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C72" s="2">
-        <v>854.4500122070312</v>
+        <v>968.0850219726562</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1187,10 +1187,10 @@
         <v>4</v>
       </c>
       <c r="B73">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C73" s="2">
-        <v>879.468017578125</v>
+        <v>935.4199829101562</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1198,10 +1198,10 @@
         <v>4</v>
       </c>
       <c r="B74">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C74" s="2">
-        <v>1115.048950195312</v>
+        <v>1045.98095703125</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1209,10 +1209,10 @@
         <v>4</v>
       </c>
       <c r="B75">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C75" s="2">
-        <v>1138.739013671875</v>
+        <v>1031.818969726562</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1220,10 +1220,10 @@
         <v>4</v>
       </c>
       <c r="B76">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C76" s="2">
-        <v>1130.056030273438</v>
+        <v>1137.051025390625</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1231,10 +1231,10 @@
         <v>4</v>
       </c>
       <c r="B77">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C77" s="2">
-        <v>1289.155029296875</v>
+        <v>1112.217041015625</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1242,10 +1242,10 @@
         <v>4</v>
       </c>
       <c r="B78">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C78" s="2">
-        <v>1224.245971679688</v>
+        <v>1100.816040039062</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1253,10 +1253,10 @@
         <v>4</v>
       </c>
       <c r="B79">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C79" s="2">
-        <v>1115.681030273438</v>
+        <v>1036.032958984375</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1264,10 +1264,10 @@
         <v>4</v>
       </c>
       <c r="B80">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C80" s="2">
-        <v>1051.370971679688</v>
+        <v>1186.114013671875</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1275,10 +1275,10 @@
         <v>4</v>
       </c>
       <c r="B81">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C81" s="2">
-        <v>1123.20703125</v>
+        <v>1254.5849609375</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1286,10 +1286,10 @@
         <v>4</v>
       </c>
       <c r="B82">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C82" s="2">
-        <v>1280.073974609375</v>
+        <v>1274.255004882812</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1297,10 +1297,10 @@
         <v>4</v>
       </c>
       <c r="B83">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C83" s="2">
-        <v>1350.901000976562</v>
+        <v>1216.427001953125</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1308,10 +1308,10 @@
         <v>4</v>
       </c>
       <c r="B84">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C84" s="2">
-        <v>1601.9599609375</v>
+        <v>987.8060302734375</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1319,10 +1319,10 @@
         <v>4</v>
       </c>
       <c r="B85">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C85" s="2">
-        <v>1526.18701171875</v>
+        <v>1157.027954101562</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1330,10 +1330,10 @@
         <v>4</v>
       </c>
       <c r="B86">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="C86" s="2">
-        <v>1666.926025390625</v>
+        <v>1507.947998046875</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1341,10 +1341,10 @@
         <v>4</v>
       </c>
       <c r="B87">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="C87" s="2">
-        <v>1737.760009765625</v>
+        <v>1655.880981445312</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1352,10 +1352,10 @@
         <v>4</v>
       </c>
       <c r="B88">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C88" s="2">
-        <v>1816.885009765625</v>
+        <v>1762.655029296875</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1363,10 +1363,10 @@
         <v>4</v>
       </c>
       <c r="B89">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="C89" s="2">
-        <v>1767.384033203125</v>
+        <v>1757.385986328125</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1374,10 +1374,10 @@
         <v>4</v>
       </c>
       <c r="B90">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="C90" s="2">
-        <v>1676.06396484375</v>
+        <v>1610.97802734375</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1385,10 +1385,10 @@
         <v>4</v>
       </c>
       <c r="B91">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C91" s="2">
-        <v>1655.661987304688</v>
+        <v>1616.35400390625</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1396,10 +1396,10 @@
         <v>4</v>
       </c>
       <c r="B92">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="C92" s="2">
-        <v>1711.317993164062</v>
+        <v>1593.265014648438</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1407,10 +1407,10 @@
         <v>4</v>
       </c>
       <c r="B93">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C93" s="2">
-        <v>1702.279052734375</v>
+        <v>1642.800048828125</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1418,10 +1418,10 @@
         <v>4</v>
       </c>
       <c r="B94">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="C94" s="2">
-        <v>1601.52099609375</v>
+        <v>1688.9580078125</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1429,10 +1429,10 @@
         <v>4</v>
       </c>
       <c r="B95">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="C95" s="2">
-        <v>1406.629028320312</v>
+        <v>1686.876953125</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1440,10 +1440,10 @@
         <v>4</v>
       </c>
       <c r="B96">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="C96" s="2">
-        <v>1422.54296875</v>
+        <v>1683.14794921875</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1451,10 +1451,10 @@
         <v>4</v>
       </c>
       <c r="B97">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="C97" s="2">
-        <v>1200.203979492188</v>
+        <v>1531.7900390625</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1462,10 +1462,10 @@
         <v>4</v>
       </c>
       <c r="B98">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="C98" s="2">
-        <v>1184.27099609375</v>
+        <v>1374.383056640625</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1473,10 +1473,10 @@
         <v>4</v>
       </c>
       <c r="B99">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="C99" s="2">
-        <v>1219.880004882812</v>
+        <v>1251.037963867188</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1484,10 +1484,10 @@
         <v>4</v>
       </c>
       <c r="B100">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="C100" s="2">
-        <v>1366.839965820312</v>
+        <v>1068.1669921875</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1495,10 +1495,10 @@
         <v>4</v>
       </c>
       <c r="B101">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="C101" s="2">
-        <v>1338.2099609375</v>
+        <v>887.52099609375</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1506,10 +1506,10 @@
         <v>4</v>
       </c>
       <c r="B102">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="C102" s="2">
-        <v>1089.329956054688</v>
+        <v>738.2329711914062</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1517,10 +1517,10 @@
         <v>4</v>
       </c>
       <c r="B103">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="C103" s="2">
-        <v>1126.697021484375</v>
+        <v>748.0280151367188</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1528,10 +1528,10 @@
         <v>4</v>
       </c>
       <c r="B104">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="C104" s="2">
-        <v>1142.734985351562</v>
+        <v>556.1110229492188</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1539,10 +1539,10 @@
         <v>4</v>
       </c>
       <c r="B105">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="C105" s="2">
-        <v>1136.6669921875</v>
+        <v>548.1240234375</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1550,10 +1550,10 @@
         <v>4</v>
       </c>
       <c r="B106">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="C106" s="2">
-        <v>974.7139892578125</v>
+        <v>512.4840087890625</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1561,10 +1561,10 @@
         <v>4</v>
       </c>
       <c r="B107">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="C107" s="2">
-        <v>990.7919921875</v>
+        <v>537.7219848632812</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1572,10 +1572,10 @@
         <v>4</v>
       </c>
       <c r="B108">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="C108" s="2">
-        <v>936.5239868164062</v>
+        <v>523.8250122070312</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1583,10 +1583,10 @@
         <v>4</v>
       </c>
       <c r="B109">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="C109" s="2">
-        <v>980.0880126953125</v>
+        <v>380.8410034179688</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1594,10 +1594,10 @@
         <v>4</v>
       </c>
       <c r="B110">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="C110" s="2">
-        <v>1126.31396484375</v>
+        <v>349.9230041503906</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1605,10 +1605,10 @@
         <v>4</v>
       </c>
       <c r="B111">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="C111" s="2">
-        <v>1329.245971679688</v>
+        <v>290.4540100097656</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1616,10 +1616,10 @@
         <v>4</v>
       </c>
       <c r="B112">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C112" s="2">
-        <v>1244.161987304688</v>
+        <v>307.4209899902344</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1627,10 +1627,10 @@
         <v>4</v>
       </c>
       <c r="B113">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="C113" s="2">
-        <v>1282.359008789062</v>
+        <v>348.5759887695312</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1638,10 +1638,10 @@
         <v>4</v>
       </c>
       <c r="B114">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="C114" s="2">
-        <v>1189.949951171875</v>
+        <v>415.5169982910156</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1649,10 +1649,10 @@
         <v>4</v>
       </c>
       <c r="B115">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="C115" s="2">
-        <v>1102.088012695312</v>
+        <v>341.9559936523438</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1660,10 +1660,10 @@
         <v>4</v>
       </c>
       <c r="B116">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="C116" s="2">
-        <v>1060.053955078125</v>
+        <v>276.4840087890625</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1671,10 +1671,10 @@
         <v>4</v>
       </c>
       <c r="B117">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C117" s="2">
-        <v>983.5419921875</v>
+        <v>338.56298828125</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1682,10 +1682,10 @@
         <v>4</v>
       </c>
       <c r="B118">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="C118" s="2">
-        <v>1074.1689453125</v>
+        <v>339.2950134277344</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1693,10 +1693,10 @@
         <v>4</v>
       </c>
       <c r="B119">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="C119" s="2">
-        <v>914.2100219726562</v>
+        <v>350.0069885253906</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1704,10 +1704,10 @@
         <v>4</v>
       </c>
       <c r="B120">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C120" s="2">
-        <v>911.177978515625</v>
+        <v>427.25</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1715,10 +1715,10 @@
         <v>4</v>
       </c>
       <c r="B121">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="C121" s="2">
-        <v>1015.989013671875</v>
+        <v>430.7239990234375</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1726,10 +1726,10 @@
         <v>4</v>
       </c>
       <c r="B122">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="C122" s="2">
-        <v>1067.258056640625</v>
+        <v>421.2510070800781</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1737,10 +1737,10 @@
         <v>4</v>
       </c>
       <c r="B123">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="C123" s="2">
-        <v>1016.276977539062</v>
+        <v>470.5150146484375</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1748,10 +1748,10 @@
         <v>4</v>
       </c>
       <c r="B124">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C124" s="2">
-        <v>1048.534057617188</v>
+        <v>475.3550109863281</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1759,10 +1759,10 @@
         <v>4</v>
       </c>
       <c r="B125">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="C125" s="2">
-        <v>1044.47705078125</v>
+        <v>467.6010131835938</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1770,10 +1770,10 @@
         <v>4</v>
       </c>
       <c r="B126">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="C126" s="2">
-        <v>995.3300170898438</v>
+        <v>482.9079895019531</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1781,10 +1781,10 @@
         <v>4</v>
       </c>
       <c r="B127">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="C127" s="2">
-        <v>1009.302978515625</v>
+        <v>492.7619934082031</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1792,10 +1792,10 @@
         <v>4</v>
       </c>
       <c r="B128">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C128" s="2">
-        <v>923.7769775390625</v>
+        <v>481.2860107421875</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1803,10 +1803,10 @@
         <v>4</v>
       </c>
       <c r="B129">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="C129" s="2">
-        <v>906.6900024414062</v>
+        <v>379.27099609375</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1814,373 +1814,373 @@
         <v>4</v>
       </c>
       <c r="B130">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="C130" s="2">
-        <v>821.4329833984375</v>
+        <v>321.6640014648438</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B131">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="C131" s="2">
-        <v>957.947021484375</v>
+        <v>578.47900390625</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B132">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="C132" s="2">
-        <v>887.406982421875</v>
+        <v>579.1820068359375</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B133">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="C133" s="2">
-        <v>863.6680297851562</v>
+        <v>542.5689697265625</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B134">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C134" s="2">
-        <v>683.625</v>
+        <v>602.166015625</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B135">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="C135" s="2">
-        <v>582.6690063476562</v>
+        <v>493.3800048828125</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B136">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="C136" s="2">
-        <v>508.2489929199219</v>
+        <v>533.8419799804688</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B137">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C137" s="2">
-        <v>405.0899963378906</v>
+        <v>701.8599853515625</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B138">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C138" s="2">
-        <v>425.7829895019531</v>
+        <v>559.9450073242188</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B139">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C139" s="2">
-        <v>440.8569946289062</v>
+        <v>504.0910034179688</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B140">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C140" s="2">
-        <v>417.2179870605469</v>
+        <v>502.2650146484375</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B141">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C141" s="2">
-        <v>288.7550048828125</v>
+        <v>408.5329895019531</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B142">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C142" s="2">
-        <v>262.5069885253906</v>
+        <v>365.3340148925781</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B143">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C143" s="2">
-        <v>280.5329895019531</v>
+        <v>543.948974609375</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B144">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="C144" s="2">
-        <v>313.3160095214844</v>
+        <v>510.3989868164062</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B145">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="C145" s="2">
-        <v>198.9100036621094</v>
+        <v>395.8450012207031</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B146">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="C146" s="2">
-        <v>216.4730072021484</v>
+        <v>358.4209899902344</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B147">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="C147" s="2">
-        <v>208.8679962158203</v>
+        <v>350.5960083007812</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B148">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="C148" s="2">
-        <v>175.2420043945312</v>
+        <v>384.2650146484375</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B149">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="C149" s="2">
-        <v>170.5480041503906</v>
+        <v>398.47900390625</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B150">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="C150" s="2">
-        <v>180.593994140625</v>
+        <v>475.4540100097656</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B151">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="C151" s="2">
-        <v>155.1510009765625</v>
+        <v>313.7659912109375</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B152">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="C152" s="2">
-        <v>212.1020050048828</v>
+        <v>591.8489990234375</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B153">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="C153" s="2">
-        <v>200.2599945068359</v>
+        <v>473.1440124511719</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B154">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="C154" s="2">
-        <v>202.3099975585938</v>
+        <v>521.5590209960938</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B155">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="C155" s="2">
-        <v>204.322998046875</v>
+        <v>466.1319885253906</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B156">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="C156" s="2">
-        <v>201.6100006103516</v>
+        <v>454.1099853515625</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B157">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="C157" s="2">
-        <v>226.5339965820312</v>
+        <v>504.489990234375</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B158">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="C158" s="2">
-        <v>308.4039916992188</v>
+        <v>668.031005859375</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B159">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="C159" s="2">
-        <v>298.47900390625</v>
+        <v>842.4650268554688</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B160">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="C160" s="2">
-        <v>348.1159973144531</v>
+        <v>744.1939697265625</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B161">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="C161" s="2">
-        <v>313.0029907226562</v>
+        <v>739.4819946289062</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B162">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="C162" s="2">
-        <v>346.4849853515625</v>
+        <v>888.1740112304688</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B163">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="C163" s="2">
-        <v>320.6570129394531</v>
+        <v>864.0059814453125</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2188,10 +2188,10 @@
         <v>5</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C164" s="2">
-        <v>421.8519897460938</v>
+        <v>852.2360229492188</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2199,10 +2199,10 @@
         <v>5</v>
       </c>
       <c r="B165">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="C165" s="2">
-        <v>408.343994140625</v>
+        <v>851.10498046875</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2210,10 +2210,10 @@
         <v>5</v>
       </c>
       <c r="B166">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="C166" s="2">
-        <v>398.8150024414062</v>
+        <v>803.2459716796875</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2221,10 +2221,10 @@
         <v>5</v>
       </c>
       <c r="B167">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C167" s="2">
-        <v>308.6279907226562</v>
+        <v>830.780029296875</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2232,10 +2232,10 @@
         <v>5</v>
       </c>
       <c r="B168">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C168" s="2">
-        <v>196.0720062255859</v>
+        <v>860.8699951171875</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2243,10 +2243,10 @@
         <v>5</v>
       </c>
       <c r="B169">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C169" s="2">
-        <v>252.10400390625</v>
+        <v>901.3909912109375</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2254,10 +2254,10 @@
         <v>5</v>
       </c>
       <c r="B170">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C170" s="2">
-        <v>424.0559997558594</v>
+        <v>991.781005859375</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2265,10 +2265,10 @@
         <v>5</v>
       </c>
       <c r="B171">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C171" s="2">
-        <v>515.177978515625</v>
+        <v>925.3319702148438</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2276,10 +2276,10 @@
         <v>5</v>
       </c>
       <c r="B172">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C172" s="2">
-        <v>279.2319946289062</v>
+        <v>943.4409790039062</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2287,10 +2287,10 @@
         <v>5</v>
       </c>
       <c r="B173">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C173" s="2">
-        <v>297.8609924316406</v>
+        <v>938.0640258789062</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2298,10 +2298,10 @@
         <v>5</v>
       </c>
       <c r="B174">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C174" s="2">
-        <v>291.6279907226562</v>
+        <v>911.072021484375</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2309,10 +2309,10 @@
         <v>5</v>
       </c>
       <c r="B175">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C175" s="2">
-        <v>271.7139892578125</v>
+        <v>827.4000244140625</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2320,10 +2320,10 @@
         <v>5</v>
       </c>
       <c r="B176">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C176" s="2">
-        <v>300.0029907226562</v>
+        <v>811.2150268554688</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2331,10 +2331,10 @@
         <v>5</v>
       </c>
       <c r="B177">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C177" s="2">
-        <v>314.56298828125</v>
+        <v>825.0819702148438</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2342,10 +2342,10 @@
         <v>5</v>
       </c>
       <c r="B178">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C178" s="2">
-        <v>277.1480102539062</v>
+        <v>800.3090209960938</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2353,10 +2353,10 @@
         <v>5</v>
       </c>
       <c r="B179">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C179" s="2">
-        <v>247.1190032958984</v>
+        <v>838.9550170898438</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2364,10 +2364,10 @@
         <v>5</v>
       </c>
       <c r="B180">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C180" s="2">
-        <v>164.3809967041016</v>
+        <v>852.5579833984375</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2375,10 +2375,10 @@
         <v>5</v>
       </c>
       <c r="B181">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C181" s="2">
-        <v>148.7350006103516</v>
+        <v>815.2849731445312</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2386,10 +2386,10 @@
         <v>5</v>
       </c>
       <c r="B182">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="C182" s="2">
-        <v>136.6419982910156</v>
+        <v>639.5599975585938</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2397,10 +2397,10 @@
         <v>5</v>
       </c>
       <c r="B183">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="C183" s="2">
-        <v>156.9230041503906</v>
+        <v>739.3759765625</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2408,10 +2408,10 @@
         <v>5</v>
       </c>
       <c r="B184">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C184" s="2">
-        <v>164.7989959716797</v>
+        <v>841.2659912109375</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2419,10 +2419,10 @@
         <v>5</v>
       </c>
       <c r="B185">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="C185" s="2">
-        <v>146.6849975585938</v>
+        <v>867.0339965820312</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2430,10 +2430,10 @@
         <v>5</v>
       </c>
       <c r="B186">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="C186" s="2">
-        <v>79.99199676513672</v>
+        <v>772.0440063476562</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2441,10 +2441,10 @@
         <v>5</v>
       </c>
       <c r="B187">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C187" s="2">
-        <v>38.25799942016602</v>
+        <v>840.364013671875</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2452,10 +2452,10 @@
         <v>5</v>
       </c>
       <c r="B188">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="C188" s="2">
-        <v>74.76699829101562</v>
+        <v>813.468017578125</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2463,10 +2463,10 @@
         <v>5</v>
       </c>
       <c r="B189">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C189" s="2">
-        <v>46.90800094604492</v>
+        <v>936.0020141601562</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2474,10 +2474,10 @@
         <v>5</v>
       </c>
       <c r="B190">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="C190" s="2">
-        <v>39.37599945068359</v>
+        <v>1068.796997070312</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2485,10 +2485,10 @@
         <v>5</v>
       </c>
       <c r="B191">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="C191" s="2">
-        <v>-34.90900039672852</v>
+        <v>1074.531982421875</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2496,10 +2496,10 @@
         <v>5</v>
       </c>
       <c r="B192">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="C192" s="2">
-        <v>14.1230001449585</v>
+        <v>1064.287963867188</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2507,10 +2507,10 @@
         <v>5</v>
       </c>
       <c r="B193">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="C193" s="2">
-        <v>-78.69300079345703</v>
+        <v>1056.920043945312</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2518,10 +2518,10 @@
         <v>5</v>
       </c>
       <c r="B194">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="C194" s="2">
-        <v>-99.86100006103516</v>
+        <v>1188.490966796875</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2529,10 +2529,10 @@
         <v>5</v>
       </c>
       <c r="B195">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="C195" s="2">
-        <v>-146.1380004882812</v>
+        <v>1173.324951171875</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2540,10 +2540,10 @@
         <v>5</v>
       </c>
       <c r="B196">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="C196" s="2">
-        <v>242.3840026855469</v>
+        <v>1021.081970214844</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2551,10 +2551,10 @@
         <v>5</v>
       </c>
       <c r="B197">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="C197" s="2">
-        <v>160.4299926757812</v>
+        <v>1074.43994140625</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2562,10 +2562,10 @@
         <v>5</v>
       </c>
       <c r="B198">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="C198" s="2">
-        <v>143.2209930419922</v>
+        <v>1049.005981445312</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2573,10 +2573,10 @@
         <v>5</v>
       </c>
       <c r="B199">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="C199" s="2">
-        <v>159.4420013427734</v>
+        <v>1035.213989257812</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2584,10 +2584,10 @@
         <v>5</v>
       </c>
       <c r="B200">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="C200" s="2">
-        <v>80.26799774169922</v>
+        <v>1013.151000976562</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2595,10 +2595,10 @@
         <v>5</v>
       </c>
       <c r="B201">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="C201" s="2">
-        <v>132.1360015869141</v>
+        <v>927.0540161132812</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2606,10 +2606,10 @@
         <v>5</v>
       </c>
       <c r="B202">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="C202" s="2">
-        <v>175.7550048828125</v>
+        <v>918.4249877929688</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2617,10 +2617,10 @@
         <v>5</v>
       </c>
       <c r="B203">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="C203" s="2">
-        <v>337.85400390625</v>
+        <v>915.2919921875</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2628,10 +2628,10 @@
         <v>5</v>
       </c>
       <c r="B204">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="C204" s="2">
-        <v>357.0029907226562</v>
+        <v>866.9990234375</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2639,10 +2639,10 @@
         <v>5</v>
       </c>
       <c r="B205">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="C205" s="2">
-        <v>307.8089904785156</v>
+        <v>757.6010131835938</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2650,10 +2650,10 @@
         <v>5</v>
       </c>
       <c r="B206">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="C206" s="2">
-        <v>377.0820007324219</v>
+        <v>713.9879760742188</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2661,10 +2661,10 @@
         <v>5</v>
       </c>
       <c r="B207">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="C207" s="2">
-        <v>427.1319885253906</v>
+        <v>706.0700073242188</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2672,10 +2672,10 @@
         <v>5</v>
       </c>
       <c r="B208">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C208" s="2">
-        <v>410.0029907226562</v>
+        <v>812.9630126953125</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2683,10 +2683,10 @@
         <v>5</v>
       </c>
       <c r="B209">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="C209" s="2">
-        <v>377.7739868164062</v>
+        <v>734.5499877929688</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2694,10 +2694,10 @@
         <v>5</v>
       </c>
       <c r="B210">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="C210" s="2">
-        <v>269.4230041503906</v>
+        <v>817.6309814453125</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2705,10 +2705,10 @@
         <v>5</v>
       </c>
       <c r="B211">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="C211" s="2">
-        <v>271.739013671875</v>
+        <v>865.47998046875</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2716,10 +2716,10 @@
         <v>5</v>
       </c>
       <c r="B212">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="C212" s="2">
-        <v>320.052001953125</v>
+        <v>765.447021484375</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2727,10 +2727,10 @@
         <v>5</v>
       </c>
       <c r="B213">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C213" s="2">
-        <v>358.8169860839844</v>
+        <v>858.2119750976562</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2738,10 +2738,10 @@
         <v>5</v>
       </c>
       <c r="B214">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="C214" s="2">
-        <v>330.8080139160156</v>
+        <v>665.02099609375</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2749,10 +2749,10 @@
         <v>5</v>
       </c>
       <c r="B215">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="C215" s="2">
-        <v>358.7080078125</v>
+        <v>611.8779907226562</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2760,10 +2760,10 @@
         <v>5</v>
       </c>
       <c r="B216">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C216" s="2">
-        <v>192.6860046386719</v>
+        <v>765.6719970703125</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2771,10 +2771,10 @@
         <v>5</v>
       </c>
       <c r="B217">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="C217" s="2">
-        <v>182.322998046875</v>
+        <v>645.0659790039062</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2782,10 +2782,10 @@
         <v>5</v>
       </c>
       <c r="B218">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="C218" s="2">
-        <v>168</v>
+        <v>688.3930053710938</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2793,10 +2793,10 @@
         <v>5</v>
       </c>
       <c r="B219">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="C219" s="2">
-        <v>187.2510070800781</v>
+        <v>684.1259765625</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2804,10 +2804,10 @@
         <v>5</v>
       </c>
       <c r="B220">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C220" s="2">
-        <v>151.0330047607422</v>
+        <v>652.3209838867188</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2815,10 +2815,10 @@
         <v>5</v>
       </c>
       <c r="B221">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="C221" s="2">
-        <v>143.8670043945312</v>
+        <v>659.3189697265625</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2826,10 +2826,10 @@
         <v>5</v>
       </c>
       <c r="B222">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="C222" s="2">
-        <v>172.0390014648438</v>
+        <v>619.6119995117188</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2837,10 +2837,10 @@
         <v>5</v>
       </c>
       <c r="B223">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="C223" s="2">
-        <v>181.7270050048828</v>
+        <v>617.7230224609375</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2848,10 +2848,10 @@
         <v>5</v>
       </c>
       <c r="B224">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C224" s="2">
-        <v>205.947998046875</v>
+        <v>587.8670043945312</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2859,10 +2859,10 @@
         <v>5</v>
       </c>
       <c r="B225">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="C225" s="2">
-        <v>238.85400390625</v>
+        <v>571.5360107421875</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2870,373 +2870,373 @@
         <v>5</v>
       </c>
       <c r="B226">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="C226" s="2">
-        <v>265.7959899902344</v>
+        <v>540.5120239257812</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B227">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="C227" s="2">
-        <v>302.5079956054688</v>
+        <v>656.2979736328125</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B228">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="C228" s="2">
-        <v>325.1919860839844</v>
+        <v>701.9450073242188</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B229">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="C229" s="2">
-        <v>361.5870056152344</v>
+        <v>647.14599609375</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B230">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C230" s="2">
-        <v>401.5429992675781</v>
+        <v>567.4290161132812</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B231">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="C231" s="2">
-        <v>465.9609985351562</v>
+        <v>636.1209716796875</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B232">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="C232" s="2">
-        <v>445.4309997558594</v>
+        <v>597.1339721679688</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B233">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C233" s="2">
-        <v>507.885986328125</v>
+        <v>654.1060180664062</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B234">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C234" s="2">
-        <v>538.4000244140625</v>
+        <v>652.3519897460938</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B235">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C235" s="2">
-        <v>607.5819702148438</v>
+        <v>632.7849731445312</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B236">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C236" s="2">
-        <v>628.2999877929688</v>
+        <v>718.5269775390625</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B237">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C237" s="2">
-        <v>555.4879760742188</v>
+        <v>680.6610107421875</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B238">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C238" s="2">
-        <v>590.1370239257812</v>
+        <v>766.4520263671875</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B239">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C239" s="2">
-        <v>798.5900268554688</v>
+        <v>765.60498046875</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B240">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="C240" s="2">
-        <v>724.5390014648438</v>
+        <v>844.27197265625</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B241">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="C241" s="2">
-        <v>731.530029296875</v>
+        <v>854.7570190429688</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B242">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="C242" s="2">
-        <v>796.18701171875</v>
+        <v>870.7349853515625</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B243">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="C243" s="2">
-        <v>790.3480224609375</v>
+        <v>1006.034973144531</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B244">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="C244" s="2">
-        <v>724.2589721679688</v>
+        <v>1022.846008300781</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B245">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="C245" s="2">
-        <v>684.0079956054688</v>
+        <v>1019.940002441406</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B246">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="C246" s="2">
-        <v>597.7899780273438</v>
+        <v>1005.419006347656</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B247">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="C247" s="2">
-        <v>375.3580017089844</v>
+        <v>1001.672973632812</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B248">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="C248" s="2">
-        <v>318.5700073242188</v>
+        <v>1021.926025390625</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B249">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="C249" s="2">
-        <v>301.93701171875</v>
+        <v>991.0260009765625</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B250">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="C250" s="2">
-        <v>314.1270141601562</v>
+        <v>983.031982421875</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B251">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="C251" s="2">
-        <v>401.3320007324219</v>
+        <v>965.8729858398438</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B252">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="C252" s="2">
-        <v>347.3399963378906</v>
+        <v>922.3629760742188</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B253">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="C253" s="2">
-        <v>257.7820129394531</v>
+        <v>899.60498046875</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B254">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="C254" s="2">
-        <v>426.2250061035156</v>
+        <v>843.5889892578125</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B255">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="C255" s="2">
-        <v>443.9509887695312</v>
+        <v>826.5269775390625</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B256">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="C256" s="2">
-        <v>491.9809875488281</v>
+        <v>921.5170288085938</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B257">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="C257" s="2">
-        <v>576.7479858398438</v>
+        <v>937.0960083007812</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B258">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="C258" s="2">
-        <v>615.3599853515625</v>
+        <v>1025.2080078125</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B259">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="C259" s="2">
-        <v>578.9119873046875</v>
+        <v>1113.7490234375</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3244,10 +3244,10 @@
         <v>6</v>
       </c>
       <c r="B260">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C260" s="2">
-        <v>474.4049987792969</v>
+        <v>1203.538940429688</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3255,10 +3255,10 @@
         <v>6</v>
       </c>
       <c r="B261">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="C261" s="2">
-        <v>513.4149780273438</v>
+        <v>1165.194946289062</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3266,10 +3266,10 @@
         <v>6</v>
       </c>
       <c r="B262">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="C262" s="2">
-        <v>495.5499877929688</v>
+        <v>1251.52197265625</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3277,10 +3277,10 @@
         <v>6</v>
       </c>
       <c r="B263">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C263" s="2">
-        <v>564.7020263671875</v>
+        <v>1442.025024414062</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3288,10 +3288,10 @@
         <v>6</v>
       </c>
       <c r="B264">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C264" s="2">
-        <v>609.6939697265625</v>
+        <v>1309.51904296875</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3299,10 +3299,10 @@
         <v>6</v>
       </c>
       <c r="B265">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C265" s="2">
-        <v>583.4359741210938</v>
+        <v>1738.2509765625</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3310,10 +3310,10 @@
         <v>6</v>
       </c>
       <c r="B266">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C266" s="2">
-        <v>597.14501953125</v>
+        <v>1814.31005859375</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3321,10 +3321,10 @@
         <v>6</v>
       </c>
       <c r="B267">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C267" s="2">
-        <v>620.1599731445312</v>
+        <v>1699.31396484375</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3332,10 +3332,10 @@
         <v>6</v>
       </c>
       <c r="B268">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C268" s="2">
-        <v>565.989013671875</v>
+        <v>1646.18896484375</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3343,10 +3343,10 @@
         <v>6</v>
       </c>
       <c r="B269">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C269" s="2">
-        <v>617.468017578125</v>
+        <v>1782.849975585938</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3354,10 +3354,10 @@
         <v>6</v>
       </c>
       <c r="B270">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C270" s="2">
-        <v>662.0050048828125</v>
+        <v>1793.797973632812</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3365,10 +3365,10 @@
         <v>6</v>
       </c>
       <c r="B271">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C271" s="2">
-        <v>682.1859741210938</v>
+        <v>1917.378051757812</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3376,10 +3376,10 @@
         <v>6</v>
       </c>
       <c r="B272">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C272" s="2">
-        <v>663.2890014648438</v>
+        <v>1924.220947265625</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3387,10 +3387,10 @@
         <v>6</v>
       </c>
       <c r="B273">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C273" s="2">
-        <v>669.8610229492188</v>
+        <v>1917.401000976562</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3398,10 +3398,10 @@
         <v>6</v>
       </c>
       <c r="B274">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C274" s="2">
-        <v>595.9229736328125</v>
+        <v>1963.703002929688</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3409,10 +3409,10 @@
         <v>6</v>
       </c>
       <c r="B275">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C275" s="2">
-        <v>615.8809814453125</v>
+        <v>1935.808959960938</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3420,10 +3420,10 @@
         <v>6</v>
       </c>
       <c r="B276">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C276" s="2">
-        <v>612.4849853515625</v>
+        <v>1973.885986328125</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3431,10 +3431,10 @@
         <v>6</v>
       </c>
       <c r="B277">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C277" s="2">
-        <v>543.2919921875</v>
+        <v>1766.420043945312</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3442,10 +3442,10 @@
         <v>6</v>
       </c>
       <c r="B278">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="C278" s="2">
-        <v>590.323974609375</v>
+        <v>2055.52490234375</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3453,10 +3453,10 @@
         <v>6</v>
       </c>
       <c r="B279">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="C279" s="2">
-        <v>693.1589965820312</v>
+        <v>1735.946044921875</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3464,10 +3464,10 @@
         <v>6</v>
       </c>
       <c r="B280">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C280" s="2">
-        <v>669.0540161132812</v>
+        <v>1478.170043945312</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3475,10 +3475,10 @@
         <v>6</v>
       </c>
       <c r="B281">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="C281" s="2">
-        <v>662.5560302734375</v>
+        <v>1326.386962890625</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3486,10 +3486,10 @@
         <v>6</v>
       </c>
       <c r="B282">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="C282" s="2">
-        <v>669.7030029296875</v>
+        <v>1304.60595703125</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3497,10 +3497,10 @@
         <v>6</v>
       </c>
       <c r="B283">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C283" s="2">
-        <v>568.489013671875</v>
+        <v>1226.838012695312</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3508,10 +3508,10 @@
         <v>6</v>
       </c>
       <c r="B284">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="C284" s="2">
-        <v>555.4639892578125</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3519,10 +3519,10 @@
         <v>6</v>
       </c>
       <c r="B285">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C285" s="2">
-        <v>526.1740112304688</v>
+        <v>1217.890014648438</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3530,10 +3530,10 @@
         <v>6</v>
       </c>
       <c r="B286">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="C286" s="2">
-        <v>497.81298828125</v>
+        <v>1187.515014648438</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3541,10 +3541,10 @@
         <v>6</v>
       </c>
       <c r="B287">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="C287" s="2">
-        <v>532.7769775390625</v>
+        <v>1318.816040039062</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3552,10 +3552,10 @@
         <v>6</v>
       </c>
       <c r="B288">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="C288" s="2">
-        <v>517.2769775390625</v>
+        <v>1150.248046875</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3563,10 +3563,10 @@
         <v>6</v>
       </c>
       <c r="B289">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="C289" s="2">
-        <v>498.5329895019531</v>
+        <v>1077.473999023438</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3574,10 +3574,10 @@
         <v>6</v>
       </c>
       <c r="B290">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="C290" s="2">
-        <v>419.3619995117188</v>
+        <v>1731.864013671875</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3585,10 +3585,10 @@
         <v>6</v>
       </c>
       <c r="B291">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="C291" s="2">
-        <v>415.0369873046875</v>
+        <v>1948.7080078125</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3596,10 +3596,10 @@
         <v>6</v>
       </c>
       <c r="B292">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="C292" s="2">
-        <v>350.8280029296875</v>
+        <v>1959.746948242188</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3607,10 +3607,10 @@
         <v>6</v>
       </c>
       <c r="B293">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="C293" s="2">
-        <v>349.0010070800781</v>
+        <v>1907.328979492188</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3618,10 +3618,10 @@
         <v>6</v>
       </c>
       <c r="B294">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="C294" s="2">
-        <v>427.1260070800781</v>
+        <v>1690.495971679688</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3629,10 +3629,10 @@
         <v>6</v>
       </c>
       <c r="B295">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="C295" s="2">
-        <v>450.4179992675781</v>
+        <v>1284.031982421875</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3640,10 +3640,10 @@
         <v>6</v>
       </c>
       <c r="B296">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="C296" s="2">
-        <v>435.5920104980469</v>
+        <v>1152.253051757812</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3651,10 +3651,10 @@
         <v>6</v>
       </c>
       <c r="B297">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="C297" s="2">
-        <v>514.9219970703125</v>
+        <v>1108.952026367188</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3662,10 +3662,10 @@
         <v>6</v>
       </c>
       <c r="B298">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="C298" s="2">
-        <v>464.4540100097656</v>
+        <v>965.9710083007812</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3673,10 +3673,10 @@
         <v>6</v>
       </c>
       <c r="B299">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="C299" s="2">
-        <v>406.0119934082031</v>
+        <v>714.5250244140625</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3684,10 +3684,10 @@
         <v>6</v>
       </c>
       <c r="B300">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="C300" s="2">
-        <v>402.6180114746094</v>
+        <v>742.4249877929688</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3695,10 +3695,10 @@
         <v>6</v>
       </c>
       <c r="B301">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="C301" s="2">
-        <v>399.6789855957031</v>
+        <v>1031.661987304688</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3706,10 +3706,10 @@
         <v>6</v>
       </c>
       <c r="B302">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="C302" s="2">
-        <v>357.6690063476562</v>
+        <v>967.97900390625</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3717,10 +3717,10 @@
         <v>6</v>
       </c>
       <c r="B303">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="C303" s="2">
-        <v>243.7530059814453</v>
+        <v>978.510009765625</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3728,10 +3728,10 @@
         <v>6</v>
       </c>
       <c r="B304">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C304" s="2">
-        <v>284.6619873046875</v>
+        <v>952.8670043945312</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3739,10 +3739,10 @@
         <v>6</v>
       </c>
       <c r="B305">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="C305" s="2">
-        <v>383.6499938964844</v>
+        <v>987.22998046875</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3750,10 +3750,10 @@
         <v>6</v>
       </c>
       <c r="B306">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="C306" s="2">
-        <v>434.0509948730469</v>
+        <v>996.35498046875</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3761,10 +3761,10 @@
         <v>6</v>
       </c>
       <c r="B307">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="C307" s="2">
-        <v>463.0580139160156</v>
+        <v>985.9929809570312</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3772,10 +3772,10 @@
         <v>6</v>
       </c>
       <c r="B308">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="C308" s="2">
-        <v>454.18701171875</v>
+        <v>1065.807006835938</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3783,10 +3783,10 @@
         <v>6</v>
       </c>
       <c r="B309">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C309" s="2">
-        <v>408.8789978027344</v>
+        <v>1091.506958007812</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3794,10 +3794,10 @@
         <v>6</v>
       </c>
       <c r="B310">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="C310" s="2">
-        <v>480.39599609375</v>
+        <v>862.2160034179688</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3805,10 +3805,10 @@
         <v>6</v>
       </c>
       <c r="B311">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="C311" s="2">
-        <v>599.156005859375</v>
+        <v>870.0800170898438</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3816,10 +3816,10 @@
         <v>6</v>
       </c>
       <c r="B312">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C312" s="2">
-        <v>565.322998046875</v>
+        <v>982.4949951171875</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3827,10 +3827,10 @@
         <v>6</v>
       </c>
       <c r="B313">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="C313" s="2">
-        <v>639.9130249023438</v>
+        <v>1003.484008789062</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3838,10 +3838,10 @@
         <v>6</v>
       </c>
       <c r="B314">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="C314" s="2">
-        <v>910.2009887695312</v>
+        <v>1320.657958984375</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3849,10 +3849,10 @@
         <v>6</v>
       </c>
       <c r="B315">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="C315" s="2">
-        <v>949.427978515625</v>
+        <v>1470.569946289062</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3860,10 +3860,10 @@
         <v>6</v>
       </c>
       <c r="B316">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C316" s="2">
-        <v>871.260986328125</v>
+        <v>1478.654052734375</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -3871,10 +3871,10 @@
         <v>6</v>
       </c>
       <c r="B317">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="C317" s="2">
-        <v>971.5430297851562</v>
+        <v>1359.974975585938</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -3882,10 +3882,10 @@
         <v>6</v>
       </c>
       <c r="B318">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="C318" s="2">
-        <v>1228.741943359375</v>
+        <v>1638.014038085938</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -3893,10 +3893,10 @@
         <v>6</v>
       </c>
       <c r="B319">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="C319" s="2">
-        <v>1212.767944335938</v>
+        <v>1878.245971679688</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -3904,10 +3904,10 @@
         <v>6</v>
       </c>
       <c r="B320">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C320" s="2">
-        <v>1360.682006835938</v>
+        <v>1679.402954101562</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -3915,10 +3915,10 @@
         <v>6</v>
       </c>
       <c r="B321">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="C321" s="2">
-        <v>1399.89599609375</v>
+        <v>1470.06005859375</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -3926,373 +3926,373 @@
         <v>6</v>
       </c>
       <c r="B322">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="C322" s="2">
-        <v>1482.991943359375</v>
+        <v>1428.535034179688</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B323">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="C323" s="2">
-        <v>1420.220947265625</v>
+        <v>734.2150268554688</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B324">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="C324" s="2">
-        <v>1355.342041015625</v>
+        <v>836.572021484375</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B325">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="C325" s="2">
-        <v>1349.89599609375</v>
+        <v>756.5360107421875</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B326">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C326" s="2">
-        <v>1218.381958007812</v>
+        <v>731.4010009765625</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B327">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="C327" s="2">
-        <v>1206.262939453125</v>
+        <v>585.6599731445312</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B328">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="C328" s="2">
-        <v>1029.586059570312</v>
+        <v>703.7579956054688</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B329">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C329" s="2">
-        <v>1050.60498046875</v>
+        <v>786.7739868164062</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B330">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C330" s="2">
-        <v>1095.858032226562</v>
+        <v>926.614013671875</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B331">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C331" s="2">
-        <v>1015.820007324219</v>
+        <v>841.2769775390625</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B332">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C332" s="2">
-        <v>1008.817016601562</v>
+        <v>1023.661010742188</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B333">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C333" s="2">
-        <v>939.9869995117188</v>
+        <v>1101.844970703125</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B334">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C334" s="2">
-        <v>977.14501953125</v>
+        <v>1396.364013671875</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B335">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C335" s="2">
-        <v>899.7219848632812</v>
+        <v>1497.787963867188</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B336">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="C336" s="2">
-        <v>904.3510131835938</v>
+        <v>1464.869995117188</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B337">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="C337" s="2">
-        <v>968.7620239257812</v>
+        <v>1449.553955078125</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B338">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="C338" s="2">
-        <v>1163.251953125</v>
+        <v>1252.805053710938</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B339">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="C339" s="2">
-        <v>1102.193969726562</v>
+        <v>1231.47998046875</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B340">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="C340" s="2">
-        <v>1321.928955078125</v>
+        <v>1263.663940429688</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B341">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="C341" s="2">
-        <v>1347.649047851562</v>
+        <v>1567.859008789062</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B342">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="C342" s="2">
-        <v>1014.799987792969</v>
+        <v>1607.987060546875</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B343">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="C343" s="2">
-        <v>813.4249877929688</v>
+        <v>1720.774047851562</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B344">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="C344" s="2">
-        <v>686.4879760742188</v>
+        <v>1783.196044921875</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B345">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="C345" s="2">
-        <v>703.8460083007812</v>
+        <v>1656.43603515625</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B346">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="C346" s="2">
-        <v>593.5079956054688</v>
+        <v>1640.448974609375</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B347">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="C347" s="2">
-        <v>546.3469848632812</v>
+        <v>1649.368041992188</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B348">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="C348" s="2">
-        <v>550.0430297851562</v>
+        <v>1593.4599609375</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B349">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="C349" s="2">
-        <v>516.968017578125</v>
+        <v>1651.259033203125</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B350">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="C350" s="2">
-        <v>577.2680053710938</v>
+        <v>1428.870971679688</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B351">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="C351" s="2">
-        <v>678.8729858398438</v>
+        <v>1207.134033203125</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B352">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="C352" s="2">
-        <v>674.1890258789062</v>
+        <v>1179.262939453125</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B353">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="C353" s="2">
-        <v>817.885009765625</v>
+        <v>1488.504028320312</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B354">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="C354" s="2">
-        <v>626.2630004882812</v>
+        <v>1725.77294921875</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B355">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="C355" s="2">
-        <v>543.8289794921875</v>
+        <v>1721.453002929688</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4300,10 +4300,10 @@
         <v>7</v>
       </c>
       <c r="B356">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C356" s="2">
-        <v>416.9389953613281</v>
+        <v>1803.379028320312</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -4311,10 +4311,10 @@
         <v>7</v>
       </c>
       <c r="B357">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="C357" s="2">
-        <v>556.906982421875</v>
+        <v>1770.41796875</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -4322,10 +4322,10 @@
         <v>7</v>
       </c>
       <c r="B358">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="C358" s="2">
-        <v>613.7789916992188</v>
+        <v>1909.1650390625</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4333,10 +4333,10 @@
         <v>7</v>
       </c>
       <c r="B359">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C359" s="2">
-        <v>630.3660278320312</v>
+        <v>2061.636962890625</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4344,10 +4344,10 @@
         <v>7</v>
       </c>
       <c r="B360">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C360" s="2">
-        <v>625.8889770507812</v>
+        <v>2083.904052734375</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4355,10 +4355,10 @@
         <v>7</v>
       </c>
       <c r="B361">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C361" s="2">
-        <v>626.9149780273438</v>
+        <v>2086.822998046875</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4366,10 +4366,10 @@
         <v>7</v>
       </c>
       <c r="B362">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C362" s="2">
-        <v>781.2269897460938</v>
+        <v>2142.635986328125</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4377,10 +4377,10 @@
         <v>7</v>
       </c>
       <c r="B363">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C363" s="2">
-        <v>862.1909790039062</v>
+        <v>2262.259033203125</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4388,10 +4388,10 @@
         <v>7</v>
       </c>
       <c r="B364">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C364" s="2">
-        <v>795.6829833984375</v>
+        <v>2275.969970703125</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4399,10 +4399,10 @@
         <v>7</v>
       </c>
       <c r="B365">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C365" s="2">
-        <v>800.8170166015625</v>
+        <v>2308.287109375</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4410,10 +4410,10 @@
         <v>7</v>
       </c>
       <c r="B366">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C366" s="2">
-        <v>722.4730224609375</v>
+        <v>2307.615966796875</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -4421,10 +4421,10 @@
         <v>7</v>
       </c>
       <c r="B367">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C367" s="2">
-        <v>778.0230102539062</v>
+        <v>2301.113037109375</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -4432,10 +4432,10 @@
         <v>7</v>
       </c>
       <c r="B368">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C368" s="2">
-        <v>847.1400146484375</v>
+        <v>2309.471923828125</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4443,10 +4443,10 @@
         <v>7</v>
       </c>
       <c r="B369">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C369" s="2">
-        <v>939.947998046875</v>
+        <v>2409.508056640625</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -4454,10 +4454,10 @@
         <v>7</v>
       </c>
       <c r="B370">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C370" s="2">
-        <v>733.8179931640625</v>
+        <v>2418.787109375</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -4465,10 +4465,10 @@
         <v>7</v>
       </c>
       <c r="B371">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C371" s="2">
-        <v>689.9340209960938</v>
+        <v>2406.388916015625</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -4476,10 +4476,10 @@
         <v>7</v>
       </c>
       <c r="B372">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C372" s="2">
-        <v>378.8670043945312</v>
+        <v>2438.1240234375</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -4487,10 +4487,10 @@
         <v>7</v>
       </c>
       <c r="B373">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C373" s="2">
-        <v>420.1759948730469</v>
+        <v>2513.4970703125</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4498,10 +4498,10 @@
         <v>7</v>
       </c>
       <c r="B374">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="C374" s="2">
-        <v>359.1669921875</v>
+        <v>2595.0390625</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4509,10 +4509,10 @@
         <v>7</v>
       </c>
       <c r="B375">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="C375" s="2">
-        <v>450.5239868164062</v>
+        <v>2593.258056640625</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4520,10 +4520,10 @@
         <v>7</v>
       </c>
       <c r="B376">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C376" s="2">
-        <v>268.1520080566406</v>
+        <v>2615.56591796875</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -4531,10 +4531,10 @@
         <v>7</v>
       </c>
       <c r="B377">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="C377" s="2">
-        <v>168.0010070800781</v>
+        <v>2610.7451171875</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -4542,10 +4542,10 @@
         <v>7</v>
       </c>
       <c r="B378">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="C378" s="2">
-        <v>120.4629974365234</v>
+        <v>2656.8701171875</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -4553,10 +4553,10 @@
         <v>7</v>
       </c>
       <c r="B379">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C379" s="2">
-        <v>168.4239959716797</v>
+        <v>2714.868896484375</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -4564,10 +4564,10 @@
         <v>7</v>
       </c>
       <c r="B380">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="C380" s="2">
-        <v>157.1490020751953</v>
+        <v>2698.43505859375</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4575,10 +4575,10 @@
         <v>7</v>
       </c>
       <c r="B381">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C381" s="2">
-        <v>258.9660034179688</v>
+        <v>2683.763916015625</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4586,10 +4586,10 @@
         <v>7</v>
       </c>
       <c r="B382">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="C382" s="2">
-        <v>306.6910095214844</v>
+        <v>2704.528076171875</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4597,10 +4597,10 @@
         <v>7</v>
       </c>
       <c r="B383">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="C383" s="2">
-        <v>347.635009765625</v>
+        <v>2618.216064453125</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4608,10 +4608,10 @@
         <v>7</v>
       </c>
       <c r="B384">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="C384" s="2">
-        <v>304.9289855957031</v>
+        <v>2608.759033203125</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -4619,10 +4619,10 @@
         <v>7</v>
       </c>
       <c r="B385">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="C385" s="2">
-        <v>465.3779907226562</v>
+        <v>2601.760009765625</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -4630,10 +4630,10 @@
         <v>7</v>
       </c>
       <c r="B386">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="C386" s="2">
-        <v>590.4140014648438</v>
+        <v>2609.85400390625</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -4641,10 +4641,10 @@
         <v>7</v>
       </c>
       <c r="B387">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="C387" s="2">
-        <v>869.10498046875</v>
+        <v>2573.81005859375</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -4652,10 +4652,10 @@
         <v>7</v>
       </c>
       <c r="B388">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="C388" s="2">
-        <v>726.3499755859375</v>
+        <v>2595.882080078125</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4663,10 +4663,10 @@
         <v>7</v>
       </c>
       <c r="B389">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="C389" s="2">
-        <v>738.7949829101562</v>
+        <v>2559.381103515625</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -4674,10 +4674,10 @@
         <v>7</v>
       </c>
       <c r="B390">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="C390" s="2">
-        <v>658.0989990234375</v>
+        <v>2561.10693359375</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -4685,10 +4685,10 @@
         <v>7</v>
       </c>
       <c r="B391">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="C391" s="2">
-        <v>834.5490112304688</v>
+        <v>2577.465087890625</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4696,10 +4696,10 @@
         <v>7</v>
       </c>
       <c r="B392">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="C392" s="2">
-        <v>888.947998046875</v>
+        <v>2601.431884765625</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -4707,10 +4707,10 @@
         <v>7</v>
       </c>
       <c r="B393">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="C393" s="2">
-        <v>1186.364013671875</v>
+        <v>2549.409912109375</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -4718,10 +4718,10 @@
         <v>7</v>
       </c>
       <c r="B394">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="C394" s="2">
-        <v>1614.692993164062</v>
+        <v>2516.696044921875</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -4729,10 +4729,10 @@
         <v>7</v>
       </c>
       <c r="B395">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="C395" s="2">
-        <v>1637.557983398438</v>
+        <v>2403.9130859375</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -4740,10 +4740,10 @@
         <v>7</v>
       </c>
       <c r="B396">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="C396" s="2">
-        <v>1725.822998046875</v>
+        <v>2376.10302734375</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -4751,10 +4751,10 @@
         <v>7</v>
       </c>
       <c r="B397">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="C397" s="2">
-        <v>1939.526977539062</v>
+        <v>2125.655029296875</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -4762,10 +4762,10 @@
         <v>7</v>
       </c>
       <c r="B398">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="C398" s="2">
-        <v>2079.44189453125</v>
+        <v>2024.760986328125</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -4773,10 +4773,10 @@
         <v>7</v>
       </c>
       <c r="B399">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="C399" s="2">
-        <v>2107.93701171875</v>
+        <v>1774.998046875</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -4784,10 +4784,10 @@
         <v>7</v>
       </c>
       <c r="B400">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C400" s="2">
-        <v>2167.490966796875</v>
+        <v>1445.754028320312</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -4795,10 +4795,10 @@
         <v>7</v>
       </c>
       <c r="B401">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="C401" s="2">
-        <v>2224.9140625</v>
+        <v>1384.31396484375</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -4806,10 +4806,10 @@
         <v>7</v>
       </c>
       <c r="B402">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="C402" s="2">
-        <v>2169.9140625</v>
+        <v>1418.760986328125</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -4817,10 +4817,10 @@
         <v>7</v>
       </c>
       <c r="B403">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="C403" s="2">
-        <v>2042.885986328125</v>
+        <v>1712.469970703125</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -4828,10 +4828,10 @@
         <v>7</v>
       </c>
       <c r="B404">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="C404" s="2">
-        <v>2068.827880859375</v>
+        <v>1776.182006835938</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -4839,10 +4839,10 @@
         <v>7</v>
       </c>
       <c r="B405">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C405" s="2">
-        <v>2010.241943359375</v>
+        <v>1765.338012695312</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -4850,10 +4850,10 @@
         <v>7</v>
       </c>
       <c r="B406">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="C406" s="2">
-        <v>2115.51611328125</v>
+        <v>1851.389038085938</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -4861,10 +4861,10 @@
         <v>7</v>
       </c>
       <c r="B407">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="C407" s="2">
-        <v>2253.883056640625</v>
+        <v>1994.579956054688</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -4872,10 +4872,10 @@
         <v>7</v>
       </c>
       <c r="B408">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C408" s="2">
-        <v>2275.572021484375</v>
+        <v>1915.442016601562</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -4883,10 +4883,10 @@
         <v>7</v>
       </c>
       <c r="B409">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="C409" s="2">
-        <v>2163.64404296875</v>
+        <v>1702.968994140625</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -4894,10 +4894,10 @@
         <v>7</v>
       </c>
       <c r="B410">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="C410" s="2">
-        <v>2128.56103515625</v>
+        <v>1530.178955078125</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -4905,10 +4905,10 @@
         <v>7</v>
       </c>
       <c r="B411">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="C411" s="2">
-        <v>2106.337890625</v>
+        <v>1341.89404296875</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -4916,10 +4916,10 @@
         <v>7</v>
       </c>
       <c r="B412">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C412" s="2">
-        <v>2136.174072265625</v>
+        <v>1045.969970703125</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -4927,10 +4927,10 @@
         <v>7</v>
       </c>
       <c r="B413">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="C413" s="2">
-        <v>2096.118896484375</v>
+        <v>911.2509765625</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -4938,10 +4938,10 @@
         <v>7</v>
       </c>
       <c r="B414">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="C414" s="2">
-        <v>2213.208984375</v>
+        <v>750.0919799804688</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -4949,10 +4949,10 @@
         <v>7</v>
       </c>
       <c r="B415">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="C415" s="2">
-        <v>2191.073974609375</v>
+        <v>497.6510009765625</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -4960,10 +4960,10 @@
         <v>7</v>
       </c>
       <c r="B416">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C416" s="2">
-        <v>2197.277099609375</v>
+        <v>400.5979919433594</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -4971,10 +4971,10 @@
         <v>7</v>
       </c>
       <c r="B417">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="C417" s="2">
-        <v>2185.8369140625</v>
+        <v>279.989990234375</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -4982,373 +4982,373 @@
         <v>7</v>
       </c>
       <c r="B418">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="C418" s="2">
-        <v>2167.51708984375</v>
+        <v>296.4830017089844</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B419">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="C419" s="2">
-        <v>2417.93505859375</v>
+        <v>207.9830017089844</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B420">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="C420" s="2">
-        <v>2394.947021484375</v>
+        <v>198.1309967041016</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B421">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="C421" s="2">
-        <v>2386.97705078125</v>
+        <v>146.3480072021484</v>
       </c>
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B422">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C422" s="2">
-        <v>2427.952880859375</v>
+        <v>82.88700103759766</v>
       </c>
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B423">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="C423" s="2">
-        <v>2493.323974609375</v>
+        <v>262.8219909667969</v>
       </c>
     </row>
     <row r="424" spans="1:3">
       <c r="A424" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B424">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="C424" s="2">
-        <v>2505.85009765625</v>
+        <v>273.6929931640625</v>
       </c>
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B425">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C425" s="2">
-        <v>2550.998046875</v>
+        <v>269.5559997558594</v>
       </c>
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B426">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C426" s="2">
-        <v>2554.554931640625</v>
+        <v>200.2779998779297</v>
       </c>
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B427">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C427" s="2">
-        <v>2425.447998046875</v>
+        <v>273.9119873046875</v>
       </c>
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B428">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C428" s="2">
-        <v>2388.697998046875</v>
+        <v>244.2250061035156</v>
       </c>
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B429">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C429" s="2">
-        <v>2405.094970703125</v>
+        <v>185.5379943847656</v>
       </c>
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B430">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C430" s="2">
-        <v>2430.47412109375</v>
+        <v>192.22900390625</v>
       </c>
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B431">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C431" s="2">
-        <v>2465.635986328125</v>
+        <v>287.2430114746094</v>
       </c>
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B432">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="C432" s="2">
-        <v>2465.035888671875</v>
+        <v>185.7619934082031</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B433">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="C433" s="2">
-        <v>2449.591064453125</v>
+        <v>241.9680023193359</v>
       </c>
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B434">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="C434" s="2">
-        <v>2451.93994140625</v>
+        <v>262.8900146484375</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B435">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="C435" s="2">
-        <v>2467.35400390625</v>
+        <v>348.0660095214844</v>
       </c>
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B436">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="C436" s="2">
-        <v>2415.986083984375</v>
+        <v>273.2650146484375</v>
       </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B437">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="C437" s="2">
-        <v>2424.99609375</v>
+        <v>304.2139892578125</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B438">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="C438" s="2">
-        <v>2425.916015625</v>
+        <v>276.0360107421875</v>
       </c>
     </row>
     <row r="439" spans="1:3">
       <c r="A439" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B439">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="C439" s="2">
-        <v>2408.693115234375</v>
+        <v>293.1889953613281</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B440">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="C440" s="2">
-        <v>2413.657958984375</v>
+        <v>282.4100036621094</v>
       </c>
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B441">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="C441" s="2">
-        <v>2405.031982421875</v>
+        <v>284.6570129394531</v>
       </c>
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B442">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="C442" s="2">
-        <v>2424.801025390625</v>
+        <v>313.5490112304688</v>
       </c>
     </row>
     <row r="443" spans="1:3">
       <c r="A443" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B443">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="C443" s="2">
-        <v>2430.5419921875</v>
+        <v>270.0020141601562</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B444">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="C444" s="2">
-        <v>2425.715087890625</v>
+        <v>243.3939971923828</v>
       </c>
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B445">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="C445" s="2">
-        <v>2451.152099609375</v>
+        <v>267.7879943847656</v>
       </c>
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B446">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="C446" s="2">
-        <v>2435.969970703125</v>
+        <v>313.114990234375</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B447">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="C447" s="2">
-        <v>2433.2119140625</v>
+        <v>285.5790100097656</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B448">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="C448" s="2">
-        <v>2397.714111328125</v>
+        <v>498.9349975585938</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B449">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="C449" s="2">
-        <v>2425</v>
+        <v>729.8319702148438</v>
       </c>
     </row>
     <row r="450" spans="1:3">
       <c r="A450" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B450">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="C450" s="2">
-        <v>2470.486083984375</v>
+        <v>924.2109985351562</v>
       </c>
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B451">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="C451" s="2">
-        <v>2472.27392578125</v>
+        <v>740.85400390625</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -5356,10 +5356,10 @@
         <v>8</v>
       </c>
       <c r="B452">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C452" s="2">
-        <v>2680.073974609375</v>
+        <v>711.3839721679688</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -5367,10 +5367,10 @@
         <v>8</v>
       </c>
       <c r="B453">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="C453" s="2">
-        <v>2669.068115234375</v>
+        <v>619.4660034179688</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -5378,10 +5378,10 @@
         <v>8</v>
       </c>
       <c r="B454">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="C454" s="2">
-        <v>2663.715087890625</v>
+        <v>560.2410278320312</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -5389,10 +5389,10 @@
         <v>8</v>
       </c>
       <c r="B455">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C455" s="2">
-        <v>2648.75390625</v>
+        <v>646.1799926757812</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -5400,10 +5400,10 @@
         <v>8</v>
       </c>
       <c r="B456">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C456" s="2">
-        <v>2656.97607421875</v>
+        <v>754.7780151367188</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -5411,10 +5411,10 @@
         <v>8</v>
       </c>
       <c r="B457">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C457" s="2">
-        <v>2643.416015625</v>
+        <v>749.5919799804688</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -5422,10 +5422,10 @@
         <v>8</v>
       </c>
       <c r="B458">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C458" s="2">
-        <v>2669.39990234375</v>
+        <v>1068.765991210938</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -5433,10 +5433,10 @@
         <v>8</v>
       </c>
       <c r="B459">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C459" s="2">
-        <v>2668.055908203125</v>
+        <v>1138.923950195312</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -5444,10 +5444,10 @@
         <v>8</v>
       </c>
       <c r="B460">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C460" s="2">
-        <v>2621.701904296875</v>
+        <v>1249.16796875</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -5455,10 +5455,10 @@
         <v>8</v>
       </c>
       <c r="B461">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C461" s="2">
-        <v>2619.070068359375</v>
+        <v>1309.574951171875</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -5466,10 +5466,10 @@
         <v>8</v>
       </c>
       <c r="B462">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C462" s="2">
-        <v>2570.2041015625</v>
+        <v>1341.119995117188</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -5477,10 +5477,10 @@
         <v>8</v>
       </c>
       <c r="B463">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C463" s="2">
-        <v>2548.51611328125</v>
+        <v>1284.505981445312</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -5488,10 +5488,10 @@
         <v>8</v>
       </c>
       <c r="B464">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C464" s="2">
-        <v>2556.35400390625</v>
+        <v>1322.18603515625</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -5499,10 +5499,10 @@
         <v>8</v>
       </c>
       <c r="B465">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C465" s="2">
-        <v>2568.77099609375</v>
+        <v>1364.555053710938</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -5510,10 +5510,10 @@
         <v>8</v>
       </c>
       <c r="B466">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C466" s="2">
-        <v>2567.39111328125</v>
+        <v>1354.2919921875</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -5521,10 +5521,10 @@
         <v>8</v>
       </c>
       <c r="B467">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C467" s="2">
-        <v>2541.4951171875</v>
+        <v>1386.68994140625</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -5532,10 +5532,10 @@
         <v>8</v>
       </c>
       <c r="B468">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C468" s="2">
-        <v>2552.60400390625</v>
+        <v>1559.85498046875</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -5543,10 +5543,10 @@
         <v>8</v>
       </c>
       <c r="B469">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C469" s="2">
-        <v>2522.616943359375</v>
+        <v>1596.276977539062</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -5554,10 +5554,10 @@
         <v>8</v>
       </c>
       <c r="B470">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="C470" s="2">
-        <v>2524.736083984375</v>
+        <v>1739.366943359375</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -5565,10 +5565,10 @@
         <v>8</v>
       </c>
       <c r="B471">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="C471" s="2">
-        <v>2508.912109375</v>
+        <v>1796.6650390625</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -5576,10 +5576,10 @@
         <v>8</v>
       </c>
       <c r="B472">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C472" s="2">
-        <v>2460.8310546875</v>
+        <v>1840.31005859375</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -5587,10 +5587,10 @@
         <v>8</v>
       </c>
       <c r="B473">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="C473" s="2">
-        <v>2488.116943359375</v>
+        <v>1801.261962890625</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -5598,10 +5598,10 @@
         <v>8</v>
       </c>
       <c r="B474">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="C474" s="2">
-        <v>2363.0380859375</v>
+        <v>1684.869995117188</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -5609,10 +5609,10 @@
         <v>8</v>
       </c>
       <c r="B475">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C475" s="2">
-        <v>2380.6630859375</v>
+        <v>1591.889038085938</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -5620,10 +5620,10 @@
         <v>8</v>
       </c>
       <c r="B476">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="C476" s="2">
-        <v>2179.778076171875</v>
+        <v>1562.510009765625</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -5631,10 +5631,10 @@
         <v>8</v>
       </c>
       <c r="B477">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C477" s="2">
-        <v>2146.132080078125</v>
+        <v>1530.27099609375</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -5642,10 +5642,10 @@
         <v>8</v>
       </c>
       <c r="B478">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="C478" s="2">
-        <v>2003.741943359375</v>
+        <v>1399.829956054688</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -5653,10 +5653,10 @@
         <v>8</v>
       </c>
       <c r="B479">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="C479" s="2">
-        <v>1857.26904296875</v>
+        <v>1240.43896484375</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -5664,10 +5664,10 @@
         <v>8</v>
       </c>
       <c r="B480">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="C480" s="2">
-        <v>1752.7099609375</v>
+        <v>1246.001953125</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -5675,10 +5675,10 @@
         <v>8</v>
       </c>
       <c r="B481">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="C481" s="2">
-        <v>1747.651977539062</v>
+        <v>1406.656005859375</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -5686,10 +5686,10 @@
         <v>8</v>
       </c>
       <c r="B482">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="C482" s="2">
-        <v>1686.899047851562</v>
+        <v>1431.5009765625</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -5697,10 +5697,10 @@
         <v>8</v>
       </c>
       <c r="B483">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="C483" s="2">
-        <v>1243.52197265625</v>
+        <v>1387.722045898438</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -5708,10 +5708,10 @@
         <v>8</v>
       </c>
       <c r="B484">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="C484" s="2">
-        <v>1070.66796875</v>
+        <v>1340.305053710938</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -5719,10 +5719,10 @@
         <v>8</v>
       </c>
       <c r="B485">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="C485" s="2">
-        <v>779.6900024414062</v>
+        <v>1301.93994140625</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -5730,10 +5730,10 @@
         <v>8</v>
       </c>
       <c r="B486">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="C486" s="2">
-        <v>770.0150146484375</v>
+        <v>1191.511962890625</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -5741,10 +5741,10 @@
         <v>8</v>
       </c>
       <c r="B487">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="C487" s="2">
-        <v>689.0280151367188</v>
+        <v>1054.774047851562</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -5752,10 +5752,10 @@
         <v>8</v>
       </c>
       <c r="B488">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="C488" s="2">
-        <v>707.5609741210938</v>
+        <v>1049.579956054688</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -5763,10 +5763,10 @@
         <v>8</v>
       </c>
       <c r="B489">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="C489" s="2">
-        <v>449.4129943847656</v>
+        <v>1036.369995117188</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -5774,10 +5774,10 @@
         <v>8</v>
       </c>
       <c r="B490">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="C490" s="2">
-        <v>284.927001953125</v>
+        <v>1001.919982910156</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -5785,10 +5785,10 @@
         <v>8</v>
       </c>
       <c r="B491">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="C491" s="2">
-        <v>199.3990020751953</v>
+        <v>973.2139892578125</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -5796,10 +5796,10 @@
         <v>8</v>
       </c>
       <c r="B492">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="C492" s="2">
-        <v>167.6390075683594</v>
+        <v>869.7899780273438</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -5807,10 +5807,10 @@
         <v>8</v>
       </c>
       <c r="B493">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="C493" s="2">
-        <v>108.838996887207</v>
+        <v>940.1500244140625</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -5818,10 +5818,10 @@
         <v>8</v>
       </c>
       <c r="B494">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="C494" s="2">
-        <v>130.6799926757812</v>
+        <v>1020.375</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -5829,10 +5829,10 @@
         <v>8</v>
       </c>
       <c r="B495">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="C495" s="2">
-        <v>157.5989990234375</v>
+        <v>894.14599609375</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -5840,10 +5840,10 @@
         <v>8</v>
       </c>
       <c r="B496">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C496" s="2">
-        <v>230.9739990234375</v>
+        <v>943.7780151367188</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -5851,10 +5851,10 @@
         <v>8</v>
       </c>
       <c r="B497">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="C497" s="2">
-        <v>90.04299926757812</v>
+        <v>992.8989868164062</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -5862,10 +5862,10 @@
         <v>8</v>
       </c>
       <c r="B498">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="C498" s="2">
-        <v>110.2990036010742</v>
+        <v>1019.004028320312</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -5873,10 +5873,10 @@
         <v>8</v>
       </c>
       <c r="B499">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="C499" s="2">
-        <v>166.3139953613281</v>
+        <v>968.8319702148438</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -5884,10 +5884,10 @@
         <v>8</v>
       </c>
       <c r="B500">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="C500" s="2">
-        <v>141.572998046875</v>
+        <v>929.0709838867188</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -5895,10 +5895,10 @@
         <v>8</v>
       </c>
       <c r="B501">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C501" s="2">
-        <v>308.6570129394531</v>
+        <v>900.843017578125</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -5906,10 +5906,10 @@
         <v>8</v>
       </c>
       <c r="B502">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="C502" s="2">
-        <v>451.0780029296875</v>
+        <v>949.7059936523438</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -5917,10 +5917,10 @@
         <v>8</v>
       </c>
       <c r="B503">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="C503" s="2">
-        <v>451.7229919433594</v>
+        <v>1015.495971679688</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -5928,10 +5928,10 @@
         <v>8</v>
       </c>
       <c r="B504">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C504" s="2">
-        <v>528.5419921875</v>
+        <v>997.1309814453125</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -5939,10 +5939,10 @@
         <v>8</v>
       </c>
       <c r="B505">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="C505" s="2">
-        <v>480.489990234375</v>
+        <v>949.6589965820312</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -5950,10 +5950,10 @@
         <v>8</v>
       </c>
       <c r="B506">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="C506" s="2">
-        <v>452.1940002441406</v>
+        <v>1000.411987304688</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -5961,10 +5961,10 @@
         <v>8</v>
       </c>
       <c r="B507">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="C507" s="2">
-        <v>392.9540100097656</v>
+        <v>988.4249877929688</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -5972,10 +5972,10 @@
         <v>8</v>
       </c>
       <c r="B508">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C508" s="2">
-        <v>297.9949951171875</v>
+        <v>1016.193969726562</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -5983,10 +5983,10 @@
         <v>8</v>
       </c>
       <c r="B509">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="C509" s="2">
-        <v>418.0769958496094</v>
+        <v>993.5399780273438</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -5994,10 +5994,10 @@
         <v>8</v>
       </c>
       <c r="B510">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="C510" s="2">
-        <v>513.8809814453125</v>
+        <v>927.9329833984375</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -6005,10 +6005,10 @@
         <v>8</v>
       </c>
       <c r="B511">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="C511" s="2">
-        <v>582.530029296875</v>
+        <v>903.9719848632812</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -6016,10 +6016,10 @@
         <v>8</v>
       </c>
       <c r="B512">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C512" s="2">
-        <v>659.3289794921875</v>
+        <v>803.75</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -6027,10 +6027,10 @@
         <v>8</v>
       </c>
       <c r="B513">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="C513" s="2">
-        <v>751.7239990234375</v>
+        <v>819.2160034179688</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -6038,373 +6038,373 @@
         <v>8</v>
       </c>
       <c r="B514">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="C514" s="2">
-        <v>914.6259765625</v>
+        <v>721.3720092773438</v>
       </c>
     </row>
     <row r="515" spans="1:3">
       <c r="A515" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B515">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="C515" s="2">
-        <v>918.6920166015625</v>
+        <v>628.3410034179688</v>
       </c>
     </row>
     <row r="516" spans="1:3">
       <c r="A516" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B516">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="C516" s="2">
-        <v>726.3560180664062</v>
+        <v>626.7949829101562</v>
       </c>
     </row>
     <row r="517" spans="1:3">
       <c r="A517" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B517">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="C517" s="2">
-        <v>957.5919799804688</v>
+        <v>469.7409973144531</v>
       </c>
     </row>
     <row r="518" spans="1:3">
       <c r="A518" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B518">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C518" s="2">
-        <v>940.0650024414062</v>
+        <v>326.7999877929688</v>
       </c>
     </row>
     <row r="519" spans="1:3">
       <c r="A519" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B519">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="C519" s="2">
-        <v>923.6170043945312</v>
+        <v>342.9190063476562</v>
       </c>
     </row>
     <row r="520" spans="1:3">
       <c r="A520" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B520">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="C520" s="2">
-        <v>1033.586059570312</v>
+        <v>286.4219970703125</v>
       </c>
     </row>
     <row r="521" spans="1:3">
       <c r="A521" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B521">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C521" s="2">
-        <v>1064.369995117188</v>
+        <v>236.3760070800781</v>
       </c>
     </row>
     <row r="522" spans="1:3">
       <c r="A522" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B522">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C522" s="2">
-        <v>1097.472045898438</v>
+        <v>208.1100006103516</v>
       </c>
     </row>
     <row r="523" spans="1:3">
       <c r="A523" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B523">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C523" s="2">
-        <v>1117.123046875</v>
+        <v>196.4109954833984</v>
       </c>
     </row>
     <row r="524" spans="1:3">
       <c r="A524" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B524">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C524" s="2">
-        <v>1050.620971679688</v>
+        <v>212.0449981689453</v>
       </c>
     </row>
     <row r="525" spans="1:3">
       <c r="A525" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B525">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C525" s="2">
-        <v>1103.546020507812</v>
+        <v>214.9669952392578</v>
       </c>
     </row>
     <row r="526" spans="1:3">
       <c r="A526" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B526">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C526" s="2">
-        <v>1115.011962890625</v>
+        <v>240.2819976806641</v>
       </c>
     </row>
     <row r="527" spans="1:3">
       <c r="A527" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B527">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C527" s="2">
-        <v>1100.487060546875</v>
+        <v>222.1210021972656</v>
       </c>
     </row>
     <row r="528" spans="1:3">
       <c r="A528" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B528">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="C528" s="2">
-        <v>1177.35595703125</v>
+        <v>227.7030029296875</v>
       </c>
     </row>
     <row r="529" spans="1:3">
       <c r="A529" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B529">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="C529" s="2">
-        <v>1224.128051757812</v>
+        <v>205.9799957275391</v>
       </c>
     </row>
     <row r="530" spans="1:3">
       <c r="A530" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B530">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="C530" s="2">
-        <v>1158.267944335938</v>
+        <v>207.8529968261719</v>
       </c>
     </row>
     <row r="531" spans="1:3">
       <c r="A531" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B531">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="C531" s="2">
-        <v>1154.322021484375</v>
+        <v>223.6190032958984</v>
       </c>
     </row>
     <row r="532" spans="1:3">
       <c r="A532" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B532">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="C532" s="2">
-        <v>1125.989013671875</v>
+        <v>199.0050048828125</v>
       </c>
     </row>
     <row r="533" spans="1:3">
       <c r="A533" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B533">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="C533" s="2">
-        <v>1123.052001953125</v>
+        <v>251.8760070800781</v>
       </c>
     </row>
     <row r="534" spans="1:3">
       <c r="A534" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B534">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="C534" s="2">
-        <v>1103.089965820312</v>
+        <v>234.1109924316406</v>
       </c>
     </row>
     <row r="535" spans="1:3">
       <c r="A535" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B535">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="C535" s="2">
-        <v>1116.5400390625</v>
+        <v>307.9660034179688</v>
       </c>
     </row>
     <row r="536" spans="1:3">
       <c r="A536" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B536">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="C536" s="2">
-        <v>1060.410034179688</v>
+        <v>340.5459899902344</v>
       </c>
     </row>
     <row r="537" spans="1:3">
       <c r="A537" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B537">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="C537" s="2">
-        <v>1048.10498046875</v>
+        <v>377.677001953125</v>
       </c>
     </row>
     <row r="538" spans="1:3">
       <c r="A538" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B538">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="C538" s="2">
-        <v>989.5670166015625</v>
+        <v>449.5599975585938</v>
       </c>
     </row>
     <row r="539" spans="1:3">
       <c r="A539" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B539">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="C539" s="2">
-        <v>991.5260009765625</v>
+        <v>434.56201171875</v>
       </c>
     </row>
     <row r="540" spans="1:3">
       <c r="A540" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B540">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="C540" s="2">
-        <v>992.9030151367188</v>
+        <v>326.2219848632812</v>
       </c>
     </row>
     <row r="541" spans="1:3">
       <c r="A541" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B541">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="C541" s="2">
-        <v>965.8510131835938</v>
+        <v>328.1449890136719</v>
       </c>
     </row>
     <row r="542" spans="1:3">
       <c r="A542" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B542">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="C542" s="2">
-        <v>915.530029296875</v>
+        <v>345.5780029296875</v>
       </c>
     </row>
     <row r="543" spans="1:3">
       <c r="A543" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B543">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="C543" s="2">
-        <v>924.051025390625</v>
+        <v>333.2139892578125</v>
       </c>
     </row>
     <row r="544" spans="1:3">
       <c r="A544" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B544">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="C544" s="2">
-        <v>969.1160278320312</v>
+        <v>337.3519897460938</v>
       </c>
     </row>
     <row r="545" spans="1:3">
       <c r="A545" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B545">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="C545" s="2">
-        <v>922.31201171875</v>
+        <v>351.3039855957031</v>
       </c>
     </row>
     <row r="546" spans="1:3">
       <c r="A546" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B546">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="C546" s="2">
-        <v>974.8930053710938</v>
+        <v>330.7820129394531</v>
       </c>
     </row>
     <row r="547" spans="1:3">
       <c r="A547" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B547">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="C547" s="2">
-        <v>1018.60400390625</v>
+        <v>355.1570129394531</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -6412,10 +6412,10 @@
         <v>9</v>
       </c>
       <c r="B548">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C548" s="2">
-        <v>940.3410034179688</v>
+        <v>337.06201171875</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -6423,10 +6423,10 @@
         <v>9</v>
       </c>
       <c r="B549">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="C549" s="2">
-        <v>1012.242004394531</v>
+        <v>313.3389892578125</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -6434,10 +6434,10 @@
         <v>9</v>
       </c>
       <c r="B550">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="C550" s="2">
-        <v>973.1439819335938</v>
+        <v>425.9880065917969</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -6445,10 +6445,10 @@
         <v>9</v>
       </c>
       <c r="B551">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C551" s="2">
-        <v>1058.840942382812</v>
+        <v>446.6090087890625</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -6456,10 +6456,10 @@
         <v>9</v>
       </c>
       <c r="B552">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C552" s="2">
-        <v>1080.753051757812</v>
+        <v>506.7120056152344</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -6467,10 +6467,10 @@
         <v>9</v>
       </c>
       <c r="B553">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C553" s="2">
-        <v>949.927001953125</v>
+        <v>477.6099853515625</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -6478,10 +6478,10 @@
         <v>9</v>
       </c>
       <c r="B554">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C554" s="2">
-        <v>899.7459716796875</v>
+        <v>536.8209838867188</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -6489,10 +6489,10 @@
         <v>9</v>
       </c>
       <c r="B555">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C555" s="2">
-        <v>822.10400390625</v>
+        <v>494.9129943847656</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -6500,10 +6500,10 @@
         <v>9</v>
       </c>
       <c r="B556">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C556" s="2">
-        <v>813.64697265625</v>
+        <v>571.7789916992188</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -6511,10 +6511,10 @@
         <v>9</v>
       </c>
       <c r="B557">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C557" s="2">
-        <v>813.5570068359375</v>
+        <v>730.8079833984375</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -6522,10 +6522,10 @@
         <v>9</v>
       </c>
       <c r="B558">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C558" s="2">
-        <v>775.9439697265625</v>
+        <v>909.7689819335938</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -6533,10 +6533,10 @@
         <v>9</v>
       </c>
       <c r="B559">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C559" s="2">
-        <v>769.0059814453125</v>
+        <v>818.0009765625</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -6544,10 +6544,10 @@
         <v>9</v>
       </c>
       <c r="B560">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C560" s="2">
-        <v>692.156982421875</v>
+        <v>925.4920043945312</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -6555,10 +6555,10 @@
         <v>9</v>
       </c>
       <c r="B561">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C561" s="2">
-        <v>648.1270141601562</v>
+        <v>1029.173950195312</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -6566,10 +6566,10 @@
         <v>9</v>
       </c>
       <c r="B562">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C562" s="2">
-        <v>609.7940063476562</v>
+        <v>1084.568969726562</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -6577,10 +6577,10 @@
         <v>9</v>
       </c>
       <c r="B563">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C563" s="2">
-        <v>606.823974609375</v>
+        <v>971.780029296875</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -6588,10 +6588,10 @@
         <v>9</v>
       </c>
       <c r="B564">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C564" s="2">
-        <v>647.2160034179688</v>
+        <v>868.4639892578125</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -6599,10 +6599,10 @@
         <v>9</v>
       </c>
       <c r="B565">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C565" s="2">
-        <v>664.3090209960938</v>
+        <v>936.156005859375</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -6610,10 +6610,10 @@
         <v>9</v>
       </c>
       <c r="B566">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="C566" s="2">
-        <v>675.5780029296875</v>
+        <v>881.14501953125</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -6621,10 +6621,10 @@
         <v>9</v>
       </c>
       <c r="B567">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="C567" s="2">
-        <v>688.656982421875</v>
+        <v>748.6339721679688</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -6632,10 +6632,10 @@
         <v>9</v>
       </c>
       <c r="B568">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C568" s="2">
-        <v>660.697998046875</v>
+        <v>758.0900268554688</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -6643,10 +6643,10 @@
         <v>9</v>
       </c>
       <c r="B569">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="C569" s="2">
-        <v>726.0280151367188</v>
+        <v>773.2080078125</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -6654,10 +6654,10 @@
         <v>9</v>
       </c>
       <c r="B570">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="C570" s="2">
-        <v>745.1079711914062</v>
+        <v>758.81298828125</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -6665,10 +6665,10 @@
         <v>9</v>
       </c>
       <c r="B571">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C571" s="2">
-        <v>744.927001953125</v>
+        <v>732.6199951171875</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -6676,10 +6676,10 @@
         <v>9</v>
       </c>
       <c r="B572">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="C572" s="2">
-        <v>722.8660278320312</v>
+        <v>537.77197265625</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -6687,10 +6687,10 @@
         <v>9</v>
       </c>
       <c r="B573">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C573" s="2">
-        <v>700.5859985351562</v>
+        <v>511.6799926757812</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -6698,10 +6698,10 @@
         <v>9</v>
       </c>
       <c r="B574">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="C574" s="2">
-        <v>685.2680053710938</v>
+        <v>560.8690185546875</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -6709,10 +6709,10 @@
         <v>9</v>
       </c>
       <c r="B575">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="C575" s="2">
-        <v>730.530029296875</v>
+        <v>671.7020263671875</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -6720,10 +6720,10 @@
         <v>9</v>
       </c>
       <c r="B576">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="C576" s="2">
-        <v>720.6339721679688</v>
+        <v>844.2680053710938</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -6731,10 +6731,10 @@
         <v>9</v>
       </c>
       <c r="B577">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="C577" s="2">
-        <v>800.8159790039062</v>
+        <v>984.7919921875</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -6742,10 +6742,10 @@
         <v>9</v>
       </c>
       <c r="B578">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="C578" s="2">
-        <v>815.927001953125</v>
+        <v>1020.117004394531</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -6753,10 +6753,10 @@
         <v>9</v>
       </c>
       <c r="B579">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="C579" s="2">
-        <v>878.218017578125</v>
+        <v>1075.921020507812</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -6764,10 +6764,10 @@
         <v>9</v>
       </c>
       <c r="B580">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="C580" s="2">
-        <v>919.2830200195312</v>
+        <v>963.0700073242188</v>
       </c>
     </row>
     <row r="581" spans="1:3">
@@ -6775,10 +6775,10 @@
         <v>9</v>
       </c>
       <c r="B581">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="C581" s="2">
-        <v>949.60302734375</v>
+        <v>866.375</v>
       </c>
     </row>
     <row r="582" spans="1:3">
@@ -6786,10 +6786,10 @@
         <v>9</v>
       </c>
       <c r="B582">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="C582" s="2">
-        <v>824.0819702148438</v>
+        <v>897.8289794921875</v>
       </c>
     </row>
     <row r="583" spans="1:3">
@@ -6797,10 +6797,10 @@
         <v>9</v>
       </c>
       <c r="B583">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="C583" s="2">
-        <v>847.7849731445312</v>
+        <v>869.3350219726562</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -6808,10 +6808,10 @@
         <v>9</v>
       </c>
       <c r="B584">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="C584" s="2">
-        <v>861.9910278320312</v>
+        <v>834.3250122070312</v>
       </c>
     </row>
     <row r="585" spans="1:3">
@@ -6819,10 +6819,10 @@
         <v>9</v>
       </c>
       <c r="B585">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="C585" s="2">
-        <v>899.5789794921875</v>
+        <v>783.8060302734375</v>
       </c>
     </row>
     <row r="586" spans="1:3">
@@ -6830,10 +6830,10 @@
         <v>9</v>
       </c>
       <c r="B586">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="C586" s="2">
-        <v>924.3369750976562</v>
+        <v>816.4310302734375</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -6841,10 +6841,10 @@
         <v>9</v>
       </c>
       <c r="B587">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="C587" s="2">
-        <v>943.5120239257812</v>
+        <v>724.85498046875</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -6852,10 +6852,10 @@
         <v>9</v>
       </c>
       <c r="B588">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="C588" s="2">
-        <v>893.8309936523438</v>
+        <v>703.302001953125</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -6863,10 +6863,10 @@
         <v>9</v>
       </c>
       <c r="B589">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="C589" s="2">
-        <v>828.7449951171875</v>
+        <v>567.7420043945312</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -6874,10 +6874,10 @@
         <v>9</v>
       </c>
       <c r="B590">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="C590" s="2">
-        <v>823.322021484375</v>
+        <v>693.3579711914062</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -6885,10 +6885,10 @@
         <v>9</v>
       </c>
       <c r="B591">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="C591" s="2">
-        <v>783.39697265625</v>
+        <v>621.052001953125</v>
       </c>
     </row>
     <row r="592" spans="1:3">
@@ -6896,10 +6896,10 @@
         <v>9</v>
       </c>
       <c r="B592">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C592" s="2">
-        <v>884.7410278320312</v>
+        <v>573.64501953125</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -6907,10 +6907,10 @@
         <v>9</v>
       </c>
       <c r="B593">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="C593" s="2">
-        <v>842.0800170898438</v>
+        <v>597.1160278320312</v>
       </c>
     </row>
     <row r="594" spans="1:3">
@@ -6918,10 +6918,10 @@
         <v>9</v>
       </c>
       <c r="B594">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="C594" s="2">
-        <v>909.1929931640625</v>
+        <v>557.7319946289062</v>
       </c>
     </row>
     <row r="595" spans="1:3">
@@ -6929,10 +6929,10 @@
         <v>9</v>
       </c>
       <c r="B595">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="C595" s="2">
-        <v>567.9860229492188</v>
+        <v>527.8900146484375</v>
       </c>
     </row>
     <row r="596" spans="1:3">
@@ -6940,10 +6940,10 @@
         <v>9</v>
       </c>
       <c r="B596">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="C596" s="2">
-        <v>629.9979858398438</v>
+        <v>517.114013671875</v>
       </c>
     </row>
     <row r="597" spans="1:3">
@@ -6951,10 +6951,10 @@
         <v>9</v>
       </c>
       <c r="B597">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C597" s="2">
-        <v>563.4959716796875</v>
+        <v>523.4940185546875</v>
       </c>
     </row>
     <row r="598" spans="1:3">
@@ -6962,10 +6962,10 @@
         <v>9</v>
       </c>
       <c r="B598">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="C598" s="2">
-        <v>509.8039855957031</v>
+        <v>485.7030029296875</v>
       </c>
     </row>
     <row r="599" spans="1:3">
@@ -6973,10 +6973,10 @@
         <v>9</v>
       </c>
       <c r="B599">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="C599" s="2">
-        <v>473.4230041503906</v>
+        <v>439.1839904785156</v>
       </c>
     </row>
     <row r="600" spans="1:3">
@@ -6984,10 +6984,10 @@
         <v>9</v>
       </c>
       <c r="B600">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C600" s="2">
-        <v>440.7520141601562</v>
+        <v>360.7940063476562</v>
       </c>
     </row>
     <row r="601" spans="1:3">
@@ -6995,10 +6995,10 @@
         <v>9</v>
       </c>
       <c r="B601">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="C601" s="2">
-        <v>597.10400390625</v>
+        <v>352.5859985351562</v>
       </c>
     </row>
     <row r="602" spans="1:3">
@@ -7006,10 +7006,10 @@
         <v>9</v>
       </c>
       <c r="B602">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="C602" s="2">
-        <v>653.093017578125</v>
+        <v>342.1900024414062</v>
       </c>
     </row>
     <row r="603" spans="1:3">
@@ -7017,10 +7017,10 @@
         <v>9</v>
       </c>
       <c r="B603">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="C603" s="2">
-        <v>499.406005859375</v>
+        <v>330.0499877929688</v>
       </c>
     </row>
     <row r="604" spans="1:3">
@@ -7028,10 +7028,10 @@
         <v>9</v>
       </c>
       <c r="B604">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C604" s="2">
-        <v>598.0349731445312</v>
+        <v>277.3489990234375</v>
       </c>
     </row>
     <row r="605" spans="1:3">
@@ -7039,10 +7039,10 @@
         <v>9</v>
       </c>
       <c r="B605">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="C605" s="2">
-        <v>601.6890258789062</v>
+        <v>333.1809997558594</v>
       </c>
     </row>
     <row r="606" spans="1:3">
@@ -7050,10 +7050,10 @@
         <v>9</v>
       </c>
       <c r="B606">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="C606" s="2">
-        <v>771.10302734375</v>
+        <v>327.3909912109375</v>
       </c>
     </row>
     <row r="607" spans="1:3">
@@ -7061,10 +7061,10 @@
         <v>9</v>
       </c>
       <c r="B607">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="C607" s="2">
-        <v>978.3930053710938</v>
+        <v>380.0539855957031</v>
       </c>
     </row>
     <row r="608" spans="1:3">
@@ -7072,10 +7072,10 @@
         <v>9</v>
       </c>
       <c r="B608">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C608" s="2">
-        <v>1031.327026367188</v>
+        <v>428.7650146484375</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -7083,10 +7083,10 @@
         <v>9</v>
       </c>
       <c r="B609">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="C609" s="2">
-        <v>1093.878051757812</v>
+        <v>489.2439880371094</v>
       </c>
     </row>
     <row r="610" spans="1:3">
@@ -7094,373 +7094,373 @@
         <v>9</v>
       </c>
       <c r="B610">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="C610" s="2">
-        <v>1269.526000976562</v>
+        <v>445.0180053710938</v>
       </c>
     </row>
     <row r="611" spans="1:3">
       <c r="A611" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B611">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="C611" s="2">
-        <v>1457.336059570312</v>
+        <v>310.7349853515625</v>
       </c>
     </row>
     <row r="612" spans="1:3">
       <c r="A612" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B612">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="C612" s="2">
-        <v>1799.9560546875</v>
+        <v>355.6260070800781</v>
       </c>
     </row>
     <row r="613" spans="1:3">
       <c r="A613" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B613">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="C613" s="2">
-        <v>1820.239990234375</v>
+        <v>294.3399963378906</v>
       </c>
     </row>
     <row r="614" spans="1:3">
       <c r="A614" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B614">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C614" s="2">
-        <v>1474.1689453125</v>
+        <v>359.2210083007812</v>
       </c>
     </row>
     <row r="615" spans="1:3">
       <c r="A615" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B615">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="C615" s="2">
-        <v>1307.306030273438</v>
+        <v>370.1270141601562</v>
       </c>
     </row>
     <row r="616" spans="1:3">
       <c r="A616" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B616">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="C616" s="2">
-        <v>1220.365966796875</v>
+        <v>401.7000122070312</v>
       </c>
     </row>
     <row r="617" spans="1:3">
       <c r="A617" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B617">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C617" s="2">
-        <v>1080.004028320312</v>
+        <v>419.9649963378906</v>
       </c>
     </row>
     <row r="618" spans="1:3">
       <c r="A618" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B618">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C618" s="2">
-        <v>1178.35205078125</v>
+        <v>332.9469909667969</v>
       </c>
     </row>
     <row r="619" spans="1:3">
       <c r="A619" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B619">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C619" s="2">
-        <v>1068.255981445312</v>
+        <v>356.5379943847656</v>
       </c>
     </row>
     <row r="620" spans="1:3">
       <c r="A620" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B620">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C620" s="2">
-        <v>1074.401000976562</v>
+        <v>375.9700012207031</v>
       </c>
     </row>
     <row r="621" spans="1:3">
       <c r="A621" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B621">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C621" s="2">
-        <v>734.85498046875</v>
+        <v>383.6940002441406</v>
       </c>
     </row>
     <row r="622" spans="1:3">
       <c r="A622" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B622">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C622" s="2">
-        <v>791.39501953125</v>
+        <v>350.864990234375</v>
       </c>
     </row>
     <row r="623" spans="1:3">
       <c r="A623" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B623">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C623" s="2">
-        <v>665.5560302734375</v>
+        <v>283.06201171875</v>
       </c>
     </row>
     <row r="624" spans="1:3">
       <c r="A624" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B624">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="C624" s="2">
-        <v>426.8469848632812</v>
+        <v>265.7229919433594</v>
       </c>
     </row>
     <row r="625" spans="1:3">
       <c r="A625" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B625">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="C625" s="2">
-        <v>440.593994140625</v>
+        <v>253.8260040283203</v>
       </c>
     </row>
     <row r="626" spans="1:3">
       <c r="A626" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B626">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="C626" s="2">
-        <v>478.8030090332031</v>
+        <v>239.8979949951172</v>
       </c>
     </row>
     <row r="627" spans="1:3">
       <c r="A627" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B627">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="C627" s="2">
-        <v>485.1990051269531</v>
+        <v>309.0570068359375</v>
       </c>
     </row>
     <row r="628" spans="1:3">
       <c r="A628" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B628">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="C628" s="2">
-        <v>465.9729919433594</v>
+        <v>299.6059875488281</v>
       </c>
     </row>
     <row r="629" spans="1:3">
       <c r="A629" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B629">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="C629" s="2">
-        <v>401.5889892578125</v>
+        <v>312.8609924316406</v>
       </c>
     </row>
     <row r="630" spans="1:3">
       <c r="A630" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B630">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="C630" s="2">
-        <v>417.8529968261719</v>
+        <v>247.8820037841797</v>
       </c>
     </row>
     <row r="631" spans="1:3">
       <c r="A631" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B631">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="C631" s="2">
-        <v>407.2919921875</v>
+        <v>272.2059936523438</v>
       </c>
     </row>
     <row r="632" spans="1:3">
       <c r="A632" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B632">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="C632" s="2">
-        <v>397.9880065917969</v>
+        <v>267.8770141601562</v>
       </c>
     </row>
     <row r="633" spans="1:3">
       <c r="A633" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B633">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="C633" s="2">
-        <v>361.0700073242188</v>
+        <v>246.4069976806641</v>
       </c>
     </row>
     <row r="634" spans="1:3">
       <c r="A634" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B634">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="C634" s="2">
-        <v>334.6440124511719</v>
+        <v>265.7130126953125</v>
       </c>
     </row>
     <row r="635" spans="1:3">
       <c r="A635" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B635">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="C635" s="2">
-        <v>319.9169921875</v>
+        <v>239.9369964599609</v>
       </c>
     </row>
     <row r="636" spans="1:3">
       <c r="A636" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B636">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="C636" s="2">
-        <v>289.2229919433594</v>
+        <v>235.9199981689453</v>
       </c>
     </row>
     <row r="637" spans="1:3">
       <c r="A637" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B637">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="C637" s="2">
-        <v>249.2449951171875</v>
+        <v>275.4410095214844</v>
       </c>
     </row>
     <row r="638" spans="1:3">
       <c r="A638" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B638">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="C638" s="2">
-        <v>282.6000061035156</v>
+        <v>418.614990234375</v>
       </c>
     </row>
     <row r="639" spans="1:3">
       <c r="A639" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B639">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="C639" s="2">
-        <v>365.7279968261719</v>
+        <v>408.5119934082031</v>
       </c>
     </row>
     <row r="640" spans="1:3">
       <c r="A640" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B640">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="C640" s="2">
-        <v>285.510986328125</v>
+        <v>431.3789978027344</v>
       </c>
     </row>
     <row r="641" spans="1:3">
       <c r="A641" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B641">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="C641" s="2">
-        <v>337.7550048828125</v>
+        <v>447.0350036621094</v>
       </c>
     </row>
     <row r="642" spans="1:3">
       <c r="A642" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B642">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="C642" s="2">
-        <v>358.4819946289062</v>
+        <v>422.1889953613281</v>
       </c>
     </row>
     <row r="643" spans="1:3">
       <c r="A643" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B643">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="C643" s="2">
-        <v>235.7209930419922</v>
+        <v>494.3070068359375</v>
       </c>
     </row>
     <row r="644" spans="1:3">
@@ -7468,10 +7468,10 @@
         <v>10</v>
       </c>
       <c r="B644">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C644" s="2">
-        <v>379.2330017089844</v>
+        <v>415.5799865722656</v>
       </c>
     </row>
     <row r="645" spans="1:3">
@@ -7479,10 +7479,10 @@
         <v>10</v>
       </c>
       <c r="B645">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="C645" s="2">
-        <v>295.2470092773438</v>
+        <v>429.2349853515625</v>
       </c>
     </row>
     <row r="646" spans="1:3">
@@ -7490,10 +7490,10 @@
         <v>10</v>
       </c>
       <c r="B646">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="C646" s="2">
-        <v>127.8239974975586</v>
+        <v>427.8059997558594</v>
       </c>
     </row>
     <row r="647" spans="1:3">
@@ -7501,10 +7501,10 @@
         <v>10</v>
       </c>
       <c r="B647">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C647" s="2">
-        <v>135.1970062255859</v>
+        <v>400.0140075683594</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -7512,10 +7512,10 @@
         <v>10</v>
       </c>
       <c r="B648">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C648" s="2">
-        <v>51.07300186157227</v>
+        <v>411.3609924316406</v>
       </c>
     </row>
     <row r="649" spans="1:3">
@@ -7523,10 +7523,10 @@
         <v>10</v>
       </c>
       <c r="B649">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C649" s="2">
-        <v>73.06900024414062</v>
+        <v>379.5289916992188</v>
       </c>
     </row>
     <row r="650" spans="1:3">
@@ -7534,10 +7534,10 @@
         <v>10</v>
       </c>
       <c r="B650">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C650" s="2">
-        <v>136.8249969482422</v>
+        <v>436.7770080566406</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -7545,10 +7545,10 @@
         <v>10</v>
       </c>
       <c r="B651">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C651" s="2">
-        <v>62.59999847412109</v>
+        <v>436.8989868164062</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -7556,10 +7556,10 @@
         <v>10</v>
       </c>
       <c r="B652">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C652" s="2">
-        <v>103.5500030517578</v>
+        <v>409.5140075683594</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -7567,10 +7567,10 @@
         <v>10</v>
       </c>
       <c r="B653">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C653" s="2">
-        <v>134.1880035400391</v>
+        <v>463.8219909667969</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -7578,10 +7578,10 @@
         <v>10</v>
       </c>
       <c r="B654">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C654" s="2">
-        <v>99.0989990234375</v>
+        <v>409.6700134277344</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -7589,10 +7589,10 @@
         <v>10</v>
       </c>
       <c r="B655">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C655" s="2">
-        <v>99.11499786376953</v>
+        <v>383.56298828125</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -7600,10 +7600,10 @@
         <v>10</v>
       </c>
       <c r="B656">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C656" s="2">
-        <v>217.9539947509766</v>
+        <v>515.1959838867188</v>
       </c>
     </row>
     <row r="657" spans="1:3">
@@ -7611,10 +7611,10 @@
         <v>10</v>
       </c>
       <c r="B657">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C657" s="2">
-        <v>240.1089935302734</v>
+        <v>469.5769958496094</v>
       </c>
     </row>
     <row r="658" spans="1:3">
@@ -7622,10 +7622,10 @@
         <v>10</v>
       </c>
       <c r="B658">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C658" s="2">
-        <v>200.4709930419922</v>
+        <v>531.1690063476562</v>
       </c>
     </row>
     <row r="659" spans="1:3">
@@ -7633,10 +7633,10 @@
         <v>10</v>
       </c>
       <c r="B659">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C659" s="2">
-        <v>223.1940002441406</v>
+        <v>578.9650268554688</v>
       </c>
     </row>
     <row r="660" spans="1:3">
@@ -7644,10 +7644,10 @@
         <v>10</v>
       </c>
       <c r="B660">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C660" s="2">
-        <v>185.0189971923828</v>
+        <v>660.9959716796875</v>
       </c>
     </row>
     <row r="661" spans="1:3">
@@ -7655,10 +7655,10 @@
         <v>10</v>
       </c>
       <c r="B661">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C661" s="2">
-        <v>142.1719970703125</v>
+        <v>697.6950073242188</v>
       </c>
     </row>
     <row r="662" spans="1:3">
@@ -7666,10 +7666,10 @@
         <v>10</v>
       </c>
       <c r="B662">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="C662" s="2">
-        <v>173.0169982910156</v>
+        <v>592.4390258789062</v>
       </c>
     </row>
     <row r="663" spans="1:3">
@@ -7677,10 +7677,10 @@
         <v>10</v>
       </c>
       <c r="B663">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="C663" s="2">
-        <v>124.0289993286133</v>
+        <v>566.5189819335938</v>
       </c>
     </row>
     <row r="664" spans="1:3">
@@ -7688,10 +7688,10 @@
         <v>10</v>
       </c>
       <c r="B664">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C664" s="2">
-        <v>118.6900024414062</v>
+        <v>609.7329711914062</v>
       </c>
     </row>
     <row r="665" spans="1:3">
@@ -7699,10 +7699,10 @@
         <v>10</v>
       </c>
       <c r="B665">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="C665" s="2">
-        <v>150.2120056152344</v>
+        <v>774.2440185546875</v>
       </c>
     </row>
     <row r="666" spans="1:3">
@@ -7710,10 +7710,10 @@
         <v>10</v>
       </c>
       <c r="B666">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="C666" s="2">
-        <v>154.6060028076172</v>
+        <v>623.5089721679688</v>
       </c>
     </row>
     <row r="667" spans="1:3">
@@ -7721,10 +7721,10 @@
         <v>10</v>
       </c>
       <c r="B667">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C667" s="2">
-        <v>176.8110046386719</v>
+        <v>518.22802734375</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -7732,10 +7732,10 @@
         <v>10</v>
       </c>
       <c r="B668">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="C668" s="2">
-        <v>195.1450042724609</v>
+        <v>541.27001953125</v>
       </c>
     </row>
     <row r="669" spans="1:3">
@@ -7743,10 +7743,10 @@
         <v>10</v>
       </c>
       <c r="B669">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C669" s="2">
-        <v>138.2799987792969</v>
+        <v>476.302001953125</v>
       </c>
     </row>
     <row r="670" spans="1:3">
@@ -7754,10 +7754,10 @@
         <v>10</v>
       </c>
       <c r="B670">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="C670" s="2">
-        <v>153.0619964599609</v>
+        <v>479.885986328125</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -7765,10 +7765,10 @@
         <v>10</v>
       </c>
       <c r="B671">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="C671" s="2">
-        <v>193.552001953125</v>
+        <v>435.6669921875</v>
       </c>
     </row>
     <row r="672" spans="1:3">
@@ -7776,10 +7776,10 @@
         <v>10</v>
       </c>
       <c r="B672">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="C672" s="2">
-        <v>217.3470001220703</v>
+        <v>493.1629943847656</v>
       </c>
     </row>
     <row r="673" spans="1:3">
@@ -7787,10 +7787,10 @@
         <v>10</v>
       </c>
       <c r="B673">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="C673" s="2">
-        <v>252.1130065917969</v>
+        <v>448.635986328125</v>
       </c>
     </row>
     <row r="674" spans="1:3">
@@ -7798,10 +7798,10 @@
         <v>10</v>
       </c>
       <c r="B674">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="C674" s="2">
-        <v>315.781005859375</v>
+        <v>221.5559997558594</v>
       </c>
     </row>
   </sheetData>

--- a/Wind_Production_Forecast/Wind_Forecast_Production_15min.xlsx
+++ b/Wind_Production_Forecast/Wind_Forecast_Production_15min.xlsx
@@ -25,28 +25,28 @@
     <t>Prediction</t>
   </si>
   <si>
-    <t>2025-03-24</t>
+    <t>2025-04-15</t>
   </si>
   <si>
-    <t>2025-03-25</t>
+    <t>2025-04-16</t>
   </si>
   <si>
-    <t>2025-03-26</t>
+    <t>2025-04-17</t>
   </si>
   <si>
-    <t>2025-03-27</t>
+    <t>2025-04-18</t>
   </si>
   <si>
-    <t>2025-03-28</t>
+    <t>2025-04-19</t>
   </si>
   <si>
-    <t>2025-03-29</t>
+    <t>2025-04-20</t>
   </si>
   <si>
-    <t>2025-03-30</t>
+    <t>2025-04-21</t>
   </si>
   <si>
-    <t>2025-03-31</t>
+    <t>2025-04-22</t>
   </si>
 </sst>
 </file>
@@ -406,10 +406,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2">
-        <v>587.2119750976562</v>
+        <v>1757.796020507812</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -417,10 +417,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2">
-        <v>465.5499877929688</v>
+        <v>1810.56103515625</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -428,10 +428,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2">
-        <v>486.2739868164062</v>
+        <v>1728.083984375</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -439,10 +439,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2">
-        <v>508.02099609375</v>
+        <v>1724.14697265625</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -450,10 +450,10 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2">
-        <v>562.2410278320312</v>
+        <v>1651.870971679688</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -461,10 +461,10 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2">
-        <v>725.0269775390625</v>
+        <v>1654.280029296875</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -472,10 +472,10 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C8" s="2">
-        <v>738.7780151367188</v>
+        <v>1595.362060546875</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2">
-        <v>769.9249877929688</v>
+        <v>1658.97998046875</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -494,10 +494,10 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C10" s="2">
-        <v>746.7520141601562</v>
+        <v>1644.836059570312</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -505,10 +505,10 @@
         <v>3</v>
       </c>
       <c r="B11">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C11" s="2">
-        <v>633.8280029296875</v>
+        <v>1643.756958007812</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -516,10 +516,10 @@
         <v>3</v>
       </c>
       <c r="B12">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C12" s="2">
-        <v>607.3870239257812</v>
+        <v>1542.578002929688</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -527,10 +527,10 @@
         <v>3</v>
       </c>
       <c r="B13">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C13" s="2">
-        <v>555.0670166015625</v>
+        <v>1410.869018554688</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -538,10 +538,10 @@
         <v>3</v>
       </c>
       <c r="B14">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C14" s="2">
-        <v>565.958984375</v>
+        <v>1417.991943359375</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -549,10 +549,10 @@
         <v>3</v>
       </c>
       <c r="B15">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C15" s="2">
-        <v>508.5390014648438</v>
+        <v>1434.286987304688</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -560,10 +560,10 @@
         <v>3</v>
       </c>
       <c r="B16">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C16" s="2">
-        <v>492.2430114746094</v>
+        <v>1431.129028320312</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -571,10 +571,10 @@
         <v>3</v>
       </c>
       <c r="B17">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C17" s="2">
-        <v>552.2639770507812</v>
+        <v>1399.4150390625</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -582,10 +582,10 @@
         <v>3</v>
       </c>
       <c r="B18">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C18" s="2">
-        <v>514.81201171875</v>
+        <v>1394.35595703125</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -593,10 +593,10 @@
         <v>3</v>
       </c>
       <c r="B19">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C19" s="2">
-        <v>529.1119995117188</v>
+        <v>1410.468994140625</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -604,10 +604,10 @@
         <v>3</v>
       </c>
       <c r="B20">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C20" s="2">
-        <v>494.3590087890625</v>
+        <v>1448.086059570312</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -615,10 +615,10 @@
         <v>3</v>
       </c>
       <c r="B21">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C21" s="2">
-        <v>508.4779968261719</v>
+        <v>1416.651977539062</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -626,10 +626,10 @@
         <v>3</v>
       </c>
       <c r="B22">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C22" s="2">
-        <v>430.6059875488281</v>
+        <v>1393.02197265625</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -637,10 +637,10 @@
         <v>3</v>
       </c>
       <c r="B23">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C23" s="2">
-        <v>491.6740112304688</v>
+        <v>1359.613037109375</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -648,10 +648,10 @@
         <v>3</v>
       </c>
       <c r="B24">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C24" s="2">
-        <v>475.8349914550781</v>
+        <v>1346.573974609375</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -659,10 +659,10 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C25" s="2">
-        <v>492.85400390625</v>
+        <v>1376.16796875</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -670,10 +670,10 @@
         <v>3</v>
       </c>
       <c r="B26">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C26" s="2">
-        <v>404.14599609375</v>
+        <v>1295.920043945312</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -681,10 +681,10 @@
         <v>3</v>
       </c>
       <c r="B27">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C27" s="2">
-        <v>388.1640014648438</v>
+        <v>1253.97705078125</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -692,10 +692,10 @@
         <v>3</v>
       </c>
       <c r="B28">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C28" s="2">
-        <v>404.9450073242188</v>
+        <v>1282.136962890625</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -703,10 +703,10 @@
         <v>3</v>
       </c>
       <c r="B29">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C29" s="2">
-        <v>583.2479858398438</v>
+        <v>1296.85205078125</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -714,10 +714,10 @@
         <v>3</v>
       </c>
       <c r="B30">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C30" s="2">
-        <v>502.7460021972656</v>
+        <v>1225.464965820312</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -725,10 +725,10 @@
         <v>3</v>
       </c>
       <c r="B31">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C31" s="2">
-        <v>424.2650146484375</v>
+        <v>1336.14794921875</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -736,10 +736,10 @@
         <v>3</v>
       </c>
       <c r="B32">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C32" s="2">
-        <v>412.4100036621094</v>
+        <v>1236.875</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -747,10 +747,10 @@
         <v>3</v>
       </c>
       <c r="B33">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C33" s="2">
-        <v>402.6789855957031</v>
+        <v>1245.447021484375</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -758,142 +758,142 @@
         <v>3</v>
       </c>
       <c r="B34">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C34" s="2">
-        <v>489.1189880371094</v>
+        <v>1068.48095703125</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="C35" s="2">
-        <v>614.6710205078125</v>
+        <v>1044.58203125</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="C36" s="2">
-        <v>649.906982421875</v>
+        <v>1039.671020507812</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="C37" s="2">
-        <v>847.9329833984375</v>
+        <v>823.77099609375</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B38">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="C38" s="2">
-        <v>949.1380004882812</v>
+        <v>881.5399780273438</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B39">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="C39" s="2">
-        <v>1076.067993164062</v>
+        <v>982.0380249023438</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B40">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C40" s="2">
-        <v>1248.537963867188</v>
+        <v>861.3280029296875</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="C41" s="2">
-        <v>1322.2919921875</v>
+        <v>680.5269775390625</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B42">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="C42" s="2">
-        <v>1305.045043945312</v>
+        <v>452.1520080566406</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B43">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="C43" s="2">
-        <v>1525.677978515625</v>
+        <v>530.7979736328125</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B44">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="C44" s="2">
-        <v>1580.107055664062</v>
+        <v>527.7169799804688</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B45">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="C45" s="2">
-        <v>1492.68603515625</v>
+        <v>477.2219848632812</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B46">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="C46" s="2">
-        <v>1252.958984375</v>
+        <v>475.4660034179688</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -901,10 +901,10 @@
         <v>4</v>
       </c>
       <c r="B47">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C47" s="2">
-        <v>1317.786987304688</v>
+        <v>614.3049926757812</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -912,10 +912,10 @@
         <v>4</v>
       </c>
       <c r="B48">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C48" s="2">
-        <v>1254.427978515625</v>
+        <v>839.344970703125</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -923,10 +923,10 @@
         <v>4</v>
       </c>
       <c r="B49">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C49" s="2">
-        <v>1441.161987304688</v>
+        <v>873.1749877929688</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -934,10 +934,10 @@
         <v>4</v>
       </c>
       <c r="B50">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C50" s="2">
-        <v>1737.85205078125</v>
+        <v>896.916015625</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -945,10 +945,10 @@
         <v>4</v>
       </c>
       <c r="B51">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C51" s="2">
-        <v>1820.031005859375</v>
+        <v>1037.463989257812</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -956,10 +956,10 @@
         <v>4</v>
       </c>
       <c r="B52">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C52" s="2">
-        <v>1896.598999023438</v>
+        <v>1014.638977050781</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -967,10 +967,10 @@
         <v>4</v>
       </c>
       <c r="B53">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C53" s="2">
-        <v>1895.504028320312</v>
+        <v>1110.765014648438</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -978,10 +978,10 @@
         <v>4</v>
       </c>
       <c r="B54">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C54" s="2">
-        <v>1802.108032226562</v>
+        <v>1144.734985351562</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -989,10 +989,10 @@
         <v>4</v>
       </c>
       <c r="B55">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C55" s="2">
-        <v>1809.141967773438</v>
+        <v>1171.817993164062</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1000,10 +1000,10 @@
         <v>4</v>
       </c>
       <c r="B56">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C56" s="2">
-        <v>1661.217041015625</v>
+        <v>1221.876953125</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1011,10 +1011,10 @@
         <v>4</v>
       </c>
       <c r="B57">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C57" s="2">
-        <v>1645.548950195312</v>
+        <v>1260.119995117188</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1022,10 +1022,10 @@
         <v>4</v>
       </c>
       <c r="B58">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C58" s="2">
-        <v>1628.4580078125</v>
+        <v>1114.468994140625</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1033,10 +1033,10 @@
         <v>4</v>
       </c>
       <c r="B59">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C59" s="2">
-        <v>1627.211059570312</v>
+        <v>787.322021484375</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1044,10 +1044,10 @@
         <v>4</v>
       </c>
       <c r="B60">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C60" s="2">
-        <v>1628.296020507812</v>
+        <v>714.3489990234375</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1055,10 +1055,10 @@
         <v>4</v>
       </c>
       <c r="B61">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C61" s="2">
-        <v>1643.932983398438</v>
+        <v>778.2659912109375</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1066,10 +1066,10 @@
         <v>4</v>
       </c>
       <c r="B62">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C62" s="2">
-        <v>1636.224975585938</v>
+        <v>859.9609985351562</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1077,10 +1077,10 @@
         <v>4</v>
       </c>
       <c r="B63">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C63" s="2">
-        <v>1498.9990234375</v>
+        <v>1044.819946289062</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1088,10 +1088,10 @@
         <v>4</v>
       </c>
       <c r="B64">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C64" s="2">
-        <v>1336.536010742188</v>
+        <v>1160.088989257812</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1099,10 +1099,10 @@
         <v>4</v>
       </c>
       <c r="B65">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C65" s="2">
-        <v>1283.824951171875</v>
+        <v>1155.663940429688</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1110,10 +1110,10 @@
         <v>4</v>
       </c>
       <c r="B66">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C66" s="2">
-        <v>1228.422973632812</v>
+        <v>1042.100952148438</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1121,10 +1121,10 @@
         <v>4</v>
       </c>
       <c r="B67">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C67" s="2">
-        <v>976.0560302734375</v>
+        <v>1084.245971679688</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1132,10 +1132,10 @@
         <v>4</v>
       </c>
       <c r="B68">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C68" s="2">
-        <v>1127.135986328125</v>
+        <v>1298.983032226562</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1143,10 +1143,10 @@
         <v>4</v>
       </c>
       <c r="B69">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C69" s="2">
-        <v>1038.239013671875</v>
+        <v>1431.93994140625</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1154,10 +1154,10 @@
         <v>4</v>
       </c>
       <c r="B70">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C70" s="2">
-        <v>997.0040283203125</v>
+        <v>1368.791015625</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1165,10 +1165,10 @@
         <v>4</v>
       </c>
       <c r="B71">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C71" s="2">
-        <v>1019.97900390625</v>
+        <v>1390.149047851562</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1176,10 +1176,10 @@
         <v>4</v>
       </c>
       <c r="B72">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C72" s="2">
-        <v>968.0850219726562</v>
+        <v>1370.901977539062</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1187,10 +1187,10 @@
         <v>4</v>
       </c>
       <c r="B73">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C73" s="2">
-        <v>935.4199829101562</v>
+        <v>1317.490966796875</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1198,10 +1198,10 @@
         <v>4</v>
       </c>
       <c r="B74">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C74" s="2">
-        <v>1045.98095703125</v>
+        <v>1388.838012695312</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1209,10 +1209,10 @@
         <v>4</v>
       </c>
       <c r="B75">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C75" s="2">
-        <v>1031.818969726562</v>
+        <v>1658.282958984375</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1220,10 +1220,10 @@
         <v>4</v>
       </c>
       <c r="B76">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C76" s="2">
-        <v>1137.051025390625</v>
+        <v>1619.850952148438</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1231,10 +1231,10 @@
         <v>4</v>
       </c>
       <c r="B77">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C77" s="2">
-        <v>1112.217041015625</v>
+        <v>1563.267944335938</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1242,10 +1242,10 @@
         <v>4</v>
       </c>
       <c r="B78">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C78" s="2">
-        <v>1100.816040039062</v>
+        <v>1615.015991210938</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1253,10 +1253,10 @@
         <v>4</v>
       </c>
       <c r="B79">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C79" s="2">
-        <v>1036.032958984375</v>
+        <v>1610.154052734375</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1264,10 +1264,10 @@
         <v>4</v>
       </c>
       <c r="B80">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C80" s="2">
-        <v>1186.114013671875</v>
+        <v>1589.859985351562</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1275,10 +1275,10 @@
         <v>4</v>
       </c>
       <c r="B81">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C81" s="2">
-        <v>1254.5849609375</v>
+        <v>1577.514038085938</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1286,10 +1286,10 @@
         <v>4</v>
       </c>
       <c r="B82">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C82" s="2">
-        <v>1274.255004882812</v>
+        <v>1451.663940429688</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1297,10 +1297,10 @@
         <v>4</v>
       </c>
       <c r="B83">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C83" s="2">
-        <v>1216.427001953125</v>
+        <v>1518.265991210938</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1308,10 +1308,10 @@
         <v>4</v>
       </c>
       <c r="B84">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C84" s="2">
-        <v>987.8060302734375</v>
+        <v>1446.156005859375</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1319,10 +1319,10 @@
         <v>4</v>
       </c>
       <c r="B85">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C85" s="2">
-        <v>1157.027954101562</v>
+        <v>1610.390991210938</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1330,10 +1330,10 @@
         <v>4</v>
       </c>
       <c r="B86">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C86" s="2">
-        <v>1507.947998046875</v>
+        <v>1622.930053710938</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1341,10 +1341,10 @@
         <v>4</v>
       </c>
       <c r="B87">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C87" s="2">
-        <v>1655.880981445312</v>
+        <v>1627.203979492188</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1352,10 +1352,10 @@
         <v>4</v>
       </c>
       <c r="B88">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C88" s="2">
-        <v>1762.655029296875</v>
+        <v>1622.921997070312</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1363,10 +1363,10 @@
         <v>4</v>
       </c>
       <c r="B89">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C89" s="2">
-        <v>1757.385986328125</v>
+        <v>1645.14404296875</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1374,10 +1374,10 @@
         <v>4</v>
       </c>
       <c r="B90">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C90" s="2">
-        <v>1610.97802734375</v>
+        <v>1504.963989257812</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1385,10 +1385,10 @@
         <v>4</v>
       </c>
       <c r="B91">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C91" s="2">
-        <v>1616.35400390625</v>
+        <v>1437.503051757812</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1396,10 +1396,10 @@
         <v>4</v>
       </c>
       <c r="B92">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C92" s="2">
-        <v>1593.265014648438</v>
+        <v>1456.274047851562</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1407,10 +1407,10 @@
         <v>4</v>
       </c>
       <c r="B93">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C93" s="2">
-        <v>1642.800048828125</v>
+        <v>1508.715942382812</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1418,10 +1418,10 @@
         <v>4</v>
       </c>
       <c r="B94">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C94" s="2">
-        <v>1688.9580078125</v>
+        <v>1540.787963867188</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1429,10 +1429,10 @@
         <v>4</v>
       </c>
       <c r="B95">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C95" s="2">
-        <v>1686.876953125</v>
+        <v>1716.619995117188</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1440,10 +1440,10 @@
         <v>4</v>
       </c>
       <c r="B96">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C96" s="2">
-        <v>1683.14794921875</v>
+        <v>1824.4990234375</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1451,10 +1451,10 @@
         <v>4</v>
       </c>
       <c r="B97">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C97" s="2">
-        <v>1531.7900390625</v>
+        <v>1825.280029296875</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1462,10 +1462,10 @@
         <v>4</v>
       </c>
       <c r="B98">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C98" s="2">
-        <v>1374.383056640625</v>
+        <v>1842.818969726562</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1473,10 +1473,10 @@
         <v>4</v>
       </c>
       <c r="B99">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C99" s="2">
-        <v>1251.037963867188</v>
+        <v>1875.012939453125</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1484,10 +1484,10 @@
         <v>4</v>
       </c>
       <c r="B100">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C100" s="2">
-        <v>1068.1669921875</v>
+        <v>1971.503051757812</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1495,10 +1495,10 @@
         <v>4</v>
       </c>
       <c r="B101">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C101" s="2">
-        <v>887.52099609375</v>
+        <v>1983.078002929688</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1506,10 +1506,10 @@
         <v>4</v>
       </c>
       <c r="B102">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C102" s="2">
-        <v>738.2329711914062</v>
+        <v>2003.35400390625</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1517,10 +1517,10 @@
         <v>4</v>
       </c>
       <c r="B103">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C103" s="2">
-        <v>748.0280151367188</v>
+        <v>1978.51904296875</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1528,10 +1528,10 @@
         <v>4</v>
       </c>
       <c r="B104">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C104" s="2">
-        <v>556.1110229492188</v>
+        <v>1976.7060546875</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1539,10 +1539,10 @@
         <v>4</v>
       </c>
       <c r="B105">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C105" s="2">
-        <v>548.1240234375</v>
+        <v>1989.134033203125</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1550,10 +1550,10 @@
         <v>4</v>
       </c>
       <c r="B106">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C106" s="2">
-        <v>512.4840087890625</v>
+        <v>1965.048950195312</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1561,10 +1561,10 @@
         <v>4</v>
       </c>
       <c r="B107">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C107" s="2">
-        <v>537.7219848632812</v>
+        <v>1966.328979492188</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1572,10 +1572,10 @@
         <v>4</v>
       </c>
       <c r="B108">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C108" s="2">
-        <v>523.8250122070312</v>
+        <v>2048.073974609375</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1583,10 +1583,10 @@
         <v>4</v>
       </c>
       <c r="B109">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C109" s="2">
-        <v>380.8410034179688</v>
+        <v>1813.744018554688</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1594,10 +1594,10 @@
         <v>4</v>
       </c>
       <c r="B110">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C110" s="2">
-        <v>349.9230041503906</v>
+        <v>1707.399047851562</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1605,10 +1605,10 @@
         <v>4</v>
       </c>
       <c r="B111">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C111" s="2">
-        <v>290.4540100097656</v>
+        <v>1739.204956054688</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1616,10 +1616,10 @@
         <v>4</v>
       </c>
       <c r="B112">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C112" s="2">
-        <v>307.4209899902344</v>
+        <v>1757.928955078125</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1627,10 +1627,10 @@
         <v>4</v>
       </c>
       <c r="B113">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C113" s="2">
-        <v>348.5759887695312</v>
+        <v>1805.212036132812</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1638,10 +1638,10 @@
         <v>4</v>
       </c>
       <c r="B114">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C114" s="2">
-        <v>415.5169982910156</v>
+        <v>1729.902954101562</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1649,10 +1649,10 @@
         <v>4</v>
       </c>
       <c r="B115">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C115" s="2">
-        <v>341.9559936523438</v>
+        <v>1625.97802734375</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1660,10 +1660,10 @@
         <v>4</v>
       </c>
       <c r="B116">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C116" s="2">
-        <v>276.4840087890625</v>
+        <v>1483.711059570312</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1671,10 +1671,10 @@
         <v>4</v>
       </c>
       <c r="B117">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C117" s="2">
-        <v>338.56298828125</v>
+        <v>1568.39501953125</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1682,10 +1682,10 @@
         <v>4</v>
       </c>
       <c r="B118">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C118" s="2">
-        <v>339.2950134277344</v>
+        <v>1529.761962890625</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1693,10 +1693,10 @@
         <v>4</v>
       </c>
       <c r="B119">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C119" s="2">
-        <v>350.0069885253906</v>
+        <v>1512.342041015625</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1704,10 +1704,10 @@
         <v>4</v>
       </c>
       <c r="B120">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C120" s="2">
-        <v>427.25</v>
+        <v>1411.655029296875</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1715,10 +1715,10 @@
         <v>4</v>
       </c>
       <c r="B121">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C121" s="2">
-        <v>430.7239990234375</v>
+        <v>1360.366943359375</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1726,10 +1726,10 @@
         <v>4</v>
       </c>
       <c r="B122">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C122" s="2">
-        <v>421.2510070800781</v>
+        <v>1247.996948242188</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1737,10 +1737,10 @@
         <v>4</v>
       </c>
       <c r="B123">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C123" s="2">
-        <v>470.5150146484375</v>
+        <v>872.5449829101562</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1748,10 +1748,10 @@
         <v>4</v>
       </c>
       <c r="B124">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C124" s="2">
-        <v>475.3550109863281</v>
+        <v>876.2780151367188</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1759,10 +1759,10 @@
         <v>4</v>
       </c>
       <c r="B125">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C125" s="2">
-        <v>467.6010131835938</v>
+        <v>872.2579956054688</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1770,10 +1770,10 @@
         <v>4</v>
       </c>
       <c r="B126">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C126" s="2">
-        <v>482.9079895019531</v>
+        <v>1053.171020507812</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1781,10 +1781,10 @@
         <v>4</v>
       </c>
       <c r="B127">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C127" s="2">
-        <v>492.7619934082031</v>
+        <v>1089.430053710938</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1792,10 +1792,10 @@
         <v>4</v>
       </c>
       <c r="B128">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C128" s="2">
-        <v>481.2860107421875</v>
+        <v>1113.298950195312</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1803,10 +1803,10 @@
         <v>4</v>
       </c>
       <c r="B129">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C129" s="2">
-        <v>379.27099609375</v>
+        <v>1053.219970703125</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1814,142 +1814,142 @@
         <v>4</v>
       </c>
       <c r="B130">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C130" s="2">
-        <v>321.6640014648438</v>
+        <v>1096.52099609375</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="C131" s="2">
-        <v>578.47900390625</v>
+        <v>971.9169921875</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B132">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="C132" s="2">
-        <v>579.1820068359375</v>
+        <v>1084.93603515625</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B133">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="C133" s="2">
-        <v>542.5689697265625</v>
+        <v>1174.376953125</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B134">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="C134" s="2">
-        <v>602.166015625</v>
+        <v>1099.944946289062</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B135">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="C135" s="2">
-        <v>493.3800048828125</v>
+        <v>1113.097045898438</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B136">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C136" s="2">
-        <v>533.8419799804688</v>
+        <v>1096.3759765625</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B137">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="C137" s="2">
-        <v>701.8599853515625</v>
+        <v>958.4509887695312</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B138">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="C138" s="2">
-        <v>559.9450073242188</v>
+        <v>1134.657958984375</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B139">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="C139" s="2">
-        <v>504.0910034179688</v>
+        <v>1077.737060546875</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B140">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="C140" s="2">
-        <v>502.2650146484375</v>
+        <v>1015.52099609375</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B141">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="C141" s="2">
-        <v>408.5329895019531</v>
+        <v>1006.174011230469</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B142">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="C142" s="2">
-        <v>365.3340148925781</v>
+        <v>896.916015625</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1957,10 +1957,10 @@
         <v>5</v>
       </c>
       <c r="B143">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C143" s="2">
-        <v>543.948974609375</v>
+        <v>1069.427001953125</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1968,10 +1968,10 @@
         <v>5</v>
       </c>
       <c r="B144">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C144" s="2">
-        <v>510.3989868164062</v>
+        <v>892.3989868164062</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1979,10 +1979,10 @@
         <v>5</v>
       </c>
       <c r="B145">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C145" s="2">
-        <v>395.8450012207031</v>
+        <v>707.9959716796875</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1990,10 +1990,10 @@
         <v>5</v>
       </c>
       <c r="B146">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C146" s="2">
-        <v>358.4209899902344</v>
+        <v>789.1019897460938</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2001,10 +2001,10 @@
         <v>5</v>
       </c>
       <c r="B147">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C147" s="2">
-        <v>350.5960083007812</v>
+        <v>760.218994140625</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2012,10 +2012,10 @@
         <v>5</v>
       </c>
       <c r="B148">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C148" s="2">
-        <v>384.2650146484375</v>
+        <v>753.718017578125</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2023,10 +2023,10 @@
         <v>5</v>
       </c>
       <c r="B149">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C149" s="2">
-        <v>398.47900390625</v>
+        <v>768.5</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2034,10 +2034,10 @@
         <v>5</v>
       </c>
       <c r="B150">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C150" s="2">
-        <v>475.4540100097656</v>
+        <v>706.72900390625</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2045,10 +2045,10 @@
         <v>5</v>
       </c>
       <c r="B151">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C151" s="2">
-        <v>313.7659912109375</v>
+        <v>696.4089965820312</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2056,10 +2056,10 @@
         <v>5</v>
       </c>
       <c r="B152">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C152" s="2">
-        <v>591.8489990234375</v>
+        <v>677.0499877929688</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2067,10 +2067,10 @@
         <v>5</v>
       </c>
       <c r="B153">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C153" s="2">
-        <v>473.1440124511719</v>
+        <v>619.6900024414062</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2078,10 +2078,10 @@
         <v>5</v>
       </c>
       <c r="B154">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C154" s="2">
-        <v>521.5590209960938</v>
+        <v>636.781982421875</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2089,10 +2089,10 @@
         <v>5</v>
       </c>
       <c r="B155">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C155" s="2">
-        <v>466.1319885253906</v>
+        <v>595.1170043945312</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2100,10 +2100,10 @@
         <v>5</v>
       </c>
       <c r="B156">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C156" s="2">
-        <v>454.1099853515625</v>
+        <v>622.3150024414062</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2111,10 +2111,10 @@
         <v>5</v>
       </c>
       <c r="B157">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C157" s="2">
-        <v>504.489990234375</v>
+        <v>636.7540283203125</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2122,10 +2122,10 @@
         <v>5</v>
       </c>
       <c r="B158">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C158" s="2">
-        <v>668.031005859375</v>
+        <v>623.7150268554688</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2133,10 +2133,10 @@
         <v>5</v>
       </c>
       <c r="B159">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C159" s="2">
-        <v>842.4650268554688</v>
+        <v>689.9329833984375</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2144,10 +2144,10 @@
         <v>5</v>
       </c>
       <c r="B160">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C160" s="2">
-        <v>744.1939697265625</v>
+        <v>689.9929809570312</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2155,10 +2155,10 @@
         <v>5</v>
       </c>
       <c r="B161">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C161" s="2">
-        <v>739.4819946289062</v>
+        <v>679.7410278320312</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2166,10 +2166,10 @@
         <v>5</v>
       </c>
       <c r="B162">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C162" s="2">
-        <v>888.1740112304688</v>
+        <v>729.2470092773438</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2177,10 +2177,10 @@
         <v>5</v>
       </c>
       <c r="B163">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C163" s="2">
-        <v>864.0059814453125</v>
+        <v>755.2760009765625</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2188,10 +2188,10 @@
         <v>5</v>
       </c>
       <c r="B164">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C164" s="2">
-        <v>852.2360229492188</v>
+        <v>735.822998046875</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2199,10 +2199,10 @@
         <v>5</v>
       </c>
       <c r="B165">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C165" s="2">
-        <v>851.10498046875</v>
+        <v>669.3880004882812</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2210,10 +2210,10 @@
         <v>5</v>
       </c>
       <c r="B166">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C166" s="2">
-        <v>803.2459716796875</v>
+        <v>625.3679809570312</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2221,10 +2221,10 @@
         <v>5</v>
       </c>
       <c r="B167">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C167" s="2">
-        <v>830.780029296875</v>
+        <v>703.0549926757812</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2232,10 +2232,10 @@
         <v>5</v>
       </c>
       <c r="B168">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C168" s="2">
-        <v>860.8699951171875</v>
+        <v>731.0650024414062</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2243,10 +2243,10 @@
         <v>5</v>
       </c>
       <c r="B169">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C169" s="2">
-        <v>901.3909912109375</v>
+        <v>869.9400024414062</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2254,10 +2254,10 @@
         <v>5</v>
       </c>
       <c r="B170">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C170" s="2">
-        <v>991.781005859375</v>
+        <v>786.0859985351562</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2265,10 +2265,10 @@
         <v>5</v>
       </c>
       <c r="B171">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C171" s="2">
-        <v>925.3319702148438</v>
+        <v>1008.14697265625</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2276,10 +2276,10 @@
         <v>5</v>
       </c>
       <c r="B172">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C172" s="2">
-        <v>943.4409790039062</v>
+        <v>916.9539794921875</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2287,10 +2287,10 @@
         <v>5</v>
       </c>
       <c r="B173">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C173" s="2">
-        <v>938.0640258789062</v>
+        <v>1111.31396484375</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2298,10 +2298,10 @@
         <v>5</v>
       </c>
       <c r="B174">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C174" s="2">
-        <v>911.072021484375</v>
+        <v>1086.5849609375</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2309,10 +2309,10 @@
         <v>5</v>
       </c>
       <c r="B175">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C175" s="2">
-        <v>827.4000244140625</v>
+        <v>1053.053955078125</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2320,10 +2320,10 @@
         <v>5</v>
       </c>
       <c r="B176">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C176" s="2">
-        <v>811.2150268554688</v>
+        <v>1084.024047851562</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2331,10 +2331,10 @@
         <v>5</v>
       </c>
       <c r="B177">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C177" s="2">
-        <v>825.0819702148438</v>
+        <v>1082.14599609375</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2342,10 +2342,10 @@
         <v>5</v>
       </c>
       <c r="B178">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C178" s="2">
-        <v>800.3090209960938</v>
+        <v>1089.094970703125</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2353,10 +2353,10 @@
         <v>5</v>
       </c>
       <c r="B179">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C179" s="2">
-        <v>838.9550170898438</v>
+        <v>1180.858032226562</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2364,10 +2364,10 @@
         <v>5</v>
       </c>
       <c r="B180">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C180" s="2">
-        <v>852.5579833984375</v>
+        <v>1139.072998046875</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2375,10 +2375,10 @@
         <v>5</v>
       </c>
       <c r="B181">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C181" s="2">
-        <v>815.2849731445312</v>
+        <v>1295.574951171875</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2386,10 +2386,10 @@
         <v>5</v>
       </c>
       <c r="B182">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C182" s="2">
-        <v>639.5599975585938</v>
+        <v>1418.31396484375</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2397,10 +2397,10 @@
         <v>5</v>
       </c>
       <c r="B183">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C183" s="2">
-        <v>739.3759765625</v>
+        <v>1407.163940429688</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2408,10 +2408,10 @@
         <v>5</v>
       </c>
       <c r="B184">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C184" s="2">
-        <v>841.2659912109375</v>
+        <v>1440.994018554688</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2419,10 +2419,10 @@
         <v>5</v>
       </c>
       <c r="B185">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C185" s="2">
-        <v>867.0339965820312</v>
+        <v>1323.859985351562</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2430,10 +2430,10 @@
         <v>5</v>
       </c>
       <c r="B186">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C186" s="2">
-        <v>772.0440063476562</v>
+        <v>1380.869995117188</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2441,10 +2441,10 @@
         <v>5</v>
       </c>
       <c r="B187">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C187" s="2">
-        <v>840.364013671875</v>
+        <v>1341.275024414062</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2452,10 +2452,10 @@
         <v>5</v>
       </c>
       <c r="B188">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C188" s="2">
-        <v>813.468017578125</v>
+        <v>1343.680053710938</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2463,10 +2463,10 @@
         <v>5</v>
       </c>
       <c r="B189">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C189" s="2">
-        <v>936.0020141601562</v>
+        <v>1426.281005859375</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2474,10 +2474,10 @@
         <v>5</v>
       </c>
       <c r="B190">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C190" s="2">
-        <v>1068.796997070312</v>
+        <v>1373.4560546875</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2485,10 +2485,10 @@
         <v>5</v>
       </c>
       <c r="B191">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C191" s="2">
-        <v>1074.531982421875</v>
+        <v>1369.159057617188</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2496,10 +2496,10 @@
         <v>5</v>
       </c>
       <c r="B192">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C192" s="2">
-        <v>1064.287963867188</v>
+        <v>1350.2939453125</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2507,10 +2507,10 @@
         <v>5</v>
       </c>
       <c r="B193">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C193" s="2">
-        <v>1056.920043945312</v>
+        <v>1190.326049804688</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2518,10 +2518,10 @@
         <v>5</v>
       </c>
       <c r="B194">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C194" s="2">
-        <v>1188.490966796875</v>
+        <v>1173.652954101562</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2529,10 +2529,10 @@
         <v>5</v>
       </c>
       <c r="B195">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C195" s="2">
-        <v>1173.324951171875</v>
+        <v>1093.285034179688</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2540,10 +2540,10 @@
         <v>5</v>
       </c>
       <c r="B196">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C196" s="2">
-        <v>1021.081970214844</v>
+        <v>851.302978515625</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2551,10 +2551,10 @@
         <v>5</v>
       </c>
       <c r="B197">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C197" s="2">
-        <v>1074.43994140625</v>
+        <v>785.8099975585938</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2562,10 +2562,10 @@
         <v>5</v>
       </c>
       <c r="B198">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C198" s="2">
-        <v>1049.005981445312</v>
+        <v>599.5289916992188</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2573,10 +2573,10 @@
         <v>5</v>
       </c>
       <c r="B199">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C199" s="2">
-        <v>1035.213989257812</v>
+        <v>532.5700073242188</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2584,10 +2584,10 @@
         <v>5</v>
       </c>
       <c r="B200">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C200" s="2">
-        <v>1013.151000976562</v>
+        <v>493.8200073242188</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2595,10 +2595,10 @@
         <v>5</v>
       </c>
       <c r="B201">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C201" s="2">
-        <v>927.0540161132812</v>
+        <v>472.2669982910156</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2606,10 +2606,10 @@
         <v>5</v>
       </c>
       <c r="B202">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C202" s="2">
-        <v>918.4249877929688</v>
+        <v>396.1010131835938</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2617,10 +2617,10 @@
         <v>5</v>
       </c>
       <c r="B203">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C203" s="2">
-        <v>915.2919921875</v>
+        <v>442.093994140625</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2628,10 +2628,10 @@
         <v>5</v>
       </c>
       <c r="B204">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C204" s="2">
-        <v>866.9990234375</v>
+        <v>574.0700073242188</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2639,10 +2639,10 @@
         <v>5</v>
       </c>
       <c r="B205">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C205" s="2">
-        <v>757.6010131835938</v>
+        <v>709.2160034179688</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2650,10 +2650,10 @@
         <v>5</v>
       </c>
       <c r="B206">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C206" s="2">
-        <v>713.9879760742188</v>
+        <v>1193.454956054688</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2661,10 +2661,10 @@
         <v>5</v>
       </c>
       <c r="B207">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C207" s="2">
-        <v>706.0700073242188</v>
+        <v>1267.828979492188</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2672,10 +2672,10 @@
         <v>5</v>
       </c>
       <c r="B208">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C208" s="2">
-        <v>812.9630126953125</v>
+        <v>1282.465942382812</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2683,10 +2683,10 @@
         <v>5</v>
       </c>
       <c r="B209">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C209" s="2">
-        <v>734.5499877929688</v>
+        <v>1116.371948242188</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2694,10 +2694,10 @@
         <v>5</v>
       </c>
       <c r="B210">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C210" s="2">
-        <v>817.6309814453125</v>
+        <v>1011.817016601562</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2705,10 +2705,10 @@
         <v>5</v>
       </c>
       <c r="B211">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C211" s="2">
-        <v>865.47998046875</v>
+        <v>1013.989013671875</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2716,10 +2716,10 @@
         <v>5</v>
       </c>
       <c r="B212">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C212" s="2">
-        <v>765.447021484375</v>
+        <v>859.31201171875</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2727,10 +2727,10 @@
         <v>5</v>
       </c>
       <c r="B213">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C213" s="2">
-        <v>858.2119750976562</v>
+        <v>910.2869873046875</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2738,10 +2738,10 @@
         <v>5</v>
       </c>
       <c r="B214">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C214" s="2">
-        <v>665.02099609375</v>
+        <v>891.1370239257812</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2749,10 +2749,10 @@
         <v>5</v>
       </c>
       <c r="B215">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C215" s="2">
-        <v>611.8779907226562</v>
+        <v>890.6900024414062</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2760,10 +2760,10 @@
         <v>5</v>
       </c>
       <c r="B216">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C216" s="2">
-        <v>765.6719970703125</v>
+        <v>929.35400390625</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2771,10 +2771,10 @@
         <v>5</v>
       </c>
       <c r="B217">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C217" s="2">
-        <v>645.0659790039062</v>
+        <v>941.6820068359375</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2782,10 +2782,10 @@
         <v>5</v>
       </c>
       <c r="B218">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C218" s="2">
-        <v>688.3930053710938</v>
+        <v>1034.0830078125</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2793,10 +2793,10 @@
         <v>5</v>
       </c>
       <c r="B219">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C219" s="2">
-        <v>684.1259765625</v>
+        <v>1070.10400390625</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2804,10 +2804,10 @@
         <v>5</v>
       </c>
       <c r="B220">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C220" s="2">
-        <v>652.3209838867188</v>
+        <v>1052.347045898438</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2815,10 +2815,10 @@
         <v>5</v>
       </c>
       <c r="B221">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C221" s="2">
-        <v>659.3189697265625</v>
+        <v>1058.128051757812</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2826,10 +2826,10 @@
         <v>5</v>
       </c>
       <c r="B222">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C222" s="2">
-        <v>619.6119995117188</v>
+        <v>1052.213989257812</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2837,10 +2837,10 @@
         <v>5</v>
       </c>
       <c r="B223">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C223" s="2">
-        <v>617.7230224609375</v>
+        <v>1046.702026367188</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2848,10 +2848,10 @@
         <v>5</v>
       </c>
       <c r="B224">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C224" s="2">
-        <v>587.8670043945312</v>
+        <v>1045.06005859375</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2859,10 +2859,10 @@
         <v>5</v>
       </c>
       <c r="B225">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C225" s="2">
-        <v>571.5360107421875</v>
+        <v>1096.474975585938</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2870,142 +2870,142 @@
         <v>5</v>
       </c>
       <c r="B226">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C226" s="2">
-        <v>540.5120239257812</v>
+        <v>1074.420043945312</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B227">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="C227" s="2">
-        <v>656.2979736328125</v>
+        <v>1094.474975585938</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B228">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="C228" s="2">
-        <v>701.9450073242188</v>
+        <v>1096.421997070312</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B229">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="C229" s="2">
-        <v>647.14599609375</v>
+        <v>892.5339965820312</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B230">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="C230" s="2">
-        <v>567.4290161132812</v>
+        <v>932.447021484375</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B231">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="C231" s="2">
-        <v>636.1209716796875</v>
+        <v>927.93701171875</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B232">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C232" s="2">
-        <v>597.1339721679688</v>
+        <v>947.4320068359375</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B233">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="C233" s="2">
-        <v>654.1060180664062</v>
+        <v>927.85302734375</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B234">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="C234" s="2">
-        <v>652.3519897460938</v>
+        <v>840.051025390625</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B235">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="C235" s="2">
-        <v>632.7849731445312</v>
+        <v>798.3880004882812</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B236">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="C236" s="2">
-        <v>718.5269775390625</v>
+        <v>782.7919921875</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B237">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="C237" s="2">
-        <v>680.6610107421875</v>
+        <v>617.8599853515625</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B238">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="C238" s="2">
-        <v>766.4520263671875</v>
+        <v>598.4639892578125</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3013,10 +3013,10 @@
         <v>6</v>
       </c>
       <c r="B239">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C239" s="2">
-        <v>765.60498046875</v>
+        <v>471.1700134277344</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3024,10 +3024,10 @@
         <v>6</v>
       </c>
       <c r="B240">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C240" s="2">
-        <v>844.27197265625</v>
+        <v>414.2579956054688</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3035,10 +3035,10 @@
         <v>6</v>
       </c>
       <c r="B241">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C241" s="2">
-        <v>854.7570190429688</v>
+        <v>378.7900085449219</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3046,10 +3046,10 @@
         <v>6</v>
       </c>
       <c r="B242">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C242" s="2">
-        <v>870.7349853515625</v>
+        <v>347.9179992675781</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3057,10 +3057,10 @@
         <v>6</v>
       </c>
       <c r="B243">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C243" s="2">
-        <v>1006.034973144531</v>
+        <v>283.1929931640625</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3068,10 +3068,10 @@
         <v>6</v>
       </c>
       <c r="B244">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C244" s="2">
-        <v>1022.846008300781</v>
+        <v>293.5979919433594</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3079,10 +3079,10 @@
         <v>6</v>
       </c>
       <c r="B245">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C245" s="2">
-        <v>1019.940002441406</v>
+        <v>287.3320007324219</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3090,10 +3090,10 @@
         <v>6</v>
       </c>
       <c r="B246">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C246" s="2">
-        <v>1005.419006347656</v>
+        <v>360.5180053710938</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3101,10 +3101,10 @@
         <v>6</v>
       </c>
       <c r="B247">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C247" s="2">
-        <v>1001.672973632812</v>
+        <v>373.8779907226562</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3112,10 +3112,10 @@
         <v>6</v>
       </c>
       <c r="B248">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C248" s="2">
-        <v>1021.926025390625</v>
+        <v>403.5260009765625</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3123,10 +3123,10 @@
         <v>6</v>
       </c>
       <c r="B249">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C249" s="2">
-        <v>991.0260009765625</v>
+        <v>390.6059875488281</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3134,10 +3134,10 @@
         <v>6</v>
       </c>
       <c r="B250">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C250" s="2">
-        <v>983.031982421875</v>
+        <v>413.5379943847656</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3145,10 +3145,10 @@
         <v>6</v>
       </c>
       <c r="B251">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C251" s="2">
-        <v>965.8729858398438</v>
+        <v>422.7890014648438</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3156,10 +3156,10 @@
         <v>6</v>
       </c>
       <c r="B252">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C252" s="2">
-        <v>922.3629760742188</v>
+        <v>430.3219909667969</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3167,10 +3167,10 @@
         <v>6</v>
       </c>
       <c r="B253">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C253" s="2">
-        <v>899.60498046875</v>
+        <v>452.7680053710938</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3178,10 +3178,10 @@
         <v>6</v>
       </c>
       <c r="B254">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C254" s="2">
-        <v>843.5889892578125</v>
+        <v>459.5369873046875</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3189,10 +3189,10 @@
         <v>6</v>
       </c>
       <c r="B255">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C255" s="2">
-        <v>826.5269775390625</v>
+        <v>430.2219848632812</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3200,10 +3200,10 @@
         <v>6</v>
       </c>
       <c r="B256">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C256" s="2">
-        <v>921.5170288085938</v>
+        <v>450.875</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3211,10 +3211,10 @@
         <v>6</v>
       </c>
       <c r="B257">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C257" s="2">
-        <v>937.0960083007812</v>
+        <v>455.9039916992188</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3222,10 +3222,10 @@
         <v>6</v>
       </c>
       <c r="B258">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C258" s="2">
-        <v>1025.2080078125</v>
+        <v>461.7829895019531</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3233,10 +3233,10 @@
         <v>6</v>
       </c>
       <c r="B259">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C259" s="2">
-        <v>1113.7490234375</v>
+        <v>467.8770141601562</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3244,10 +3244,10 @@
         <v>6</v>
       </c>
       <c r="B260">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C260" s="2">
-        <v>1203.538940429688</v>
+        <v>441.2919921875</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3255,10 +3255,10 @@
         <v>6</v>
       </c>
       <c r="B261">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C261" s="2">
-        <v>1165.194946289062</v>
+        <v>406.1589965820312</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3266,10 +3266,10 @@
         <v>6</v>
       </c>
       <c r="B262">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C262" s="2">
-        <v>1251.52197265625</v>
+        <v>330.3219909667969</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3277,10 +3277,10 @@
         <v>6</v>
       </c>
       <c r="B263">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C263" s="2">
-        <v>1442.025024414062</v>
+        <v>271.0320129394531</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3288,10 +3288,10 @@
         <v>6</v>
       </c>
       <c r="B264">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C264" s="2">
-        <v>1309.51904296875</v>
+        <v>386.0780029296875</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3299,10 +3299,10 @@
         <v>6</v>
       </c>
       <c r="B265">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C265" s="2">
-        <v>1738.2509765625</v>
+        <v>427.510009765625</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3310,10 +3310,10 @@
         <v>6</v>
       </c>
       <c r="B266">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C266" s="2">
-        <v>1814.31005859375</v>
+        <v>372.7730102539062</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3321,10 +3321,10 @@
         <v>6</v>
       </c>
       <c r="B267">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C267" s="2">
-        <v>1699.31396484375</v>
+        <v>586.5969848632812</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3332,10 +3332,10 @@
         <v>6</v>
       </c>
       <c r="B268">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C268" s="2">
-        <v>1646.18896484375</v>
+        <v>338.135009765625</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3343,10 +3343,10 @@
         <v>6</v>
       </c>
       <c r="B269">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C269" s="2">
-        <v>1782.849975585938</v>
+        <v>397.1759948730469</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3354,10 +3354,10 @@
         <v>6</v>
       </c>
       <c r="B270">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C270" s="2">
-        <v>1793.797973632812</v>
+        <v>377.1050109863281</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3365,10 +3365,10 @@
         <v>6</v>
       </c>
       <c r="B271">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C271" s="2">
-        <v>1917.378051757812</v>
+        <v>596.4110107421875</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3376,10 +3376,10 @@
         <v>6</v>
       </c>
       <c r="B272">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C272" s="2">
-        <v>1924.220947265625</v>
+        <v>612.3079833984375</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3387,10 +3387,10 @@
         <v>6</v>
       </c>
       <c r="B273">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C273" s="2">
-        <v>1917.401000976562</v>
+        <v>648.468017578125</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3398,10 +3398,10 @@
         <v>6</v>
       </c>
       <c r="B274">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C274" s="2">
-        <v>1963.703002929688</v>
+        <v>721.5230102539062</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3409,10 +3409,10 @@
         <v>6</v>
       </c>
       <c r="B275">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C275" s="2">
-        <v>1935.808959960938</v>
+        <v>706.906982421875</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3420,10 +3420,10 @@
         <v>6</v>
       </c>
       <c r="B276">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C276" s="2">
-        <v>1973.885986328125</v>
+        <v>666.3510131835938</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3431,10 +3431,10 @@
         <v>6</v>
       </c>
       <c r="B277">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C277" s="2">
-        <v>1766.420043945312</v>
+        <v>690.0170288085938</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3442,10 +3442,10 @@
         <v>6</v>
       </c>
       <c r="B278">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C278" s="2">
-        <v>2055.52490234375</v>
+        <v>626.5260009765625</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3453,10 +3453,10 @@
         <v>6</v>
       </c>
       <c r="B279">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C279" s="2">
-        <v>1735.946044921875</v>
+        <v>720.6290283203125</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3464,10 +3464,10 @@
         <v>6</v>
       </c>
       <c r="B280">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C280" s="2">
-        <v>1478.170043945312</v>
+        <v>744.1489868164062</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3475,10 +3475,10 @@
         <v>6</v>
       </c>
       <c r="B281">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C281" s="2">
-        <v>1326.386962890625</v>
+        <v>800.2659912109375</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3486,10 +3486,10 @@
         <v>6</v>
       </c>
       <c r="B282">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C282" s="2">
-        <v>1304.60595703125</v>
+        <v>761.2080078125</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3497,10 +3497,10 @@
         <v>6</v>
       </c>
       <c r="B283">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C283" s="2">
-        <v>1226.838012695312</v>
+        <v>533.6690063476562</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3508,10 +3508,10 @@
         <v>6</v>
       </c>
       <c r="B284">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C284" s="2">
-        <v>1119</v>
+        <v>621.208984375</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3519,10 +3519,10 @@
         <v>6</v>
       </c>
       <c r="B285">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C285" s="2">
-        <v>1217.890014648438</v>
+        <v>600.7769775390625</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3530,10 +3530,10 @@
         <v>6</v>
       </c>
       <c r="B286">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C286" s="2">
-        <v>1187.515014648438</v>
+        <v>800.3359985351562</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3541,10 +3541,10 @@
         <v>6</v>
       </c>
       <c r="B287">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C287" s="2">
-        <v>1318.816040039062</v>
+        <v>1031.719970703125</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3552,10 +3552,10 @@
         <v>6</v>
       </c>
       <c r="B288">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C288" s="2">
-        <v>1150.248046875</v>
+        <v>1042.378051757812</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3563,10 +3563,10 @@
         <v>6</v>
       </c>
       <c r="B289">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C289" s="2">
-        <v>1077.473999023438</v>
+        <v>1103.128051757812</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3574,10 +3574,10 @@
         <v>6</v>
       </c>
       <c r="B290">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C290" s="2">
-        <v>1731.864013671875</v>
+        <v>1108.760009765625</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3585,10 +3585,10 @@
         <v>6</v>
       </c>
       <c r="B291">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C291" s="2">
-        <v>1948.7080078125</v>
+        <v>1183.93505859375</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3596,10 +3596,10 @@
         <v>6</v>
       </c>
       <c r="B292">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C292" s="2">
-        <v>1959.746948242188</v>
+        <v>1171.026000976562</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3607,10 +3607,10 @@
         <v>6</v>
       </c>
       <c r="B293">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C293" s="2">
-        <v>1907.328979492188</v>
+        <v>1127.496948242188</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3618,10 +3618,10 @@
         <v>6</v>
       </c>
       <c r="B294">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C294" s="2">
-        <v>1690.495971679688</v>
+        <v>946.8460083007812</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3629,10 +3629,10 @@
         <v>6</v>
       </c>
       <c r="B295">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C295" s="2">
-        <v>1284.031982421875</v>
+        <v>908.7769775390625</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3640,10 +3640,10 @@
         <v>6</v>
       </c>
       <c r="B296">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C296" s="2">
-        <v>1152.253051757812</v>
+        <v>877.2210083007812</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3651,10 +3651,10 @@
         <v>6</v>
       </c>
       <c r="B297">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C297" s="2">
-        <v>1108.952026367188</v>
+        <v>659.4940185546875</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3662,10 +3662,10 @@
         <v>6</v>
       </c>
       <c r="B298">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C298" s="2">
-        <v>965.9710083007812</v>
+        <v>669.4420166015625</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3673,10 +3673,10 @@
         <v>6</v>
       </c>
       <c r="B299">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C299" s="2">
-        <v>714.5250244140625</v>
+        <v>764.5079956054688</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3684,10 +3684,10 @@
         <v>6</v>
       </c>
       <c r="B300">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C300" s="2">
-        <v>742.4249877929688</v>
+        <v>847.4630126953125</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3695,10 +3695,10 @@
         <v>6</v>
       </c>
       <c r="B301">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C301" s="2">
-        <v>1031.661987304688</v>
+        <v>1061.77197265625</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3706,10 +3706,10 @@
         <v>6</v>
       </c>
       <c r="B302">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C302" s="2">
-        <v>967.97900390625</v>
+        <v>1233.017944335938</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3717,10 +3717,10 @@
         <v>6</v>
       </c>
       <c r="B303">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C303" s="2">
-        <v>978.510009765625</v>
+        <v>1203.951049804688</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3728,10 +3728,10 @@
         <v>6</v>
       </c>
       <c r="B304">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C304" s="2">
-        <v>952.8670043945312</v>
+        <v>1085.43603515625</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3739,10 +3739,10 @@
         <v>6</v>
       </c>
       <c r="B305">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C305" s="2">
-        <v>987.22998046875</v>
+        <v>1018.213012695312</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3750,10 +3750,10 @@
         <v>6</v>
       </c>
       <c r="B306">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C306" s="2">
-        <v>996.35498046875</v>
+        <v>956.3590087890625</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3761,10 +3761,10 @@
         <v>6</v>
       </c>
       <c r="B307">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C307" s="2">
-        <v>985.9929809570312</v>
+        <v>893.3460083007812</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3772,10 +3772,10 @@
         <v>6</v>
       </c>
       <c r="B308">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C308" s="2">
-        <v>1065.807006835938</v>
+        <v>596.864990234375</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3783,10 +3783,10 @@
         <v>6</v>
       </c>
       <c r="B309">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C309" s="2">
-        <v>1091.506958007812</v>
+        <v>634.47802734375</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3794,10 +3794,10 @@
         <v>6</v>
       </c>
       <c r="B310">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C310" s="2">
-        <v>862.2160034179688</v>
+        <v>657.72802734375</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3805,10 +3805,10 @@
         <v>6</v>
       </c>
       <c r="B311">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C311" s="2">
-        <v>870.0800170898438</v>
+        <v>699.9030151367188</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3816,10 +3816,10 @@
         <v>6</v>
       </c>
       <c r="B312">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C312" s="2">
-        <v>982.4949951171875</v>
+        <v>699.5880126953125</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3827,10 +3827,10 @@
         <v>6</v>
       </c>
       <c r="B313">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C313" s="2">
-        <v>1003.484008789062</v>
+        <v>822.2849731445312</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3838,10 +3838,10 @@
         <v>6</v>
       </c>
       <c r="B314">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C314" s="2">
-        <v>1320.657958984375</v>
+        <v>827.7589721679688</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3849,10 +3849,10 @@
         <v>6</v>
       </c>
       <c r="B315">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C315" s="2">
-        <v>1470.569946289062</v>
+        <v>650.3709716796875</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3860,10 +3860,10 @@
         <v>6</v>
       </c>
       <c r="B316">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C316" s="2">
-        <v>1478.654052734375</v>
+        <v>647.0750122070312</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -3871,10 +3871,10 @@
         <v>6</v>
       </c>
       <c r="B317">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C317" s="2">
-        <v>1359.974975585938</v>
+        <v>615.8800048828125</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -3882,10 +3882,10 @@
         <v>6</v>
       </c>
       <c r="B318">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C318" s="2">
-        <v>1638.014038085938</v>
+        <v>681.1749877929688</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -3893,10 +3893,10 @@
         <v>6</v>
       </c>
       <c r="B319">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C319" s="2">
-        <v>1878.245971679688</v>
+        <v>614.760009765625</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -3904,10 +3904,10 @@
         <v>6</v>
       </c>
       <c r="B320">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C320" s="2">
-        <v>1679.402954101562</v>
+        <v>543.3170166015625</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -3915,10 +3915,10 @@
         <v>6</v>
       </c>
       <c r="B321">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C321" s="2">
-        <v>1470.06005859375</v>
+        <v>471.1239929199219</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -3926,142 +3926,142 @@
         <v>6</v>
       </c>
       <c r="B322">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C322" s="2">
-        <v>1428.535034179688</v>
+        <v>416.1820068359375</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B323">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="C323" s="2">
-        <v>734.2150268554688</v>
+        <v>308.3980102539062</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B324">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="C324" s="2">
-        <v>836.572021484375</v>
+        <v>360.1549987792969</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B325">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="C325" s="2">
-        <v>756.5360107421875</v>
+        <v>437.3569946289062</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B326">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="C326" s="2">
-        <v>731.4010009765625</v>
+        <v>364.8699951171875</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B327">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="C327" s="2">
-        <v>585.6599731445312</v>
+        <v>309.3659973144531</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B328">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C328" s="2">
-        <v>703.7579956054688</v>
+        <v>218.3860015869141</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B329">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="C329" s="2">
-        <v>786.7739868164062</v>
+        <v>128.5959930419922</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B330">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="C330" s="2">
-        <v>926.614013671875</v>
+        <v>101.3720016479492</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B331">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="C331" s="2">
-        <v>841.2769775390625</v>
+        <v>47.83700180053711</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B332">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="C332" s="2">
-        <v>1023.661010742188</v>
+        <v>157.9669952392578</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B333">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="C333" s="2">
-        <v>1101.844970703125</v>
+        <v>50.17800140380859</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B334">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="C334" s="2">
-        <v>1396.364013671875</v>
+        <v>69.12599945068359</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4069,10 +4069,10 @@
         <v>7</v>
       </c>
       <c r="B335">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C335" s="2">
-        <v>1497.787963867188</v>
+        <v>75.47200012207031</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4080,10 +4080,10 @@
         <v>7</v>
       </c>
       <c r="B336">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C336" s="2">
-        <v>1464.869995117188</v>
+        <v>111.7020034790039</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4091,10 +4091,10 @@
         <v>7</v>
       </c>
       <c r="B337">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C337" s="2">
-        <v>1449.553955078125</v>
+        <v>63.61199951171875</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4102,10 +4102,10 @@
         <v>7</v>
       </c>
       <c r="B338">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C338" s="2">
-        <v>1252.805053710938</v>
+        <v>64.13300323486328</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4113,10 +4113,10 @@
         <v>7</v>
       </c>
       <c r="B339">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C339" s="2">
-        <v>1231.47998046875</v>
+        <v>114.9130020141602</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4124,10 +4124,10 @@
         <v>7</v>
       </c>
       <c r="B340">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C340" s="2">
-        <v>1263.663940429688</v>
+        <v>96.68900299072266</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4135,10 +4135,10 @@
         <v>7</v>
       </c>
       <c r="B341">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C341" s="2">
-        <v>1567.859008789062</v>
+        <v>99.27999877929688</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4146,10 +4146,10 @@
         <v>7</v>
       </c>
       <c r="B342">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C342" s="2">
-        <v>1607.987060546875</v>
+        <v>61.03300094604492</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4157,10 +4157,10 @@
         <v>7</v>
       </c>
       <c r="B343">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C343" s="2">
-        <v>1720.774047851562</v>
+        <v>74.01799774169922</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4168,10 +4168,10 @@
         <v>7</v>
       </c>
       <c r="B344">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C344" s="2">
-        <v>1783.196044921875</v>
+        <v>80.19000244140625</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4179,10 +4179,10 @@
         <v>7</v>
       </c>
       <c r="B345">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C345" s="2">
-        <v>1656.43603515625</v>
+        <v>81.26200103759766</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4190,10 +4190,10 @@
         <v>7</v>
       </c>
       <c r="B346">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C346" s="2">
-        <v>1640.448974609375</v>
+        <v>101.7310028076172</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -4201,10 +4201,10 @@
         <v>7</v>
       </c>
       <c r="B347">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C347" s="2">
-        <v>1649.368041992188</v>
+        <v>94.76300048828125</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4212,10 +4212,10 @@
         <v>7</v>
       </c>
       <c r="B348">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C348" s="2">
-        <v>1593.4599609375</v>
+        <v>92.10299682617188</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -4223,10 +4223,10 @@
         <v>7</v>
       </c>
       <c r="B349">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C349" s="2">
-        <v>1651.259033203125</v>
+        <v>108.7099990844727</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4234,10 +4234,10 @@
         <v>7</v>
       </c>
       <c r="B350">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C350" s="2">
-        <v>1428.870971679688</v>
+        <v>106.5479965209961</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -4245,10 +4245,10 @@
         <v>7</v>
       </c>
       <c r="B351">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C351" s="2">
-        <v>1207.134033203125</v>
+        <v>100.8880004882812</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4256,10 +4256,10 @@
         <v>7</v>
       </c>
       <c r="B352">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C352" s="2">
-        <v>1179.262939453125</v>
+        <v>127.5970001220703</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4267,10 +4267,10 @@
         <v>7</v>
       </c>
       <c r="B353">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C353" s="2">
-        <v>1488.504028320312</v>
+        <v>128.8829956054688</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4278,10 +4278,10 @@
         <v>7</v>
       </c>
       <c r="B354">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C354" s="2">
-        <v>1725.77294921875</v>
+        <v>132.9720001220703</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4289,10 +4289,10 @@
         <v>7</v>
       </c>
       <c r="B355">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C355" s="2">
-        <v>1721.453002929688</v>
+        <v>107.4309997558594</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4300,10 +4300,10 @@
         <v>7</v>
       </c>
       <c r="B356">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C356" s="2">
-        <v>1803.379028320312</v>
+        <v>156.2489929199219</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -4311,10 +4311,10 @@
         <v>7</v>
       </c>
       <c r="B357">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C357" s="2">
-        <v>1770.41796875</v>
+        <v>156.5480041503906</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -4322,10 +4322,10 @@
         <v>7</v>
       </c>
       <c r="B358">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C358" s="2">
-        <v>1909.1650390625</v>
+        <v>161.5359954833984</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4333,10 +4333,10 @@
         <v>7</v>
       </c>
       <c r="B359">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C359" s="2">
-        <v>2061.636962890625</v>
+        <v>184.9040069580078</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4344,10 +4344,10 @@
         <v>7</v>
       </c>
       <c r="B360">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C360" s="2">
-        <v>2083.904052734375</v>
+        <v>195.4210052490234</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4355,10 +4355,10 @@
         <v>7</v>
       </c>
       <c r="B361">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C361" s="2">
-        <v>2086.822998046875</v>
+        <v>223.7830047607422</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4366,10 +4366,10 @@
         <v>7</v>
       </c>
       <c r="B362">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C362" s="2">
-        <v>2142.635986328125</v>
+        <v>265.6109924316406</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4377,10 +4377,10 @@
         <v>7</v>
       </c>
       <c r="B363">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C363" s="2">
-        <v>2262.259033203125</v>
+        <v>254.4720001220703</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4388,10 +4388,10 @@
         <v>7</v>
       </c>
       <c r="B364">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C364" s="2">
-        <v>2275.969970703125</v>
+        <v>219.2599945068359</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4399,10 +4399,10 @@
         <v>7</v>
       </c>
       <c r="B365">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C365" s="2">
-        <v>2308.287109375</v>
+        <v>247.6970062255859</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4410,10 +4410,10 @@
         <v>7</v>
       </c>
       <c r="B366">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C366" s="2">
-        <v>2307.615966796875</v>
+        <v>172.8919982910156</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -4421,10 +4421,10 @@
         <v>7</v>
       </c>
       <c r="B367">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C367" s="2">
-        <v>2301.113037109375</v>
+        <v>166.8200073242188</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -4432,10 +4432,10 @@
         <v>7</v>
       </c>
       <c r="B368">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C368" s="2">
-        <v>2309.471923828125</v>
+        <v>176.2669982910156</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4443,10 +4443,10 @@
         <v>7</v>
       </c>
       <c r="B369">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C369" s="2">
-        <v>2409.508056640625</v>
+        <v>184.9589996337891</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -4454,10 +4454,10 @@
         <v>7</v>
       </c>
       <c r="B370">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C370" s="2">
-        <v>2418.787109375</v>
+        <v>212.1690063476562</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -4465,10 +4465,10 @@
         <v>7</v>
       </c>
       <c r="B371">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C371" s="2">
-        <v>2406.388916015625</v>
+        <v>240.0249938964844</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -4476,10 +4476,10 @@
         <v>7</v>
       </c>
       <c r="B372">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C372" s="2">
-        <v>2438.1240234375</v>
+        <v>158.7689971923828</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -4487,10 +4487,10 @@
         <v>7</v>
       </c>
       <c r="B373">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C373" s="2">
-        <v>2513.4970703125</v>
+        <v>166.447998046875</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4498,10 +4498,10 @@
         <v>7</v>
       </c>
       <c r="B374">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C374" s="2">
-        <v>2595.0390625</v>
+        <v>152.2350006103516</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4509,10 +4509,10 @@
         <v>7</v>
       </c>
       <c r="B375">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C375" s="2">
-        <v>2593.258056640625</v>
+        <v>92.93800354003906</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4520,10 +4520,10 @@
         <v>7</v>
       </c>
       <c r="B376">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C376" s="2">
-        <v>2615.56591796875</v>
+        <v>59.0880012512207</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -4531,10 +4531,10 @@
         <v>7</v>
       </c>
       <c r="B377">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C377" s="2">
-        <v>2610.7451171875</v>
+        <v>22.1879997253418</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -4542,10 +4542,10 @@
         <v>7</v>
       </c>
       <c r="B378">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C378" s="2">
-        <v>2656.8701171875</v>
+        <v>28.54599952697754</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -4553,10 +4553,10 @@
         <v>7</v>
       </c>
       <c r="B379">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C379" s="2">
-        <v>2714.868896484375</v>
+        <v>-3.736999988555908</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -4564,10 +4564,10 @@
         <v>7</v>
       </c>
       <c r="B380">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C380" s="2">
-        <v>2698.43505859375</v>
+        <v>-61.96500015258789</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4575,10 +4575,10 @@
         <v>7</v>
       </c>
       <c r="B381">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C381" s="2">
-        <v>2683.763916015625</v>
+        <v>-28.68499946594238</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4586,10 +4586,10 @@
         <v>7</v>
       </c>
       <c r="B382">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C382" s="2">
-        <v>2704.528076171875</v>
+        <v>-56.35300064086914</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4597,10 +4597,10 @@
         <v>7</v>
       </c>
       <c r="B383">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C383" s="2">
-        <v>2618.216064453125</v>
+        <v>-43.53900146484375</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4608,10 +4608,10 @@
         <v>7</v>
       </c>
       <c r="B384">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C384" s="2">
-        <v>2608.759033203125</v>
+        <v>-8.088000297546387</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -4619,10 +4619,10 @@
         <v>7</v>
       </c>
       <c r="B385">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C385" s="2">
-        <v>2601.760009765625</v>
+        <v>-17.48100090026855</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -4630,10 +4630,10 @@
         <v>7</v>
       </c>
       <c r="B386">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C386" s="2">
-        <v>2609.85400390625</v>
+        <v>-41.64099884033203</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -4641,10 +4641,10 @@
         <v>7</v>
       </c>
       <c r="B387">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C387" s="2">
-        <v>2573.81005859375</v>
+        <v>-46.07799911499023</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -4652,10 +4652,10 @@
         <v>7</v>
       </c>
       <c r="B388">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C388" s="2">
-        <v>2595.882080078125</v>
+        <v>-50.49499893188477</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4663,10 +4663,10 @@
         <v>7</v>
       </c>
       <c r="B389">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C389" s="2">
-        <v>2559.381103515625</v>
+        <v>-71.49900054931641</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -4674,10 +4674,10 @@
         <v>7</v>
       </c>
       <c r="B390">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C390" s="2">
-        <v>2561.10693359375</v>
+        <v>-66.80799865722656</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -4685,10 +4685,10 @@
         <v>7</v>
       </c>
       <c r="B391">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C391" s="2">
-        <v>2577.465087890625</v>
+        <v>-68.11699676513672</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4696,10 +4696,10 @@
         <v>7</v>
       </c>
       <c r="B392">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C392" s="2">
-        <v>2601.431884765625</v>
+        <v>-55.93500137329102</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -4707,10 +4707,10 @@
         <v>7</v>
       </c>
       <c r="B393">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C393" s="2">
-        <v>2549.409912109375</v>
+        <v>-83.16400146484375</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -4718,10 +4718,10 @@
         <v>7</v>
       </c>
       <c r="B394">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C394" s="2">
-        <v>2516.696044921875</v>
+        <v>16.61800003051758</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -4729,10 +4729,10 @@
         <v>7</v>
       </c>
       <c r="B395">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C395" s="2">
-        <v>2403.9130859375</v>
+        <v>62.70999908447266</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -4740,10 +4740,10 @@
         <v>7</v>
       </c>
       <c r="B396">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C396" s="2">
-        <v>2376.10302734375</v>
+        <v>72.06099700927734</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -4751,10 +4751,10 @@
         <v>7</v>
       </c>
       <c r="B397">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C397" s="2">
-        <v>2125.655029296875</v>
+        <v>116.9010009765625</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -4762,10 +4762,10 @@
         <v>7</v>
       </c>
       <c r="B398">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C398" s="2">
-        <v>2024.760986328125</v>
+        <v>141.0619964599609</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -4773,10 +4773,10 @@
         <v>7</v>
       </c>
       <c r="B399">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C399" s="2">
-        <v>1774.998046875</v>
+        <v>180.2799987792969</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -4784,10 +4784,10 @@
         <v>7</v>
       </c>
       <c r="B400">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C400" s="2">
-        <v>1445.754028320312</v>
+        <v>342.1489868164062</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -4795,10 +4795,10 @@
         <v>7</v>
       </c>
       <c r="B401">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C401" s="2">
-        <v>1384.31396484375</v>
+        <v>371.4509887695312</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -4806,10 +4806,10 @@
         <v>7</v>
       </c>
       <c r="B402">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C402" s="2">
-        <v>1418.760986328125</v>
+        <v>480.9259948730469</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -4817,10 +4817,10 @@
         <v>7</v>
       </c>
       <c r="B403">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C403" s="2">
-        <v>1712.469970703125</v>
+        <v>501.9719848632812</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -4828,10 +4828,10 @@
         <v>7</v>
       </c>
       <c r="B404">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C404" s="2">
-        <v>1776.182006835938</v>
+        <v>434.0190124511719</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -4839,10 +4839,10 @@
         <v>7</v>
       </c>
       <c r="B405">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C405" s="2">
-        <v>1765.338012695312</v>
+        <v>323.3940124511719</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -4850,10 +4850,10 @@
         <v>7</v>
       </c>
       <c r="B406">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C406" s="2">
-        <v>1851.389038085938</v>
+        <v>321.9410095214844</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -4861,10 +4861,10 @@
         <v>7</v>
       </c>
       <c r="B407">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C407" s="2">
-        <v>1994.579956054688</v>
+        <v>368.10400390625</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -4872,10 +4872,10 @@
         <v>7</v>
       </c>
       <c r="B408">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C408" s="2">
-        <v>1915.442016601562</v>
+        <v>379.0020141601562</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -4883,10 +4883,10 @@
         <v>7</v>
       </c>
       <c r="B409">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C409" s="2">
-        <v>1702.968994140625</v>
+        <v>328.9440002441406</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -4894,10 +4894,10 @@
         <v>7</v>
       </c>
       <c r="B410">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C410" s="2">
-        <v>1530.178955078125</v>
+        <v>352.2340087890625</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -4905,10 +4905,10 @@
         <v>7</v>
       </c>
       <c r="B411">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C411" s="2">
-        <v>1341.89404296875</v>
+        <v>346.3890075683594</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -4916,10 +4916,10 @@
         <v>7</v>
       </c>
       <c r="B412">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C412" s="2">
-        <v>1045.969970703125</v>
+        <v>289.9230041503906</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -4927,10 +4927,10 @@
         <v>7</v>
       </c>
       <c r="B413">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C413" s="2">
-        <v>911.2509765625</v>
+        <v>167.6349945068359</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -4938,10 +4938,10 @@
         <v>7</v>
       </c>
       <c r="B414">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C414" s="2">
-        <v>750.0919799804688</v>
+        <v>144.0469970703125</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -4949,10 +4949,10 @@
         <v>7</v>
       </c>
       <c r="B415">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C415" s="2">
-        <v>497.6510009765625</v>
+        <v>141.1369934082031</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -4960,10 +4960,10 @@
         <v>7</v>
       </c>
       <c r="B416">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C416" s="2">
-        <v>400.5979919433594</v>
+        <v>102.5189971923828</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -4971,10 +4971,10 @@
         <v>7</v>
       </c>
       <c r="B417">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C417" s="2">
-        <v>279.989990234375</v>
+        <v>120.6620025634766</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -4982,142 +4982,142 @@
         <v>7</v>
       </c>
       <c r="B418">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C418" s="2">
-        <v>296.4830017089844</v>
+        <v>92.61299896240234</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B419">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="C419" s="2">
-        <v>207.9830017089844</v>
+        <v>135.5149993896484</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B420">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="C420" s="2">
-        <v>198.1309967041016</v>
+        <v>117.0169982910156</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B421">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="C421" s="2">
-        <v>146.3480072021484</v>
+        <v>140.1679992675781</v>
       </c>
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B422">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="C422" s="2">
-        <v>82.88700103759766</v>
+        <v>174.4739990234375</v>
       </c>
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B423">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="C423" s="2">
-        <v>262.8219909667969</v>
+        <v>93.87100219726562</v>
       </c>
     </row>
     <row r="424" spans="1:3">
       <c r="A424" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B424">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C424" s="2">
-        <v>273.6929931640625</v>
+        <v>66.79000091552734</v>
       </c>
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B425">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="C425" s="2">
-        <v>269.5559997558594</v>
+        <v>78.71399688720703</v>
       </c>
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B426">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="C426" s="2">
-        <v>200.2779998779297</v>
+        <v>76.92299652099609</v>
       </c>
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B427">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="C427" s="2">
-        <v>273.9119873046875</v>
+        <v>50.20600128173828</v>
       </c>
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B428">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="C428" s="2">
-        <v>244.2250061035156</v>
+        <v>-11.40100002288818</v>
       </c>
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B429">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="C429" s="2">
-        <v>185.5379943847656</v>
+        <v>197.4190063476562</v>
       </c>
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B430">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="C430" s="2">
-        <v>192.22900390625</v>
+        <v>45.04700088500977</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -5125,10 +5125,10 @@
         <v>8</v>
       </c>
       <c r="B431">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C431" s="2">
-        <v>287.2430114746094</v>
+        <v>170.4920043945312</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -5136,10 +5136,10 @@
         <v>8</v>
       </c>
       <c r="B432">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C432" s="2">
-        <v>185.7619934082031</v>
+        <v>119.3720016479492</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -5147,10 +5147,10 @@
         <v>8</v>
       </c>
       <c r="B433">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C433" s="2">
-        <v>241.9680023193359</v>
+        <v>212.2660064697266</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -5158,10 +5158,10 @@
         <v>8</v>
       </c>
       <c r="B434">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C434" s="2">
-        <v>262.8900146484375</v>
+        <v>180.8150024414062</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -5169,10 +5169,10 @@
         <v>8</v>
       </c>
       <c r="B435">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C435" s="2">
-        <v>348.0660095214844</v>
+        <v>208.7169952392578</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -5180,10 +5180,10 @@
         <v>8</v>
       </c>
       <c r="B436">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C436" s="2">
-        <v>273.2650146484375</v>
+        <v>117.3099975585938</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -5191,10 +5191,10 @@
         <v>8</v>
       </c>
       <c r="B437">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C437" s="2">
-        <v>304.2139892578125</v>
+        <v>184.968994140625</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -5202,10 +5202,10 @@
         <v>8</v>
       </c>
       <c r="B438">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C438" s="2">
-        <v>276.0360107421875</v>
+        <v>164.375</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -5213,10 +5213,10 @@
         <v>8</v>
       </c>
       <c r="B439">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C439" s="2">
-        <v>293.1889953613281</v>
+        <v>131.5970001220703</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -5224,10 +5224,10 @@
         <v>8</v>
       </c>
       <c r="B440">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C440" s="2">
-        <v>282.4100036621094</v>
+        <v>183.0670013427734</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -5235,10 +5235,10 @@
         <v>8</v>
       </c>
       <c r="B441">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C441" s="2">
-        <v>284.6570129394531</v>
+        <v>164.2109985351562</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -5246,10 +5246,10 @@
         <v>8</v>
       </c>
       <c r="B442">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C442" s="2">
-        <v>313.5490112304688</v>
+        <v>164.4340057373047</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -5257,10 +5257,10 @@
         <v>8</v>
       </c>
       <c r="B443">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C443" s="2">
-        <v>270.0020141601562</v>
+        <v>187.1809997558594</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -5268,10 +5268,10 @@
         <v>8</v>
       </c>
       <c r="B444">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C444" s="2">
-        <v>243.3939971923828</v>
+        <v>266.010986328125</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -5279,10 +5279,10 @@
         <v>8</v>
       </c>
       <c r="B445">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C445" s="2">
-        <v>267.7879943847656</v>
+        <v>38.5369987487793</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -5290,10 +5290,10 @@
         <v>8</v>
       </c>
       <c r="B446">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C446" s="2">
-        <v>313.114990234375</v>
+        <v>119.0410003662109</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -5301,10 +5301,10 @@
         <v>8</v>
       </c>
       <c r="B447">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C447" s="2">
-        <v>285.5790100097656</v>
+        <v>113.5709991455078</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -5312,10 +5312,10 @@
         <v>8</v>
       </c>
       <c r="B448">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C448" s="2">
-        <v>498.9349975585938</v>
+        <v>77.60900115966797</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -5323,10 +5323,10 @@
         <v>8</v>
       </c>
       <c r="B449">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C449" s="2">
-        <v>729.8319702148438</v>
+        <v>88.052001953125</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -5334,10 +5334,10 @@
         <v>8</v>
       </c>
       <c r="B450">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C450" s="2">
-        <v>924.2109985351562</v>
+        <v>205.2850036621094</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -5345,10 +5345,10 @@
         <v>8</v>
       </c>
       <c r="B451">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C451" s="2">
-        <v>740.85400390625</v>
+        <v>98.83300018310547</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -5356,10 +5356,10 @@
         <v>8</v>
       </c>
       <c r="B452">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C452" s="2">
-        <v>711.3839721679688</v>
+        <v>53.83000183105469</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -5367,10 +5367,10 @@
         <v>8</v>
       </c>
       <c r="B453">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C453" s="2">
-        <v>619.4660034179688</v>
+        <v>63.99300003051758</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -5378,10 +5378,10 @@
         <v>8</v>
       </c>
       <c r="B454">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C454" s="2">
-        <v>560.2410278320312</v>
+        <v>97.57700347900391</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -5389,10 +5389,10 @@
         <v>8</v>
       </c>
       <c r="B455">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C455" s="2">
-        <v>646.1799926757812</v>
+        <v>106.4789962768555</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -5400,10 +5400,10 @@
         <v>8</v>
       </c>
       <c r="B456">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C456" s="2">
-        <v>754.7780151367188</v>
+        <v>125.7620010375977</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -5411,10 +5411,10 @@
         <v>8</v>
       </c>
       <c r="B457">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C457" s="2">
-        <v>749.5919799804688</v>
+        <v>139.0890045166016</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -5422,10 +5422,10 @@
         <v>8</v>
       </c>
       <c r="B458">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C458" s="2">
-        <v>1068.765991210938</v>
+        <v>106.2249984741211</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -5433,10 +5433,10 @@
         <v>8</v>
       </c>
       <c r="B459">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C459" s="2">
-        <v>1138.923950195312</v>
+        <v>54.73699951171875</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -5444,10 +5444,10 @@
         <v>8</v>
       </c>
       <c r="B460">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C460" s="2">
-        <v>1249.16796875</v>
+        <v>71.2969970703125</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -5455,10 +5455,10 @@
         <v>8</v>
       </c>
       <c r="B461">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C461" s="2">
-        <v>1309.574951171875</v>
+        <v>87.60299682617188</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -5466,10 +5466,10 @@
         <v>8</v>
       </c>
       <c r="B462">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C462" s="2">
-        <v>1341.119995117188</v>
+        <v>142.0090026855469</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -5477,10 +5477,10 @@
         <v>8</v>
       </c>
       <c r="B463">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C463" s="2">
-        <v>1284.505981445312</v>
+        <v>77.12999725341797</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -5488,10 +5488,10 @@
         <v>8</v>
       </c>
       <c r="B464">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C464" s="2">
-        <v>1322.18603515625</v>
+        <v>93.7030029296875</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -5499,10 +5499,10 @@
         <v>8</v>
       </c>
       <c r="B465">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C465" s="2">
-        <v>1364.555053710938</v>
+        <v>111.1080017089844</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -5510,10 +5510,10 @@
         <v>8</v>
       </c>
       <c r="B466">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C466" s="2">
-        <v>1354.2919921875</v>
+        <v>120.7190017700195</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -5521,10 +5521,10 @@
         <v>8</v>
       </c>
       <c r="B467">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C467" s="2">
-        <v>1386.68994140625</v>
+        <v>129.8730010986328</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -5532,10 +5532,10 @@
         <v>8</v>
       </c>
       <c r="B468">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C468" s="2">
-        <v>1559.85498046875</v>
+        <v>82.05400085449219</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -5543,10 +5543,10 @@
         <v>8</v>
       </c>
       <c r="B469">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C469" s="2">
-        <v>1596.276977539062</v>
+        <v>86.61499786376953</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -5554,10 +5554,10 @@
         <v>8</v>
       </c>
       <c r="B470">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C470" s="2">
-        <v>1739.366943359375</v>
+        <v>84.55599975585938</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -5565,10 +5565,10 @@
         <v>8</v>
       </c>
       <c r="B471">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C471" s="2">
-        <v>1796.6650390625</v>
+        <v>168.7180023193359</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -5576,10 +5576,10 @@
         <v>8</v>
       </c>
       <c r="B472">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C472" s="2">
-        <v>1840.31005859375</v>
+        <v>206.1759948730469</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -5587,10 +5587,10 @@
         <v>8</v>
       </c>
       <c r="B473">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C473" s="2">
-        <v>1801.261962890625</v>
+        <v>227.8459930419922</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -5598,10 +5598,10 @@
         <v>8</v>
       </c>
       <c r="B474">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C474" s="2">
-        <v>1684.869995117188</v>
+        <v>247.4029998779297</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -5609,10 +5609,10 @@
         <v>8</v>
       </c>
       <c r="B475">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C475" s="2">
-        <v>1591.889038085938</v>
+        <v>225.4929962158203</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -5620,10 +5620,10 @@
         <v>8</v>
       </c>
       <c r="B476">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C476" s="2">
-        <v>1562.510009765625</v>
+        <v>135.8760070800781</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -5631,10 +5631,10 @@
         <v>8</v>
       </c>
       <c r="B477">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C477" s="2">
-        <v>1530.27099609375</v>
+        <v>166.0820007324219</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -5642,10 +5642,10 @@
         <v>8</v>
       </c>
       <c r="B478">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C478" s="2">
-        <v>1399.829956054688</v>
+        <v>139.3379974365234</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -5653,10 +5653,10 @@
         <v>8</v>
       </c>
       <c r="B479">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C479" s="2">
-        <v>1240.43896484375</v>
+        <v>167.2899932861328</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -5664,10 +5664,10 @@
         <v>8</v>
       </c>
       <c r="B480">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C480" s="2">
-        <v>1246.001953125</v>
+        <v>188.3820037841797</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -5675,10 +5675,10 @@
         <v>8</v>
       </c>
       <c r="B481">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C481" s="2">
-        <v>1406.656005859375</v>
+        <v>129.0359954833984</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -5686,10 +5686,10 @@
         <v>8</v>
       </c>
       <c r="B482">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C482" s="2">
-        <v>1431.5009765625</v>
+        <v>125.0930023193359</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -5697,10 +5697,10 @@
         <v>8</v>
       </c>
       <c r="B483">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C483" s="2">
-        <v>1387.722045898438</v>
+        <v>221.3910064697266</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -5708,10 +5708,10 @@
         <v>8</v>
       </c>
       <c r="B484">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C484" s="2">
-        <v>1340.305053710938</v>
+        <v>225.7389984130859</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -5719,10 +5719,10 @@
         <v>8</v>
       </c>
       <c r="B485">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C485" s="2">
-        <v>1301.93994140625</v>
+        <v>199.7669982910156</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -5730,10 +5730,10 @@
         <v>8</v>
       </c>
       <c r="B486">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C486" s="2">
-        <v>1191.511962890625</v>
+        <v>198.8569946289062</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -5741,10 +5741,10 @@
         <v>8</v>
       </c>
       <c r="B487">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C487" s="2">
-        <v>1054.774047851562</v>
+        <v>215.3489990234375</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -5752,10 +5752,10 @@
         <v>8</v>
       </c>
       <c r="B488">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C488" s="2">
-        <v>1049.579956054688</v>
+        <v>243.3760070800781</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -5763,10 +5763,10 @@
         <v>8</v>
       </c>
       <c r="B489">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C489" s="2">
-        <v>1036.369995117188</v>
+        <v>242.1410064697266</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -5774,10 +5774,10 @@
         <v>8</v>
       </c>
       <c r="B490">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C490" s="2">
-        <v>1001.919982910156</v>
+        <v>166.1809997558594</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -5785,10 +5785,10 @@
         <v>8</v>
       </c>
       <c r="B491">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C491" s="2">
-        <v>973.2139892578125</v>
+        <v>267.4089965820312</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -5796,10 +5796,10 @@
         <v>8</v>
       </c>
       <c r="B492">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C492" s="2">
-        <v>869.7899780273438</v>
+        <v>256.5580139160156</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -5807,10 +5807,10 @@
         <v>8</v>
       </c>
       <c r="B493">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C493" s="2">
-        <v>940.1500244140625</v>
+        <v>285.2640075683594</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -5818,10 +5818,10 @@
         <v>8</v>
       </c>
       <c r="B494">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C494" s="2">
-        <v>1020.375</v>
+        <v>343.364990234375</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -5829,10 +5829,10 @@
         <v>8</v>
       </c>
       <c r="B495">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C495" s="2">
-        <v>894.14599609375</v>
+        <v>392.2160034179688</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -5840,10 +5840,10 @@
         <v>8</v>
       </c>
       <c r="B496">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C496" s="2">
-        <v>943.7780151367188</v>
+        <v>398.9700012207031</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -5851,10 +5851,10 @@
         <v>8</v>
       </c>
       <c r="B497">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C497" s="2">
-        <v>992.8989868164062</v>
+        <v>372.0429992675781</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -5862,10 +5862,10 @@
         <v>8</v>
       </c>
       <c r="B498">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C498" s="2">
-        <v>1019.004028320312</v>
+        <v>411.4460144042969</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -5873,10 +5873,10 @@
         <v>8</v>
       </c>
       <c r="B499">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C499" s="2">
-        <v>968.8319702148438</v>
+        <v>451.510986328125</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -5884,10 +5884,10 @@
         <v>8</v>
       </c>
       <c r="B500">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C500" s="2">
-        <v>929.0709838867188</v>
+        <v>530.8930053710938</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -5895,10 +5895,10 @@
         <v>8</v>
       </c>
       <c r="B501">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C501" s="2">
-        <v>900.843017578125</v>
+        <v>547.0599975585938</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -5906,10 +5906,10 @@
         <v>8</v>
       </c>
       <c r="B502">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C502" s="2">
-        <v>949.7059936523438</v>
+        <v>642.3460083007812</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -5917,10 +5917,10 @@
         <v>8</v>
       </c>
       <c r="B503">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C503" s="2">
-        <v>1015.495971679688</v>
+        <v>693.0120239257812</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -5928,10 +5928,10 @@
         <v>8</v>
       </c>
       <c r="B504">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C504" s="2">
-        <v>997.1309814453125</v>
+        <v>629.3179931640625</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -5939,10 +5939,10 @@
         <v>8</v>
       </c>
       <c r="B505">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C505" s="2">
-        <v>949.6589965820312</v>
+        <v>773.2890014648438</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -5950,10 +5950,10 @@
         <v>8</v>
       </c>
       <c r="B506">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C506" s="2">
-        <v>1000.411987304688</v>
+        <v>823.8350219726562</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -5961,10 +5961,10 @@
         <v>8</v>
       </c>
       <c r="B507">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C507" s="2">
-        <v>988.4249877929688</v>
+        <v>833.9970092773438</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -5972,10 +5972,10 @@
         <v>8</v>
       </c>
       <c r="B508">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C508" s="2">
-        <v>1016.193969726562</v>
+        <v>750.6279907226562</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -5983,10 +5983,10 @@
         <v>8</v>
       </c>
       <c r="B509">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C509" s="2">
-        <v>993.5399780273438</v>
+        <v>614.7550048828125</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -5994,10 +5994,10 @@
         <v>8</v>
       </c>
       <c r="B510">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C510" s="2">
-        <v>927.9329833984375</v>
+        <v>505.802001953125</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -6005,10 +6005,10 @@
         <v>8</v>
       </c>
       <c r="B511">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C511" s="2">
-        <v>903.9719848632812</v>
+        <v>548.594970703125</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -6016,10 +6016,10 @@
         <v>8</v>
       </c>
       <c r="B512">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C512" s="2">
-        <v>803.75</v>
+        <v>425.9330139160156</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -6027,10 +6027,10 @@
         <v>8</v>
       </c>
       <c r="B513">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C513" s="2">
-        <v>819.2160034179688</v>
+        <v>354.9140014648438</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -6038,142 +6038,142 @@
         <v>8</v>
       </c>
       <c r="B514">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C514" s="2">
-        <v>721.3720092773438</v>
+        <v>310.7999877929688</v>
       </c>
     </row>
     <row r="515" spans="1:3">
       <c r="A515" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B515">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="C515" s="2">
-        <v>628.3410034179688</v>
+        <v>185.7489929199219</v>
       </c>
     </row>
     <row r="516" spans="1:3">
       <c r="A516" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B516">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="C516" s="2">
-        <v>626.7949829101562</v>
+        <v>241.0599975585938</v>
       </c>
     </row>
     <row r="517" spans="1:3">
       <c r="A517" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B517">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="C517" s="2">
-        <v>469.7409973144531</v>
+        <v>194.6210021972656</v>
       </c>
     </row>
     <row r="518" spans="1:3">
       <c r="A518" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B518">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="C518" s="2">
-        <v>326.7999877929688</v>
+        <v>158.1779937744141</v>
       </c>
     </row>
     <row r="519" spans="1:3">
       <c r="A519" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B519">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="C519" s="2">
-        <v>342.9190063476562</v>
+        <v>181.7050018310547</v>
       </c>
     </row>
     <row r="520" spans="1:3">
       <c r="A520" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B520">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C520" s="2">
-        <v>286.4219970703125</v>
+        <v>170.802001953125</v>
       </c>
     </row>
     <row r="521" spans="1:3">
       <c r="A521" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B521">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="C521" s="2">
-        <v>236.3760070800781</v>
+        <v>135.0970001220703</v>
       </c>
     </row>
     <row r="522" spans="1:3">
       <c r="A522" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B522">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="C522" s="2">
-        <v>208.1100006103516</v>
+        <v>134.1869964599609</v>
       </c>
     </row>
     <row r="523" spans="1:3">
       <c r="A523" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B523">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="C523" s="2">
-        <v>196.4109954833984</v>
+        <v>86.41600036621094</v>
       </c>
     </row>
     <row r="524" spans="1:3">
       <c r="A524" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B524">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="C524" s="2">
-        <v>212.0449981689453</v>
+        <v>76.40399932861328</v>
       </c>
     </row>
     <row r="525" spans="1:3">
       <c r="A525" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B525">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="C525" s="2">
-        <v>214.9669952392578</v>
+        <v>73.62899780273438</v>
       </c>
     </row>
     <row r="526" spans="1:3">
       <c r="A526" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B526">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="C526" s="2">
-        <v>240.2819976806641</v>
+        <v>81.00700378417969</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -6181,10 +6181,10 @@
         <v>9</v>
       </c>
       <c r="B527">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C527" s="2">
-        <v>222.1210021972656</v>
+        <v>223.7230072021484</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -6192,10 +6192,10 @@
         <v>9</v>
       </c>
       <c r="B528">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C528" s="2">
-        <v>227.7030029296875</v>
+        <v>230.3939971923828</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -6203,10 +6203,10 @@
         <v>9</v>
       </c>
       <c r="B529">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C529" s="2">
-        <v>205.9799957275391</v>
+        <v>234.2330017089844</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -6214,10 +6214,10 @@
         <v>9</v>
       </c>
       <c r="B530">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C530" s="2">
-        <v>207.8529968261719</v>
+        <v>263.9809875488281</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -6225,10 +6225,10 @@
         <v>9</v>
       </c>
       <c r="B531">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C531" s="2">
-        <v>223.6190032958984</v>
+        <v>306.5969848632812</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -6236,10 +6236,10 @@
         <v>9</v>
       </c>
       <c r="B532">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C532" s="2">
-        <v>199.0050048828125</v>
+        <v>289.9599914550781</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -6247,10 +6247,10 @@
         <v>9</v>
       </c>
       <c r="B533">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C533" s="2">
-        <v>251.8760070800781</v>
+        <v>318.0440063476562</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -6258,10 +6258,10 @@
         <v>9</v>
       </c>
       <c r="B534">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C534" s="2">
-        <v>234.1109924316406</v>
+        <v>183.25</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -6269,10 +6269,10 @@
         <v>9</v>
       </c>
       <c r="B535">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C535" s="2">
-        <v>307.9660034179688</v>
+        <v>212.3939971923828</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -6280,10 +6280,10 @@
         <v>9</v>
       </c>
       <c r="B536">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C536" s="2">
-        <v>340.5459899902344</v>
+        <v>223.9799957275391</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -6291,10 +6291,10 @@
         <v>9</v>
       </c>
       <c r="B537">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C537" s="2">
-        <v>377.677001953125</v>
+        <v>202.6569976806641</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -6302,10 +6302,10 @@
         <v>9</v>
       </c>
       <c r="B538">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C538" s="2">
-        <v>449.5599975585938</v>
+        <v>222.1889953613281</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -6313,10 +6313,10 @@
         <v>9</v>
       </c>
       <c r="B539">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C539" s="2">
-        <v>434.56201171875</v>
+        <v>231.3099975585938</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -6324,10 +6324,10 @@
         <v>9</v>
       </c>
       <c r="B540">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C540" s="2">
-        <v>326.2219848632812</v>
+        <v>231.3370056152344</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -6335,10 +6335,10 @@
         <v>9</v>
       </c>
       <c r="B541">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C541" s="2">
-        <v>328.1449890136719</v>
+        <v>212.4290008544922</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -6346,10 +6346,10 @@
         <v>9</v>
       </c>
       <c r="B542">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C542" s="2">
-        <v>345.5780029296875</v>
+        <v>215.1069946289062</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -6357,10 +6357,10 @@
         <v>9</v>
       </c>
       <c r="B543">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C543" s="2">
-        <v>333.2139892578125</v>
+        <v>229.906005859375</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -6368,10 +6368,10 @@
         <v>9</v>
       </c>
       <c r="B544">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C544" s="2">
-        <v>337.3519897460938</v>
+        <v>212.4100036621094</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -6379,10 +6379,10 @@
         <v>9</v>
       </c>
       <c r="B545">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C545" s="2">
-        <v>351.3039855957031</v>
+        <v>209.6990051269531</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -6390,10 +6390,10 @@
         <v>9</v>
       </c>
       <c r="B546">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C546" s="2">
-        <v>330.7820129394531</v>
+        <v>244.1419982910156</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -6401,10 +6401,10 @@
         <v>9</v>
       </c>
       <c r="B547">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C547" s="2">
-        <v>355.1570129394531</v>
+        <v>225.9629974365234</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -6412,10 +6412,10 @@
         <v>9</v>
       </c>
       <c r="B548">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C548" s="2">
-        <v>337.06201171875</v>
+        <v>231.4239959716797</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -6423,10 +6423,10 @@
         <v>9</v>
       </c>
       <c r="B549">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C549" s="2">
-        <v>313.3389892578125</v>
+        <v>239.1289978027344</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -6434,10 +6434,10 @@
         <v>9</v>
       </c>
       <c r="B550">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C550" s="2">
-        <v>425.9880065917969</v>
+        <v>289.8510131835938</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -6445,10 +6445,10 @@
         <v>9</v>
       </c>
       <c r="B551">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C551" s="2">
-        <v>446.6090087890625</v>
+        <v>285.6650085449219</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -6456,10 +6456,10 @@
         <v>9</v>
       </c>
       <c r="B552">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C552" s="2">
-        <v>506.7120056152344</v>
+        <v>269.9779968261719</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -6467,10 +6467,10 @@
         <v>9</v>
       </c>
       <c r="B553">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C553" s="2">
-        <v>477.6099853515625</v>
+        <v>251.2539978027344</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -6478,10 +6478,10 @@
         <v>9</v>
       </c>
       <c r="B554">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C554" s="2">
-        <v>536.8209838867188</v>
+        <v>259.0429992675781</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -6489,10 +6489,10 @@
         <v>9</v>
       </c>
       <c r="B555">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C555" s="2">
-        <v>494.9129943847656</v>
+        <v>294.0960083007812</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -6500,10 +6500,10 @@
         <v>9</v>
       </c>
       <c r="B556">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C556" s="2">
-        <v>571.7789916992188</v>
+        <v>400.7279968261719</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -6511,10 +6511,10 @@
         <v>9</v>
       </c>
       <c r="B557">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C557" s="2">
-        <v>730.8079833984375</v>
+        <v>485.8680114746094</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -6522,10 +6522,10 @@
         <v>9</v>
       </c>
       <c r="B558">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C558" s="2">
-        <v>909.7689819335938</v>
+        <v>649.8900146484375</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -6533,10 +6533,10 @@
         <v>9</v>
       </c>
       <c r="B559">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C559" s="2">
-        <v>818.0009765625</v>
+        <v>736.6640014648438</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -6544,10 +6544,10 @@
         <v>9</v>
       </c>
       <c r="B560">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C560" s="2">
-        <v>925.4920043945312</v>
+        <v>629.52001953125</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -6555,10 +6555,10 @@
         <v>9</v>
       </c>
       <c r="B561">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C561" s="2">
-        <v>1029.173950195312</v>
+        <v>643.5419921875</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -6566,10 +6566,10 @@
         <v>9</v>
       </c>
       <c r="B562">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C562" s="2">
-        <v>1084.568969726562</v>
+        <v>415.2210083007812</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -6577,10 +6577,10 @@
         <v>9</v>
       </c>
       <c r="B563">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C563" s="2">
-        <v>971.780029296875</v>
+        <v>551.6820068359375</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -6588,10 +6588,10 @@
         <v>9</v>
       </c>
       <c r="B564">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C564" s="2">
-        <v>868.4639892578125</v>
+        <v>509.4909973144531</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -6599,10 +6599,10 @@
         <v>9</v>
       </c>
       <c r="B565">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C565" s="2">
-        <v>936.156005859375</v>
+        <v>512.2069702148438</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -6610,10 +6610,10 @@
         <v>9</v>
       </c>
       <c r="B566">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C566" s="2">
-        <v>881.14501953125</v>
+        <v>655.4420166015625</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -6621,10 +6621,10 @@
         <v>9</v>
       </c>
       <c r="B567">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C567" s="2">
-        <v>748.6339721679688</v>
+        <v>1027.134033203125</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -6632,10 +6632,10 @@
         <v>9</v>
       </c>
       <c r="B568">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C568" s="2">
-        <v>758.0900268554688</v>
+        <v>1150.77001953125</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -6643,10 +6643,10 @@
         <v>9</v>
       </c>
       <c r="B569">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C569" s="2">
-        <v>773.2080078125</v>
+        <v>1167.989990234375</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -6654,10 +6654,10 @@
         <v>9</v>
       </c>
       <c r="B570">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C570" s="2">
-        <v>758.81298828125</v>
+        <v>1182.211059570312</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -6665,10 +6665,10 @@
         <v>9</v>
       </c>
       <c r="B571">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C571" s="2">
-        <v>732.6199951171875</v>
+        <v>1167.671020507812</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -6676,10 +6676,10 @@
         <v>9</v>
       </c>
       <c r="B572">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C572" s="2">
-        <v>537.77197265625</v>
+        <v>1256.994995117188</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -6687,10 +6687,10 @@
         <v>9</v>
       </c>
       <c r="B573">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C573" s="2">
-        <v>511.6799926757812</v>
+        <v>1160.963012695312</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -6698,10 +6698,10 @@
         <v>9</v>
       </c>
       <c r="B574">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C574" s="2">
-        <v>560.8690185546875</v>
+        <v>1093.870971679688</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -6709,10 +6709,10 @@
         <v>9</v>
       </c>
       <c r="B575">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C575" s="2">
-        <v>671.7020263671875</v>
+        <v>1053.212036132812</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -6720,10 +6720,10 @@
         <v>9</v>
       </c>
       <c r="B576">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C576" s="2">
-        <v>844.2680053710938</v>
+        <v>1062.347045898438</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -6731,10 +6731,10 @@
         <v>9</v>
       </c>
       <c r="B577">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C577" s="2">
-        <v>984.7919921875</v>
+        <v>1096.432006835938</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -6742,10 +6742,10 @@
         <v>9</v>
       </c>
       <c r="B578">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C578" s="2">
-        <v>1020.117004394531</v>
+        <v>1153.85400390625</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -6753,10 +6753,10 @@
         <v>9</v>
       </c>
       <c r="B579">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C579" s="2">
-        <v>1075.921020507812</v>
+        <v>1159.81494140625</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -6764,10 +6764,10 @@
         <v>9</v>
       </c>
       <c r="B580">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C580" s="2">
-        <v>963.0700073242188</v>
+        <v>1136.159057617188</v>
       </c>
     </row>
     <row r="581" spans="1:3">
@@ -6775,10 +6775,10 @@
         <v>9</v>
       </c>
       <c r="B581">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C581" s="2">
-        <v>866.375</v>
+        <v>1163.68896484375</v>
       </c>
     </row>
     <row r="582" spans="1:3">
@@ -6786,10 +6786,10 @@
         <v>9</v>
       </c>
       <c r="B582">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C582" s="2">
-        <v>897.8289794921875</v>
+        <v>1161.922973632812</v>
       </c>
     </row>
     <row r="583" spans="1:3">
@@ -6797,10 +6797,10 @@
         <v>9</v>
       </c>
       <c r="B583">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C583" s="2">
-        <v>869.3350219726562</v>
+        <v>1034.362060546875</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -6808,10 +6808,10 @@
         <v>9</v>
       </c>
       <c r="B584">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C584" s="2">
-        <v>834.3250122070312</v>
+        <v>1027.765991210938</v>
       </c>
     </row>
     <row r="585" spans="1:3">
@@ -6819,10 +6819,10 @@
         <v>9</v>
       </c>
       <c r="B585">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C585" s="2">
-        <v>783.8060302734375</v>
+        <v>1033.767944335938</v>
       </c>
     </row>
     <row r="586" spans="1:3">
@@ -6830,10 +6830,10 @@
         <v>9</v>
       </c>
       <c r="B586">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C586" s="2">
-        <v>816.4310302734375</v>
+        <v>1043.06298828125</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -6841,10 +6841,10 @@
         <v>9</v>
       </c>
       <c r="B587">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C587" s="2">
-        <v>724.85498046875</v>
+        <v>1152.203979492188</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -6852,10 +6852,10 @@
         <v>9</v>
       </c>
       <c r="B588">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C588" s="2">
-        <v>703.302001953125</v>
+        <v>1175.47802734375</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -6863,10 +6863,10 @@
         <v>9</v>
       </c>
       <c r="B589">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C589" s="2">
-        <v>567.7420043945312</v>
+        <v>1230.701049804688</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -6874,10 +6874,10 @@
         <v>9</v>
       </c>
       <c r="B590">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C590" s="2">
-        <v>693.3579711914062</v>
+        <v>1177.990966796875</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -6885,10 +6885,10 @@
         <v>9</v>
       </c>
       <c r="B591">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C591" s="2">
-        <v>621.052001953125</v>
+        <v>1265.714965820312</v>
       </c>
     </row>
     <row r="592" spans="1:3">
@@ -6896,10 +6896,10 @@
         <v>9</v>
       </c>
       <c r="B592">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C592" s="2">
-        <v>573.64501953125</v>
+        <v>1372.77197265625</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -6907,10 +6907,10 @@
         <v>9</v>
       </c>
       <c r="B593">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C593" s="2">
-        <v>597.1160278320312</v>
+        <v>1500.484008789062</v>
       </c>
     </row>
     <row r="594" spans="1:3">
@@ -6918,10 +6918,10 @@
         <v>9</v>
       </c>
       <c r="B594">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C594" s="2">
-        <v>557.7319946289062</v>
+        <v>1395.619995117188</v>
       </c>
     </row>
     <row r="595" spans="1:3">
@@ -6929,10 +6929,10 @@
         <v>9</v>
       </c>
       <c r="B595">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C595" s="2">
-        <v>527.8900146484375</v>
+        <v>1299.0419921875</v>
       </c>
     </row>
     <row r="596" spans="1:3">
@@ -6940,10 +6940,10 @@
         <v>9</v>
       </c>
       <c r="B596">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C596" s="2">
-        <v>517.114013671875</v>
+        <v>1257.156005859375</v>
       </c>
     </row>
     <row r="597" spans="1:3">
@@ -6951,10 +6951,10 @@
         <v>9</v>
       </c>
       <c r="B597">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C597" s="2">
-        <v>523.4940185546875</v>
+        <v>1225.972045898438</v>
       </c>
     </row>
     <row r="598" spans="1:3">
@@ -6962,10 +6962,10 @@
         <v>9</v>
       </c>
       <c r="B598">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C598" s="2">
-        <v>485.7030029296875</v>
+        <v>1285.234985351562</v>
       </c>
     </row>
     <row r="599" spans="1:3">
@@ -6973,10 +6973,10 @@
         <v>9</v>
       </c>
       <c r="B599">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C599" s="2">
-        <v>439.1839904785156</v>
+        <v>1078.151000976562</v>
       </c>
     </row>
     <row r="600" spans="1:3">
@@ -6984,10 +6984,10 @@
         <v>9</v>
       </c>
       <c r="B600">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C600" s="2">
-        <v>360.7940063476562</v>
+        <v>1012.216003417969</v>
       </c>
     </row>
     <row r="601" spans="1:3">
@@ -6995,10 +6995,10 @@
         <v>9</v>
       </c>
       <c r="B601">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C601" s="2">
-        <v>352.5859985351562</v>
+        <v>992.1959838867188</v>
       </c>
     </row>
     <row r="602" spans="1:3">
@@ -7006,10 +7006,10 @@
         <v>9</v>
       </c>
       <c r="B602">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C602" s="2">
-        <v>342.1900024414062</v>
+        <v>991.77001953125</v>
       </c>
     </row>
     <row r="603" spans="1:3">
@@ -7017,10 +7017,10 @@
         <v>9</v>
       </c>
       <c r="B603">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C603" s="2">
-        <v>330.0499877929688</v>
+        <v>917.8330078125</v>
       </c>
     </row>
     <row r="604" spans="1:3">
@@ -7028,10 +7028,10 @@
         <v>9</v>
       </c>
       <c r="B604">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C604" s="2">
-        <v>277.3489990234375</v>
+        <v>900.156005859375</v>
       </c>
     </row>
     <row r="605" spans="1:3">
@@ -7039,10 +7039,10 @@
         <v>9</v>
       </c>
       <c r="B605">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C605" s="2">
-        <v>333.1809997558594</v>
+        <v>871.4290161132812</v>
       </c>
     </row>
     <row r="606" spans="1:3">
@@ -7050,10 +7050,10 @@
         <v>9</v>
       </c>
       <c r="B606">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C606" s="2">
-        <v>327.3909912109375</v>
+        <v>931.77197265625</v>
       </c>
     </row>
     <row r="607" spans="1:3">
@@ -7061,10 +7061,10 @@
         <v>9</v>
       </c>
       <c r="B607">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C607" s="2">
-        <v>380.0539855957031</v>
+        <v>939.6640014648438</v>
       </c>
     </row>
     <row r="608" spans="1:3">
@@ -7072,10 +7072,10 @@
         <v>9</v>
       </c>
       <c r="B608">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C608" s="2">
-        <v>428.7650146484375</v>
+        <v>1003.697021484375</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -7083,10 +7083,10 @@
         <v>9</v>
       </c>
       <c r="B609">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C609" s="2">
-        <v>489.2439880371094</v>
+        <v>1005.736999511719</v>
       </c>
     </row>
     <row r="610" spans="1:3">
@@ -7094,142 +7094,142 @@
         <v>9</v>
       </c>
       <c r="B610">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C610" s="2">
-        <v>445.0180053710938</v>
+        <v>1019.476013183594</v>
       </c>
     </row>
     <row r="611" spans="1:3">
       <c r="A611" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B611">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="C611" s="2">
-        <v>310.7349853515625</v>
+        <v>1036.118041992188</v>
       </c>
     </row>
     <row r="612" spans="1:3">
       <c r="A612" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B612">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="C612" s="2">
-        <v>355.6260070800781</v>
+        <v>1036.046020507812</v>
       </c>
     </row>
     <row r="613" spans="1:3">
       <c r="A613" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B613">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="C613" s="2">
-        <v>294.3399963378906</v>
+        <v>1000.489990234375</v>
       </c>
     </row>
     <row r="614" spans="1:3">
       <c r="A614" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B614">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="C614" s="2">
-        <v>359.2210083007812</v>
+        <v>977.35498046875</v>
       </c>
     </row>
     <row r="615" spans="1:3">
       <c r="A615" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B615">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="C615" s="2">
-        <v>370.1270141601562</v>
+        <v>977.3939819335938</v>
       </c>
     </row>
     <row r="616" spans="1:3">
       <c r="A616" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B616">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C616" s="2">
-        <v>401.7000122070312</v>
+        <v>950.9459838867188</v>
       </c>
     </row>
     <row r="617" spans="1:3">
       <c r="A617" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B617">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="C617" s="2">
-        <v>419.9649963378906</v>
+        <v>903.8599853515625</v>
       </c>
     </row>
     <row r="618" spans="1:3">
       <c r="A618" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B618">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="C618" s="2">
-        <v>332.9469909667969</v>
+        <v>914.3040161132812</v>
       </c>
     </row>
     <row r="619" spans="1:3">
       <c r="A619" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B619">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="C619" s="2">
-        <v>356.5379943847656</v>
+        <v>929.3770141601562</v>
       </c>
     </row>
     <row r="620" spans="1:3">
       <c r="A620" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B620">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="C620" s="2">
-        <v>375.9700012207031</v>
+        <v>918.719970703125</v>
       </c>
     </row>
     <row r="621" spans="1:3">
       <c r="A621" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B621">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="C621" s="2">
-        <v>383.6940002441406</v>
+        <v>894.2869873046875</v>
       </c>
     </row>
     <row r="622" spans="1:3">
       <c r="A622" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B622">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="C622" s="2">
-        <v>350.864990234375</v>
+        <v>838.448974609375</v>
       </c>
     </row>
     <row r="623" spans="1:3">
@@ -7237,10 +7237,10 @@
         <v>10</v>
       </c>
       <c r="B623">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C623" s="2">
-        <v>283.06201171875</v>
+        <v>684.6309814453125</v>
       </c>
     </row>
     <row r="624" spans="1:3">
@@ -7248,10 +7248,10 @@
         <v>10</v>
       </c>
       <c r="B624">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C624" s="2">
-        <v>265.7229919433594</v>
+        <v>685.1690063476562</v>
       </c>
     </row>
     <row r="625" spans="1:3">
@@ -7259,10 +7259,10 @@
         <v>10</v>
       </c>
       <c r="B625">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C625" s="2">
-        <v>253.8260040283203</v>
+        <v>727.968017578125</v>
       </c>
     </row>
     <row r="626" spans="1:3">
@@ -7270,10 +7270,10 @@
         <v>10</v>
       </c>
       <c r="B626">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C626" s="2">
-        <v>239.8979949951172</v>
+        <v>702.177001953125</v>
       </c>
     </row>
     <row r="627" spans="1:3">
@@ -7281,10 +7281,10 @@
         <v>10</v>
       </c>
       <c r="B627">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C627" s="2">
-        <v>309.0570068359375</v>
+        <v>771.323974609375</v>
       </c>
     </row>
     <row r="628" spans="1:3">
@@ -7292,10 +7292,10 @@
         <v>10</v>
       </c>
       <c r="B628">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C628" s="2">
-        <v>299.6059875488281</v>
+        <v>720.2139892578125</v>
       </c>
     </row>
     <row r="629" spans="1:3">
@@ -7303,10 +7303,10 @@
         <v>10</v>
       </c>
       <c r="B629">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C629" s="2">
-        <v>312.8609924316406</v>
+        <v>729.3090209960938</v>
       </c>
     </row>
     <row r="630" spans="1:3">
@@ -7314,10 +7314,10 @@
         <v>10</v>
       </c>
       <c r="B630">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C630" s="2">
-        <v>247.8820037841797</v>
+        <v>765.1539916992188</v>
       </c>
     </row>
     <row r="631" spans="1:3">
@@ -7325,10 +7325,10 @@
         <v>10</v>
       </c>
       <c r="B631">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C631" s="2">
-        <v>272.2059936523438</v>
+        <v>771.916015625</v>
       </c>
     </row>
     <row r="632" spans="1:3">
@@ -7336,10 +7336,10 @@
         <v>10</v>
       </c>
       <c r="B632">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C632" s="2">
-        <v>267.8770141601562</v>
+        <v>784.6920166015625</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -7347,10 +7347,10 @@
         <v>10</v>
       </c>
       <c r="B633">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C633" s="2">
-        <v>246.4069976806641</v>
+        <v>779.677978515625</v>
       </c>
     </row>
     <row r="634" spans="1:3">
@@ -7358,10 +7358,10 @@
         <v>10</v>
       </c>
       <c r="B634">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C634" s="2">
-        <v>265.7130126953125</v>
+        <v>760.3060302734375</v>
       </c>
     </row>
     <row r="635" spans="1:3">
@@ -7369,10 +7369,10 @@
         <v>10</v>
       </c>
       <c r="B635">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C635" s="2">
-        <v>239.9369964599609</v>
+        <v>760.739990234375</v>
       </c>
     </row>
     <row r="636" spans="1:3">
@@ -7380,10 +7380,10 @@
         <v>10</v>
       </c>
       <c r="B636">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C636" s="2">
-        <v>235.9199981689453</v>
+        <v>767.1480102539062</v>
       </c>
     </row>
     <row r="637" spans="1:3">
@@ -7391,10 +7391,10 @@
         <v>10</v>
       </c>
       <c r="B637">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C637" s="2">
-        <v>275.4410095214844</v>
+        <v>777.280029296875</v>
       </c>
     </row>
     <row r="638" spans="1:3">
@@ -7402,10 +7402,10 @@
         <v>10</v>
       </c>
       <c r="B638">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C638" s="2">
-        <v>418.614990234375</v>
+        <v>688.2059936523438</v>
       </c>
     </row>
     <row r="639" spans="1:3">
@@ -7413,10 +7413,10 @@
         <v>10</v>
       </c>
       <c r="B639">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C639" s="2">
-        <v>408.5119934082031</v>
+        <v>689.8909912109375</v>
       </c>
     </row>
     <row r="640" spans="1:3">
@@ -7424,10 +7424,10 @@
         <v>10</v>
       </c>
       <c r="B640">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C640" s="2">
-        <v>431.3789978027344</v>
+        <v>674.4240112304688</v>
       </c>
     </row>
     <row r="641" spans="1:3">
@@ -7435,10 +7435,10 @@
         <v>10</v>
       </c>
       <c r="B641">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C641" s="2">
-        <v>447.0350036621094</v>
+        <v>710.614013671875</v>
       </c>
     </row>
     <row r="642" spans="1:3">
@@ -7446,10 +7446,10 @@
         <v>10</v>
       </c>
       <c r="B642">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C642" s="2">
-        <v>422.1889953613281</v>
+        <v>800.9359741210938</v>
       </c>
     </row>
     <row r="643" spans="1:3">
@@ -7457,10 +7457,10 @@
         <v>10</v>
       </c>
       <c r="B643">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C643" s="2">
-        <v>494.3070068359375</v>
+        <v>893.3569946289062</v>
       </c>
     </row>
     <row r="644" spans="1:3">
@@ -7468,10 +7468,10 @@
         <v>10</v>
       </c>
       <c r="B644">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C644" s="2">
-        <v>415.5799865722656</v>
+        <v>827.218994140625</v>
       </c>
     </row>
     <row r="645" spans="1:3">
@@ -7479,10 +7479,10 @@
         <v>10</v>
       </c>
       <c r="B645">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C645" s="2">
-        <v>429.2349853515625</v>
+        <v>828.5759887695312</v>
       </c>
     </row>
     <row r="646" spans="1:3">
@@ -7490,10 +7490,10 @@
         <v>10</v>
       </c>
       <c r="B646">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C646" s="2">
-        <v>427.8059997558594</v>
+        <v>871.2100219726562</v>
       </c>
     </row>
     <row r="647" spans="1:3">
@@ -7501,10 +7501,10 @@
         <v>10</v>
       </c>
       <c r="B647">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C647" s="2">
-        <v>400.0140075683594</v>
+        <v>819.916015625</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -7512,10 +7512,10 @@
         <v>10</v>
       </c>
       <c r="B648">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C648" s="2">
-        <v>411.3609924316406</v>
+        <v>753.698974609375</v>
       </c>
     </row>
     <row r="649" spans="1:3">
@@ -7523,10 +7523,10 @@
         <v>10</v>
       </c>
       <c r="B649">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C649" s="2">
-        <v>379.5289916992188</v>
+        <v>784.427978515625</v>
       </c>
     </row>
     <row r="650" spans="1:3">
@@ -7534,10 +7534,10 @@
         <v>10</v>
       </c>
       <c r="B650">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C650" s="2">
-        <v>436.7770080566406</v>
+        <v>756.5029907226562</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -7545,10 +7545,10 @@
         <v>10</v>
       </c>
       <c r="B651">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C651" s="2">
-        <v>436.8989868164062</v>
+        <v>599.1539916992188</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -7556,10 +7556,10 @@
         <v>10</v>
       </c>
       <c r="B652">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C652" s="2">
-        <v>409.5140075683594</v>
+        <v>596.2999877929688</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -7567,10 +7567,10 @@
         <v>10</v>
       </c>
       <c r="B653">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C653" s="2">
-        <v>463.8219909667969</v>
+        <v>511.3070068359375</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -7578,10 +7578,10 @@
         <v>10</v>
       </c>
       <c r="B654">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C654" s="2">
-        <v>409.6700134277344</v>
+        <v>476.385986328125</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -7589,10 +7589,10 @@
         <v>10</v>
       </c>
       <c r="B655">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C655" s="2">
-        <v>383.56298828125</v>
+        <v>470.7820129394531</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -7600,10 +7600,10 @@
         <v>10</v>
       </c>
       <c r="B656">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C656" s="2">
-        <v>515.1959838867188</v>
+        <v>587.4550170898438</v>
       </c>
     </row>
     <row r="657" spans="1:3">
@@ -7611,10 +7611,10 @@
         <v>10</v>
       </c>
       <c r="B657">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C657" s="2">
-        <v>469.5769958496094</v>
+        <v>625.9920043945312</v>
       </c>
     </row>
     <row r="658" spans="1:3">
@@ -7622,10 +7622,10 @@
         <v>10</v>
       </c>
       <c r="B658">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C658" s="2">
-        <v>531.1690063476562</v>
+        <v>819.1220092773438</v>
       </c>
     </row>
     <row r="659" spans="1:3">
@@ -7633,10 +7633,10 @@
         <v>10</v>
       </c>
       <c r="B659">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C659" s="2">
-        <v>578.9650268554688</v>
+        <v>776.718994140625</v>
       </c>
     </row>
     <row r="660" spans="1:3">
@@ -7644,10 +7644,10 @@
         <v>10</v>
       </c>
       <c r="B660">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C660" s="2">
-        <v>660.9959716796875</v>
+        <v>778.3350219726562</v>
       </c>
     </row>
     <row r="661" spans="1:3">
@@ -7655,10 +7655,10 @@
         <v>10</v>
       </c>
       <c r="B661">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C661" s="2">
-        <v>697.6950073242188</v>
+        <v>753.593017578125</v>
       </c>
     </row>
     <row r="662" spans="1:3">
@@ -7666,10 +7666,10 @@
         <v>10</v>
       </c>
       <c r="B662">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C662" s="2">
-        <v>592.4390258789062</v>
+        <v>925.5819702148438</v>
       </c>
     </row>
     <row r="663" spans="1:3">
@@ -7677,10 +7677,10 @@
         <v>10</v>
       </c>
       <c r="B663">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C663" s="2">
-        <v>566.5189819335938</v>
+        <v>1010.385009765625</v>
       </c>
     </row>
     <row r="664" spans="1:3">
@@ -7688,10 +7688,10 @@
         <v>10</v>
       </c>
       <c r="B664">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C664" s="2">
-        <v>609.7329711914062</v>
+        <v>988.5880126953125</v>
       </c>
     </row>
     <row r="665" spans="1:3">
@@ -7699,10 +7699,10 @@
         <v>10</v>
       </c>
       <c r="B665">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C665" s="2">
-        <v>774.2440185546875</v>
+        <v>1008.346984863281</v>
       </c>
     </row>
     <row r="666" spans="1:3">
@@ -7710,10 +7710,10 @@
         <v>10</v>
       </c>
       <c r="B666">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C666" s="2">
-        <v>623.5089721679688</v>
+        <v>974.5369873046875</v>
       </c>
     </row>
     <row r="667" spans="1:3">
@@ -7721,10 +7721,10 @@
         <v>10</v>
       </c>
       <c r="B667">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C667" s="2">
-        <v>518.22802734375</v>
+        <v>1080.85400390625</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -7732,10 +7732,10 @@
         <v>10</v>
       </c>
       <c r="B668">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C668" s="2">
-        <v>541.27001953125</v>
+        <v>1144.416015625</v>
       </c>
     </row>
     <row r="669" spans="1:3">
@@ -7743,10 +7743,10 @@
         <v>10</v>
       </c>
       <c r="B669">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C669" s="2">
-        <v>476.302001953125</v>
+        <v>1132.509033203125</v>
       </c>
     </row>
     <row r="670" spans="1:3">
@@ -7754,10 +7754,10 @@
         <v>10</v>
       </c>
       <c r="B670">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C670" s="2">
-        <v>479.885986328125</v>
+        <v>1323.595947265625</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -7765,10 +7765,10 @@
         <v>10</v>
       </c>
       <c r="B671">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C671" s="2">
-        <v>435.6669921875</v>
+        <v>1339.879028320312</v>
       </c>
     </row>
     <row r="672" spans="1:3">
@@ -7776,10 +7776,10 @@
         <v>10</v>
       </c>
       <c r="B672">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C672" s="2">
-        <v>493.1629943847656</v>
+        <v>1355.720947265625</v>
       </c>
     </row>
     <row r="673" spans="1:3">
@@ -7787,10 +7787,10 @@
         <v>10</v>
       </c>
       <c r="B673">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C673" s="2">
-        <v>448.635986328125</v>
+        <v>1417.760986328125</v>
       </c>
     </row>
     <row r="674" spans="1:3">
@@ -7798,10 +7798,10 @@
         <v>10</v>
       </c>
       <c r="B674">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C674" s="2">
-        <v>221.5559997558594</v>
+        <v>1647.370971679688</v>
       </c>
     </row>
   </sheetData>

--- a/Wind_Production_Forecast/Wind_Forecast_Production_15min.xlsx
+++ b/Wind_Production_Forecast/Wind_Forecast_Production_15min.xlsx
@@ -25,28 +25,28 @@
     <t>Prediction</t>
   </si>
   <si>
-    <t>2025-04-15</t>
+    <t>2025-04-22</t>
   </si>
   <si>
-    <t>2025-04-16</t>
+    <t>2025-04-23</t>
   </si>
   <si>
-    <t>2025-04-17</t>
+    <t>2025-04-24</t>
   </si>
   <si>
-    <t>2025-04-18</t>
+    <t>2025-04-25</t>
   </si>
   <si>
-    <t>2025-04-19</t>
+    <t>2025-04-26</t>
   </si>
   <si>
-    <t>2025-04-20</t>
+    <t>2025-04-27</t>
   </si>
   <si>
-    <t>2025-04-21</t>
+    <t>2025-04-28</t>
   </si>
   <si>
-    <t>2025-04-22</t>
+    <t>2025-04-29</t>
   </si>
 </sst>
 </file>
@@ -406,10 +406,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2">
-        <v>1757.796020507812</v>
+        <v>242.5160064697266</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -417,10 +417,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2">
-        <v>1810.56103515625</v>
+        <v>301.4649963378906</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -428,10 +428,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2">
-        <v>1728.083984375</v>
+        <v>428.9249877929688</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -439,10 +439,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2">
-        <v>1724.14697265625</v>
+        <v>625.6959838867188</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -450,10 +450,10 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2">
-        <v>1651.870971679688</v>
+        <v>607.6220092773438</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -461,10 +461,10 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2">
-        <v>1654.280029296875</v>
+        <v>615.6939697265625</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -472,10 +472,10 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2">
-        <v>1595.362060546875</v>
+        <v>559.9459838867188</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2">
-        <v>1658.97998046875</v>
+        <v>611.906005859375</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -494,10 +494,10 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C10" s="2">
-        <v>1644.836059570312</v>
+        <v>620.2940063476562</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -505,10 +505,10 @@
         <v>3</v>
       </c>
       <c r="B11">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2">
-        <v>1643.756958007812</v>
+        <v>673.1480102539062</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -516,10 +516,10 @@
         <v>3</v>
       </c>
       <c r="B12">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2">
-        <v>1542.578002929688</v>
+        <v>650.2050170898438</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -527,10 +527,10 @@
         <v>3</v>
       </c>
       <c r="B13">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C13" s="2">
-        <v>1410.869018554688</v>
+        <v>594.791015625</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -538,10 +538,10 @@
         <v>3</v>
       </c>
       <c r="B14">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C14" s="2">
-        <v>1417.991943359375</v>
+        <v>799.822998046875</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -549,10 +549,10 @@
         <v>3</v>
       </c>
       <c r="B15">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C15" s="2">
-        <v>1434.286987304688</v>
+        <v>748.969970703125</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -560,10 +560,10 @@
         <v>3</v>
       </c>
       <c r="B16">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C16" s="2">
-        <v>1431.129028320312</v>
+        <v>971.4650268554688</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -571,10 +571,10 @@
         <v>3</v>
       </c>
       <c r="B17">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C17" s="2">
-        <v>1399.4150390625</v>
+        <v>931.2130126953125</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -582,10 +582,10 @@
         <v>3</v>
       </c>
       <c r="B18">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C18" s="2">
-        <v>1394.35595703125</v>
+        <v>1184.77099609375</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -593,10 +593,10 @@
         <v>3</v>
       </c>
       <c r="B19">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C19" s="2">
-        <v>1410.468994140625</v>
+        <v>1178.067993164062</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -604,10 +604,10 @@
         <v>3</v>
       </c>
       <c r="B20">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C20" s="2">
-        <v>1448.086059570312</v>
+        <v>1256.387939453125</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -615,10 +615,10 @@
         <v>3</v>
       </c>
       <c r="B21">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C21" s="2">
-        <v>1416.651977539062</v>
+        <v>1215.593994140625</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -626,10 +626,10 @@
         <v>3</v>
       </c>
       <c r="B22">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C22" s="2">
-        <v>1393.02197265625</v>
+        <v>1135.532958984375</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -637,10 +637,10 @@
         <v>3</v>
       </c>
       <c r="B23">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C23" s="2">
-        <v>1359.613037109375</v>
+        <v>1178.036987304688</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -648,10 +648,10 @@
         <v>3</v>
       </c>
       <c r="B24">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C24" s="2">
-        <v>1346.573974609375</v>
+        <v>1146.244995117188</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -659,10 +659,10 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C25" s="2">
-        <v>1376.16796875</v>
+        <v>1067.197998046875</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -670,10 +670,10 @@
         <v>3</v>
       </c>
       <c r="B26">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C26" s="2">
-        <v>1295.920043945312</v>
+        <v>1031.067016601562</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -681,10 +681,10 @@
         <v>3</v>
       </c>
       <c r="B27">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C27" s="2">
-        <v>1253.97705078125</v>
+        <v>1031.796020507812</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -692,10 +692,10 @@
         <v>3</v>
       </c>
       <c r="B28">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2">
-        <v>1282.136962890625</v>
+        <v>1041.899047851562</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -703,10 +703,10 @@
         <v>3</v>
       </c>
       <c r="B29">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C29" s="2">
-        <v>1296.85205078125</v>
+        <v>1112.81005859375</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -714,10 +714,10 @@
         <v>3</v>
       </c>
       <c r="B30">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C30" s="2">
-        <v>1225.464965820312</v>
+        <v>1392.109008789062</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -725,10 +725,10 @@
         <v>3</v>
       </c>
       <c r="B31">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C31" s="2">
-        <v>1336.14794921875</v>
+        <v>1463.090942382812</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -736,10 +736,10 @@
         <v>3</v>
       </c>
       <c r="B32">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C32" s="2">
-        <v>1236.875</v>
+        <v>1127.616943359375</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -747,10 +747,10 @@
         <v>3</v>
       </c>
       <c r="B33">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C33" s="2">
-        <v>1245.447021484375</v>
+        <v>1132.83203125</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -758,10 +758,10 @@
         <v>3</v>
       </c>
       <c r="B34">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2">
-        <v>1068.48095703125</v>
+        <v>1088.453002929688</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -769,10 +769,10 @@
         <v>3</v>
       </c>
       <c r="B35">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2">
-        <v>1044.58203125</v>
+        <v>1137.4599609375</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -780,10 +780,10 @@
         <v>3</v>
       </c>
       <c r="B36">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C36" s="2">
-        <v>1039.671020507812</v>
+        <v>1087.68701171875</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -791,10 +791,10 @@
         <v>3</v>
       </c>
       <c r="B37">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C37" s="2">
-        <v>823.77099609375</v>
+        <v>937.9639892578125</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -802,10 +802,10 @@
         <v>3</v>
       </c>
       <c r="B38">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C38" s="2">
-        <v>881.5399780273438</v>
+        <v>993.1320190429688</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -813,10 +813,10 @@
         <v>3</v>
       </c>
       <c r="B39">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C39" s="2">
-        <v>982.0380249023438</v>
+        <v>1055.534057617188</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -824,10 +824,10 @@
         <v>3</v>
       </c>
       <c r="B40">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C40" s="2">
-        <v>861.3280029296875</v>
+        <v>1030.530029296875</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -835,10 +835,10 @@
         <v>3</v>
       </c>
       <c r="B41">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C41" s="2">
-        <v>680.5269775390625</v>
+        <v>955.791015625</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -846,10 +846,10 @@
         <v>3</v>
       </c>
       <c r="B42">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C42" s="2">
-        <v>452.1520080566406</v>
+        <v>758.85302734375</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -857,10 +857,10 @@
         <v>3</v>
       </c>
       <c r="B43">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C43" s="2">
-        <v>530.7979736328125</v>
+        <v>656.9819946289062</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -868,10 +868,10 @@
         <v>3</v>
       </c>
       <c r="B44">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C44" s="2">
-        <v>527.7169799804688</v>
+        <v>510.5169982910156</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -879,10 +879,10 @@
         <v>3</v>
       </c>
       <c r="B45">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C45" s="2">
-        <v>477.2219848632812</v>
+        <v>467.0039978027344</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -890,164 +890,164 @@
         <v>3</v>
       </c>
       <c r="B46">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C46" s="2">
-        <v>475.4660034179688</v>
+        <v>436.8219909667969</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="C47" s="2">
-        <v>614.3049926757812</v>
+        <v>262.0610046386719</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="C48" s="2">
-        <v>839.344970703125</v>
+        <v>256.4089965820312</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="C49" s="2">
-        <v>873.1749877929688</v>
+        <v>207.1470031738281</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B50">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="C50" s="2">
-        <v>896.916015625</v>
+        <v>236.6529998779297</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B51">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="C51" s="2">
-        <v>1037.463989257812</v>
+        <v>235.7129974365234</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B52">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="C52" s="2">
-        <v>1014.638977050781</v>
+        <v>229.1730041503906</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B53">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="C53" s="2">
-        <v>1110.765014648438</v>
+        <v>174.1670074462891</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B54">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="C54" s="2">
-        <v>1144.734985351562</v>
+        <v>128.3070068359375</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B55">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="C55" s="2">
-        <v>1171.817993164062</v>
+        <v>119.0859985351562</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B56">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="C56" s="2">
-        <v>1221.876953125</v>
+        <v>93.71700286865234</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B57">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="C57" s="2">
-        <v>1260.119995117188</v>
+        <v>98.65699768066406</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B58">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="C58" s="2">
-        <v>1114.468994140625</v>
+        <v>134.4530029296875</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B59">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="C59" s="2">
-        <v>787.322021484375</v>
+        <v>314.2300109863281</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B60">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="C60" s="2">
-        <v>714.3489990234375</v>
+        <v>300.6549987792969</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1055,10 +1055,10 @@
         <v>4</v>
       </c>
       <c r="B61">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C61" s="2">
-        <v>778.2659912109375</v>
+        <v>248.27099609375</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1066,10 +1066,10 @@
         <v>4</v>
       </c>
       <c r="B62">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C62" s="2">
-        <v>859.9609985351562</v>
+        <v>314.1059875488281</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1077,10 +1077,10 @@
         <v>4</v>
       </c>
       <c r="B63">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C63" s="2">
-        <v>1044.819946289062</v>
+        <v>238.5500030517578</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1088,10 +1088,10 @@
         <v>4</v>
       </c>
       <c r="B64">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C64" s="2">
-        <v>1160.088989257812</v>
+        <v>213.5650024414062</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1099,10 +1099,10 @@
         <v>4</v>
       </c>
       <c r="B65">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C65" s="2">
-        <v>1155.663940429688</v>
+        <v>264.2479858398438</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1110,10 +1110,10 @@
         <v>4</v>
       </c>
       <c r="B66">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C66" s="2">
-        <v>1042.100952148438</v>
+        <v>290.6170043945312</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1121,10 +1121,10 @@
         <v>4</v>
       </c>
       <c r="B67">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C67" s="2">
-        <v>1084.245971679688</v>
+        <v>263.2349853515625</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1132,10 +1132,10 @@
         <v>4</v>
       </c>
       <c r="B68">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C68" s="2">
-        <v>1298.983032226562</v>
+        <v>296.6170043945312</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1143,10 +1143,10 @@
         <v>4</v>
       </c>
       <c r="B69">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C69" s="2">
-        <v>1431.93994140625</v>
+        <v>284.9800109863281</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1154,10 +1154,10 @@
         <v>4</v>
       </c>
       <c r="B70">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C70" s="2">
-        <v>1368.791015625</v>
+        <v>255.5570068359375</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1165,10 +1165,10 @@
         <v>4</v>
       </c>
       <c r="B71">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C71" s="2">
-        <v>1390.149047851562</v>
+        <v>191.2120056152344</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1176,10 +1176,10 @@
         <v>4</v>
       </c>
       <c r="B72">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C72" s="2">
-        <v>1370.901977539062</v>
+        <v>183.7590026855469</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1187,10 +1187,10 @@
         <v>4</v>
       </c>
       <c r="B73">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C73" s="2">
-        <v>1317.490966796875</v>
+        <v>201.2830047607422</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1198,10 +1198,10 @@
         <v>4</v>
       </c>
       <c r="B74">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C74" s="2">
-        <v>1388.838012695312</v>
+        <v>160.2420043945312</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1209,10 +1209,10 @@
         <v>4</v>
       </c>
       <c r="B75">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C75" s="2">
-        <v>1658.282958984375</v>
+        <v>167.1109924316406</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1220,10 +1220,10 @@
         <v>4</v>
       </c>
       <c r="B76">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C76" s="2">
-        <v>1619.850952148438</v>
+        <v>165.4989929199219</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1231,10 +1231,10 @@
         <v>4</v>
       </c>
       <c r="B77">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C77" s="2">
-        <v>1563.267944335938</v>
+        <v>161.6369934082031</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1242,10 +1242,10 @@
         <v>4</v>
       </c>
       <c r="B78">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C78" s="2">
-        <v>1615.015991210938</v>
+        <v>117.8160018920898</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1253,10 +1253,10 @@
         <v>4</v>
       </c>
       <c r="B79">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C79" s="2">
-        <v>1610.154052734375</v>
+        <v>97.18299865722656</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1264,10 +1264,10 @@
         <v>4</v>
       </c>
       <c r="B80">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C80" s="2">
-        <v>1589.859985351562</v>
+        <v>107.6579971313477</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1275,10 +1275,10 @@
         <v>4</v>
       </c>
       <c r="B81">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C81" s="2">
-        <v>1577.514038085938</v>
+        <v>119.556999206543</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1286,10 +1286,10 @@
         <v>4</v>
       </c>
       <c r="B82">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C82" s="2">
-        <v>1451.663940429688</v>
+        <v>109.3840026855469</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1297,10 +1297,10 @@
         <v>4</v>
       </c>
       <c r="B83">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C83" s="2">
-        <v>1518.265991210938</v>
+        <v>119.6179962158203</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1308,10 +1308,10 @@
         <v>4</v>
       </c>
       <c r="B84">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C84" s="2">
-        <v>1446.156005859375</v>
+        <v>57.71099853515625</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1319,10 +1319,10 @@
         <v>4</v>
       </c>
       <c r="B85">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C85" s="2">
-        <v>1610.390991210938</v>
+        <v>67.45999908447266</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1330,10 +1330,10 @@
         <v>4</v>
       </c>
       <c r="B86">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C86" s="2">
-        <v>1622.930053710938</v>
+        <v>10.10799980163574</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1341,10 +1341,10 @@
         <v>4</v>
       </c>
       <c r="B87">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C87" s="2">
-        <v>1627.203979492188</v>
+        <v>-21.21299934387207</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1352,10 +1352,10 @@
         <v>4</v>
       </c>
       <c r="B88">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C88" s="2">
-        <v>1622.921997070312</v>
+        <v>33.13600158691406</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1363,10 +1363,10 @@
         <v>4</v>
       </c>
       <c r="B89">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C89" s="2">
-        <v>1645.14404296875</v>
+        <v>131.0119934082031</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1374,10 +1374,10 @@
         <v>4</v>
       </c>
       <c r="B90">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C90" s="2">
-        <v>1504.963989257812</v>
+        <v>-40.67699813842773</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1385,10 +1385,10 @@
         <v>4</v>
       </c>
       <c r="B91">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C91" s="2">
-        <v>1437.503051757812</v>
+        <v>11.80900001525879</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1396,10 +1396,10 @@
         <v>4</v>
       </c>
       <c r="B92">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C92" s="2">
-        <v>1456.274047851562</v>
+        <v>-14.44299983978271</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1407,10 +1407,10 @@
         <v>4</v>
       </c>
       <c r="B93">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C93" s="2">
-        <v>1508.715942382812</v>
+        <v>-49.81700134277344</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1418,10 +1418,10 @@
         <v>4</v>
       </c>
       <c r="B94">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C94" s="2">
-        <v>1540.787963867188</v>
+        <v>10.17199993133545</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1429,10 +1429,10 @@
         <v>4</v>
       </c>
       <c r="B95">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C95" s="2">
-        <v>1716.619995117188</v>
+        <v>-4.794000148773193</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1440,10 +1440,10 @@
         <v>4</v>
       </c>
       <c r="B96">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C96" s="2">
-        <v>1824.4990234375</v>
+        <v>72.00700378417969</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1451,10 +1451,10 @@
         <v>4</v>
       </c>
       <c r="B97">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C97" s="2">
-        <v>1825.280029296875</v>
+        <v>59.0260009765625</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1462,10 +1462,10 @@
         <v>4</v>
       </c>
       <c r="B98">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C98" s="2">
-        <v>1842.818969726562</v>
+        <v>35.7869987487793</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1473,10 +1473,10 @@
         <v>4</v>
       </c>
       <c r="B99">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C99" s="2">
-        <v>1875.012939453125</v>
+        <v>50.44900131225586</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1484,10 +1484,10 @@
         <v>4</v>
       </c>
       <c r="B100">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C100" s="2">
-        <v>1971.503051757812</v>
+        <v>162.8150024414062</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1495,10 +1495,10 @@
         <v>4</v>
       </c>
       <c r="B101">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C101" s="2">
-        <v>1983.078002929688</v>
+        <v>157.8600006103516</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1506,10 +1506,10 @@
         <v>4</v>
       </c>
       <c r="B102">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C102" s="2">
-        <v>2003.35400390625</v>
+        <v>178.4040069580078</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1517,10 +1517,10 @@
         <v>4</v>
       </c>
       <c r="B103">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C103" s="2">
-        <v>1978.51904296875</v>
+        <v>163.1609954833984</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1528,10 +1528,10 @@
         <v>4</v>
       </c>
       <c r="B104">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C104" s="2">
-        <v>1976.7060546875</v>
+        <v>134.5</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1539,10 +1539,10 @@
         <v>4</v>
       </c>
       <c r="B105">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C105" s="2">
-        <v>1989.134033203125</v>
+        <v>221.6499938964844</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1550,10 +1550,10 @@
         <v>4</v>
       </c>
       <c r="B106">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C106" s="2">
-        <v>1965.048950195312</v>
+        <v>339.6799926757812</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1561,10 +1561,10 @@
         <v>4</v>
       </c>
       <c r="B107">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C107" s="2">
-        <v>1966.328979492188</v>
+        <v>430.3489990234375</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1572,10 +1572,10 @@
         <v>4</v>
       </c>
       <c r="B108">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C108" s="2">
-        <v>2048.073974609375</v>
+        <v>532.0239868164062</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1583,10 +1583,10 @@
         <v>4</v>
       </c>
       <c r="B109">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C109" s="2">
-        <v>1813.744018554688</v>
+        <v>488.0820007324219</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1594,10 +1594,10 @@
         <v>4</v>
       </c>
       <c r="B110">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C110" s="2">
-        <v>1707.399047851562</v>
+        <v>646.2689819335938</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1605,10 +1605,10 @@
         <v>4</v>
       </c>
       <c r="B111">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C111" s="2">
-        <v>1739.204956054688</v>
+        <v>605.614990234375</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1616,10 +1616,10 @@
         <v>4</v>
       </c>
       <c r="B112">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C112" s="2">
-        <v>1757.928955078125</v>
+        <v>604.4860229492188</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1627,10 +1627,10 @@
         <v>4</v>
       </c>
       <c r="B113">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C113" s="2">
-        <v>1805.212036132812</v>
+        <v>650.5440063476562</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1638,10 +1638,10 @@
         <v>4</v>
       </c>
       <c r="B114">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C114" s="2">
-        <v>1729.902954101562</v>
+        <v>649.5490112304688</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1649,10 +1649,10 @@
         <v>4</v>
       </c>
       <c r="B115">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C115" s="2">
-        <v>1625.97802734375</v>
+        <v>639.010986328125</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1660,10 +1660,10 @@
         <v>4</v>
       </c>
       <c r="B116">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C116" s="2">
-        <v>1483.711059570312</v>
+        <v>635.2880249023438</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1671,10 +1671,10 @@
         <v>4</v>
       </c>
       <c r="B117">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C117" s="2">
-        <v>1568.39501953125</v>
+        <v>652.1409912109375</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1682,10 +1682,10 @@
         <v>4</v>
       </c>
       <c r="B118">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C118" s="2">
-        <v>1529.761962890625</v>
+        <v>708.1519775390625</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1693,10 +1693,10 @@
         <v>4</v>
       </c>
       <c r="B119">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C119" s="2">
-        <v>1512.342041015625</v>
+        <v>721.3499755859375</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1704,10 +1704,10 @@
         <v>4</v>
       </c>
       <c r="B120">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C120" s="2">
-        <v>1411.655029296875</v>
+        <v>705.2760009765625</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1715,10 +1715,10 @@
         <v>4</v>
       </c>
       <c r="B121">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C121" s="2">
-        <v>1360.366943359375</v>
+        <v>633.7529907226562</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1726,10 +1726,10 @@
         <v>4</v>
       </c>
       <c r="B122">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C122" s="2">
-        <v>1247.996948242188</v>
+        <v>562.719970703125</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1737,10 +1737,10 @@
         <v>4</v>
       </c>
       <c r="B123">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C123" s="2">
-        <v>872.5449829101562</v>
+        <v>526.0560302734375</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1748,10 +1748,10 @@
         <v>4</v>
       </c>
       <c r="B124">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C124" s="2">
-        <v>876.2780151367188</v>
+        <v>455.3099975585938</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1759,10 +1759,10 @@
         <v>4</v>
       </c>
       <c r="B125">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C125" s="2">
-        <v>872.2579956054688</v>
+        <v>439.2080078125</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1770,10 +1770,10 @@
         <v>4</v>
       </c>
       <c r="B126">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C126" s="2">
-        <v>1053.171020507812</v>
+        <v>426.6099853515625</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1781,10 +1781,10 @@
         <v>4</v>
       </c>
       <c r="B127">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C127" s="2">
-        <v>1089.430053710938</v>
+        <v>401.8659973144531</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1792,10 +1792,10 @@
         <v>4</v>
       </c>
       <c r="B128">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C128" s="2">
-        <v>1113.298950195312</v>
+        <v>413.7520141601562</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1803,10 +1803,10 @@
         <v>4</v>
       </c>
       <c r="B129">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C129" s="2">
-        <v>1053.219970703125</v>
+        <v>223.218994140625</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1814,10 +1814,10 @@
         <v>4</v>
       </c>
       <c r="B130">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C130" s="2">
-        <v>1096.52099609375</v>
+        <v>186.9989929199219</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1825,10 +1825,10 @@
         <v>4</v>
       </c>
       <c r="B131">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C131" s="2">
-        <v>971.9169921875</v>
+        <v>198.0399932861328</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1836,10 +1836,10 @@
         <v>4</v>
       </c>
       <c r="B132">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C132" s="2">
-        <v>1084.93603515625</v>
+        <v>247.4550018310547</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1847,10 +1847,10 @@
         <v>4</v>
       </c>
       <c r="B133">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C133" s="2">
-        <v>1174.376953125</v>
+        <v>232.3789978027344</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1858,10 +1858,10 @@
         <v>4</v>
       </c>
       <c r="B134">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C134" s="2">
-        <v>1099.944946289062</v>
+        <v>190.2469940185547</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1869,10 +1869,10 @@
         <v>4</v>
       </c>
       <c r="B135">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C135" s="2">
-        <v>1113.097045898438</v>
+        <v>192.0220031738281</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1880,10 +1880,10 @@
         <v>4</v>
       </c>
       <c r="B136">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C136" s="2">
-        <v>1096.3759765625</v>
+        <v>233.9409942626953</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1891,10 +1891,10 @@
         <v>4</v>
       </c>
       <c r="B137">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C137" s="2">
-        <v>958.4509887695312</v>
+        <v>258.9639892578125</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1902,10 +1902,10 @@
         <v>4</v>
       </c>
       <c r="B138">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C138" s="2">
-        <v>1134.657958984375</v>
+        <v>208.3280029296875</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1913,10 +1913,10 @@
         <v>4</v>
       </c>
       <c r="B139">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C139" s="2">
-        <v>1077.737060546875</v>
+        <v>234.3679962158203</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1924,10 +1924,10 @@
         <v>4</v>
       </c>
       <c r="B140">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C140" s="2">
-        <v>1015.52099609375</v>
+        <v>242.2079925537109</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1935,10 +1935,10 @@
         <v>4</v>
       </c>
       <c r="B141">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C141" s="2">
-        <v>1006.174011230469</v>
+        <v>414.0929870605469</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1946,164 +1946,164 @@
         <v>4</v>
       </c>
       <c r="B142">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C142" s="2">
-        <v>896.916015625</v>
+        <v>283.18798828125</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B143">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="C143" s="2">
-        <v>1069.427001953125</v>
+        <v>286.5140075683594</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B144">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="C144" s="2">
-        <v>892.3989868164062</v>
+        <v>251.6670074462891</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B145">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="C145" s="2">
-        <v>707.9959716796875</v>
+        <v>233.7319946289062</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B146">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="C146" s="2">
-        <v>789.1019897460938</v>
+        <v>226.0670013427734</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B147">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="C147" s="2">
-        <v>760.218994140625</v>
+        <v>226.7769927978516</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B148">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="C148" s="2">
-        <v>753.718017578125</v>
+        <v>266.8619995117188</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B149">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="C149" s="2">
-        <v>768.5</v>
+        <v>244.2799987792969</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B150">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="C150" s="2">
-        <v>706.72900390625</v>
+        <v>252.0010070800781</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B151">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="C151" s="2">
-        <v>696.4089965820312</v>
+        <v>260.2460021972656</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B152">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="C152" s="2">
-        <v>677.0499877929688</v>
+        <v>262.1530151367188</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B153">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="C153" s="2">
-        <v>619.6900024414062</v>
+        <v>269.8179931640625</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B154">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="C154" s="2">
-        <v>636.781982421875</v>
+        <v>228.0299987792969</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B155">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="C155" s="2">
-        <v>595.1170043945312</v>
+        <v>198.9389953613281</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B156">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="C156" s="2">
-        <v>622.3150024414062</v>
+        <v>157.5650024414062</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2111,10 +2111,10 @@
         <v>5</v>
       </c>
       <c r="B157">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C157" s="2">
-        <v>636.7540283203125</v>
+        <v>75.43299865722656</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2122,10 +2122,10 @@
         <v>5</v>
       </c>
       <c r="B158">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C158" s="2">
-        <v>623.7150268554688</v>
+        <v>143.8840026855469</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2133,10 +2133,10 @@
         <v>5</v>
       </c>
       <c r="B159">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C159" s="2">
-        <v>689.9329833984375</v>
+        <v>129.6049957275391</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2144,10 +2144,10 @@
         <v>5</v>
       </c>
       <c r="B160">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C160" s="2">
-        <v>689.9929809570312</v>
+        <v>176.6269989013672</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2155,10 +2155,10 @@
         <v>5</v>
       </c>
       <c r="B161">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C161" s="2">
-        <v>679.7410278320312</v>
+        <v>212.4949951171875</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2166,10 +2166,10 @@
         <v>5</v>
       </c>
       <c r="B162">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C162" s="2">
-        <v>729.2470092773438</v>
+        <v>253.5410003662109</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2177,10 +2177,10 @@
         <v>5</v>
       </c>
       <c r="B163">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C163" s="2">
-        <v>755.2760009765625</v>
+        <v>231.2180023193359</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2188,10 +2188,10 @@
         <v>5</v>
       </c>
       <c r="B164">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C164" s="2">
-        <v>735.822998046875</v>
+        <v>230.1649932861328</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2199,10 +2199,10 @@
         <v>5</v>
       </c>
       <c r="B165">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C165" s="2">
-        <v>669.3880004882812</v>
+        <v>259.6530151367188</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2210,10 +2210,10 @@
         <v>5</v>
       </c>
       <c r="B166">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C166" s="2">
-        <v>625.3679809570312</v>
+        <v>274.1080017089844</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2221,10 +2221,10 @@
         <v>5</v>
       </c>
       <c r="B167">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C167" s="2">
-        <v>703.0549926757812</v>
+        <v>257.3469848632812</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2232,10 +2232,10 @@
         <v>5</v>
       </c>
       <c r="B168">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C168" s="2">
-        <v>731.0650024414062</v>
+        <v>227.7949981689453</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2243,10 +2243,10 @@
         <v>5</v>
       </c>
       <c r="B169">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C169" s="2">
-        <v>869.9400024414062</v>
+        <v>197.2389984130859</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2254,10 +2254,10 @@
         <v>5</v>
       </c>
       <c r="B170">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C170" s="2">
-        <v>786.0859985351562</v>
+        <v>181.8899993896484</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2265,10 +2265,10 @@
         <v>5</v>
       </c>
       <c r="B171">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C171" s="2">
-        <v>1008.14697265625</v>
+        <v>374.0499877929688</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2276,10 +2276,10 @@
         <v>5</v>
       </c>
       <c r="B172">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C172" s="2">
-        <v>916.9539794921875</v>
+        <v>101.5849990844727</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2287,10 +2287,10 @@
         <v>5</v>
       </c>
       <c r="B173">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C173" s="2">
-        <v>1111.31396484375</v>
+        <v>74.58399963378906</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2298,10 +2298,10 @@
         <v>5</v>
       </c>
       <c r="B174">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C174" s="2">
-        <v>1086.5849609375</v>
+        <v>69.61499786376953</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2309,10 +2309,10 @@
         <v>5</v>
       </c>
       <c r="B175">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C175" s="2">
-        <v>1053.053955078125</v>
+        <v>78.74800109863281</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2320,10 +2320,10 @@
         <v>5</v>
       </c>
       <c r="B176">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C176" s="2">
-        <v>1084.024047851562</v>
+        <v>35.4119987487793</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2331,10 +2331,10 @@
         <v>5</v>
       </c>
       <c r="B177">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C177" s="2">
-        <v>1082.14599609375</v>
+        <v>4.656000137329102</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2342,10 +2342,10 @@
         <v>5</v>
       </c>
       <c r="B178">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C178" s="2">
-        <v>1089.094970703125</v>
+        <v>78.24800109863281</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2353,10 +2353,10 @@
         <v>5</v>
       </c>
       <c r="B179">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C179" s="2">
-        <v>1180.858032226562</v>
+        <v>47.56999969482422</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2364,10 +2364,10 @@
         <v>5</v>
       </c>
       <c r="B180">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C180" s="2">
-        <v>1139.072998046875</v>
+        <v>-32.06900024414062</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2375,10 +2375,10 @@
         <v>5</v>
       </c>
       <c r="B181">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C181" s="2">
-        <v>1295.574951171875</v>
+        <v>85.74500274658203</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2386,10 +2386,10 @@
         <v>5</v>
       </c>
       <c r="B182">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C182" s="2">
-        <v>1418.31396484375</v>
+        <v>257.6530151367188</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2397,10 +2397,10 @@
         <v>5</v>
       </c>
       <c r="B183">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C183" s="2">
-        <v>1407.163940429688</v>
+        <v>106.7669982910156</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2408,10 +2408,10 @@
         <v>5</v>
       </c>
       <c r="B184">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C184" s="2">
-        <v>1440.994018554688</v>
+        <v>90.59400177001953</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2419,10 +2419,10 @@
         <v>5</v>
       </c>
       <c r="B185">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C185" s="2">
-        <v>1323.859985351562</v>
+        <v>-51.93500137329102</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2430,10 +2430,10 @@
         <v>5</v>
       </c>
       <c r="B186">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C186" s="2">
-        <v>1380.869995117188</v>
+        <v>-30.25200080871582</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2441,10 +2441,10 @@
         <v>5</v>
       </c>
       <c r="B187">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C187" s="2">
-        <v>1341.275024414062</v>
+        <v>-23.87899971008301</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2452,10 +2452,10 @@
         <v>5</v>
       </c>
       <c r="B188">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C188" s="2">
-        <v>1343.680053710938</v>
+        <v>-11.0649995803833</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2463,10 +2463,10 @@
         <v>5</v>
       </c>
       <c r="B189">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C189" s="2">
-        <v>1426.281005859375</v>
+        <v>33.90499877929688</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2474,10 +2474,10 @@
         <v>5</v>
       </c>
       <c r="B190">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C190" s="2">
-        <v>1373.4560546875</v>
+        <v>22.89500045776367</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2485,10 +2485,10 @@
         <v>5</v>
       </c>
       <c r="B191">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C191" s="2">
-        <v>1369.159057617188</v>
+        <v>44.77299880981445</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2496,10 +2496,10 @@
         <v>5</v>
       </c>
       <c r="B192">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C192" s="2">
-        <v>1350.2939453125</v>
+        <v>31.82399940490723</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2507,10 +2507,10 @@
         <v>5</v>
       </c>
       <c r="B193">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C193" s="2">
-        <v>1190.326049804688</v>
+        <v>41.38999938964844</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2518,10 +2518,10 @@
         <v>5</v>
       </c>
       <c r="B194">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C194" s="2">
-        <v>1173.652954101562</v>
+        <v>207.6909942626953</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2529,10 +2529,10 @@
         <v>5</v>
       </c>
       <c r="B195">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C195" s="2">
-        <v>1093.285034179688</v>
+        <v>273.8479919433594</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2540,10 +2540,10 @@
         <v>5</v>
       </c>
       <c r="B196">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C196" s="2">
-        <v>851.302978515625</v>
+        <v>362.1990051269531</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2551,10 +2551,10 @@
         <v>5</v>
       </c>
       <c r="B197">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C197" s="2">
-        <v>785.8099975585938</v>
+        <v>331.4190063476562</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2562,10 +2562,10 @@
         <v>5</v>
       </c>
       <c r="B198">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C198" s="2">
-        <v>599.5289916992188</v>
+        <v>455.8789978027344</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2573,10 +2573,10 @@
         <v>5</v>
       </c>
       <c r="B199">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C199" s="2">
-        <v>532.5700073242188</v>
+        <v>538.2329711914062</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2584,10 +2584,10 @@
         <v>5</v>
       </c>
       <c r="B200">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C200" s="2">
-        <v>493.8200073242188</v>
+        <v>555.6019897460938</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2595,10 +2595,10 @@
         <v>5</v>
       </c>
       <c r="B201">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C201" s="2">
-        <v>472.2669982910156</v>
+        <v>542.4760131835938</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2606,10 +2606,10 @@
         <v>5</v>
       </c>
       <c r="B202">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C202" s="2">
-        <v>396.1010131835938</v>
+        <v>509.9920043945312</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2617,10 +2617,10 @@
         <v>5</v>
       </c>
       <c r="B203">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C203" s="2">
-        <v>442.093994140625</v>
+        <v>503.427001953125</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2628,10 +2628,10 @@
         <v>5</v>
       </c>
       <c r="B204">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C204" s="2">
-        <v>574.0700073242188</v>
+        <v>556.4819946289062</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2639,10 +2639,10 @@
         <v>5</v>
       </c>
       <c r="B205">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C205" s="2">
-        <v>709.2160034179688</v>
+        <v>526.7410278320312</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2650,10 +2650,10 @@
         <v>5</v>
       </c>
       <c r="B206">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C206" s="2">
-        <v>1193.454956054688</v>
+        <v>527.8590087890625</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2661,10 +2661,10 @@
         <v>5</v>
       </c>
       <c r="B207">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C207" s="2">
-        <v>1267.828979492188</v>
+        <v>571.4320068359375</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2672,10 +2672,10 @@
         <v>5</v>
       </c>
       <c r="B208">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C208" s="2">
-        <v>1282.465942382812</v>
+        <v>544.2730102539062</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2683,10 +2683,10 @@
         <v>5</v>
       </c>
       <c r="B209">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C209" s="2">
-        <v>1116.371948242188</v>
+        <v>536.2689819335938</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2694,10 +2694,10 @@
         <v>5</v>
       </c>
       <c r="B210">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C210" s="2">
-        <v>1011.817016601562</v>
+        <v>478.9299926757812</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2705,10 +2705,10 @@
         <v>5</v>
       </c>
       <c r="B211">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C211" s="2">
-        <v>1013.989013671875</v>
+        <v>411.1109924316406</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2716,10 +2716,10 @@
         <v>5</v>
       </c>
       <c r="B212">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C212" s="2">
-        <v>859.31201171875</v>
+        <v>453.5719909667969</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2727,10 +2727,10 @@
         <v>5</v>
       </c>
       <c r="B213">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C213" s="2">
-        <v>910.2869873046875</v>
+        <v>489.3559875488281</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2738,10 +2738,10 @@
         <v>5</v>
       </c>
       <c r="B214">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C214" s="2">
-        <v>891.1370239257812</v>
+        <v>353.7040100097656</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2749,10 +2749,10 @@
         <v>5</v>
       </c>
       <c r="B215">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C215" s="2">
-        <v>890.6900024414062</v>
+        <v>337.75</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2760,10 +2760,10 @@
         <v>5</v>
       </c>
       <c r="B216">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C216" s="2">
-        <v>929.35400390625</v>
+        <v>240.3280029296875</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2771,10 +2771,10 @@
         <v>5</v>
       </c>
       <c r="B217">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C217" s="2">
-        <v>941.6820068359375</v>
+        <v>260.3980102539062</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2782,10 +2782,10 @@
         <v>5</v>
       </c>
       <c r="B218">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C218" s="2">
-        <v>1034.0830078125</v>
+        <v>279.1579895019531</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2793,10 +2793,10 @@
         <v>5</v>
       </c>
       <c r="B219">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C219" s="2">
-        <v>1070.10400390625</v>
+        <v>309.5759887695312</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2804,10 +2804,10 @@
         <v>5</v>
       </c>
       <c r="B220">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C220" s="2">
-        <v>1052.347045898438</v>
+        <v>305.1059875488281</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2815,10 +2815,10 @@
         <v>5</v>
       </c>
       <c r="B221">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C221" s="2">
-        <v>1058.128051757812</v>
+        <v>295.8670043945312</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2826,10 +2826,10 @@
         <v>5</v>
       </c>
       <c r="B222">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C222" s="2">
-        <v>1052.213989257812</v>
+        <v>260.5180053710938</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2837,10 +2837,10 @@
         <v>5</v>
       </c>
       <c r="B223">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C223" s="2">
-        <v>1046.702026367188</v>
+        <v>146.9080047607422</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2848,10 +2848,10 @@
         <v>5</v>
       </c>
       <c r="B224">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C224" s="2">
-        <v>1045.06005859375</v>
+        <v>188.6179962158203</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2859,10 +2859,10 @@
         <v>5</v>
       </c>
       <c r="B225">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C225" s="2">
-        <v>1096.474975585938</v>
+        <v>198.5930023193359</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2870,10 +2870,10 @@
         <v>5</v>
       </c>
       <c r="B226">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C226" s="2">
-        <v>1074.420043945312</v>
+        <v>235.1750030517578</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2881,10 +2881,10 @@
         <v>5</v>
       </c>
       <c r="B227">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C227" s="2">
-        <v>1094.474975585938</v>
+        <v>190.5269927978516</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2892,10 +2892,10 @@
         <v>5</v>
       </c>
       <c r="B228">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C228" s="2">
-        <v>1096.421997070312</v>
+        <v>198.1600036621094</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2903,10 +2903,10 @@
         <v>5</v>
       </c>
       <c r="B229">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C229" s="2">
-        <v>892.5339965820312</v>
+        <v>203.7740020751953</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2914,10 +2914,10 @@
         <v>5</v>
       </c>
       <c r="B230">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C230" s="2">
-        <v>932.447021484375</v>
+        <v>151.4100036621094</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2925,10 +2925,10 @@
         <v>5</v>
       </c>
       <c r="B231">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C231" s="2">
-        <v>927.93701171875</v>
+        <v>262.5769958496094</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2936,10 +2936,10 @@
         <v>5</v>
       </c>
       <c r="B232">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C232" s="2">
-        <v>947.4320068359375</v>
+        <v>343.5889892578125</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2947,10 +2947,10 @@
         <v>5</v>
       </c>
       <c r="B233">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C233" s="2">
-        <v>927.85302734375</v>
+        <v>376.7659912109375</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2958,10 +2958,10 @@
         <v>5</v>
       </c>
       <c r="B234">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C234" s="2">
-        <v>840.051025390625</v>
+        <v>481.7049865722656</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2969,10 +2969,10 @@
         <v>5</v>
       </c>
       <c r="B235">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C235" s="2">
-        <v>798.3880004882812</v>
+        <v>319.2969970703125</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2980,10 +2980,10 @@
         <v>5</v>
       </c>
       <c r="B236">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C236" s="2">
-        <v>782.7919921875</v>
+        <v>354.8869934082031</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2991,10 +2991,10 @@
         <v>5</v>
       </c>
       <c r="B237">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C237" s="2">
-        <v>617.8599853515625</v>
+        <v>470.7569885253906</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3002,164 +3002,164 @@
         <v>5</v>
       </c>
       <c r="B238">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C238" s="2">
-        <v>598.4639892578125</v>
+        <v>258.0639953613281</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B239">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="C239" s="2">
-        <v>471.1700134277344</v>
+        <v>363.2359924316406</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B240">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="C240" s="2">
-        <v>414.2579956054688</v>
+        <v>525.780029296875</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B241">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="C241" s="2">
-        <v>378.7900085449219</v>
+        <v>269.0740051269531</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B242">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="C242" s="2">
-        <v>347.9179992675781</v>
+        <v>250.7799987792969</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B243">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="C243" s="2">
-        <v>283.1929931640625</v>
+        <v>244.60400390625</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B244">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="C244" s="2">
-        <v>293.5979919433594</v>
+        <v>212.9250030517578</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B245">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="C245" s="2">
-        <v>287.3320007324219</v>
+        <v>180.7120056152344</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B246">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="C246" s="2">
-        <v>360.5180053710938</v>
+        <v>162.8500061035156</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B247">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="C247" s="2">
-        <v>373.8779907226562</v>
+        <v>185.9960021972656</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B248">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="C248" s="2">
-        <v>403.5260009765625</v>
+        <v>293.4309997558594</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B249">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="C249" s="2">
-        <v>390.6059875488281</v>
+        <v>528.3319702148438</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B250">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="C250" s="2">
-        <v>413.5379943847656</v>
+        <v>263.1180114746094</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B251">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="C251" s="2">
-        <v>422.7890014648438</v>
+        <v>90.77799987792969</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B252">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="C252" s="2">
-        <v>430.3219909667969</v>
+        <v>82.67099761962891</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3167,10 +3167,10 @@
         <v>6</v>
       </c>
       <c r="B253">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C253" s="2">
-        <v>452.7680053710938</v>
+        <v>56.74599838256836</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3178,10 +3178,10 @@
         <v>6</v>
       </c>
       <c r="B254">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C254" s="2">
-        <v>459.5369873046875</v>
+        <v>21.98800086975098</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3189,10 +3189,10 @@
         <v>6</v>
       </c>
       <c r="B255">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C255" s="2">
-        <v>430.2219848632812</v>
+        <v>37.0880012512207</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3200,10 +3200,10 @@
         <v>6</v>
       </c>
       <c r="B256">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C256" s="2">
-        <v>450.875</v>
+        <v>71.54499816894531</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3211,10 +3211,10 @@
         <v>6</v>
       </c>
       <c r="B257">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C257" s="2">
-        <v>455.9039916992188</v>
+        <v>96.42400360107422</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3222,10 +3222,10 @@
         <v>6</v>
       </c>
       <c r="B258">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C258" s="2">
-        <v>461.7829895019531</v>
+        <v>81.16899871826172</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3233,10 +3233,10 @@
         <v>6</v>
       </c>
       <c r="B259">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C259" s="2">
-        <v>467.8770141601562</v>
+        <v>130.2870025634766</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3244,10 +3244,10 @@
         <v>6</v>
       </c>
       <c r="B260">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C260" s="2">
-        <v>441.2919921875</v>
+        <v>192.0579986572266</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3255,10 +3255,10 @@
         <v>6</v>
       </c>
       <c r="B261">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C261" s="2">
-        <v>406.1589965820312</v>
+        <v>166.0130004882812</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3266,10 +3266,10 @@
         <v>6</v>
       </c>
       <c r="B262">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C262" s="2">
-        <v>330.3219909667969</v>
+        <v>125.2460021972656</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3277,10 +3277,10 @@
         <v>6</v>
       </c>
       <c r="B263">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C263" s="2">
-        <v>271.0320129394531</v>
+        <v>184.9810028076172</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3288,10 +3288,10 @@
         <v>6</v>
       </c>
       <c r="B264">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C264" s="2">
-        <v>386.0780029296875</v>
+        <v>136.1719970703125</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3299,10 +3299,10 @@
         <v>6</v>
       </c>
       <c r="B265">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C265" s="2">
-        <v>427.510009765625</v>
+        <v>98.28199768066406</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3310,10 +3310,10 @@
         <v>6</v>
       </c>
       <c r="B266">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C266" s="2">
-        <v>372.7730102539062</v>
+        <v>175.1269989013672</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3321,10 +3321,10 @@
         <v>6</v>
       </c>
       <c r="B267">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C267" s="2">
-        <v>586.5969848632812</v>
+        <v>125.1920013427734</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3332,10 +3332,10 @@
         <v>6</v>
       </c>
       <c r="B268">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C268" s="2">
-        <v>338.135009765625</v>
+        <v>173.302001953125</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3343,10 +3343,10 @@
         <v>6</v>
       </c>
       <c r="B269">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C269" s="2">
-        <v>397.1759948730469</v>
+        <v>174.3110046386719</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3354,10 +3354,10 @@
         <v>6</v>
       </c>
       <c r="B270">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C270" s="2">
-        <v>377.1050109863281</v>
+        <v>192.6529998779297</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3365,10 +3365,10 @@
         <v>6</v>
       </c>
       <c r="B271">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C271" s="2">
-        <v>596.4110107421875</v>
+        <v>242.1280059814453</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3376,10 +3376,10 @@
         <v>6</v>
       </c>
       <c r="B272">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C272" s="2">
-        <v>612.3079833984375</v>
+        <v>211.9909973144531</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3387,10 +3387,10 @@
         <v>6</v>
       </c>
       <c r="B273">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C273" s="2">
-        <v>648.468017578125</v>
+        <v>102.234001159668</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3398,10 +3398,10 @@
         <v>6</v>
       </c>
       <c r="B274">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C274" s="2">
-        <v>721.5230102539062</v>
+        <v>107.8170013427734</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3409,10 +3409,10 @@
         <v>6</v>
       </c>
       <c r="B275">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C275" s="2">
-        <v>706.906982421875</v>
+        <v>173.1029968261719</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3420,10 +3420,10 @@
         <v>6</v>
       </c>
       <c r="B276">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C276" s="2">
-        <v>666.3510131835938</v>
+        <v>207.7070007324219</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3431,10 +3431,10 @@
         <v>6</v>
       </c>
       <c r="B277">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C277" s="2">
-        <v>690.0170288085938</v>
+        <v>98.43099975585938</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3442,10 +3442,10 @@
         <v>6</v>
       </c>
       <c r="B278">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C278" s="2">
-        <v>626.5260009765625</v>
+        <v>198.2209930419922</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3453,10 +3453,10 @@
         <v>6</v>
       </c>
       <c r="B279">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C279" s="2">
-        <v>720.6290283203125</v>
+        <v>133.97900390625</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3464,10 +3464,10 @@
         <v>6</v>
       </c>
       <c r="B280">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C280" s="2">
-        <v>744.1489868164062</v>
+        <v>117.1220016479492</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3475,10 +3475,10 @@
         <v>6</v>
       </c>
       <c r="B281">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C281" s="2">
-        <v>800.2659912109375</v>
+        <v>162.0919952392578</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3486,10 +3486,10 @@
         <v>6</v>
       </c>
       <c r="B282">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C282" s="2">
-        <v>761.2080078125</v>
+        <v>53.8129997253418</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3497,10 +3497,10 @@
         <v>6</v>
       </c>
       <c r="B283">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C283" s="2">
-        <v>533.6690063476562</v>
+        <v>92.21199798583984</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3508,10 +3508,10 @@
         <v>6</v>
       </c>
       <c r="B284">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C284" s="2">
-        <v>621.208984375</v>
+        <v>145.2920074462891</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3519,10 +3519,10 @@
         <v>6</v>
       </c>
       <c r="B285">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C285" s="2">
-        <v>600.7769775390625</v>
+        <v>281.3210144042969</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3530,10 +3530,10 @@
         <v>6</v>
       </c>
       <c r="B286">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C286" s="2">
-        <v>800.3359985351562</v>
+        <v>230.6840057373047</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3541,10 +3541,10 @@
         <v>6</v>
       </c>
       <c r="B287">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C287" s="2">
-        <v>1031.719970703125</v>
+        <v>310.0639953613281</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3552,10 +3552,10 @@
         <v>6</v>
       </c>
       <c r="B288">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C288" s="2">
-        <v>1042.378051757812</v>
+        <v>491.3410034179688</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3563,10 +3563,10 @@
         <v>6</v>
       </c>
       <c r="B289">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C289" s="2">
-        <v>1103.128051757812</v>
+        <v>424.4089965820312</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3574,10 +3574,10 @@
         <v>6</v>
       </c>
       <c r="B290">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C290" s="2">
-        <v>1108.760009765625</v>
+        <v>485.7919921875</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3585,10 +3585,10 @@
         <v>6</v>
       </c>
       <c r="B291">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C291" s="2">
-        <v>1183.93505859375</v>
+        <v>528.6069946289062</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3596,10 +3596,10 @@
         <v>6</v>
       </c>
       <c r="B292">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C292" s="2">
-        <v>1171.026000976562</v>
+        <v>627.5900268554688</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3607,10 +3607,10 @@
         <v>6</v>
       </c>
       <c r="B293">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C293" s="2">
-        <v>1127.496948242188</v>
+        <v>697.510986328125</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3618,10 +3618,10 @@
         <v>6</v>
       </c>
       <c r="B294">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C294" s="2">
-        <v>946.8460083007812</v>
+        <v>793.7760009765625</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3629,10 +3629,10 @@
         <v>6</v>
       </c>
       <c r="B295">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C295" s="2">
-        <v>908.7769775390625</v>
+        <v>784.155029296875</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3640,10 +3640,10 @@
         <v>6</v>
       </c>
       <c r="B296">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C296" s="2">
-        <v>877.2210083007812</v>
+        <v>810.60302734375</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3651,10 +3651,10 @@
         <v>6</v>
       </c>
       <c r="B297">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C297" s="2">
-        <v>659.4940185546875</v>
+        <v>850.6339721679688</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3662,10 +3662,10 @@
         <v>6</v>
       </c>
       <c r="B298">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C298" s="2">
-        <v>669.4420166015625</v>
+        <v>822.9910278320312</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3673,10 +3673,10 @@
         <v>6</v>
       </c>
       <c r="B299">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C299" s="2">
-        <v>764.5079956054688</v>
+        <v>774.2839965820312</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3684,10 +3684,10 @@
         <v>6</v>
       </c>
       <c r="B300">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C300" s="2">
-        <v>847.4630126953125</v>
+        <v>594.22998046875</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3695,10 +3695,10 @@
         <v>6</v>
       </c>
       <c r="B301">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C301" s="2">
-        <v>1061.77197265625</v>
+        <v>658.7540283203125</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3706,10 +3706,10 @@
         <v>6</v>
       </c>
       <c r="B302">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C302" s="2">
-        <v>1233.017944335938</v>
+        <v>546.3389892578125</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3717,10 +3717,10 @@
         <v>6</v>
       </c>
       <c r="B303">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C303" s="2">
-        <v>1203.951049804688</v>
+        <v>540.2130126953125</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3728,10 +3728,10 @@
         <v>6</v>
       </c>
       <c r="B304">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C304" s="2">
-        <v>1085.43603515625</v>
+        <v>574.9119873046875</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3739,10 +3739,10 @@
         <v>6</v>
       </c>
       <c r="B305">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C305" s="2">
-        <v>1018.213012695312</v>
+        <v>682.4860229492188</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3750,10 +3750,10 @@
         <v>6</v>
       </c>
       <c r="B306">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C306" s="2">
-        <v>956.3590087890625</v>
+        <v>734.7949829101562</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3761,10 +3761,10 @@
         <v>6</v>
       </c>
       <c r="B307">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C307" s="2">
-        <v>893.3460083007812</v>
+        <v>754.4500122070312</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3772,10 +3772,10 @@
         <v>6</v>
       </c>
       <c r="B308">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C308" s="2">
-        <v>596.864990234375</v>
+        <v>698.1400146484375</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3783,10 +3783,10 @@
         <v>6</v>
       </c>
       <c r="B309">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C309" s="2">
-        <v>634.47802734375</v>
+        <v>652.68701171875</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3794,10 +3794,10 @@
         <v>6</v>
       </c>
       <c r="B310">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C310" s="2">
-        <v>657.72802734375</v>
+        <v>697.3809814453125</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3805,10 +3805,10 @@
         <v>6</v>
       </c>
       <c r="B311">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C311" s="2">
-        <v>699.9030151367188</v>
+        <v>721.75</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3816,10 +3816,10 @@
         <v>6</v>
       </c>
       <c r="B312">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C312" s="2">
-        <v>699.5880126953125</v>
+        <v>707.2249755859375</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3827,10 +3827,10 @@
         <v>6</v>
       </c>
       <c r="B313">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C313" s="2">
-        <v>822.2849731445312</v>
+        <v>706.47900390625</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3838,10 +3838,10 @@
         <v>6</v>
       </c>
       <c r="B314">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C314" s="2">
-        <v>827.7589721679688</v>
+        <v>856.3159790039062</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3849,10 +3849,10 @@
         <v>6</v>
       </c>
       <c r="B315">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C315" s="2">
-        <v>650.3709716796875</v>
+        <v>793.2119750976562</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3860,10 +3860,10 @@
         <v>6</v>
       </c>
       <c r="B316">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C316" s="2">
-        <v>647.0750122070312</v>
+        <v>723.114990234375</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -3871,10 +3871,10 @@
         <v>6</v>
       </c>
       <c r="B317">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C317" s="2">
-        <v>615.8800048828125</v>
+        <v>646.2739868164062</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -3882,10 +3882,10 @@
         <v>6</v>
       </c>
       <c r="B318">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C318" s="2">
-        <v>681.1749877929688</v>
+        <v>574.8380126953125</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -3893,10 +3893,10 @@
         <v>6</v>
       </c>
       <c r="B319">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C319" s="2">
-        <v>614.760009765625</v>
+        <v>555.60400390625</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -3904,10 +3904,10 @@
         <v>6</v>
       </c>
       <c r="B320">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C320" s="2">
-        <v>543.3170166015625</v>
+        <v>562.7369995117188</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -3915,10 +3915,10 @@
         <v>6</v>
       </c>
       <c r="B321">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C321" s="2">
-        <v>471.1239929199219</v>
+        <v>578.4550170898438</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -3926,10 +3926,10 @@
         <v>6</v>
       </c>
       <c r="B322">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C322" s="2">
-        <v>416.1820068359375</v>
+        <v>452.635009765625</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -3937,10 +3937,10 @@
         <v>6</v>
       </c>
       <c r="B323">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C323" s="2">
-        <v>308.3980102539062</v>
+        <v>339.6910095214844</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -3948,10 +3948,10 @@
         <v>6</v>
       </c>
       <c r="B324">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C324" s="2">
-        <v>360.1549987792969</v>
+        <v>243.5010070800781</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -3959,10 +3959,10 @@
         <v>6</v>
       </c>
       <c r="B325">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C325" s="2">
-        <v>437.3569946289062</v>
+        <v>323.0669860839844</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -3970,10 +3970,10 @@
         <v>6</v>
       </c>
       <c r="B326">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C326" s="2">
-        <v>364.8699951171875</v>
+        <v>291.8510131835938</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -3981,10 +3981,10 @@
         <v>6</v>
       </c>
       <c r="B327">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C327" s="2">
-        <v>309.3659973144531</v>
+        <v>249.9570007324219</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -3992,10 +3992,10 @@
         <v>6</v>
       </c>
       <c r="B328">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C328" s="2">
-        <v>218.3860015869141</v>
+        <v>258.8450012207031</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -4003,10 +4003,10 @@
         <v>6</v>
       </c>
       <c r="B329">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C329" s="2">
-        <v>128.5959930419922</v>
+        <v>266.2839965820312</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -4014,10 +4014,10 @@
         <v>6</v>
       </c>
       <c r="B330">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C330" s="2">
-        <v>101.3720016479492</v>
+        <v>292.2869873046875</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4025,10 +4025,10 @@
         <v>6</v>
       </c>
       <c r="B331">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C331" s="2">
-        <v>47.83700180053711</v>
+        <v>218.6080017089844</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4036,10 +4036,10 @@
         <v>6</v>
       </c>
       <c r="B332">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C332" s="2">
-        <v>157.9669952392578</v>
+        <v>348.0260009765625</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4047,10 +4047,10 @@
         <v>6</v>
       </c>
       <c r="B333">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C333" s="2">
-        <v>50.17800140380859</v>
+        <v>422.3529968261719</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4058,164 +4058,164 @@
         <v>6</v>
       </c>
       <c r="B334">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C334" s="2">
-        <v>69.12599945068359</v>
+        <v>399.4200134277344</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B335">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="C335" s="2">
-        <v>75.47200012207031</v>
+        <v>415.2690124511719</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B336">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="C336" s="2">
-        <v>111.7020034790039</v>
+        <v>454.510009765625</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B337">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="C337" s="2">
-        <v>63.61199951171875</v>
+        <v>307.0809936523438</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B338">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="C338" s="2">
-        <v>64.13300323486328</v>
+        <v>282.93701171875</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B339">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="C339" s="2">
-        <v>114.9130020141602</v>
+        <v>186.1600036621094</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B340">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="C340" s="2">
-        <v>96.68900299072266</v>
+        <v>173.3529968261719</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B341">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="C341" s="2">
-        <v>99.27999877929688</v>
+        <v>170.5619964599609</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B342">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="C342" s="2">
-        <v>61.03300094604492</v>
+        <v>207.27099609375</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B343">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="C343" s="2">
-        <v>74.01799774169922</v>
+        <v>222.3650054931641</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B344">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="C344" s="2">
-        <v>80.19000244140625</v>
+        <v>171.447998046875</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B345">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="C345" s="2">
-        <v>81.26200103759766</v>
+        <v>172.2310028076172</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B346">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="C346" s="2">
-        <v>101.7310028076172</v>
+        <v>161.8990020751953</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B347">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="C347" s="2">
-        <v>94.76300048828125</v>
+        <v>244.2359924316406</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B348">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="C348" s="2">
-        <v>92.10299682617188</v>
+        <v>258.5190124511719</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -4223,10 +4223,10 @@
         <v>7</v>
       </c>
       <c r="B349">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C349" s="2">
-        <v>108.7099990844727</v>
+        <v>385.2640075683594</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4234,10 +4234,10 @@
         <v>7</v>
       </c>
       <c r="B350">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C350" s="2">
-        <v>106.5479965209961</v>
+        <v>456.4670104980469</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -4245,10 +4245,10 @@
         <v>7</v>
       </c>
       <c r="B351">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C351" s="2">
-        <v>100.8880004882812</v>
+        <v>512.9609985351562</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4256,10 +4256,10 @@
         <v>7</v>
       </c>
       <c r="B352">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C352" s="2">
-        <v>127.5970001220703</v>
+        <v>371.8150024414062</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4267,10 +4267,10 @@
         <v>7</v>
       </c>
       <c r="B353">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C353" s="2">
-        <v>128.8829956054688</v>
+        <v>363.4509887695312</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4278,10 +4278,10 @@
         <v>7</v>
       </c>
       <c r="B354">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C354" s="2">
-        <v>132.9720001220703</v>
+        <v>358.5090026855469</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4289,10 +4289,10 @@
         <v>7</v>
       </c>
       <c r="B355">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C355" s="2">
-        <v>107.4309997558594</v>
+        <v>343.8479919433594</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4300,10 +4300,10 @@
         <v>7</v>
       </c>
       <c r="B356">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C356" s="2">
-        <v>156.2489929199219</v>
+        <v>335.3290100097656</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -4311,10 +4311,10 @@
         <v>7</v>
       </c>
       <c r="B357">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C357" s="2">
-        <v>156.5480041503906</v>
+        <v>348.5239868164062</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -4322,10 +4322,10 @@
         <v>7</v>
       </c>
       <c r="B358">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C358" s="2">
-        <v>161.5359954833984</v>
+        <v>311.0140075683594</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4333,10 +4333,10 @@
         <v>7</v>
       </c>
       <c r="B359">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C359" s="2">
-        <v>184.9040069580078</v>
+        <v>257.3469848632812</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4344,10 +4344,10 @@
         <v>7</v>
       </c>
       <c r="B360">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C360" s="2">
-        <v>195.4210052490234</v>
+        <v>157.8480072021484</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4355,10 +4355,10 @@
         <v>7</v>
       </c>
       <c r="B361">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C361" s="2">
-        <v>223.7830047607422</v>
+        <v>104.5059967041016</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4366,10 +4366,10 @@
         <v>7</v>
       </c>
       <c r="B362">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C362" s="2">
-        <v>265.6109924316406</v>
+        <v>105.5830001831055</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4377,10 +4377,10 @@
         <v>7</v>
       </c>
       <c r="B363">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C363" s="2">
-        <v>254.4720001220703</v>
+        <v>103.7060012817383</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4388,10 +4388,10 @@
         <v>7</v>
       </c>
       <c r="B364">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C364" s="2">
-        <v>219.2599945068359</v>
+        <v>98.78800201416016</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4399,10 +4399,10 @@
         <v>7</v>
       </c>
       <c r="B365">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C365" s="2">
-        <v>247.6970062255859</v>
+        <v>91.79599761962891</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4410,10 +4410,10 @@
         <v>7</v>
       </c>
       <c r="B366">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C366" s="2">
-        <v>172.8919982910156</v>
+        <v>59.89300155639648</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -4421,10 +4421,10 @@
         <v>7</v>
       </c>
       <c r="B367">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C367" s="2">
-        <v>166.8200073242188</v>
+        <v>171.0240020751953</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -4432,10 +4432,10 @@
         <v>7</v>
       </c>
       <c r="B368">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C368" s="2">
-        <v>176.2669982910156</v>
+        <v>141.9259948730469</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4443,10 +4443,10 @@
         <v>7</v>
       </c>
       <c r="B369">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C369" s="2">
-        <v>184.9589996337891</v>
+        <v>140.0890045166016</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -4454,10 +4454,10 @@
         <v>7</v>
       </c>
       <c r="B370">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C370" s="2">
-        <v>212.1690063476562</v>
+        <v>67.43699645996094</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -4465,10 +4465,10 @@
         <v>7</v>
       </c>
       <c r="B371">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C371" s="2">
-        <v>240.0249938964844</v>
+        <v>40.73600006103516</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -4476,10 +4476,10 @@
         <v>7</v>
       </c>
       <c r="B372">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C372" s="2">
-        <v>158.7689971923828</v>
+        <v>-15.85599994659424</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -4487,10 +4487,10 @@
         <v>7</v>
       </c>
       <c r="B373">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C373" s="2">
-        <v>166.447998046875</v>
+        <v>68.74600219726562</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4498,10 +4498,10 @@
         <v>7</v>
       </c>
       <c r="B374">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C374" s="2">
-        <v>152.2350006103516</v>
+        <v>61.53900146484375</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4509,10 +4509,10 @@
         <v>7</v>
       </c>
       <c r="B375">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C375" s="2">
-        <v>92.93800354003906</v>
+        <v>-10.5939998626709</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4520,10 +4520,10 @@
         <v>7</v>
       </c>
       <c r="B376">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C376" s="2">
-        <v>59.0880012512207</v>
+        <v>-21.95400047302246</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -4531,10 +4531,10 @@
         <v>7</v>
       </c>
       <c r="B377">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C377" s="2">
-        <v>22.1879997253418</v>
+        <v>-93.66300201416016</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -4542,10 +4542,10 @@
         <v>7</v>
       </c>
       <c r="B378">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C378" s="2">
-        <v>28.54599952697754</v>
+        <v>-12.77999973297119</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -4553,10 +4553,10 @@
         <v>7</v>
       </c>
       <c r="B379">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C379" s="2">
-        <v>-3.736999988555908</v>
+        <v>68.66699981689453</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -4564,10 +4564,10 @@
         <v>7</v>
       </c>
       <c r="B380">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C380" s="2">
-        <v>-61.96500015258789</v>
+        <v>165.0489959716797</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4575,10 +4575,10 @@
         <v>7</v>
       </c>
       <c r="B381">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C381" s="2">
-        <v>-28.68499946594238</v>
+        <v>190.8860015869141</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4586,10 +4586,10 @@
         <v>7</v>
       </c>
       <c r="B382">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C382" s="2">
-        <v>-56.35300064086914</v>
+        <v>245.5189971923828</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4597,10 +4597,10 @@
         <v>7</v>
       </c>
       <c r="B383">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C383" s="2">
-        <v>-43.53900146484375</v>
+        <v>389.8900146484375</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4608,10 +4608,10 @@
         <v>7</v>
       </c>
       <c r="B384">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C384" s="2">
-        <v>-8.088000297546387</v>
+        <v>404.5350036621094</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -4619,10 +4619,10 @@
         <v>7</v>
       </c>
       <c r="B385">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C385" s="2">
-        <v>-17.48100090026855</v>
+        <v>323.3989868164062</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -4630,10 +4630,10 @@
         <v>7</v>
       </c>
       <c r="B386">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C386" s="2">
-        <v>-41.64099884033203</v>
+        <v>262.2799987792969</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -4641,10 +4641,10 @@
         <v>7</v>
       </c>
       <c r="B387">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C387" s="2">
-        <v>-46.07799911499023</v>
+        <v>247.1739959716797</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -4652,10 +4652,10 @@
         <v>7</v>
       </c>
       <c r="B388">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C388" s="2">
-        <v>-50.49499893188477</v>
+        <v>311.8110046386719</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4663,10 +4663,10 @@
         <v>7</v>
       </c>
       <c r="B389">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C389" s="2">
-        <v>-71.49900054931641</v>
+        <v>469.4110107421875</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -4674,10 +4674,10 @@
         <v>7</v>
       </c>
       <c r="B390">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C390" s="2">
-        <v>-66.80799865722656</v>
+        <v>495.1220092773438</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -4685,10 +4685,10 @@
         <v>7</v>
       </c>
       <c r="B391">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C391" s="2">
-        <v>-68.11699676513672</v>
+        <v>392.4419860839844</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4696,10 +4696,10 @@
         <v>7</v>
       </c>
       <c r="B392">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C392" s="2">
-        <v>-55.93500137329102</v>
+        <v>374.3550109863281</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -4707,10 +4707,10 @@
         <v>7</v>
       </c>
       <c r="B393">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C393" s="2">
-        <v>-83.16400146484375</v>
+        <v>343.8200073242188</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -4718,10 +4718,10 @@
         <v>7</v>
       </c>
       <c r="B394">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C394" s="2">
-        <v>16.61800003051758</v>
+        <v>289.3009948730469</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -4729,10 +4729,10 @@
         <v>7</v>
       </c>
       <c r="B395">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C395" s="2">
-        <v>62.70999908447266</v>
+        <v>312.7179870605469</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -4740,10 +4740,10 @@
         <v>7</v>
       </c>
       <c r="B396">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C396" s="2">
-        <v>72.06099700927734</v>
+        <v>328.4500122070312</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -4751,10 +4751,10 @@
         <v>7</v>
       </c>
       <c r="B397">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C397" s="2">
-        <v>116.9010009765625</v>
+        <v>250.6809997558594</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -4762,10 +4762,10 @@
         <v>7</v>
       </c>
       <c r="B398">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C398" s="2">
-        <v>141.0619964599609</v>
+        <v>216.6009979248047</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -4773,10 +4773,10 @@
         <v>7</v>
       </c>
       <c r="B399">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C399" s="2">
-        <v>180.2799987792969</v>
+        <v>194.468994140625</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -4784,10 +4784,10 @@
         <v>7</v>
       </c>
       <c r="B400">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C400" s="2">
-        <v>342.1489868164062</v>
+        <v>192.677001953125</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -4795,10 +4795,10 @@
         <v>7</v>
       </c>
       <c r="B401">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C401" s="2">
-        <v>371.4509887695312</v>
+        <v>144.125</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -4806,10 +4806,10 @@
         <v>7</v>
       </c>
       <c r="B402">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C402" s="2">
-        <v>480.9259948730469</v>
+        <v>176.5130004882812</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -4817,10 +4817,10 @@
         <v>7</v>
       </c>
       <c r="B403">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C403" s="2">
-        <v>501.9719848632812</v>
+        <v>255.1670074462891</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -4828,10 +4828,10 @@
         <v>7</v>
       </c>
       <c r="B404">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C404" s="2">
-        <v>434.0190124511719</v>
+        <v>373.6619873046875</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -4839,10 +4839,10 @@
         <v>7</v>
       </c>
       <c r="B405">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C405" s="2">
-        <v>323.3940124511719</v>
+        <v>272.1409912109375</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -4850,10 +4850,10 @@
         <v>7</v>
       </c>
       <c r="B406">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C406" s="2">
-        <v>321.9410095214844</v>
+        <v>322.4500122070312</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -4861,10 +4861,10 @@
         <v>7</v>
       </c>
       <c r="B407">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C407" s="2">
-        <v>368.10400390625</v>
+        <v>242.8690032958984</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -4872,10 +4872,10 @@
         <v>7</v>
       </c>
       <c r="B408">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C408" s="2">
-        <v>379.0020141601562</v>
+        <v>278.9419860839844</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -4883,10 +4883,10 @@
         <v>7</v>
       </c>
       <c r="B409">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C409" s="2">
-        <v>328.9440002441406</v>
+        <v>226.7590026855469</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -4894,10 +4894,10 @@
         <v>7</v>
       </c>
       <c r="B410">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C410" s="2">
-        <v>352.2340087890625</v>
+        <v>112.0630035400391</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -4905,10 +4905,10 @@
         <v>7</v>
       </c>
       <c r="B411">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C411" s="2">
-        <v>346.3890075683594</v>
+        <v>87.90899658203125</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -4916,10 +4916,10 @@
         <v>7</v>
       </c>
       <c r="B412">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C412" s="2">
-        <v>289.9230041503906</v>
+        <v>262.1650085449219</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -4927,10 +4927,10 @@
         <v>7</v>
       </c>
       <c r="B413">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C413" s="2">
-        <v>167.6349945068359</v>
+        <v>792.2639770507812</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -4938,10 +4938,10 @@
         <v>7</v>
       </c>
       <c r="B414">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C414" s="2">
-        <v>144.0469970703125</v>
+        <v>1236.1240234375</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -4949,10 +4949,10 @@
         <v>7</v>
       </c>
       <c r="B415">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C415" s="2">
-        <v>141.1369934082031</v>
+        <v>1514.031982421875</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -4960,10 +4960,10 @@
         <v>7</v>
       </c>
       <c r="B416">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C416" s="2">
-        <v>102.5189971923828</v>
+        <v>2028.261962890625</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -4971,10 +4971,10 @@
         <v>7</v>
       </c>
       <c r="B417">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C417" s="2">
-        <v>120.6620025634766</v>
+        <v>2184.929931640625</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -4982,10 +4982,10 @@
         <v>7</v>
       </c>
       <c r="B418">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C418" s="2">
-        <v>92.61299896240234</v>
+        <v>2244.18310546875</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -4993,10 +4993,10 @@
         <v>7</v>
       </c>
       <c r="B419">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C419" s="2">
-        <v>135.5149993896484</v>
+        <v>2349.714111328125</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -5004,10 +5004,10 @@
         <v>7</v>
       </c>
       <c r="B420">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C420" s="2">
-        <v>117.0169982910156</v>
+        <v>2298.77001953125</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -5015,10 +5015,10 @@
         <v>7</v>
       </c>
       <c r="B421">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C421" s="2">
-        <v>140.1679992675781</v>
+        <v>2251.785888671875</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -5026,10 +5026,10 @@
         <v>7</v>
       </c>
       <c r="B422">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C422" s="2">
-        <v>174.4739990234375</v>
+        <v>2140.99609375</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -5037,10 +5037,10 @@
         <v>7</v>
       </c>
       <c r="B423">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C423" s="2">
-        <v>93.87100219726562</v>
+        <v>2290.52587890625</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -5048,10 +5048,10 @@
         <v>7</v>
       </c>
       <c r="B424">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C424" s="2">
-        <v>66.79000091552734</v>
+        <v>2312.06103515625</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -5059,10 +5059,10 @@
         <v>7</v>
       </c>
       <c r="B425">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C425" s="2">
-        <v>78.71399688720703</v>
+        <v>2279.06591796875</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -5070,10 +5070,10 @@
         <v>7</v>
       </c>
       <c r="B426">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C426" s="2">
-        <v>76.92299652099609</v>
+        <v>2345.9990234375</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -5081,10 +5081,10 @@
         <v>7</v>
       </c>
       <c r="B427">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C427" s="2">
-        <v>50.20600128173828</v>
+        <v>2335.9140625</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -5092,10 +5092,10 @@
         <v>7</v>
       </c>
       <c r="B428">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C428" s="2">
-        <v>-11.40100002288818</v>
+        <v>2349.382080078125</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -5103,10 +5103,10 @@
         <v>7</v>
       </c>
       <c r="B429">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C429" s="2">
-        <v>197.4190063476562</v>
+        <v>2385.48095703125</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -5114,164 +5114,164 @@
         <v>7</v>
       </c>
       <c r="B430">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C430" s="2">
-        <v>45.04700088500977</v>
+        <v>2402.72802734375</v>
       </c>
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B431">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="C431" s="2">
-        <v>170.4920043945312</v>
+        <v>2389.06103515625</v>
       </c>
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B432">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="C432" s="2">
-        <v>119.3720016479492</v>
+        <v>2395.431884765625</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B433">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="C433" s="2">
-        <v>212.2660064697266</v>
+        <v>2397.55810546875</v>
       </c>
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B434">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="C434" s="2">
-        <v>180.8150024414062</v>
+        <v>2366.30810546875</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B435">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="C435" s="2">
-        <v>208.7169952392578</v>
+        <v>2357.919921875</v>
       </c>
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B436">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="C436" s="2">
-        <v>117.3099975585938</v>
+        <v>2385.782958984375</v>
       </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B437">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="C437" s="2">
-        <v>184.968994140625</v>
+        <v>2308.81201171875</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B438">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="C438" s="2">
-        <v>164.375</v>
+        <v>2294.970947265625</v>
       </c>
     </row>
     <row r="439" spans="1:3">
       <c r="A439" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B439">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="C439" s="2">
-        <v>131.5970001220703</v>
+        <v>2284.06494140625</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B440">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="C440" s="2">
-        <v>183.0670013427734</v>
+        <v>2248.299072265625</v>
       </c>
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B441">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="C441" s="2">
-        <v>164.2109985351562</v>
+        <v>2247.97998046875</v>
       </c>
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B442">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="C442" s="2">
-        <v>164.4340057373047</v>
+        <v>2283.008056640625</v>
       </c>
     </row>
     <row r="443" spans="1:3">
       <c r="A443" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B443">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="C443" s="2">
-        <v>187.1809997558594</v>
+        <v>2242.60107421875</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B444">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="C444" s="2">
-        <v>266.010986328125</v>
+        <v>2240.889892578125</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -5279,10 +5279,10 @@
         <v>8</v>
       </c>
       <c r="B445">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C445" s="2">
-        <v>38.5369987487793</v>
+        <v>2558.35009765625</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -5290,10 +5290,10 @@
         <v>8</v>
       </c>
       <c r="B446">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C446" s="2">
-        <v>119.0410003662109</v>
+        <v>2580.998046875</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -5301,10 +5301,10 @@
         <v>8</v>
       </c>
       <c r="B447">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C447" s="2">
-        <v>113.5709991455078</v>
+        <v>2585.27001953125</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -5312,10 +5312,10 @@
         <v>8</v>
       </c>
       <c r="B448">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C448" s="2">
-        <v>77.60900115966797</v>
+        <v>2582.302978515625</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -5323,10 +5323,10 @@
         <v>8</v>
       </c>
       <c r="B449">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C449" s="2">
-        <v>88.052001953125</v>
+        <v>2551.9140625</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -5334,10 +5334,10 @@
         <v>8</v>
       </c>
       <c r="B450">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C450" s="2">
-        <v>205.2850036621094</v>
+        <v>2571.887939453125</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -5345,10 +5345,10 @@
         <v>8</v>
       </c>
       <c r="B451">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C451" s="2">
-        <v>98.83300018310547</v>
+        <v>2567.9970703125</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -5356,10 +5356,10 @@
         <v>8</v>
       </c>
       <c r="B452">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C452" s="2">
-        <v>53.83000183105469</v>
+        <v>2601.613037109375</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -5367,10 +5367,10 @@
         <v>8</v>
       </c>
       <c r="B453">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C453" s="2">
-        <v>63.99300003051758</v>
+        <v>2586.738037109375</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -5378,10 +5378,10 @@
         <v>8</v>
       </c>
       <c r="B454">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C454" s="2">
-        <v>97.57700347900391</v>
+        <v>2583.537109375</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -5389,10 +5389,10 @@
         <v>8</v>
       </c>
       <c r="B455">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C455" s="2">
-        <v>106.4789962768555</v>
+        <v>2568.489013671875</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -5400,10 +5400,10 @@
         <v>8</v>
       </c>
       <c r="B456">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C456" s="2">
-        <v>125.7620010375977</v>
+        <v>2553.962890625</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -5411,10 +5411,10 @@
         <v>8</v>
       </c>
       <c r="B457">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C457" s="2">
-        <v>139.0890045166016</v>
+        <v>2531.26611328125</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -5422,10 +5422,10 @@
         <v>8</v>
       </c>
       <c r="B458">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C458" s="2">
-        <v>106.2249984741211</v>
+        <v>2534.85009765625</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -5433,10 +5433,10 @@
         <v>8</v>
       </c>
       <c r="B459">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C459" s="2">
-        <v>54.73699951171875</v>
+        <v>2539.360107421875</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -5444,10 +5444,10 @@
         <v>8</v>
       </c>
       <c r="B460">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C460" s="2">
-        <v>71.2969970703125</v>
+        <v>2522.419921875</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -5455,10 +5455,10 @@
         <v>8</v>
       </c>
       <c r="B461">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C461" s="2">
-        <v>87.60299682617188</v>
+        <v>2519.35107421875</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -5466,10 +5466,10 @@
         <v>8</v>
       </c>
       <c r="B462">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C462" s="2">
-        <v>142.0090026855469</v>
+        <v>2516.2900390625</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -5477,10 +5477,10 @@
         <v>8</v>
       </c>
       <c r="B463">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C463" s="2">
-        <v>77.12999725341797</v>
+        <v>2499.595947265625</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -5488,10 +5488,10 @@
         <v>8</v>
       </c>
       <c r="B464">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C464" s="2">
-        <v>93.7030029296875</v>
+        <v>2514.373046875</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -5499,10 +5499,10 @@
         <v>8</v>
       </c>
       <c r="B465">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C465" s="2">
-        <v>111.1080017089844</v>
+        <v>2551.60595703125</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -5510,10 +5510,10 @@
         <v>8</v>
       </c>
       <c r="B466">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C466" s="2">
-        <v>120.7190017700195</v>
+        <v>2550.9140625</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -5521,10 +5521,10 @@
         <v>8</v>
       </c>
       <c r="B467">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C467" s="2">
-        <v>129.8730010986328</v>
+        <v>2557.93798828125</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -5532,10 +5532,10 @@
         <v>8</v>
       </c>
       <c r="B468">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C468" s="2">
-        <v>82.05400085449219</v>
+        <v>2566.35595703125</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -5543,10 +5543,10 @@
         <v>8</v>
       </c>
       <c r="B469">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C469" s="2">
-        <v>86.61499786376953</v>
+        <v>2584.240966796875</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -5554,10 +5554,10 @@
         <v>8</v>
       </c>
       <c r="B470">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C470" s="2">
-        <v>84.55599975585938</v>
+        <v>2576.027099609375</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -5565,10 +5565,10 @@
         <v>8</v>
       </c>
       <c r="B471">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C471" s="2">
-        <v>168.7180023193359</v>
+        <v>2584.69189453125</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -5576,10 +5576,10 @@
         <v>8</v>
       </c>
       <c r="B472">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C472" s="2">
-        <v>206.1759948730469</v>
+        <v>2585.009033203125</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -5587,10 +5587,10 @@
         <v>8</v>
       </c>
       <c r="B473">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C473" s="2">
-        <v>227.8459930419922</v>
+        <v>2549.825927734375</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -5598,10 +5598,10 @@
         <v>8</v>
       </c>
       <c r="B474">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C474" s="2">
-        <v>247.4029998779297</v>
+        <v>2557.10205078125</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -5609,10 +5609,10 @@
         <v>8</v>
       </c>
       <c r="B475">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C475" s="2">
-        <v>225.4929962158203</v>
+        <v>2543.02099609375</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -5620,10 +5620,10 @@
         <v>8</v>
       </c>
       <c r="B476">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C476" s="2">
-        <v>135.8760070800781</v>
+        <v>2525.35595703125</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -5631,10 +5631,10 @@
         <v>8</v>
       </c>
       <c r="B477">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C477" s="2">
-        <v>166.0820007324219</v>
+        <v>2461.027099609375</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -5642,10 +5642,10 @@
         <v>8</v>
       </c>
       <c r="B478">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C478" s="2">
-        <v>139.3379974365234</v>
+        <v>2411.804931640625</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -5653,10 +5653,10 @@
         <v>8</v>
       </c>
       <c r="B479">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C479" s="2">
-        <v>167.2899932861328</v>
+        <v>2384.35400390625</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -5664,10 +5664,10 @@
         <v>8</v>
       </c>
       <c r="B480">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C480" s="2">
-        <v>188.3820037841797</v>
+        <v>2318.10498046875</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -5675,10 +5675,10 @@
         <v>8</v>
       </c>
       <c r="B481">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C481" s="2">
-        <v>129.0359954833984</v>
+        <v>2290.7880859375</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -5686,10 +5686,10 @@
         <v>8</v>
       </c>
       <c r="B482">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C482" s="2">
-        <v>125.0930023193359</v>
+        <v>2230.6298828125</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -5697,10 +5697,10 @@
         <v>8</v>
       </c>
       <c r="B483">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C483" s="2">
-        <v>221.3910064697266</v>
+        <v>2192.027099609375</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -5708,10 +5708,10 @@
         <v>8</v>
       </c>
       <c r="B484">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C484" s="2">
-        <v>225.7389984130859</v>
+        <v>2098.760009765625</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -5719,10 +5719,10 @@
         <v>8</v>
       </c>
       <c r="B485">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C485" s="2">
-        <v>199.7669982910156</v>
+        <v>2052.01708984375</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -5730,10 +5730,10 @@
         <v>8</v>
       </c>
       <c r="B486">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C486" s="2">
-        <v>198.8569946289062</v>
+        <v>2018.029052734375</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -5741,10 +5741,10 @@
         <v>8</v>
       </c>
       <c r="B487">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C487" s="2">
-        <v>215.3489990234375</v>
+        <v>1762.093017578125</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -5752,10 +5752,10 @@
         <v>8</v>
       </c>
       <c r="B488">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C488" s="2">
-        <v>243.3760070800781</v>
+        <v>1670.60400390625</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -5763,10 +5763,10 @@
         <v>8</v>
       </c>
       <c r="B489">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C489" s="2">
-        <v>242.1410064697266</v>
+        <v>1747.469970703125</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -5774,10 +5774,10 @@
         <v>8</v>
       </c>
       <c r="B490">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C490" s="2">
-        <v>166.1809997558594</v>
+        <v>1522.93798828125</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -5785,10 +5785,10 @@
         <v>8</v>
       </c>
       <c r="B491">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C491" s="2">
-        <v>267.4089965820312</v>
+        <v>1357.510986328125</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -5796,10 +5796,10 @@
         <v>8</v>
       </c>
       <c r="B492">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C492" s="2">
-        <v>256.5580139160156</v>
+        <v>1098.449951171875</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -5807,10 +5807,10 @@
         <v>8</v>
       </c>
       <c r="B493">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C493" s="2">
-        <v>285.2640075683594</v>
+        <v>875.5479736328125</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -5818,10 +5818,10 @@
         <v>8</v>
       </c>
       <c r="B494">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C494" s="2">
-        <v>343.364990234375</v>
+        <v>889.2269897460938</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -5829,10 +5829,10 @@
         <v>8</v>
       </c>
       <c r="B495">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C495" s="2">
-        <v>392.2160034179688</v>
+        <v>841.3179931640625</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -5840,10 +5840,10 @@
         <v>8</v>
       </c>
       <c r="B496">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C496" s="2">
-        <v>398.9700012207031</v>
+        <v>806.1669921875</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -5851,10 +5851,10 @@
         <v>8</v>
       </c>
       <c r="B497">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C497" s="2">
-        <v>372.0429992675781</v>
+        <v>741.333984375</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -5862,10 +5862,10 @@
         <v>8</v>
       </c>
       <c r="B498">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C498" s="2">
-        <v>411.4460144042969</v>
+        <v>681.2520141601562</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -5873,10 +5873,10 @@
         <v>8</v>
       </c>
       <c r="B499">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C499" s="2">
-        <v>451.510986328125</v>
+        <v>554.97900390625</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -5884,10 +5884,10 @@
         <v>8</v>
       </c>
       <c r="B500">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C500" s="2">
-        <v>530.8930053710938</v>
+        <v>768.5059814453125</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -5895,10 +5895,10 @@
         <v>8</v>
       </c>
       <c r="B501">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C501" s="2">
-        <v>547.0599975585938</v>
+        <v>633.1370239257812</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -5906,10 +5906,10 @@
         <v>8</v>
       </c>
       <c r="B502">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C502" s="2">
-        <v>642.3460083007812</v>
+        <v>670.4290161132812</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -5917,10 +5917,10 @@
         <v>8</v>
       </c>
       <c r="B503">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C503" s="2">
-        <v>693.0120239257812</v>
+        <v>742.9439697265625</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -5928,10 +5928,10 @@
         <v>8</v>
       </c>
       <c r="B504">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C504" s="2">
-        <v>629.3179931640625</v>
+        <v>566.0339965820312</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -5939,10 +5939,10 @@
         <v>8</v>
       </c>
       <c r="B505">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C505" s="2">
-        <v>773.2890014648438</v>
+        <v>524.3790283203125</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -5950,10 +5950,10 @@
         <v>8</v>
       </c>
       <c r="B506">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C506" s="2">
-        <v>823.8350219726562</v>
+        <v>721.5009765625</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -5961,10 +5961,10 @@
         <v>8</v>
       </c>
       <c r="B507">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C507" s="2">
-        <v>833.9970092773438</v>
+        <v>742.5960083007812</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -5972,10 +5972,10 @@
         <v>8</v>
       </c>
       <c r="B508">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C508" s="2">
-        <v>750.6279907226562</v>
+        <v>830.5700073242188</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -5983,10 +5983,10 @@
         <v>8</v>
       </c>
       <c r="B509">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C509" s="2">
-        <v>614.7550048828125</v>
+        <v>835.3410034179688</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -5994,10 +5994,10 @@
         <v>8</v>
       </c>
       <c r="B510">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C510" s="2">
-        <v>505.802001953125</v>
+        <v>819.6900024414062</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -6005,10 +6005,10 @@
         <v>8</v>
       </c>
       <c r="B511">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C511" s="2">
-        <v>548.594970703125</v>
+        <v>832.4940185546875</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -6016,10 +6016,10 @@
         <v>8</v>
       </c>
       <c r="B512">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C512" s="2">
-        <v>425.9330139160156</v>
+        <v>794.7990112304688</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -6027,10 +6027,10 @@
         <v>8</v>
       </c>
       <c r="B513">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C513" s="2">
-        <v>354.9140014648438</v>
+        <v>640.541015625</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -6038,10 +6038,10 @@
         <v>8</v>
       </c>
       <c r="B514">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C514" s="2">
-        <v>310.7999877929688</v>
+        <v>561.4390258789062</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -6049,10 +6049,10 @@
         <v>8</v>
       </c>
       <c r="B515">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C515" s="2">
-        <v>185.7489929199219</v>
+        <v>411.656005859375</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -6060,10 +6060,10 @@
         <v>8</v>
       </c>
       <c r="B516">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C516" s="2">
-        <v>241.0599975585938</v>
+        <v>528.1749877929688</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -6071,10 +6071,10 @@
         <v>8</v>
       </c>
       <c r="B517">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C517" s="2">
-        <v>194.6210021972656</v>
+        <v>590.2769775390625</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -6082,10 +6082,10 @@
         <v>8</v>
       </c>
       <c r="B518">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C518" s="2">
-        <v>158.1779937744141</v>
+        <v>534.0889892578125</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -6093,10 +6093,10 @@
         <v>8</v>
       </c>
       <c r="B519">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C519" s="2">
-        <v>181.7050018310547</v>
+        <v>581.1489868164062</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -6104,10 +6104,10 @@
         <v>8</v>
       </c>
       <c r="B520">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C520" s="2">
-        <v>170.802001953125</v>
+        <v>504.9289855957031</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -6115,10 +6115,10 @@
         <v>8</v>
       </c>
       <c r="B521">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C521" s="2">
-        <v>135.0970001220703</v>
+        <v>542.3150024414062</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -6126,10 +6126,10 @@
         <v>8</v>
       </c>
       <c r="B522">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C522" s="2">
-        <v>134.1869964599609</v>
+        <v>506.1380004882812</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -6137,10 +6137,10 @@
         <v>8</v>
       </c>
       <c r="B523">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C523" s="2">
-        <v>86.41600036621094</v>
+        <v>382.0799865722656</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -6148,10 +6148,10 @@
         <v>8</v>
       </c>
       <c r="B524">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C524" s="2">
-        <v>76.40399932861328</v>
+        <v>462.3399963378906</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -6159,10 +6159,10 @@
         <v>8</v>
       </c>
       <c r="B525">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C525" s="2">
-        <v>73.62899780273438</v>
+        <v>460.2109985351562</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -6170,164 +6170,164 @@
         <v>8</v>
       </c>
       <c r="B526">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C526" s="2">
-        <v>81.00700378417969</v>
+        <v>449.1050109863281</v>
       </c>
     </row>
     <row r="527" spans="1:3">
       <c r="A527" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B527">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="C527" s="2">
-        <v>223.7230072021484</v>
+        <v>444.0750122070312</v>
       </c>
     </row>
     <row r="528" spans="1:3">
       <c r="A528" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B528">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="C528" s="2">
-        <v>230.3939971923828</v>
+        <v>447.6510009765625</v>
       </c>
     </row>
     <row r="529" spans="1:3">
       <c r="A529" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B529">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="C529" s="2">
-        <v>234.2330017089844</v>
+        <v>452.6159973144531</v>
       </c>
     </row>
     <row r="530" spans="1:3">
       <c r="A530" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B530">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="C530" s="2">
-        <v>263.9809875488281</v>
+        <v>532.6599731445312</v>
       </c>
     </row>
     <row r="531" spans="1:3">
       <c r="A531" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B531">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="C531" s="2">
-        <v>306.5969848632812</v>
+        <v>490.8420104980469</v>
       </c>
     </row>
     <row r="532" spans="1:3">
       <c r="A532" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B532">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="C532" s="2">
-        <v>289.9599914550781</v>
+        <v>545.27197265625</v>
       </c>
     </row>
     <row r="533" spans="1:3">
       <c r="A533" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B533">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="C533" s="2">
-        <v>318.0440063476562</v>
+        <v>408.1900024414062</v>
       </c>
     </row>
     <row r="534" spans="1:3">
       <c r="A534" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B534">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="C534" s="2">
-        <v>183.25</v>
+        <v>331.1889953613281</v>
       </c>
     </row>
     <row r="535" spans="1:3">
       <c r="A535" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B535">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="C535" s="2">
-        <v>212.3939971923828</v>
+        <v>319.125</v>
       </c>
     </row>
     <row r="536" spans="1:3">
       <c r="A536" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B536">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="C536" s="2">
-        <v>223.9799957275391</v>
+        <v>370.177001953125</v>
       </c>
     </row>
     <row r="537" spans="1:3">
       <c r="A537" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B537">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="C537" s="2">
-        <v>202.6569976806641</v>
+        <v>431.2260131835938</v>
       </c>
     </row>
     <row r="538" spans="1:3">
       <c r="A538" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B538">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="C538" s="2">
-        <v>222.1889953613281</v>
+        <v>554.31201171875</v>
       </c>
     </row>
     <row r="539" spans="1:3">
       <c r="A539" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B539">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="C539" s="2">
-        <v>231.3099975585938</v>
+        <v>574.718017578125</v>
       </c>
     </row>
     <row r="540" spans="1:3">
       <c r="A540" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B540">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="C540" s="2">
-        <v>231.3370056152344</v>
+        <v>592.7999877929688</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -6335,10 +6335,10 @@
         <v>9</v>
       </c>
       <c r="B541">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C541" s="2">
-        <v>212.4290008544922</v>
+        <v>422.22900390625</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -6346,10 +6346,10 @@
         <v>9</v>
       </c>
       <c r="B542">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C542" s="2">
-        <v>215.1069946289062</v>
+        <v>464.239013671875</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -6357,10 +6357,10 @@
         <v>9</v>
       </c>
       <c r="B543">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C543" s="2">
-        <v>229.906005859375</v>
+        <v>514.7039794921875</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -6368,10 +6368,10 @@
         <v>9</v>
       </c>
       <c r="B544">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C544" s="2">
-        <v>212.4100036621094</v>
+        <v>637.2969970703125</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -6379,10 +6379,10 @@
         <v>9</v>
       </c>
       <c r="B545">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C545" s="2">
-        <v>209.6990051269531</v>
+        <v>646.5560302734375</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -6390,10 +6390,10 @@
         <v>9</v>
       </c>
       <c r="B546">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C546" s="2">
-        <v>244.1419982910156</v>
+        <v>631.8200073242188</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -6401,10 +6401,10 @@
         <v>9</v>
       </c>
       <c r="B547">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C547" s="2">
-        <v>225.9629974365234</v>
+        <v>632.7000122070312</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -6412,10 +6412,10 @@
         <v>9</v>
       </c>
       <c r="B548">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C548" s="2">
-        <v>231.4239959716797</v>
+        <v>602.3389892578125</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -6423,10 +6423,10 @@
         <v>9</v>
       </c>
       <c r="B549">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C549" s="2">
-        <v>239.1289978027344</v>
+        <v>604.9860229492188</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -6434,10 +6434,10 @@
         <v>9</v>
       </c>
       <c r="B550">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C550" s="2">
-        <v>289.8510131835938</v>
+        <v>607.4450073242188</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -6445,10 +6445,10 @@
         <v>9</v>
       </c>
       <c r="B551">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C551" s="2">
-        <v>285.6650085449219</v>
+        <v>647.4869995117188</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -6456,10 +6456,10 @@
         <v>9</v>
       </c>
       <c r="B552">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C552" s="2">
-        <v>269.9779968261719</v>
+        <v>611.718017578125</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -6467,10 +6467,10 @@
         <v>9</v>
       </c>
       <c r="B553">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C553" s="2">
-        <v>251.2539978027344</v>
+        <v>549.2210083007812</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -6478,10 +6478,10 @@
         <v>9</v>
       </c>
       <c r="B554">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C554" s="2">
-        <v>259.0429992675781</v>
+        <v>560.5339965820312</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -6489,10 +6489,10 @@
         <v>9</v>
       </c>
       <c r="B555">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C555" s="2">
-        <v>294.0960083007812</v>
+        <v>539.947021484375</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -6500,10 +6500,10 @@
         <v>9</v>
       </c>
       <c r="B556">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C556" s="2">
-        <v>400.7279968261719</v>
+        <v>728.7080078125</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -6511,10 +6511,10 @@
         <v>9</v>
       </c>
       <c r="B557">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C557" s="2">
-        <v>485.8680114746094</v>
+        <v>733.02001953125</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -6522,10 +6522,10 @@
         <v>9</v>
       </c>
       <c r="B558">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C558" s="2">
-        <v>649.8900146484375</v>
+        <v>754.3280029296875</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -6533,10 +6533,10 @@
         <v>9</v>
       </c>
       <c r="B559">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C559" s="2">
-        <v>736.6640014648438</v>
+        <v>697.1489868164062</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -6544,10 +6544,10 @@
         <v>9</v>
       </c>
       <c r="B560">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C560" s="2">
-        <v>629.52001953125</v>
+        <v>756.0430297851562</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -6555,10 +6555,10 @@
         <v>9</v>
       </c>
       <c r="B561">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C561" s="2">
-        <v>643.5419921875</v>
+        <v>721.708984375</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -6566,10 +6566,10 @@
         <v>9</v>
       </c>
       <c r="B562">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C562" s="2">
-        <v>415.2210083007812</v>
+        <v>774.3829956054688</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -6577,10 +6577,10 @@
         <v>9</v>
       </c>
       <c r="B563">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C563" s="2">
-        <v>551.6820068359375</v>
+        <v>717.6290283203125</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -6588,10 +6588,10 @@
         <v>9</v>
       </c>
       <c r="B564">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C564" s="2">
-        <v>509.4909973144531</v>
+        <v>628.7260131835938</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -6599,10 +6599,10 @@
         <v>9</v>
       </c>
       <c r="B565">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C565" s="2">
-        <v>512.2069702148438</v>
+        <v>557.7689819335938</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -6610,10 +6610,10 @@
         <v>9</v>
       </c>
       <c r="B566">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C566" s="2">
-        <v>655.4420166015625</v>
+        <v>494.9030151367188</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -6621,10 +6621,10 @@
         <v>9</v>
       </c>
       <c r="B567">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C567" s="2">
-        <v>1027.134033203125</v>
+        <v>541.3709716796875</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -6632,10 +6632,10 @@
         <v>9</v>
       </c>
       <c r="B568">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C568" s="2">
-        <v>1150.77001953125</v>
+        <v>549.947021484375</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -6643,10 +6643,10 @@
         <v>9</v>
       </c>
       <c r="B569">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C569" s="2">
-        <v>1167.989990234375</v>
+        <v>494.9880065917969</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -6654,10 +6654,10 @@
         <v>9</v>
       </c>
       <c r="B570">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C570" s="2">
-        <v>1182.211059570312</v>
+        <v>497.9750061035156</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -6665,10 +6665,10 @@
         <v>9</v>
       </c>
       <c r="B571">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C571" s="2">
-        <v>1167.671020507812</v>
+        <v>425.2839965820312</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -6676,10 +6676,10 @@
         <v>9</v>
       </c>
       <c r="B572">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C572" s="2">
-        <v>1256.994995117188</v>
+        <v>410.2319946289062</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -6687,10 +6687,10 @@
         <v>9</v>
       </c>
       <c r="B573">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C573" s="2">
-        <v>1160.963012695312</v>
+        <v>327.4769897460938</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -6698,10 +6698,10 @@
         <v>9</v>
       </c>
       <c r="B574">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C574" s="2">
-        <v>1093.870971679688</v>
+        <v>345.239990234375</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -6709,10 +6709,10 @@
         <v>9</v>
       </c>
       <c r="B575">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C575" s="2">
-        <v>1053.212036132812</v>
+        <v>435.3630065917969</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -6720,10 +6720,10 @@
         <v>9</v>
       </c>
       <c r="B576">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C576" s="2">
-        <v>1062.347045898438</v>
+        <v>432.0650024414062</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -6731,10 +6731,10 @@
         <v>9</v>
       </c>
       <c r="B577">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C577" s="2">
-        <v>1096.432006835938</v>
+        <v>462.9219970703125</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -6742,10 +6742,10 @@
         <v>9</v>
       </c>
       <c r="B578">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C578" s="2">
-        <v>1153.85400390625</v>
+        <v>542.7579956054688</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -6753,10 +6753,10 @@
         <v>9</v>
       </c>
       <c r="B579">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C579" s="2">
-        <v>1159.81494140625</v>
+        <v>465.2059936523438</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -6764,10 +6764,10 @@
         <v>9</v>
       </c>
       <c r="B580">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C580" s="2">
-        <v>1136.159057617188</v>
+        <v>626.02197265625</v>
       </c>
     </row>
     <row r="581" spans="1:3">
@@ -6775,10 +6775,10 @@
         <v>9</v>
       </c>
       <c r="B581">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C581" s="2">
-        <v>1163.68896484375</v>
+        <v>532.3460083007812</v>
       </c>
     </row>
     <row r="582" spans="1:3">
@@ -6786,10 +6786,10 @@
         <v>9</v>
       </c>
       <c r="B582">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C582" s="2">
-        <v>1161.922973632812</v>
+        <v>526.9949951171875</v>
       </c>
     </row>
     <row r="583" spans="1:3">
@@ -6797,10 +6797,10 @@
         <v>9</v>
       </c>
       <c r="B583">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C583" s="2">
-        <v>1034.362060546875</v>
+        <v>546.2930297851562</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -6808,10 +6808,10 @@
         <v>9</v>
       </c>
       <c r="B584">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C584" s="2">
-        <v>1027.765991210938</v>
+        <v>513.989990234375</v>
       </c>
     </row>
     <row r="585" spans="1:3">
@@ -6819,10 +6819,10 @@
         <v>9</v>
       </c>
       <c r="B585">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C585" s="2">
-        <v>1033.767944335938</v>
+        <v>525.6420288085938</v>
       </c>
     </row>
     <row r="586" spans="1:3">
@@ -6830,10 +6830,10 @@
         <v>9</v>
       </c>
       <c r="B586">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C586" s="2">
-        <v>1043.06298828125</v>
+        <v>483.2980041503906</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -6841,10 +6841,10 @@
         <v>9</v>
       </c>
       <c r="B587">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C587" s="2">
-        <v>1152.203979492188</v>
+        <v>628.6849975585938</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -6852,10 +6852,10 @@
         <v>9</v>
       </c>
       <c r="B588">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C588" s="2">
-        <v>1175.47802734375</v>
+        <v>625.85498046875</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -6863,10 +6863,10 @@
         <v>9</v>
       </c>
       <c r="B589">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C589" s="2">
-        <v>1230.701049804688</v>
+        <v>524.719970703125</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -6874,10 +6874,10 @@
         <v>9</v>
       </c>
       <c r="B590">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C590" s="2">
-        <v>1177.990966796875</v>
+        <v>496.4349975585938</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -6885,10 +6885,10 @@
         <v>9</v>
       </c>
       <c r="B591">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C591" s="2">
-        <v>1265.714965820312</v>
+        <v>538.458984375</v>
       </c>
     </row>
     <row r="592" spans="1:3">
@@ -6896,10 +6896,10 @@
         <v>9</v>
       </c>
       <c r="B592">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C592" s="2">
-        <v>1372.77197265625</v>
+        <v>520.02001953125</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -6907,10 +6907,10 @@
         <v>9</v>
       </c>
       <c r="B593">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C593" s="2">
-        <v>1500.484008789062</v>
+        <v>458.625</v>
       </c>
     </row>
     <row r="594" spans="1:3">
@@ -6918,10 +6918,10 @@
         <v>9</v>
       </c>
       <c r="B594">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C594" s="2">
-        <v>1395.619995117188</v>
+        <v>464.6650085449219</v>
       </c>
     </row>
     <row r="595" spans="1:3">
@@ -6929,10 +6929,10 @@
         <v>9</v>
       </c>
       <c r="B595">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C595" s="2">
-        <v>1299.0419921875</v>
+        <v>727.8709716796875</v>
       </c>
     </row>
     <row r="596" spans="1:3">
@@ -6940,10 +6940,10 @@
         <v>9</v>
       </c>
       <c r="B596">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C596" s="2">
-        <v>1257.156005859375</v>
+        <v>807.1339721679688</v>
       </c>
     </row>
     <row r="597" spans="1:3">
@@ -6951,10 +6951,10 @@
         <v>9</v>
       </c>
       <c r="B597">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C597" s="2">
-        <v>1225.972045898438</v>
+        <v>812.7109985351562</v>
       </c>
     </row>
     <row r="598" spans="1:3">
@@ -6962,10 +6962,10 @@
         <v>9</v>
       </c>
       <c r="B598">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C598" s="2">
-        <v>1285.234985351562</v>
+        <v>795.9000244140625</v>
       </c>
     </row>
     <row r="599" spans="1:3">
@@ -6973,10 +6973,10 @@
         <v>9</v>
       </c>
       <c r="B599">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C599" s="2">
-        <v>1078.151000976562</v>
+        <v>864.843017578125</v>
       </c>
     </row>
     <row r="600" spans="1:3">
@@ -6984,10 +6984,10 @@
         <v>9</v>
       </c>
       <c r="B600">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C600" s="2">
-        <v>1012.216003417969</v>
+        <v>869.6920166015625</v>
       </c>
     </row>
     <row r="601" spans="1:3">
@@ -6995,10 +6995,10 @@
         <v>9</v>
       </c>
       <c r="B601">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C601" s="2">
-        <v>992.1959838867188</v>
+        <v>931.9949951171875</v>
       </c>
     </row>
     <row r="602" spans="1:3">
@@ -7006,10 +7006,10 @@
         <v>9</v>
       </c>
       <c r="B602">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C602" s="2">
-        <v>991.77001953125</v>
+        <v>954.9359741210938</v>
       </c>
     </row>
     <row r="603" spans="1:3">
@@ -7017,10 +7017,10 @@
         <v>9</v>
       </c>
       <c r="B603">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C603" s="2">
-        <v>917.8330078125</v>
+        <v>918.1019897460938</v>
       </c>
     </row>
     <row r="604" spans="1:3">
@@ -7028,10 +7028,10 @@
         <v>9</v>
       </c>
       <c r="B604">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C604" s="2">
-        <v>900.156005859375</v>
+        <v>934.3740234375</v>
       </c>
     </row>
     <row r="605" spans="1:3">
@@ -7039,10 +7039,10 @@
         <v>9</v>
       </c>
       <c r="B605">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C605" s="2">
-        <v>871.4290161132812</v>
+        <v>914.3250122070312</v>
       </c>
     </row>
     <row r="606" spans="1:3">
@@ -7050,10 +7050,10 @@
         <v>9</v>
       </c>
       <c r="B606">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C606" s="2">
-        <v>931.77197265625</v>
+        <v>836.8159790039062</v>
       </c>
     </row>
     <row r="607" spans="1:3">
@@ -7061,10 +7061,10 @@
         <v>9</v>
       </c>
       <c r="B607">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C607" s="2">
-        <v>939.6640014648438</v>
+        <v>859.1389770507812</v>
       </c>
     </row>
     <row r="608" spans="1:3">
@@ -7072,10 +7072,10 @@
         <v>9</v>
       </c>
       <c r="B608">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C608" s="2">
-        <v>1003.697021484375</v>
+        <v>797.6690063476562</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -7083,10 +7083,10 @@
         <v>9</v>
       </c>
       <c r="B609">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C609" s="2">
-        <v>1005.736999511719</v>
+        <v>936.302001953125</v>
       </c>
     </row>
     <row r="610" spans="1:3">
@@ -7094,10 +7094,10 @@
         <v>9</v>
       </c>
       <c r="B610">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C610" s="2">
-        <v>1019.476013183594</v>
+        <v>767.2559814453125</v>
       </c>
     </row>
     <row r="611" spans="1:3">
@@ -7105,10 +7105,10 @@
         <v>9</v>
       </c>
       <c r="B611">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C611" s="2">
-        <v>1036.118041992188</v>
+        <v>763.8109741210938</v>
       </c>
     </row>
     <row r="612" spans="1:3">
@@ -7116,10 +7116,10 @@
         <v>9</v>
       </c>
       <c r="B612">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C612" s="2">
-        <v>1036.046020507812</v>
+        <v>787.6489868164062</v>
       </c>
     </row>
     <row r="613" spans="1:3">
@@ -7127,10 +7127,10 @@
         <v>9</v>
       </c>
       <c r="B613">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C613" s="2">
-        <v>1000.489990234375</v>
+        <v>800.2349853515625</v>
       </c>
     </row>
     <row r="614" spans="1:3">
@@ -7138,10 +7138,10 @@
         <v>9</v>
       </c>
       <c r="B614">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C614" s="2">
-        <v>977.35498046875</v>
+        <v>826.6519775390625</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -7149,10 +7149,10 @@
         <v>9</v>
       </c>
       <c r="B615">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C615" s="2">
-        <v>977.3939819335938</v>
+        <v>812.552978515625</v>
       </c>
     </row>
     <row r="616" spans="1:3">
@@ -7160,10 +7160,10 @@
         <v>9</v>
       </c>
       <c r="B616">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C616" s="2">
-        <v>950.9459838867188</v>
+        <v>851.7579956054688</v>
       </c>
     </row>
     <row r="617" spans="1:3">
@@ -7171,10 +7171,10 @@
         <v>9</v>
       </c>
       <c r="B617">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C617" s="2">
-        <v>903.8599853515625</v>
+        <v>836.197998046875</v>
       </c>
     </row>
     <row r="618" spans="1:3">
@@ -7182,10 +7182,10 @@
         <v>9</v>
       </c>
       <c r="B618">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C618" s="2">
-        <v>914.3040161132812</v>
+        <v>845.4849853515625</v>
       </c>
     </row>
     <row r="619" spans="1:3">
@@ -7193,10 +7193,10 @@
         <v>9</v>
       </c>
       <c r="B619">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C619" s="2">
-        <v>929.3770141601562</v>
+        <v>729.2239990234375</v>
       </c>
     </row>
     <row r="620" spans="1:3">
@@ -7204,10 +7204,10 @@
         <v>9</v>
       </c>
       <c r="B620">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C620" s="2">
-        <v>918.719970703125</v>
+        <v>713.3159790039062</v>
       </c>
     </row>
     <row r="621" spans="1:3">
@@ -7215,10 +7215,10 @@
         <v>9</v>
       </c>
       <c r="B621">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C621" s="2">
-        <v>894.2869873046875</v>
+        <v>646.052978515625</v>
       </c>
     </row>
     <row r="622" spans="1:3">
@@ -7226,164 +7226,164 @@
         <v>9</v>
       </c>
       <c r="B622">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C622" s="2">
-        <v>838.448974609375</v>
+        <v>707.9539794921875</v>
       </c>
     </row>
     <row r="623" spans="1:3">
       <c r="A623" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B623">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="C623" s="2">
-        <v>684.6309814453125</v>
+        <v>659.2969970703125</v>
       </c>
     </row>
     <row r="624" spans="1:3">
       <c r="A624" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B624">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="C624" s="2">
-        <v>685.1690063476562</v>
+        <v>626.5700073242188</v>
       </c>
     </row>
     <row r="625" spans="1:3">
       <c r="A625" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B625">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="C625" s="2">
-        <v>727.968017578125</v>
+        <v>519.2130126953125</v>
       </c>
     </row>
     <row r="626" spans="1:3">
       <c r="A626" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B626">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="C626" s="2">
-        <v>702.177001953125</v>
+        <v>530.64599609375</v>
       </c>
     </row>
     <row r="627" spans="1:3">
       <c r="A627" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B627">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="C627" s="2">
-        <v>771.323974609375</v>
+        <v>403.6789855957031</v>
       </c>
     </row>
     <row r="628" spans="1:3">
       <c r="A628" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B628">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="C628" s="2">
-        <v>720.2139892578125</v>
+        <v>367.6950073242188</v>
       </c>
     </row>
     <row r="629" spans="1:3">
       <c r="A629" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B629">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="C629" s="2">
-        <v>729.3090209960938</v>
+        <v>328.2820129394531</v>
       </c>
     </row>
     <row r="630" spans="1:3">
       <c r="A630" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B630">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="C630" s="2">
-        <v>765.1539916992188</v>
+        <v>294.5220031738281</v>
       </c>
     </row>
     <row r="631" spans="1:3">
       <c r="A631" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B631">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="C631" s="2">
-        <v>771.916015625</v>
+        <v>260.5499877929688</v>
       </c>
     </row>
     <row r="632" spans="1:3">
       <c r="A632" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B632">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="C632" s="2">
-        <v>784.6920166015625</v>
+        <v>167.9680023193359</v>
       </c>
     </row>
     <row r="633" spans="1:3">
       <c r="A633" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B633">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="C633" s="2">
-        <v>779.677978515625</v>
+        <v>137.1750030517578</v>
       </c>
     </row>
     <row r="634" spans="1:3">
       <c r="A634" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B634">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="C634" s="2">
-        <v>760.3060302734375</v>
+        <v>159.6609954833984</v>
       </c>
     </row>
     <row r="635" spans="1:3">
       <c r="A635" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B635">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="C635" s="2">
-        <v>760.739990234375</v>
+        <v>241.927001953125</v>
       </c>
     </row>
     <row r="636" spans="1:3">
       <c r="A636" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B636">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="C636" s="2">
-        <v>767.1480102539062</v>
+        <v>226.6190032958984</v>
       </c>
     </row>
     <row r="637" spans="1:3">
@@ -7391,10 +7391,10 @@
         <v>10</v>
       </c>
       <c r="B637">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C637" s="2">
-        <v>777.280029296875</v>
+        <v>128.3339996337891</v>
       </c>
     </row>
     <row r="638" spans="1:3">
@@ -7402,10 +7402,10 @@
         <v>10</v>
       </c>
       <c r="B638">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C638" s="2">
-        <v>688.2059936523438</v>
+        <v>144.6990051269531</v>
       </c>
     </row>
     <row r="639" spans="1:3">
@@ -7413,10 +7413,10 @@
         <v>10</v>
       </c>
       <c r="B639">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C639" s="2">
-        <v>689.8909912109375</v>
+        <v>142.9600067138672</v>
       </c>
     </row>
     <row r="640" spans="1:3">
@@ -7424,10 +7424,10 @@
         <v>10</v>
       </c>
       <c r="B640">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C640" s="2">
-        <v>674.4240112304688</v>
+        <v>161.0720062255859</v>
       </c>
     </row>
     <row r="641" spans="1:3">
@@ -7435,10 +7435,10 @@
         <v>10</v>
       </c>
       <c r="B641">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C641" s="2">
-        <v>710.614013671875</v>
+        <v>106.4420013427734</v>
       </c>
     </row>
     <row r="642" spans="1:3">
@@ -7446,10 +7446,10 @@
         <v>10</v>
       </c>
       <c r="B642">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C642" s="2">
-        <v>800.9359741210938</v>
+        <v>100.3339996337891</v>
       </c>
     </row>
     <row r="643" spans="1:3">
@@ -7457,10 +7457,10 @@
         <v>10</v>
       </c>
       <c r="B643">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C643" s="2">
-        <v>893.3569946289062</v>
+        <v>82.11399841308594</v>
       </c>
     </row>
     <row r="644" spans="1:3">
@@ -7468,10 +7468,10 @@
         <v>10</v>
       </c>
       <c r="B644">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C644" s="2">
-        <v>827.218994140625</v>
+        <v>64.81999969482422</v>
       </c>
     </row>
     <row r="645" spans="1:3">
@@ -7479,10 +7479,10 @@
         <v>10</v>
       </c>
       <c r="B645">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C645" s="2">
-        <v>828.5759887695312</v>
+        <v>74.60700225830078</v>
       </c>
     </row>
     <row r="646" spans="1:3">
@@ -7490,10 +7490,10 @@
         <v>10</v>
       </c>
       <c r="B646">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C646" s="2">
-        <v>871.2100219726562</v>
+        <v>105.2610015869141</v>
       </c>
     </row>
     <row r="647" spans="1:3">
@@ -7501,10 +7501,10 @@
         <v>10</v>
       </c>
       <c r="B647">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C647" s="2">
-        <v>819.916015625</v>
+        <v>64.30899810791016</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -7512,10 +7512,10 @@
         <v>10</v>
       </c>
       <c r="B648">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C648" s="2">
-        <v>753.698974609375</v>
+        <v>114.3850021362305</v>
       </c>
     </row>
     <row r="649" spans="1:3">
@@ -7523,10 +7523,10 @@
         <v>10</v>
       </c>
       <c r="B649">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C649" s="2">
-        <v>784.427978515625</v>
+        <v>123.7460021972656</v>
       </c>
     </row>
     <row r="650" spans="1:3">
@@ -7534,10 +7534,10 @@
         <v>10</v>
       </c>
       <c r="B650">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C650" s="2">
-        <v>756.5029907226562</v>
+        <v>123.2910003662109</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -7545,10 +7545,10 @@
         <v>10</v>
       </c>
       <c r="B651">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C651" s="2">
-        <v>599.1539916992188</v>
+        <v>138.7769927978516</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -7556,10 +7556,10 @@
         <v>10</v>
       </c>
       <c r="B652">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C652" s="2">
-        <v>596.2999877929688</v>
+        <v>135.6580047607422</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -7567,10 +7567,10 @@
         <v>10</v>
       </c>
       <c r="B653">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C653" s="2">
-        <v>511.3070068359375</v>
+        <v>156.9709930419922</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -7578,10 +7578,10 @@
         <v>10</v>
       </c>
       <c r="B654">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C654" s="2">
-        <v>476.385986328125</v>
+        <v>196.1529998779297</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -7589,10 +7589,10 @@
         <v>10</v>
       </c>
       <c r="B655">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C655" s="2">
-        <v>470.7820129394531</v>
+        <v>170.552001953125</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -7600,10 +7600,10 @@
         <v>10</v>
       </c>
       <c r="B656">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C656" s="2">
-        <v>587.4550170898438</v>
+        <v>249.7779998779297</v>
       </c>
     </row>
     <row r="657" spans="1:3">
@@ -7611,10 +7611,10 @@
         <v>10</v>
       </c>
       <c r="B657">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C657" s="2">
-        <v>625.9920043945312</v>
+        <v>258.0390014648438</v>
       </c>
     </row>
     <row r="658" spans="1:3">
@@ -7622,10 +7622,10 @@
         <v>10</v>
       </c>
       <c r="B658">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C658" s="2">
-        <v>819.1220092773438</v>
+        <v>333.9849853515625</v>
       </c>
     </row>
     <row r="659" spans="1:3">
@@ -7633,10 +7633,10 @@
         <v>10</v>
       </c>
       <c r="B659">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C659" s="2">
-        <v>776.718994140625</v>
+        <v>392.2919921875</v>
       </c>
     </row>
     <row r="660" spans="1:3">
@@ -7644,10 +7644,10 @@
         <v>10</v>
       </c>
       <c r="B660">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C660" s="2">
-        <v>778.3350219726562</v>
+        <v>443.8789978027344</v>
       </c>
     </row>
     <row r="661" spans="1:3">
@@ -7655,10 +7655,10 @@
         <v>10</v>
       </c>
       <c r="B661">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C661" s="2">
-        <v>753.593017578125</v>
+        <v>441.6440124511719</v>
       </c>
     </row>
     <row r="662" spans="1:3">
@@ -7666,10 +7666,10 @@
         <v>10</v>
       </c>
       <c r="B662">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C662" s="2">
-        <v>925.5819702148438</v>
+        <v>480.2799987792969</v>
       </c>
     </row>
     <row r="663" spans="1:3">
@@ -7677,10 +7677,10 @@
         <v>10</v>
       </c>
       <c r="B663">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C663" s="2">
-        <v>1010.385009765625</v>
+        <v>588.39501953125</v>
       </c>
     </row>
     <row r="664" spans="1:3">
@@ -7688,10 +7688,10 @@
         <v>10</v>
       </c>
       <c r="B664">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C664" s="2">
-        <v>988.5880126953125</v>
+        <v>605.9400024414062</v>
       </c>
     </row>
     <row r="665" spans="1:3">
@@ -7699,10 +7699,10 @@
         <v>10</v>
       </c>
       <c r="B665">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C665" s="2">
-        <v>1008.346984863281</v>
+        <v>642.7310180664062</v>
       </c>
     </row>
     <row r="666" spans="1:3">
@@ -7710,10 +7710,10 @@
         <v>10</v>
       </c>
       <c r="B666">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C666" s="2">
-        <v>974.5369873046875</v>
+        <v>610.18701171875</v>
       </c>
     </row>
     <row r="667" spans="1:3">
@@ -7721,10 +7721,10 @@
         <v>10</v>
       </c>
       <c r="B667">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C667" s="2">
-        <v>1080.85400390625</v>
+        <v>419.8049926757812</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -7732,10 +7732,10 @@
         <v>10</v>
       </c>
       <c r="B668">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C668" s="2">
-        <v>1144.416015625</v>
+        <v>445.489990234375</v>
       </c>
     </row>
     <row r="669" spans="1:3">
@@ -7743,10 +7743,10 @@
         <v>10</v>
       </c>
       <c r="B669">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C669" s="2">
-        <v>1132.509033203125</v>
+        <v>333.8800048828125</v>
       </c>
     </row>
     <row r="670" spans="1:3">
@@ -7754,10 +7754,10 @@
         <v>10</v>
       </c>
       <c r="B670">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C670" s="2">
-        <v>1323.595947265625</v>
+        <v>331.2409973144531</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -7765,10 +7765,10 @@
         <v>10</v>
       </c>
       <c r="B671">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C671" s="2">
-        <v>1339.879028320312</v>
+        <v>276.8359985351562</v>
       </c>
     </row>
     <row r="672" spans="1:3">
@@ -7776,10 +7776,10 @@
         <v>10</v>
       </c>
       <c r="B672">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C672" s="2">
-        <v>1355.720947265625</v>
+        <v>396.0069885253906</v>
       </c>
     </row>
     <row r="673" spans="1:3">
@@ -7787,10 +7787,10 @@
         <v>10</v>
       </c>
       <c r="B673">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C673" s="2">
-        <v>1417.760986328125</v>
+        <v>603.0330200195312</v>
       </c>
     </row>
     <row r="674" spans="1:3">
@@ -7798,10 +7798,10 @@
         <v>10</v>
       </c>
       <c r="B674">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C674" s="2">
-        <v>1647.370971679688</v>
+        <v>727.2100219726562</v>
       </c>
     </row>
   </sheetData>

--- a/Wind_Production_Forecast/Wind_Forecast_Production_15min.xlsx
+++ b/Wind_Production_Forecast/Wind_Forecast_Production_15min.xlsx
@@ -406,10 +406,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2">
-        <v>242.5160064697266</v>
+        <v>301.4649963378906</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -417,10 +417,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2">
-        <v>301.4649963378906</v>
+        <v>428.9249877929688</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -428,10 +428,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2">
-        <v>428.9249877929688</v>
+        <v>625.6959838867188</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -439,10 +439,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2">
-        <v>625.6959838867188</v>
+        <v>607.6220092773438</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -450,10 +450,10 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2">
-        <v>607.6220092773438</v>
+        <v>615.6939697265625</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -461,10 +461,10 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2">
-        <v>615.6939697265625</v>
+        <v>559.9459838867188</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -472,10 +472,10 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2">
-        <v>559.9459838867188</v>
+        <v>611.906005859375</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2">
-        <v>611.906005859375</v>
+        <v>620.2940063476562</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -494,10 +494,10 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" s="2">
-        <v>620.2940063476562</v>
+        <v>673.1480102539062</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -505,10 +505,10 @@
         <v>3</v>
       </c>
       <c r="B11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2">
-        <v>673.1480102539062</v>
+        <v>650.2050170898438</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -516,10 +516,10 @@
         <v>3</v>
       </c>
       <c r="B12">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" s="2">
-        <v>650.2050170898438</v>
+        <v>594.791015625</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -527,10 +527,10 @@
         <v>3</v>
       </c>
       <c r="B13">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" s="2">
-        <v>594.791015625</v>
+        <v>799.822998046875</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -538,10 +538,10 @@
         <v>3</v>
       </c>
       <c r="B14">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" s="2">
-        <v>799.822998046875</v>
+        <v>748.969970703125</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -549,10 +549,10 @@
         <v>3</v>
       </c>
       <c r="B15">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" s="2">
-        <v>748.969970703125</v>
+        <v>971.4650268554688</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -560,10 +560,10 @@
         <v>3</v>
       </c>
       <c r="B16">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C16" s="2">
-        <v>971.4650268554688</v>
+        <v>931.2130126953125</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -571,10 +571,10 @@
         <v>3</v>
       </c>
       <c r="B17">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" s="2">
-        <v>931.2130126953125</v>
+        <v>1184.77099609375</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -582,10 +582,10 @@
         <v>3</v>
       </c>
       <c r="B18">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C18" s="2">
-        <v>1184.77099609375</v>
+        <v>1178.067993164062</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -593,10 +593,10 @@
         <v>3</v>
       </c>
       <c r="B19">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19" s="2">
-        <v>1178.067993164062</v>
+        <v>1256.387939453125</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -604,10 +604,10 @@
         <v>3</v>
       </c>
       <c r="B20">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C20" s="2">
-        <v>1256.387939453125</v>
+        <v>1215.593994140625</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -615,10 +615,10 @@
         <v>3</v>
       </c>
       <c r="B21">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21" s="2">
-        <v>1215.593994140625</v>
+        <v>1135.532958984375</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -626,10 +626,10 @@
         <v>3</v>
       </c>
       <c r="B22">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C22" s="2">
-        <v>1135.532958984375</v>
+        <v>1178.036987304688</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -637,10 +637,10 @@
         <v>3</v>
       </c>
       <c r="B23">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C23" s="2">
-        <v>1178.036987304688</v>
+        <v>1146.244995117188</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -648,10 +648,10 @@
         <v>3</v>
       </c>
       <c r="B24">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C24" s="2">
-        <v>1146.244995117188</v>
+        <v>1067.197998046875</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -659,10 +659,10 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" s="2">
-        <v>1067.197998046875</v>
+        <v>1031.067016601562</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -670,10 +670,10 @@
         <v>3</v>
       </c>
       <c r="B26">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2">
-        <v>1031.067016601562</v>
+        <v>1031.796020507812</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -681,10 +681,10 @@
         <v>3</v>
       </c>
       <c r="B27">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C27" s="2">
-        <v>1031.796020507812</v>
+        <v>1041.899047851562</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -692,10 +692,10 @@
         <v>3</v>
       </c>
       <c r="B28">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C28" s="2">
-        <v>1041.899047851562</v>
+        <v>1112.81005859375</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -703,10 +703,10 @@
         <v>3</v>
       </c>
       <c r="B29">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C29" s="2">
-        <v>1112.81005859375</v>
+        <v>1392.109008789062</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -714,10 +714,10 @@
         <v>3</v>
       </c>
       <c r="B30">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C30" s="2">
-        <v>1392.109008789062</v>
+        <v>1463.090942382812</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -725,10 +725,10 @@
         <v>3</v>
       </c>
       <c r="B31">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C31" s="2">
-        <v>1463.090942382812</v>
+        <v>1127.616943359375</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -736,10 +736,10 @@
         <v>3</v>
       </c>
       <c r="B32">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C32" s="2">
-        <v>1127.616943359375</v>
+        <v>1132.83203125</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -747,10 +747,10 @@
         <v>3</v>
       </c>
       <c r="B33">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C33" s="2">
-        <v>1132.83203125</v>
+        <v>1088.453002929688</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -758,10 +758,10 @@
         <v>3</v>
       </c>
       <c r="B34">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C34" s="2">
-        <v>1088.453002929688</v>
+        <v>1137.4599609375</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -769,10 +769,10 @@
         <v>3</v>
       </c>
       <c r="B35">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2">
-        <v>1137.4599609375</v>
+        <v>1087.68701171875</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -780,10 +780,10 @@
         <v>3</v>
       </c>
       <c r="B36">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2">
-        <v>1087.68701171875</v>
+        <v>937.9639892578125</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -791,10 +791,10 @@
         <v>3</v>
       </c>
       <c r="B37">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C37" s="2">
-        <v>937.9639892578125</v>
+        <v>993.1320190429688</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -802,10 +802,10 @@
         <v>3</v>
       </c>
       <c r="B38">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C38" s="2">
-        <v>993.1320190429688</v>
+        <v>1055.534057617188</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -813,10 +813,10 @@
         <v>3</v>
       </c>
       <c r="B39">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C39" s="2">
-        <v>1055.534057617188</v>
+        <v>1030.530029296875</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -824,10 +824,10 @@
         <v>3</v>
       </c>
       <c r="B40">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C40" s="2">
-        <v>1030.530029296875</v>
+        <v>955.791015625</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -835,10 +835,10 @@
         <v>3</v>
       </c>
       <c r="B41">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C41" s="2">
-        <v>955.791015625</v>
+        <v>758.85302734375</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -846,10 +846,10 @@
         <v>3</v>
       </c>
       <c r="B42">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C42" s="2">
-        <v>758.85302734375</v>
+        <v>656.9819946289062</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -857,10 +857,10 @@
         <v>3</v>
       </c>
       <c r="B43">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C43" s="2">
-        <v>656.9819946289062</v>
+        <v>510.5169982910156</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -868,10 +868,10 @@
         <v>3</v>
       </c>
       <c r="B44">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C44" s="2">
-        <v>510.5169982910156</v>
+        <v>467.0039978027344</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -879,10 +879,10 @@
         <v>3</v>
       </c>
       <c r="B45">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C45" s="2">
-        <v>467.0039978027344</v>
+        <v>436.8219909667969</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -890,10 +890,10 @@
         <v>3</v>
       </c>
       <c r="B46">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C46" s="2">
-        <v>436.8219909667969</v>
+        <v>262.0610046386719</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -901,10 +901,10 @@
         <v>3</v>
       </c>
       <c r="B47">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C47" s="2">
-        <v>262.0610046386719</v>
+        <v>256.4089965820312</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -912,10 +912,10 @@
         <v>3</v>
       </c>
       <c r="B48">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C48" s="2">
-        <v>256.4089965820312</v>
+        <v>207.1470031738281</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -923,10 +923,10 @@
         <v>3</v>
       </c>
       <c r="B49">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C49" s="2">
-        <v>207.1470031738281</v>
+        <v>236.6529998779297</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -934,10 +934,10 @@
         <v>3</v>
       </c>
       <c r="B50">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C50" s="2">
-        <v>236.6529998779297</v>
+        <v>235.7129974365234</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -945,10 +945,10 @@
         <v>3</v>
       </c>
       <c r="B51">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C51" s="2">
-        <v>235.7129974365234</v>
+        <v>229.1730041503906</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -956,10 +956,10 @@
         <v>3</v>
       </c>
       <c r="B52">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C52" s="2">
-        <v>229.1730041503906</v>
+        <v>174.1670074462891</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -967,10 +967,10 @@
         <v>3</v>
       </c>
       <c r="B53">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C53" s="2">
-        <v>174.1670074462891</v>
+        <v>128.3070068359375</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -978,10 +978,10 @@
         <v>3</v>
       </c>
       <c r="B54">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C54" s="2">
-        <v>128.3070068359375</v>
+        <v>119.0859985351562</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -989,10 +989,10 @@
         <v>3</v>
       </c>
       <c r="B55">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C55" s="2">
-        <v>119.0859985351562</v>
+        <v>93.71700286865234</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1000,10 +1000,10 @@
         <v>3</v>
       </c>
       <c r="B56">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C56" s="2">
-        <v>93.71700286865234</v>
+        <v>98.65699768066406</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1011,10 +1011,10 @@
         <v>3</v>
       </c>
       <c r="B57">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C57" s="2">
-        <v>98.65699768066406</v>
+        <v>134.4530029296875</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1022,10 +1022,10 @@
         <v>3</v>
       </c>
       <c r="B58">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C58" s="2">
-        <v>134.4530029296875</v>
+        <v>314.2300109863281</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1033,21 +1033,21 @@
         <v>3</v>
       </c>
       <c r="B59">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C59" s="2">
-        <v>314.2300109863281</v>
+        <v>300.6549987792969</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B60">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="C60" s="2">
-        <v>300.6549987792969</v>
+        <v>248.27099609375</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1055,10 +1055,10 @@
         <v>4</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C61" s="2">
-        <v>248.27099609375</v>
+        <v>314.1059875488281</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1066,10 +1066,10 @@
         <v>4</v>
       </c>
       <c r="B62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C62" s="2">
-        <v>314.1059875488281</v>
+        <v>238.5500030517578</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1077,10 +1077,10 @@
         <v>4</v>
       </c>
       <c r="B63">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C63" s="2">
-        <v>238.5500030517578</v>
+        <v>213.5650024414062</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1088,10 +1088,10 @@
         <v>4</v>
       </c>
       <c r="B64">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C64" s="2">
-        <v>213.5650024414062</v>
+        <v>264.2479858398438</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1099,10 +1099,10 @@
         <v>4</v>
       </c>
       <c r="B65">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C65" s="2">
-        <v>264.2479858398438</v>
+        <v>290.6170043945312</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1110,10 +1110,10 @@
         <v>4</v>
       </c>
       <c r="B66">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C66" s="2">
-        <v>290.6170043945312</v>
+        <v>263.2349853515625</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1121,10 +1121,10 @@
         <v>4</v>
       </c>
       <c r="B67">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" s="2">
-        <v>263.2349853515625</v>
+        <v>296.6170043945312</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1132,10 +1132,10 @@
         <v>4</v>
       </c>
       <c r="B68">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" s="2">
-        <v>296.6170043945312</v>
+        <v>284.9800109863281</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1143,10 +1143,10 @@
         <v>4</v>
       </c>
       <c r="B69">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C69" s="2">
-        <v>284.9800109863281</v>
+        <v>255.5570068359375</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1154,10 +1154,10 @@
         <v>4</v>
       </c>
       <c r="B70">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C70" s="2">
-        <v>255.5570068359375</v>
+        <v>191.2120056152344</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1165,10 +1165,10 @@
         <v>4</v>
       </c>
       <c r="B71">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C71" s="2">
-        <v>191.2120056152344</v>
+        <v>183.7590026855469</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1176,10 +1176,10 @@
         <v>4</v>
       </c>
       <c r="B72">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C72" s="2">
-        <v>183.7590026855469</v>
+        <v>201.2830047607422</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1187,10 +1187,10 @@
         <v>4</v>
       </c>
       <c r="B73">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C73" s="2">
-        <v>201.2830047607422</v>
+        <v>160.2420043945312</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1198,10 +1198,10 @@
         <v>4</v>
       </c>
       <c r="B74">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C74" s="2">
-        <v>160.2420043945312</v>
+        <v>167.1109924316406</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1209,10 +1209,10 @@
         <v>4</v>
       </c>
       <c r="B75">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C75" s="2">
-        <v>167.1109924316406</v>
+        <v>165.4989929199219</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1220,10 +1220,10 @@
         <v>4</v>
       </c>
       <c r="B76">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C76" s="2">
-        <v>165.4989929199219</v>
+        <v>161.6369934082031</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1231,10 +1231,10 @@
         <v>4</v>
       </c>
       <c r="B77">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C77" s="2">
-        <v>161.6369934082031</v>
+        <v>117.8160018920898</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1242,10 +1242,10 @@
         <v>4</v>
       </c>
       <c r="B78">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C78" s="2">
-        <v>117.8160018920898</v>
+        <v>97.18299865722656</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1253,10 +1253,10 @@
         <v>4</v>
       </c>
       <c r="B79">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C79" s="2">
-        <v>97.18299865722656</v>
+        <v>107.6579971313477</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1264,10 +1264,10 @@
         <v>4</v>
       </c>
       <c r="B80">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C80" s="2">
-        <v>107.6579971313477</v>
+        <v>119.556999206543</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1275,10 +1275,10 @@
         <v>4</v>
       </c>
       <c r="B81">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C81" s="2">
-        <v>119.556999206543</v>
+        <v>109.3840026855469</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1286,10 +1286,10 @@
         <v>4</v>
       </c>
       <c r="B82">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C82" s="2">
-        <v>109.3840026855469</v>
+        <v>119.6179962158203</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1297,10 +1297,10 @@
         <v>4</v>
       </c>
       <c r="B83">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C83" s="2">
-        <v>119.6179962158203</v>
+        <v>57.71099853515625</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1308,10 +1308,10 @@
         <v>4</v>
       </c>
       <c r="B84">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C84" s="2">
-        <v>57.71099853515625</v>
+        <v>67.45999908447266</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1319,10 +1319,10 @@
         <v>4</v>
       </c>
       <c r="B85">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C85" s="2">
-        <v>67.45999908447266</v>
+        <v>10.10799980163574</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1330,10 +1330,10 @@
         <v>4</v>
       </c>
       <c r="B86">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C86" s="2">
-        <v>10.10799980163574</v>
+        <v>-21.21299934387207</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1341,10 +1341,10 @@
         <v>4</v>
       </c>
       <c r="B87">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C87" s="2">
-        <v>-21.21299934387207</v>
+        <v>33.13600158691406</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1352,10 +1352,10 @@
         <v>4</v>
       </c>
       <c r="B88">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C88" s="2">
-        <v>33.13600158691406</v>
+        <v>131.0119934082031</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1363,10 +1363,10 @@
         <v>4</v>
       </c>
       <c r="B89">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C89" s="2">
-        <v>131.0119934082031</v>
+        <v>-40.67699813842773</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1374,10 +1374,10 @@
         <v>4</v>
       </c>
       <c r="B90">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C90" s="2">
-        <v>-40.67699813842773</v>
+        <v>11.80900001525879</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1385,10 +1385,10 @@
         <v>4</v>
       </c>
       <c r="B91">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C91" s="2">
-        <v>11.80900001525879</v>
+        <v>-14.44299983978271</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1396,10 +1396,10 @@
         <v>4</v>
       </c>
       <c r="B92">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C92" s="2">
-        <v>-14.44299983978271</v>
+        <v>-49.81700134277344</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1407,10 +1407,10 @@
         <v>4</v>
       </c>
       <c r="B93">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C93" s="2">
-        <v>-49.81700134277344</v>
+        <v>10.17199993133545</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1418,10 +1418,10 @@
         <v>4</v>
       </c>
       <c r="B94">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C94" s="2">
-        <v>10.17199993133545</v>
+        <v>-4.794000148773193</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1429,10 +1429,10 @@
         <v>4</v>
       </c>
       <c r="B95">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C95" s="2">
-        <v>-4.794000148773193</v>
+        <v>72.00700378417969</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1440,10 +1440,10 @@
         <v>4</v>
       </c>
       <c r="B96">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C96" s="2">
-        <v>72.00700378417969</v>
+        <v>59.0260009765625</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1451,10 +1451,10 @@
         <v>4</v>
       </c>
       <c r="B97">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C97" s="2">
-        <v>59.0260009765625</v>
+        <v>35.7869987487793</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1462,10 +1462,10 @@
         <v>4</v>
       </c>
       <c r="B98">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C98" s="2">
-        <v>35.7869987487793</v>
+        <v>50.44900131225586</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1473,10 +1473,10 @@
         <v>4</v>
       </c>
       <c r="B99">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C99" s="2">
-        <v>50.44900131225586</v>
+        <v>162.8150024414062</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1484,10 +1484,10 @@
         <v>4</v>
       </c>
       <c r="B100">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C100" s="2">
-        <v>162.8150024414062</v>
+        <v>157.8600006103516</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1495,10 +1495,10 @@
         <v>4</v>
       </c>
       <c r="B101">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C101" s="2">
-        <v>157.8600006103516</v>
+        <v>178.4040069580078</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1506,10 +1506,10 @@
         <v>4</v>
       </c>
       <c r="B102">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C102" s="2">
-        <v>178.4040069580078</v>
+        <v>163.1609954833984</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1517,10 +1517,10 @@
         <v>4</v>
       </c>
       <c r="B103">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C103" s="2">
-        <v>163.1609954833984</v>
+        <v>134.5</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1528,10 +1528,10 @@
         <v>4</v>
       </c>
       <c r="B104">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C104" s="2">
-        <v>134.5</v>
+        <v>221.6499938964844</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1539,10 +1539,10 @@
         <v>4</v>
       </c>
       <c r="B105">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C105" s="2">
-        <v>221.6499938964844</v>
+        <v>339.6799926757812</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1550,10 +1550,10 @@
         <v>4</v>
       </c>
       <c r="B106">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C106" s="2">
-        <v>339.6799926757812</v>
+        <v>430.3489990234375</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1561,10 +1561,10 @@
         <v>4</v>
       </c>
       <c r="B107">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C107" s="2">
-        <v>430.3489990234375</v>
+        <v>532.0239868164062</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1572,10 +1572,10 @@
         <v>4</v>
       </c>
       <c r="B108">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C108" s="2">
-        <v>532.0239868164062</v>
+        <v>488.0820007324219</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1583,10 +1583,10 @@
         <v>4</v>
       </c>
       <c r="B109">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C109" s="2">
-        <v>488.0820007324219</v>
+        <v>646.2689819335938</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1594,10 +1594,10 @@
         <v>4</v>
       </c>
       <c r="B110">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C110" s="2">
-        <v>646.2689819335938</v>
+        <v>605.614990234375</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1605,10 +1605,10 @@
         <v>4</v>
       </c>
       <c r="B111">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C111" s="2">
-        <v>605.614990234375</v>
+        <v>604.4860229492188</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1616,10 +1616,10 @@
         <v>4</v>
       </c>
       <c r="B112">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C112" s="2">
-        <v>604.4860229492188</v>
+        <v>650.5440063476562</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1627,10 +1627,10 @@
         <v>4</v>
       </c>
       <c r="B113">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C113" s="2">
-        <v>650.5440063476562</v>
+        <v>649.5490112304688</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1638,10 +1638,10 @@
         <v>4</v>
       </c>
       <c r="B114">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C114" s="2">
-        <v>649.5490112304688</v>
+        <v>639.010986328125</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1649,10 +1649,10 @@
         <v>4</v>
       </c>
       <c r="B115">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C115" s="2">
-        <v>639.010986328125</v>
+        <v>635.2880249023438</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1660,10 +1660,10 @@
         <v>4</v>
       </c>
       <c r="B116">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C116" s="2">
-        <v>635.2880249023438</v>
+        <v>652.1409912109375</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1671,10 +1671,10 @@
         <v>4</v>
       </c>
       <c r="B117">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C117" s="2">
-        <v>652.1409912109375</v>
+        <v>708.1519775390625</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1682,10 +1682,10 @@
         <v>4</v>
       </c>
       <c r="B118">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C118" s="2">
-        <v>708.1519775390625</v>
+        <v>721.3499755859375</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1693,10 +1693,10 @@
         <v>4</v>
       </c>
       <c r="B119">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C119" s="2">
-        <v>721.3499755859375</v>
+        <v>705.2760009765625</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1704,10 +1704,10 @@
         <v>4</v>
       </c>
       <c r="B120">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C120" s="2">
-        <v>705.2760009765625</v>
+        <v>633.7529907226562</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1715,10 +1715,10 @@
         <v>4</v>
       </c>
       <c r="B121">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C121" s="2">
-        <v>633.7529907226562</v>
+        <v>562.719970703125</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1726,10 +1726,10 @@
         <v>4</v>
       </c>
       <c r="B122">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C122" s="2">
-        <v>562.719970703125</v>
+        <v>526.0560302734375</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1737,10 +1737,10 @@
         <v>4</v>
       </c>
       <c r="B123">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C123" s="2">
-        <v>526.0560302734375</v>
+        <v>455.3099975585938</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1748,10 +1748,10 @@
         <v>4</v>
       </c>
       <c r="B124">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C124" s="2">
-        <v>455.3099975585938</v>
+        <v>439.2080078125</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1759,10 +1759,10 @@
         <v>4</v>
       </c>
       <c r="B125">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C125" s="2">
-        <v>439.2080078125</v>
+        <v>426.6099853515625</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1770,10 +1770,10 @@
         <v>4</v>
       </c>
       <c r="B126">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C126" s="2">
-        <v>426.6099853515625</v>
+        <v>401.8659973144531</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1781,10 +1781,10 @@
         <v>4</v>
       </c>
       <c r="B127">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C127" s="2">
-        <v>401.8659973144531</v>
+        <v>413.7520141601562</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1792,10 +1792,10 @@
         <v>4</v>
       </c>
       <c r="B128">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C128" s="2">
-        <v>413.7520141601562</v>
+        <v>223.218994140625</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1803,10 +1803,10 @@
         <v>4</v>
       </c>
       <c r="B129">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C129" s="2">
-        <v>223.218994140625</v>
+        <v>186.9989929199219</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1814,10 +1814,10 @@
         <v>4</v>
       </c>
       <c r="B130">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C130" s="2">
-        <v>186.9989929199219</v>
+        <v>198.0399932861328</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1825,10 +1825,10 @@
         <v>4</v>
       </c>
       <c r="B131">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C131" s="2">
-        <v>198.0399932861328</v>
+        <v>247.4550018310547</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1836,10 +1836,10 @@
         <v>4</v>
       </c>
       <c r="B132">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C132" s="2">
-        <v>247.4550018310547</v>
+        <v>232.3789978027344</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1847,10 +1847,10 @@
         <v>4</v>
       </c>
       <c r="B133">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C133" s="2">
-        <v>232.3789978027344</v>
+        <v>190.2469940185547</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1858,10 +1858,10 @@
         <v>4</v>
       </c>
       <c r="B134">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C134" s="2">
-        <v>190.2469940185547</v>
+        <v>192.0220031738281</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1869,10 +1869,10 @@
         <v>4</v>
       </c>
       <c r="B135">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C135" s="2">
-        <v>192.0220031738281</v>
+        <v>233.9409942626953</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1880,10 +1880,10 @@
         <v>4</v>
       </c>
       <c r="B136">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C136" s="2">
-        <v>233.9409942626953</v>
+        <v>258.9639892578125</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1891,10 +1891,10 @@
         <v>4</v>
       </c>
       <c r="B137">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C137" s="2">
-        <v>258.9639892578125</v>
+        <v>208.3280029296875</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1902,10 +1902,10 @@
         <v>4</v>
       </c>
       <c r="B138">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C138" s="2">
-        <v>208.3280029296875</v>
+        <v>234.3679962158203</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1913,10 +1913,10 @@
         <v>4</v>
       </c>
       <c r="B139">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C139" s="2">
-        <v>234.3679962158203</v>
+        <v>242.2079925537109</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1924,10 +1924,10 @@
         <v>4</v>
       </c>
       <c r="B140">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C140" s="2">
-        <v>242.2079925537109</v>
+        <v>414.0929870605469</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1935,10 +1935,10 @@
         <v>4</v>
       </c>
       <c r="B141">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C141" s="2">
-        <v>414.0929870605469</v>
+        <v>283.18798828125</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1946,10 +1946,10 @@
         <v>4</v>
       </c>
       <c r="B142">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C142" s="2">
-        <v>283.18798828125</v>
+        <v>286.5140075683594</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1957,10 +1957,10 @@
         <v>4</v>
       </c>
       <c r="B143">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C143" s="2">
-        <v>286.5140075683594</v>
+        <v>251.6670074462891</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1968,10 +1968,10 @@
         <v>4</v>
       </c>
       <c r="B144">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C144" s="2">
-        <v>251.6670074462891</v>
+        <v>233.7319946289062</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1979,10 +1979,10 @@
         <v>4</v>
       </c>
       <c r="B145">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C145" s="2">
-        <v>233.7319946289062</v>
+        <v>226.0670013427734</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1990,10 +1990,10 @@
         <v>4</v>
       </c>
       <c r="B146">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C146" s="2">
-        <v>226.0670013427734</v>
+        <v>226.7769927978516</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2001,10 +2001,10 @@
         <v>4</v>
       </c>
       <c r="B147">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C147" s="2">
-        <v>226.7769927978516</v>
+        <v>266.8619995117188</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2012,10 +2012,10 @@
         <v>4</v>
       </c>
       <c r="B148">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C148" s="2">
-        <v>266.8619995117188</v>
+        <v>244.2799987792969</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2023,10 +2023,10 @@
         <v>4</v>
       </c>
       <c r="B149">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C149" s="2">
-        <v>244.2799987792969</v>
+        <v>252.0010070800781</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2034,10 +2034,10 @@
         <v>4</v>
       </c>
       <c r="B150">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C150" s="2">
-        <v>252.0010070800781</v>
+        <v>260.2460021972656</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2045,10 +2045,10 @@
         <v>4</v>
       </c>
       <c r="B151">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C151" s="2">
-        <v>260.2460021972656</v>
+        <v>262.1530151367188</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2056,10 +2056,10 @@
         <v>4</v>
       </c>
       <c r="B152">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C152" s="2">
-        <v>262.1530151367188</v>
+        <v>269.8179931640625</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2067,10 +2067,10 @@
         <v>4</v>
       </c>
       <c r="B153">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C153" s="2">
-        <v>269.8179931640625</v>
+        <v>228.0299987792969</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2078,10 +2078,10 @@
         <v>4</v>
       </c>
       <c r="B154">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C154" s="2">
-        <v>228.0299987792969</v>
+        <v>198.9389953613281</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2089,21 +2089,21 @@
         <v>4</v>
       </c>
       <c r="B155">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C155" s="2">
-        <v>198.9389953613281</v>
+        <v>157.5650024414062</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B156">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="C156" s="2">
-        <v>157.5650024414062</v>
+        <v>75.43299865722656</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2111,10 +2111,10 @@
         <v>5</v>
       </c>
       <c r="B157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C157" s="2">
-        <v>75.43299865722656</v>
+        <v>143.8840026855469</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2122,10 +2122,10 @@
         <v>5</v>
       </c>
       <c r="B158">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C158" s="2">
-        <v>143.8840026855469</v>
+        <v>129.6049957275391</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2133,10 +2133,10 @@
         <v>5</v>
       </c>
       <c r="B159">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C159" s="2">
-        <v>129.6049957275391</v>
+        <v>176.6269989013672</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2144,10 +2144,10 @@
         <v>5</v>
       </c>
       <c r="B160">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C160" s="2">
-        <v>176.6269989013672</v>
+        <v>212.4949951171875</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2155,10 +2155,10 @@
         <v>5</v>
       </c>
       <c r="B161">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C161" s="2">
-        <v>212.4949951171875</v>
+        <v>253.5410003662109</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2166,10 +2166,10 @@
         <v>5</v>
       </c>
       <c r="B162">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C162" s="2">
-        <v>253.5410003662109</v>
+        <v>231.2180023193359</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2177,10 +2177,10 @@
         <v>5</v>
       </c>
       <c r="B163">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" s="2">
-        <v>231.2180023193359</v>
+        <v>230.1649932861328</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2188,10 +2188,10 @@
         <v>5</v>
       </c>
       <c r="B164">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" s="2">
-        <v>230.1649932861328</v>
+        <v>259.6530151367188</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2199,10 +2199,10 @@
         <v>5</v>
       </c>
       <c r="B165">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C165" s="2">
-        <v>259.6530151367188</v>
+        <v>274.1080017089844</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2210,10 +2210,10 @@
         <v>5</v>
       </c>
       <c r="B166">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C166" s="2">
-        <v>274.1080017089844</v>
+        <v>257.3469848632812</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2221,10 +2221,10 @@
         <v>5</v>
       </c>
       <c r="B167">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C167" s="2">
-        <v>257.3469848632812</v>
+        <v>227.7949981689453</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2232,10 +2232,10 @@
         <v>5</v>
       </c>
       <c r="B168">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C168" s="2">
-        <v>227.7949981689453</v>
+        <v>197.2389984130859</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2243,10 +2243,10 @@
         <v>5</v>
       </c>
       <c r="B169">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C169" s="2">
-        <v>197.2389984130859</v>
+        <v>181.8899993896484</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2254,10 +2254,10 @@
         <v>5</v>
       </c>
       <c r="B170">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C170" s="2">
-        <v>181.8899993896484</v>
+        <v>374.0499877929688</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2265,10 +2265,10 @@
         <v>5</v>
       </c>
       <c r="B171">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C171" s="2">
-        <v>374.0499877929688</v>
+        <v>101.5849990844727</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2276,10 +2276,10 @@
         <v>5</v>
       </c>
       <c r="B172">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C172" s="2">
-        <v>101.5849990844727</v>
+        <v>74.58399963378906</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2287,10 +2287,10 @@
         <v>5</v>
       </c>
       <c r="B173">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C173" s="2">
-        <v>74.58399963378906</v>
+        <v>69.61499786376953</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2298,10 +2298,10 @@
         <v>5</v>
       </c>
       <c r="B174">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C174" s="2">
-        <v>69.61499786376953</v>
+        <v>78.74800109863281</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2309,10 +2309,10 @@
         <v>5</v>
       </c>
       <c r="B175">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C175" s="2">
-        <v>78.74800109863281</v>
+        <v>35.4119987487793</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2320,10 +2320,10 @@
         <v>5</v>
       </c>
       <c r="B176">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C176" s="2">
-        <v>35.4119987487793</v>
+        <v>4.656000137329102</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2331,10 +2331,10 @@
         <v>5</v>
       </c>
       <c r="B177">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C177" s="2">
-        <v>4.656000137329102</v>
+        <v>78.24800109863281</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2342,10 +2342,10 @@
         <v>5</v>
       </c>
       <c r="B178">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C178" s="2">
-        <v>78.24800109863281</v>
+        <v>47.56999969482422</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2353,10 +2353,10 @@
         <v>5</v>
       </c>
       <c r="B179">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C179" s="2">
-        <v>47.56999969482422</v>
+        <v>-32.06900024414062</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2364,10 +2364,10 @@
         <v>5</v>
       </c>
       <c r="B180">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C180" s="2">
-        <v>-32.06900024414062</v>
+        <v>85.74500274658203</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2375,10 +2375,10 @@
         <v>5</v>
       </c>
       <c r="B181">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C181" s="2">
-        <v>85.74500274658203</v>
+        <v>257.6530151367188</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2386,10 +2386,10 @@
         <v>5</v>
       </c>
       <c r="B182">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C182" s="2">
-        <v>257.6530151367188</v>
+        <v>106.7669982910156</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2397,10 +2397,10 @@
         <v>5</v>
       </c>
       <c r="B183">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C183" s="2">
-        <v>106.7669982910156</v>
+        <v>90.59400177001953</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2408,10 +2408,10 @@
         <v>5</v>
       </c>
       <c r="B184">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C184" s="2">
-        <v>90.59400177001953</v>
+        <v>-51.93500137329102</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2419,10 +2419,10 @@
         <v>5</v>
       </c>
       <c r="B185">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C185" s="2">
-        <v>-51.93500137329102</v>
+        <v>-30.25200080871582</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2430,10 +2430,10 @@
         <v>5</v>
       </c>
       <c r="B186">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C186" s="2">
-        <v>-30.25200080871582</v>
+        <v>-23.87899971008301</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2441,10 +2441,10 @@
         <v>5</v>
       </c>
       <c r="B187">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C187" s="2">
-        <v>-23.87899971008301</v>
+        <v>-11.0649995803833</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2452,10 +2452,10 @@
         <v>5</v>
       </c>
       <c r="B188">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C188" s="2">
-        <v>-11.0649995803833</v>
+        <v>33.90499877929688</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2463,10 +2463,10 @@
         <v>5</v>
       </c>
       <c r="B189">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C189" s="2">
-        <v>33.90499877929688</v>
+        <v>22.89500045776367</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2474,10 +2474,10 @@
         <v>5</v>
       </c>
       <c r="B190">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C190" s="2">
-        <v>22.89500045776367</v>
+        <v>44.77299880981445</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2485,10 +2485,10 @@
         <v>5</v>
       </c>
       <c r="B191">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C191" s="2">
-        <v>44.77299880981445</v>
+        <v>31.82399940490723</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2496,10 +2496,10 @@
         <v>5</v>
       </c>
       <c r="B192">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C192" s="2">
-        <v>31.82399940490723</v>
+        <v>41.38999938964844</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2507,10 +2507,10 @@
         <v>5</v>
       </c>
       <c r="B193">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C193" s="2">
-        <v>41.38999938964844</v>
+        <v>207.6909942626953</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2518,10 +2518,10 @@
         <v>5</v>
       </c>
       <c r="B194">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C194" s="2">
-        <v>207.6909942626953</v>
+        <v>273.8479919433594</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2529,10 +2529,10 @@
         <v>5</v>
       </c>
       <c r="B195">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C195" s="2">
-        <v>273.8479919433594</v>
+        <v>362.1990051269531</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2540,10 +2540,10 @@
         <v>5</v>
       </c>
       <c r="B196">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C196" s="2">
-        <v>362.1990051269531</v>
+        <v>331.4190063476562</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2551,10 +2551,10 @@
         <v>5</v>
       </c>
       <c r="B197">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C197" s="2">
-        <v>331.4190063476562</v>
+        <v>455.8789978027344</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2562,10 +2562,10 @@
         <v>5</v>
       </c>
       <c r="B198">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C198" s="2">
-        <v>455.8789978027344</v>
+        <v>538.2329711914062</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2573,10 +2573,10 @@
         <v>5</v>
       </c>
       <c r="B199">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C199" s="2">
-        <v>538.2329711914062</v>
+        <v>555.6019897460938</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2584,10 +2584,10 @@
         <v>5</v>
       </c>
       <c r="B200">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C200" s="2">
-        <v>555.6019897460938</v>
+        <v>542.4760131835938</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2595,10 +2595,10 @@
         <v>5</v>
       </c>
       <c r="B201">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C201" s="2">
-        <v>542.4760131835938</v>
+        <v>509.9920043945312</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2606,10 +2606,10 @@
         <v>5</v>
       </c>
       <c r="B202">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C202" s="2">
-        <v>509.9920043945312</v>
+        <v>503.427001953125</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2617,10 +2617,10 @@
         <v>5</v>
       </c>
       <c r="B203">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C203" s="2">
-        <v>503.427001953125</v>
+        <v>556.4819946289062</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2628,10 +2628,10 @@
         <v>5</v>
       </c>
       <c r="B204">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C204" s="2">
-        <v>556.4819946289062</v>
+        <v>526.7410278320312</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2639,10 +2639,10 @@
         <v>5</v>
       </c>
       <c r="B205">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C205" s="2">
-        <v>526.7410278320312</v>
+        <v>527.8590087890625</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2650,10 +2650,10 @@
         <v>5</v>
       </c>
       <c r="B206">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C206" s="2">
-        <v>527.8590087890625</v>
+        <v>571.4320068359375</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2661,10 +2661,10 @@
         <v>5</v>
       </c>
       <c r="B207">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C207" s="2">
-        <v>571.4320068359375</v>
+        <v>544.2730102539062</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2672,10 +2672,10 @@
         <v>5</v>
       </c>
       <c r="B208">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C208" s="2">
-        <v>544.2730102539062</v>
+        <v>536.2689819335938</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2683,10 +2683,10 @@
         <v>5</v>
       </c>
       <c r="B209">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C209" s="2">
-        <v>536.2689819335938</v>
+        <v>478.9299926757812</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2694,10 +2694,10 @@
         <v>5</v>
       </c>
       <c r="B210">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C210" s="2">
-        <v>478.9299926757812</v>
+        <v>411.1109924316406</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2705,10 +2705,10 @@
         <v>5</v>
       </c>
       <c r="B211">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C211" s="2">
-        <v>411.1109924316406</v>
+        <v>453.5719909667969</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2716,10 +2716,10 @@
         <v>5</v>
       </c>
       <c r="B212">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C212" s="2">
-        <v>453.5719909667969</v>
+        <v>489.3559875488281</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2727,10 +2727,10 @@
         <v>5</v>
       </c>
       <c r="B213">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C213" s="2">
-        <v>489.3559875488281</v>
+        <v>353.7040100097656</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2738,10 +2738,10 @@
         <v>5</v>
       </c>
       <c r="B214">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C214" s="2">
-        <v>353.7040100097656</v>
+        <v>337.75</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2749,10 +2749,10 @@
         <v>5</v>
       </c>
       <c r="B215">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C215" s="2">
-        <v>337.75</v>
+        <v>240.3280029296875</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2760,10 +2760,10 @@
         <v>5</v>
       </c>
       <c r="B216">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C216" s="2">
-        <v>240.3280029296875</v>
+        <v>260.3980102539062</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2771,10 +2771,10 @@
         <v>5</v>
       </c>
       <c r="B217">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C217" s="2">
-        <v>260.3980102539062</v>
+        <v>279.1579895019531</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2782,10 +2782,10 @@
         <v>5</v>
       </c>
       <c r="B218">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C218" s="2">
-        <v>279.1579895019531</v>
+        <v>309.5759887695312</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2793,10 +2793,10 @@
         <v>5</v>
       </c>
       <c r="B219">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C219" s="2">
-        <v>309.5759887695312</v>
+        <v>305.1059875488281</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2804,10 +2804,10 @@
         <v>5</v>
       </c>
       <c r="B220">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C220" s="2">
-        <v>305.1059875488281</v>
+        <v>295.8670043945312</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2815,10 +2815,10 @@
         <v>5</v>
       </c>
       <c r="B221">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C221" s="2">
-        <v>295.8670043945312</v>
+        <v>260.5180053710938</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2826,10 +2826,10 @@
         <v>5</v>
       </c>
       <c r="B222">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C222" s="2">
-        <v>260.5180053710938</v>
+        <v>146.9080047607422</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2837,10 +2837,10 @@
         <v>5</v>
       </c>
       <c r="B223">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C223" s="2">
-        <v>146.9080047607422</v>
+        <v>188.6179962158203</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2848,10 +2848,10 @@
         <v>5</v>
       </c>
       <c r="B224">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C224" s="2">
-        <v>188.6179962158203</v>
+        <v>198.5930023193359</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2859,10 +2859,10 @@
         <v>5</v>
       </c>
       <c r="B225">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C225" s="2">
-        <v>198.5930023193359</v>
+        <v>235.1750030517578</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2870,10 +2870,10 @@
         <v>5</v>
       </c>
       <c r="B226">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C226" s="2">
-        <v>235.1750030517578</v>
+        <v>190.5269927978516</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2881,10 +2881,10 @@
         <v>5</v>
       </c>
       <c r="B227">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C227" s="2">
-        <v>190.5269927978516</v>
+        <v>198.1600036621094</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2892,10 +2892,10 @@
         <v>5</v>
       </c>
       <c r="B228">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C228" s="2">
-        <v>198.1600036621094</v>
+        <v>203.7740020751953</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2903,10 +2903,10 @@
         <v>5</v>
       </c>
       <c r="B229">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C229" s="2">
-        <v>203.7740020751953</v>
+        <v>151.4100036621094</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2914,10 +2914,10 @@
         <v>5</v>
       </c>
       <c r="B230">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C230" s="2">
-        <v>151.4100036621094</v>
+        <v>262.5769958496094</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2925,10 +2925,10 @@
         <v>5</v>
       </c>
       <c r="B231">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C231" s="2">
-        <v>262.5769958496094</v>
+        <v>343.5889892578125</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2936,10 +2936,10 @@
         <v>5</v>
       </c>
       <c r="B232">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C232" s="2">
-        <v>343.5889892578125</v>
+        <v>376.7659912109375</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2947,10 +2947,10 @@
         <v>5</v>
       </c>
       <c r="B233">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C233" s="2">
-        <v>376.7659912109375</v>
+        <v>481.7049865722656</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2958,10 +2958,10 @@
         <v>5</v>
       </c>
       <c r="B234">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C234" s="2">
-        <v>481.7049865722656</v>
+        <v>319.2969970703125</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2969,10 +2969,10 @@
         <v>5</v>
       </c>
       <c r="B235">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C235" s="2">
-        <v>319.2969970703125</v>
+        <v>354.8869934082031</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2980,10 +2980,10 @@
         <v>5</v>
       </c>
       <c r="B236">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C236" s="2">
-        <v>354.8869934082031</v>
+        <v>470.7569885253906</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2991,10 +2991,10 @@
         <v>5</v>
       </c>
       <c r="B237">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C237" s="2">
-        <v>470.7569885253906</v>
+        <v>258.0639953613281</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3002,10 +3002,10 @@
         <v>5</v>
       </c>
       <c r="B238">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C238" s="2">
-        <v>258.0639953613281</v>
+        <v>363.2359924316406</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3013,10 +3013,10 @@
         <v>5</v>
       </c>
       <c r="B239">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C239" s="2">
-        <v>363.2359924316406</v>
+        <v>525.780029296875</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3024,10 +3024,10 @@
         <v>5</v>
       </c>
       <c r="B240">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C240" s="2">
-        <v>525.780029296875</v>
+        <v>269.0740051269531</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3035,10 +3035,10 @@
         <v>5</v>
       </c>
       <c r="B241">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C241" s="2">
-        <v>269.0740051269531</v>
+        <v>250.7799987792969</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3046,10 +3046,10 @@
         <v>5</v>
       </c>
       <c r="B242">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C242" s="2">
-        <v>250.7799987792969</v>
+        <v>244.60400390625</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3057,10 +3057,10 @@
         <v>5</v>
       </c>
       <c r="B243">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C243" s="2">
-        <v>244.60400390625</v>
+        <v>212.9250030517578</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3068,10 +3068,10 @@
         <v>5</v>
       </c>
       <c r="B244">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C244" s="2">
-        <v>212.9250030517578</v>
+        <v>180.7120056152344</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3079,10 +3079,10 @@
         <v>5</v>
       </c>
       <c r="B245">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C245" s="2">
-        <v>180.7120056152344</v>
+        <v>162.8500061035156</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3090,10 +3090,10 @@
         <v>5</v>
       </c>
       <c r="B246">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C246" s="2">
-        <v>162.8500061035156</v>
+        <v>185.9960021972656</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3101,10 +3101,10 @@
         <v>5</v>
       </c>
       <c r="B247">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C247" s="2">
-        <v>185.9960021972656</v>
+        <v>293.4309997558594</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3112,10 +3112,10 @@
         <v>5</v>
       </c>
       <c r="B248">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C248" s="2">
-        <v>293.4309997558594</v>
+        <v>528.3319702148438</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3123,10 +3123,10 @@
         <v>5</v>
       </c>
       <c r="B249">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C249" s="2">
-        <v>528.3319702148438</v>
+        <v>263.1180114746094</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3134,10 +3134,10 @@
         <v>5</v>
       </c>
       <c r="B250">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C250" s="2">
-        <v>263.1180114746094</v>
+        <v>90.77799987792969</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3145,21 +3145,21 @@
         <v>5</v>
       </c>
       <c r="B251">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C251" s="2">
-        <v>90.77799987792969</v>
+        <v>82.67099761962891</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B252">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="C252" s="2">
-        <v>82.67099761962891</v>
+        <v>56.74599838256836</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3167,10 +3167,10 @@
         <v>6</v>
       </c>
       <c r="B253">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C253" s="2">
-        <v>56.74599838256836</v>
+        <v>21.98800086975098</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3178,10 +3178,10 @@
         <v>6</v>
       </c>
       <c r="B254">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C254" s="2">
-        <v>21.98800086975098</v>
+        <v>37.0880012512207</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3189,10 +3189,10 @@
         <v>6</v>
       </c>
       <c r="B255">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C255" s="2">
-        <v>37.0880012512207</v>
+        <v>71.54499816894531</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3200,10 +3200,10 @@
         <v>6</v>
       </c>
       <c r="B256">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C256" s="2">
-        <v>71.54499816894531</v>
+        <v>96.42400360107422</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3211,10 +3211,10 @@
         <v>6</v>
       </c>
       <c r="B257">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C257" s="2">
-        <v>96.42400360107422</v>
+        <v>81.16899871826172</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3222,10 +3222,10 @@
         <v>6</v>
       </c>
       <c r="B258">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C258" s="2">
-        <v>81.16899871826172</v>
+        <v>130.2870025634766</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3233,10 +3233,10 @@
         <v>6</v>
       </c>
       <c r="B259">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C259" s="2">
-        <v>130.2870025634766</v>
+        <v>192.0579986572266</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3244,10 +3244,10 @@
         <v>6</v>
       </c>
       <c r="B260">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C260" s="2">
-        <v>192.0579986572266</v>
+        <v>166.0130004882812</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3255,10 +3255,10 @@
         <v>6</v>
       </c>
       <c r="B261">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C261" s="2">
-        <v>166.0130004882812</v>
+        <v>125.2460021972656</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3266,10 +3266,10 @@
         <v>6</v>
       </c>
       <c r="B262">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C262" s="2">
-        <v>125.2460021972656</v>
+        <v>184.9810028076172</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3277,10 +3277,10 @@
         <v>6</v>
       </c>
       <c r="B263">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C263" s="2">
-        <v>184.9810028076172</v>
+        <v>136.1719970703125</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3288,10 +3288,10 @@
         <v>6</v>
       </c>
       <c r="B264">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C264" s="2">
-        <v>136.1719970703125</v>
+        <v>98.28199768066406</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3299,10 +3299,10 @@
         <v>6</v>
       </c>
       <c r="B265">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C265" s="2">
-        <v>98.28199768066406</v>
+        <v>175.1269989013672</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3310,10 +3310,10 @@
         <v>6</v>
       </c>
       <c r="B266">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C266" s="2">
-        <v>175.1269989013672</v>
+        <v>125.1920013427734</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3321,10 +3321,10 @@
         <v>6</v>
       </c>
       <c r="B267">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C267" s="2">
-        <v>125.1920013427734</v>
+        <v>173.302001953125</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3332,10 +3332,10 @@
         <v>6</v>
       </c>
       <c r="B268">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C268" s="2">
-        <v>173.302001953125</v>
+        <v>174.3110046386719</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3343,10 +3343,10 @@
         <v>6</v>
       </c>
       <c r="B269">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C269" s="2">
-        <v>174.3110046386719</v>
+        <v>192.6529998779297</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3354,10 +3354,10 @@
         <v>6</v>
       </c>
       <c r="B270">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C270" s="2">
-        <v>192.6529998779297</v>
+        <v>242.1280059814453</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3365,10 +3365,10 @@
         <v>6</v>
       </c>
       <c r="B271">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C271" s="2">
-        <v>242.1280059814453</v>
+        <v>211.9909973144531</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3376,10 +3376,10 @@
         <v>6</v>
       </c>
       <c r="B272">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C272" s="2">
-        <v>211.9909973144531</v>
+        <v>102.234001159668</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3387,10 +3387,10 @@
         <v>6</v>
       </c>
       <c r="B273">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C273" s="2">
-        <v>102.234001159668</v>
+        <v>107.8170013427734</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3398,10 +3398,10 @@
         <v>6</v>
       </c>
       <c r="B274">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C274" s="2">
-        <v>107.8170013427734</v>
+        <v>173.1029968261719</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3409,10 +3409,10 @@
         <v>6</v>
       </c>
       <c r="B275">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C275" s="2">
-        <v>173.1029968261719</v>
+        <v>207.7070007324219</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3420,10 +3420,10 @@
         <v>6</v>
       </c>
       <c r="B276">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C276" s="2">
-        <v>207.7070007324219</v>
+        <v>98.43099975585938</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3431,10 +3431,10 @@
         <v>6</v>
       </c>
       <c r="B277">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C277" s="2">
-        <v>98.43099975585938</v>
+        <v>198.2209930419922</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3442,10 +3442,10 @@
         <v>6</v>
       </c>
       <c r="B278">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C278" s="2">
-        <v>198.2209930419922</v>
+        <v>133.97900390625</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3453,10 +3453,10 @@
         <v>6</v>
       </c>
       <c r="B279">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C279" s="2">
-        <v>133.97900390625</v>
+        <v>117.1220016479492</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3464,10 +3464,10 @@
         <v>6</v>
       </c>
       <c r="B280">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C280" s="2">
-        <v>117.1220016479492</v>
+        <v>162.0919952392578</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3475,10 +3475,10 @@
         <v>6</v>
       </c>
       <c r="B281">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C281" s="2">
-        <v>162.0919952392578</v>
+        <v>53.8129997253418</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3486,10 +3486,10 @@
         <v>6</v>
       </c>
       <c r="B282">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C282" s="2">
-        <v>53.8129997253418</v>
+        <v>92.21199798583984</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3497,10 +3497,10 @@
         <v>6</v>
       </c>
       <c r="B283">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C283" s="2">
-        <v>92.21199798583984</v>
+        <v>145.2920074462891</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3508,10 +3508,10 @@
         <v>6</v>
       </c>
       <c r="B284">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C284" s="2">
-        <v>145.2920074462891</v>
+        <v>281.3210144042969</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3519,10 +3519,10 @@
         <v>6</v>
       </c>
       <c r="B285">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C285" s="2">
-        <v>281.3210144042969</v>
+        <v>230.6840057373047</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3530,10 +3530,10 @@
         <v>6</v>
       </c>
       <c r="B286">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C286" s="2">
-        <v>230.6840057373047</v>
+        <v>310.0639953613281</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3541,10 +3541,10 @@
         <v>6</v>
       </c>
       <c r="B287">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C287" s="2">
-        <v>310.0639953613281</v>
+        <v>491.3410034179688</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3552,10 +3552,10 @@
         <v>6</v>
       </c>
       <c r="B288">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C288" s="2">
-        <v>491.3410034179688</v>
+        <v>424.4089965820312</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3563,10 +3563,10 @@
         <v>6</v>
       </c>
       <c r="B289">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C289" s="2">
-        <v>424.4089965820312</v>
+        <v>485.7919921875</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3574,10 +3574,10 @@
         <v>6</v>
       </c>
       <c r="B290">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C290" s="2">
-        <v>485.7919921875</v>
+        <v>528.6069946289062</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3585,10 +3585,10 @@
         <v>6</v>
       </c>
       <c r="B291">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C291" s="2">
-        <v>528.6069946289062</v>
+        <v>627.5900268554688</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3596,10 +3596,10 @@
         <v>6</v>
       </c>
       <c r="B292">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C292" s="2">
-        <v>627.5900268554688</v>
+        <v>697.510986328125</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3607,10 +3607,10 @@
         <v>6</v>
       </c>
       <c r="B293">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C293" s="2">
-        <v>697.510986328125</v>
+        <v>793.7760009765625</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3618,10 +3618,10 @@
         <v>6</v>
       </c>
       <c r="B294">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C294" s="2">
-        <v>793.7760009765625</v>
+        <v>784.155029296875</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3629,10 +3629,10 @@
         <v>6</v>
       </c>
       <c r="B295">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C295" s="2">
-        <v>784.155029296875</v>
+        <v>810.60302734375</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3640,10 +3640,10 @@
         <v>6</v>
       </c>
       <c r="B296">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C296" s="2">
-        <v>810.60302734375</v>
+        <v>850.6339721679688</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3651,10 +3651,10 @@
         <v>6</v>
       </c>
       <c r="B297">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C297" s="2">
-        <v>850.6339721679688</v>
+        <v>822.9910278320312</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3662,10 +3662,10 @@
         <v>6</v>
       </c>
       <c r="B298">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C298" s="2">
-        <v>822.9910278320312</v>
+        <v>774.2839965820312</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3673,10 +3673,10 @@
         <v>6</v>
       </c>
       <c r="B299">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C299" s="2">
-        <v>774.2839965820312</v>
+        <v>594.22998046875</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3684,10 +3684,10 @@
         <v>6</v>
       </c>
       <c r="B300">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C300" s="2">
-        <v>594.22998046875</v>
+        <v>658.7540283203125</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3695,10 +3695,10 @@
         <v>6</v>
       </c>
       <c r="B301">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C301" s="2">
-        <v>658.7540283203125</v>
+        <v>546.3389892578125</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3706,10 +3706,10 @@
         <v>6</v>
       </c>
       <c r="B302">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C302" s="2">
-        <v>546.3389892578125</v>
+        <v>540.2130126953125</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3717,10 +3717,10 @@
         <v>6</v>
       </c>
       <c r="B303">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C303" s="2">
-        <v>540.2130126953125</v>
+        <v>574.9119873046875</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3728,10 +3728,10 @@
         <v>6</v>
       </c>
       <c r="B304">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C304" s="2">
-        <v>574.9119873046875</v>
+        <v>682.4860229492188</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3739,10 +3739,10 @@
         <v>6</v>
       </c>
       <c r="B305">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C305" s="2">
-        <v>682.4860229492188</v>
+        <v>734.7949829101562</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3750,10 +3750,10 @@
         <v>6</v>
       </c>
       <c r="B306">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C306" s="2">
-        <v>734.7949829101562</v>
+        <v>754.4500122070312</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3761,10 +3761,10 @@
         <v>6</v>
       </c>
       <c r="B307">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C307" s="2">
-        <v>754.4500122070312</v>
+        <v>698.1400146484375</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3772,10 +3772,10 @@
         <v>6</v>
       </c>
       <c r="B308">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C308" s="2">
-        <v>698.1400146484375</v>
+        <v>652.68701171875</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3783,10 +3783,10 @@
         <v>6</v>
       </c>
       <c r="B309">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C309" s="2">
-        <v>652.68701171875</v>
+        <v>697.3809814453125</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3794,10 +3794,10 @@
         <v>6</v>
       </c>
       <c r="B310">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C310" s="2">
-        <v>697.3809814453125</v>
+        <v>721.75</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3805,10 +3805,10 @@
         <v>6</v>
       </c>
       <c r="B311">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C311" s="2">
-        <v>721.75</v>
+        <v>707.2249755859375</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3816,10 +3816,10 @@
         <v>6</v>
       </c>
       <c r="B312">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C312" s="2">
-        <v>707.2249755859375</v>
+        <v>706.47900390625</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3827,10 +3827,10 @@
         <v>6</v>
       </c>
       <c r="B313">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C313" s="2">
-        <v>706.47900390625</v>
+        <v>856.3159790039062</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3838,10 +3838,10 @@
         <v>6</v>
       </c>
       <c r="B314">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C314" s="2">
-        <v>856.3159790039062</v>
+        <v>793.2119750976562</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3849,10 +3849,10 @@
         <v>6</v>
       </c>
       <c r="B315">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C315" s="2">
-        <v>793.2119750976562</v>
+        <v>723.114990234375</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3860,10 +3860,10 @@
         <v>6</v>
       </c>
       <c r="B316">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C316" s="2">
-        <v>723.114990234375</v>
+        <v>646.2739868164062</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -3871,10 +3871,10 @@
         <v>6</v>
       </c>
       <c r="B317">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C317" s="2">
-        <v>646.2739868164062</v>
+        <v>574.8380126953125</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -3882,10 +3882,10 @@
         <v>6</v>
       </c>
       <c r="B318">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C318" s="2">
-        <v>574.8380126953125</v>
+        <v>555.60400390625</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -3893,10 +3893,10 @@
         <v>6</v>
       </c>
       <c r="B319">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C319" s="2">
-        <v>555.60400390625</v>
+        <v>562.7369995117188</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -3904,10 +3904,10 @@
         <v>6</v>
       </c>
       <c r="B320">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C320" s="2">
-        <v>562.7369995117188</v>
+        <v>578.4550170898438</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -3915,10 +3915,10 @@
         <v>6</v>
       </c>
       <c r="B321">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C321" s="2">
-        <v>578.4550170898438</v>
+        <v>452.635009765625</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -3926,10 +3926,10 @@
         <v>6</v>
       </c>
       <c r="B322">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C322" s="2">
-        <v>452.635009765625</v>
+        <v>339.6910095214844</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -3937,10 +3937,10 @@
         <v>6</v>
       </c>
       <c r="B323">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C323" s="2">
-        <v>339.6910095214844</v>
+        <v>243.5010070800781</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -3948,10 +3948,10 @@
         <v>6</v>
       </c>
       <c r="B324">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C324" s="2">
-        <v>243.5010070800781</v>
+        <v>323.0669860839844</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -3959,10 +3959,10 @@
         <v>6</v>
       </c>
       <c r="B325">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C325" s="2">
-        <v>323.0669860839844</v>
+        <v>291.8510131835938</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -3970,10 +3970,10 @@
         <v>6</v>
       </c>
       <c r="B326">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C326" s="2">
-        <v>291.8510131835938</v>
+        <v>249.9570007324219</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -3981,10 +3981,10 @@
         <v>6</v>
       </c>
       <c r="B327">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C327" s="2">
-        <v>249.9570007324219</v>
+        <v>258.8450012207031</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -3992,10 +3992,10 @@
         <v>6</v>
       </c>
       <c r="B328">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C328" s="2">
-        <v>258.8450012207031</v>
+        <v>266.2839965820312</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -4003,10 +4003,10 @@
         <v>6</v>
       </c>
       <c r="B329">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C329" s="2">
-        <v>266.2839965820312</v>
+        <v>292.2869873046875</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -4014,10 +4014,10 @@
         <v>6</v>
       </c>
       <c r="B330">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C330" s="2">
-        <v>292.2869873046875</v>
+        <v>218.6080017089844</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4025,10 +4025,10 @@
         <v>6</v>
       </c>
       <c r="B331">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C331" s="2">
-        <v>218.6080017089844</v>
+        <v>348.0260009765625</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4036,10 +4036,10 @@
         <v>6</v>
       </c>
       <c r="B332">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C332" s="2">
-        <v>348.0260009765625</v>
+        <v>422.3529968261719</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4047,10 +4047,10 @@
         <v>6</v>
       </c>
       <c r="B333">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C333" s="2">
-        <v>422.3529968261719</v>
+        <v>399.4200134277344</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4058,10 +4058,10 @@
         <v>6</v>
       </c>
       <c r="B334">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C334" s="2">
-        <v>399.4200134277344</v>
+        <v>415.2690124511719</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4069,10 +4069,10 @@
         <v>6</v>
       </c>
       <c r="B335">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C335" s="2">
-        <v>415.2690124511719</v>
+        <v>454.510009765625</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4080,10 +4080,10 @@
         <v>6</v>
       </c>
       <c r="B336">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C336" s="2">
-        <v>454.510009765625</v>
+        <v>307.0809936523438</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4091,10 +4091,10 @@
         <v>6</v>
       </c>
       <c r="B337">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C337" s="2">
-        <v>307.0809936523438</v>
+        <v>282.93701171875</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4102,10 +4102,10 @@
         <v>6</v>
       </c>
       <c r="B338">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C338" s="2">
-        <v>282.93701171875</v>
+        <v>186.1600036621094</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4113,10 +4113,10 @@
         <v>6</v>
       </c>
       <c r="B339">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C339" s="2">
-        <v>186.1600036621094</v>
+        <v>173.3529968261719</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4124,10 +4124,10 @@
         <v>6</v>
       </c>
       <c r="B340">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C340" s="2">
-        <v>173.3529968261719</v>
+        <v>170.5619964599609</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4135,10 +4135,10 @@
         <v>6</v>
       </c>
       <c r="B341">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C341" s="2">
-        <v>170.5619964599609</v>
+        <v>207.27099609375</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4146,10 +4146,10 @@
         <v>6</v>
       </c>
       <c r="B342">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C342" s="2">
-        <v>207.27099609375</v>
+        <v>222.3650054931641</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4157,10 +4157,10 @@
         <v>6</v>
       </c>
       <c r="B343">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C343" s="2">
-        <v>222.3650054931641</v>
+        <v>171.447998046875</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4168,10 +4168,10 @@
         <v>6</v>
       </c>
       <c r="B344">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C344" s="2">
-        <v>171.447998046875</v>
+        <v>172.2310028076172</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4179,10 +4179,10 @@
         <v>6</v>
       </c>
       <c r="B345">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C345" s="2">
-        <v>172.2310028076172</v>
+        <v>161.8990020751953</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4190,10 +4190,10 @@
         <v>6</v>
       </c>
       <c r="B346">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C346" s="2">
-        <v>161.8990020751953</v>
+        <v>244.2359924316406</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -4201,21 +4201,21 @@
         <v>6</v>
       </c>
       <c r="B347">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C347" s="2">
-        <v>244.2359924316406</v>
+        <v>258.5190124511719</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B348">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="C348" s="2">
-        <v>258.5190124511719</v>
+        <v>385.2640075683594</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -4223,10 +4223,10 @@
         <v>7</v>
       </c>
       <c r="B349">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C349" s="2">
-        <v>385.2640075683594</v>
+        <v>456.4670104980469</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4234,10 +4234,10 @@
         <v>7</v>
       </c>
       <c r="B350">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C350" s="2">
-        <v>456.4670104980469</v>
+        <v>512.9609985351562</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -4245,10 +4245,10 @@
         <v>7</v>
       </c>
       <c r="B351">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C351" s="2">
-        <v>512.9609985351562</v>
+        <v>371.8150024414062</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4256,10 +4256,10 @@
         <v>7</v>
       </c>
       <c r="B352">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C352" s="2">
-        <v>371.8150024414062</v>
+        <v>363.4509887695312</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4267,10 +4267,10 @@
         <v>7</v>
       </c>
       <c r="B353">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C353" s="2">
-        <v>363.4509887695312</v>
+        <v>358.5090026855469</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4278,10 +4278,10 @@
         <v>7</v>
       </c>
       <c r="B354">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C354" s="2">
-        <v>358.5090026855469</v>
+        <v>343.8479919433594</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4289,10 +4289,10 @@
         <v>7</v>
       </c>
       <c r="B355">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C355" s="2">
-        <v>343.8479919433594</v>
+        <v>335.3290100097656</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4300,10 +4300,10 @@
         <v>7</v>
       </c>
       <c r="B356">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C356" s="2">
-        <v>335.3290100097656</v>
+        <v>348.5239868164062</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -4311,10 +4311,10 @@
         <v>7</v>
       </c>
       <c r="B357">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C357" s="2">
-        <v>348.5239868164062</v>
+        <v>311.0140075683594</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -4322,10 +4322,10 @@
         <v>7</v>
       </c>
       <c r="B358">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C358" s="2">
-        <v>311.0140075683594</v>
+        <v>257.3469848632812</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4333,10 +4333,10 @@
         <v>7</v>
       </c>
       <c r="B359">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C359" s="2">
-        <v>257.3469848632812</v>
+        <v>157.8480072021484</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4344,10 +4344,10 @@
         <v>7</v>
       </c>
       <c r="B360">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C360" s="2">
-        <v>157.8480072021484</v>
+        <v>104.5059967041016</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4355,10 +4355,10 @@
         <v>7</v>
       </c>
       <c r="B361">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C361" s="2">
-        <v>104.5059967041016</v>
+        <v>105.5830001831055</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4366,10 +4366,10 @@
         <v>7</v>
       </c>
       <c r="B362">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C362" s="2">
-        <v>105.5830001831055</v>
+        <v>103.7060012817383</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4377,10 +4377,10 @@
         <v>7</v>
       </c>
       <c r="B363">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C363" s="2">
-        <v>103.7060012817383</v>
+        <v>98.78800201416016</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4388,10 +4388,10 @@
         <v>7</v>
       </c>
       <c r="B364">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C364" s="2">
-        <v>98.78800201416016</v>
+        <v>91.79599761962891</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4399,10 +4399,10 @@
         <v>7</v>
       </c>
       <c r="B365">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C365" s="2">
-        <v>91.79599761962891</v>
+        <v>59.89300155639648</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4410,10 +4410,10 @@
         <v>7</v>
       </c>
       <c r="B366">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C366" s="2">
-        <v>59.89300155639648</v>
+        <v>171.0240020751953</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -4421,10 +4421,10 @@
         <v>7</v>
       </c>
       <c r="B367">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C367" s="2">
-        <v>171.0240020751953</v>
+        <v>141.9259948730469</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -4432,10 +4432,10 @@
         <v>7</v>
       </c>
       <c r="B368">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C368" s="2">
-        <v>141.9259948730469</v>
+        <v>140.0890045166016</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4443,10 +4443,10 @@
         <v>7</v>
       </c>
       <c r="B369">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C369" s="2">
-        <v>140.0890045166016</v>
+        <v>67.43699645996094</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -4454,10 +4454,10 @@
         <v>7</v>
       </c>
       <c r="B370">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C370" s="2">
-        <v>67.43699645996094</v>
+        <v>40.73600006103516</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -4465,10 +4465,10 @@
         <v>7</v>
       </c>
       <c r="B371">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C371" s="2">
-        <v>40.73600006103516</v>
+        <v>-15.85599994659424</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -4476,10 +4476,10 @@
         <v>7</v>
       </c>
       <c r="B372">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C372" s="2">
-        <v>-15.85599994659424</v>
+        <v>68.74600219726562</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -4487,10 +4487,10 @@
         <v>7</v>
       </c>
       <c r="B373">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C373" s="2">
-        <v>68.74600219726562</v>
+        <v>61.53900146484375</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4498,10 +4498,10 @@
         <v>7</v>
       </c>
       <c r="B374">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C374" s="2">
-        <v>61.53900146484375</v>
+        <v>-10.5939998626709</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4509,10 +4509,10 @@
         <v>7</v>
       </c>
       <c r="B375">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C375" s="2">
-        <v>-10.5939998626709</v>
+        <v>-21.95400047302246</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4520,10 +4520,10 @@
         <v>7</v>
       </c>
       <c r="B376">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C376" s="2">
-        <v>-21.95400047302246</v>
+        <v>-93.66300201416016</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -4531,10 +4531,10 @@
         <v>7</v>
       </c>
       <c r="B377">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C377" s="2">
-        <v>-93.66300201416016</v>
+        <v>-12.77999973297119</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -4542,10 +4542,10 @@
         <v>7</v>
       </c>
       <c r="B378">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C378" s="2">
-        <v>-12.77999973297119</v>
+        <v>68.66699981689453</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -4553,10 +4553,10 @@
         <v>7</v>
       </c>
       <c r="B379">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C379" s="2">
-        <v>68.66699981689453</v>
+        <v>165.0489959716797</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -4564,10 +4564,10 @@
         <v>7</v>
       </c>
       <c r="B380">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C380" s="2">
-        <v>165.0489959716797</v>
+        <v>190.8860015869141</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4575,10 +4575,10 @@
         <v>7</v>
       </c>
       <c r="B381">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C381" s="2">
-        <v>190.8860015869141</v>
+        <v>245.5189971923828</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4586,10 +4586,10 @@
         <v>7</v>
       </c>
       <c r="B382">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C382" s="2">
-        <v>245.5189971923828</v>
+        <v>389.8900146484375</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4597,10 +4597,10 @@
         <v>7</v>
       </c>
       <c r="B383">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C383" s="2">
-        <v>389.8900146484375</v>
+        <v>404.5350036621094</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4608,10 +4608,10 @@
         <v>7</v>
       </c>
       <c r="B384">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C384" s="2">
-        <v>404.5350036621094</v>
+        <v>323.3989868164062</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -4619,10 +4619,10 @@
         <v>7</v>
       </c>
       <c r="B385">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C385" s="2">
-        <v>323.3989868164062</v>
+        <v>262.2799987792969</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -4630,10 +4630,10 @@
         <v>7</v>
       </c>
       <c r="B386">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C386" s="2">
-        <v>262.2799987792969</v>
+        <v>247.1739959716797</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -4641,10 +4641,10 @@
         <v>7</v>
       </c>
       <c r="B387">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C387" s="2">
-        <v>247.1739959716797</v>
+        <v>311.8110046386719</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -4652,10 +4652,10 @@
         <v>7</v>
       </c>
       <c r="B388">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C388" s="2">
-        <v>311.8110046386719</v>
+        <v>469.4110107421875</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4663,10 +4663,10 @@
         <v>7</v>
       </c>
       <c r="B389">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C389" s="2">
-        <v>469.4110107421875</v>
+        <v>495.1220092773438</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -4674,10 +4674,10 @@
         <v>7</v>
       </c>
       <c r="B390">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C390" s="2">
-        <v>495.1220092773438</v>
+        <v>392.4419860839844</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -4685,10 +4685,10 @@
         <v>7</v>
       </c>
       <c r="B391">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C391" s="2">
-        <v>392.4419860839844</v>
+        <v>374.3550109863281</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4696,10 +4696,10 @@
         <v>7</v>
       </c>
       <c r="B392">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C392" s="2">
-        <v>374.3550109863281</v>
+        <v>343.8200073242188</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -4707,10 +4707,10 @@
         <v>7</v>
       </c>
       <c r="B393">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C393" s="2">
-        <v>343.8200073242188</v>
+        <v>289.3009948730469</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -4718,10 +4718,10 @@
         <v>7</v>
       </c>
       <c r="B394">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C394" s="2">
-        <v>289.3009948730469</v>
+        <v>312.7179870605469</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -4729,10 +4729,10 @@
         <v>7</v>
       </c>
       <c r="B395">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C395" s="2">
-        <v>312.7179870605469</v>
+        <v>328.4500122070312</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -4740,10 +4740,10 @@
         <v>7</v>
       </c>
       <c r="B396">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C396" s="2">
-        <v>328.4500122070312</v>
+        <v>250.6809997558594</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -4751,10 +4751,10 @@
         <v>7</v>
       </c>
       <c r="B397">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C397" s="2">
-        <v>250.6809997558594</v>
+        <v>216.6009979248047</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -4762,10 +4762,10 @@
         <v>7</v>
       </c>
       <c r="B398">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C398" s="2">
-        <v>216.6009979248047</v>
+        <v>194.468994140625</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -4773,10 +4773,10 @@
         <v>7</v>
       </c>
       <c r="B399">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C399" s="2">
-        <v>194.468994140625</v>
+        <v>192.677001953125</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -4784,10 +4784,10 @@
         <v>7</v>
       </c>
       <c r="B400">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C400" s="2">
-        <v>192.677001953125</v>
+        <v>144.125</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -4795,10 +4795,10 @@
         <v>7</v>
       </c>
       <c r="B401">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C401" s="2">
-        <v>144.125</v>
+        <v>176.5130004882812</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -4806,10 +4806,10 @@
         <v>7</v>
       </c>
       <c r="B402">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C402" s="2">
-        <v>176.5130004882812</v>
+        <v>255.1670074462891</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -4817,10 +4817,10 @@
         <v>7</v>
       </c>
       <c r="B403">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C403" s="2">
-        <v>255.1670074462891</v>
+        <v>373.6619873046875</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -4828,10 +4828,10 @@
         <v>7</v>
       </c>
       <c r="B404">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C404" s="2">
-        <v>373.6619873046875</v>
+        <v>272.1409912109375</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -4839,10 +4839,10 @@
         <v>7</v>
       </c>
       <c r="B405">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C405" s="2">
-        <v>272.1409912109375</v>
+        <v>322.4500122070312</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -4850,10 +4850,10 @@
         <v>7</v>
       </c>
       <c r="B406">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C406" s="2">
-        <v>322.4500122070312</v>
+        <v>242.8690032958984</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -4861,10 +4861,10 @@
         <v>7</v>
       </c>
       <c r="B407">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C407" s="2">
-        <v>242.8690032958984</v>
+        <v>278.9419860839844</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -4872,10 +4872,10 @@
         <v>7</v>
       </c>
       <c r="B408">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C408" s="2">
-        <v>278.9419860839844</v>
+        <v>226.7590026855469</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -4883,10 +4883,10 @@
         <v>7</v>
       </c>
       <c r="B409">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C409" s="2">
-        <v>226.7590026855469</v>
+        <v>112.0630035400391</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -4894,10 +4894,10 @@
         <v>7</v>
       </c>
       <c r="B410">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C410" s="2">
-        <v>112.0630035400391</v>
+        <v>87.90899658203125</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -4905,10 +4905,10 @@
         <v>7</v>
       </c>
       <c r="B411">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C411" s="2">
-        <v>87.90899658203125</v>
+        <v>262.1650085449219</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -4916,10 +4916,10 @@
         <v>7</v>
       </c>
       <c r="B412">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C412" s="2">
-        <v>262.1650085449219</v>
+        <v>792.2639770507812</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -4927,10 +4927,10 @@
         <v>7</v>
       </c>
       <c r="B413">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C413" s="2">
-        <v>792.2639770507812</v>
+        <v>1236.1240234375</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -4938,10 +4938,10 @@
         <v>7</v>
       </c>
       <c r="B414">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C414" s="2">
-        <v>1236.1240234375</v>
+        <v>1514.031982421875</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -4949,10 +4949,10 @@
         <v>7</v>
       </c>
       <c r="B415">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C415" s="2">
-        <v>1514.031982421875</v>
+        <v>2028.261962890625</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -4960,10 +4960,10 @@
         <v>7</v>
       </c>
       <c r="B416">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C416" s="2">
-        <v>2028.261962890625</v>
+        <v>2184.929931640625</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -4971,10 +4971,10 @@
         <v>7</v>
       </c>
       <c r="B417">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C417" s="2">
-        <v>2184.929931640625</v>
+        <v>2244.18310546875</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -4982,10 +4982,10 @@
         <v>7</v>
       </c>
       <c r="B418">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C418" s="2">
-        <v>2244.18310546875</v>
+        <v>2349.714111328125</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -4993,10 +4993,10 @@
         <v>7</v>
       </c>
       <c r="B419">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C419" s="2">
-        <v>2349.714111328125</v>
+        <v>2298.77001953125</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -5004,10 +5004,10 @@
         <v>7</v>
       </c>
       <c r="B420">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C420" s="2">
-        <v>2298.77001953125</v>
+        <v>2251.785888671875</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -5015,10 +5015,10 @@
         <v>7</v>
       </c>
       <c r="B421">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C421" s="2">
-        <v>2251.785888671875</v>
+        <v>2140.99609375</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -5026,10 +5026,10 @@
         <v>7</v>
       </c>
       <c r="B422">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C422" s="2">
-        <v>2140.99609375</v>
+        <v>2290.52587890625</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -5037,10 +5037,10 @@
         <v>7</v>
       </c>
       <c r="B423">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C423" s="2">
-        <v>2290.52587890625</v>
+        <v>2312.06103515625</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -5048,10 +5048,10 @@
         <v>7</v>
       </c>
       <c r="B424">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C424" s="2">
-        <v>2312.06103515625</v>
+        <v>2279.06591796875</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -5059,10 +5059,10 @@
         <v>7</v>
       </c>
       <c r="B425">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C425" s="2">
-        <v>2279.06591796875</v>
+        <v>2345.9990234375</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -5070,10 +5070,10 @@
         <v>7</v>
       </c>
       <c r="B426">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C426" s="2">
-        <v>2345.9990234375</v>
+        <v>2335.9140625</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -5081,10 +5081,10 @@
         <v>7</v>
       </c>
       <c r="B427">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C427" s="2">
-        <v>2335.9140625</v>
+        <v>2349.382080078125</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -5092,10 +5092,10 @@
         <v>7</v>
       </c>
       <c r="B428">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C428" s="2">
-        <v>2349.382080078125</v>
+        <v>2385.48095703125</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -5103,10 +5103,10 @@
         <v>7</v>
       </c>
       <c r="B429">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C429" s="2">
-        <v>2385.48095703125</v>
+        <v>2402.72802734375</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -5114,10 +5114,10 @@
         <v>7</v>
       </c>
       <c r="B430">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C430" s="2">
-        <v>2402.72802734375</v>
+        <v>2389.06103515625</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -5125,10 +5125,10 @@
         <v>7</v>
       </c>
       <c r="B431">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C431" s="2">
-        <v>2389.06103515625</v>
+        <v>2395.431884765625</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -5136,10 +5136,10 @@
         <v>7</v>
       </c>
       <c r="B432">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C432" s="2">
-        <v>2395.431884765625</v>
+        <v>2397.55810546875</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -5147,10 +5147,10 @@
         <v>7</v>
       </c>
       <c r="B433">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C433" s="2">
-        <v>2397.55810546875</v>
+        <v>2366.30810546875</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -5158,10 +5158,10 @@
         <v>7</v>
       </c>
       <c r="B434">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C434" s="2">
-        <v>2366.30810546875</v>
+        <v>2357.919921875</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -5169,10 +5169,10 @@
         <v>7</v>
       </c>
       <c r="B435">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C435" s="2">
-        <v>2357.919921875</v>
+        <v>2385.782958984375</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -5180,10 +5180,10 @@
         <v>7</v>
       </c>
       <c r="B436">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C436" s="2">
-        <v>2385.782958984375</v>
+        <v>2308.81201171875</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -5191,10 +5191,10 @@
         <v>7</v>
       </c>
       <c r="B437">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C437" s="2">
-        <v>2308.81201171875</v>
+        <v>2294.970947265625</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -5202,10 +5202,10 @@
         <v>7</v>
       </c>
       <c r="B438">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C438" s="2">
-        <v>2294.970947265625</v>
+        <v>2284.06494140625</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -5213,10 +5213,10 @@
         <v>7</v>
       </c>
       <c r="B439">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C439" s="2">
-        <v>2284.06494140625</v>
+        <v>2248.299072265625</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -5224,10 +5224,10 @@
         <v>7</v>
       </c>
       <c r="B440">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C440" s="2">
-        <v>2248.299072265625</v>
+        <v>2247.97998046875</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -5235,10 +5235,10 @@
         <v>7</v>
       </c>
       <c r="B441">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C441" s="2">
-        <v>2247.97998046875</v>
+        <v>2283.008056640625</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -5246,10 +5246,10 @@
         <v>7</v>
       </c>
       <c r="B442">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C442" s="2">
-        <v>2283.008056640625</v>
+        <v>2242.60107421875</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -5257,21 +5257,21 @@
         <v>7</v>
       </c>
       <c r="B443">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C443" s="2">
-        <v>2242.60107421875</v>
+        <v>2240.889892578125</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B444">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="C444" s="2">
-        <v>2240.889892578125</v>
+        <v>2558.35009765625</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -5279,10 +5279,10 @@
         <v>8</v>
       </c>
       <c r="B445">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C445" s="2">
-        <v>2558.35009765625</v>
+        <v>2580.998046875</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -5290,10 +5290,10 @@
         <v>8</v>
       </c>
       <c r="B446">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C446" s="2">
-        <v>2580.998046875</v>
+        <v>2585.27001953125</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -5301,10 +5301,10 @@
         <v>8</v>
       </c>
       <c r="B447">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C447" s="2">
-        <v>2585.27001953125</v>
+        <v>2582.302978515625</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -5312,10 +5312,10 @@
         <v>8</v>
       </c>
       <c r="B448">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C448" s="2">
-        <v>2582.302978515625</v>
+        <v>2551.9140625</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -5323,10 +5323,10 @@
         <v>8</v>
       </c>
       <c r="B449">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C449" s="2">
-        <v>2551.9140625</v>
+        <v>2571.887939453125</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -5334,10 +5334,10 @@
         <v>8</v>
       </c>
       <c r="B450">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C450" s="2">
-        <v>2571.887939453125</v>
+        <v>2567.9970703125</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -5345,10 +5345,10 @@
         <v>8</v>
       </c>
       <c r="B451">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C451" s="2">
-        <v>2567.9970703125</v>
+        <v>2601.613037109375</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -5356,10 +5356,10 @@
         <v>8</v>
       </c>
       <c r="B452">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C452" s="2">
-        <v>2601.613037109375</v>
+        <v>2586.738037109375</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -5367,10 +5367,10 @@
         <v>8</v>
       </c>
       <c r="B453">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C453" s="2">
-        <v>2586.738037109375</v>
+        <v>2583.537109375</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -5378,10 +5378,10 @@
         <v>8</v>
       </c>
       <c r="B454">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C454" s="2">
-        <v>2583.537109375</v>
+        <v>2568.489013671875</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -5389,10 +5389,10 @@
         <v>8</v>
       </c>
       <c r="B455">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C455" s="2">
-        <v>2568.489013671875</v>
+        <v>2553.962890625</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -5400,10 +5400,10 @@
         <v>8</v>
       </c>
       <c r="B456">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C456" s="2">
-        <v>2553.962890625</v>
+        <v>2531.26611328125</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -5411,10 +5411,10 @@
         <v>8</v>
       </c>
       <c r="B457">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C457" s="2">
-        <v>2531.26611328125</v>
+        <v>2534.85009765625</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -5422,10 +5422,10 @@
         <v>8</v>
       </c>
       <c r="B458">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C458" s="2">
-        <v>2534.85009765625</v>
+        <v>2539.360107421875</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -5433,10 +5433,10 @@
         <v>8</v>
       </c>
       <c r="B459">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C459" s="2">
-        <v>2539.360107421875</v>
+        <v>2522.419921875</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -5444,10 +5444,10 @@
         <v>8</v>
       </c>
       <c r="B460">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C460" s="2">
-        <v>2522.419921875</v>
+        <v>2519.35107421875</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -5455,10 +5455,10 @@
         <v>8</v>
       </c>
       <c r="B461">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C461" s="2">
-        <v>2519.35107421875</v>
+        <v>2516.2900390625</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -5466,10 +5466,10 @@
         <v>8</v>
       </c>
       <c r="B462">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C462" s="2">
-        <v>2516.2900390625</v>
+        <v>2499.595947265625</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -5477,10 +5477,10 @@
         <v>8</v>
       </c>
       <c r="B463">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C463" s="2">
-        <v>2499.595947265625</v>
+        <v>2514.373046875</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -5488,10 +5488,10 @@
         <v>8</v>
       </c>
       <c r="B464">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C464" s="2">
-        <v>2514.373046875</v>
+        <v>2551.60595703125</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -5499,10 +5499,10 @@
         <v>8</v>
       </c>
       <c r="B465">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C465" s="2">
-        <v>2551.60595703125</v>
+        <v>2550.9140625</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -5510,10 +5510,10 @@
         <v>8</v>
       </c>
       <c r="B466">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C466" s="2">
-        <v>2550.9140625</v>
+        <v>2557.93798828125</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -5521,10 +5521,10 @@
         <v>8</v>
       </c>
       <c r="B467">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C467" s="2">
-        <v>2557.93798828125</v>
+        <v>2566.35595703125</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -5532,10 +5532,10 @@
         <v>8</v>
       </c>
       <c r="B468">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C468" s="2">
-        <v>2566.35595703125</v>
+        <v>2584.240966796875</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -5543,10 +5543,10 @@
         <v>8</v>
       </c>
       <c r="B469">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C469" s="2">
-        <v>2584.240966796875</v>
+        <v>2576.027099609375</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -5554,10 +5554,10 @@
         <v>8</v>
       </c>
       <c r="B470">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C470" s="2">
-        <v>2576.027099609375</v>
+        <v>2584.69189453125</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -5565,10 +5565,10 @@
         <v>8</v>
       </c>
       <c r="B471">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C471" s="2">
-        <v>2584.69189453125</v>
+        <v>2585.009033203125</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -5576,10 +5576,10 @@
         <v>8</v>
       </c>
       <c r="B472">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C472" s="2">
-        <v>2585.009033203125</v>
+        <v>2549.825927734375</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -5587,10 +5587,10 @@
         <v>8</v>
       </c>
       <c r="B473">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C473" s="2">
-        <v>2549.825927734375</v>
+        <v>2557.10205078125</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -5598,10 +5598,10 @@
         <v>8</v>
       </c>
       <c r="B474">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C474" s="2">
-        <v>2557.10205078125</v>
+        <v>2543.02099609375</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -5609,10 +5609,10 @@
         <v>8</v>
       </c>
       <c r="B475">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C475" s="2">
-        <v>2543.02099609375</v>
+        <v>2525.35595703125</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -5620,10 +5620,10 @@
         <v>8</v>
       </c>
       <c r="B476">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C476" s="2">
-        <v>2525.35595703125</v>
+        <v>2461.027099609375</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -5631,10 +5631,10 @@
         <v>8</v>
       </c>
       <c r="B477">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C477" s="2">
-        <v>2461.027099609375</v>
+        <v>2411.804931640625</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -5642,10 +5642,10 @@
         <v>8</v>
       </c>
       <c r="B478">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C478" s="2">
-        <v>2411.804931640625</v>
+        <v>2384.35400390625</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -5653,10 +5653,10 @@
         <v>8</v>
       </c>
       <c r="B479">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C479" s="2">
-        <v>2384.35400390625</v>
+        <v>2318.10498046875</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -5664,10 +5664,10 @@
         <v>8</v>
       </c>
       <c r="B480">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C480" s="2">
-        <v>2318.10498046875</v>
+        <v>2290.7880859375</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -5675,10 +5675,10 @@
         <v>8</v>
       </c>
       <c r="B481">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C481" s="2">
-        <v>2290.7880859375</v>
+        <v>2230.6298828125</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -5686,10 +5686,10 @@
         <v>8</v>
       </c>
       <c r="B482">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C482" s="2">
-        <v>2230.6298828125</v>
+        <v>2192.027099609375</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -5697,10 +5697,10 @@
         <v>8</v>
       </c>
       <c r="B483">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C483" s="2">
-        <v>2192.027099609375</v>
+        <v>2098.760009765625</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -5708,10 +5708,10 @@
         <v>8</v>
       </c>
       <c r="B484">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C484" s="2">
-        <v>2098.760009765625</v>
+        <v>2052.01708984375</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -5719,10 +5719,10 @@
         <v>8</v>
       </c>
       <c r="B485">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C485" s="2">
-        <v>2052.01708984375</v>
+        <v>2018.029052734375</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -5730,10 +5730,10 @@
         <v>8</v>
       </c>
       <c r="B486">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C486" s="2">
-        <v>2018.029052734375</v>
+        <v>1762.093017578125</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -5741,10 +5741,10 @@
         <v>8</v>
       </c>
       <c r="B487">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C487" s="2">
-        <v>1762.093017578125</v>
+        <v>1670.60400390625</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -5752,10 +5752,10 @@
         <v>8</v>
       </c>
       <c r="B488">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C488" s="2">
-        <v>1670.60400390625</v>
+        <v>1747.469970703125</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -5763,10 +5763,10 @@
         <v>8</v>
       </c>
       <c r="B489">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C489" s="2">
-        <v>1747.469970703125</v>
+        <v>1522.93798828125</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -5774,10 +5774,10 @@
         <v>8</v>
       </c>
       <c r="B490">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C490" s="2">
-        <v>1522.93798828125</v>
+        <v>1357.510986328125</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -5785,10 +5785,10 @@
         <v>8</v>
       </c>
       <c r="B491">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C491" s="2">
-        <v>1357.510986328125</v>
+        <v>1098.449951171875</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -5796,10 +5796,10 @@
         <v>8</v>
       </c>
       <c r="B492">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C492" s="2">
-        <v>1098.449951171875</v>
+        <v>875.5479736328125</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -5807,10 +5807,10 @@
         <v>8</v>
       </c>
       <c r="B493">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C493" s="2">
-        <v>875.5479736328125</v>
+        <v>889.2269897460938</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -5818,10 +5818,10 @@
         <v>8</v>
       </c>
       <c r="B494">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C494" s="2">
-        <v>889.2269897460938</v>
+        <v>841.3179931640625</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -5829,10 +5829,10 @@
         <v>8</v>
       </c>
       <c r="B495">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C495" s="2">
-        <v>841.3179931640625</v>
+        <v>806.1669921875</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -5840,10 +5840,10 @@
         <v>8</v>
       </c>
       <c r="B496">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C496" s="2">
-        <v>806.1669921875</v>
+        <v>741.333984375</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -5851,10 +5851,10 @@
         <v>8</v>
       </c>
       <c r="B497">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C497" s="2">
-        <v>741.333984375</v>
+        <v>681.2520141601562</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -5862,10 +5862,10 @@
         <v>8</v>
       </c>
       <c r="B498">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C498" s="2">
-        <v>681.2520141601562</v>
+        <v>554.97900390625</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -5873,10 +5873,10 @@
         <v>8</v>
       </c>
       <c r="B499">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C499" s="2">
-        <v>554.97900390625</v>
+        <v>768.5059814453125</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -5884,10 +5884,10 @@
         <v>8</v>
       </c>
       <c r="B500">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C500" s="2">
-        <v>768.5059814453125</v>
+        <v>633.1370239257812</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -5895,10 +5895,10 @@
         <v>8</v>
       </c>
       <c r="B501">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C501" s="2">
-        <v>633.1370239257812</v>
+        <v>670.4290161132812</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -5906,10 +5906,10 @@
         <v>8</v>
       </c>
       <c r="B502">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C502" s="2">
-        <v>670.4290161132812</v>
+        <v>742.9439697265625</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -5917,10 +5917,10 @@
         <v>8</v>
       </c>
       <c r="B503">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C503" s="2">
-        <v>742.9439697265625</v>
+        <v>566.0339965820312</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -5928,10 +5928,10 @@
         <v>8</v>
       </c>
       <c r="B504">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C504" s="2">
-        <v>566.0339965820312</v>
+        <v>524.3790283203125</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -5939,10 +5939,10 @@
         <v>8</v>
       </c>
       <c r="B505">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C505" s="2">
-        <v>524.3790283203125</v>
+        <v>721.5009765625</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -5950,10 +5950,10 @@
         <v>8</v>
       </c>
       <c r="B506">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C506" s="2">
-        <v>721.5009765625</v>
+        <v>742.5960083007812</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -5961,10 +5961,10 @@
         <v>8</v>
       </c>
       <c r="B507">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C507" s="2">
-        <v>742.5960083007812</v>
+        <v>830.5700073242188</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -5972,10 +5972,10 @@
         <v>8</v>
       </c>
       <c r="B508">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C508" s="2">
-        <v>830.5700073242188</v>
+        <v>835.3410034179688</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -5983,10 +5983,10 @@
         <v>8</v>
       </c>
       <c r="B509">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C509" s="2">
-        <v>835.3410034179688</v>
+        <v>819.6900024414062</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -5994,10 +5994,10 @@
         <v>8</v>
       </c>
       <c r="B510">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C510" s="2">
-        <v>819.6900024414062</v>
+        <v>832.4940185546875</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -6005,10 +6005,10 @@
         <v>8</v>
       </c>
       <c r="B511">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C511" s="2">
-        <v>832.4940185546875</v>
+        <v>794.7990112304688</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -6016,10 +6016,10 @@
         <v>8</v>
       </c>
       <c r="B512">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C512" s="2">
-        <v>794.7990112304688</v>
+        <v>640.541015625</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -6027,10 +6027,10 @@
         <v>8</v>
       </c>
       <c r="B513">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C513" s="2">
-        <v>640.541015625</v>
+        <v>561.4390258789062</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -6038,10 +6038,10 @@
         <v>8</v>
       </c>
       <c r="B514">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C514" s="2">
-        <v>561.4390258789062</v>
+        <v>411.656005859375</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -6049,10 +6049,10 @@
         <v>8</v>
       </c>
       <c r="B515">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C515" s="2">
-        <v>411.656005859375</v>
+        <v>528.1749877929688</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -6060,10 +6060,10 @@
         <v>8</v>
       </c>
       <c r="B516">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C516" s="2">
-        <v>528.1749877929688</v>
+        <v>590.2769775390625</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -6071,10 +6071,10 @@
         <v>8</v>
       </c>
       <c r="B517">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C517" s="2">
-        <v>590.2769775390625</v>
+        <v>534.0889892578125</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -6082,10 +6082,10 @@
         <v>8</v>
       </c>
       <c r="B518">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C518" s="2">
-        <v>534.0889892578125</v>
+        <v>581.1489868164062</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -6093,10 +6093,10 @@
         <v>8</v>
       </c>
       <c r="B519">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C519" s="2">
-        <v>581.1489868164062</v>
+        <v>504.9289855957031</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -6104,10 +6104,10 @@
         <v>8</v>
       </c>
       <c r="B520">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C520" s="2">
-        <v>504.9289855957031</v>
+        <v>542.3150024414062</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -6115,10 +6115,10 @@
         <v>8</v>
       </c>
       <c r="B521">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C521" s="2">
-        <v>542.3150024414062</v>
+        <v>506.1380004882812</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -6126,10 +6126,10 @@
         <v>8</v>
       </c>
       <c r="B522">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C522" s="2">
-        <v>506.1380004882812</v>
+        <v>382.0799865722656</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -6137,10 +6137,10 @@
         <v>8</v>
       </c>
       <c r="B523">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C523" s="2">
-        <v>382.0799865722656</v>
+        <v>462.3399963378906</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -6148,10 +6148,10 @@
         <v>8</v>
       </c>
       <c r="B524">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C524" s="2">
-        <v>462.3399963378906</v>
+        <v>460.2109985351562</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -6159,10 +6159,10 @@
         <v>8</v>
       </c>
       <c r="B525">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C525" s="2">
-        <v>460.2109985351562</v>
+        <v>449.1050109863281</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -6170,10 +6170,10 @@
         <v>8</v>
       </c>
       <c r="B526">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C526" s="2">
-        <v>449.1050109863281</v>
+        <v>444.0750122070312</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -6181,10 +6181,10 @@
         <v>8</v>
       </c>
       <c r="B527">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C527" s="2">
-        <v>444.0750122070312</v>
+        <v>447.65100097